--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BlackDragoon\Desktop\PROJECT\PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3EA3F7-08F4-45CF-BB8B-A18922BF2A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09088938-63B3-40A7-8536-6F963CEEC90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7920" yWindow="1935" windowWidth="21585" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$60</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">GanttChartPro!$A$1:$C$47</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
@@ -453,7 +453,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="181">
   <si>
     <t>WBS</t>
   </si>
@@ -1533,103 +1533,127 @@
     <t>NZ Horse Racing</t>
   </si>
   <si>
-    <t>Information Gathering</t>
-  </si>
-  <si>
-    <t>Project Initialization</t>
-  </si>
-  <si>
-    <t>Solution Design</t>
-  </si>
-  <si>
-    <t>Development</t>
-  </si>
-  <si>
-    <t>Deployment</t>
+    <t>Business Use Case Narratives</t>
+  </si>
+  <si>
+    <t>Add Booking</t>
+  </si>
+  <si>
+    <t>Update Booking</t>
+  </si>
+  <si>
+    <t>Delete Booking</t>
+  </si>
+  <si>
+    <t>Add Horse</t>
+  </si>
+  <si>
+    <t>Update Horse</t>
+  </si>
+  <si>
+    <t>Delete Horse</t>
+  </si>
+  <si>
+    <t>Add Race Entry</t>
+  </si>
+  <si>
+    <t>Delete Race Entry</t>
+  </si>
+  <si>
+    <t>Gantt Chart</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>Sub Tasks</t>
+  </si>
+  <si>
+    <t>Version Control</t>
+  </si>
+  <si>
+    <t>System Use Case Narratives</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>Hardware Configuration</t>
+  </si>
+  <si>
+    <t>Network Configuration</t>
+  </si>
+  <si>
+    <t>Software Configuration</t>
+  </si>
+  <si>
+    <t>User Training</t>
+  </si>
+  <si>
+    <t>User Acceptance Testing</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>Analysis</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Technical Report</t>
+  </si>
+  <si>
+    <t>Plan Project</t>
+  </si>
+  <si>
+    <t>Risk Assessment</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>Use Case Diagram</t>
+  </si>
+  <si>
+    <t>Add Race Entry Horse</t>
+  </si>
+  <si>
+    <t>Delete Race Entry Horse</t>
+  </si>
+  <si>
+    <t>Activity Diagram</t>
+  </si>
+  <si>
+    <t>Sequence Diagram</t>
+  </si>
+  <si>
+    <t>Database Design</t>
+  </si>
+  <si>
+    <t>User Interface Design</t>
+  </si>
+  <si>
+    <t>User Interface</t>
+  </si>
+  <si>
+    <t>Training Material</t>
   </si>
   <si>
     <t>Maintenance</t>
-  </si>
-  <si>
-    <t>Requirements Collection</t>
-  </si>
-  <si>
-    <t>Business Use Case Narratives</t>
-  </si>
-  <si>
-    <t>Add Booking</t>
-  </si>
-  <si>
-    <t>Update Booking</t>
-  </si>
-  <si>
-    <t>Delete Booking</t>
-  </si>
-  <si>
-    <t>Add Horse</t>
-  </si>
-  <si>
-    <t>Update Horse</t>
-  </si>
-  <si>
-    <t>Delete Horse</t>
-  </si>
-  <si>
-    <t>Add Race Entry</t>
-  </si>
-  <si>
-    <t>Delete Race Entry</t>
-  </si>
-  <si>
-    <t>People</t>
-  </si>
-  <si>
-    <t>Gantt Chart</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Tasks</t>
-  </si>
-  <si>
-    <t>Sub Tasks</t>
-  </si>
-  <si>
-    <t>Identify Tools</t>
-  </si>
-  <si>
-    <t>Version Control</t>
-  </si>
-  <si>
-    <t>System Use Case Narratives</t>
-  </si>
-  <si>
-    <t>Interface Design</t>
-  </si>
-  <si>
-    <t>Data Base</t>
-  </si>
-  <si>
-    <t>Coding</t>
-  </si>
-  <si>
-    <t>Testing Use Case</t>
-  </si>
-  <si>
-    <t>Hardware Configuration</t>
-  </si>
-  <si>
-    <t>Network Configuration</t>
-  </si>
-  <si>
-    <t>Software Configuration</t>
-  </si>
-  <si>
-    <t>User Training</t>
-  </si>
-  <si>
-    <t>User Acceptance Testing</t>
   </si>
 </sst>
 </file>
@@ -3029,7 +3053,7 @@
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="103">
     <dxf>
       <border>
         <left style="thin">
@@ -3107,6 +3131,522 @@
           <bgColor theme="0" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -3551,8 +4091,8 @@
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>232833</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>80433</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4192,11 +4732,11 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN54"/>
+  <dimension ref="A1:BN74"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
+      <pane ySplit="7" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4978,7 +5518,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="79" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="C8" s="80"/>
       <c r="D8" s="81"/>
@@ -4990,7 +5530,7 @@
       <c r="G8" s="83"/>
       <c r="H8" s="84"/>
       <c r="I8" s="85" t="str">
-        <f t="shared" ref="I8:I39" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
+        <f t="shared" ref="I8:I58" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J8" s="88"/>
@@ -5051,31 +5591,31 @@
       <c r="BM8" s="98"/>
       <c r="BN8" s="98"/>
     </row>
-    <row r="9" spans="1:66" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="59" t="str">
-        <f t="shared" ref="A9:A10" si="5">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" ref="A9:A11" si="5">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
       </c>
       <c r="B9" s="117" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="D9" s="118"/>
       <c r="E9" s="93">
-        <v>43129</v>
+        <v>44459</v>
       </c>
       <c r="F9" s="94">
         <f>IF(ISBLANK(E9)," - ",IF(G9=0,E9,E9+G9-1))</f>
-        <v>43133</v>
+        <v>44460</v>
       </c>
       <c r="G9" s="61">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H9" s="62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J9" s="89"/>
       <c r="K9" s="99"/>
@@ -5135,31 +5675,31 @@
       <c r="BM9" s="99"/>
       <c r="BN9" s="99"/>
     </row>
-    <row r="10" spans="1:66" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="str">
         <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
       <c r="B10" s="117" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="D10" s="118"/>
       <c r="E10" s="93">
-        <v>43134</v>
+        <v>44459</v>
       </c>
       <c r="F10" s="94">
-        <f t="shared" ref="F10:F39" si="6">IF(ISBLANK(E10)," - ",IF(G10=0,E10,E10+G10-1))</f>
-        <v>43138</v>
+        <f>IF(ISBLANK(E10)," - ",IF(G10=0,E10,E10+G10-1))</f>
+        <v>44460</v>
       </c>
       <c r="G10" s="61">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H10" s="62">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="I10" s="63">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f t="shared" ref="I10" si="6">IF(OR(F10=0,E10=0)," - ",NETWORKDAYS(E10,F10))</f>
+        <v>2</v>
       </c>
       <c r="J10" s="89"/>
       <c r="K10" s="99"/>
@@ -5219,31 +5759,31 @@
       <c r="BM10" s="99"/>
       <c r="BN10" s="99"/>
     </row>
-    <row r="11" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:66" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.2.1</v>
-      </c>
-      <c r="B11" s="119" t="s">
-        <v>148</v>
+        <f t="shared" si="5"/>
+        <v>1.3</v>
+      </c>
+      <c r="B11" s="117" t="s">
+        <v>140</v>
       </c>
       <c r="D11" s="118"/>
       <c r="E11" s="93">
-        <v>43133</v>
+        <v>43134</v>
       </c>
       <c r="F11" s="94">
-        <f t="shared" ref="F11" si="7">IF(ISBLANK(E11)," - ",IF(G11=0,E11,E11+G11-1))</f>
-        <v>43134</v>
+        <f t="shared" ref="F11:F58" si="7">IF(ISBLANK(E11)," - ",IF(G11=0,E11,E11+G11-1))</f>
+        <v>43138</v>
       </c>
       <c r="G11" s="61">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H11" s="62">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I11" s="63">
-        <f t="shared" ref="I11" si="8">IF(OR(F11=0,E11=0)," - ",NETWORKDAYS(E11,F11))</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="J11" s="89"/>
       <c r="K11" s="99"/>
@@ -5305,11 +5845,11 @@
     </row>
     <row r="12" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.2.2</v>
+        <f t="shared" ref="A12:A19" si="8">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>1.3.1</v>
       </c>
       <c r="B12" s="119" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D12" s="118"/>
       <c r="E12" s="93">
@@ -5323,7 +5863,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="62">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ref="I12" si="10">IF(OR(F12=0,E12=0)," - ",NETWORKDAYS(E12,F12))</f>
@@ -5389,11 +5929,11 @@
     </row>
     <row r="13" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.2.3</v>
+        <f t="shared" si="8"/>
+        <v>1.3.2</v>
       </c>
       <c r="B13" s="119" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D13" s="118"/>
       <c r="E13" s="93">
@@ -5407,7 +5947,7 @@
         <v>2</v>
       </c>
       <c r="H13" s="62">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ref="I13" si="12">IF(OR(F13=0,E13=0)," - ",NETWORKDAYS(E13,F13))</f>
@@ -5473,11 +6013,11 @@
     </row>
     <row r="14" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.2.4</v>
+        <f t="shared" si="8"/>
+        <v>1.3.3</v>
       </c>
       <c r="B14" s="119" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D14" s="118"/>
       <c r="E14" s="93">
@@ -5491,7 +6031,7 @@
         <v>2</v>
       </c>
       <c r="H14" s="62">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ref="I14" si="14">IF(OR(F14=0,E14=0)," - ",NETWORKDAYS(E14,F14))</f>
@@ -5557,11 +6097,11 @@
     </row>
     <row r="15" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.2.5</v>
+        <f t="shared" si="8"/>
+        <v>1.3.4</v>
       </c>
       <c r="B15" s="119" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D15" s="118"/>
       <c r="E15" s="93">
@@ -5575,7 +6115,7 @@
         <v>2</v>
       </c>
       <c r="H15" s="62">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ref="I15" si="16">IF(OR(F15=0,E15=0)," - ",NETWORKDAYS(E15,F15))</f>
@@ -5641,11 +6181,11 @@
     </row>
     <row r="16" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.2.6</v>
+        <f t="shared" si="8"/>
+        <v>1.3.5</v>
       </c>
       <c r="B16" s="119" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D16" s="118"/>
       <c r="E16" s="93">
@@ -5659,7 +6199,7 @@
         <v>2</v>
       </c>
       <c r="H16" s="62">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ref="I16" si="18">IF(OR(F16=0,E16=0)," - ",NETWORKDAYS(E16,F16))</f>
@@ -5725,11 +6265,11 @@
     </row>
     <row r="17" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.2.7</v>
+        <f t="shared" si="8"/>
+        <v>1.3.6</v>
       </c>
       <c r="B17" s="119" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D17" s="118"/>
       <c r="E17" s="93">
@@ -5743,7 +6283,7 @@
         <v>2</v>
       </c>
       <c r="H17" s="62">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ref="I17" si="20">IF(OR(F17=0,E17=0)," - ",NETWORKDAYS(E17,F17))</f>
@@ -5809,11 +6349,11 @@
     </row>
     <row r="18" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.2.8</v>
+        <f t="shared" si="8"/>
+        <v>1.3.7</v>
       </c>
       <c r="B18" s="119" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D18" s="118"/>
       <c r="E18" s="93">
@@ -5827,7 +6367,7 @@
         <v>2</v>
       </c>
       <c r="H18" s="62">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ref="I18" si="22">IF(OR(F18=0,E18=0)," - ",NETWORKDAYS(E18,F18))</f>
@@ -5891,182 +6431,182 @@
       <c r="BM18" s="99"/>
       <c r="BN18" s="99"/>
     </row>
-    <row r="19" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="52" t="str">
+    <row r="19" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="59" t="str">
+        <f t="shared" si="8"/>
+        <v>1.3.8</v>
+      </c>
+      <c r="B19" s="119" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="118"/>
+      <c r="E19" s="93">
+        <v>43133</v>
+      </c>
+      <c r="F19" s="94">
+        <f t="shared" ref="F19" si="23">IF(ISBLANK(E19)," - ",IF(G19=0,E19,E19+G19-1))</f>
+        <v>43134</v>
+      </c>
+      <c r="G19" s="61">
+        <v>2</v>
+      </c>
+      <c r="H19" s="62">
+        <v>0</v>
+      </c>
+      <c r="I19" s="63">
+        <f t="shared" ref="I19" si="24">IF(OR(F19=0,E19=0)," - ",NETWORKDAYS(E19,F19))</f>
+        <v>1</v>
+      </c>
+      <c r="J19" s="89"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="99"/>
+      <c r="O19" s="99"/>
+      <c r="P19" s="99"/>
+      <c r="Q19" s="99"/>
+      <c r="R19" s="99"/>
+      <c r="S19" s="99"/>
+      <c r="T19" s="99"/>
+      <c r="U19" s="99"/>
+      <c r="V19" s="99"/>
+      <c r="W19" s="99"/>
+      <c r="X19" s="99"/>
+      <c r="Y19" s="99"/>
+      <c r="Z19" s="99"/>
+      <c r="AA19" s="99"/>
+      <c r="AB19" s="99"/>
+      <c r="AC19" s="99"/>
+      <c r="AD19" s="99"/>
+      <c r="AE19" s="99"/>
+      <c r="AF19" s="99"/>
+      <c r="AG19" s="99"/>
+      <c r="AH19" s="99"/>
+      <c r="AI19" s="99"/>
+      <c r="AJ19" s="99"/>
+      <c r="AK19" s="99"/>
+      <c r="AL19" s="99"/>
+      <c r="AM19" s="99"/>
+      <c r="AN19" s="99"/>
+      <c r="AO19" s="99"/>
+      <c r="AP19" s="99"/>
+      <c r="AQ19" s="99"/>
+      <c r="AR19" s="99"/>
+      <c r="AS19" s="99"/>
+      <c r="AT19" s="99"/>
+      <c r="AU19" s="99"/>
+      <c r="AV19" s="99"/>
+      <c r="AW19" s="99"/>
+      <c r="AX19" s="99"/>
+      <c r="AY19" s="99"/>
+      <c r="AZ19" s="99"/>
+      <c r="BA19" s="99"/>
+      <c r="BB19" s="99"/>
+      <c r="BC19" s="99"/>
+      <c r="BD19" s="99"/>
+      <c r="BE19" s="99"/>
+      <c r="BF19" s="99"/>
+      <c r="BG19" s="99"/>
+      <c r="BH19" s="99"/>
+      <c r="BI19" s="99"/>
+      <c r="BJ19" s="99"/>
+      <c r="BK19" s="99"/>
+      <c r="BL19" s="99"/>
+      <c r="BM19" s="99"/>
+      <c r="BN19" s="99"/>
+    </row>
+    <row r="20" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="52" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>2</v>
       </c>
-      <c r="B19" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="D19" s="55"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="95" t="str">
-        <f t="shared" si="6"/>
+      <c r="B20" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="D20" s="55"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95" t="str">
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G19" s="56"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="58" t="str">
+      <c r="G20" s="56"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="58" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J19" s="90"/>
-      <c r="K19" s="100"/>
-      <c r="L19" s="100"/>
-      <c r="M19" s="100"/>
-      <c r="N19" s="100"/>
-      <c r="O19" s="100"/>
-      <c r="P19" s="100"/>
-      <c r="Q19" s="100"/>
-      <c r="R19" s="100"/>
-      <c r="S19" s="100"/>
-      <c r="T19" s="100"/>
-      <c r="U19" s="100"/>
-      <c r="V19" s="100"/>
-      <c r="W19" s="100"/>
-      <c r="X19" s="100"/>
-      <c r="Y19" s="100"/>
-      <c r="Z19" s="100"/>
-      <c r="AA19" s="100"/>
-      <c r="AB19" s="100"/>
-      <c r="AC19" s="100"/>
-      <c r="AD19" s="100"/>
-      <c r="AE19" s="100"/>
-      <c r="AF19" s="100"/>
-      <c r="AG19" s="100"/>
-      <c r="AH19" s="100"/>
-      <c r="AI19" s="100"/>
-      <c r="AJ19" s="100"/>
-      <c r="AK19" s="100"/>
-      <c r="AL19" s="100"/>
-      <c r="AM19" s="100"/>
-      <c r="AN19" s="100"/>
-      <c r="AO19" s="100"/>
-      <c r="AP19" s="100"/>
-      <c r="AQ19" s="100"/>
-      <c r="AR19" s="100"/>
-      <c r="AS19" s="100"/>
-      <c r="AT19" s="100"/>
-      <c r="AU19" s="100"/>
-      <c r="AV19" s="100"/>
-      <c r="AW19" s="100"/>
-      <c r="AX19" s="100"/>
-      <c r="AY19" s="100"/>
-      <c r="AZ19" s="100"/>
-      <c r="BA19" s="100"/>
-      <c r="BB19" s="100"/>
-      <c r="BC19" s="100"/>
-      <c r="BD19" s="100"/>
-      <c r="BE19" s="100"/>
-      <c r="BF19" s="100"/>
-      <c r="BG19" s="100"/>
-      <c r="BH19" s="100"/>
-      <c r="BI19" s="100"/>
-      <c r="BJ19" s="100"/>
-      <c r="BK19" s="100"/>
-      <c r="BL19" s="100"/>
-      <c r="BM19" s="100"/>
-      <c r="BN19" s="100"/>
-    </row>
-    <row r="20" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.1</v>
-      </c>
-      <c r="B20" s="117" t="s">
-        <v>156</v>
-      </c>
-      <c r="D20" s="118"/>
-      <c r="E20" s="93">
-        <v>43141</v>
-      </c>
-      <c r="F20" s="94">
-        <f t="shared" si="6"/>
-        <v>43144</v>
-      </c>
-      <c r="G20" s="61">
-        <v>4</v>
-      </c>
-      <c r="H20" s="62">
-        <v>0</v>
-      </c>
-      <c r="I20" s="63">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="J20" s="89"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="99"/>
-      <c r="N20" s="99"/>
-      <c r="O20" s="99"/>
-      <c r="P20" s="99"/>
-      <c r="Q20" s="99"/>
-      <c r="R20" s="99"/>
-      <c r="S20" s="99"/>
-      <c r="T20" s="99"/>
-      <c r="U20" s="99"/>
-      <c r="V20" s="99"/>
-      <c r="W20" s="99"/>
-      <c r="X20" s="99"/>
-      <c r="Y20" s="99"/>
-      <c r="Z20" s="99"/>
-      <c r="AA20" s="99"/>
-      <c r="AB20" s="99"/>
-      <c r="AC20" s="99"/>
-      <c r="AD20" s="99"/>
-      <c r="AE20" s="99"/>
-      <c r="AF20" s="99"/>
-      <c r="AG20" s="99"/>
-      <c r="AH20" s="99"/>
-      <c r="AI20" s="99"/>
-      <c r="AJ20" s="99"/>
-      <c r="AK20" s="99"/>
-      <c r="AL20" s="99"/>
-      <c r="AM20" s="99"/>
-      <c r="AN20" s="99"/>
-      <c r="AO20" s="99"/>
-      <c r="AP20" s="99"/>
-      <c r="AQ20" s="99"/>
-      <c r="AR20" s="99"/>
-      <c r="AS20" s="99"/>
-      <c r="AT20" s="99"/>
-      <c r="AU20" s="99"/>
-      <c r="AV20" s="99"/>
-      <c r="AW20" s="99"/>
-      <c r="AX20" s="99"/>
-      <c r="AY20" s="99"/>
-      <c r="AZ20" s="99"/>
-      <c r="BA20" s="99"/>
-      <c r="BB20" s="99"/>
-      <c r="BC20" s="99"/>
-      <c r="BD20" s="99"/>
-      <c r="BE20" s="99"/>
-      <c r="BF20" s="99"/>
-      <c r="BG20" s="99"/>
-      <c r="BH20" s="99"/>
-      <c r="BI20" s="99"/>
-      <c r="BJ20" s="99"/>
-      <c r="BK20" s="99"/>
-      <c r="BL20" s="99"/>
-      <c r="BM20" s="99"/>
-      <c r="BN20" s="99"/>
+      <c r="J20" s="90"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="100"/>
+      <c r="M20" s="100"/>
+      <c r="N20" s="100"/>
+      <c r="O20" s="100"/>
+      <c r="P20" s="100"/>
+      <c r="Q20" s="100"/>
+      <c r="R20" s="100"/>
+      <c r="S20" s="100"/>
+      <c r="T20" s="100"/>
+      <c r="U20" s="100"/>
+      <c r="V20" s="100"/>
+      <c r="W20" s="100"/>
+      <c r="X20" s="100"/>
+      <c r="Y20" s="100"/>
+      <c r="Z20" s="100"/>
+      <c r="AA20" s="100"/>
+      <c r="AB20" s="100"/>
+      <c r="AC20" s="100"/>
+      <c r="AD20" s="100"/>
+      <c r="AE20" s="100"/>
+      <c r="AF20" s="100"/>
+      <c r="AG20" s="100"/>
+      <c r="AH20" s="100"/>
+      <c r="AI20" s="100"/>
+      <c r="AJ20" s="100"/>
+      <c r="AK20" s="100"/>
+      <c r="AL20" s="100"/>
+      <c r="AM20" s="100"/>
+      <c r="AN20" s="100"/>
+      <c r="AO20" s="100"/>
+      <c r="AP20" s="100"/>
+      <c r="AQ20" s="100"/>
+      <c r="AR20" s="100"/>
+      <c r="AS20" s="100"/>
+      <c r="AT20" s="100"/>
+      <c r="AU20" s="100"/>
+      <c r="AV20" s="100"/>
+      <c r="AW20" s="100"/>
+      <c r="AX20" s="100"/>
+      <c r="AY20" s="100"/>
+      <c r="AZ20" s="100"/>
+      <c r="BA20" s="100"/>
+      <c r="BB20" s="100"/>
+      <c r="BC20" s="100"/>
+      <c r="BD20" s="100"/>
+      <c r="BE20" s="100"/>
+      <c r="BF20" s="100"/>
+      <c r="BG20" s="100"/>
+      <c r="BH20" s="100"/>
+      <c r="BI20" s="100"/>
+      <c r="BJ20" s="100"/>
+      <c r="BK20" s="100"/>
+      <c r="BL20" s="100"/>
+      <c r="BM20" s="100"/>
+      <c r="BN20" s="100"/>
     </row>
     <row r="21" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="B21" s="117" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D21" s="118"/>
       <c r="E21" s="93">
         <v>43145</v>
       </c>
       <c r="F21" s="94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43147</v>
       </c>
       <c r="G21" s="61">
@@ -6140,24 +6680,24 @@
     <row r="22" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>2.2.1</v>
+        <v>2.1.1</v>
       </c>
       <c r="B22" s="119" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D22" s="118"/>
       <c r="E22" s="93">
         <v>43133</v>
       </c>
       <c r="F22" s="94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43134</v>
       </c>
       <c r="G22" s="61">
         <v>2</v>
       </c>
       <c r="H22" s="62">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" si="4"/>
@@ -6224,27 +6764,27 @@
     <row r="23" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>2.2.2</v>
+        <v>2.1.2</v>
       </c>
       <c r="B23" s="119" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D23" s="118"/>
       <c r="E23" s="93">
         <v>43133</v>
       </c>
       <c r="F23" s="94">
-        <f t="shared" ref="F23" si="23">IF(ISBLANK(E23)," - ",IF(G23=0,E23,E23+G23-1))</f>
+        <f t="shared" ref="F23" si="25">IF(ISBLANK(E23)," - ",IF(G23=0,E23,E23+G23-1))</f>
         <v>43134</v>
       </c>
       <c r="G23" s="61">
         <v>2</v>
       </c>
       <c r="H23" s="62">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I23" s="63">
-        <f t="shared" ref="I23" si="24">IF(OR(F23=0,E23=0)," - ",NETWORKDAYS(E23,F23))</f>
+        <f t="shared" ref="I23" si="26">IF(OR(F23=0,E23=0)," - ",NETWORKDAYS(E23,F23))</f>
         <v>1</v>
       </c>
       <c r="J23" s="89"/>
@@ -6308,27 +6848,27 @@
     <row r="24" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>2.2.3</v>
+        <v>2.1.3</v>
       </c>
       <c r="B24" s="119" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D24" s="118"/>
       <c r="E24" s="93">
         <v>43133</v>
       </c>
       <c r="F24" s="94">
-        <f t="shared" ref="F24" si="25">IF(ISBLANK(E24)," - ",IF(G24=0,E24,E24+G24-1))</f>
+        <f t="shared" ref="F24" si="27">IF(ISBLANK(E24)," - ",IF(G24=0,E24,E24+G24-1))</f>
         <v>43134</v>
       </c>
       <c r="G24" s="61">
         <v>2</v>
       </c>
       <c r="H24" s="62">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I24" s="63">
-        <f t="shared" ref="I24" si="26">IF(OR(F24=0,E24=0)," - ",NETWORKDAYS(E24,F24))</f>
+        <f t="shared" ref="I24" si="28">IF(OR(F24=0,E24=0)," - ",NETWORKDAYS(E24,F24))</f>
         <v>1</v>
       </c>
       <c r="J24" s="89"/>
@@ -6392,17 +6932,17 @@
     <row r="25" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="B25" s="117" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D25" s="118"/>
       <c r="E25" s="93">
         <v>43145</v>
       </c>
       <c r="F25" s="94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43147</v>
       </c>
       <c r="G25" s="61">
@@ -6476,17 +7016,17 @@
     <row r="26" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="B26" s="117" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D26" s="118"/>
       <c r="E26" s="93">
         <v>43148</v>
       </c>
       <c r="F26" s="94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43153</v>
       </c>
       <c r="G26" s="61">
@@ -6559,28 +7099,28 @@
     </row>
     <row r="27" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.5</v>
-      </c>
-      <c r="B27" s="117" t="s">
-        <v>8</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>2.3.1</v>
+      </c>
+      <c r="B27" s="119" t="s">
+        <v>169</v>
       </c>
       <c r="D27" s="118"/>
       <c r="E27" s="93">
-        <v>43154</v>
+        <v>43133</v>
       </c>
       <c r="F27" s="94">
-        <f t="shared" si="6"/>
-        <v>43156</v>
+        <f t="shared" ref="F27:F28" si="29">IF(ISBLANK(E27)," - ",IF(G27=0,E27,E27+G27-1))</f>
+        <v>43134</v>
       </c>
       <c r="G27" s="61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H27" s="62">
         <v>0</v>
       </c>
       <c r="I27" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I27:I28" si="30">IF(OR(F27=0,E27=0)," - ",NETWORKDAYS(E27,F27))</f>
         <v>1</v>
       </c>
       <c r="J27" s="89"/>
@@ -6641,109 +7181,115 @@
       <c r="BM27" s="99"/>
       <c r="BN27" s="99"/>
     </row>
-    <row r="28" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" s="52" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>3</v>
-      </c>
-      <c r="B28" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="D28" s="55"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="95" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G28" s="56"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="58" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J28" s="90"/>
-      <c r="K28" s="100"/>
-      <c r="L28" s="100"/>
-      <c r="M28" s="100"/>
-      <c r="N28" s="100"/>
-      <c r="O28" s="100"/>
-      <c r="P28" s="100"/>
-      <c r="Q28" s="100"/>
-      <c r="R28" s="100"/>
-      <c r="S28" s="100"/>
-      <c r="T28" s="100"/>
-      <c r="U28" s="100"/>
-      <c r="V28" s="100"/>
-      <c r="W28" s="100"/>
-      <c r="X28" s="100"/>
-      <c r="Y28" s="100"/>
-      <c r="Z28" s="100"/>
-      <c r="AA28" s="100"/>
-      <c r="AB28" s="100"/>
-      <c r="AC28" s="100"/>
-      <c r="AD28" s="100"/>
-      <c r="AE28" s="100"/>
-      <c r="AF28" s="100"/>
-      <c r="AG28" s="100"/>
-      <c r="AH28" s="100"/>
-      <c r="AI28" s="100"/>
-      <c r="AJ28" s="100"/>
-      <c r="AK28" s="100"/>
-      <c r="AL28" s="100"/>
-      <c r="AM28" s="100"/>
-      <c r="AN28" s="100"/>
-      <c r="AO28" s="100"/>
-      <c r="AP28" s="100"/>
-      <c r="AQ28" s="100"/>
-      <c r="AR28" s="100"/>
-      <c r="AS28" s="100"/>
-      <c r="AT28" s="100"/>
-      <c r="AU28" s="100"/>
-      <c r="AV28" s="100"/>
-      <c r="AW28" s="100"/>
-      <c r="AX28" s="100"/>
-      <c r="AY28" s="100"/>
-      <c r="AZ28" s="100"/>
-      <c r="BA28" s="100"/>
-      <c r="BB28" s="100"/>
-      <c r="BC28" s="100"/>
-      <c r="BD28" s="100"/>
-      <c r="BE28" s="100"/>
-      <c r="BF28" s="100"/>
-      <c r="BG28" s="100"/>
-      <c r="BH28" s="100"/>
-      <c r="BI28" s="100"/>
-      <c r="BJ28" s="100"/>
-      <c r="BK28" s="100"/>
-      <c r="BL28" s="100"/>
-      <c r="BM28" s="100"/>
-      <c r="BN28" s="100"/>
-    </row>
-    <row r="29" spans="1:66" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>2.3.2</v>
+      </c>
+      <c r="B28" s="119" t="s">
+        <v>170</v>
+      </c>
+      <c r="D28" s="118"/>
+      <c r="E28" s="93">
+        <v>43133</v>
+      </c>
+      <c r="F28" s="94">
+        <f t="shared" si="29"/>
+        <v>43134</v>
+      </c>
+      <c r="G28" s="61">
+        <v>2</v>
+      </c>
+      <c r="H28" s="62">
+        <v>0</v>
+      </c>
+      <c r="I28" s="63">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="J28" s="89"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="99"/>
+      <c r="M28" s="99"/>
+      <c r="N28" s="99"/>
+      <c r="O28" s="99"/>
+      <c r="P28" s="99"/>
+      <c r="Q28" s="99"/>
+      <c r="R28" s="99"/>
+      <c r="S28" s="99"/>
+      <c r="T28" s="99"/>
+      <c r="U28" s="99"/>
+      <c r="V28" s="99"/>
+      <c r="W28" s="99"/>
+      <c r="X28" s="99"/>
+      <c r="Y28" s="99"/>
+      <c r="Z28" s="99"/>
+      <c r="AA28" s="99"/>
+      <c r="AB28" s="99"/>
+      <c r="AC28" s="99"/>
+      <c r="AD28" s="99"/>
+      <c r="AE28" s="99"/>
+      <c r="AF28" s="99"/>
+      <c r="AG28" s="99"/>
+      <c r="AH28" s="99"/>
+      <c r="AI28" s="99"/>
+      <c r="AJ28" s="99"/>
+      <c r="AK28" s="99"/>
+      <c r="AL28" s="99"/>
+      <c r="AM28" s="99"/>
+      <c r="AN28" s="99"/>
+      <c r="AO28" s="99"/>
+      <c r="AP28" s="99"/>
+      <c r="AQ28" s="99"/>
+      <c r="AR28" s="99"/>
+      <c r="AS28" s="99"/>
+      <c r="AT28" s="99"/>
+      <c r="AU28" s="99"/>
+      <c r="AV28" s="99"/>
+      <c r="AW28" s="99"/>
+      <c r="AX28" s="99"/>
+      <c r="AY28" s="99"/>
+      <c r="AZ28" s="99"/>
+      <c r="BA28" s="99"/>
+      <c r="BB28" s="99"/>
+      <c r="BC28" s="99"/>
+      <c r="BD28" s="99"/>
+      <c r="BE28" s="99"/>
+      <c r="BF28" s="99"/>
+      <c r="BG28" s="99"/>
+      <c r="BH28" s="99"/>
+      <c r="BI28" s="99"/>
+      <c r="BJ28" s="99"/>
+      <c r="BK28" s="99"/>
+      <c r="BL28" s="99"/>
+      <c r="BM28" s="99"/>
+      <c r="BN28" s="99"/>
+    </row>
+    <row r="29" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="B29" s="117" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D29" s="118"/>
       <c r="E29" s="93">
-        <v>43141</v>
+        <v>43154</v>
       </c>
       <c r="F29" s="94">
-        <f t="shared" si="6"/>
-        <v>43144</v>
+        <f t="shared" si="7"/>
+        <v>43156</v>
       </c>
       <c r="G29" s="61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H29" s="62">
         <v>0</v>
       </c>
       <c r="I29" s="63">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29" s="89"/>
       <c r="K29" s="99"/>
@@ -6803,115 +7349,109 @@
       <c r="BM29" s="99"/>
       <c r="BN29" s="99"/>
     </row>
-    <row r="30" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.2</v>
-      </c>
-      <c r="B30" s="117" t="s">
-        <v>164</v>
-      </c>
-      <c r="D30" s="118"/>
-      <c r="E30" s="93">
-        <v>43145</v>
-      </c>
-      <c r="F30" s="94">
-        <f t="shared" si="6"/>
-        <v>43147</v>
-      </c>
-      <c r="G30" s="61">
+    <row r="30" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" s="52" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>3</v>
       </c>
-      <c r="H30" s="62">
-        <v>0</v>
-      </c>
-      <c r="I30" s="63">
+      <c r="B30" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="D30" s="55"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="95" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G30" s="56"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="58" t="str">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="J30" s="89"/>
-      <c r="K30" s="99"/>
-      <c r="L30" s="99"/>
-      <c r="M30" s="99"/>
-      <c r="N30" s="99"/>
-      <c r="O30" s="99"/>
-      <c r="P30" s="99"/>
-      <c r="Q30" s="99"/>
-      <c r="R30" s="99"/>
-      <c r="S30" s="99"/>
-      <c r="T30" s="99"/>
-      <c r="U30" s="99"/>
-      <c r="V30" s="99"/>
-      <c r="W30" s="99"/>
-      <c r="X30" s="99"/>
-      <c r="Y30" s="99"/>
-      <c r="Z30" s="99"/>
-      <c r="AA30" s="99"/>
-      <c r="AB30" s="99"/>
-      <c r="AC30" s="99"/>
-      <c r="AD30" s="99"/>
-      <c r="AE30" s="99"/>
-      <c r="AF30" s="99"/>
-      <c r="AG30" s="99"/>
-      <c r="AH30" s="99"/>
-      <c r="AI30" s="99"/>
-      <c r="AJ30" s="99"/>
-      <c r="AK30" s="99"/>
-      <c r="AL30" s="99"/>
-      <c r="AM30" s="99"/>
-      <c r="AN30" s="99"/>
-      <c r="AO30" s="99"/>
-      <c r="AP30" s="99"/>
-      <c r="AQ30" s="99"/>
-      <c r="AR30" s="99"/>
-      <c r="AS30" s="99"/>
-      <c r="AT30" s="99"/>
-      <c r="AU30" s="99"/>
-      <c r="AV30" s="99"/>
-      <c r="AW30" s="99"/>
-      <c r="AX30" s="99"/>
-      <c r="AY30" s="99"/>
-      <c r="AZ30" s="99"/>
-      <c r="BA30" s="99"/>
-      <c r="BB30" s="99"/>
-      <c r="BC30" s="99"/>
-      <c r="BD30" s="99"/>
-      <c r="BE30" s="99"/>
-      <c r="BF30" s="99"/>
-      <c r="BG30" s="99"/>
-      <c r="BH30" s="99"/>
-      <c r="BI30" s="99"/>
-      <c r="BJ30" s="99"/>
-      <c r="BK30" s="99"/>
-      <c r="BL30" s="99"/>
-      <c r="BM30" s="99"/>
-      <c r="BN30" s="99"/>
-    </row>
-    <row r="31" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J30" s="90"/>
+      <c r="K30" s="100"/>
+      <c r="L30" s="100"/>
+      <c r="M30" s="100"/>
+      <c r="N30" s="100"/>
+      <c r="O30" s="100"/>
+      <c r="P30" s="100"/>
+      <c r="Q30" s="100"/>
+      <c r="R30" s="100"/>
+      <c r="S30" s="100"/>
+      <c r="T30" s="100"/>
+      <c r="U30" s="100"/>
+      <c r="V30" s="100"/>
+      <c r="W30" s="100"/>
+      <c r="X30" s="100"/>
+      <c r="Y30" s="100"/>
+      <c r="Z30" s="100"/>
+      <c r="AA30" s="100"/>
+      <c r="AB30" s="100"/>
+      <c r="AC30" s="100"/>
+      <c r="AD30" s="100"/>
+      <c r="AE30" s="100"/>
+      <c r="AF30" s="100"/>
+      <c r="AG30" s="100"/>
+      <c r="AH30" s="100"/>
+      <c r="AI30" s="100"/>
+      <c r="AJ30" s="100"/>
+      <c r="AK30" s="100"/>
+      <c r="AL30" s="100"/>
+      <c r="AM30" s="100"/>
+      <c r="AN30" s="100"/>
+      <c r="AO30" s="100"/>
+      <c r="AP30" s="100"/>
+      <c r="AQ30" s="100"/>
+      <c r="AR30" s="100"/>
+      <c r="AS30" s="100"/>
+      <c r="AT30" s="100"/>
+      <c r="AU30" s="100"/>
+      <c r="AV30" s="100"/>
+      <c r="AW30" s="100"/>
+      <c r="AX30" s="100"/>
+      <c r="AY30" s="100"/>
+      <c r="AZ30" s="100"/>
+      <c r="BA30" s="100"/>
+      <c r="BB30" s="100"/>
+      <c r="BC30" s="100"/>
+      <c r="BD30" s="100"/>
+      <c r="BE30" s="100"/>
+      <c r="BF30" s="100"/>
+      <c r="BG30" s="100"/>
+      <c r="BH30" s="100"/>
+      <c r="BI30" s="100"/>
+      <c r="BJ30" s="100"/>
+      <c r="BK30" s="100"/>
+      <c r="BL30" s="100"/>
+      <c r="BM30" s="100"/>
+      <c r="BN30" s="100"/>
+    </row>
+    <row r="31" spans="1:66" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A31" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="B31" s="117" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D31" s="118"/>
       <c r="E31" s="93">
-        <v>43145</v>
+        <v>43141</v>
       </c>
       <c r="F31" s="94">
-        <f t="shared" si="6"/>
-        <v>43147</v>
+        <f t="shared" si="7"/>
+        <v>43144</v>
       </c>
       <c r="G31" s="61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H31" s="62">
         <v>0</v>
       </c>
       <c r="I31" s="63">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J31" s="89"/>
       <c r="K31" s="99"/>
@@ -6973,29 +7513,29 @@
     </row>
     <row r="32" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.4</v>
-      </c>
-      <c r="B32" s="117" t="s">
-        <v>8</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.1.1</v>
+      </c>
+      <c r="B32" s="119" t="s">
+        <v>141</v>
       </c>
       <c r="D32" s="118"/>
       <c r="E32" s="93">
-        <v>43148</v>
+        <v>43133</v>
       </c>
       <c r="F32" s="94">
-        <f t="shared" si="6"/>
-        <v>43153</v>
+        <f t="shared" si="7"/>
+        <v>43134</v>
       </c>
       <c r="G32" s="61">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H32" s="62">
         <v>0</v>
       </c>
       <c r="I32" s="63">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J32" s="89"/>
       <c r="K32" s="99"/>
@@ -7057,28 +7597,28 @@
     </row>
     <row r="33" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.5</v>
-      </c>
-      <c r="B33" s="117" t="s">
-        <v>8</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.1.2</v>
+      </c>
+      <c r="B33" s="119" t="s">
+        <v>142</v>
       </c>
       <c r="D33" s="118"/>
       <c r="E33" s="93">
-        <v>43154</v>
+        <v>43133</v>
       </c>
       <c r="F33" s="94">
-        <f t="shared" si="6"/>
-        <v>43156</v>
+        <f t="shared" ref="F33:F34" si="31">IF(ISBLANK(E33)," - ",IF(G33=0,E33,E33+G33-1))</f>
+        <v>43134</v>
       </c>
       <c r="G33" s="61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H33" s="62">
         <v>0</v>
       </c>
       <c r="I33" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I33:I34" si="32">IF(OR(F33=0,E33=0)," - ",NETWORKDAYS(E33,F33))</f>
         <v>1</v>
       </c>
       <c r="J33" s="89"/>
@@ -7139,108 +7679,114 @@
       <c r="BM33" s="99"/>
       <c r="BN33" s="99"/>
     </row>
-    <row r="34" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A34" s="52" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>4</v>
-      </c>
-      <c r="B34" s="53" t="s">
+    <row r="34" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.1.3</v>
+      </c>
+      <c r="B34" s="119" t="s">
         <v>143</v>
       </c>
-      <c r="D34" s="55"/>
-      <c r="E34" s="95"/>
-      <c r="F34" s="95" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G34" s="56"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="58" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J34" s="90"/>
-      <c r="K34" s="100"/>
-      <c r="L34" s="100"/>
-      <c r="M34" s="100"/>
-      <c r="N34" s="100"/>
-      <c r="O34" s="100"/>
-      <c r="P34" s="100"/>
-      <c r="Q34" s="100"/>
-      <c r="R34" s="100"/>
-      <c r="S34" s="100"/>
-      <c r="T34" s="100"/>
-      <c r="U34" s="100"/>
-      <c r="V34" s="100"/>
-      <c r="W34" s="100"/>
-      <c r="X34" s="100"/>
-      <c r="Y34" s="100"/>
-      <c r="Z34" s="100"/>
-      <c r="AA34" s="100"/>
-      <c r="AB34" s="100"/>
-      <c r="AC34" s="100"/>
-      <c r="AD34" s="100"/>
-      <c r="AE34" s="100"/>
-      <c r="AF34" s="100"/>
-      <c r="AG34" s="100"/>
-      <c r="AH34" s="100"/>
-      <c r="AI34" s="100"/>
-      <c r="AJ34" s="100"/>
-      <c r="AK34" s="100"/>
-      <c r="AL34" s="100"/>
-      <c r="AM34" s="100"/>
-      <c r="AN34" s="100"/>
-      <c r="AO34" s="100"/>
-      <c r="AP34" s="100"/>
-      <c r="AQ34" s="100"/>
-      <c r="AR34" s="100"/>
-      <c r="AS34" s="100"/>
-      <c r="AT34" s="100"/>
-      <c r="AU34" s="100"/>
-      <c r="AV34" s="100"/>
-      <c r="AW34" s="100"/>
-      <c r="AX34" s="100"/>
-      <c r="AY34" s="100"/>
-      <c r="AZ34" s="100"/>
-      <c r="BA34" s="100"/>
-      <c r="BB34" s="100"/>
-      <c r="BC34" s="100"/>
-      <c r="BD34" s="100"/>
-      <c r="BE34" s="100"/>
-      <c r="BF34" s="100"/>
-      <c r="BG34" s="100"/>
-      <c r="BH34" s="100"/>
-      <c r="BI34" s="100"/>
-      <c r="BJ34" s="100"/>
-      <c r="BK34" s="100"/>
-      <c r="BL34" s="100"/>
-      <c r="BM34" s="100"/>
-      <c r="BN34" s="100"/>
+      <c r="D34" s="118"/>
+      <c r="E34" s="93">
+        <v>43133</v>
+      </c>
+      <c r="F34" s="94">
+        <f t="shared" si="31"/>
+        <v>43134</v>
+      </c>
+      <c r="G34" s="61">
+        <v>2</v>
+      </c>
+      <c r="H34" s="62">
+        <v>0</v>
+      </c>
+      <c r="I34" s="63">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="J34" s="89"/>
+      <c r="K34" s="99"/>
+      <c r="L34" s="99"/>
+      <c r="M34" s="99"/>
+      <c r="N34" s="99"/>
+      <c r="O34" s="99"/>
+      <c r="P34" s="99"/>
+      <c r="Q34" s="99"/>
+      <c r="R34" s="99"/>
+      <c r="S34" s="99"/>
+      <c r="T34" s="99"/>
+      <c r="U34" s="99"/>
+      <c r="V34" s="99"/>
+      <c r="W34" s="99"/>
+      <c r="X34" s="99"/>
+      <c r="Y34" s="99"/>
+      <c r="Z34" s="99"/>
+      <c r="AA34" s="99"/>
+      <c r="AB34" s="99"/>
+      <c r="AC34" s="99"/>
+      <c r="AD34" s="99"/>
+      <c r="AE34" s="99"/>
+      <c r="AF34" s="99"/>
+      <c r="AG34" s="99"/>
+      <c r="AH34" s="99"/>
+      <c r="AI34" s="99"/>
+      <c r="AJ34" s="99"/>
+      <c r="AK34" s="99"/>
+      <c r="AL34" s="99"/>
+      <c r="AM34" s="99"/>
+      <c r="AN34" s="99"/>
+      <c r="AO34" s="99"/>
+      <c r="AP34" s="99"/>
+      <c r="AQ34" s="99"/>
+      <c r="AR34" s="99"/>
+      <c r="AS34" s="99"/>
+      <c r="AT34" s="99"/>
+      <c r="AU34" s="99"/>
+      <c r="AV34" s="99"/>
+      <c r="AW34" s="99"/>
+      <c r="AX34" s="99"/>
+      <c r="AY34" s="99"/>
+      <c r="AZ34" s="99"/>
+      <c r="BA34" s="99"/>
+      <c r="BB34" s="99"/>
+      <c r="BC34" s="99"/>
+      <c r="BD34" s="99"/>
+      <c r="BE34" s="99"/>
+      <c r="BF34" s="99"/>
+      <c r="BG34" s="99"/>
+      <c r="BH34" s="99"/>
+      <c r="BI34" s="99"/>
+      <c r="BJ34" s="99"/>
+      <c r="BK34" s="99"/>
+      <c r="BL34" s="99"/>
+      <c r="BM34" s="99"/>
+      <c r="BN34" s="99"/>
     </row>
     <row r="35" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.1</v>
-      </c>
-      <c r="B35" s="117" t="s">
-        <v>166</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.1.4</v>
+      </c>
+      <c r="B35" s="119" t="s">
+        <v>144</v>
       </c>
       <c r="D35" s="118"/>
       <c r="E35" s="93">
-        <v>43129</v>
+        <v>43133</v>
       </c>
       <c r="F35" s="94">
-        <f t="shared" si="6"/>
-        <v>43129</v>
+        <f t="shared" ref="F35" si="33">IF(ISBLANK(E35)," - ",IF(G35=0,E35,E35+G35-1))</f>
+        <v>43134</v>
       </c>
       <c r="G35" s="61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35" s="62">
         <v>0</v>
       </c>
       <c r="I35" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I35" si="34">IF(OR(F35=0,E35=0)," - ",NETWORKDAYS(E35,F35))</f>
         <v>1</v>
       </c>
       <c r="J35" s="89"/>
@@ -7303,28 +7849,28 @@
     </row>
     <row r="36" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.2</v>
-      </c>
-      <c r="B36" s="117" t="s">
-        <v>167</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.1.5</v>
+      </c>
+      <c r="B36" s="119" t="s">
+        <v>145</v>
       </c>
       <c r="D36" s="118"/>
       <c r="E36" s="93">
-        <v>43130</v>
+        <v>43133</v>
       </c>
       <c r="F36" s="94">
-        <f t="shared" si="6"/>
-        <v>43130</v>
+        <f t="shared" ref="F36" si="35">IF(ISBLANK(E36)," - ",IF(G36=0,E36,E36+G36-1))</f>
+        <v>43134</v>
       </c>
       <c r="G36" s="61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H36" s="62">
         <v>0</v>
       </c>
       <c r="I36" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I36" si="36">IF(OR(F36=0,E36=0)," - ",NETWORKDAYS(E36,F36))</f>
         <v>1</v>
       </c>
       <c r="J36" s="89"/>
@@ -7387,28 +7933,28 @@
     </row>
     <row r="37" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.3</v>
-      </c>
-      <c r="B37" s="117" t="s">
-        <v>8</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.1.6</v>
+      </c>
+      <c r="B37" s="119" t="s">
+        <v>146</v>
       </c>
       <c r="D37" s="118"/>
       <c r="E37" s="93">
-        <v>43131</v>
+        <v>43133</v>
       </c>
       <c r="F37" s="94">
-        <f t="shared" si="6"/>
-        <v>43131</v>
+        <f t="shared" ref="F37" si="37">IF(ISBLANK(E37)," - ",IF(G37=0,E37,E37+G37-1))</f>
+        <v>43134</v>
       </c>
       <c r="G37" s="61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37" s="62">
         <v>0</v>
       </c>
       <c r="I37" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I37" si="38">IF(OR(F37=0,E37=0)," - ",NETWORKDAYS(E37,F37))</f>
         <v>1</v>
       </c>
       <c r="J37" s="89"/>
@@ -7469,30 +8015,30 @@
       <c r="BM37" s="99"/>
       <c r="BN37" s="99"/>
     </row>
-    <row r="38" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:66" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A38" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.4</v>
-      </c>
-      <c r="B38" s="117" t="s">
-        <v>8</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.1.7</v>
+      </c>
+      <c r="B38" s="119" t="s">
+        <v>172</v>
       </c>
       <c r="D38" s="118"/>
       <c r="E38" s="93">
-        <v>43132</v>
+        <v>43133</v>
       </c>
       <c r="F38" s="94">
-        <f t="shared" si="6"/>
-        <v>43132</v>
+        <f t="shared" ref="F38" si="39">IF(ISBLANK(E38)," - ",IF(G38=0,E38,E38+G38-1))</f>
+        <v>43134</v>
       </c>
       <c r="G38" s="61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H38" s="62">
         <v>0</v>
       </c>
       <c r="I38" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I38" si="40">IF(OR(F38=0,E38=0)," - ",NETWORKDAYS(E38,F38))</f>
         <v>1</v>
       </c>
       <c r="J38" s="89"/>
@@ -7553,30 +8099,30 @@
       <c r="BM38" s="99"/>
       <c r="BN38" s="99"/>
     </row>
-    <row r="39" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:66" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A39" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.5</v>
-      </c>
-      <c r="B39" s="117" t="s">
-        <v>8</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.1.8</v>
+      </c>
+      <c r="B39" s="119" t="s">
+        <v>173</v>
       </c>
       <c r="D39" s="118"/>
       <c r="E39" s="93">
         <v>43133</v>
       </c>
       <c r="F39" s="94">
-        <f t="shared" si="6"/>
-        <v>43133</v>
+        <f t="shared" ref="F39" si="41">IF(ISBLANK(E39)," - ",IF(G39=0,E39,E39+G39-1))</f>
+        <v>43134</v>
       </c>
       <c r="G39" s="61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39" s="62">
         <v>0</v>
       </c>
       <c r="I39" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I39" si="42">IF(OR(F39=0,E39=0)," - ",NETWORKDAYS(E39,F39))</f>
         <v>1</v>
       </c>
       <c r="J39" s="89"/>
@@ -7637,109 +8183,115 @@
       <c r="BM39" s="99"/>
       <c r="BN39" s="99"/>
     </row>
-    <row r="40" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A40" s="52" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>5</v>
-      </c>
-      <c r="B40" s="53" t="s">
-        <v>144</v>
-      </c>
-      <c r="D40" s="55"/>
-      <c r="E40" s="95"/>
-      <c r="F40" s="95" t="str">
-        <f t="shared" ref="F40:F41" si="27">IF(ISBLANK(E40)," - ",IF(G40=0,E40,E40+G40-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G40" s="56"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="58" t="str">
-        <f t="shared" ref="I40:I41" si="28">IF(OR(F40=0,E40=0)," - ",NETWORKDAYS(E40,F40))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J40" s="90"/>
-      <c r="K40" s="100"/>
-      <c r="L40" s="100"/>
-      <c r="M40" s="100"/>
-      <c r="N40" s="100"/>
-      <c r="O40" s="100"/>
-      <c r="P40" s="100"/>
-      <c r="Q40" s="100"/>
-      <c r="R40" s="100"/>
-      <c r="S40" s="100"/>
-      <c r="T40" s="100"/>
-      <c r="U40" s="100"/>
-      <c r="V40" s="100"/>
-      <c r="W40" s="100"/>
-      <c r="X40" s="100"/>
-      <c r="Y40" s="100"/>
-      <c r="Z40" s="100"/>
-      <c r="AA40" s="100"/>
-      <c r="AB40" s="100"/>
-      <c r="AC40" s="100"/>
-      <c r="AD40" s="100"/>
-      <c r="AE40" s="100"/>
-      <c r="AF40" s="100"/>
-      <c r="AG40" s="100"/>
-      <c r="AH40" s="100"/>
-      <c r="AI40" s="100"/>
-      <c r="AJ40" s="100"/>
-      <c r="AK40" s="100"/>
-      <c r="AL40" s="100"/>
-      <c r="AM40" s="100"/>
-      <c r="AN40" s="100"/>
-      <c r="AO40" s="100"/>
-      <c r="AP40" s="100"/>
-      <c r="AQ40" s="100"/>
-      <c r="AR40" s="100"/>
-      <c r="AS40" s="100"/>
-      <c r="AT40" s="100"/>
-      <c r="AU40" s="100"/>
-      <c r="AV40" s="100"/>
-      <c r="AW40" s="100"/>
-      <c r="AX40" s="100"/>
-      <c r="AY40" s="100"/>
-      <c r="AZ40" s="100"/>
-      <c r="BA40" s="100"/>
-      <c r="BB40" s="100"/>
-      <c r="BC40" s="100"/>
-      <c r="BD40" s="100"/>
-      <c r="BE40" s="100"/>
-      <c r="BF40" s="100"/>
-      <c r="BG40" s="100"/>
-      <c r="BH40" s="100"/>
-      <c r="BI40" s="100"/>
-      <c r="BJ40" s="100"/>
-      <c r="BK40" s="100"/>
-      <c r="BL40" s="100"/>
-      <c r="BM40" s="100"/>
-      <c r="BN40" s="100"/>
-    </row>
-    <row r="41" spans="1:66" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A40" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.2</v>
+      </c>
+      <c r="B40" s="117" t="s">
+        <v>171</v>
+      </c>
+      <c r="D40" s="118"/>
+      <c r="E40" s="93">
+        <v>43141</v>
+      </c>
+      <c r="F40" s="94">
+        <f t="shared" ref="F40" si="43">IF(ISBLANK(E40)," - ",IF(G40=0,E40,E40+G40-1))</f>
+        <v>43144</v>
+      </c>
+      <c r="G40" s="61">
+        <v>4</v>
+      </c>
+      <c r="H40" s="62">
+        <v>0</v>
+      </c>
+      <c r="I40" s="63">
+        <f t="shared" ref="I40" si="44">IF(OR(F40=0,E40=0)," - ",NETWORKDAYS(E40,F40))</f>
+        <v>2</v>
+      </c>
+      <c r="J40" s="89"/>
+      <c r="K40" s="99"/>
+      <c r="L40" s="99"/>
+      <c r="M40" s="99"/>
+      <c r="N40" s="99"/>
+      <c r="O40" s="99"/>
+      <c r="P40" s="99"/>
+      <c r="Q40" s="99"/>
+      <c r="R40" s="99"/>
+      <c r="S40" s="99"/>
+      <c r="T40" s="99"/>
+      <c r="U40" s="99"/>
+      <c r="V40" s="99"/>
+      <c r="W40" s="99"/>
+      <c r="X40" s="99"/>
+      <c r="Y40" s="99"/>
+      <c r="Z40" s="99"/>
+      <c r="AA40" s="99"/>
+      <c r="AB40" s="99"/>
+      <c r="AC40" s="99"/>
+      <c r="AD40" s="99"/>
+      <c r="AE40" s="99"/>
+      <c r="AF40" s="99"/>
+      <c r="AG40" s="99"/>
+      <c r="AH40" s="99"/>
+      <c r="AI40" s="99"/>
+      <c r="AJ40" s="99"/>
+      <c r="AK40" s="99"/>
+      <c r="AL40" s="99"/>
+      <c r="AM40" s="99"/>
+      <c r="AN40" s="99"/>
+      <c r="AO40" s="99"/>
+      <c r="AP40" s="99"/>
+      <c r="AQ40" s="99"/>
+      <c r="AR40" s="99"/>
+      <c r="AS40" s="99"/>
+      <c r="AT40" s="99"/>
+      <c r="AU40" s="99"/>
+      <c r="AV40" s="99"/>
+      <c r="AW40" s="99"/>
+      <c r="AX40" s="99"/>
+      <c r="AY40" s="99"/>
+      <c r="AZ40" s="99"/>
+      <c r="BA40" s="99"/>
+      <c r="BB40" s="99"/>
+      <c r="BC40" s="99"/>
+      <c r="BD40" s="99"/>
+      <c r="BE40" s="99"/>
+      <c r="BF40" s="99"/>
+      <c r="BG40" s="99"/>
+      <c r="BH40" s="99"/>
+      <c r="BI40" s="99"/>
+      <c r="BJ40" s="99"/>
+      <c r="BK40" s="99"/>
+      <c r="BL40" s="99"/>
+      <c r="BM40" s="99"/>
+      <c r="BN40" s="99"/>
+    </row>
+    <row r="41" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.1</v>
+        <v>3.3</v>
       </c>
       <c r="B41" s="117" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D41" s="118"/>
       <c r="E41" s="93">
-        <v>43129</v>
+        <v>43145</v>
       </c>
       <c r="F41" s="94">
-        <f t="shared" si="27"/>
-        <v>43129</v>
+        <f t="shared" si="7"/>
+        <v>43147</v>
       </c>
       <c r="G41" s="61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H41" s="62">
         <v>0</v>
       </c>
       <c r="I41" s="63">
-        <f t="shared" si="28"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="J41" s="89"/>
       <c r="K41" s="99"/>
@@ -7801,28 +8353,28 @@
     </row>
     <row r="42" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.2</v>
-      </c>
-      <c r="B42" s="117" t="s">
-        <v>169</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.3.1</v>
+      </c>
+      <c r="B42" s="119" t="s">
+        <v>141</v>
       </c>
       <c r="D42" s="118"/>
       <c r="E42" s="93">
-        <v>43129</v>
+        <v>43133</v>
       </c>
       <c r="F42" s="94">
-        <f t="shared" ref="F42" si="29">IF(ISBLANK(E42)," - ",IF(G42=0,E42,E42+G42-1))</f>
-        <v>43129</v>
+        <f t="shared" ref="F42:F49" si="45">IF(ISBLANK(E42)," - ",IF(G42=0,E42,E42+G42-1))</f>
+        <v>43134</v>
       </c>
       <c r="G42" s="61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42" s="62">
         <v>0</v>
       </c>
       <c r="I42" s="63">
-        <f t="shared" ref="I42" si="30">IF(OR(F42=0,E42=0)," - ",NETWORKDAYS(E42,F42))</f>
+        <f t="shared" ref="I42:I49" si="46">IF(OR(F42=0,E42=0)," - ",NETWORKDAYS(E42,F42))</f>
         <v>1</v>
       </c>
       <c r="J42" s="89"/>
@@ -7883,30 +8435,30 @@
       <c r="BM42" s="99"/>
       <c r="BN42" s="99"/>
     </row>
-    <row r="43" spans="1:66" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.3</v>
-      </c>
-      <c r="B43" s="117" t="s">
-        <v>170</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.3.2</v>
+      </c>
+      <c r="B43" s="119" t="s">
+        <v>142</v>
       </c>
       <c r="D43" s="118"/>
       <c r="E43" s="93">
-        <v>43129</v>
+        <v>43133</v>
       </c>
       <c r="F43" s="94">
-        <f t="shared" ref="F43:F44" si="31">IF(ISBLANK(E43)," - ",IF(G43=0,E43,E43+G43-1))</f>
-        <v>43129</v>
+        <f t="shared" si="45"/>
+        <v>43134</v>
       </c>
       <c r="G43" s="61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43" s="62">
         <v>0</v>
       </c>
       <c r="I43" s="63">
-        <f t="shared" ref="I43:I44" si="32">IF(OR(F43=0,E43=0)," - ",NETWORKDAYS(E43,F43))</f>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="J43" s="89"/>
@@ -7967,108 +8519,114 @@
       <c r="BM43" s="99"/>
       <c r="BN43" s="99"/>
     </row>
-    <row r="44" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A44" s="52" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>6</v>
-      </c>
-      <c r="B44" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="D44" s="55"/>
-      <c r="E44" s="95"/>
-      <c r="F44" s="95" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G44" s="56"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="58" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J44" s="90"/>
-      <c r="K44" s="100"/>
-      <c r="L44" s="100"/>
-      <c r="M44" s="100"/>
-      <c r="N44" s="100"/>
-      <c r="O44" s="100"/>
-      <c r="P44" s="100"/>
-      <c r="Q44" s="100"/>
-      <c r="R44" s="100"/>
-      <c r="S44" s="100"/>
-      <c r="T44" s="100"/>
-      <c r="U44" s="100"/>
-      <c r="V44" s="100"/>
-      <c r="W44" s="100"/>
-      <c r="X44" s="100"/>
-      <c r="Y44" s="100"/>
-      <c r="Z44" s="100"/>
-      <c r="AA44" s="100"/>
-      <c r="AB44" s="100"/>
-      <c r="AC44" s="100"/>
-      <c r="AD44" s="100"/>
-      <c r="AE44" s="100"/>
-      <c r="AF44" s="100"/>
-      <c r="AG44" s="100"/>
-      <c r="AH44" s="100"/>
-      <c r="AI44" s="100"/>
-      <c r="AJ44" s="100"/>
-      <c r="AK44" s="100"/>
-      <c r="AL44" s="100"/>
-      <c r="AM44" s="100"/>
-      <c r="AN44" s="100"/>
-      <c r="AO44" s="100"/>
-      <c r="AP44" s="100"/>
-      <c r="AQ44" s="100"/>
-      <c r="AR44" s="100"/>
-      <c r="AS44" s="100"/>
-      <c r="AT44" s="100"/>
-      <c r="AU44" s="100"/>
-      <c r="AV44" s="100"/>
-      <c r="AW44" s="100"/>
-      <c r="AX44" s="100"/>
-      <c r="AY44" s="100"/>
-      <c r="AZ44" s="100"/>
-      <c r="BA44" s="100"/>
-      <c r="BB44" s="100"/>
-      <c r="BC44" s="100"/>
-      <c r="BD44" s="100"/>
-      <c r="BE44" s="100"/>
-      <c r="BF44" s="100"/>
-      <c r="BG44" s="100"/>
-      <c r="BH44" s="100"/>
-      <c r="BI44" s="100"/>
-      <c r="BJ44" s="100"/>
-      <c r="BK44" s="100"/>
-      <c r="BL44" s="100"/>
-      <c r="BM44" s="100"/>
-      <c r="BN44" s="100"/>
+    <row r="44" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A44" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.3.3</v>
+      </c>
+      <c r="B44" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="D44" s="118"/>
+      <c r="E44" s="93">
+        <v>43133</v>
+      </c>
+      <c r="F44" s="94">
+        <f t="shared" si="45"/>
+        <v>43134</v>
+      </c>
+      <c r="G44" s="61">
+        <v>2</v>
+      </c>
+      <c r="H44" s="62">
+        <v>0</v>
+      </c>
+      <c r="I44" s="63">
+        <f t="shared" si="46"/>
+        <v>1</v>
+      </c>
+      <c r="J44" s="89"/>
+      <c r="K44" s="99"/>
+      <c r="L44" s="99"/>
+      <c r="M44" s="99"/>
+      <c r="N44" s="99"/>
+      <c r="O44" s="99"/>
+      <c r="P44" s="99"/>
+      <c r="Q44" s="99"/>
+      <c r="R44" s="99"/>
+      <c r="S44" s="99"/>
+      <c r="T44" s="99"/>
+      <c r="U44" s="99"/>
+      <c r="V44" s="99"/>
+      <c r="W44" s="99"/>
+      <c r="X44" s="99"/>
+      <c r="Y44" s="99"/>
+      <c r="Z44" s="99"/>
+      <c r="AA44" s="99"/>
+      <c r="AB44" s="99"/>
+      <c r="AC44" s="99"/>
+      <c r="AD44" s="99"/>
+      <c r="AE44" s="99"/>
+      <c r="AF44" s="99"/>
+      <c r="AG44" s="99"/>
+      <c r="AH44" s="99"/>
+      <c r="AI44" s="99"/>
+      <c r="AJ44" s="99"/>
+      <c r="AK44" s="99"/>
+      <c r="AL44" s="99"/>
+      <c r="AM44" s="99"/>
+      <c r="AN44" s="99"/>
+      <c r="AO44" s="99"/>
+      <c r="AP44" s="99"/>
+      <c r="AQ44" s="99"/>
+      <c r="AR44" s="99"/>
+      <c r="AS44" s="99"/>
+      <c r="AT44" s="99"/>
+      <c r="AU44" s="99"/>
+      <c r="AV44" s="99"/>
+      <c r="AW44" s="99"/>
+      <c r="AX44" s="99"/>
+      <c r="AY44" s="99"/>
+      <c r="AZ44" s="99"/>
+      <c r="BA44" s="99"/>
+      <c r="BB44" s="99"/>
+      <c r="BC44" s="99"/>
+      <c r="BD44" s="99"/>
+      <c r="BE44" s="99"/>
+      <c r="BF44" s="99"/>
+      <c r="BG44" s="99"/>
+      <c r="BH44" s="99"/>
+      <c r="BI44" s="99"/>
+      <c r="BJ44" s="99"/>
+      <c r="BK44" s="99"/>
+      <c r="BL44" s="99"/>
+      <c r="BM44" s="99"/>
+      <c r="BN44" s="99"/>
     </row>
     <row r="45" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>6.1</v>
-      </c>
-      <c r="B45" s="117" t="s">
-        <v>171</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.3.4</v>
+      </c>
+      <c r="B45" s="119" t="s">
+        <v>144</v>
       </c>
       <c r="D45" s="118"/>
       <c r="E45" s="93">
-        <v>43129</v>
+        <v>43133</v>
       </c>
       <c r="F45" s="94">
-        <f t="shared" ref="F45" si="33">IF(ISBLANK(E45)," - ",IF(G45=0,E45,E45+G45-1))</f>
-        <v>43129</v>
+        <f t="shared" si="45"/>
+        <v>43134</v>
       </c>
       <c r="G45" s="61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45" s="62">
         <v>0</v>
       </c>
       <c r="I45" s="63">
-        <f t="shared" ref="I45" si="34">IF(OR(F45=0,E45=0)," - ",NETWORKDAYS(E45,F45))</f>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="J45" s="89"/>
@@ -8129,30 +8687,30 @@
       <c r="BM45" s="99"/>
       <c r="BN45" s="99"/>
     </row>
-    <row r="46" spans="1:66" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>6.2</v>
-      </c>
-      <c r="B46" s="117" t="s">
-        <v>172</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.3.5</v>
+      </c>
+      <c r="B46" s="119" t="s">
+        <v>145</v>
       </c>
       <c r="D46" s="118"/>
       <c r="E46" s="93">
-        <v>43129</v>
+        <v>43133</v>
       </c>
       <c r="F46" s="94">
-        <f t="shared" ref="F46:F47" si="35">IF(ISBLANK(E46)," - ",IF(G46=0,E46,E46+G46-1))</f>
-        <v>43129</v>
+        <f t="shared" si="45"/>
+        <v>43134</v>
       </c>
       <c r="G46" s="61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H46" s="62">
         <v>0</v>
       </c>
       <c r="I46" s="63">
-        <f t="shared" ref="I46:I47" si="36">IF(OR(F46=0,E46=0)," - ",NETWORKDAYS(E46,F46))</f>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="J46" s="89"/>
@@ -8215,28 +8773,28 @@
     </row>
     <row r="47" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>6.3</v>
-      </c>
-      <c r="B47" s="117" t="s">
-        <v>8</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.3.6</v>
+      </c>
+      <c r="B47" s="119" t="s">
+        <v>146</v>
       </c>
       <c r="D47" s="118"/>
       <c r="E47" s="93">
-        <v>43129</v>
+        <v>43133</v>
       </c>
       <c r="F47" s="94">
-        <f t="shared" si="35"/>
-        <v>43129</v>
+        <f t="shared" si="45"/>
+        <v>43134</v>
       </c>
       <c r="G47" s="61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47" s="62">
         <v>0</v>
       </c>
       <c r="I47" s="63">
-        <f t="shared" si="36"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="J47" s="89"/>
@@ -8297,19 +8855,33 @@
       <c r="BM47" s="99"/>
       <c r="BN47" s="99"/>
     </row>
-    <row r="48" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A48" s="65" t="s">
+    <row r="48" spans="1:66" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A48" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.3.7</v>
+      </c>
+      <c r="B48" s="119" t="s">
+        <v>172</v>
+      </c>
+      <c r="D48" s="118"/>
+      <c r="E48" s="93">
+        <v>43133</v>
+      </c>
+      <c r="F48" s="94">
+        <f t="shared" si="45"/>
+        <v>43134</v>
+      </c>
+      <c r="G48" s="61">
+        <v>2</v>
+      </c>
+      <c r="H48" s="62">
+        <v>0</v>
+      </c>
+      <c r="I48" s="63">
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
-      <c r="B48" s="66"/>
-      <c r="C48" s="67"/>
-      <c r="D48" s="67"/>
-      <c r="E48" s="96"/>
-      <c r="F48" s="96"/>
-      <c r="G48" s="68"/>
-      <c r="H48" s="68"/>
-      <c r="I48" s="68"/>
-      <c r="J48" s="91"/>
+      <c r="J48" s="89"/>
       <c r="K48" s="99"/>
       <c r="L48" s="99"/>
       <c r="M48" s="99"/>
@@ -8367,19 +8939,33 @@
       <c r="BM48" s="99"/>
       <c r="BN48" s="99"/>
     </row>
-    <row r="49" spans="1:66" s="64" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A49" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="B49" s="71"/>
-      <c r="C49" s="71"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="97"/>
-      <c r="F49" s="97"/>
-      <c r="G49" s="71"/>
-      <c r="H49" s="71"/>
-      <c r="I49" s="71"/>
-      <c r="J49" s="91"/>
+    <row r="49" spans="1:66" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A49" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.3.8</v>
+      </c>
+      <c r="B49" s="119" t="s">
+        <v>173</v>
+      </c>
+      <c r="D49" s="118"/>
+      <c r="E49" s="93">
+        <v>43133</v>
+      </c>
+      <c r="F49" s="94">
+        <f t="shared" si="45"/>
+        <v>43134</v>
+      </c>
+      <c r="G49" s="61">
+        <v>2</v>
+      </c>
+      <c r="H49" s="62">
+        <v>0</v>
+      </c>
+      <c r="I49" s="63">
+        <f t="shared" si="46"/>
+        <v>1</v>
+      </c>
+      <c r="J49" s="89"/>
       <c r="K49" s="99"/>
       <c r="L49" s="99"/>
       <c r="M49" s="99"/>
@@ -8437,28 +9023,33 @@
       <c r="BM49" s="99"/>
       <c r="BN49" s="99"/>
     </row>
-    <row r="50" spans="1:66" s="64" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A50" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>1</v>
-      </c>
-      <c r="B50" s="122" t="s">
-        <v>77</v>
-      </c>
-      <c r="C50" s="72"/>
-      <c r="D50" s="73"/>
-      <c r="E50" s="93"/>
-      <c r="F50" s="94" t="str">
-        <f t="shared" ref="F50:F53" si="37">IF(ISBLANK(E50)," - ",IF(G50=0,E50,E50+G50-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G50" s="61"/>
-      <c r="H50" s="62"/>
-      <c r="I50" s="74" t="str">
-        <f>IF(OR(F50=0,E50=0)," - ",NETWORKDAYS(E50,F50))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J50" s="92"/>
+    <row r="50" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A50" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.4</v>
+      </c>
+      <c r="B50" s="117" t="s">
+        <v>175</v>
+      </c>
+      <c r="D50" s="118"/>
+      <c r="E50" s="93">
+        <v>43145</v>
+      </c>
+      <c r="F50" s="94">
+        <f t="shared" si="7"/>
+        <v>43147</v>
+      </c>
+      <c r="G50" s="61">
+        <v>3</v>
+      </c>
+      <c r="H50" s="62">
+        <v>0</v>
+      </c>
+      <c r="I50" s="63">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J50" s="89"/>
       <c r="K50" s="99"/>
       <c r="L50" s="99"/>
       <c r="M50" s="99"/>
@@ -8516,28 +9107,33 @@
       <c r="BM50" s="99"/>
       <c r="BN50" s="99"/>
     </row>
-    <row r="51" spans="1:66" s="64" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>1.1</v>
-      </c>
-      <c r="B51" s="75" t="s">
-        <v>63</v>
-      </c>
-      <c r="C51" s="75"/>
-      <c r="D51" s="73"/>
-      <c r="E51" s="93"/>
-      <c r="F51" s="94" t="str">
-        <f t="shared" si="37"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G51" s="61"/>
-      <c r="H51" s="62"/>
-      <c r="I51" s="74" t="str">
-        <f t="shared" ref="I51:I53" si="38">IF(OR(F51=0,E51=0)," - ",NETWORKDAYS(E51,F51))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J51" s="92"/>
+        <v>3.5</v>
+      </c>
+      <c r="B51" s="117" t="s">
+        <v>176</v>
+      </c>
+      <c r="D51" s="118"/>
+      <c r="E51" s="93">
+        <v>43148</v>
+      </c>
+      <c r="F51" s="94">
+        <f t="shared" si="7"/>
+        <v>43153</v>
+      </c>
+      <c r="G51" s="61">
+        <v>6</v>
+      </c>
+      <c r="H51" s="62">
+        <v>0</v>
+      </c>
+      <c r="I51" s="63">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="J51" s="89"/>
       <c r="K51" s="99"/>
       <c r="L51" s="99"/>
       <c r="M51" s="99"/>
@@ -8595,28 +9191,33 @@
       <c r="BM51" s="99"/>
       <c r="BN51" s="99"/>
     </row>
-    <row r="52" spans="1:66" s="64" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.1.1</v>
-      </c>
-      <c r="B52" s="76" t="s">
-        <v>64</v>
-      </c>
-      <c r="C52" s="75"/>
-      <c r="D52" s="73"/>
-      <c r="E52" s="93"/>
-      <c r="F52" s="94" t="str">
-        <f t="shared" si="37"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G52" s="61"/>
-      <c r="H52" s="62"/>
-      <c r="I52" s="74" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J52" s="92"/>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.6</v>
+      </c>
+      <c r="B52" s="117" t="s">
+        <v>177</v>
+      </c>
+      <c r="D52" s="118"/>
+      <c r="E52" s="93">
+        <v>43154</v>
+      </c>
+      <c r="F52" s="94">
+        <f t="shared" si="7"/>
+        <v>43156</v>
+      </c>
+      <c r="G52" s="61">
+        <v>3</v>
+      </c>
+      <c r="H52" s="62">
+        <v>0</v>
+      </c>
+      <c r="I52" s="63">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J52" s="89"/>
       <c r="K52" s="99"/>
       <c r="L52" s="99"/>
       <c r="M52" s="99"/>
@@ -8674,155 +9275,1768 @@
       <c r="BM52" s="99"/>
       <c r="BN52" s="99"/>
     </row>
-    <row r="53" spans="1:66" s="64" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A53" s="59" t="str">
+    <row r="53" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A53" s="52" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>4</v>
+      </c>
+      <c r="B53" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="D53" s="55"/>
+      <c r="E53" s="95"/>
+      <c r="F53" s="95" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G53" s="56"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="58" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J53" s="90"/>
+      <c r="K53" s="100"/>
+      <c r="L53" s="100"/>
+      <c r="M53" s="100"/>
+      <c r="N53" s="100"/>
+      <c r="O53" s="100"/>
+      <c r="P53" s="100"/>
+      <c r="Q53" s="100"/>
+      <c r="R53" s="100"/>
+      <c r="S53" s="100"/>
+      <c r="T53" s="100"/>
+      <c r="U53" s="100"/>
+      <c r="V53" s="100"/>
+      <c r="W53" s="100"/>
+      <c r="X53" s="100"/>
+      <c r="Y53" s="100"/>
+      <c r="Z53" s="100"/>
+      <c r="AA53" s="100"/>
+      <c r="AB53" s="100"/>
+      <c r="AC53" s="100"/>
+      <c r="AD53" s="100"/>
+      <c r="AE53" s="100"/>
+      <c r="AF53" s="100"/>
+      <c r="AG53" s="100"/>
+      <c r="AH53" s="100"/>
+      <c r="AI53" s="100"/>
+      <c r="AJ53" s="100"/>
+      <c r="AK53" s="100"/>
+      <c r="AL53" s="100"/>
+      <c r="AM53" s="100"/>
+      <c r="AN53" s="100"/>
+      <c r="AO53" s="100"/>
+      <c r="AP53" s="100"/>
+      <c r="AQ53" s="100"/>
+      <c r="AR53" s="100"/>
+      <c r="AS53" s="100"/>
+      <c r="AT53" s="100"/>
+      <c r="AU53" s="100"/>
+      <c r="AV53" s="100"/>
+      <c r="AW53" s="100"/>
+      <c r="AX53" s="100"/>
+      <c r="AY53" s="100"/>
+      <c r="AZ53" s="100"/>
+      <c r="BA53" s="100"/>
+      <c r="BB53" s="100"/>
+      <c r="BC53" s="100"/>
+      <c r="BD53" s="100"/>
+      <c r="BE53" s="100"/>
+      <c r="BF53" s="100"/>
+      <c r="BG53" s="100"/>
+      <c r="BH53" s="100"/>
+      <c r="BI53" s="100"/>
+      <c r="BJ53" s="100"/>
+      <c r="BK53" s="100"/>
+      <c r="BL53" s="100"/>
+      <c r="BM53" s="100"/>
+      <c r="BN53" s="100"/>
+    </row>
+    <row r="54" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A54" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.1</v>
+      </c>
+      <c r="B54" s="117" t="s">
+        <v>169</v>
+      </c>
+      <c r="D54" s="118"/>
+      <c r="E54" s="93">
+        <v>43129</v>
+      </c>
+      <c r="F54" s="94">
+        <f t="shared" si="7"/>
+        <v>43129</v>
+      </c>
+      <c r="G54" s="61">
+        <v>1</v>
+      </c>
+      <c r="H54" s="62">
+        <v>0</v>
+      </c>
+      <c r="I54" s="63">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J54" s="89"/>
+      <c r="K54" s="99"/>
+      <c r="L54" s="99"/>
+      <c r="M54" s="99"/>
+      <c r="N54" s="99"/>
+      <c r="O54" s="99"/>
+      <c r="P54" s="99"/>
+      <c r="Q54" s="99"/>
+      <c r="R54" s="99"/>
+      <c r="S54" s="99"/>
+      <c r="T54" s="99"/>
+      <c r="U54" s="99"/>
+      <c r="V54" s="99"/>
+      <c r="W54" s="99"/>
+      <c r="X54" s="99"/>
+      <c r="Y54" s="99"/>
+      <c r="Z54" s="99"/>
+      <c r="AA54" s="99"/>
+      <c r="AB54" s="99"/>
+      <c r="AC54" s="99"/>
+      <c r="AD54" s="99"/>
+      <c r="AE54" s="99"/>
+      <c r="AF54" s="99"/>
+      <c r="AG54" s="99"/>
+      <c r="AH54" s="99"/>
+      <c r="AI54" s="99"/>
+      <c r="AJ54" s="99"/>
+      <c r="AK54" s="99"/>
+      <c r="AL54" s="99"/>
+      <c r="AM54" s="99"/>
+      <c r="AN54" s="99"/>
+      <c r="AO54" s="99"/>
+      <c r="AP54" s="99"/>
+      <c r="AQ54" s="99"/>
+      <c r="AR54" s="99"/>
+      <c r="AS54" s="99"/>
+      <c r="AT54" s="99"/>
+      <c r="AU54" s="99"/>
+      <c r="AV54" s="99"/>
+      <c r="AW54" s="99"/>
+      <c r="AX54" s="99"/>
+      <c r="AY54" s="99"/>
+      <c r="AZ54" s="99"/>
+      <c r="BA54" s="99"/>
+      <c r="BB54" s="99"/>
+      <c r="BC54" s="99"/>
+      <c r="BD54" s="99"/>
+      <c r="BE54" s="99"/>
+      <c r="BF54" s="99"/>
+      <c r="BG54" s="99"/>
+      <c r="BH54" s="99"/>
+      <c r="BI54" s="99"/>
+      <c r="BJ54" s="99"/>
+      <c r="BK54" s="99"/>
+      <c r="BL54" s="99"/>
+      <c r="BM54" s="99"/>
+      <c r="BN54" s="99"/>
+    </row>
+    <row r="55" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A55" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.2</v>
+      </c>
+      <c r="B55" s="117" t="s">
+        <v>178</v>
+      </c>
+      <c r="D55" s="118"/>
+      <c r="E55" s="93">
+        <v>43130</v>
+      </c>
+      <c r="F55" s="94">
+        <f t="shared" si="7"/>
+        <v>43130</v>
+      </c>
+      <c r="G55" s="61">
+        <v>1</v>
+      </c>
+      <c r="H55" s="62">
+        <v>0</v>
+      </c>
+      <c r="I55" s="63">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J55" s="89"/>
+      <c r="K55" s="99"/>
+      <c r="L55" s="99"/>
+      <c r="M55" s="99"/>
+      <c r="N55" s="99"/>
+      <c r="O55" s="99"/>
+      <c r="P55" s="99"/>
+      <c r="Q55" s="99"/>
+      <c r="R55" s="99"/>
+      <c r="S55" s="99"/>
+      <c r="T55" s="99"/>
+      <c r="U55" s="99"/>
+      <c r="V55" s="99"/>
+      <c r="W55" s="99"/>
+      <c r="X55" s="99"/>
+      <c r="Y55" s="99"/>
+      <c r="Z55" s="99"/>
+      <c r="AA55" s="99"/>
+      <c r="AB55" s="99"/>
+      <c r="AC55" s="99"/>
+      <c r="AD55" s="99"/>
+      <c r="AE55" s="99"/>
+      <c r="AF55" s="99"/>
+      <c r="AG55" s="99"/>
+      <c r="AH55" s="99"/>
+      <c r="AI55" s="99"/>
+      <c r="AJ55" s="99"/>
+      <c r="AK55" s="99"/>
+      <c r="AL55" s="99"/>
+      <c r="AM55" s="99"/>
+      <c r="AN55" s="99"/>
+      <c r="AO55" s="99"/>
+      <c r="AP55" s="99"/>
+      <c r="AQ55" s="99"/>
+      <c r="AR55" s="99"/>
+      <c r="AS55" s="99"/>
+      <c r="AT55" s="99"/>
+      <c r="AU55" s="99"/>
+      <c r="AV55" s="99"/>
+      <c r="AW55" s="99"/>
+      <c r="AX55" s="99"/>
+      <c r="AY55" s="99"/>
+      <c r="AZ55" s="99"/>
+      <c r="BA55" s="99"/>
+      <c r="BB55" s="99"/>
+      <c r="BC55" s="99"/>
+      <c r="BD55" s="99"/>
+      <c r="BE55" s="99"/>
+      <c r="BF55" s="99"/>
+      <c r="BG55" s="99"/>
+      <c r="BH55" s="99"/>
+      <c r="BI55" s="99"/>
+      <c r="BJ55" s="99"/>
+      <c r="BK55" s="99"/>
+      <c r="BL55" s="99"/>
+      <c r="BM55" s="99"/>
+      <c r="BN55" s="99"/>
+    </row>
+    <row r="56" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A56" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.3</v>
+      </c>
+      <c r="B56" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="118"/>
+      <c r="E56" s="93">
+        <v>43131</v>
+      </c>
+      <c r="F56" s="94">
+        <f t="shared" si="7"/>
+        <v>43131</v>
+      </c>
+      <c r="G56" s="61">
+        <v>1</v>
+      </c>
+      <c r="H56" s="62">
+        <v>0</v>
+      </c>
+      <c r="I56" s="63">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J56" s="89"/>
+      <c r="K56" s="99"/>
+      <c r="L56" s="99"/>
+      <c r="M56" s="99"/>
+      <c r="N56" s="99"/>
+      <c r="O56" s="99"/>
+      <c r="P56" s="99"/>
+      <c r="Q56" s="99"/>
+      <c r="R56" s="99"/>
+      <c r="S56" s="99"/>
+      <c r="T56" s="99"/>
+      <c r="U56" s="99"/>
+      <c r="V56" s="99"/>
+      <c r="W56" s="99"/>
+      <c r="X56" s="99"/>
+      <c r="Y56" s="99"/>
+      <c r="Z56" s="99"/>
+      <c r="AA56" s="99"/>
+      <c r="AB56" s="99"/>
+      <c r="AC56" s="99"/>
+      <c r="AD56" s="99"/>
+      <c r="AE56" s="99"/>
+      <c r="AF56" s="99"/>
+      <c r="AG56" s="99"/>
+      <c r="AH56" s="99"/>
+      <c r="AI56" s="99"/>
+      <c r="AJ56" s="99"/>
+      <c r="AK56" s="99"/>
+      <c r="AL56" s="99"/>
+      <c r="AM56" s="99"/>
+      <c r="AN56" s="99"/>
+      <c r="AO56" s="99"/>
+      <c r="AP56" s="99"/>
+      <c r="AQ56" s="99"/>
+      <c r="AR56" s="99"/>
+      <c r="AS56" s="99"/>
+      <c r="AT56" s="99"/>
+      <c r="AU56" s="99"/>
+      <c r="AV56" s="99"/>
+      <c r="AW56" s="99"/>
+      <c r="AX56" s="99"/>
+      <c r="AY56" s="99"/>
+      <c r="AZ56" s="99"/>
+      <c r="BA56" s="99"/>
+      <c r="BB56" s="99"/>
+      <c r="BC56" s="99"/>
+      <c r="BD56" s="99"/>
+      <c r="BE56" s="99"/>
+      <c r="BF56" s="99"/>
+      <c r="BG56" s="99"/>
+      <c r="BH56" s="99"/>
+      <c r="BI56" s="99"/>
+      <c r="BJ56" s="99"/>
+      <c r="BK56" s="99"/>
+      <c r="BL56" s="99"/>
+      <c r="BM56" s="99"/>
+      <c r="BN56" s="99"/>
+    </row>
+    <row r="57" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A57" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.4</v>
+      </c>
+      <c r="B57" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="118"/>
+      <c r="E57" s="93">
+        <v>43132</v>
+      </c>
+      <c r="F57" s="94">
+        <f t="shared" si="7"/>
+        <v>43132</v>
+      </c>
+      <c r="G57" s="61">
+        <v>1</v>
+      </c>
+      <c r="H57" s="62">
+        <v>0</v>
+      </c>
+      <c r="I57" s="63">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J57" s="89"/>
+      <c r="K57" s="99"/>
+      <c r="L57" s="99"/>
+      <c r="M57" s="99"/>
+      <c r="N57" s="99"/>
+      <c r="O57" s="99"/>
+      <c r="P57" s="99"/>
+      <c r="Q57" s="99"/>
+      <c r="R57" s="99"/>
+      <c r="S57" s="99"/>
+      <c r="T57" s="99"/>
+      <c r="U57" s="99"/>
+      <c r="V57" s="99"/>
+      <c r="W57" s="99"/>
+      <c r="X57" s="99"/>
+      <c r="Y57" s="99"/>
+      <c r="Z57" s="99"/>
+      <c r="AA57" s="99"/>
+      <c r="AB57" s="99"/>
+      <c r="AC57" s="99"/>
+      <c r="AD57" s="99"/>
+      <c r="AE57" s="99"/>
+      <c r="AF57" s="99"/>
+      <c r="AG57" s="99"/>
+      <c r="AH57" s="99"/>
+      <c r="AI57" s="99"/>
+      <c r="AJ57" s="99"/>
+      <c r="AK57" s="99"/>
+      <c r="AL57" s="99"/>
+      <c r="AM57" s="99"/>
+      <c r="AN57" s="99"/>
+      <c r="AO57" s="99"/>
+      <c r="AP57" s="99"/>
+      <c r="AQ57" s="99"/>
+      <c r="AR57" s="99"/>
+      <c r="AS57" s="99"/>
+      <c r="AT57" s="99"/>
+      <c r="AU57" s="99"/>
+      <c r="AV57" s="99"/>
+      <c r="AW57" s="99"/>
+      <c r="AX57" s="99"/>
+      <c r="AY57" s="99"/>
+      <c r="AZ57" s="99"/>
+      <c r="BA57" s="99"/>
+      <c r="BB57" s="99"/>
+      <c r="BC57" s="99"/>
+      <c r="BD57" s="99"/>
+      <c r="BE57" s="99"/>
+      <c r="BF57" s="99"/>
+      <c r="BG57" s="99"/>
+      <c r="BH57" s="99"/>
+      <c r="BI57" s="99"/>
+      <c r="BJ57" s="99"/>
+      <c r="BK57" s="99"/>
+      <c r="BL57" s="99"/>
+      <c r="BM57" s="99"/>
+      <c r="BN57" s="99"/>
+    </row>
+    <row r="58" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A58" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.5</v>
+      </c>
+      <c r="B58" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="118"/>
+      <c r="E58" s="93">
+        <v>43133</v>
+      </c>
+      <c r="F58" s="94">
+        <f t="shared" si="7"/>
+        <v>43133</v>
+      </c>
+      <c r="G58" s="61">
+        <v>1</v>
+      </c>
+      <c r="H58" s="62">
+        <v>0</v>
+      </c>
+      <c r="I58" s="63">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J58" s="89"/>
+      <c r="K58" s="99"/>
+      <c r="L58" s="99"/>
+      <c r="M58" s="99"/>
+      <c r="N58" s="99"/>
+      <c r="O58" s="99"/>
+      <c r="P58" s="99"/>
+      <c r="Q58" s="99"/>
+      <c r="R58" s="99"/>
+      <c r="S58" s="99"/>
+      <c r="T58" s="99"/>
+      <c r="U58" s="99"/>
+      <c r="V58" s="99"/>
+      <c r="W58" s="99"/>
+      <c r="X58" s="99"/>
+      <c r="Y58" s="99"/>
+      <c r="Z58" s="99"/>
+      <c r="AA58" s="99"/>
+      <c r="AB58" s="99"/>
+      <c r="AC58" s="99"/>
+      <c r="AD58" s="99"/>
+      <c r="AE58" s="99"/>
+      <c r="AF58" s="99"/>
+      <c r="AG58" s="99"/>
+      <c r="AH58" s="99"/>
+      <c r="AI58" s="99"/>
+      <c r="AJ58" s="99"/>
+      <c r="AK58" s="99"/>
+      <c r="AL58" s="99"/>
+      <c r="AM58" s="99"/>
+      <c r="AN58" s="99"/>
+      <c r="AO58" s="99"/>
+      <c r="AP58" s="99"/>
+      <c r="AQ58" s="99"/>
+      <c r="AR58" s="99"/>
+      <c r="AS58" s="99"/>
+      <c r="AT58" s="99"/>
+      <c r="AU58" s="99"/>
+      <c r="AV58" s="99"/>
+      <c r="AW58" s="99"/>
+      <c r="AX58" s="99"/>
+      <c r="AY58" s="99"/>
+      <c r="AZ58" s="99"/>
+      <c r="BA58" s="99"/>
+      <c r="BB58" s="99"/>
+      <c r="BC58" s="99"/>
+      <c r="BD58" s="99"/>
+      <c r="BE58" s="99"/>
+      <c r="BF58" s="99"/>
+      <c r="BG58" s="99"/>
+      <c r="BH58" s="99"/>
+      <c r="BI58" s="99"/>
+      <c r="BJ58" s="99"/>
+      <c r="BK58" s="99"/>
+      <c r="BL58" s="99"/>
+      <c r="BM58" s="99"/>
+      <c r="BN58" s="99"/>
+    </row>
+    <row r="59" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A59" s="52" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>5</v>
+      </c>
+      <c r="B59" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="D59" s="55"/>
+      <c r="E59" s="95"/>
+      <c r="F59" s="95" t="str">
+        <f t="shared" ref="F59:F60" si="47">IF(ISBLANK(E59)," - ",IF(G59=0,E59,E59+G59-1))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G59" s="56"/>
+      <c r="H59" s="57"/>
+      <c r="I59" s="58" t="str">
+        <f t="shared" ref="I59:I60" si="48">IF(OR(F59=0,E59=0)," - ",NETWORKDAYS(E59,F59))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J59" s="90"/>
+      <c r="K59" s="100"/>
+      <c r="L59" s="100"/>
+      <c r="M59" s="100"/>
+      <c r="N59" s="100"/>
+      <c r="O59" s="100"/>
+      <c r="P59" s="100"/>
+      <c r="Q59" s="100"/>
+      <c r="R59" s="100"/>
+      <c r="S59" s="100"/>
+      <c r="T59" s="100"/>
+      <c r="U59" s="100"/>
+      <c r="V59" s="100"/>
+      <c r="W59" s="100"/>
+      <c r="X59" s="100"/>
+      <c r="Y59" s="100"/>
+      <c r="Z59" s="100"/>
+      <c r="AA59" s="100"/>
+      <c r="AB59" s="100"/>
+      <c r="AC59" s="100"/>
+      <c r="AD59" s="100"/>
+      <c r="AE59" s="100"/>
+      <c r="AF59" s="100"/>
+      <c r="AG59" s="100"/>
+      <c r="AH59" s="100"/>
+      <c r="AI59" s="100"/>
+      <c r="AJ59" s="100"/>
+      <c r="AK59" s="100"/>
+      <c r="AL59" s="100"/>
+      <c r="AM59" s="100"/>
+      <c r="AN59" s="100"/>
+      <c r="AO59" s="100"/>
+      <c r="AP59" s="100"/>
+      <c r="AQ59" s="100"/>
+      <c r="AR59" s="100"/>
+      <c r="AS59" s="100"/>
+      <c r="AT59" s="100"/>
+      <c r="AU59" s="100"/>
+      <c r="AV59" s="100"/>
+      <c r="AW59" s="100"/>
+      <c r="AX59" s="100"/>
+      <c r="AY59" s="100"/>
+      <c r="AZ59" s="100"/>
+      <c r="BA59" s="100"/>
+      <c r="BB59" s="100"/>
+      <c r="BC59" s="100"/>
+      <c r="BD59" s="100"/>
+      <c r="BE59" s="100"/>
+      <c r="BF59" s="100"/>
+      <c r="BG59" s="100"/>
+      <c r="BH59" s="100"/>
+      <c r="BI59" s="100"/>
+      <c r="BJ59" s="100"/>
+      <c r="BK59" s="100"/>
+      <c r="BL59" s="100"/>
+      <c r="BM59" s="100"/>
+      <c r="BN59" s="100"/>
+    </row>
+    <row r="60" spans="1:66" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A60" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>5.1</v>
+      </c>
+      <c r="B60" s="117" t="s">
+        <v>156</v>
+      </c>
+      <c r="D60" s="118"/>
+      <c r="E60" s="93">
+        <v>43129</v>
+      </c>
+      <c r="F60" s="94">
+        <f t="shared" si="47"/>
+        <v>43129</v>
+      </c>
+      <c r="G60" s="61">
+        <v>1</v>
+      </c>
+      <c r="H60" s="62">
+        <v>0</v>
+      </c>
+      <c r="I60" s="63">
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="J60" s="89"/>
+      <c r="K60" s="99"/>
+      <c r="L60" s="99"/>
+      <c r="M60" s="99"/>
+      <c r="N60" s="99"/>
+      <c r="O60" s="99"/>
+      <c r="P60" s="99"/>
+      <c r="Q60" s="99"/>
+      <c r="R60" s="99"/>
+      <c r="S60" s="99"/>
+      <c r="T60" s="99"/>
+      <c r="U60" s="99"/>
+      <c r="V60" s="99"/>
+      <c r="W60" s="99"/>
+      <c r="X60" s="99"/>
+      <c r="Y60" s="99"/>
+      <c r="Z60" s="99"/>
+      <c r="AA60" s="99"/>
+      <c r="AB60" s="99"/>
+      <c r="AC60" s="99"/>
+      <c r="AD60" s="99"/>
+      <c r="AE60" s="99"/>
+      <c r="AF60" s="99"/>
+      <c r="AG60" s="99"/>
+      <c r="AH60" s="99"/>
+      <c r="AI60" s="99"/>
+      <c r="AJ60" s="99"/>
+      <c r="AK60" s="99"/>
+      <c r="AL60" s="99"/>
+      <c r="AM60" s="99"/>
+      <c r="AN60" s="99"/>
+      <c r="AO60" s="99"/>
+      <c r="AP60" s="99"/>
+      <c r="AQ60" s="99"/>
+      <c r="AR60" s="99"/>
+      <c r="AS60" s="99"/>
+      <c r="AT60" s="99"/>
+      <c r="AU60" s="99"/>
+      <c r="AV60" s="99"/>
+      <c r="AW60" s="99"/>
+      <c r="AX60" s="99"/>
+      <c r="AY60" s="99"/>
+      <c r="AZ60" s="99"/>
+      <c r="BA60" s="99"/>
+      <c r="BB60" s="99"/>
+      <c r="BC60" s="99"/>
+      <c r="BD60" s="99"/>
+      <c r="BE60" s="99"/>
+      <c r="BF60" s="99"/>
+      <c r="BG60" s="99"/>
+      <c r="BH60" s="99"/>
+      <c r="BI60" s="99"/>
+      <c r="BJ60" s="99"/>
+      <c r="BK60" s="99"/>
+      <c r="BL60" s="99"/>
+      <c r="BM60" s="99"/>
+      <c r="BN60" s="99"/>
+    </row>
+    <row r="61" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A61" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>5.2</v>
+      </c>
+      <c r="B61" s="117" t="s">
+        <v>157</v>
+      </c>
+      <c r="D61" s="118"/>
+      <c r="E61" s="93">
+        <v>43129</v>
+      </c>
+      <c r="F61" s="94">
+        <f t="shared" ref="F61" si="49">IF(ISBLANK(E61)," - ",IF(G61=0,E61,E61+G61-1))</f>
+        <v>43129</v>
+      </c>
+      <c r="G61" s="61">
+        <v>1</v>
+      </c>
+      <c r="H61" s="62">
+        <v>0</v>
+      </c>
+      <c r="I61" s="63">
+        <f t="shared" ref="I61" si="50">IF(OR(F61=0,E61=0)," - ",NETWORKDAYS(E61,F61))</f>
+        <v>1</v>
+      </c>
+      <c r="J61" s="89"/>
+      <c r="K61" s="99"/>
+      <c r="L61" s="99"/>
+      <c r="M61" s="99"/>
+      <c r="N61" s="99"/>
+      <c r="O61" s="99"/>
+      <c r="P61" s="99"/>
+      <c r="Q61" s="99"/>
+      <c r="R61" s="99"/>
+      <c r="S61" s="99"/>
+      <c r="T61" s="99"/>
+      <c r="U61" s="99"/>
+      <c r="V61" s="99"/>
+      <c r="W61" s="99"/>
+      <c r="X61" s="99"/>
+      <c r="Y61" s="99"/>
+      <c r="Z61" s="99"/>
+      <c r="AA61" s="99"/>
+      <c r="AB61" s="99"/>
+      <c r="AC61" s="99"/>
+      <c r="AD61" s="99"/>
+      <c r="AE61" s="99"/>
+      <c r="AF61" s="99"/>
+      <c r="AG61" s="99"/>
+      <c r="AH61" s="99"/>
+      <c r="AI61" s="99"/>
+      <c r="AJ61" s="99"/>
+      <c r="AK61" s="99"/>
+      <c r="AL61" s="99"/>
+      <c r="AM61" s="99"/>
+      <c r="AN61" s="99"/>
+      <c r="AO61" s="99"/>
+      <c r="AP61" s="99"/>
+      <c r="AQ61" s="99"/>
+      <c r="AR61" s="99"/>
+      <c r="AS61" s="99"/>
+      <c r="AT61" s="99"/>
+      <c r="AU61" s="99"/>
+      <c r="AV61" s="99"/>
+      <c r="AW61" s="99"/>
+      <c r="AX61" s="99"/>
+      <c r="AY61" s="99"/>
+      <c r="AZ61" s="99"/>
+      <c r="BA61" s="99"/>
+      <c r="BB61" s="99"/>
+      <c r="BC61" s="99"/>
+      <c r="BD61" s="99"/>
+      <c r="BE61" s="99"/>
+      <c r="BF61" s="99"/>
+      <c r="BG61" s="99"/>
+      <c r="BH61" s="99"/>
+      <c r="BI61" s="99"/>
+      <c r="BJ61" s="99"/>
+      <c r="BK61" s="99"/>
+      <c r="BL61" s="99"/>
+      <c r="BM61" s="99"/>
+      <c r="BN61" s="99"/>
+    </row>
+    <row r="62" spans="1:66" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A62" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>5.3</v>
+      </c>
+      <c r="B62" s="117" t="s">
+        <v>158</v>
+      </c>
+      <c r="D62" s="118"/>
+      <c r="E62" s="93">
+        <v>43129</v>
+      </c>
+      <c r="F62" s="94">
+        <f t="shared" ref="F62:F63" si="51">IF(ISBLANK(E62)," - ",IF(G62=0,E62,E62+G62-1))</f>
+        <v>43129</v>
+      </c>
+      <c r="G62" s="61">
+        <v>1</v>
+      </c>
+      <c r="H62" s="62">
+        <v>0</v>
+      </c>
+      <c r="I62" s="63">
+        <f t="shared" ref="I62:I63" si="52">IF(OR(F62=0,E62=0)," - ",NETWORKDAYS(E62,F62))</f>
+        <v>1</v>
+      </c>
+      <c r="J62" s="89"/>
+      <c r="K62" s="99"/>
+      <c r="L62" s="99"/>
+      <c r="M62" s="99"/>
+      <c r="N62" s="99"/>
+      <c r="O62" s="99"/>
+      <c r="P62" s="99"/>
+      <c r="Q62" s="99"/>
+      <c r="R62" s="99"/>
+      <c r="S62" s="99"/>
+      <c r="T62" s="99"/>
+      <c r="U62" s="99"/>
+      <c r="V62" s="99"/>
+      <c r="W62" s="99"/>
+      <c r="X62" s="99"/>
+      <c r="Y62" s="99"/>
+      <c r="Z62" s="99"/>
+      <c r="AA62" s="99"/>
+      <c r="AB62" s="99"/>
+      <c r="AC62" s="99"/>
+      <c r="AD62" s="99"/>
+      <c r="AE62" s="99"/>
+      <c r="AF62" s="99"/>
+      <c r="AG62" s="99"/>
+      <c r="AH62" s="99"/>
+      <c r="AI62" s="99"/>
+      <c r="AJ62" s="99"/>
+      <c r="AK62" s="99"/>
+      <c r="AL62" s="99"/>
+      <c r="AM62" s="99"/>
+      <c r="AN62" s="99"/>
+      <c r="AO62" s="99"/>
+      <c r="AP62" s="99"/>
+      <c r="AQ62" s="99"/>
+      <c r="AR62" s="99"/>
+      <c r="AS62" s="99"/>
+      <c r="AT62" s="99"/>
+      <c r="AU62" s="99"/>
+      <c r="AV62" s="99"/>
+      <c r="AW62" s="99"/>
+      <c r="AX62" s="99"/>
+      <c r="AY62" s="99"/>
+      <c r="AZ62" s="99"/>
+      <c r="BA62" s="99"/>
+      <c r="BB62" s="99"/>
+      <c r="BC62" s="99"/>
+      <c r="BD62" s="99"/>
+      <c r="BE62" s="99"/>
+      <c r="BF62" s="99"/>
+      <c r="BG62" s="99"/>
+      <c r="BH62" s="99"/>
+      <c r="BI62" s="99"/>
+      <c r="BJ62" s="99"/>
+      <c r="BK62" s="99"/>
+      <c r="BL62" s="99"/>
+      <c r="BM62" s="99"/>
+      <c r="BN62" s="99"/>
+    </row>
+    <row r="63" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A63" s="52" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>6</v>
+      </c>
+      <c r="B63" s="53" t="s">
+        <v>179</v>
+      </c>
+      <c r="D63" s="55"/>
+      <c r="E63" s="95"/>
+      <c r="F63" s="95" t="str">
+        <f t="shared" si="51"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G63" s="56"/>
+      <c r="H63" s="57"/>
+      <c r="I63" s="58" t="str">
+        <f t="shared" si="52"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J63" s="90"/>
+      <c r="K63" s="100"/>
+      <c r="L63" s="100"/>
+      <c r="M63" s="100"/>
+      <c r="N63" s="100"/>
+      <c r="O63" s="100"/>
+      <c r="P63" s="100"/>
+      <c r="Q63" s="100"/>
+      <c r="R63" s="100"/>
+      <c r="S63" s="100"/>
+      <c r="T63" s="100"/>
+      <c r="U63" s="100"/>
+      <c r="V63" s="100"/>
+      <c r="W63" s="100"/>
+      <c r="X63" s="100"/>
+      <c r="Y63" s="100"/>
+      <c r="Z63" s="100"/>
+      <c r="AA63" s="100"/>
+      <c r="AB63" s="100"/>
+      <c r="AC63" s="100"/>
+      <c r="AD63" s="100"/>
+      <c r="AE63" s="100"/>
+      <c r="AF63" s="100"/>
+      <c r="AG63" s="100"/>
+      <c r="AH63" s="100"/>
+      <c r="AI63" s="100"/>
+      <c r="AJ63" s="100"/>
+      <c r="AK63" s="100"/>
+      <c r="AL63" s="100"/>
+      <c r="AM63" s="100"/>
+      <c r="AN63" s="100"/>
+      <c r="AO63" s="100"/>
+      <c r="AP63" s="100"/>
+      <c r="AQ63" s="100"/>
+      <c r="AR63" s="100"/>
+      <c r="AS63" s="100"/>
+      <c r="AT63" s="100"/>
+      <c r="AU63" s="100"/>
+      <c r="AV63" s="100"/>
+      <c r="AW63" s="100"/>
+      <c r="AX63" s="100"/>
+      <c r="AY63" s="100"/>
+      <c r="AZ63" s="100"/>
+      <c r="BA63" s="100"/>
+      <c r="BB63" s="100"/>
+      <c r="BC63" s="100"/>
+      <c r="BD63" s="100"/>
+      <c r="BE63" s="100"/>
+      <c r="BF63" s="100"/>
+      <c r="BG63" s="100"/>
+      <c r="BH63" s="100"/>
+      <c r="BI63" s="100"/>
+      <c r="BJ63" s="100"/>
+      <c r="BK63" s="100"/>
+      <c r="BL63" s="100"/>
+      <c r="BM63" s="100"/>
+      <c r="BN63" s="100"/>
+    </row>
+    <row r="64" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A64" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>6.1</v>
+      </c>
+      <c r="B64" s="117" t="s">
+        <v>159</v>
+      </c>
+      <c r="D64" s="118"/>
+      <c r="E64" s="93">
+        <v>43129</v>
+      </c>
+      <c r="F64" s="94">
+        <f t="shared" ref="F64" si="53">IF(ISBLANK(E64)," - ",IF(G64=0,E64,E64+G64-1))</f>
+        <v>43129</v>
+      </c>
+      <c r="G64" s="61">
+        <v>1</v>
+      </c>
+      <c r="H64" s="62">
+        <v>0</v>
+      </c>
+      <c r="I64" s="63">
+        <f t="shared" ref="I64" si="54">IF(OR(F64=0,E64=0)," - ",NETWORKDAYS(E64,F64))</f>
+        <v>1</v>
+      </c>
+      <c r="J64" s="89"/>
+      <c r="K64" s="99"/>
+      <c r="L64" s="99"/>
+      <c r="M64" s="99"/>
+      <c r="N64" s="99"/>
+      <c r="O64" s="99"/>
+      <c r="P64" s="99"/>
+      <c r="Q64" s="99"/>
+      <c r="R64" s="99"/>
+      <c r="S64" s="99"/>
+      <c r="T64" s="99"/>
+      <c r="U64" s="99"/>
+      <c r="V64" s="99"/>
+      <c r="W64" s="99"/>
+      <c r="X64" s="99"/>
+      <c r="Y64" s="99"/>
+      <c r="Z64" s="99"/>
+      <c r="AA64" s="99"/>
+      <c r="AB64" s="99"/>
+      <c r="AC64" s="99"/>
+      <c r="AD64" s="99"/>
+      <c r="AE64" s="99"/>
+      <c r="AF64" s="99"/>
+      <c r="AG64" s="99"/>
+      <c r="AH64" s="99"/>
+      <c r="AI64" s="99"/>
+      <c r="AJ64" s="99"/>
+      <c r="AK64" s="99"/>
+      <c r="AL64" s="99"/>
+      <c r="AM64" s="99"/>
+      <c r="AN64" s="99"/>
+      <c r="AO64" s="99"/>
+      <c r="AP64" s="99"/>
+      <c r="AQ64" s="99"/>
+      <c r="AR64" s="99"/>
+      <c r="AS64" s="99"/>
+      <c r="AT64" s="99"/>
+      <c r="AU64" s="99"/>
+      <c r="AV64" s="99"/>
+      <c r="AW64" s="99"/>
+      <c r="AX64" s="99"/>
+      <c r="AY64" s="99"/>
+      <c r="AZ64" s="99"/>
+      <c r="BA64" s="99"/>
+      <c r="BB64" s="99"/>
+      <c r="BC64" s="99"/>
+      <c r="BD64" s="99"/>
+      <c r="BE64" s="99"/>
+      <c r="BF64" s="99"/>
+      <c r="BG64" s="99"/>
+      <c r="BH64" s="99"/>
+      <c r="BI64" s="99"/>
+      <c r="BJ64" s="99"/>
+      <c r="BK64" s="99"/>
+      <c r="BL64" s="99"/>
+      <c r="BM64" s="99"/>
+      <c r="BN64" s="99"/>
+    </row>
+    <row r="65" spans="1:66" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A65" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>6.2</v>
+      </c>
+      <c r="B65" s="117" t="s">
+        <v>160</v>
+      </c>
+      <c r="D65" s="118"/>
+      <c r="E65" s="93">
+        <v>43129</v>
+      </c>
+      <c r="F65" s="94">
+        <f t="shared" ref="F65:F67" si="55">IF(ISBLANK(E65)," - ",IF(G65=0,E65,E65+G65-1))</f>
+        <v>43129</v>
+      </c>
+      <c r="G65" s="61">
+        <v>1</v>
+      </c>
+      <c r="H65" s="62">
+        <v>0</v>
+      </c>
+      <c r="I65" s="63">
+        <f t="shared" ref="I65:I67" si="56">IF(OR(F65=0,E65=0)," - ",NETWORKDAYS(E65,F65))</f>
+        <v>1</v>
+      </c>
+      <c r="J65" s="89"/>
+      <c r="K65" s="99"/>
+      <c r="L65" s="99"/>
+      <c r="M65" s="99"/>
+      <c r="N65" s="99"/>
+      <c r="O65" s="99"/>
+      <c r="P65" s="99"/>
+      <c r="Q65" s="99"/>
+      <c r="R65" s="99"/>
+      <c r="S65" s="99"/>
+      <c r="T65" s="99"/>
+      <c r="U65" s="99"/>
+      <c r="V65" s="99"/>
+      <c r="W65" s="99"/>
+      <c r="X65" s="99"/>
+      <c r="Y65" s="99"/>
+      <c r="Z65" s="99"/>
+      <c r="AA65" s="99"/>
+      <c r="AB65" s="99"/>
+      <c r="AC65" s="99"/>
+      <c r="AD65" s="99"/>
+      <c r="AE65" s="99"/>
+      <c r="AF65" s="99"/>
+      <c r="AG65" s="99"/>
+      <c r="AH65" s="99"/>
+      <c r="AI65" s="99"/>
+      <c r="AJ65" s="99"/>
+      <c r="AK65" s="99"/>
+      <c r="AL65" s="99"/>
+      <c r="AM65" s="99"/>
+      <c r="AN65" s="99"/>
+      <c r="AO65" s="99"/>
+      <c r="AP65" s="99"/>
+      <c r="AQ65" s="99"/>
+      <c r="AR65" s="99"/>
+      <c r="AS65" s="99"/>
+      <c r="AT65" s="99"/>
+      <c r="AU65" s="99"/>
+      <c r="AV65" s="99"/>
+      <c r="AW65" s="99"/>
+      <c r="AX65" s="99"/>
+      <c r="AY65" s="99"/>
+      <c r="AZ65" s="99"/>
+      <c r="BA65" s="99"/>
+      <c r="BB65" s="99"/>
+      <c r="BC65" s="99"/>
+      <c r="BD65" s="99"/>
+      <c r="BE65" s="99"/>
+      <c r="BF65" s="99"/>
+      <c r="BG65" s="99"/>
+      <c r="BH65" s="99"/>
+      <c r="BI65" s="99"/>
+      <c r="BJ65" s="99"/>
+      <c r="BK65" s="99"/>
+      <c r="BL65" s="99"/>
+      <c r="BM65" s="99"/>
+      <c r="BN65" s="99"/>
+    </row>
+    <row r="66" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A66" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>6.3</v>
+      </c>
+      <c r="B66" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="118"/>
+      <c r="E66" s="93">
+        <v>43129</v>
+      </c>
+      <c r="F66" s="94">
+        <f t="shared" si="55"/>
+        <v>43129</v>
+      </c>
+      <c r="G66" s="61">
+        <v>1</v>
+      </c>
+      <c r="H66" s="62">
+        <v>0</v>
+      </c>
+      <c r="I66" s="63">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="J66" s="89"/>
+      <c r="K66" s="99"/>
+      <c r="L66" s="99"/>
+      <c r="M66" s="99"/>
+      <c r="N66" s="99"/>
+      <c r="O66" s="99"/>
+      <c r="P66" s="99"/>
+      <c r="Q66" s="99"/>
+      <c r="R66" s="99"/>
+      <c r="S66" s="99"/>
+      <c r="T66" s="99"/>
+      <c r="U66" s="99"/>
+      <c r="V66" s="99"/>
+      <c r="W66" s="99"/>
+      <c r="X66" s="99"/>
+      <c r="Y66" s="99"/>
+      <c r="Z66" s="99"/>
+      <c r="AA66" s="99"/>
+      <c r="AB66" s="99"/>
+      <c r="AC66" s="99"/>
+      <c r="AD66" s="99"/>
+      <c r="AE66" s="99"/>
+      <c r="AF66" s="99"/>
+      <c r="AG66" s="99"/>
+      <c r="AH66" s="99"/>
+      <c r="AI66" s="99"/>
+      <c r="AJ66" s="99"/>
+      <c r="AK66" s="99"/>
+      <c r="AL66" s="99"/>
+      <c r="AM66" s="99"/>
+      <c r="AN66" s="99"/>
+      <c r="AO66" s="99"/>
+      <c r="AP66" s="99"/>
+      <c r="AQ66" s="99"/>
+      <c r="AR66" s="99"/>
+      <c r="AS66" s="99"/>
+      <c r="AT66" s="99"/>
+      <c r="AU66" s="99"/>
+      <c r="AV66" s="99"/>
+      <c r="AW66" s="99"/>
+      <c r="AX66" s="99"/>
+      <c r="AY66" s="99"/>
+      <c r="AZ66" s="99"/>
+      <c r="BA66" s="99"/>
+      <c r="BB66" s="99"/>
+      <c r="BC66" s="99"/>
+      <c r="BD66" s="99"/>
+      <c r="BE66" s="99"/>
+      <c r="BF66" s="99"/>
+      <c r="BG66" s="99"/>
+      <c r="BH66" s="99"/>
+      <c r="BI66" s="99"/>
+      <c r="BJ66" s="99"/>
+      <c r="BK66" s="99"/>
+      <c r="BL66" s="99"/>
+      <c r="BM66" s="99"/>
+      <c r="BN66" s="99"/>
+    </row>
+    <row r="67" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A67" s="52" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>7</v>
+      </c>
+      <c r="B67" s="53" t="s">
+        <v>180</v>
+      </c>
+      <c r="D67" s="55"/>
+      <c r="E67" s="95"/>
+      <c r="F67" s="95" t="str">
+        <f t="shared" si="55"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G67" s="56"/>
+      <c r="H67" s="57"/>
+      <c r="I67" s="58" t="str">
+        <f t="shared" si="56"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J67" s="90"/>
+      <c r="K67" s="100"/>
+      <c r="L67" s="100"/>
+      <c r="M67" s="100"/>
+      <c r="N67" s="100"/>
+      <c r="O67" s="100"/>
+      <c r="P67" s="100"/>
+      <c r="Q67" s="100"/>
+      <c r="R67" s="100"/>
+      <c r="S67" s="100"/>
+      <c r="T67" s="100"/>
+      <c r="U67" s="100"/>
+      <c r="V67" s="100"/>
+      <c r="W67" s="100"/>
+      <c r="X67" s="100"/>
+      <c r="Y67" s="100"/>
+      <c r="Z67" s="100"/>
+      <c r="AA67" s="100"/>
+      <c r="AB67" s="100"/>
+      <c r="AC67" s="100"/>
+      <c r="AD67" s="100"/>
+      <c r="AE67" s="100"/>
+      <c r="AF67" s="100"/>
+      <c r="AG67" s="100"/>
+      <c r="AH67" s="100"/>
+      <c r="AI67" s="100"/>
+      <c r="AJ67" s="100"/>
+      <c r="AK67" s="100"/>
+      <c r="AL67" s="100"/>
+      <c r="AM67" s="100"/>
+      <c r="AN67" s="100"/>
+      <c r="AO67" s="100"/>
+      <c r="AP67" s="100"/>
+      <c r="AQ67" s="100"/>
+      <c r="AR67" s="100"/>
+      <c r="AS67" s="100"/>
+      <c r="AT67" s="100"/>
+      <c r="AU67" s="100"/>
+      <c r="AV67" s="100"/>
+      <c r="AW67" s="100"/>
+      <c r="AX67" s="100"/>
+      <c r="AY67" s="100"/>
+      <c r="AZ67" s="100"/>
+      <c r="BA67" s="100"/>
+      <c r="BB67" s="100"/>
+      <c r="BC67" s="100"/>
+      <c r="BD67" s="100"/>
+      <c r="BE67" s="100"/>
+      <c r="BF67" s="100"/>
+      <c r="BG67" s="100"/>
+      <c r="BH67" s="100"/>
+      <c r="BI67" s="100"/>
+      <c r="BJ67" s="100"/>
+      <c r="BK67" s="100"/>
+      <c r="BL67" s="100"/>
+      <c r="BM67" s="100"/>
+      <c r="BN67" s="100"/>
+    </row>
+    <row r="68" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A68" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="66"/>
+      <c r="C68" s="67"/>
+      <c r="D68" s="67"/>
+      <c r="E68" s="96"/>
+      <c r="F68" s="96"/>
+      <c r="G68" s="68"/>
+      <c r="H68" s="68"/>
+      <c r="I68" s="68"/>
+      <c r="J68" s="91"/>
+      <c r="K68" s="99"/>
+      <c r="L68" s="99"/>
+      <c r="M68" s="99"/>
+      <c r="N68" s="99"/>
+      <c r="O68" s="99"/>
+      <c r="P68" s="99"/>
+      <c r="Q68" s="99"/>
+      <c r="R68" s="99"/>
+      <c r="S68" s="99"/>
+      <c r="T68" s="99"/>
+      <c r="U68" s="99"/>
+      <c r="V68" s="99"/>
+      <c r="W68" s="99"/>
+      <c r="X68" s="99"/>
+      <c r="Y68" s="99"/>
+      <c r="Z68" s="99"/>
+      <c r="AA68" s="99"/>
+      <c r="AB68" s="99"/>
+      <c r="AC68" s="99"/>
+      <c r="AD68" s="99"/>
+      <c r="AE68" s="99"/>
+      <c r="AF68" s="99"/>
+      <c r="AG68" s="99"/>
+      <c r="AH68" s="99"/>
+      <c r="AI68" s="99"/>
+      <c r="AJ68" s="99"/>
+      <c r="AK68" s="99"/>
+      <c r="AL68" s="99"/>
+      <c r="AM68" s="99"/>
+      <c r="AN68" s="99"/>
+      <c r="AO68" s="99"/>
+      <c r="AP68" s="99"/>
+      <c r="AQ68" s="99"/>
+      <c r="AR68" s="99"/>
+      <c r="AS68" s="99"/>
+      <c r="AT68" s="99"/>
+      <c r="AU68" s="99"/>
+      <c r="AV68" s="99"/>
+      <c r="AW68" s="99"/>
+      <c r="AX68" s="99"/>
+      <c r="AY68" s="99"/>
+      <c r="AZ68" s="99"/>
+      <c r="BA68" s="99"/>
+      <c r="BB68" s="99"/>
+      <c r="BC68" s="99"/>
+      <c r="BD68" s="99"/>
+      <c r="BE68" s="99"/>
+      <c r="BF68" s="99"/>
+      <c r="BG68" s="99"/>
+      <c r="BH68" s="99"/>
+      <c r="BI68" s="99"/>
+      <c r="BJ68" s="99"/>
+      <c r="BK68" s="99"/>
+      <c r="BL68" s="99"/>
+      <c r="BM68" s="99"/>
+      <c r="BN68" s="99"/>
+    </row>
+    <row r="69" spans="1:66" s="64" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A69" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69" s="71"/>
+      <c r="C69" s="71"/>
+      <c r="D69" s="71"/>
+      <c r="E69" s="97"/>
+      <c r="F69" s="97"/>
+      <c r="G69" s="71"/>
+      <c r="H69" s="71"/>
+      <c r="I69" s="71"/>
+      <c r="J69" s="91"/>
+      <c r="K69" s="99"/>
+      <c r="L69" s="99"/>
+      <c r="M69" s="99"/>
+      <c r="N69" s="99"/>
+      <c r="O69" s="99"/>
+      <c r="P69" s="99"/>
+      <c r="Q69" s="99"/>
+      <c r="R69" s="99"/>
+      <c r="S69" s="99"/>
+      <c r="T69" s="99"/>
+      <c r="U69" s="99"/>
+      <c r="V69" s="99"/>
+      <c r="W69" s="99"/>
+      <c r="X69" s="99"/>
+      <c r="Y69" s="99"/>
+      <c r="Z69" s="99"/>
+      <c r="AA69" s="99"/>
+      <c r="AB69" s="99"/>
+      <c r="AC69" s="99"/>
+      <c r="AD69" s="99"/>
+      <c r="AE69" s="99"/>
+      <c r="AF69" s="99"/>
+      <c r="AG69" s="99"/>
+      <c r="AH69" s="99"/>
+      <c r="AI69" s="99"/>
+      <c r="AJ69" s="99"/>
+      <c r="AK69" s="99"/>
+      <c r="AL69" s="99"/>
+      <c r="AM69" s="99"/>
+      <c r="AN69" s="99"/>
+      <c r="AO69" s="99"/>
+      <c r="AP69" s="99"/>
+      <c r="AQ69" s="99"/>
+      <c r="AR69" s="99"/>
+      <c r="AS69" s="99"/>
+      <c r="AT69" s="99"/>
+      <c r="AU69" s="99"/>
+      <c r="AV69" s="99"/>
+      <c r="AW69" s="99"/>
+      <c r="AX69" s="99"/>
+      <c r="AY69" s="99"/>
+      <c r="AZ69" s="99"/>
+      <c r="BA69" s="99"/>
+      <c r="BB69" s="99"/>
+      <c r="BC69" s="99"/>
+      <c r="BD69" s="99"/>
+      <c r="BE69" s="99"/>
+      <c r="BF69" s="99"/>
+      <c r="BG69" s="99"/>
+      <c r="BH69" s="99"/>
+      <c r="BI69" s="99"/>
+      <c r="BJ69" s="99"/>
+      <c r="BK69" s="99"/>
+      <c r="BL69" s="99"/>
+      <c r="BM69" s="99"/>
+      <c r="BN69" s="99"/>
+    </row>
+    <row r="70" spans="1:66" s="64" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A70" s="121" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>1</v>
+      </c>
+      <c r="B70" s="122" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70" s="72"/>
+      <c r="D70" s="73"/>
+      <c r="E70" s="93"/>
+      <c r="F70" s="94" t="str">
+        <f t="shared" ref="F70:F73" si="57">IF(ISBLANK(E70)," - ",IF(G70=0,E70,E70+G70-1))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G70" s="61"/>
+      <c r="H70" s="62"/>
+      <c r="I70" s="74" t="str">
+        <f>IF(OR(F70=0,E70=0)," - ",NETWORKDAYS(E70,F70))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J70" s="92"/>
+      <c r="K70" s="99"/>
+      <c r="L70" s="99"/>
+      <c r="M70" s="99"/>
+      <c r="N70" s="99"/>
+      <c r="O70" s="99"/>
+      <c r="P70" s="99"/>
+      <c r="Q70" s="99"/>
+      <c r="R70" s="99"/>
+      <c r="S70" s="99"/>
+      <c r="T70" s="99"/>
+      <c r="U70" s="99"/>
+      <c r="V70" s="99"/>
+      <c r="W70" s="99"/>
+      <c r="X70" s="99"/>
+      <c r="Y70" s="99"/>
+      <c r="Z70" s="99"/>
+      <c r="AA70" s="99"/>
+      <c r="AB70" s="99"/>
+      <c r="AC70" s="99"/>
+      <c r="AD70" s="99"/>
+      <c r="AE70" s="99"/>
+      <c r="AF70" s="99"/>
+      <c r="AG70" s="99"/>
+      <c r="AH70" s="99"/>
+      <c r="AI70" s="99"/>
+      <c r="AJ70" s="99"/>
+      <c r="AK70" s="99"/>
+      <c r="AL70" s="99"/>
+      <c r="AM70" s="99"/>
+      <c r="AN70" s="99"/>
+      <c r="AO70" s="99"/>
+      <c r="AP70" s="99"/>
+      <c r="AQ70" s="99"/>
+      <c r="AR70" s="99"/>
+      <c r="AS70" s="99"/>
+      <c r="AT70" s="99"/>
+      <c r="AU70" s="99"/>
+      <c r="AV70" s="99"/>
+      <c r="AW70" s="99"/>
+      <c r="AX70" s="99"/>
+      <c r="AY70" s="99"/>
+      <c r="AZ70" s="99"/>
+      <c r="BA70" s="99"/>
+      <c r="BB70" s="99"/>
+      <c r="BC70" s="99"/>
+      <c r="BD70" s="99"/>
+      <c r="BE70" s="99"/>
+      <c r="BF70" s="99"/>
+      <c r="BG70" s="99"/>
+      <c r="BH70" s="99"/>
+      <c r="BI70" s="99"/>
+      <c r="BJ70" s="99"/>
+      <c r="BK70" s="99"/>
+      <c r="BL70" s="99"/>
+      <c r="BM70" s="99"/>
+      <c r="BN70" s="99"/>
+    </row>
+    <row r="71" spans="1:66" s="64" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A71" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>1.1</v>
+      </c>
+      <c r="B71" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="C71" s="75"/>
+      <c r="D71" s="73"/>
+      <c r="E71" s="93"/>
+      <c r="F71" s="94" t="str">
+        <f t="shared" si="57"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G71" s="61"/>
+      <c r="H71" s="62"/>
+      <c r="I71" s="74" t="str">
+        <f t="shared" ref="I71:I73" si="58">IF(OR(F71=0,E71=0)," - ",NETWORKDAYS(E71,F71))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J71" s="92"/>
+      <c r="K71" s="99"/>
+      <c r="L71" s="99"/>
+      <c r="M71" s="99"/>
+      <c r="N71" s="99"/>
+      <c r="O71" s="99"/>
+      <c r="P71" s="99"/>
+      <c r="Q71" s="99"/>
+      <c r="R71" s="99"/>
+      <c r="S71" s="99"/>
+      <c r="T71" s="99"/>
+      <c r="U71" s="99"/>
+      <c r="V71" s="99"/>
+      <c r="W71" s="99"/>
+      <c r="X71" s="99"/>
+      <c r="Y71" s="99"/>
+      <c r="Z71" s="99"/>
+      <c r="AA71" s="99"/>
+      <c r="AB71" s="99"/>
+      <c r="AC71" s="99"/>
+      <c r="AD71" s="99"/>
+      <c r="AE71" s="99"/>
+      <c r="AF71" s="99"/>
+      <c r="AG71" s="99"/>
+      <c r="AH71" s="99"/>
+      <c r="AI71" s="99"/>
+      <c r="AJ71" s="99"/>
+      <c r="AK71" s="99"/>
+      <c r="AL71" s="99"/>
+      <c r="AM71" s="99"/>
+      <c r="AN71" s="99"/>
+      <c r="AO71" s="99"/>
+      <c r="AP71" s="99"/>
+      <c r="AQ71" s="99"/>
+      <c r="AR71" s="99"/>
+      <c r="AS71" s="99"/>
+      <c r="AT71" s="99"/>
+      <c r="AU71" s="99"/>
+      <c r="AV71" s="99"/>
+      <c r="AW71" s="99"/>
+      <c r="AX71" s="99"/>
+      <c r="AY71" s="99"/>
+      <c r="AZ71" s="99"/>
+      <c r="BA71" s="99"/>
+      <c r="BB71" s="99"/>
+      <c r="BC71" s="99"/>
+      <c r="BD71" s="99"/>
+      <c r="BE71" s="99"/>
+      <c r="BF71" s="99"/>
+      <c r="BG71" s="99"/>
+      <c r="BH71" s="99"/>
+      <c r="BI71" s="99"/>
+      <c r="BJ71" s="99"/>
+      <c r="BK71" s="99"/>
+      <c r="BL71" s="99"/>
+      <c r="BM71" s="99"/>
+      <c r="BN71" s="99"/>
+    </row>
+    <row r="72" spans="1:66" s="64" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A72" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>1.1.1</v>
+      </c>
+      <c r="B72" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="C72" s="75"/>
+      <c r="D72" s="73"/>
+      <c r="E72" s="93"/>
+      <c r="F72" s="94" t="str">
+        <f t="shared" si="57"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G72" s="61"/>
+      <c r="H72" s="62"/>
+      <c r="I72" s="74" t="str">
+        <f t="shared" si="58"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J72" s="92"/>
+      <c r="K72" s="99"/>
+      <c r="L72" s="99"/>
+      <c r="M72" s="99"/>
+      <c r="N72" s="99"/>
+      <c r="O72" s="99"/>
+      <c r="P72" s="99"/>
+      <c r="Q72" s="99"/>
+      <c r="R72" s="99"/>
+      <c r="S72" s="99"/>
+      <c r="T72" s="99"/>
+      <c r="U72" s="99"/>
+      <c r="V72" s="99"/>
+      <c r="W72" s="99"/>
+      <c r="X72" s="99"/>
+      <c r="Y72" s="99"/>
+      <c r="Z72" s="99"/>
+      <c r="AA72" s="99"/>
+      <c r="AB72" s="99"/>
+      <c r="AC72" s="99"/>
+      <c r="AD72" s="99"/>
+      <c r="AE72" s="99"/>
+      <c r="AF72" s="99"/>
+      <c r="AG72" s="99"/>
+      <c r="AH72" s="99"/>
+      <c r="AI72" s="99"/>
+      <c r="AJ72" s="99"/>
+      <c r="AK72" s="99"/>
+      <c r="AL72" s="99"/>
+      <c r="AM72" s="99"/>
+      <c r="AN72" s="99"/>
+      <c r="AO72" s="99"/>
+      <c r="AP72" s="99"/>
+      <c r="AQ72" s="99"/>
+      <c r="AR72" s="99"/>
+      <c r="AS72" s="99"/>
+      <c r="AT72" s="99"/>
+      <c r="AU72" s="99"/>
+      <c r="AV72" s="99"/>
+      <c r="AW72" s="99"/>
+      <c r="AX72" s="99"/>
+      <c r="AY72" s="99"/>
+      <c r="AZ72" s="99"/>
+      <c r="BA72" s="99"/>
+      <c r="BB72" s="99"/>
+      <c r="BC72" s="99"/>
+      <c r="BD72" s="99"/>
+      <c r="BE72" s="99"/>
+      <c r="BF72" s="99"/>
+      <c r="BG72" s="99"/>
+      <c r="BH72" s="99"/>
+      <c r="BI72" s="99"/>
+      <c r="BJ72" s="99"/>
+      <c r="BK72" s="99"/>
+      <c r="BL72" s="99"/>
+      <c r="BM72" s="99"/>
+      <c r="BN72" s="99"/>
+    </row>
+    <row r="73" spans="1:66" s="64" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A73" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
         <v>1.1.1.1</v>
       </c>
-      <c r="B53" s="76" t="s">
+      <c r="B73" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="75"/>
-      <c r="D53" s="73"/>
-      <c r="E53" s="93"/>
-      <c r="F53" s="94" t="str">
-        <f t="shared" si="37"/>
+      <c r="C73" s="75"/>
+      <c r="D73" s="73"/>
+      <c r="E73" s="93"/>
+      <c r="F73" s="94" t="str">
+        <f t="shared" si="57"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G53" s="61"/>
-      <c r="H53" s="62"/>
-      <c r="I53" s="74" t="str">
-        <f t="shared" si="38"/>
+      <c r="G73" s="61"/>
+      <c r="H73" s="62"/>
+      <c r="I73" s="74" t="str">
+        <f t="shared" si="58"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J53" s="92"/>
-      <c r="K53" s="99"/>
-      <c r="L53" s="99"/>
-      <c r="M53" s="99"/>
-      <c r="N53" s="99"/>
-      <c r="O53" s="99"/>
-      <c r="P53" s="99"/>
-      <c r="Q53" s="99"/>
-      <c r="R53" s="99"/>
-      <c r="S53" s="99"/>
-      <c r="T53" s="99"/>
-      <c r="U53" s="99"/>
-      <c r="V53" s="99"/>
-      <c r="W53" s="99"/>
-      <c r="X53" s="99"/>
-      <c r="Y53" s="99"/>
-      <c r="Z53" s="99"/>
-      <c r="AA53" s="99"/>
-      <c r="AB53" s="99"/>
-      <c r="AC53" s="99"/>
-      <c r="AD53" s="99"/>
-      <c r="AE53" s="99"/>
-      <c r="AF53" s="99"/>
-      <c r="AG53" s="99"/>
-      <c r="AH53" s="99"/>
-      <c r="AI53" s="99"/>
-      <c r="AJ53" s="99"/>
-      <c r="AK53" s="99"/>
-      <c r="AL53" s="99"/>
-      <c r="AM53" s="99"/>
-      <c r="AN53" s="99"/>
-      <c r="AO53" s="99"/>
-      <c r="AP53" s="99"/>
-      <c r="AQ53" s="99"/>
-      <c r="AR53" s="99"/>
-      <c r="AS53" s="99"/>
-      <c r="AT53" s="99"/>
-      <c r="AU53" s="99"/>
-      <c r="AV53" s="99"/>
-      <c r="AW53" s="99"/>
-      <c r="AX53" s="99"/>
-      <c r="AY53" s="99"/>
-      <c r="AZ53" s="99"/>
-      <c r="BA53" s="99"/>
-      <c r="BB53" s="99"/>
-      <c r="BC53" s="99"/>
-      <c r="BD53" s="99"/>
-      <c r="BE53" s="99"/>
-      <c r="BF53" s="99"/>
-      <c r="BG53" s="99"/>
-      <c r="BH53" s="99"/>
-      <c r="BI53" s="99"/>
-      <c r="BJ53" s="99"/>
-      <c r="BK53" s="99"/>
-      <c r="BL53" s="99"/>
-      <c r="BM53" s="99"/>
-      <c r="BN53" s="99"/>
-    </row>
-    <row r="54" spans="1:66" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="154" t="str">
+      <c r="J73" s="92"/>
+      <c r="K73" s="99"/>
+      <c r="L73" s="99"/>
+      <c r="M73" s="99"/>
+      <c r="N73" s="99"/>
+      <c r="O73" s="99"/>
+      <c r="P73" s="99"/>
+      <c r="Q73" s="99"/>
+      <c r="R73" s="99"/>
+      <c r="S73" s="99"/>
+      <c r="T73" s="99"/>
+      <c r="U73" s="99"/>
+      <c r="V73" s="99"/>
+      <c r="W73" s="99"/>
+      <c r="X73" s="99"/>
+      <c r="Y73" s="99"/>
+      <c r="Z73" s="99"/>
+      <c r="AA73" s="99"/>
+      <c r="AB73" s="99"/>
+      <c r="AC73" s="99"/>
+      <c r="AD73" s="99"/>
+      <c r="AE73" s="99"/>
+      <c r="AF73" s="99"/>
+      <c r="AG73" s="99"/>
+      <c r="AH73" s="99"/>
+      <c r="AI73" s="99"/>
+      <c r="AJ73" s="99"/>
+      <c r="AK73" s="99"/>
+      <c r="AL73" s="99"/>
+      <c r="AM73" s="99"/>
+      <c r="AN73" s="99"/>
+      <c r="AO73" s="99"/>
+      <c r="AP73" s="99"/>
+      <c r="AQ73" s="99"/>
+      <c r="AR73" s="99"/>
+      <c r="AS73" s="99"/>
+      <c r="AT73" s="99"/>
+      <c r="AU73" s="99"/>
+      <c r="AV73" s="99"/>
+      <c r="AW73" s="99"/>
+      <c r="AX73" s="99"/>
+      <c r="AY73" s="99"/>
+      <c r="AZ73" s="99"/>
+      <c r="BA73" s="99"/>
+      <c r="BB73" s="99"/>
+      <c r="BC73" s="99"/>
+      <c r="BD73" s="99"/>
+      <c r="BE73" s="99"/>
+      <c r="BF73" s="99"/>
+      <c r="BG73" s="99"/>
+      <c r="BH73" s="99"/>
+      <c r="BI73" s="99"/>
+      <c r="BJ73" s="99"/>
+      <c r="BK73" s="99"/>
+      <c r="BL73" s="99"/>
+      <c r="BM73" s="99"/>
+      <c r="BN73" s="99"/>
+    </row>
+    <row r="74" spans="1:66" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="154" t="str">
         <f>HYPERLINK("https://vertex42.link/HowToCreateAGanttChart","► Watch How to Create a Gantt Chart in Excel")</f>
         <v>► Watch How to Create a Gantt Chart in Excel</v>
       </c>
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
-      <c r="M54" s="30"/>
-      <c r="N54" s="30"/>
-      <c r="O54" s="30"/>
-      <c r="P54" s="30"/>
-      <c r="Q54" s="30"/>
-      <c r="R54" s="30"/>
-      <c r="S54" s="30"/>
-      <c r="T54" s="30"/>
-      <c r="U54" s="30"/>
-      <c r="V54" s="30"/>
-      <c r="W54" s="30"/>
-      <c r="X54" s="30"/>
-      <c r="Y54" s="30"/>
-      <c r="Z54" s="30"/>
-      <c r="AA54" s="30"/>
-      <c r="AB54" s="30"/>
-      <c r="AC54" s="30"/>
-      <c r="AD54" s="30"/>
-      <c r="AE54" s="30"/>
-      <c r="AF54" s="30"/>
-      <c r="AG54" s="30"/>
-      <c r="AH54" s="30"/>
-      <c r="AI54" s="30"/>
-      <c r="AJ54" s="30"/>
-      <c r="AK54" s="30"/>
-      <c r="AL54" s="30"/>
-      <c r="AM54" s="30"/>
-      <c r="AN54" s="30"/>
-      <c r="AO54" s="30"/>
-      <c r="AP54" s="30"/>
-      <c r="AQ54" s="30"/>
-      <c r="AR54" s="30"/>
-      <c r="AS54" s="30"/>
-      <c r="AT54" s="30"/>
-      <c r="AU54" s="30"/>
-      <c r="AV54" s="30"/>
-      <c r="AW54" s="30"/>
-      <c r="AX54" s="30"/>
-      <c r="AY54" s="30"/>
-      <c r="AZ54" s="30"/>
-      <c r="BA54" s="30"/>
-      <c r="BB54" s="30"/>
-      <c r="BC54" s="30"/>
-      <c r="BD54" s="30"/>
-      <c r="BE54" s="30"/>
-      <c r="BF54" s="30"/>
-      <c r="BG54" s="30"/>
-      <c r="BH54" s="30"/>
-      <c r="BI54" s="30"/>
-      <c r="BJ54" s="30"/>
-      <c r="BK54" s="30"/>
-      <c r="BL54" s="30"/>
-      <c r="BM54" s="30"/>
-      <c r="BN54" s="30"/>
+      <c r="B74" s="30"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="30"/>
+      <c r="L74" s="30"/>
+      <c r="M74" s="30"/>
+      <c r="N74" s="30"/>
+      <c r="O74" s="30"/>
+      <c r="P74" s="30"/>
+      <c r="Q74" s="30"/>
+      <c r="R74" s="30"/>
+      <c r="S74" s="30"/>
+      <c r="T74" s="30"/>
+      <c r="U74" s="30"/>
+      <c r="V74" s="30"/>
+      <c r="W74" s="30"/>
+      <c r="X74" s="30"/>
+      <c r="Y74" s="30"/>
+      <c r="Z74" s="30"/>
+      <c r="AA74" s="30"/>
+      <c r="AB74" s="30"/>
+      <c r="AC74" s="30"/>
+      <c r="AD74" s="30"/>
+      <c r="AE74" s="30"/>
+      <c r="AF74" s="30"/>
+      <c r="AG74" s="30"/>
+      <c r="AH74" s="30"/>
+      <c r="AI74" s="30"/>
+      <c r="AJ74" s="30"/>
+      <c r="AK74" s="30"/>
+      <c r="AL74" s="30"/>
+      <c r="AM74" s="30"/>
+      <c r="AN74" s="30"/>
+      <c r="AO74" s="30"/>
+      <c r="AP74" s="30"/>
+      <c r="AQ74" s="30"/>
+      <c r="AR74" s="30"/>
+      <c r="AS74" s="30"/>
+      <c r="AT74" s="30"/>
+      <c r="AU74" s="30"/>
+      <c r="AV74" s="30"/>
+      <c r="AW74" s="30"/>
+      <c r="AX74" s="30"/>
+      <c r="AY74" s="30"/>
+      <c r="AZ74" s="30"/>
+      <c r="BA74" s="30"/>
+      <c r="BB74" s="30"/>
+      <c r="BC74" s="30"/>
+      <c r="BD74" s="30"/>
+      <c r="BE74" s="30"/>
+      <c r="BF74" s="30"/>
+      <c r="BG74" s="30"/>
+      <c r="BH74" s="30"/>
+      <c r="BI74" s="30"/>
+      <c r="BJ74" s="30"/>
+      <c r="BK74" s="30"/>
+      <c r="BL74" s="30"/>
+      <c r="BM74" s="30"/>
+      <c r="BN74" s="30"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
@@ -8848,8 +11062,8 @@
     <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H8:H10 H48:H53 H19:H21 H25:H39">
-    <cfRule type="dataBar" priority="78">
+  <conditionalFormatting sqref="H8:H9 H68:H73 H11 H20:H21 H25:H26 H29:H31 H41 H50:H58">
+    <cfRule type="dataBar" priority="166">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8863,25 +11077,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:BN7">
-    <cfRule type="expression" dxfId="44" priority="121">
+    <cfRule type="expression" dxfId="102" priority="209">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN10 K19:BN21 K25:BN53">
-    <cfRule type="expression" dxfId="43" priority="124">
+  <conditionalFormatting sqref="K8:BN9 K11:BN11 K20:BN26 K29:BN31 K41:BN41 K50:BN73">
+    <cfRule type="expression" dxfId="101" priority="212">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="125">
+    <cfRule type="expression" dxfId="100" priority="213">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN10 K48:BN53 K19:BN21 K25:BN39">
-    <cfRule type="expression" dxfId="41" priority="84">
+  <conditionalFormatting sqref="K6:BN9 K68:BN73 K11:BN11 K20:BN21 K25:BN26 K29:BN31 K41:BN41 K50:BN58">
+    <cfRule type="expression" dxfId="99" priority="172">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
-    <cfRule type="dataBar" priority="73">
+  <conditionalFormatting sqref="H59">
+    <cfRule type="dataBar" priority="161">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8894,13 +11108,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40:BN40">
-    <cfRule type="expression" dxfId="40" priority="74">
+  <conditionalFormatting sqref="K59:BN59">
+    <cfRule type="expression" dxfId="98" priority="162">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
-    <cfRule type="dataBar" priority="69">
+  <conditionalFormatting sqref="H60">
+    <cfRule type="dataBar" priority="157">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8913,13 +11127,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41:BN41">
-    <cfRule type="expression" dxfId="39" priority="70">
+  <conditionalFormatting sqref="K60:BN60">
+    <cfRule type="expression" dxfId="97" priority="158">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
-    <cfRule type="dataBar" priority="65">
+  <conditionalFormatting sqref="H61">
+    <cfRule type="dataBar" priority="153">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8932,13 +11146,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42:BN42">
-    <cfRule type="expression" dxfId="38" priority="66">
+  <conditionalFormatting sqref="K61:BN61">
+    <cfRule type="expression" dxfId="96" priority="154">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
-    <cfRule type="dataBar" priority="61">
+  <conditionalFormatting sqref="H62">
+    <cfRule type="dataBar" priority="149">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8951,13 +11165,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K43:BN43">
-    <cfRule type="expression" dxfId="37" priority="62">
+  <conditionalFormatting sqref="K62:BN62">
+    <cfRule type="expression" dxfId="95" priority="150">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="dataBar" priority="57">
+  <conditionalFormatting sqref="H63">
+    <cfRule type="dataBar" priority="145">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8970,13 +11184,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K44:BN44">
-    <cfRule type="expression" dxfId="36" priority="58">
+  <conditionalFormatting sqref="K63:BN63">
+    <cfRule type="expression" dxfId="94" priority="146">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="dataBar" priority="53">
+  <conditionalFormatting sqref="H64">
+    <cfRule type="dataBar" priority="141">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8989,13 +11203,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K45:BN45">
-    <cfRule type="expression" dxfId="35" priority="54">
+  <conditionalFormatting sqref="K64:BN64">
+    <cfRule type="expression" dxfId="93" priority="142">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
-    <cfRule type="dataBar" priority="49">
+  <conditionalFormatting sqref="H65">
+    <cfRule type="dataBar" priority="137">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9008,13 +11222,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K46:BN46">
-    <cfRule type="expression" dxfId="34" priority="50">
+  <conditionalFormatting sqref="K65:BN65">
+    <cfRule type="expression" dxfId="92" priority="138">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="dataBar" priority="45">
+  <conditionalFormatting sqref="H66">
+    <cfRule type="dataBar" priority="133">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9027,13 +11241,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K47:BN47">
-    <cfRule type="expression" dxfId="33" priority="46">
+  <conditionalFormatting sqref="K66:BN66">
+    <cfRule type="expression" dxfId="91" priority="134">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="dataBar" priority="41">
+  <conditionalFormatting sqref="H12">
+    <cfRule type="dataBar" priority="129">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9046,21 +11260,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:BN11">
-    <cfRule type="expression" dxfId="32" priority="43">
-      <formula>AND($E11&lt;=K$6,ROUNDDOWN(($F11-$E11+1)*$H11,0)+$E11-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="44">
-      <formula>AND(NOT(ISBLANK($E11)),$E11&lt;=K$6,$F11&gt;=K$6)</formula>
+  <conditionalFormatting sqref="K12:BN12">
+    <cfRule type="expression" dxfId="90" priority="131">
+      <formula>AND($E12&lt;=K$6,ROUNDDOWN(($F12-$E12+1)*$H12,0)+$E12-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="89" priority="132">
+      <formula>AND(NOT(ISBLANK($E12)),$E12&lt;=K$6,$F12&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:BN11">
-    <cfRule type="expression" dxfId="30" priority="42">
+  <conditionalFormatting sqref="K12:BN12">
+    <cfRule type="expression" dxfId="88" priority="130">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="dataBar" priority="37">
+  <conditionalFormatting sqref="H13">
+    <cfRule type="dataBar" priority="125">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9073,21 +11287,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:BN12">
-    <cfRule type="expression" dxfId="29" priority="39">
-      <formula>AND($E12&lt;=K$6,ROUNDDOWN(($F12-$E12+1)*$H12,0)+$E12-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="40">
-      <formula>AND(NOT(ISBLANK($E12)),$E12&lt;=K$6,$F12&gt;=K$6)</formula>
+  <conditionalFormatting sqref="K13:BN13">
+    <cfRule type="expression" dxfId="87" priority="127">
+      <formula>AND($E13&lt;=K$6,ROUNDDOWN(($F13-$E13+1)*$H13,0)+$E13-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="128">
+      <formula>AND(NOT(ISBLANK($E13)),$E13&lt;=K$6,$F13&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:BN12">
-    <cfRule type="expression" dxfId="27" priority="38">
+  <conditionalFormatting sqref="K13:BN13">
+    <cfRule type="expression" dxfId="85" priority="126">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="dataBar" priority="33">
+  <conditionalFormatting sqref="H14">
+    <cfRule type="dataBar" priority="121">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9100,21 +11314,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13:BN13">
-    <cfRule type="expression" dxfId="26" priority="35">
-      <formula>AND($E13&lt;=K$6,ROUNDDOWN(($F13-$E13+1)*$H13,0)+$E13-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="36">
-      <formula>AND(NOT(ISBLANK($E13)),$E13&lt;=K$6,$F13&gt;=K$6)</formula>
+  <conditionalFormatting sqref="K14:BN14">
+    <cfRule type="expression" dxfId="84" priority="123">
+      <formula>AND($E14&lt;=K$6,ROUNDDOWN(($F14-$E14+1)*$H14,0)+$E14-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="83" priority="124">
+      <formula>AND(NOT(ISBLANK($E14)),$E14&lt;=K$6,$F14&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13:BN13">
-    <cfRule type="expression" dxfId="24" priority="34">
+  <conditionalFormatting sqref="K14:BN14">
+    <cfRule type="expression" dxfId="82" priority="122">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="dataBar" priority="29">
+  <conditionalFormatting sqref="H15">
+    <cfRule type="dataBar" priority="117">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9127,21 +11341,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:BN14">
-    <cfRule type="expression" dxfId="23" priority="31">
-      <formula>AND($E14&lt;=K$6,ROUNDDOWN(($F14-$E14+1)*$H14,0)+$E14-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="32">
-      <formula>AND(NOT(ISBLANK($E14)),$E14&lt;=K$6,$F14&gt;=K$6)</formula>
+  <conditionalFormatting sqref="K15:BN15">
+    <cfRule type="expression" dxfId="81" priority="119">
+      <formula>AND($E15&lt;=K$6,ROUNDDOWN(($F15-$E15+1)*$H15,0)+$E15-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="120">
+      <formula>AND(NOT(ISBLANK($E15)),$E15&lt;=K$6,$F15&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:BN14">
-    <cfRule type="expression" dxfId="21" priority="30">
+  <conditionalFormatting sqref="K15:BN15">
+    <cfRule type="expression" dxfId="79" priority="118">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="dataBar" priority="25">
+  <conditionalFormatting sqref="H16">
+    <cfRule type="dataBar" priority="113">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9154,21 +11368,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:BN15">
-    <cfRule type="expression" dxfId="20" priority="27">
-      <formula>AND($E15&lt;=K$6,ROUNDDOWN(($F15-$E15+1)*$H15,0)+$E15-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="28">
-      <formula>AND(NOT(ISBLANK($E15)),$E15&lt;=K$6,$F15&gt;=K$6)</formula>
+  <conditionalFormatting sqref="K16:BN16">
+    <cfRule type="expression" dxfId="78" priority="115">
+      <formula>AND($E16&lt;=K$6,ROUNDDOWN(($F16-$E16+1)*$H16,0)+$E16-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="77" priority="116">
+      <formula>AND(NOT(ISBLANK($E16)),$E16&lt;=K$6,$F16&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:BN15">
-    <cfRule type="expression" dxfId="18" priority="26">
+  <conditionalFormatting sqref="K16:BN16">
+    <cfRule type="expression" dxfId="76" priority="114">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="dataBar" priority="21">
+  <conditionalFormatting sqref="H17">
+    <cfRule type="dataBar" priority="109">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9181,21 +11395,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:BN16">
-    <cfRule type="expression" dxfId="17" priority="23">
-      <formula>AND($E16&lt;=K$6,ROUNDDOWN(($F16-$E16+1)*$H16,0)+$E16-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="24">
-      <formula>AND(NOT(ISBLANK($E16)),$E16&lt;=K$6,$F16&gt;=K$6)</formula>
+  <conditionalFormatting sqref="K17:BN17">
+    <cfRule type="expression" dxfId="75" priority="111">
+      <formula>AND($E17&lt;=K$6,ROUNDDOWN(($F17-$E17+1)*$H17,0)+$E17-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="112">
+      <formula>AND(NOT(ISBLANK($E17)),$E17&lt;=K$6,$F17&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:BN16">
-    <cfRule type="expression" dxfId="15" priority="22">
+  <conditionalFormatting sqref="K17:BN17">
+    <cfRule type="expression" dxfId="73" priority="110">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
-    <cfRule type="dataBar" priority="17">
+  <conditionalFormatting sqref="H18">
+    <cfRule type="dataBar" priority="105">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9208,21 +11422,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:BN17">
-    <cfRule type="expression" dxfId="14" priority="19">
-      <formula>AND($E17&lt;=K$6,ROUNDDOWN(($F17-$E17+1)*$H17,0)+$E17-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="20">
-      <formula>AND(NOT(ISBLANK($E17)),$E17&lt;=K$6,$F17&gt;=K$6)</formula>
+  <conditionalFormatting sqref="K18:BN18">
+    <cfRule type="expression" dxfId="72" priority="107">
+      <formula>AND($E18&lt;=K$6,ROUNDDOWN(($F18-$E18+1)*$H18,0)+$E18-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="71" priority="108">
+      <formula>AND(NOT(ISBLANK($E18)),$E18&lt;=K$6,$F18&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:BN17">
-    <cfRule type="expression" dxfId="12" priority="18">
+  <conditionalFormatting sqref="K18:BN18">
+    <cfRule type="expression" dxfId="70" priority="106">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="dataBar" priority="13">
+  <conditionalFormatting sqref="H19">
+    <cfRule type="dataBar" priority="101">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9235,21 +11449,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:BN18">
-    <cfRule type="expression" dxfId="11" priority="15">
-      <formula>AND($E18&lt;=K$6,ROUNDDOWN(($F18-$E18+1)*$H18,0)+$E18-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="16">
-      <formula>AND(NOT(ISBLANK($E18)),$E18&lt;=K$6,$F18&gt;=K$6)</formula>
+  <conditionalFormatting sqref="K19:BN19">
+    <cfRule type="expression" dxfId="69" priority="103">
+      <formula>AND($E19&lt;=K$6,ROUNDDOWN(($F19-$E19+1)*$H19,0)+$E19-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="104">
+      <formula>AND(NOT(ISBLANK($E19)),$E19&lt;=K$6,$F19&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:BN18">
-    <cfRule type="expression" dxfId="9" priority="14">
+  <conditionalFormatting sqref="K19:BN19">
+    <cfRule type="expression" dxfId="67" priority="102">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="97">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9263,20 +11477,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22:BN22">
-    <cfRule type="expression" dxfId="8" priority="11">
-      <formula>AND($E22&lt;=K$6,ROUNDDOWN(($F22-$E22+1)*$H22,0)+$E22-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="12">
-      <formula>AND(NOT(ISBLANK($E22)),$E22&lt;=K$6,$F22&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K22:BN22">
-    <cfRule type="expression" dxfId="6" priority="10">
+    <cfRule type="expression" dxfId="66" priority="98">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="93">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9290,20 +11496,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23:BN23">
-    <cfRule type="expression" dxfId="5" priority="7">
-      <formula>AND($E23&lt;=K$6,ROUNDDOWN(($F23-$E23+1)*$H23,0)+$E23-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
-      <formula>AND(NOT(ISBLANK($E23)),$E23&lt;=K$6,$F23&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23:BN23">
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="65" priority="94">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="89">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9317,15 +11515,566 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24:BN24">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>AND($E24&lt;=K$6,ROUNDDOWN(($F24-$E24+1)*$H24,0)+$E24-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
-      <formula>AND(NOT(ISBLANK($E24)),$E24&lt;=K$6,$F24&gt;=K$6)</formula>
+    <cfRule type="expression" dxfId="64" priority="90">
+      <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K24:BN24">
-    <cfRule type="expression" dxfId="0" priority="2">
+  <conditionalFormatting sqref="H67">
+    <cfRule type="dataBar" priority="85">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{063A9F82-2F86-4B32-A209-F5B4C7385609}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K67:BN67">
+    <cfRule type="expression" dxfId="63" priority="86">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="dataBar" priority="81">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7441C645-CDD7-4332-B16A-D63E38A71E7F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10:BN10">
+    <cfRule type="expression" dxfId="62" priority="83">
+      <formula>AND($E10&lt;=K$6,ROUNDDOWN(($F10-$E10+1)*$H10,0)+$E10-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="84">
+      <formula>AND(NOT(ISBLANK($E10)),$E10&lt;=K$6,$F10&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10:BN10">
+    <cfRule type="expression" dxfId="60" priority="82">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27:BN27">
+    <cfRule type="expression" dxfId="59" priority="75">
+      <formula>AND($E27&lt;=K$6,ROUNDDOWN(($F27-$E27+1)*$H27,0)+$E27-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="76">
+      <formula>AND(NOT(ISBLANK($E27)),$E27&lt;=K$6,$F27&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="dataBar" priority="73">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D9CAE1A9-893D-40CD-9569-87614C7C16A4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27:BN27">
+    <cfRule type="expression" dxfId="57" priority="74">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28:BN28">
+    <cfRule type="expression" dxfId="56" priority="71">
+      <formula>AND($E28&lt;=K$6,ROUNDDOWN(($F28-$E28+1)*$H28,0)+$E28-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="72">
+      <formula>AND(NOT(ISBLANK($E28)),$E28&lt;=K$6,$F28&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="dataBar" priority="69">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DE485875-CAC1-4F3C-AF42-615E36EF56AB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28:BN28">
+    <cfRule type="expression" dxfId="54" priority="70">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40">
+    <cfRule type="dataBar" priority="65">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{91E39612-F833-4191-B6AA-6AF3D151E65F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K40:BN40">
+    <cfRule type="expression" dxfId="53" priority="67">
+      <formula>AND($E40&lt;=K$6,ROUNDDOWN(($F40-$E40+1)*$H40,0)+$E40-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="68">
+      <formula>AND(NOT(ISBLANK($E40)),$E40&lt;=K$6,$F40&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K40:BN40">
+    <cfRule type="expression" dxfId="51" priority="66">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32:BN32">
+    <cfRule type="expression" dxfId="50" priority="63">
+      <formula>AND($E32&lt;=K$6,ROUNDDOWN(($F32-$E32+1)*$H32,0)+$E32-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="64">
+      <formula>AND(NOT(ISBLANK($E32)),$E32&lt;=K$6,$F32&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="dataBar" priority="61">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BC0CD262-D5C0-4114-862E-FD1D455DCCB6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32:BN32">
+    <cfRule type="expression" dxfId="48" priority="62">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33:BN33">
+    <cfRule type="expression" dxfId="47" priority="59">
+      <formula>AND($E33&lt;=K$6,ROUNDDOWN(($F33-$E33+1)*$H33,0)+$E33-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="60">
+      <formula>AND(NOT(ISBLANK($E33)),$E33&lt;=K$6,$F33&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33">
+    <cfRule type="dataBar" priority="57">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4EEB3302-B300-4F37-8090-228654E26DB8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33:BN33">
+    <cfRule type="expression" dxfId="45" priority="58">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34:BN34">
+    <cfRule type="expression" dxfId="44" priority="55">
+      <formula>AND($E34&lt;=K$6,ROUNDDOWN(($F34-$E34+1)*$H34,0)+$E34-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="56">
+      <formula>AND(NOT(ISBLANK($E34)),$E34&lt;=K$6,$F34&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34">
+    <cfRule type="dataBar" priority="53">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{82A7F4E5-E84F-4772-9D07-1C5BC9524837}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34:BN34">
+    <cfRule type="expression" dxfId="42" priority="54">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K35:BN35">
+    <cfRule type="expression" dxfId="41" priority="51">
+      <formula>AND($E35&lt;=K$6,ROUNDDOWN(($F35-$E35+1)*$H35,0)+$E35-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="52">
+      <formula>AND(NOT(ISBLANK($E35)),$E35&lt;=K$6,$F35&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
+    <cfRule type="dataBar" priority="49">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1BEF6D62-C837-4434-9EAF-5CEE3C8BFF33}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K35:BN35">
+    <cfRule type="expression" dxfId="39" priority="50">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K36:BN36">
+    <cfRule type="expression" dxfId="38" priority="47">
+      <formula>AND($E36&lt;=K$6,ROUNDDOWN(($F36-$E36+1)*$H36,0)+$E36-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="48">
+      <formula>AND(NOT(ISBLANK($E36)),$E36&lt;=K$6,$F36&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36">
+    <cfRule type="dataBar" priority="45">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A63288A3-CF9F-40FD-99BB-9928CBA98227}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K36:BN36">
+    <cfRule type="expression" dxfId="36" priority="46">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K37:BN37">
+    <cfRule type="expression" dxfId="35" priority="43">
+      <formula>AND($E37&lt;=K$6,ROUNDDOWN(($F37-$E37+1)*$H37,0)+$E37-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="44">
+      <formula>AND(NOT(ISBLANK($E37)),$E37&lt;=K$6,$F37&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37">
+    <cfRule type="dataBar" priority="41">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{001A9256-16C1-4329-B9D8-D0541B1E65FE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K37:BN37">
+    <cfRule type="expression" dxfId="33" priority="42">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K38:BN38">
+    <cfRule type="expression" dxfId="32" priority="39">
+      <formula>AND($E38&lt;=K$6,ROUNDDOWN(($F38-$E38+1)*$H38,0)+$E38-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="40">
+      <formula>AND(NOT(ISBLANK($E38)),$E38&lt;=K$6,$F38&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38">
+    <cfRule type="dataBar" priority="37">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9BF9CD71-41A1-4D96-A24D-2307B8C1511E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K38:BN38">
+    <cfRule type="expression" dxfId="30" priority="38">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K39:BN39">
+    <cfRule type="expression" dxfId="29" priority="35">
+      <formula>AND($E39&lt;=K$6,ROUNDDOWN(($F39-$E39+1)*$H39,0)+$E39-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="36">
+      <formula>AND(NOT(ISBLANK($E39)),$E39&lt;=K$6,$F39&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39">
+    <cfRule type="dataBar" priority="33">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F04FD167-DBD0-4F87-9F1A-F9EC16361DBE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K39:BN39">
+    <cfRule type="expression" dxfId="27" priority="34">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K42:BN42">
+    <cfRule type="expression" dxfId="26" priority="31">
+      <formula>AND($E42&lt;=K$6,ROUNDDOWN(($F42-$E42+1)*$H42,0)+$E42-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="32">
+      <formula>AND(NOT(ISBLANK($E42)),$E42&lt;=K$6,$F42&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42">
+    <cfRule type="dataBar" priority="29">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BCC1F1CC-31D1-477E-A4DF-CAC7DA44BAA5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K42:BN42">
+    <cfRule type="expression" dxfId="24" priority="30">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K43:BN43">
+    <cfRule type="expression" dxfId="23" priority="27">
+      <formula>AND($E43&lt;=K$6,ROUNDDOWN(($F43-$E43+1)*$H43,0)+$E43-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="28">
+      <formula>AND(NOT(ISBLANK($E43)),$E43&lt;=K$6,$F43&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43">
+    <cfRule type="dataBar" priority="25">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BFF9E91C-99D4-46B3-B8DB-28B33B454734}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K43:BN43">
+    <cfRule type="expression" dxfId="21" priority="26">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K44:BN44">
+    <cfRule type="expression" dxfId="20" priority="23">
+      <formula>AND($E44&lt;=K$6,ROUNDDOWN(($F44-$E44+1)*$H44,0)+$E44-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="24">
+      <formula>AND(NOT(ISBLANK($E44)),$E44&lt;=K$6,$F44&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
+    <cfRule type="dataBar" priority="21">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{134FAAF5-A935-44B7-A1E0-ED4087E244C7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K44:BN44">
+    <cfRule type="expression" dxfId="18" priority="22">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K45:BN45">
+    <cfRule type="expression" dxfId="17" priority="19">
+      <formula>AND($E45&lt;=K$6,ROUNDDOWN(($F45-$E45+1)*$H45,0)+$E45-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="20">
+      <formula>AND(NOT(ISBLANK($E45)),$E45&lt;=K$6,$F45&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45">
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E53DA637-304C-4DF2-93F3-55233A2CF80B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K45:BN45">
+    <cfRule type="expression" dxfId="15" priority="18">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K46:BN46">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>AND($E46&lt;=K$6,ROUNDDOWN(($F46-$E46+1)*$H46,0)+$E46-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="16">
+      <formula>AND(NOT(ISBLANK($E46)),$E46&lt;=K$6,$F46&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DDE030CD-8623-4C19-BCA9-B79196E9F245}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K46:BN46">
+    <cfRule type="expression" dxfId="12" priority="14">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K47:BN47">
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>AND($E47&lt;=K$6,ROUNDDOWN(($F47-$E47+1)*$H47,0)+$E47-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>AND(NOT(ISBLANK($E47)),$E47&lt;=K$6,$F47&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D2E10E7E-5267-490E-9C31-9980BB06958F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K47:BN47">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48:BN48">
+    <cfRule type="expression" dxfId="8" priority="7">
+      <formula>AND($E48&lt;=K$6,ROUNDDOWN(($F48-$E48+1)*$H48,0)+$E48-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>AND(NOT(ISBLANK($E48)),$E48&lt;=K$6,$F48&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{856F528D-E171-4873-B535-7E4EFDAF2A92}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48:BN48">
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K49:BN49">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>AND($E49&lt;=K$6,ROUNDDOWN(($F49-$E49+1)*$H49,0)+$E49-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>AND(NOT(ISBLANK($E49)),$E49&lt;=K$6,$F49&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{054FFF99-697A-41FB-988E-F4E370D52DC5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K49:BN49">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9339,8 +12088,8 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="H9 B37:B38 B32 A49:B49 B48 E19 E28 E34 E48:H49 G10 G19:H19 G28:H28 G34:H38 H26 G50 G51:G52 G53 H21 H25 H29:H32" unlockedFormula="1"/>
-    <ignoredError sqref="A34 A28 A19" formula="1"/>
+    <ignoredError sqref="B56:B57 A69:B69 B68 E20 E30 E53 E68:H69 G11 G20:H20 G30:H30 G53:H57 G70:G73 H21 H25:H26 H50:H51 H31 H41" unlockedFormula="1"/>
+    <ignoredError sqref="A53 A30 A20" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
@@ -9388,7 +12137,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H8:H10 H48:H53 H19:H21 H25:H39</xm:sqref>
+          <xm:sqref>H8:H9 H68:H73 H11 H20:H21 H25:H26 H29:H31 H41 H50:H58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AF6031B5-17E7-4FA3-BF80-238C9E6DF4B9}">
@@ -9403,7 +12152,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H40</xm:sqref>
+          <xm:sqref>H59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E1E2B9CA-12BA-46AC-9B3F-D4F5D19AE487}">
@@ -9418,7 +12167,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H41</xm:sqref>
+          <xm:sqref>H60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2EBBAE54-BE40-4F85-B2B8-BF88914C4132}">
@@ -9433,7 +12182,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H42</xm:sqref>
+          <xm:sqref>H61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CD355D18-EAED-4E08-8A10-05C00E458525}">
@@ -9448,7 +12197,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H43</xm:sqref>
+          <xm:sqref>H62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E9A71E10-0808-482F-99D1-D818BBF6C7BC}">
@@ -9463,7 +12212,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H44</xm:sqref>
+          <xm:sqref>H63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3D07858F-3D2E-41B0-9241-346599BE8E0E}">
@@ -9478,7 +12227,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H45</xm:sqref>
+          <xm:sqref>H64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{04A29D32-1B7A-44AE-874E-46664FE80C9C}">
@@ -9493,7 +12242,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H46</xm:sqref>
+          <xm:sqref>H65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EABFB3DA-72D7-4C42-8176-74D46BEC3776}">
@@ -9508,7 +12257,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H47</xm:sqref>
+          <xm:sqref>H66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{604E8406-F439-4A1A-9882-866C6CA7C52C}">
@@ -9523,7 +12272,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H11</xm:sqref>
+          <xm:sqref>H12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5DE0BC55-F6B0-4203-B87B-6826E87122C2}">
@@ -9538,7 +12287,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H12</xm:sqref>
+          <xm:sqref>H13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{98F79111-AEF0-427F-B1FC-CC643D40592E}">
@@ -9553,7 +12302,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H13</xm:sqref>
+          <xm:sqref>H14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{755BBD32-D183-4327-A191-CCF8F5658D62}">
@@ -9568,7 +12317,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H14</xm:sqref>
+          <xm:sqref>H15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{94A0F54B-1D05-41D2-8A46-B28A09AD59EB}">
@@ -9583,7 +12332,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H15</xm:sqref>
+          <xm:sqref>H16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5257A0E3-7B2E-49FA-81B5-C8716E790453}">
@@ -9598,7 +12347,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H16</xm:sqref>
+          <xm:sqref>H17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D3325BDD-3AB7-48B1-BA3E-48D42DB94B28}">
@@ -9613,7 +12362,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H17</xm:sqref>
+          <xm:sqref>H18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{059F66FA-E2F5-429B-93A2-E48796DB2FDF}">
@@ -9628,7 +12377,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H18</xm:sqref>
+          <xm:sqref>H19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{638C4DF6-4BDF-4291-97CF-8C47FA43BBFD}">
@@ -9675,6 +12424,321 @@
           </x14:cfRule>
           <xm:sqref>H24</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{063A9F82-2F86-4B32-A209-F5B4C7385609}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H67</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7441C645-CDD7-4332-B16A-D63E38A71E7F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D9CAE1A9-893D-40CD-9569-87614C7C16A4}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DE485875-CAC1-4F3C-AF42-615E36EF56AB}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{91E39612-F833-4191-B6AA-6AF3D151E65F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H40</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BC0CD262-D5C0-4114-862E-FD1D455DCCB6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4EEB3302-B300-4F37-8090-228654E26DB8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H33</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{82A7F4E5-E84F-4772-9D07-1C5BC9524837}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1BEF6D62-C837-4434-9EAF-5CEE3C8BFF33}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A63288A3-CF9F-40FD-99BB-9928CBA98227}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{001A9256-16C1-4329-B9D8-D0541B1E65FE}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9BF9CD71-41A1-4D96-A24D-2307B8C1511E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F04FD167-DBD0-4F87-9F1A-F9EC16361DBE}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BCC1F1CC-31D1-477E-A4DF-CAC7DA44BAA5}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BFF9E91C-99D4-46B3-B8DB-28B33B454734}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H43</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{134FAAF5-A935-44B7-A1E0-ED4087E244C7}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H44</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E53DA637-304C-4DF2-93F3-55233A2CF80B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H45</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DDE030CD-8623-4C19-BCA9-B79196E9F245}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H46</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D2E10E7E-5267-490E-9C31-9980BB06958F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H47</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{856F528D-E171-4873-B535-7E4EFDAF2A92}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H48</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{054FFF99-697A-41FB-988E-F4E370D52DC5}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H49</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BlackDragoon\Desktop\PROJECT\PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09088938-63B3-40A7-8536-6F963CEEC90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6103B0A0-8F5C-443C-9B61-608327FBA112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="1935" windowWidth="21585" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -2974,13 +2974,6 @@
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="34" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2990,10 +2983,6 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="167" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3002,6 +2991,17 @@
     </xf>
     <xf numFmtId="167" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3053,7 +3053,7 @@
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="103">
+  <dxfs count="65">
     <dxf>
       <border>
         <left style="thin">
@@ -3065,20 +3065,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border>
@@ -3093,20 +3079,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -3117,462 +3089,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border>
@@ -3635,6 +3151,224 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border>
@@ -4735,8 +4469,8 @@
   <dimension ref="A1:BN74"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
+      <pane ySplit="7" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4764,29 +4498,29 @@
       <c r="E1" s="46"/>
       <c r="F1" s="46"/>
       <c r="I1" s="123"/>
-      <c r="K1" s="155" t="s">
+      <c r="K1" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="L1" s="155"/>
-      <c r="M1" s="155"/>
-      <c r="N1" s="155"/>
-      <c r="O1" s="155"/>
-      <c r="P1" s="155"/>
-      <c r="Q1" s="155"/>
-      <c r="R1" s="155"/>
-      <c r="S1" s="155"/>
-      <c r="T1" s="155"/>
-      <c r="U1" s="155"/>
-      <c r="V1" s="155"/>
-      <c r="W1" s="155"/>
-      <c r="X1" s="155"/>
-      <c r="Y1" s="155"/>
-      <c r="Z1" s="155"/>
-      <c r="AA1" s="155"/>
-      <c r="AB1" s="155"/>
-      <c r="AC1" s="155"/>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="155"/>
+      <c r="L1" s="161"/>
+      <c r="M1" s="161"/>
+      <c r="N1" s="161"/>
+      <c r="O1" s="161"/>
+      <c r="P1" s="161"/>
+      <c r="Q1" s="161"/>
+      <c r="R1" s="161"/>
+      <c r="S1" s="161"/>
+      <c r="T1" s="161"/>
+      <c r="U1" s="161"/>
+      <c r="V1" s="161"/>
+      <c r="W1" s="161"/>
+      <c r="X1" s="161"/>
+      <c r="Y1" s="161"/>
+      <c r="Z1" s="161"/>
+      <c r="AA1" s="161"/>
+      <c r="AB1" s="161"/>
+      <c r="AC1" s="161"/>
+      <c r="AD1" s="161"/>
+      <c r="AE1" s="161"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
@@ -4831,11 +4565,11 @@
       <c r="B4" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="160">
+      <c r="C4" s="163">
         <v>44460</v>
       </c>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
       <c r="F4" s="102"/>
       <c r="G4" s="105" t="s">
         <v>74</v>
@@ -4845,182 +4579,182 @@
       </c>
       <c r="I4" s="103"/>
       <c r="J4" s="49"/>
-      <c r="K4" s="157" t="str">
+      <c r="K4" s="155" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="158"/>
-      <c r="M4" s="158"/>
-      <c r="N4" s="158"/>
-      <c r="O4" s="158"/>
-      <c r="P4" s="158"/>
-      <c r="Q4" s="159"/>
-      <c r="R4" s="157" t="str">
+      <c r="L4" s="156"/>
+      <c r="M4" s="156"/>
+      <c r="N4" s="156"/>
+      <c r="O4" s="156"/>
+      <c r="P4" s="156"/>
+      <c r="Q4" s="157"/>
+      <c r="R4" s="155" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="158"/>
-      <c r="T4" s="158"/>
-      <c r="U4" s="158"/>
-      <c r="V4" s="158"/>
-      <c r="W4" s="158"/>
-      <c r="X4" s="159"/>
-      <c r="Y4" s="157" t="str">
+      <c r="S4" s="156"/>
+      <c r="T4" s="156"/>
+      <c r="U4" s="156"/>
+      <c r="V4" s="156"/>
+      <c r="W4" s="156"/>
+      <c r="X4" s="157"/>
+      <c r="Y4" s="155" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="158"/>
-      <c r="AA4" s="158"/>
-      <c r="AB4" s="158"/>
-      <c r="AC4" s="158"/>
-      <c r="AD4" s="158"/>
-      <c r="AE4" s="159"/>
-      <c r="AF4" s="157" t="str">
+      <c r="Z4" s="156"/>
+      <c r="AA4" s="156"/>
+      <c r="AB4" s="156"/>
+      <c r="AC4" s="156"/>
+      <c r="AD4" s="156"/>
+      <c r="AE4" s="157"/>
+      <c r="AF4" s="155" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="158"/>
-      <c r="AH4" s="158"/>
-      <c r="AI4" s="158"/>
-      <c r="AJ4" s="158"/>
-      <c r="AK4" s="158"/>
-      <c r="AL4" s="159"/>
-      <c r="AM4" s="157" t="str">
+      <c r="AG4" s="156"/>
+      <c r="AH4" s="156"/>
+      <c r="AI4" s="156"/>
+      <c r="AJ4" s="156"/>
+      <c r="AK4" s="156"/>
+      <c r="AL4" s="157"/>
+      <c r="AM4" s="155" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="158"/>
-      <c r="AO4" s="158"/>
-      <c r="AP4" s="158"/>
-      <c r="AQ4" s="158"/>
-      <c r="AR4" s="158"/>
-      <c r="AS4" s="159"/>
-      <c r="AT4" s="157" t="str">
+      <c r="AN4" s="156"/>
+      <c r="AO4" s="156"/>
+      <c r="AP4" s="156"/>
+      <c r="AQ4" s="156"/>
+      <c r="AR4" s="156"/>
+      <c r="AS4" s="157"/>
+      <c r="AT4" s="155" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="158"/>
-      <c r="AV4" s="158"/>
-      <c r="AW4" s="158"/>
-      <c r="AX4" s="158"/>
-      <c r="AY4" s="158"/>
-      <c r="AZ4" s="159"/>
-      <c r="BA4" s="157" t="str">
+      <c r="AU4" s="156"/>
+      <c r="AV4" s="156"/>
+      <c r="AW4" s="156"/>
+      <c r="AX4" s="156"/>
+      <c r="AY4" s="156"/>
+      <c r="AZ4" s="157"/>
+      <c r="BA4" s="155" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="158"/>
-      <c r="BC4" s="158"/>
-      <c r="BD4" s="158"/>
-      <c r="BE4" s="158"/>
-      <c r="BF4" s="158"/>
-      <c r="BG4" s="159"/>
-      <c r="BH4" s="157" t="str">
+      <c r="BB4" s="156"/>
+      <c r="BC4" s="156"/>
+      <c r="BD4" s="156"/>
+      <c r="BE4" s="156"/>
+      <c r="BF4" s="156"/>
+      <c r="BG4" s="157"/>
+      <c r="BH4" s="155" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="158"/>
-      <c r="BJ4" s="158"/>
-      <c r="BK4" s="158"/>
-      <c r="BL4" s="158"/>
-      <c r="BM4" s="158"/>
-      <c r="BN4" s="159"/>
+      <c r="BI4" s="156"/>
+      <c r="BJ4" s="156"/>
+      <c r="BK4" s="156"/>
+      <c r="BL4" s="156"/>
+      <c r="BM4" s="156"/>
+      <c r="BN4" s="157"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="101"/>
       <c r="B5" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="156" t="s">
+      <c r="C5" s="162" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="156"/>
-      <c r="E5" s="156"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="162"/>
       <c r="F5" s="104"/>
       <c r="G5" s="104"/>
       <c r="H5" s="104"/>
       <c r="I5" s="104"/>
       <c r="J5" s="49"/>
-      <c r="K5" s="161">
+      <c r="K5" s="158">
         <f>K6</f>
         <v>44459</v>
       </c>
-      <c r="L5" s="162"/>
-      <c r="M5" s="162"/>
-      <c r="N5" s="162"/>
-      <c r="O5" s="162"/>
-      <c r="P5" s="162"/>
-      <c r="Q5" s="163"/>
-      <c r="R5" s="161">
+      <c r="L5" s="159"/>
+      <c r="M5" s="159"/>
+      <c r="N5" s="159"/>
+      <c r="O5" s="159"/>
+      <c r="P5" s="159"/>
+      <c r="Q5" s="160"/>
+      <c r="R5" s="158">
         <f>R6</f>
         <v>44466</v>
       </c>
-      <c r="S5" s="162"/>
-      <c r="T5" s="162"/>
-      <c r="U5" s="162"/>
-      <c r="V5" s="162"/>
-      <c r="W5" s="162"/>
-      <c r="X5" s="163"/>
-      <c r="Y5" s="161">
+      <c r="S5" s="159"/>
+      <c r="T5" s="159"/>
+      <c r="U5" s="159"/>
+      <c r="V5" s="159"/>
+      <c r="W5" s="159"/>
+      <c r="X5" s="160"/>
+      <c r="Y5" s="158">
         <f>Y6</f>
         <v>44473</v>
       </c>
-      <c r="Z5" s="162"/>
-      <c r="AA5" s="162"/>
-      <c r="AB5" s="162"/>
-      <c r="AC5" s="162"/>
-      <c r="AD5" s="162"/>
-      <c r="AE5" s="163"/>
-      <c r="AF5" s="161">
+      <c r="Z5" s="159"/>
+      <c r="AA5" s="159"/>
+      <c r="AB5" s="159"/>
+      <c r="AC5" s="159"/>
+      <c r="AD5" s="159"/>
+      <c r="AE5" s="160"/>
+      <c r="AF5" s="158">
         <f>AF6</f>
         <v>44480</v>
       </c>
-      <c r="AG5" s="162"/>
-      <c r="AH5" s="162"/>
-      <c r="AI5" s="162"/>
-      <c r="AJ5" s="162"/>
-      <c r="AK5" s="162"/>
-      <c r="AL5" s="163"/>
-      <c r="AM5" s="161">
+      <c r="AG5" s="159"/>
+      <c r="AH5" s="159"/>
+      <c r="AI5" s="159"/>
+      <c r="AJ5" s="159"/>
+      <c r="AK5" s="159"/>
+      <c r="AL5" s="160"/>
+      <c r="AM5" s="158">
         <f>AM6</f>
         <v>44487</v>
       </c>
-      <c r="AN5" s="162"/>
-      <c r="AO5" s="162"/>
-      <c r="AP5" s="162"/>
-      <c r="AQ5" s="162"/>
-      <c r="AR5" s="162"/>
-      <c r="AS5" s="163"/>
-      <c r="AT5" s="161">
+      <c r="AN5" s="159"/>
+      <c r="AO5" s="159"/>
+      <c r="AP5" s="159"/>
+      <c r="AQ5" s="159"/>
+      <c r="AR5" s="159"/>
+      <c r="AS5" s="160"/>
+      <c r="AT5" s="158">
         <f>AT6</f>
         <v>44494</v>
       </c>
-      <c r="AU5" s="162"/>
-      <c r="AV5" s="162"/>
-      <c r="AW5" s="162"/>
-      <c r="AX5" s="162"/>
-      <c r="AY5" s="162"/>
-      <c r="AZ5" s="163"/>
-      <c r="BA5" s="161">
+      <c r="AU5" s="159"/>
+      <c r="AV5" s="159"/>
+      <c r="AW5" s="159"/>
+      <c r="AX5" s="159"/>
+      <c r="AY5" s="159"/>
+      <c r="AZ5" s="160"/>
+      <c r="BA5" s="158">
         <f>BA6</f>
         <v>44501</v>
       </c>
-      <c r="BB5" s="162"/>
-      <c r="BC5" s="162"/>
-      <c r="BD5" s="162"/>
-      <c r="BE5" s="162"/>
-      <c r="BF5" s="162"/>
-      <c r="BG5" s="163"/>
-      <c r="BH5" s="161">
+      <c r="BB5" s="159"/>
+      <c r="BC5" s="159"/>
+      <c r="BD5" s="159"/>
+      <c r="BE5" s="159"/>
+      <c r="BF5" s="159"/>
+      <c r="BG5" s="160"/>
+      <c r="BH5" s="158">
         <f>BH6</f>
         <v>44508</v>
       </c>
-      <c r="BI5" s="162"/>
-      <c r="BJ5" s="162"/>
-      <c r="BK5" s="162"/>
-      <c r="BL5" s="162"/>
-      <c r="BM5" s="162"/>
-      <c r="BN5" s="163"/>
+      <c r="BI5" s="159"/>
+      <c r="BJ5" s="159"/>
+      <c r="BK5" s="159"/>
+      <c r="BL5" s="159"/>
+      <c r="BM5" s="159"/>
+      <c r="BN5" s="160"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6" s="48"/>
@@ -5593,7 +5327,7 @@
     </row>
     <row r="9" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="59" t="str">
-        <f t="shared" ref="A9:A11" si="5">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" ref="A9:A15" si="5">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
       </c>
       <c r="B9" s="117" t="s">
@@ -5698,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="63">
-        <f t="shared" ref="I10" si="6">IF(OR(F10=0,E10=0)," - ",NETWORKDAYS(E10,F10))</f>
+        <f t="shared" ref="I10:I14" si="6">IF(OR(F10=0,E10=0)," - ",NETWORKDAYS(E10,F10))</f>
         <v>2</v>
       </c>
       <c r="J10" s="89"/>
@@ -5759,30 +5493,30 @@
       <c r="BM10" s="99"/>
       <c r="BN10" s="99"/>
     </row>
-    <row r="11" spans="1:66" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.3</v>
       </c>
       <c r="B11" s="117" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="D11" s="118"/>
       <c r="E11" s="93">
-        <v>43134</v>
+        <v>43145</v>
       </c>
       <c r="F11" s="94">
-        <f t="shared" ref="F11:F58" si="7">IF(ISBLANK(E11)," - ",IF(G11=0,E11,E11+G11-1))</f>
-        <v>43138</v>
+        <f t="shared" ref="F11:F14" si="7">IF(ISBLANK(E11)," - ",IF(G11=0,E11,E11+G11-1))</f>
+        <v>43147</v>
       </c>
       <c r="G11" s="61">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H11" s="62">
         <v>0</v>
       </c>
       <c r="I11" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="J11" s="89"/>
@@ -5845,18 +5579,18 @@
     </row>
     <row r="12" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="str">
-        <f t="shared" ref="A12:A19" si="8">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.3.1</v>
       </c>
       <c r="B12" s="119" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="D12" s="118"/>
       <c r="E12" s="93">
         <v>43133</v>
       </c>
       <c r="F12" s="94">
-        <f t="shared" ref="F12" si="9">IF(ISBLANK(E12)," - ",IF(G12=0,E12,E12+G12-1))</f>
+        <f t="shared" si="7"/>
         <v>43134</v>
       </c>
       <c r="G12" s="61">
@@ -5866,7 +5600,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="63">
-        <f t="shared" ref="I12" si="10">IF(OR(F12=0,E12=0)," - ",NETWORKDAYS(E12,F12))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J12" s="89"/>
@@ -5929,18 +5663,18 @@
     </row>
     <row r="13" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.3.2</v>
       </c>
       <c r="B13" s="119" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D13" s="118"/>
       <c r="E13" s="93">
         <v>43133</v>
       </c>
       <c r="F13" s="94">
-        <f t="shared" ref="F13" si="11">IF(ISBLANK(E13)," - ",IF(G13=0,E13,E13+G13-1))</f>
+        <f t="shared" si="7"/>
         <v>43134</v>
       </c>
       <c r="G13" s="61">
@@ -5950,7 +5684,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="63">
-        <f t="shared" ref="I13" si="12">IF(OR(F13=0,E13=0)," - ",NETWORKDAYS(E13,F13))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J13" s="89"/>
@@ -6013,18 +5747,18 @@
     </row>
     <row r="14" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="59" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.3.3</v>
       </c>
       <c r="B14" s="119" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D14" s="118"/>
       <c r="E14" s="93">
         <v>43133</v>
       </c>
       <c r="F14" s="94">
-        <f t="shared" ref="F14" si="13">IF(ISBLANK(E14)," - ",IF(G14=0,E14,E14+G14-1))</f>
+        <f t="shared" si="7"/>
         <v>43134</v>
       </c>
       <c r="G14" s="61">
@@ -6034,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="63">
-        <f t="shared" ref="I14" si="14">IF(OR(F14=0,E14=0)," - ",NETWORKDAYS(E14,F14))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J14" s="89"/>
@@ -6095,31 +5829,31 @@
       <c r="BM14" s="99"/>
       <c r="BN14" s="99"/>
     </row>
-    <row r="15" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:66" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A15" s="59" t="str">
-        <f t="shared" si="8"/>
-        <v>1.3.4</v>
-      </c>
-      <c r="B15" s="119" t="s">
-        <v>144</v>
+        <f t="shared" si="5"/>
+        <v>1.4</v>
+      </c>
+      <c r="B15" s="117" t="s">
+        <v>140</v>
       </c>
       <c r="D15" s="118"/>
       <c r="E15" s="93">
-        <v>43133</v>
+        <v>43134</v>
       </c>
       <c r="F15" s="94">
-        <f t="shared" ref="F15" si="15">IF(ISBLANK(E15)," - ",IF(G15=0,E15,E15+G15-1))</f>
-        <v>43134</v>
+        <f t="shared" ref="F15:F58" si="8">IF(ISBLANK(E15)," - ",IF(G15=0,E15,E15+G15-1))</f>
+        <v>43138</v>
       </c>
       <c r="G15" s="61">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H15" s="62">
         <v>0</v>
       </c>
       <c r="I15" s="63">
-        <f t="shared" ref="I15" si="16">IF(OR(F15=0,E15=0)," - ",NETWORKDAYS(E15,F15))</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="J15" s="89"/>
       <c r="K15" s="99"/>
@@ -6181,18 +5915,18 @@
     </row>
     <row r="16" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="59" t="str">
-        <f t="shared" si="8"/>
-        <v>1.3.5</v>
+        <f t="shared" ref="A16:A23" si="9">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>1.4.1</v>
       </c>
       <c r="B16" s="119" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D16" s="118"/>
       <c r="E16" s="93">
         <v>43133</v>
       </c>
       <c r="F16" s="94">
-        <f t="shared" ref="F16" si="17">IF(ISBLANK(E16)," - ",IF(G16=0,E16,E16+G16-1))</f>
+        <f t="shared" ref="F16" si="10">IF(ISBLANK(E16)," - ",IF(G16=0,E16,E16+G16-1))</f>
         <v>43134</v>
       </c>
       <c r="G16" s="61">
@@ -6202,7 +5936,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="63">
-        <f t="shared" ref="I16" si="18">IF(OR(F16=0,E16=0)," - ",NETWORKDAYS(E16,F16))</f>
+        <f t="shared" ref="I16" si="11">IF(OR(F16=0,E16=0)," - ",NETWORKDAYS(E16,F16))</f>
         <v>1</v>
       </c>
       <c r="J16" s="89"/>
@@ -6265,18 +5999,18 @@
     </row>
     <row r="17" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="59" t="str">
-        <f t="shared" si="8"/>
-        <v>1.3.6</v>
+        <f t="shared" si="9"/>
+        <v>1.4.2</v>
       </c>
       <c r="B17" s="119" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D17" s="118"/>
       <c r="E17" s="93">
         <v>43133</v>
       </c>
       <c r="F17" s="94">
-        <f t="shared" ref="F17" si="19">IF(ISBLANK(E17)," - ",IF(G17=0,E17,E17+G17-1))</f>
+        <f t="shared" ref="F17" si="12">IF(ISBLANK(E17)," - ",IF(G17=0,E17,E17+G17-1))</f>
         <v>43134</v>
       </c>
       <c r="G17" s="61">
@@ -6286,7 +6020,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="63">
-        <f t="shared" ref="I17" si="20">IF(OR(F17=0,E17=0)," - ",NETWORKDAYS(E17,F17))</f>
+        <f t="shared" ref="I17" si="13">IF(OR(F17=0,E17=0)," - ",NETWORKDAYS(E17,F17))</f>
         <v>1</v>
       </c>
       <c r="J17" s="89"/>
@@ -6349,18 +6083,18 @@
     </row>
     <row r="18" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="59" t="str">
-        <f t="shared" si="8"/>
-        <v>1.3.7</v>
+        <f t="shared" si="9"/>
+        <v>1.4.3</v>
       </c>
       <c r="B18" s="119" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D18" s="118"/>
       <c r="E18" s="93">
         <v>43133</v>
       </c>
       <c r="F18" s="94">
-        <f t="shared" ref="F18" si="21">IF(ISBLANK(E18)," - ",IF(G18=0,E18,E18+G18-1))</f>
+        <f t="shared" ref="F18" si="14">IF(ISBLANK(E18)," - ",IF(G18=0,E18,E18+G18-1))</f>
         <v>43134</v>
       </c>
       <c r="G18" s="61">
@@ -6370,7 +6104,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="63">
-        <f t="shared" ref="I18" si="22">IF(OR(F18=0,E18=0)," - ",NETWORKDAYS(E18,F18))</f>
+        <f t="shared" ref="I18" si="15">IF(OR(F18=0,E18=0)," - ",NETWORKDAYS(E18,F18))</f>
         <v>1</v>
       </c>
       <c r="J18" s="89"/>
@@ -6433,18 +6167,18 @@
     </row>
     <row r="19" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="59" t="str">
-        <f t="shared" si="8"/>
-        <v>1.3.8</v>
+        <f t="shared" si="9"/>
+        <v>1.4.4</v>
       </c>
       <c r="B19" s="119" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D19" s="118"/>
       <c r="E19" s="93">
         <v>43133</v>
       </c>
       <c r="F19" s="94">
-        <f t="shared" ref="F19" si="23">IF(ISBLANK(E19)," - ",IF(G19=0,E19,E19+G19-1))</f>
+        <f t="shared" ref="F19" si="16">IF(ISBLANK(E19)," - ",IF(G19=0,E19,E19+G19-1))</f>
         <v>43134</v>
       </c>
       <c r="G19" s="61">
@@ -6454,7 +6188,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="63">
-        <f t="shared" ref="I19" si="24">IF(OR(F19=0,E19=0)," - ",NETWORKDAYS(E19,F19))</f>
+        <f t="shared" ref="I19" si="17">IF(OR(F19=0,E19=0)," - ",NETWORKDAYS(E19,F19))</f>
         <v>1</v>
       </c>
       <c r="J19" s="89"/>
@@ -6515,109 +6249,115 @@
       <c r="BM19" s="99"/>
       <c r="BN19" s="99"/>
     </row>
-    <row r="20" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="52" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+    <row r="20" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="59" t="str">
+        <f t="shared" si="9"/>
+        <v>1.4.5</v>
+      </c>
+      <c r="B20" s="119" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" s="118"/>
+      <c r="E20" s="93">
+        <v>43133</v>
+      </c>
+      <c r="F20" s="94">
+        <f t="shared" ref="F20" si="18">IF(ISBLANK(E20)," - ",IF(G20=0,E20,E20+G20-1))</f>
+        <v>43134</v>
+      </c>
+      <c r="G20" s="61">
         <v>2</v>
       </c>
-      <c r="B20" s="53" t="s">
-        <v>162</v>
-      </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="95" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G20" s="56"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="58" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J20" s="90"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="100"/>
-      <c r="N20" s="100"/>
-      <c r="O20" s="100"/>
-      <c r="P20" s="100"/>
-      <c r="Q20" s="100"/>
-      <c r="R20" s="100"/>
-      <c r="S20" s="100"/>
-      <c r="T20" s="100"/>
-      <c r="U20" s="100"/>
-      <c r="V20" s="100"/>
-      <c r="W20" s="100"/>
-      <c r="X20" s="100"/>
-      <c r="Y20" s="100"/>
-      <c r="Z20" s="100"/>
-      <c r="AA20" s="100"/>
-      <c r="AB20" s="100"/>
-      <c r="AC20" s="100"/>
-      <c r="AD20" s="100"/>
-      <c r="AE20" s="100"/>
-      <c r="AF20" s="100"/>
-      <c r="AG20" s="100"/>
-      <c r="AH20" s="100"/>
-      <c r="AI20" s="100"/>
-      <c r="AJ20" s="100"/>
-      <c r="AK20" s="100"/>
-      <c r="AL20" s="100"/>
-      <c r="AM20" s="100"/>
-      <c r="AN20" s="100"/>
-      <c r="AO20" s="100"/>
-      <c r="AP20" s="100"/>
-      <c r="AQ20" s="100"/>
-      <c r="AR20" s="100"/>
-      <c r="AS20" s="100"/>
-      <c r="AT20" s="100"/>
-      <c r="AU20" s="100"/>
-      <c r="AV20" s="100"/>
-      <c r="AW20" s="100"/>
-      <c r="AX20" s="100"/>
-      <c r="AY20" s="100"/>
-      <c r="AZ20" s="100"/>
-      <c r="BA20" s="100"/>
-      <c r="BB20" s="100"/>
-      <c r="BC20" s="100"/>
-      <c r="BD20" s="100"/>
-      <c r="BE20" s="100"/>
-      <c r="BF20" s="100"/>
-      <c r="BG20" s="100"/>
-      <c r="BH20" s="100"/>
-      <c r="BI20" s="100"/>
-      <c r="BJ20" s="100"/>
-      <c r="BK20" s="100"/>
-      <c r="BL20" s="100"/>
-      <c r="BM20" s="100"/>
-      <c r="BN20" s="100"/>
+      <c r="H20" s="62">
+        <v>0</v>
+      </c>
+      <c r="I20" s="63">
+        <f t="shared" ref="I20" si="19">IF(OR(F20=0,E20=0)," - ",NETWORKDAYS(E20,F20))</f>
+        <v>1</v>
+      </c>
+      <c r="J20" s="89"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="99"/>
+      <c r="N20" s="99"/>
+      <c r="O20" s="99"/>
+      <c r="P20" s="99"/>
+      <c r="Q20" s="99"/>
+      <c r="R20" s="99"/>
+      <c r="S20" s="99"/>
+      <c r="T20" s="99"/>
+      <c r="U20" s="99"/>
+      <c r="V20" s="99"/>
+      <c r="W20" s="99"/>
+      <c r="X20" s="99"/>
+      <c r="Y20" s="99"/>
+      <c r="Z20" s="99"/>
+      <c r="AA20" s="99"/>
+      <c r="AB20" s="99"/>
+      <c r="AC20" s="99"/>
+      <c r="AD20" s="99"/>
+      <c r="AE20" s="99"/>
+      <c r="AF20" s="99"/>
+      <c r="AG20" s="99"/>
+      <c r="AH20" s="99"/>
+      <c r="AI20" s="99"/>
+      <c r="AJ20" s="99"/>
+      <c r="AK20" s="99"/>
+      <c r="AL20" s="99"/>
+      <c r="AM20" s="99"/>
+      <c r="AN20" s="99"/>
+      <c r="AO20" s="99"/>
+      <c r="AP20" s="99"/>
+      <c r="AQ20" s="99"/>
+      <c r="AR20" s="99"/>
+      <c r="AS20" s="99"/>
+      <c r="AT20" s="99"/>
+      <c r="AU20" s="99"/>
+      <c r="AV20" s="99"/>
+      <c r="AW20" s="99"/>
+      <c r="AX20" s="99"/>
+      <c r="AY20" s="99"/>
+      <c r="AZ20" s="99"/>
+      <c r="BA20" s="99"/>
+      <c r="BB20" s="99"/>
+      <c r="BC20" s="99"/>
+      <c r="BD20" s="99"/>
+      <c r="BE20" s="99"/>
+      <c r="BF20" s="99"/>
+      <c r="BG20" s="99"/>
+      <c r="BH20" s="99"/>
+      <c r="BI20" s="99"/>
+      <c r="BJ20" s="99"/>
+      <c r="BK20" s="99"/>
+      <c r="BL20" s="99"/>
+      <c r="BM20" s="99"/>
+      <c r="BN20" s="99"/>
     </row>
     <row r="21" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.1</v>
-      </c>
-      <c r="B21" s="117" t="s">
-        <v>149</v>
+        <f t="shared" si="9"/>
+        <v>1.4.6</v>
+      </c>
+      <c r="B21" s="119" t="s">
+        <v>146</v>
       </c>
       <c r="D21" s="118"/>
       <c r="E21" s="93">
-        <v>43145</v>
+        <v>43133</v>
       </c>
       <c r="F21" s="94">
-        <f t="shared" si="7"/>
-        <v>43147</v>
+        <f t="shared" ref="F21" si="20">IF(ISBLANK(E21)," - ",IF(G21=0,E21,E21+G21-1))</f>
+        <v>43134</v>
       </c>
       <c r="G21" s="61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H21" s="62">
         <v>0</v>
       </c>
       <c r="I21" s="63">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f t="shared" ref="I21" si="21">IF(OR(F21=0,E21=0)," - ",NETWORKDAYS(E21,F21))</f>
+        <v>1</v>
       </c>
       <c r="J21" s="89"/>
       <c r="K21" s="99"/>
@@ -6679,18 +6419,18 @@
     </row>
     <row r="22" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>2.1.1</v>
+        <f t="shared" si="9"/>
+        <v>1.4.7</v>
       </c>
       <c r="B22" s="119" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D22" s="118"/>
       <c r="E22" s="93">
         <v>43133</v>
       </c>
       <c r="F22" s="94">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="F22" si="22">IF(ISBLANK(E22)," - ",IF(G22=0,E22,E22+G22-1))</f>
         <v>43134</v>
       </c>
       <c r="G22" s="61">
@@ -6700,7 +6440,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I22" si="23">IF(OR(F22=0,E22=0)," - ",NETWORKDAYS(E22,F22))</f>
         <v>1</v>
       </c>
       <c r="J22" s="89"/>
@@ -6763,18 +6503,18 @@
     </row>
     <row r="23" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>2.1.2</v>
+        <f t="shared" si="9"/>
+        <v>1.4.8</v>
       </c>
       <c r="B23" s="119" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D23" s="118"/>
       <c r="E23" s="93">
         <v>43133</v>
       </c>
       <c r="F23" s="94">
-        <f t="shared" ref="F23" si="25">IF(ISBLANK(E23)," - ",IF(G23=0,E23,E23+G23-1))</f>
+        <f t="shared" ref="F23" si="24">IF(ISBLANK(E23)," - ",IF(G23=0,E23,E23+G23-1))</f>
         <v>43134</v>
       </c>
       <c r="G23" s="61">
@@ -6784,7 +6524,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="63">
-        <f t="shared" ref="I23" si="26">IF(OR(F23=0,E23=0)," - ",NETWORKDAYS(E23,F23))</f>
+        <f t="shared" ref="I23" si="25">IF(OR(F23=0,E23=0)," - ",NETWORKDAYS(E23,F23))</f>
         <v>1</v>
       </c>
       <c r="J23" s="89"/>
@@ -6845,94 +6585,88 @@
       <c r="BM23" s="99"/>
       <c r="BN23" s="99"/>
     </row>
-    <row r="24" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>2.1.3</v>
-      </c>
-      <c r="B24" s="119" t="s">
-        <v>152</v>
-      </c>
-      <c r="D24" s="118"/>
-      <c r="E24" s="93">
-        <v>43133</v>
-      </c>
-      <c r="F24" s="94">
-        <f t="shared" ref="F24" si="27">IF(ISBLANK(E24)," - ",IF(G24=0,E24,E24+G24-1))</f>
-        <v>43134</v>
-      </c>
-      <c r="G24" s="61">
+    <row r="24" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="52" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>2</v>
       </c>
-      <c r="H24" s="62">
-        <v>0</v>
-      </c>
-      <c r="I24" s="63">
-        <f t="shared" ref="I24" si="28">IF(OR(F24=0,E24=0)," - ",NETWORKDAYS(E24,F24))</f>
-        <v>1</v>
-      </c>
-      <c r="J24" s="89"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="99"/>
-      <c r="O24" s="99"/>
-      <c r="P24" s="99"/>
-      <c r="Q24" s="99"/>
-      <c r="R24" s="99"/>
-      <c r="S24" s="99"/>
-      <c r="T24" s="99"/>
-      <c r="U24" s="99"/>
-      <c r="V24" s="99"/>
-      <c r="W24" s="99"/>
-      <c r="X24" s="99"/>
-      <c r="Y24" s="99"/>
-      <c r="Z24" s="99"/>
-      <c r="AA24" s="99"/>
-      <c r="AB24" s="99"/>
-      <c r="AC24" s="99"/>
-      <c r="AD24" s="99"/>
-      <c r="AE24" s="99"/>
-      <c r="AF24" s="99"/>
-      <c r="AG24" s="99"/>
-      <c r="AH24" s="99"/>
-      <c r="AI24" s="99"/>
-      <c r="AJ24" s="99"/>
-      <c r="AK24" s="99"/>
-      <c r="AL24" s="99"/>
-      <c r="AM24" s="99"/>
-      <c r="AN24" s="99"/>
-      <c r="AO24" s="99"/>
-      <c r="AP24" s="99"/>
-      <c r="AQ24" s="99"/>
-      <c r="AR24" s="99"/>
-      <c r="AS24" s="99"/>
-      <c r="AT24" s="99"/>
-      <c r="AU24" s="99"/>
-      <c r="AV24" s="99"/>
-      <c r="AW24" s="99"/>
-      <c r="AX24" s="99"/>
-      <c r="AY24" s="99"/>
-      <c r="AZ24" s="99"/>
-      <c r="BA24" s="99"/>
-      <c r="BB24" s="99"/>
-      <c r="BC24" s="99"/>
-      <c r="BD24" s="99"/>
-      <c r="BE24" s="99"/>
-      <c r="BF24" s="99"/>
-      <c r="BG24" s="99"/>
-      <c r="BH24" s="99"/>
-      <c r="BI24" s="99"/>
-      <c r="BJ24" s="99"/>
-      <c r="BK24" s="99"/>
-      <c r="BL24" s="99"/>
-      <c r="BM24" s="99"/>
-      <c r="BN24" s="99"/>
+      <c r="B24" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="55"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="95" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G24" s="56"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="58" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J24" s="90"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="100"/>
+      <c r="M24" s="100"/>
+      <c r="N24" s="100"/>
+      <c r="O24" s="100"/>
+      <c r="P24" s="100"/>
+      <c r="Q24" s="100"/>
+      <c r="R24" s="100"/>
+      <c r="S24" s="100"/>
+      <c r="T24" s="100"/>
+      <c r="U24" s="100"/>
+      <c r="V24" s="100"/>
+      <c r="W24" s="100"/>
+      <c r="X24" s="100"/>
+      <c r="Y24" s="100"/>
+      <c r="Z24" s="100"/>
+      <c r="AA24" s="100"/>
+      <c r="AB24" s="100"/>
+      <c r="AC24" s="100"/>
+      <c r="AD24" s="100"/>
+      <c r="AE24" s="100"/>
+      <c r="AF24" s="100"/>
+      <c r="AG24" s="100"/>
+      <c r="AH24" s="100"/>
+      <c r="AI24" s="100"/>
+      <c r="AJ24" s="100"/>
+      <c r="AK24" s="100"/>
+      <c r="AL24" s="100"/>
+      <c r="AM24" s="100"/>
+      <c r="AN24" s="100"/>
+      <c r="AO24" s="100"/>
+      <c r="AP24" s="100"/>
+      <c r="AQ24" s="100"/>
+      <c r="AR24" s="100"/>
+      <c r="AS24" s="100"/>
+      <c r="AT24" s="100"/>
+      <c r="AU24" s="100"/>
+      <c r="AV24" s="100"/>
+      <c r="AW24" s="100"/>
+      <c r="AX24" s="100"/>
+      <c r="AY24" s="100"/>
+      <c r="AZ24" s="100"/>
+      <c r="BA24" s="100"/>
+      <c r="BB24" s="100"/>
+      <c r="BC24" s="100"/>
+      <c r="BD24" s="100"/>
+      <c r="BE24" s="100"/>
+      <c r="BF24" s="100"/>
+      <c r="BG24" s="100"/>
+      <c r="BH24" s="100"/>
+      <c r="BI24" s="100"/>
+      <c r="BJ24" s="100"/>
+      <c r="BK24" s="100"/>
+      <c r="BL24" s="100"/>
+      <c r="BM24" s="100"/>
+      <c r="BN24" s="100"/>
     </row>
     <row r="25" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="B25" s="117" t="s">
         <v>167</v>
@@ -6942,7 +6676,7 @@
         <v>43145</v>
       </c>
       <c r="F25" s="94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43147</v>
       </c>
       <c r="G25" s="61">
@@ -7016,7 +6750,7 @@
     <row r="26" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="B26" s="117" t="s">
         <v>168</v>
@@ -7026,7 +6760,7 @@
         <v>43148</v>
       </c>
       <c r="F26" s="94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43153</v>
       </c>
       <c r="G26" s="61">
@@ -7100,7 +6834,7 @@
     <row r="27" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>2.3.1</v>
+        <v>2.2.1</v>
       </c>
       <c r="B27" s="119" t="s">
         <v>169</v>
@@ -7110,7 +6844,7 @@
         <v>43133</v>
       </c>
       <c r="F27" s="94">
-        <f t="shared" ref="F27:F28" si="29">IF(ISBLANK(E27)," - ",IF(G27=0,E27,E27+G27-1))</f>
+        <f t="shared" ref="F27:F28" si="26">IF(ISBLANK(E27)," - ",IF(G27=0,E27,E27+G27-1))</f>
         <v>43134</v>
       </c>
       <c r="G27" s="61">
@@ -7120,7 +6854,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="63">
-        <f t="shared" ref="I27:I28" si="30">IF(OR(F27=0,E27=0)," - ",NETWORKDAYS(E27,F27))</f>
+        <f t="shared" ref="I27:I28" si="27">IF(OR(F27=0,E27=0)," - ",NETWORKDAYS(E27,F27))</f>
         <v>1</v>
       </c>
       <c r="J27" s="89"/>
@@ -7184,7 +6918,7 @@
     <row r="28" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>2.3.2</v>
+        <v>2.2.2</v>
       </c>
       <c r="B28" s="119" t="s">
         <v>170</v>
@@ -7194,7 +6928,7 @@
         <v>43133</v>
       </c>
       <c r="F28" s="94">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>43134</v>
       </c>
       <c r="G28" s="61">
@@ -7204,7 +6938,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="63">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="J28" s="89"/>
@@ -7268,7 +7002,7 @@
     <row r="29" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="B29" s="117" t="s">
         <v>153</v>
@@ -7278,7 +7012,7 @@
         <v>43154</v>
       </c>
       <c r="F29" s="94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43156</v>
       </c>
       <c r="G29" s="61">
@@ -7360,7 +7094,7 @@
       <c r="D30" s="55"/>
       <c r="E30" s="95"/>
       <c r="F30" s="95" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G30" s="56"/>
@@ -7440,7 +7174,7 @@
         <v>43141</v>
       </c>
       <c r="F31" s="94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43144</v>
       </c>
       <c r="G31" s="61">
@@ -7513,7 +7247,7 @@
     </row>
     <row r="32" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" ref="A32:A39" si="28">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.1.1</v>
       </c>
       <c r="B32" s="119" t="s">
@@ -7524,7 +7258,7 @@
         <v>43133</v>
       </c>
       <c r="F32" s="94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43134</v>
       </c>
       <c r="G32" s="61">
@@ -7597,7 +7331,7 @@
     </row>
     <row r="33" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="28"/>
         <v>3.1.2</v>
       </c>
       <c r="B33" s="119" t="s">
@@ -7608,7 +7342,7 @@
         <v>43133</v>
       </c>
       <c r="F33" s="94">
-        <f t="shared" ref="F33:F34" si="31">IF(ISBLANK(E33)," - ",IF(G33=0,E33,E33+G33-1))</f>
+        <f t="shared" ref="F33:F34" si="29">IF(ISBLANK(E33)," - ",IF(G33=0,E33,E33+G33-1))</f>
         <v>43134</v>
       </c>
       <c r="G33" s="61">
@@ -7618,7 +7352,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="63">
-        <f t="shared" ref="I33:I34" si="32">IF(OR(F33=0,E33=0)," - ",NETWORKDAYS(E33,F33))</f>
+        <f t="shared" ref="I33:I34" si="30">IF(OR(F33=0,E33=0)," - ",NETWORKDAYS(E33,F33))</f>
         <v>1</v>
       </c>
       <c r="J33" s="89"/>
@@ -7681,7 +7415,7 @@
     </row>
     <row r="34" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="28"/>
         <v>3.1.3</v>
       </c>
       <c r="B34" s="119" t="s">
@@ -7692,7 +7426,7 @@
         <v>43133</v>
       </c>
       <c r="F34" s="94">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>43134</v>
       </c>
       <c r="G34" s="61">
@@ -7702,7 +7436,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="63">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="J34" s="89"/>
@@ -7765,7 +7499,7 @@
     </row>
     <row r="35" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="28"/>
         <v>3.1.4</v>
       </c>
       <c r="B35" s="119" t="s">
@@ -7776,7 +7510,7 @@
         <v>43133</v>
       </c>
       <c r="F35" s="94">
-        <f t="shared" ref="F35" si="33">IF(ISBLANK(E35)," - ",IF(G35=0,E35,E35+G35-1))</f>
+        <f t="shared" ref="F35" si="31">IF(ISBLANK(E35)," - ",IF(G35=0,E35,E35+G35-1))</f>
         <v>43134</v>
       </c>
       <c r="G35" s="61">
@@ -7786,7 +7520,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="63">
-        <f t="shared" ref="I35" si="34">IF(OR(F35=0,E35=0)," - ",NETWORKDAYS(E35,F35))</f>
+        <f t="shared" ref="I35" si="32">IF(OR(F35=0,E35=0)," - ",NETWORKDAYS(E35,F35))</f>
         <v>1</v>
       </c>
       <c r="J35" s="89"/>
@@ -7849,7 +7583,7 @@
     </row>
     <row r="36" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="28"/>
         <v>3.1.5</v>
       </c>
       <c r="B36" s="119" t="s">
@@ -7860,7 +7594,7 @@
         <v>43133</v>
       </c>
       <c r="F36" s="94">
-        <f t="shared" ref="F36" si="35">IF(ISBLANK(E36)," - ",IF(G36=0,E36,E36+G36-1))</f>
+        <f t="shared" ref="F36" si="33">IF(ISBLANK(E36)," - ",IF(G36=0,E36,E36+G36-1))</f>
         <v>43134</v>
       </c>
       <c r="G36" s="61">
@@ -7870,7 +7604,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="63">
-        <f t="shared" ref="I36" si="36">IF(OR(F36=0,E36=0)," - ",NETWORKDAYS(E36,F36))</f>
+        <f t="shared" ref="I36" si="34">IF(OR(F36=0,E36=0)," - ",NETWORKDAYS(E36,F36))</f>
         <v>1</v>
       </c>
       <c r="J36" s="89"/>
@@ -7933,7 +7667,7 @@
     </row>
     <row r="37" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="28"/>
         <v>3.1.6</v>
       </c>
       <c r="B37" s="119" t="s">
@@ -7944,7 +7678,7 @@
         <v>43133</v>
       </c>
       <c r="F37" s="94">
-        <f t="shared" ref="F37" si="37">IF(ISBLANK(E37)," - ",IF(G37=0,E37,E37+G37-1))</f>
+        <f t="shared" ref="F37" si="35">IF(ISBLANK(E37)," - ",IF(G37=0,E37,E37+G37-1))</f>
         <v>43134</v>
       </c>
       <c r="G37" s="61">
@@ -7954,7 +7688,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="63">
-        <f t="shared" ref="I37" si="38">IF(OR(F37=0,E37=0)," - ",NETWORKDAYS(E37,F37))</f>
+        <f t="shared" ref="I37" si="36">IF(OR(F37=0,E37=0)," - ",NETWORKDAYS(E37,F37))</f>
         <v>1</v>
       </c>
       <c r="J37" s="89"/>
@@ -8017,7 +7751,7 @@
     </row>
     <row r="38" spans="1:66" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A38" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="28"/>
         <v>3.1.7</v>
       </c>
       <c r="B38" s="119" t="s">
@@ -8028,7 +7762,7 @@
         <v>43133</v>
       </c>
       <c r="F38" s="94">
-        <f t="shared" ref="F38" si="39">IF(ISBLANK(E38)," - ",IF(G38=0,E38,E38+G38-1))</f>
+        <f t="shared" ref="F38" si="37">IF(ISBLANK(E38)," - ",IF(G38=0,E38,E38+G38-1))</f>
         <v>43134</v>
       </c>
       <c r="G38" s="61">
@@ -8038,7 +7772,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="63">
-        <f t="shared" ref="I38" si="40">IF(OR(F38=0,E38=0)," - ",NETWORKDAYS(E38,F38))</f>
+        <f t="shared" ref="I38" si="38">IF(OR(F38=0,E38=0)," - ",NETWORKDAYS(E38,F38))</f>
         <v>1</v>
       </c>
       <c r="J38" s="89"/>
@@ -8101,7 +7835,7 @@
     </row>
     <row r="39" spans="1:66" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A39" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="28"/>
         <v>3.1.8</v>
       </c>
       <c r="B39" s="119" t="s">
@@ -8112,7 +7846,7 @@
         <v>43133</v>
       </c>
       <c r="F39" s="94">
-        <f t="shared" ref="F39" si="41">IF(ISBLANK(E39)," - ",IF(G39=0,E39,E39+G39-1))</f>
+        <f t="shared" ref="F39" si="39">IF(ISBLANK(E39)," - ",IF(G39=0,E39,E39+G39-1))</f>
         <v>43134</v>
       </c>
       <c r="G39" s="61">
@@ -8122,7 +7856,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="63">
-        <f t="shared" ref="I39" si="42">IF(OR(F39=0,E39=0)," - ",NETWORKDAYS(E39,F39))</f>
+        <f t="shared" ref="I39" si="40">IF(OR(F39=0,E39=0)," - ",NETWORKDAYS(E39,F39))</f>
         <v>1</v>
       </c>
       <c r="J39" s="89"/>
@@ -8196,7 +7930,7 @@
         <v>43141</v>
       </c>
       <c r="F40" s="94">
-        <f t="shared" ref="F40" si="43">IF(ISBLANK(E40)," - ",IF(G40=0,E40,E40+G40-1))</f>
+        <f t="shared" ref="F40" si="41">IF(ISBLANK(E40)," - ",IF(G40=0,E40,E40+G40-1))</f>
         <v>43144</v>
       </c>
       <c r="G40" s="61">
@@ -8206,7 +7940,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="63">
-        <f t="shared" ref="I40" si="44">IF(OR(F40=0,E40=0)," - ",NETWORKDAYS(E40,F40))</f>
+        <f t="shared" ref="I40" si="42">IF(OR(F40=0,E40=0)," - ",NETWORKDAYS(E40,F40))</f>
         <v>2</v>
       </c>
       <c r="J40" s="89"/>
@@ -8280,7 +8014,7 @@
         <v>43145</v>
       </c>
       <c r="F41" s="94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43147</v>
       </c>
       <c r="G41" s="61">
@@ -8353,7 +8087,7 @@
     </row>
     <row r="42" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" ref="A42:A49" si="43">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.3.1</v>
       </c>
       <c r="B42" s="119" t="s">
@@ -8364,7 +8098,7 @@
         <v>43133</v>
       </c>
       <c r="F42" s="94">
-        <f t="shared" ref="F42:F49" si="45">IF(ISBLANK(E42)," - ",IF(G42=0,E42,E42+G42-1))</f>
+        <f t="shared" ref="F42:F49" si="44">IF(ISBLANK(E42)," - ",IF(G42=0,E42,E42+G42-1))</f>
         <v>43134</v>
       </c>
       <c r="G42" s="61">
@@ -8374,7 +8108,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="63">
-        <f t="shared" ref="I42:I49" si="46">IF(OR(F42=0,E42=0)," - ",NETWORKDAYS(E42,F42))</f>
+        <f t="shared" ref="I42:I49" si="45">IF(OR(F42=0,E42=0)," - ",NETWORKDAYS(E42,F42))</f>
         <v>1</v>
       </c>
       <c r="J42" s="89"/>
@@ -8437,7 +8171,7 @@
     </row>
     <row r="43" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="43"/>
         <v>3.3.2</v>
       </c>
       <c r="B43" s="119" t="s">
@@ -8448,7 +8182,7 @@
         <v>43133</v>
       </c>
       <c r="F43" s="94">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>43134</v>
       </c>
       <c r="G43" s="61">
@@ -8458,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="63">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="J43" s="89"/>
@@ -8521,7 +8255,7 @@
     </row>
     <row r="44" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="43"/>
         <v>3.3.3</v>
       </c>
       <c r="B44" s="119" t="s">
@@ -8532,7 +8266,7 @@
         <v>43133</v>
       </c>
       <c r="F44" s="94">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>43134</v>
       </c>
       <c r="G44" s="61">
@@ -8542,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="63">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="J44" s="89"/>
@@ -8605,7 +8339,7 @@
     </row>
     <row r="45" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="43"/>
         <v>3.3.4</v>
       </c>
       <c r="B45" s="119" t="s">
@@ -8616,7 +8350,7 @@
         <v>43133</v>
       </c>
       <c r="F45" s="94">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>43134</v>
       </c>
       <c r="G45" s="61">
@@ -8626,7 +8360,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="63">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="J45" s="89"/>
@@ -8689,7 +8423,7 @@
     </row>
     <row r="46" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="43"/>
         <v>3.3.5</v>
       </c>
       <c r="B46" s="119" t="s">
@@ -8700,7 +8434,7 @@
         <v>43133</v>
       </c>
       <c r="F46" s="94">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>43134</v>
       </c>
       <c r="G46" s="61">
@@ -8710,7 +8444,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="63">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="J46" s="89"/>
@@ -8773,7 +8507,7 @@
     </row>
     <row r="47" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="43"/>
         <v>3.3.6</v>
       </c>
       <c r="B47" s="119" t="s">
@@ -8784,7 +8518,7 @@
         <v>43133</v>
       </c>
       <c r="F47" s="94">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>43134</v>
       </c>
       <c r="G47" s="61">
@@ -8794,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="63">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="J47" s="89"/>
@@ -8857,7 +8591,7 @@
     </row>
     <row r="48" spans="1:66" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A48" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="43"/>
         <v>3.3.7</v>
       </c>
       <c r="B48" s="119" t="s">
@@ -8868,7 +8602,7 @@
         <v>43133</v>
       </c>
       <c r="F48" s="94">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>43134</v>
       </c>
       <c r="G48" s="61">
@@ -8878,7 +8612,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="63">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="J48" s="89"/>
@@ -8941,7 +8675,7 @@
     </row>
     <row r="49" spans="1:66" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A49" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="43"/>
         <v>3.3.8</v>
       </c>
       <c r="B49" s="119" t="s">
@@ -8952,7 +8686,7 @@
         <v>43133</v>
       </c>
       <c r="F49" s="94">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>43134</v>
       </c>
       <c r="G49" s="61">
@@ -8962,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="63">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="J49" s="89"/>
@@ -9036,7 +8770,7 @@
         <v>43145</v>
       </c>
       <c r="F50" s="94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43147</v>
       </c>
       <c r="G50" s="61">
@@ -9120,7 +8854,7 @@
         <v>43148</v>
       </c>
       <c r="F51" s="94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43153</v>
       </c>
       <c r="G51" s="61">
@@ -9204,7 +8938,7 @@
         <v>43154</v>
       </c>
       <c r="F52" s="94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43156</v>
       </c>
       <c r="G52" s="61">
@@ -9286,7 +9020,7 @@
       <c r="D53" s="55"/>
       <c r="E53" s="95"/>
       <c r="F53" s="95" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G53" s="56"/>
@@ -9366,7 +9100,7 @@
         <v>43129</v>
       </c>
       <c r="F54" s="94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43129</v>
       </c>
       <c r="G54" s="61">
@@ -9450,7 +9184,7 @@
         <v>43130</v>
       </c>
       <c r="F55" s="94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43130</v>
       </c>
       <c r="G55" s="61">
@@ -9534,7 +9268,7 @@
         <v>43131</v>
       </c>
       <c r="F56" s="94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43131</v>
       </c>
       <c r="G56" s="61">
@@ -9618,7 +9352,7 @@
         <v>43132</v>
       </c>
       <c r="F57" s="94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43132</v>
       </c>
       <c r="G57" s="61">
@@ -9702,7 +9436,7 @@
         <v>43133</v>
       </c>
       <c r="F58" s="94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43133</v>
       </c>
       <c r="G58" s="61">
@@ -9784,13 +9518,13 @@
       <c r="D59" s="55"/>
       <c r="E59" s="95"/>
       <c r="F59" s="95" t="str">
-        <f t="shared" ref="F59:F60" si="47">IF(ISBLANK(E59)," - ",IF(G59=0,E59,E59+G59-1))</f>
+        <f t="shared" ref="F59:F60" si="46">IF(ISBLANK(E59)," - ",IF(G59=0,E59,E59+G59-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G59" s="56"/>
       <c r="H59" s="57"/>
       <c r="I59" s="58" t="str">
-        <f t="shared" ref="I59:I60" si="48">IF(OR(F59=0,E59=0)," - ",NETWORKDAYS(E59,F59))</f>
+        <f t="shared" ref="I59:I60" si="47">IF(OR(F59=0,E59=0)," - ",NETWORKDAYS(E59,F59))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J59" s="90"/>
@@ -9864,7 +9598,7 @@
         <v>43129</v>
       </c>
       <c r="F60" s="94">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>43129</v>
       </c>
       <c r="G60" s="61">
@@ -9874,7 +9608,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="63">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="J60" s="89"/>
@@ -9948,7 +9682,7 @@
         <v>43129</v>
       </c>
       <c r="F61" s="94">
-        <f t="shared" ref="F61" si="49">IF(ISBLANK(E61)," - ",IF(G61=0,E61,E61+G61-1))</f>
+        <f t="shared" ref="F61" si="48">IF(ISBLANK(E61)," - ",IF(G61=0,E61,E61+G61-1))</f>
         <v>43129</v>
       </c>
       <c r="G61" s="61">
@@ -9958,7 +9692,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="63">
-        <f t="shared" ref="I61" si="50">IF(OR(F61=0,E61=0)," - ",NETWORKDAYS(E61,F61))</f>
+        <f t="shared" ref="I61" si="49">IF(OR(F61=0,E61=0)," - ",NETWORKDAYS(E61,F61))</f>
         <v>1</v>
       </c>
       <c r="J61" s="89"/>
@@ -10032,7 +9766,7 @@
         <v>43129</v>
       </c>
       <c r="F62" s="94">
-        <f t="shared" ref="F62:F63" si="51">IF(ISBLANK(E62)," - ",IF(G62=0,E62,E62+G62-1))</f>
+        <f t="shared" ref="F62:F63" si="50">IF(ISBLANK(E62)," - ",IF(G62=0,E62,E62+G62-1))</f>
         <v>43129</v>
       </c>
       <c r="G62" s="61">
@@ -10042,7 +9776,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="63">
-        <f t="shared" ref="I62:I63" si="52">IF(OR(F62=0,E62=0)," - ",NETWORKDAYS(E62,F62))</f>
+        <f t="shared" ref="I62:I63" si="51">IF(OR(F62=0,E62=0)," - ",NETWORKDAYS(E62,F62))</f>
         <v>1</v>
       </c>
       <c r="J62" s="89"/>
@@ -10114,13 +9848,13 @@
       <c r="D63" s="55"/>
       <c r="E63" s="95"/>
       <c r="F63" s="95" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G63" s="56"/>
       <c r="H63" s="57"/>
       <c r="I63" s="58" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J63" s="90"/>
@@ -10194,7 +9928,7 @@
         <v>43129</v>
       </c>
       <c r="F64" s="94">
-        <f t="shared" ref="F64" si="53">IF(ISBLANK(E64)," - ",IF(G64=0,E64,E64+G64-1))</f>
+        <f t="shared" ref="F64" si="52">IF(ISBLANK(E64)," - ",IF(G64=0,E64,E64+G64-1))</f>
         <v>43129</v>
       </c>
       <c r="G64" s="61">
@@ -10204,7 +9938,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="63">
-        <f t="shared" ref="I64" si="54">IF(OR(F64=0,E64=0)," - ",NETWORKDAYS(E64,F64))</f>
+        <f t="shared" ref="I64" si="53">IF(OR(F64=0,E64=0)," - ",NETWORKDAYS(E64,F64))</f>
         <v>1</v>
       </c>
       <c r="J64" s="89"/>
@@ -10278,7 +10012,7 @@
         <v>43129</v>
       </c>
       <c r="F65" s="94">
-        <f t="shared" ref="F65:F67" si="55">IF(ISBLANK(E65)," - ",IF(G65=0,E65,E65+G65-1))</f>
+        <f t="shared" ref="F65:F67" si="54">IF(ISBLANK(E65)," - ",IF(G65=0,E65,E65+G65-1))</f>
         <v>43129</v>
       </c>
       <c r="G65" s="61">
@@ -10288,7 +10022,7 @@
         <v>0</v>
       </c>
       <c r="I65" s="63">
-        <f t="shared" ref="I65:I67" si="56">IF(OR(F65=0,E65=0)," - ",NETWORKDAYS(E65,F65))</f>
+        <f t="shared" ref="I65:I67" si="55">IF(OR(F65=0,E65=0)," - ",NETWORKDAYS(E65,F65))</f>
         <v>1</v>
       </c>
       <c r="J65" s="89"/>
@@ -10362,7 +10096,7 @@
         <v>43129</v>
       </c>
       <c r="F66" s="94">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>43129</v>
       </c>
       <c r="G66" s="61">
@@ -10372,7 +10106,7 @@
         <v>0</v>
       </c>
       <c r="I66" s="63">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="J66" s="89"/>
@@ -10444,13 +10178,13 @@
       <c r="D67" s="55"/>
       <c r="E67" s="95"/>
       <c r="F67" s="95" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G67" s="56"/>
       <c r="H67" s="57"/>
       <c r="I67" s="58" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J67" s="90"/>
@@ -10663,7 +10397,7 @@
       <c r="D70" s="73"/>
       <c r="E70" s="93"/>
       <c r="F70" s="94" t="str">
-        <f t="shared" ref="F70:F73" si="57">IF(ISBLANK(E70)," - ",IF(G70=0,E70,E70+G70-1))</f>
+        <f t="shared" ref="F70:F73" si="56">IF(ISBLANK(E70)," - ",IF(G70=0,E70,E70+G70-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G70" s="61"/>
@@ -10742,13 +10476,13 @@
       <c r="D71" s="73"/>
       <c r="E71" s="93"/>
       <c r="F71" s="94" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G71" s="61"/>
       <c r="H71" s="62"/>
       <c r="I71" s="74" t="str">
-        <f t="shared" ref="I71:I73" si="58">IF(OR(F71=0,E71=0)," - ",NETWORKDAYS(E71,F71))</f>
+        <f t="shared" ref="I71:I73" si="57">IF(OR(F71=0,E71=0)," - ",NETWORKDAYS(E71,F71))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J71" s="92"/>
@@ -10821,13 +10555,13 @@
       <c r="D72" s="73"/>
       <c r="E72" s="93"/>
       <c r="F72" s="94" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G72" s="61"/>
       <c r="H72" s="62"/>
       <c r="I72" s="74" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J72" s="92"/>
@@ -10900,13 +10634,13 @@
       <c r="D73" s="73"/>
       <c r="E73" s="93"/>
       <c r="F73" s="94" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G73" s="61"/>
       <c r="H73" s="62"/>
       <c r="I73" s="74" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J73" s="92"/>
@@ -11041,6 +10775,15 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -11051,19 +10794,10 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H8:H9 H68:H73 H11 H20:H21 H25:H26 H29:H31 H41 H50:H58">
-    <cfRule type="dataBar" priority="166">
+  <conditionalFormatting sqref="H8:H9 H68:H73 H15 H24:H26 H29:H31 H41 H50:H58">
+    <cfRule type="dataBar" priority="176">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11077,25 +10811,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:BN7">
-    <cfRule type="expression" dxfId="102" priority="209">
+    <cfRule type="expression" dxfId="64" priority="219">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN9 K11:BN11 K20:BN26 K29:BN31 K41:BN41 K50:BN73">
-    <cfRule type="expression" dxfId="101" priority="212">
+  <conditionalFormatting sqref="K8:BN9 K15:BN15 K24:BN73">
+    <cfRule type="expression" dxfId="63" priority="222">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="213">
+    <cfRule type="expression" dxfId="62" priority="223">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN9 K68:BN73 K11:BN11 K20:BN21 K25:BN26 K29:BN31 K41:BN41 K50:BN58">
-    <cfRule type="expression" dxfId="99" priority="172">
+  <conditionalFormatting sqref="K6:BN9 K68:BN73 K15:BN15 K24:BN26 K29:BN31 K41:BN41 K50:BN58">
+    <cfRule type="expression" dxfId="61" priority="182">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="dataBar" priority="161">
+    <cfRule type="dataBar" priority="171">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11109,12 +10843,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K59:BN59">
-    <cfRule type="expression" dxfId="98" priority="162">
+    <cfRule type="expression" dxfId="60" priority="172">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60">
-    <cfRule type="dataBar" priority="157">
+    <cfRule type="dataBar" priority="167">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11128,12 +10862,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K60:BN60">
-    <cfRule type="expression" dxfId="97" priority="158">
+    <cfRule type="expression" dxfId="59" priority="168">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="dataBar" priority="153">
+    <cfRule type="dataBar" priority="163">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11147,12 +10881,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K61:BN61">
-    <cfRule type="expression" dxfId="96" priority="154">
+    <cfRule type="expression" dxfId="58" priority="164">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="dataBar" priority="149">
+    <cfRule type="dataBar" priority="159">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11166,12 +10900,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K62:BN62">
-    <cfRule type="expression" dxfId="95" priority="150">
+    <cfRule type="expression" dxfId="57" priority="160">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="dataBar" priority="145">
+    <cfRule type="dataBar" priority="155">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11185,12 +10919,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K63:BN63">
-    <cfRule type="expression" dxfId="94" priority="146">
+    <cfRule type="expression" dxfId="56" priority="156">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="dataBar" priority="141">
+    <cfRule type="dataBar" priority="151">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11204,12 +10938,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K64:BN64">
-    <cfRule type="expression" dxfId="93" priority="142">
+    <cfRule type="expression" dxfId="55" priority="152">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65">
-    <cfRule type="dataBar" priority="137">
+    <cfRule type="dataBar" priority="147">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11223,12 +10957,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K65:BN65">
-    <cfRule type="expression" dxfId="92" priority="138">
+    <cfRule type="expression" dxfId="54" priority="148">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="dataBar" priority="133">
+    <cfRule type="dataBar" priority="143">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11242,12 +10976,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K66:BN66">
-    <cfRule type="expression" dxfId="91" priority="134">
+    <cfRule type="expression" dxfId="53" priority="144">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="dataBar" priority="129">
+  <conditionalFormatting sqref="H16">
+    <cfRule type="dataBar" priority="139">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11260,21 +10994,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:BN12">
-    <cfRule type="expression" dxfId="90" priority="131">
-      <formula>AND($E12&lt;=K$6,ROUNDDOWN(($F12-$E12+1)*$H12,0)+$E12-1&gt;=K$6)</formula>
+  <conditionalFormatting sqref="K16:BN16">
+    <cfRule type="expression" dxfId="52" priority="141">
+      <formula>AND($E16&lt;=K$6,ROUNDDOWN(($F16-$E16+1)*$H16,0)+$E16-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="132">
-      <formula>AND(NOT(ISBLANK($E12)),$E12&lt;=K$6,$F12&gt;=K$6)</formula>
+    <cfRule type="expression" dxfId="51" priority="142">
+      <formula>AND(NOT(ISBLANK($E16)),$E16&lt;=K$6,$F16&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:BN12">
-    <cfRule type="expression" dxfId="88" priority="130">
+  <conditionalFormatting sqref="K16:BN16">
+    <cfRule type="expression" dxfId="50" priority="140">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="dataBar" priority="125">
+  <conditionalFormatting sqref="H17">
+    <cfRule type="dataBar" priority="135">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11287,21 +11021,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13:BN13">
-    <cfRule type="expression" dxfId="87" priority="127">
-      <formula>AND($E13&lt;=K$6,ROUNDDOWN(($F13-$E13+1)*$H13,0)+$E13-1&gt;=K$6)</formula>
+  <conditionalFormatting sqref="K17:BN17">
+    <cfRule type="expression" dxfId="49" priority="137">
+      <formula>AND($E17&lt;=K$6,ROUNDDOWN(($F17-$E17+1)*$H17,0)+$E17-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="128">
-      <formula>AND(NOT(ISBLANK($E13)),$E13&lt;=K$6,$F13&gt;=K$6)</formula>
+    <cfRule type="expression" dxfId="48" priority="138">
+      <formula>AND(NOT(ISBLANK($E17)),$E17&lt;=K$6,$F17&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13:BN13">
-    <cfRule type="expression" dxfId="85" priority="126">
+  <conditionalFormatting sqref="K17:BN17">
+    <cfRule type="expression" dxfId="47" priority="136">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="dataBar" priority="121">
+  <conditionalFormatting sqref="H18">
+    <cfRule type="dataBar" priority="131">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11314,21 +11048,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:BN14">
-    <cfRule type="expression" dxfId="84" priority="123">
-      <formula>AND($E14&lt;=K$6,ROUNDDOWN(($F14-$E14+1)*$H14,0)+$E14-1&gt;=K$6)</formula>
+  <conditionalFormatting sqref="K18:BN18">
+    <cfRule type="expression" dxfId="46" priority="133">
+      <formula>AND($E18&lt;=K$6,ROUNDDOWN(($F18-$E18+1)*$H18,0)+$E18-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="124">
-      <formula>AND(NOT(ISBLANK($E14)),$E14&lt;=K$6,$F14&gt;=K$6)</formula>
+    <cfRule type="expression" dxfId="45" priority="134">
+      <formula>AND(NOT(ISBLANK($E18)),$E18&lt;=K$6,$F18&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:BN14">
-    <cfRule type="expression" dxfId="82" priority="122">
+  <conditionalFormatting sqref="K18:BN18">
+    <cfRule type="expression" dxfId="44" priority="132">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="dataBar" priority="117">
+  <conditionalFormatting sqref="H19">
+    <cfRule type="dataBar" priority="127">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11341,21 +11075,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:BN15">
-    <cfRule type="expression" dxfId="81" priority="119">
-      <formula>AND($E15&lt;=K$6,ROUNDDOWN(($F15-$E15+1)*$H15,0)+$E15-1&gt;=K$6)</formula>
+  <conditionalFormatting sqref="K19:BN19">
+    <cfRule type="expression" dxfId="43" priority="129">
+      <formula>AND($E19&lt;=K$6,ROUNDDOWN(($F19-$E19+1)*$H19,0)+$E19-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="120">
-      <formula>AND(NOT(ISBLANK($E15)),$E15&lt;=K$6,$F15&gt;=K$6)</formula>
+    <cfRule type="expression" dxfId="42" priority="130">
+      <formula>AND(NOT(ISBLANK($E19)),$E19&lt;=K$6,$F19&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:BN15">
-    <cfRule type="expression" dxfId="79" priority="118">
+  <conditionalFormatting sqref="K19:BN19">
+    <cfRule type="expression" dxfId="41" priority="128">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="dataBar" priority="113">
+  <conditionalFormatting sqref="H20">
+    <cfRule type="dataBar" priority="123">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11368,21 +11102,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:BN16">
-    <cfRule type="expression" dxfId="78" priority="115">
-      <formula>AND($E16&lt;=K$6,ROUNDDOWN(($F16-$E16+1)*$H16,0)+$E16-1&gt;=K$6)</formula>
+  <conditionalFormatting sqref="K20:BN20">
+    <cfRule type="expression" dxfId="40" priority="125">
+      <formula>AND($E20&lt;=K$6,ROUNDDOWN(($F20-$E20+1)*$H20,0)+$E20-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="116">
-      <formula>AND(NOT(ISBLANK($E16)),$E16&lt;=K$6,$F16&gt;=K$6)</formula>
+    <cfRule type="expression" dxfId="39" priority="126">
+      <formula>AND(NOT(ISBLANK($E20)),$E20&lt;=K$6,$F20&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:BN16">
-    <cfRule type="expression" dxfId="76" priority="114">
+  <conditionalFormatting sqref="K20:BN20">
+    <cfRule type="expression" dxfId="38" priority="124">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
-    <cfRule type="dataBar" priority="109">
+  <conditionalFormatting sqref="H21">
+    <cfRule type="dataBar" priority="119">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11395,21 +11129,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:BN17">
-    <cfRule type="expression" dxfId="75" priority="111">
-      <formula>AND($E17&lt;=K$6,ROUNDDOWN(($F17-$E17+1)*$H17,0)+$E17-1&gt;=K$6)</formula>
+  <conditionalFormatting sqref="K21:BN21">
+    <cfRule type="expression" dxfId="37" priority="121">
+      <formula>AND($E21&lt;=K$6,ROUNDDOWN(($F21-$E21+1)*$H21,0)+$E21-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="112">
-      <formula>AND(NOT(ISBLANK($E17)),$E17&lt;=K$6,$F17&gt;=K$6)</formula>
+    <cfRule type="expression" dxfId="36" priority="122">
+      <formula>AND(NOT(ISBLANK($E21)),$E21&lt;=K$6,$F21&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:BN17">
-    <cfRule type="expression" dxfId="73" priority="110">
+  <conditionalFormatting sqref="K21:BN21">
+    <cfRule type="expression" dxfId="35" priority="120">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="dataBar" priority="105">
+  <conditionalFormatting sqref="H22">
+    <cfRule type="dataBar" priority="115">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11422,21 +11156,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:BN18">
-    <cfRule type="expression" dxfId="72" priority="107">
-      <formula>AND($E18&lt;=K$6,ROUNDDOWN(($F18-$E18+1)*$H18,0)+$E18-1&gt;=K$6)</formula>
+  <conditionalFormatting sqref="K22:BN22">
+    <cfRule type="expression" dxfId="34" priority="117">
+      <formula>AND($E22&lt;=K$6,ROUNDDOWN(($F22-$E22+1)*$H22,0)+$E22-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="108">
-      <formula>AND(NOT(ISBLANK($E18)),$E18&lt;=K$6,$F18&gt;=K$6)</formula>
+    <cfRule type="expression" dxfId="33" priority="118">
+      <formula>AND(NOT(ISBLANK($E22)),$E22&lt;=K$6,$F22&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:BN18">
-    <cfRule type="expression" dxfId="70" priority="106">
+  <conditionalFormatting sqref="K22:BN22">
+    <cfRule type="expression" dxfId="32" priority="116">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="dataBar" priority="101">
+  <conditionalFormatting sqref="H23">
+    <cfRule type="dataBar" priority="111">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11449,78 +11183,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:BN19">
-    <cfRule type="expression" dxfId="69" priority="103">
-      <formula>AND($E19&lt;=K$6,ROUNDDOWN(($F19-$E19+1)*$H19,0)+$E19-1&gt;=K$6)</formula>
+  <conditionalFormatting sqref="K23:BN23">
+    <cfRule type="expression" dxfId="31" priority="113">
+      <formula>AND($E23&lt;=K$6,ROUNDDOWN(($F23-$E23+1)*$H23,0)+$E23-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="104">
-      <formula>AND(NOT(ISBLANK($E19)),$E19&lt;=K$6,$F19&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K19:BN19">
-    <cfRule type="expression" dxfId="67" priority="102">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="dataBar" priority="97">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{638C4DF6-4BDF-4291-97CF-8C47FA43BBFD}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K22:BN22">
-    <cfRule type="expression" dxfId="66" priority="98">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="dataBar" priority="93">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1C561438-4719-47D4-8ED9-3D710B148D36}</x14:id>
-        </ext>
-      </extLst>
+    <cfRule type="expression" dxfId="30" priority="114">
+      <formula>AND(NOT(ISBLANK($E23)),$E23&lt;=K$6,$F23&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23:BN23">
-    <cfRule type="expression" dxfId="65" priority="94">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="dataBar" priority="89">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FF286B3C-4939-49EE-9E1D-AD8BC240B891}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K24:BN24">
-    <cfRule type="expression" dxfId="64" priority="90">
+    <cfRule type="expression" dxfId="29" priority="112">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H67">
-    <cfRule type="dataBar" priority="85">
+    <cfRule type="dataBar" priority="95">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11534,12 +11211,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K67:BN67">
-    <cfRule type="expression" dxfId="63" priority="86">
+    <cfRule type="expression" dxfId="28" priority="96">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="dataBar" priority="81">
+    <cfRule type="dataBar" priority="91">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11553,28 +11230,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:BN10">
-    <cfRule type="expression" dxfId="62" priority="83">
+    <cfRule type="expression" dxfId="27" priority="93">
       <formula>AND($E10&lt;=K$6,ROUNDDOWN(($F10-$E10+1)*$H10,0)+$E10-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="84">
+    <cfRule type="expression" dxfId="26" priority="94">
       <formula>AND(NOT(ISBLANK($E10)),$E10&lt;=K$6,$F10&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:BN10">
-    <cfRule type="expression" dxfId="60" priority="82">
+    <cfRule type="expression" dxfId="25" priority="92">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27:BN27">
-    <cfRule type="expression" dxfId="59" priority="75">
-      <formula>AND($E27&lt;=K$6,ROUNDDOWN(($F27-$E27+1)*$H27,0)+$E27-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="76">
-      <formula>AND(NOT(ISBLANK($E27)),$E27&lt;=K$6,$F27&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="dataBar" priority="73">
+    <cfRule type="dataBar" priority="83">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11588,20 +11257,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27:BN27">
-    <cfRule type="expression" dxfId="57" priority="74">
+    <cfRule type="expression" dxfId="24" priority="84">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28:BN28">
-    <cfRule type="expression" dxfId="56" priority="71">
-      <formula>AND($E28&lt;=K$6,ROUNDDOWN(($F28-$E28+1)*$H28,0)+$E28-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="55" priority="72">
-      <formula>AND(NOT(ISBLANK($E28)),$E28&lt;=K$6,$F28&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="dataBar" priority="69">
+    <cfRule type="dataBar" priority="79">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11615,12 +11276,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:BN28">
-    <cfRule type="expression" dxfId="54" priority="70">
+    <cfRule type="expression" dxfId="23" priority="80">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="dataBar" priority="65">
+    <cfRule type="dataBar" priority="75">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11634,28 +11295,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40:BN40">
-    <cfRule type="expression" dxfId="53" priority="67">
-      <formula>AND($E40&lt;=K$6,ROUNDDOWN(($F40-$E40+1)*$H40,0)+$E40-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="68">
-      <formula>AND(NOT(ISBLANK($E40)),$E40&lt;=K$6,$F40&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K40:BN40">
-    <cfRule type="expression" dxfId="51" priority="66">
+    <cfRule type="expression" dxfId="22" priority="76">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K32:BN32">
-    <cfRule type="expression" dxfId="50" priority="63">
-      <formula>AND($E32&lt;=K$6,ROUNDDOWN(($F32-$E32+1)*$H32,0)+$E32-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="64">
-      <formula>AND(NOT(ISBLANK($E32)),$E32&lt;=K$6,$F32&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="dataBar" priority="61">
+    <cfRule type="dataBar" priority="71">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11669,20 +11314,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:BN32">
-    <cfRule type="expression" dxfId="48" priority="62">
+    <cfRule type="expression" dxfId="21" priority="72">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K33:BN33">
-    <cfRule type="expression" dxfId="47" priority="59">
-      <formula>AND($E33&lt;=K$6,ROUNDDOWN(($F33-$E33+1)*$H33,0)+$E33-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="60">
-      <formula>AND(NOT(ISBLANK($E33)),$E33&lt;=K$6,$F33&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="dataBar" priority="57">
+    <cfRule type="dataBar" priority="67">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11696,20 +11333,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:BN33">
-    <cfRule type="expression" dxfId="45" priority="58">
+    <cfRule type="expression" dxfId="20" priority="68">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K34:BN34">
-    <cfRule type="expression" dxfId="44" priority="55">
-      <formula>AND($E34&lt;=K$6,ROUNDDOWN(($F34-$E34+1)*$H34,0)+$E34-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="56">
-      <formula>AND(NOT(ISBLANK($E34)),$E34&lt;=K$6,$F34&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="dataBar" priority="53">
+    <cfRule type="dataBar" priority="63">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11723,20 +11352,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34:BN34">
-    <cfRule type="expression" dxfId="42" priority="54">
+    <cfRule type="expression" dxfId="19" priority="64">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K35:BN35">
-    <cfRule type="expression" dxfId="41" priority="51">
-      <formula>AND($E35&lt;=K$6,ROUNDDOWN(($F35-$E35+1)*$H35,0)+$E35-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="52">
-      <formula>AND(NOT(ISBLANK($E35)),$E35&lt;=K$6,$F35&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="dataBar" priority="49">
+    <cfRule type="dataBar" priority="59">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11750,20 +11371,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35:BN35">
-    <cfRule type="expression" dxfId="39" priority="50">
+    <cfRule type="expression" dxfId="18" priority="60">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36:BN36">
-    <cfRule type="expression" dxfId="38" priority="47">
-      <formula>AND($E36&lt;=K$6,ROUNDDOWN(($F36-$E36+1)*$H36,0)+$E36-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="48">
-      <formula>AND(NOT(ISBLANK($E36)),$E36&lt;=K$6,$F36&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="dataBar" priority="45">
+    <cfRule type="dataBar" priority="55">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11777,20 +11390,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36:BN36">
-    <cfRule type="expression" dxfId="36" priority="46">
+    <cfRule type="expression" dxfId="17" priority="56">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K37:BN37">
-    <cfRule type="expression" dxfId="35" priority="43">
-      <formula>AND($E37&lt;=K$6,ROUNDDOWN(($F37-$E37+1)*$H37,0)+$E37-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="44">
-      <formula>AND(NOT(ISBLANK($E37)),$E37&lt;=K$6,$F37&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="dataBar" priority="41">
+    <cfRule type="dataBar" priority="51">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11804,20 +11409,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K37:BN37">
-    <cfRule type="expression" dxfId="33" priority="42">
+    <cfRule type="expression" dxfId="16" priority="52">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38:BN38">
-    <cfRule type="expression" dxfId="32" priority="39">
-      <formula>AND($E38&lt;=K$6,ROUNDDOWN(($F38-$E38+1)*$H38,0)+$E38-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="40">
-      <formula>AND(NOT(ISBLANK($E38)),$E38&lt;=K$6,$F38&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="dataBar" priority="37">
+    <cfRule type="dataBar" priority="47">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11831,20 +11428,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38:BN38">
-    <cfRule type="expression" dxfId="30" priority="38">
+    <cfRule type="expression" dxfId="15" priority="48">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:BN39">
-    <cfRule type="expression" dxfId="29" priority="35">
-      <formula>AND($E39&lt;=K$6,ROUNDDOWN(($F39-$E39+1)*$H39,0)+$E39-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="36">
-      <formula>AND(NOT(ISBLANK($E39)),$E39&lt;=K$6,$F39&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="dataBar" priority="33">
+    <cfRule type="dataBar" priority="43">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11858,20 +11447,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K39:BN39">
-    <cfRule type="expression" dxfId="27" priority="34">
+    <cfRule type="expression" dxfId="14" priority="44">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42:BN42">
-    <cfRule type="expression" dxfId="26" priority="31">
-      <formula>AND($E42&lt;=K$6,ROUNDDOWN(($F42-$E42+1)*$H42,0)+$E42-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="32">
-      <formula>AND(NOT(ISBLANK($E42)),$E42&lt;=K$6,$F42&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="dataBar" priority="29">
+    <cfRule type="dataBar" priority="39">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11885,20 +11466,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42:BN42">
-    <cfRule type="expression" dxfId="24" priority="30">
+    <cfRule type="expression" dxfId="13" priority="40">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K43:BN43">
-    <cfRule type="expression" dxfId="23" priority="27">
-      <formula>AND($E43&lt;=K$6,ROUNDDOWN(($F43-$E43+1)*$H43,0)+$E43-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="28">
-      <formula>AND(NOT(ISBLANK($E43)),$E43&lt;=K$6,$F43&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="dataBar" priority="25">
+    <cfRule type="dataBar" priority="35">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11912,20 +11485,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K43:BN43">
-    <cfRule type="expression" dxfId="21" priority="26">
+    <cfRule type="expression" dxfId="12" priority="36">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K44:BN44">
-    <cfRule type="expression" dxfId="20" priority="23">
-      <formula>AND($E44&lt;=K$6,ROUNDDOWN(($F44-$E44+1)*$H44,0)+$E44-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="24">
-      <formula>AND(NOT(ISBLANK($E44)),$E44&lt;=K$6,$F44&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="dataBar" priority="21">
+    <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11939,20 +11504,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K44:BN44">
-    <cfRule type="expression" dxfId="18" priority="22">
+    <cfRule type="expression" dxfId="11" priority="32">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K45:BN45">
-    <cfRule type="expression" dxfId="17" priority="19">
-      <formula>AND($E45&lt;=K$6,ROUNDDOWN(($F45-$E45+1)*$H45,0)+$E45-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="20">
-      <formula>AND(NOT(ISBLANK($E45)),$E45&lt;=K$6,$F45&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="dataBar" priority="17">
+    <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11966,20 +11523,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K45:BN45">
-    <cfRule type="expression" dxfId="15" priority="18">
+    <cfRule type="expression" dxfId="10" priority="28">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K46:BN46">
-    <cfRule type="expression" dxfId="14" priority="15">
-      <formula>AND($E46&lt;=K$6,ROUNDDOWN(($F46-$E46+1)*$H46,0)+$E46-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="16">
-      <formula>AND(NOT(ISBLANK($E46)),$E46&lt;=K$6,$F46&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11993,20 +11542,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K46:BN46">
-    <cfRule type="expression" dxfId="12" priority="14">
+    <cfRule type="expression" dxfId="9" priority="24">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K47:BN47">
-    <cfRule type="expression" dxfId="11" priority="11">
-      <formula>AND($E47&lt;=K$6,ROUNDDOWN(($F47-$E47+1)*$H47,0)+$E47-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
-      <formula>AND(NOT(ISBLANK($E47)),$E47&lt;=K$6,$F47&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -12020,20 +11561,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K47:BN47">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="8" priority="20">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48:BN48">
-    <cfRule type="expression" dxfId="8" priority="7">
-      <formula>AND($E48&lt;=K$6,ROUNDDOWN(($F48-$E48+1)*$H48,0)+$E48-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>AND(NOT(ISBLANK($E48)),$E48&lt;=K$6,$F48&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -12047,20 +11580,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K48:BN48">
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="7" priority="16">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K49:BN49">
-    <cfRule type="expression" dxfId="5" priority="3">
-      <formula>AND($E49&lt;=K$6,ROUNDDOWN(($F49-$E49+1)*$H49,0)+$E49-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
-      <formula>AND(NOT(ISBLANK($E49)),$E49&lt;=K$6,$F49&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -12074,7 +11599,91 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K49:BN49">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="6" priority="12">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6D1712A1-D810-4333-A009-34292AA312C6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11:BN14">
+    <cfRule type="expression" dxfId="5" priority="9">
+      <formula>AND($E11&lt;=K$6,ROUNDDOWN(($F11-$E11+1)*$H11,0)+$E11-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="10">
+      <formula>AND(NOT(ISBLANK($E11)),$E11&lt;=K$6,$F11&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11:BN11">
+    <cfRule type="expression" dxfId="3" priority="8">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CC0F90D1-DFA8-4D3C-8BEE-194F5D816635}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12:BN12">
+    <cfRule type="expression" dxfId="2" priority="6">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DCE39E9E-261E-4135-9FBF-8DCE32ECB0AD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13:BN13">
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{894CC091-464B-42AA-A8FE-7F6C5CAC0549}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14:BN14">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12088,8 +11697,8 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="B56:B57 A69:B69 B68 E20 E30 E53 E68:H69 G11 G20:H20 G30:H30 G53:H57 G70:G73 H21 H25:H26 H50:H51 H31 H41" unlockedFormula="1"/>
-    <ignoredError sqref="A53 A30 A20" formula="1"/>
+    <ignoredError sqref="B56:B57 A69:B69 B68 E24 E30 E53 E68:H69 G15 G24:H24 G30:H30 G53:H57 G70:G73 H25:H26 H50:H51 H31 H41" unlockedFormula="1"/>
+    <ignoredError sqref="A53 A30 A24" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
@@ -12137,7 +11746,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H8:H9 H68:H73 H11 H20:H21 H25:H26 H29:H31 H41 H50:H58</xm:sqref>
+          <xm:sqref>H8:H9 H68:H73 H15 H24:H26 H29:H31 H41 H50:H58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AF6031B5-17E7-4FA3-BF80-238C9E6DF4B9}">
@@ -12272,7 +11881,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H12</xm:sqref>
+          <xm:sqref>H16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5DE0BC55-F6B0-4203-B87B-6826E87122C2}">
@@ -12287,7 +11896,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H13</xm:sqref>
+          <xm:sqref>H17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{98F79111-AEF0-427F-B1FC-CC643D40592E}">
@@ -12302,7 +11911,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H14</xm:sqref>
+          <xm:sqref>H18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{755BBD32-D183-4327-A191-CCF8F5658D62}">
@@ -12317,7 +11926,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H15</xm:sqref>
+          <xm:sqref>H19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{94A0F54B-1D05-41D2-8A46-B28A09AD59EB}">
@@ -12332,7 +11941,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H16</xm:sqref>
+          <xm:sqref>H20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5257A0E3-7B2E-49FA-81B5-C8716E790453}">
@@ -12347,7 +11956,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H17</xm:sqref>
+          <xm:sqref>H21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D3325BDD-3AB7-48B1-BA3E-48D42DB94B28}">
@@ -12362,7 +11971,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H18</xm:sqref>
+          <xm:sqref>H22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{059F66FA-E2F5-429B-93A2-E48796DB2FDF}">
@@ -12377,52 +11986,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H19</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{638C4DF6-4BDF-4291-97CF-8C47FA43BBFD}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H22</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1C561438-4719-47D4-8ED9-3D710B148D36}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
           <xm:sqref>H23</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FF286B3C-4939-49EE-9E1D-AD8BC240B891}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{063A9F82-2F86-4B32-A209-F5B4C7385609}">
@@ -12739,6 +12303,66 @@
           </x14:cfRule>
           <xm:sqref>H49</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6D1712A1-D810-4333-A009-34292AA312C6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CC0F90D1-DFA8-4D3C-8BEE-194F5D816635}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DCE39E9E-261E-4135-9FBF-8DCE32ECB0AD}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{894CC091-464B-42AA-A8FE-7F6C5CAC0549}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H14</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BlackDragoon\Desktop\PROJECT\PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2357C3B4-53BE-48BB-A03B-5B27057F0843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188C5B2E-0A20-4028-826A-4B4DC2963CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2861,12 +2861,8 @@
     </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2877,10 +2873,6 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="167" fontId="45" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2890,11 +2882,19 @@
     <xf numFmtId="167" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -4846,7 +4846,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E101" sqref="E101"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4874,29 +4874,29 @@
       <c r="E1" s="43"/>
       <c r="F1" s="43"/>
       <c r="I1" s="101"/>
-      <c r="K1" s="132" t="s">
+      <c r="K1" s="139" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="132"/>
-      <c r="W1" s="132"/>
-      <c r="X1" s="132"/>
-      <c r="Y1" s="132"/>
-      <c r="Z1" s="132"/>
-      <c r="AA1" s="132"/>
-      <c r="AB1" s="132"/>
-      <c r="AC1" s="132"/>
-      <c r="AD1" s="132"/>
-      <c r="AE1" s="132"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139"/>
+      <c r="S1" s="139"/>
+      <c r="T1" s="139"/>
+      <c r="U1" s="139"/>
+      <c r="V1" s="139"/>
+      <c r="W1" s="139"/>
+      <c r="X1" s="139"/>
+      <c r="Y1" s="139"/>
+      <c r="Z1" s="139"/>
+      <c r="AA1" s="139"/>
+      <c r="AB1" s="139"/>
+      <c r="AC1" s="139"/>
+      <c r="AD1" s="139"/>
+      <c r="AE1" s="139"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
@@ -4941,11 +4941,11 @@
       <c r="B4" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="137">
+      <c r="C4" s="141">
         <v>44460</v>
       </c>
-      <c r="D4" s="137"/>
-      <c r="E4" s="137"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
       <c r="F4" s="82"/>
       <c r="G4" s="85" t="s">
         <v>69</v>
@@ -4955,182 +4955,182 @@
       </c>
       <c r="I4" s="83"/>
       <c r="J4" s="46"/>
-      <c r="K4" s="134" t="str">
+      <c r="K4" s="133" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="135"/>
-      <c r="M4" s="135"/>
-      <c r="N4" s="135"/>
-      <c r="O4" s="135"/>
-      <c r="P4" s="135"/>
-      <c r="Q4" s="136"/>
-      <c r="R4" s="134" t="str">
+      <c r="L4" s="134"/>
+      <c r="M4" s="134"/>
+      <c r="N4" s="134"/>
+      <c r="O4" s="134"/>
+      <c r="P4" s="134"/>
+      <c r="Q4" s="135"/>
+      <c r="R4" s="133" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="135"/>
-      <c r="T4" s="135"/>
-      <c r="U4" s="135"/>
-      <c r="V4" s="135"/>
-      <c r="W4" s="135"/>
-      <c r="X4" s="136"/>
-      <c r="Y4" s="134" t="str">
+      <c r="S4" s="134"/>
+      <c r="T4" s="134"/>
+      <c r="U4" s="134"/>
+      <c r="V4" s="134"/>
+      <c r="W4" s="134"/>
+      <c r="X4" s="135"/>
+      <c r="Y4" s="133" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="135"/>
-      <c r="AA4" s="135"/>
-      <c r="AB4" s="135"/>
-      <c r="AC4" s="135"/>
-      <c r="AD4" s="135"/>
-      <c r="AE4" s="136"/>
-      <c r="AF4" s="134" t="str">
+      <c r="Z4" s="134"/>
+      <c r="AA4" s="134"/>
+      <c r="AB4" s="134"/>
+      <c r="AC4" s="134"/>
+      <c r="AD4" s="134"/>
+      <c r="AE4" s="135"/>
+      <c r="AF4" s="133" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="135"/>
-      <c r="AH4" s="135"/>
-      <c r="AI4" s="135"/>
-      <c r="AJ4" s="135"/>
-      <c r="AK4" s="135"/>
-      <c r="AL4" s="136"/>
-      <c r="AM4" s="134" t="str">
+      <c r="AG4" s="134"/>
+      <c r="AH4" s="134"/>
+      <c r="AI4" s="134"/>
+      <c r="AJ4" s="134"/>
+      <c r="AK4" s="134"/>
+      <c r="AL4" s="135"/>
+      <c r="AM4" s="133" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="135"/>
-      <c r="AO4" s="135"/>
-      <c r="AP4" s="135"/>
-      <c r="AQ4" s="135"/>
-      <c r="AR4" s="135"/>
-      <c r="AS4" s="136"/>
-      <c r="AT4" s="134" t="str">
+      <c r="AN4" s="134"/>
+      <c r="AO4" s="134"/>
+      <c r="AP4" s="134"/>
+      <c r="AQ4" s="134"/>
+      <c r="AR4" s="134"/>
+      <c r="AS4" s="135"/>
+      <c r="AT4" s="133" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="135"/>
-      <c r="AV4" s="135"/>
-      <c r="AW4" s="135"/>
-      <c r="AX4" s="135"/>
-      <c r="AY4" s="135"/>
-      <c r="AZ4" s="136"/>
-      <c r="BA4" s="134" t="str">
+      <c r="AU4" s="134"/>
+      <c r="AV4" s="134"/>
+      <c r="AW4" s="134"/>
+      <c r="AX4" s="134"/>
+      <c r="AY4" s="134"/>
+      <c r="AZ4" s="135"/>
+      <c r="BA4" s="133" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="135"/>
-      <c r="BC4" s="135"/>
-      <c r="BD4" s="135"/>
-      <c r="BE4" s="135"/>
-      <c r="BF4" s="135"/>
-      <c r="BG4" s="136"/>
-      <c r="BH4" s="134" t="str">
+      <c r="BB4" s="134"/>
+      <c r="BC4" s="134"/>
+      <c r="BD4" s="134"/>
+      <c r="BE4" s="134"/>
+      <c r="BF4" s="134"/>
+      <c r="BG4" s="135"/>
+      <c r="BH4" s="133" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="135"/>
-      <c r="BJ4" s="135"/>
-      <c r="BK4" s="135"/>
-      <c r="BL4" s="135"/>
-      <c r="BM4" s="135"/>
-      <c r="BN4" s="136"/>
+      <c r="BI4" s="134"/>
+      <c r="BJ4" s="134"/>
+      <c r="BK4" s="134"/>
+      <c r="BL4" s="134"/>
+      <c r="BM4" s="134"/>
+      <c r="BN4" s="135"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="81"/>
       <c r="B5" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="133" t="s">
+      <c r="C5" s="140" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="133"/>
-      <c r="E5" s="133"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
       <c r="F5" s="84"/>
       <c r="G5" s="84"/>
       <c r="H5" s="84"/>
       <c r="I5" s="84"/>
       <c r="J5" s="46"/>
-      <c r="K5" s="138">
+      <c r="K5" s="136">
         <f>K6</f>
         <v>44459</v>
       </c>
-      <c r="L5" s="139"/>
-      <c r="M5" s="139"/>
-      <c r="N5" s="139"/>
-      <c r="O5" s="139"/>
-      <c r="P5" s="139"/>
-      <c r="Q5" s="140"/>
-      <c r="R5" s="138">
+      <c r="L5" s="137"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="137"/>
+      <c r="O5" s="137"/>
+      <c r="P5" s="137"/>
+      <c r="Q5" s="138"/>
+      <c r="R5" s="136">
         <f>R6</f>
         <v>44466</v>
       </c>
-      <c r="S5" s="139"/>
-      <c r="T5" s="139"/>
-      <c r="U5" s="139"/>
-      <c r="V5" s="139"/>
-      <c r="W5" s="139"/>
-      <c r="X5" s="140"/>
-      <c r="Y5" s="138">
+      <c r="S5" s="137"/>
+      <c r="T5" s="137"/>
+      <c r="U5" s="137"/>
+      <c r="V5" s="137"/>
+      <c r="W5" s="137"/>
+      <c r="X5" s="138"/>
+      <c r="Y5" s="136">
         <f>Y6</f>
         <v>44473</v>
       </c>
-      <c r="Z5" s="139"/>
-      <c r="AA5" s="139"/>
-      <c r="AB5" s="139"/>
-      <c r="AC5" s="139"/>
-      <c r="AD5" s="139"/>
-      <c r="AE5" s="140"/>
-      <c r="AF5" s="138">
+      <c r="Z5" s="137"/>
+      <c r="AA5" s="137"/>
+      <c r="AB5" s="137"/>
+      <c r="AC5" s="137"/>
+      <c r="AD5" s="137"/>
+      <c r="AE5" s="138"/>
+      <c r="AF5" s="136">
         <f>AF6</f>
         <v>44480</v>
       </c>
-      <c r="AG5" s="139"/>
-      <c r="AH5" s="139"/>
-      <c r="AI5" s="139"/>
-      <c r="AJ5" s="139"/>
-      <c r="AK5" s="139"/>
-      <c r="AL5" s="140"/>
-      <c r="AM5" s="138">
+      <c r="AG5" s="137"/>
+      <c r="AH5" s="137"/>
+      <c r="AI5" s="137"/>
+      <c r="AJ5" s="137"/>
+      <c r="AK5" s="137"/>
+      <c r="AL5" s="138"/>
+      <c r="AM5" s="136">
         <f>AM6</f>
         <v>44487</v>
       </c>
-      <c r="AN5" s="139"/>
-      <c r="AO5" s="139"/>
-      <c r="AP5" s="139"/>
-      <c r="AQ5" s="139"/>
-      <c r="AR5" s="139"/>
-      <c r="AS5" s="140"/>
-      <c r="AT5" s="138">
+      <c r="AN5" s="137"/>
+      <c r="AO5" s="137"/>
+      <c r="AP5" s="137"/>
+      <c r="AQ5" s="137"/>
+      <c r="AR5" s="137"/>
+      <c r="AS5" s="138"/>
+      <c r="AT5" s="136">
         <f>AT6</f>
         <v>44494</v>
       </c>
-      <c r="AU5" s="139"/>
-      <c r="AV5" s="139"/>
-      <c r="AW5" s="139"/>
-      <c r="AX5" s="139"/>
-      <c r="AY5" s="139"/>
-      <c r="AZ5" s="140"/>
-      <c r="BA5" s="138">
+      <c r="AU5" s="137"/>
+      <c r="AV5" s="137"/>
+      <c r="AW5" s="137"/>
+      <c r="AX5" s="137"/>
+      <c r="AY5" s="137"/>
+      <c r="AZ5" s="138"/>
+      <c r="BA5" s="136">
         <f>BA6</f>
         <v>44501</v>
       </c>
-      <c r="BB5" s="139"/>
-      <c r="BC5" s="139"/>
-      <c r="BD5" s="139"/>
-      <c r="BE5" s="139"/>
-      <c r="BF5" s="139"/>
-      <c r="BG5" s="140"/>
-      <c r="BH5" s="138">
+      <c r="BB5" s="137"/>
+      <c r="BC5" s="137"/>
+      <c r="BD5" s="137"/>
+      <c r="BE5" s="137"/>
+      <c r="BF5" s="137"/>
+      <c r="BG5" s="138"/>
+      <c r="BH5" s="136">
         <f>BH6</f>
         <v>44508</v>
       </c>
-      <c r="BI5" s="139"/>
-      <c r="BJ5" s="139"/>
-      <c r="BK5" s="139"/>
-      <c r="BL5" s="139"/>
-      <c r="BM5" s="139"/>
-      <c r="BN5" s="140"/>
+      <c r="BI5" s="137"/>
+      <c r="BJ5" s="137"/>
+      <c r="BK5" s="137"/>
+      <c r="BL5" s="137"/>
+      <c r="BM5" s="137"/>
+      <c r="BN5" s="138"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6" s="45"/>
@@ -7459,7 +7459,7 @@
         <v>2</v>
       </c>
       <c r="H30" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="60">
         <v>0</v>
@@ -11335,7 +11335,7 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>4.2.2</v>
       </c>
-      <c r="B77" s="142" t="s">
+      <c r="B77" s="132" t="s">
         <v>175</v>
       </c>
       <c r="D77" s="98"/>
@@ -11501,7 +11501,7 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>4.2.4</v>
       </c>
-      <c r="B79" s="142" t="s">
+      <c r="B79" s="132" t="s">
         <v>175</v>
       </c>
       <c r="D79" s="98"/>
@@ -11667,7 +11667,7 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>4.2.6</v>
       </c>
-      <c r="B81" s="142" t="s">
+      <c r="B81" s="132" t="s">
         <v>175</v>
       </c>
       <c r="D81" s="98"/>
@@ -11833,7 +11833,7 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>4.2.8</v>
       </c>
-      <c r="B83" s="142" t="s">
+      <c r="B83" s="132" t="s">
         <v>175</v>
       </c>
       <c r="D83" s="98"/>
@@ -11999,7 +11999,7 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>4.2.10</v>
       </c>
-      <c r="B85" s="142" t="s">
+      <c r="B85" s="132" t="s">
         <v>175</v>
       </c>
       <c r="D85" s="98"/>
@@ -12165,7 +12165,7 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>4.2.12</v>
       </c>
-      <c r="B87" s="142" t="s">
+      <c r="B87" s="132" t="s">
         <v>175</v>
       </c>
       <c r="D87" s="98"/>
@@ -12332,7 +12332,7 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>4.2.14</v>
       </c>
-      <c r="B89" s="142" t="s">
+      <c r="B89" s="132" t="s">
         <v>175</v>
       </c>
       <c r="D89" s="98"/>
@@ -12499,7 +12499,7 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>4.2.16</v>
       </c>
-      <c r="B91" s="142" t="s">
+      <c r="B91" s="132" t="s">
         <v>175</v>
       </c>
       <c r="D91" s="98"/>
@@ -13486,6 +13486,15 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -13496,15 +13505,6 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H8:H9 H15 H41 H50 H29:H32 H60 H63 H73:H75">
@@ -15135,7 +15135,7 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="E29 E31 E73 G29:H29 G31:H31 H30 H60 H32 H41 H50 G73:H73 H75 H74" unlockedFormula="1"/>
+    <ignoredError sqref="E29 E31 E73 G29:H29 G31:H31 H60 H32 H41 H50 G73:H73 H75 H74" unlockedFormula="1"/>
     <ignoredError sqref="A73 A31 A29" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
@@ -16622,10 +16622,10 @@
     </row>
     <row r="12" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="141" t="s">
+      <c r="A13" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="141"/>
+      <c r="B13" s="142"/>
     </row>
     <row r="14" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:3" s="103" customFormat="1" ht="18" x14ac:dyDescent="0.2">
@@ -16687,10 +16687,10 @@
       <c r="B23" s="10"/>
     </row>
     <row r="24" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A24" s="141" t="s">
+      <c r="A24" s="142" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="141"/>
+      <c r="B24" s="142"/>
     </row>
     <row r="25" spans="1:3" s="8" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A25" s="113"/>
@@ -16763,10 +16763,10 @@
       <c r="B37" s="10"/>
     </row>
     <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A38" s="141" t="s">
+      <c r="A38" s="142" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="141"/>
+      <c r="B38" s="142"/>
     </row>
     <row r="39" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B39" s="110" t="s">
@@ -16803,10 +16803,10 @@
       <c r="B48" s="11"/>
     </row>
     <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A49" s="141" t="s">
+      <c r="A49" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="141"/>
+      <c r="B49" s="142"/>
     </row>
     <row r="50" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B50" s="110" t="s">
@@ -16904,10 +16904,10 @@
       <c r="B64" s="12"/>
     </row>
     <row r="65" spans="1:2" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A65" s="141" t="s">
+      <c r="A65" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="141"/>
+      <c r="B65" s="142"/>
     </row>
     <row r="66" spans="1:2" s="20" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B66" s="110" t="s">
@@ -16918,10 +16918,10 @@
       <c r="B67" s="13"/>
     </row>
     <row r="68" spans="1:2" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A68" s="141" t="s">
+      <c r="A68" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="B68" s="141"/>
+      <c r="B68" s="142"/>
     </row>
     <row r="69" spans="1:2" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="125" t="s">

--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BlackDragoon\Desktop\PROJECT\PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188C5B2E-0A20-4028-826A-4B4DC2963CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9130CA96-A26B-4DF0-B90D-7D19D898C77F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$93</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$102</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">GanttChartPro!$A$1:$C$47</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
@@ -453,7 +453,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="181">
   <si>
     <t>WBS</t>
   </si>
@@ -1651,6 +1651,9 @@
   </si>
   <si>
     <t>Main Menu</t>
+  </si>
+  <si>
+    <t>Analysis Use Case Narratives</t>
   </si>
 </sst>
 </file>
@@ -2864,6 +2867,13 @@
     <xf numFmtId="0" fontId="67" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2873,6 +2883,10 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="167" fontId="45" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2881,17 +2895,6 @@
     </xf>
     <xf numFmtId="167" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2943,7 +2946,143 @@
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="108">
+  <dxfs count="121">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -4842,11 +4981,11 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN102"/>
+  <dimension ref="A1:BN111"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <pane ySplit="7" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4874,29 +5013,29 @@
       <c r="E1" s="43"/>
       <c r="F1" s="43"/>
       <c r="I1" s="101"/>
-      <c r="K1" s="139" t="s">
+      <c r="K1" s="133" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="139"/>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="139"/>
-      <c r="S1" s="139"/>
-      <c r="T1" s="139"/>
-      <c r="U1" s="139"/>
-      <c r="V1" s="139"/>
-      <c r="W1" s="139"/>
-      <c r="X1" s="139"/>
-      <c r="Y1" s="139"/>
-      <c r="Z1" s="139"/>
-      <c r="AA1" s="139"/>
-      <c r="AB1" s="139"/>
-      <c r="AC1" s="139"/>
-      <c r="AD1" s="139"/>
-      <c r="AE1" s="139"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="133"/>
+      <c r="S1" s="133"/>
+      <c r="T1" s="133"/>
+      <c r="U1" s="133"/>
+      <c r="V1" s="133"/>
+      <c r="W1" s="133"/>
+      <c r="X1" s="133"/>
+      <c r="Y1" s="133"/>
+      <c r="Z1" s="133"/>
+      <c r="AA1" s="133"/>
+      <c r="AB1" s="133"/>
+      <c r="AC1" s="133"/>
+      <c r="AD1" s="133"/>
+      <c r="AE1" s="133"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
@@ -4941,11 +5080,11 @@
       <c r="B4" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="141">
+      <c r="C4" s="138">
         <v>44460</v>
       </c>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
       <c r="F4" s="82"/>
       <c r="G4" s="85" t="s">
         <v>69</v>
@@ -4955,182 +5094,182 @@
       </c>
       <c r="I4" s="83"/>
       <c r="J4" s="46"/>
-      <c r="K4" s="133" t="str">
+      <c r="K4" s="135" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="134"/>
-      <c r="M4" s="134"/>
-      <c r="N4" s="134"/>
-      <c r="O4" s="134"/>
-      <c r="P4" s="134"/>
-      <c r="Q4" s="135"/>
-      <c r="R4" s="133" t="str">
+      <c r="L4" s="136"/>
+      <c r="M4" s="136"/>
+      <c r="N4" s="136"/>
+      <c r="O4" s="136"/>
+      <c r="P4" s="136"/>
+      <c r="Q4" s="137"/>
+      <c r="R4" s="135" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="134"/>
-      <c r="T4" s="134"/>
-      <c r="U4" s="134"/>
-      <c r="V4" s="134"/>
-      <c r="W4" s="134"/>
-      <c r="X4" s="135"/>
-      <c r="Y4" s="133" t="str">
+      <c r="S4" s="136"/>
+      <c r="T4" s="136"/>
+      <c r="U4" s="136"/>
+      <c r="V4" s="136"/>
+      <c r="W4" s="136"/>
+      <c r="X4" s="137"/>
+      <c r="Y4" s="135" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="134"/>
-      <c r="AA4" s="134"/>
-      <c r="AB4" s="134"/>
-      <c r="AC4" s="134"/>
-      <c r="AD4" s="134"/>
-      <c r="AE4" s="135"/>
-      <c r="AF4" s="133" t="str">
+      <c r="Z4" s="136"/>
+      <c r="AA4" s="136"/>
+      <c r="AB4" s="136"/>
+      <c r="AC4" s="136"/>
+      <c r="AD4" s="136"/>
+      <c r="AE4" s="137"/>
+      <c r="AF4" s="135" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="134"/>
-      <c r="AH4" s="134"/>
-      <c r="AI4" s="134"/>
-      <c r="AJ4" s="134"/>
-      <c r="AK4" s="134"/>
-      <c r="AL4" s="135"/>
-      <c r="AM4" s="133" t="str">
+      <c r="AG4" s="136"/>
+      <c r="AH4" s="136"/>
+      <c r="AI4" s="136"/>
+      <c r="AJ4" s="136"/>
+      <c r="AK4" s="136"/>
+      <c r="AL4" s="137"/>
+      <c r="AM4" s="135" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="134"/>
-      <c r="AO4" s="134"/>
-      <c r="AP4" s="134"/>
-      <c r="AQ4" s="134"/>
-      <c r="AR4" s="134"/>
-      <c r="AS4" s="135"/>
-      <c r="AT4" s="133" t="str">
+      <c r="AN4" s="136"/>
+      <c r="AO4" s="136"/>
+      <c r="AP4" s="136"/>
+      <c r="AQ4" s="136"/>
+      <c r="AR4" s="136"/>
+      <c r="AS4" s="137"/>
+      <c r="AT4" s="135" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="134"/>
-      <c r="AV4" s="134"/>
-      <c r="AW4" s="134"/>
-      <c r="AX4" s="134"/>
-      <c r="AY4" s="134"/>
-      <c r="AZ4" s="135"/>
-      <c r="BA4" s="133" t="str">
+      <c r="AU4" s="136"/>
+      <c r="AV4" s="136"/>
+      <c r="AW4" s="136"/>
+      <c r="AX4" s="136"/>
+      <c r="AY4" s="136"/>
+      <c r="AZ4" s="137"/>
+      <c r="BA4" s="135" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="134"/>
-      <c r="BC4" s="134"/>
-      <c r="BD4" s="134"/>
-      <c r="BE4" s="134"/>
-      <c r="BF4" s="134"/>
-      <c r="BG4" s="135"/>
-      <c r="BH4" s="133" t="str">
+      <c r="BB4" s="136"/>
+      <c r="BC4" s="136"/>
+      <c r="BD4" s="136"/>
+      <c r="BE4" s="136"/>
+      <c r="BF4" s="136"/>
+      <c r="BG4" s="137"/>
+      <c r="BH4" s="135" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="134"/>
-      <c r="BJ4" s="134"/>
-      <c r="BK4" s="134"/>
-      <c r="BL4" s="134"/>
-      <c r="BM4" s="134"/>
-      <c r="BN4" s="135"/>
+      <c r="BI4" s="136"/>
+      <c r="BJ4" s="136"/>
+      <c r="BK4" s="136"/>
+      <c r="BL4" s="136"/>
+      <c r="BM4" s="136"/>
+      <c r="BN4" s="137"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="81"/>
       <c r="B5" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="140" t="s">
+      <c r="C5" s="134" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
       <c r="F5" s="84"/>
       <c r="G5" s="84"/>
       <c r="H5" s="84"/>
       <c r="I5" s="84"/>
       <c r="J5" s="46"/>
-      <c r="K5" s="136">
+      <c r="K5" s="139">
         <f>K6</f>
         <v>44459</v>
       </c>
-      <c r="L5" s="137"/>
-      <c r="M5" s="137"/>
-      <c r="N5" s="137"/>
-      <c r="O5" s="137"/>
-      <c r="P5" s="137"/>
-      <c r="Q5" s="138"/>
-      <c r="R5" s="136">
+      <c r="L5" s="140"/>
+      <c r="M5" s="140"/>
+      <c r="N5" s="140"/>
+      <c r="O5" s="140"/>
+      <c r="P5" s="140"/>
+      <c r="Q5" s="141"/>
+      <c r="R5" s="139">
         <f>R6</f>
         <v>44466</v>
       </c>
-      <c r="S5" s="137"/>
-      <c r="T5" s="137"/>
-      <c r="U5" s="137"/>
-      <c r="V5" s="137"/>
-      <c r="W5" s="137"/>
-      <c r="X5" s="138"/>
-      <c r="Y5" s="136">
+      <c r="S5" s="140"/>
+      <c r="T5" s="140"/>
+      <c r="U5" s="140"/>
+      <c r="V5" s="140"/>
+      <c r="W5" s="140"/>
+      <c r="X5" s="141"/>
+      <c r="Y5" s="139">
         <f>Y6</f>
         <v>44473</v>
       </c>
-      <c r="Z5" s="137"/>
-      <c r="AA5" s="137"/>
-      <c r="AB5" s="137"/>
-      <c r="AC5" s="137"/>
-      <c r="AD5" s="137"/>
-      <c r="AE5" s="138"/>
-      <c r="AF5" s="136">
+      <c r="Z5" s="140"/>
+      <c r="AA5" s="140"/>
+      <c r="AB5" s="140"/>
+      <c r="AC5" s="140"/>
+      <c r="AD5" s="140"/>
+      <c r="AE5" s="141"/>
+      <c r="AF5" s="139">
         <f>AF6</f>
         <v>44480</v>
       </c>
-      <c r="AG5" s="137"/>
-      <c r="AH5" s="137"/>
-      <c r="AI5" s="137"/>
-      <c r="AJ5" s="137"/>
-      <c r="AK5" s="137"/>
-      <c r="AL5" s="138"/>
-      <c r="AM5" s="136">
+      <c r="AG5" s="140"/>
+      <c r="AH5" s="140"/>
+      <c r="AI5" s="140"/>
+      <c r="AJ5" s="140"/>
+      <c r="AK5" s="140"/>
+      <c r="AL5" s="141"/>
+      <c r="AM5" s="139">
         <f>AM6</f>
         <v>44487</v>
       </c>
-      <c r="AN5" s="137"/>
-      <c r="AO5" s="137"/>
-      <c r="AP5" s="137"/>
-      <c r="AQ5" s="137"/>
-      <c r="AR5" s="137"/>
-      <c r="AS5" s="138"/>
-      <c r="AT5" s="136">
+      <c r="AN5" s="140"/>
+      <c r="AO5" s="140"/>
+      <c r="AP5" s="140"/>
+      <c r="AQ5" s="140"/>
+      <c r="AR5" s="140"/>
+      <c r="AS5" s="141"/>
+      <c r="AT5" s="139">
         <f>AT6</f>
         <v>44494</v>
       </c>
-      <c r="AU5" s="137"/>
-      <c r="AV5" s="137"/>
-      <c r="AW5" s="137"/>
-      <c r="AX5" s="137"/>
-      <c r="AY5" s="137"/>
-      <c r="AZ5" s="138"/>
-      <c r="BA5" s="136">
+      <c r="AU5" s="140"/>
+      <c r="AV5" s="140"/>
+      <c r="AW5" s="140"/>
+      <c r="AX5" s="140"/>
+      <c r="AY5" s="140"/>
+      <c r="AZ5" s="141"/>
+      <c r="BA5" s="139">
         <f>BA6</f>
         <v>44501</v>
       </c>
-      <c r="BB5" s="137"/>
-      <c r="BC5" s="137"/>
-      <c r="BD5" s="137"/>
-      <c r="BE5" s="137"/>
-      <c r="BF5" s="137"/>
-      <c r="BG5" s="138"/>
-      <c r="BH5" s="136">
+      <c r="BB5" s="140"/>
+      <c r="BC5" s="140"/>
+      <c r="BD5" s="140"/>
+      <c r="BE5" s="140"/>
+      <c r="BF5" s="140"/>
+      <c r="BG5" s="141"/>
+      <c r="BH5" s="139">
         <f>BH6</f>
         <v>44508</v>
       </c>
-      <c r="BI5" s="137"/>
-      <c r="BJ5" s="137"/>
-      <c r="BK5" s="137"/>
-      <c r="BL5" s="137"/>
-      <c r="BM5" s="137"/>
-      <c r="BN5" s="138"/>
+      <c r="BI5" s="140"/>
+      <c r="BJ5" s="140"/>
+      <c r="BK5" s="140"/>
+      <c r="BL5" s="140"/>
+      <c r="BM5" s="140"/>
+      <c r="BN5" s="141"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6" s="45"/>
@@ -5640,7 +5779,7 @@
       <c r="G8" s="67"/>
       <c r="H8" s="68"/>
       <c r="I8" s="69" t="str">
-        <f t="shared" ref="I8:I73" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
+        <f t="shared" ref="I8:I82" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J8" s="72"/>
@@ -6212,7 +6351,7 @@
         <v>44466</v>
       </c>
       <c r="F15" s="76">
-        <f t="shared" ref="F15:F76" si="7">IF(ISBLANK(E15)," - ",IF(G15=0,E15,E15+G15-1))</f>
+        <f t="shared" ref="F15:F85" si="7">IF(ISBLANK(E15)," - ",IF(G15=0,E15,E15+G15-1))</f>
         <v>44469</v>
       </c>
       <c r="G15" s="58">
@@ -7049,7 +7188,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="60">
         <v>0</v>
@@ -7132,7 +7271,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="60">
         <v>0</v>
@@ -7215,7 +7354,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="60">
         <v>0</v>
@@ -7298,7 +7437,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="60">
         <v>0</v>
@@ -7522,102 +7661,107 @@
       <c r="BM30" s="79"/>
       <c r="BN30" s="79"/>
     </row>
-    <row r="31" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="49" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>3</v>
-      </c>
-      <c r="B31" s="50" t="s">
-        <v>157</v>
-      </c>
-      <c r="D31" s="52"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G31" s="53"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="55" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J31" s="74"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="80"/>
-      <c r="M31" s="80"/>
-      <c r="N31" s="80"/>
-      <c r="O31" s="80"/>
-      <c r="P31" s="80"/>
-      <c r="Q31" s="80"/>
-      <c r="R31" s="80"/>
-      <c r="S31" s="80"/>
-      <c r="T31" s="80"/>
-      <c r="U31" s="80"/>
-      <c r="V31" s="80"/>
-      <c r="W31" s="80"/>
-      <c r="X31" s="80"/>
-      <c r="Y31" s="80"/>
-      <c r="Z31" s="80"/>
-      <c r="AA31" s="80"/>
-      <c r="AB31" s="80"/>
-      <c r="AC31" s="80"/>
-      <c r="AD31" s="80"/>
-      <c r="AE31" s="80"/>
-      <c r="AF31" s="80"/>
-      <c r="AG31" s="80"/>
-      <c r="AH31" s="80"/>
-      <c r="AI31" s="80"/>
-      <c r="AJ31" s="80"/>
-      <c r="AK31" s="80"/>
-      <c r="AL31" s="80"/>
-      <c r="AM31" s="80"/>
-      <c r="AN31" s="80"/>
-      <c r="AO31" s="80"/>
-      <c r="AP31" s="80"/>
-      <c r="AQ31" s="80"/>
-      <c r="AR31" s="80"/>
-      <c r="AS31" s="80"/>
-      <c r="AT31" s="80"/>
-      <c r="AU31" s="80"/>
-      <c r="AV31" s="80"/>
-      <c r="AW31" s="80"/>
-      <c r="AX31" s="80"/>
-      <c r="AY31" s="80"/>
-      <c r="AZ31" s="80"/>
-      <c r="BA31" s="80"/>
-      <c r="BB31" s="80"/>
-      <c r="BC31" s="80"/>
-      <c r="BD31" s="80"/>
-      <c r="BE31" s="80"/>
-      <c r="BF31" s="80"/>
-      <c r="BG31" s="80"/>
-      <c r="BH31" s="80"/>
-      <c r="BI31" s="80"/>
-      <c r="BJ31" s="80"/>
-      <c r="BK31" s="80"/>
-      <c r="BL31" s="80"/>
-      <c r="BM31" s="80"/>
-      <c r="BN31" s="80"/>
-    </row>
-    <row r="32" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A31" s="56" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>2.2</v>
+      </c>
+      <c r="B31" s="97" t="s">
+        <v>180</v>
+      </c>
+      <c r="D31" s="98"/>
+      <c r="E31" s="75">
+        <v>44466</v>
+      </c>
+      <c r="F31" s="76">
+        <f t="shared" ref="F31:F39" si="18">IF(ISBLANK(E31)," - ",IF(G31=0,E31,E31+G31-1))</f>
+        <v>44469</v>
+      </c>
+      <c r="G31" s="58">
+        <v>4</v>
+      </c>
+      <c r="H31" s="59">
+        <v>0</v>
+      </c>
+      <c r="I31" s="60">
+        <v>0</v>
+      </c>
+      <c r="J31" s="73"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="79"/>
+      <c r="N31" s="79"/>
+      <c r="O31" s="79"/>
+      <c r="P31" s="79"/>
+      <c r="Q31" s="79"/>
+      <c r="R31" s="79"/>
+      <c r="S31" s="79"/>
+      <c r="T31" s="79"/>
+      <c r="U31" s="79"/>
+      <c r="V31" s="79"/>
+      <c r="W31" s="79"/>
+      <c r="X31" s="79"/>
+      <c r="Y31" s="79"/>
+      <c r="Z31" s="79"/>
+      <c r="AA31" s="79"/>
+      <c r="AB31" s="79"/>
+      <c r="AC31" s="79"/>
+      <c r="AD31" s="79"/>
+      <c r="AE31" s="79"/>
+      <c r="AF31" s="79"/>
+      <c r="AG31" s="79"/>
+      <c r="AH31" s="79"/>
+      <c r="AI31" s="79"/>
+      <c r="AJ31" s="79"/>
+      <c r="AK31" s="79"/>
+      <c r="AL31" s="79"/>
+      <c r="AM31" s="79"/>
+      <c r="AN31" s="79"/>
+      <c r="AO31" s="79"/>
+      <c r="AP31" s="79"/>
+      <c r="AQ31" s="79"/>
+      <c r="AR31" s="79"/>
+      <c r="AS31" s="79"/>
+      <c r="AT31" s="79"/>
+      <c r="AU31" s="79"/>
+      <c r="AV31" s="79"/>
+      <c r="AW31" s="79"/>
+      <c r="AX31" s="79"/>
+      <c r="AY31" s="79"/>
+      <c r="AZ31" s="79"/>
+      <c r="BA31" s="79"/>
+      <c r="BB31" s="79"/>
+      <c r="BC31" s="79"/>
+      <c r="BD31" s="79"/>
+      <c r="BE31" s="79"/>
+      <c r="BF31" s="79"/>
+      <c r="BG31" s="79"/>
+      <c r="BH31" s="79"/>
+      <c r="BI31" s="79"/>
+      <c r="BJ31" s="79"/>
+      <c r="BK31" s="79"/>
+      <c r="BL31" s="79"/>
+      <c r="BM31" s="79"/>
+      <c r="BN31" s="79"/>
+    </row>
+    <row r="32" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.1</v>
-      </c>
-      <c r="B32" s="97" t="s">
-        <v>148</v>
+        <f t="shared" ref="A32:A39" si="19">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>2.2.1</v>
+      </c>
+      <c r="B32" s="99" t="s">
+        <v>135</v>
       </c>
       <c r="D32" s="98"/>
       <c r="E32" s="75">
-        <v>44470</v>
+        <v>44466</v>
       </c>
       <c r="F32" s="76">
-        <f t="shared" si="7"/>
-        <v>44473</v>
+        <f t="shared" si="18"/>
+        <v>44466</v>
       </c>
       <c r="G32" s="58">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H32" s="59">
         <v>0</v>
@@ -7685,19 +7829,19 @@
     </row>
     <row r="33" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="56" t="str">
-        <f t="shared" ref="A33:A40" si="18">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.1.1</v>
+        <f t="shared" si="19"/>
+        <v>2.2.2</v>
       </c>
       <c r="B33" s="99" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D33" s="98"/>
       <c r="E33" s="75">
-        <v>44470</v>
+        <v>44466</v>
       </c>
       <c r="F33" s="76">
-        <f t="shared" si="7"/>
-        <v>44470</v>
+        <f t="shared" si="18"/>
+        <v>44466</v>
       </c>
       <c r="G33" s="58">
         <v>1</v>
@@ -7768,19 +7912,19 @@
     </row>
     <row r="34" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="56" t="str">
-        <f t="shared" si="18"/>
-        <v>3.1.2</v>
+        <f t="shared" si="19"/>
+        <v>2.2.3</v>
       </c>
       <c r="B34" s="99" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D34" s="98"/>
       <c r="E34" s="75">
-        <v>44470</v>
+        <v>44467</v>
       </c>
       <c r="F34" s="76">
-        <f t="shared" ref="F34:F35" si="19">IF(ISBLANK(E34)," - ",IF(G34=0,E34,E34+G34-1))</f>
-        <v>44470</v>
+        <f t="shared" si="18"/>
+        <v>44467</v>
       </c>
       <c r="G34" s="58">
         <v>1</v>
@@ -7851,19 +7995,19 @@
     </row>
     <row r="35" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="56" t="str">
-        <f t="shared" si="18"/>
-        <v>3.1.3</v>
+        <f t="shared" si="19"/>
+        <v>2.2.4</v>
       </c>
       <c r="B35" s="99" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D35" s="98"/>
       <c r="E35" s="75">
-        <v>44471</v>
+        <v>44467</v>
       </c>
       <c r="F35" s="76">
-        <f t="shared" si="19"/>
-        <v>44471</v>
+        <f t="shared" si="18"/>
+        <v>44467</v>
       </c>
       <c r="G35" s="58">
         <v>1</v>
@@ -7934,19 +8078,19 @@
     </row>
     <row r="36" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="56" t="str">
-        <f t="shared" si="18"/>
-        <v>3.1.4</v>
+        <f t="shared" si="19"/>
+        <v>2.2.5</v>
       </c>
       <c r="B36" s="99" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D36" s="98"/>
       <c r="E36" s="75">
-        <v>44471</v>
+        <v>44468</v>
       </c>
       <c r="F36" s="76">
-        <f t="shared" ref="F36" si="20">IF(ISBLANK(E36)," - ",IF(G36=0,E36,E36+G36-1))</f>
-        <v>44471</v>
+        <f t="shared" si="18"/>
+        <v>44468</v>
       </c>
       <c r="G36" s="58">
         <v>1</v>
@@ -8017,19 +8161,19 @@
     </row>
     <row r="37" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="56" t="str">
-        <f t="shared" si="18"/>
-        <v>3.1.5</v>
+        <f t="shared" si="19"/>
+        <v>2.2.6</v>
       </c>
       <c r="B37" s="99" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D37" s="98"/>
       <c r="E37" s="75">
-        <v>44472</v>
+        <v>44468</v>
       </c>
       <c r="F37" s="76">
-        <f t="shared" ref="F37" si="21">IF(ISBLANK(E37)," - ",IF(G37=0,E37,E37+G37-1))</f>
-        <v>44472</v>
+        <f t="shared" si="18"/>
+        <v>44468</v>
       </c>
       <c r="G37" s="58">
         <v>1</v>
@@ -8098,21 +8242,21 @@
       <c r="BM37" s="79"/>
       <c r="BN37" s="79"/>
     </row>
-    <row r="38" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A38" s="56" t="str">
-        <f t="shared" si="18"/>
-        <v>3.1.6</v>
+        <f t="shared" si="19"/>
+        <v>2.2.7</v>
       </c>
       <c r="B38" s="99" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="D38" s="98"/>
       <c r="E38" s="75">
-        <v>44472</v>
+        <v>44469</v>
       </c>
       <c r="F38" s="76">
-        <f t="shared" ref="F38" si="22">IF(ISBLANK(E38)," - ",IF(G38=0,E38,E38+G38-1))</f>
-        <v>44472</v>
+        <f t="shared" si="18"/>
+        <v>44469</v>
       </c>
       <c r="G38" s="58">
         <v>1</v>
@@ -8183,19 +8327,19 @@
     </row>
     <row r="39" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A39" s="56" t="str">
-        <f t="shared" si="18"/>
-        <v>3.1.7</v>
+        <f t="shared" si="19"/>
+        <v>2.2.8</v>
       </c>
       <c r="B39" s="99" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D39" s="98"/>
       <c r="E39" s="75">
-        <v>44473</v>
+        <v>44469</v>
       </c>
       <c r="F39" s="76">
-        <f t="shared" ref="F39" si="23">IF(ISBLANK(E39)," - ",IF(G39=0,E39,E39+G39-1))</f>
-        <v>44473</v>
+        <f t="shared" si="18"/>
+        <v>44469</v>
       </c>
       <c r="G39" s="58">
         <v>1</v>
@@ -8264,104 +8408,99 @@
       <c r="BM39" s="79"/>
       <c r="BN39" s="79"/>
     </row>
-    <row r="40" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A40" s="56" t="str">
-        <f t="shared" si="18"/>
-        <v>3.1.8</v>
-      </c>
-      <c r="B40" s="99" t="s">
-        <v>167</v>
-      </c>
-      <c r="D40" s="98"/>
-      <c r="E40" s="75">
-        <v>44473</v>
-      </c>
-      <c r="F40" s="76">
-        <f t="shared" ref="F40" si="24">IF(ISBLANK(E40)," - ",IF(G40=0,E40,E40+G40-1))</f>
-        <v>44473</v>
-      </c>
-      <c r="G40" s="58">
-        <v>1</v>
-      </c>
-      <c r="H40" s="59">
-        <v>0</v>
-      </c>
-      <c r="I40" s="60">
-        <v>0</v>
-      </c>
-      <c r="J40" s="73"/>
-      <c r="K40" s="79"/>
-      <c r="L40" s="79"/>
-      <c r="M40" s="79"/>
-      <c r="N40" s="79"/>
-      <c r="O40" s="79"/>
-      <c r="P40" s="79"/>
-      <c r="Q40" s="79"/>
-      <c r="R40" s="79"/>
-      <c r="S40" s="79"/>
-      <c r="T40" s="79"/>
-      <c r="U40" s="79"/>
-      <c r="V40" s="79"/>
-      <c r="W40" s="79"/>
-      <c r="X40" s="79"/>
-      <c r="Y40" s="79"/>
-      <c r="Z40" s="79"/>
-      <c r="AA40" s="79"/>
-      <c r="AB40" s="79"/>
-      <c r="AC40" s="79"/>
-      <c r="AD40" s="79"/>
-      <c r="AE40" s="79"/>
-      <c r="AF40" s="79"/>
-      <c r="AG40" s="79"/>
-      <c r="AH40" s="79"/>
-      <c r="AI40" s="79"/>
-      <c r="AJ40" s="79"/>
-      <c r="AK40" s="79"/>
-      <c r="AL40" s="79"/>
-      <c r="AM40" s="79"/>
-      <c r="AN40" s="79"/>
-      <c r="AO40" s="79"/>
-      <c r="AP40" s="79"/>
-      <c r="AQ40" s="79"/>
-      <c r="AR40" s="79"/>
-      <c r="AS40" s="79"/>
-      <c r="AT40" s="79"/>
-      <c r="AU40" s="79"/>
-      <c r="AV40" s="79"/>
-      <c r="AW40" s="79"/>
-      <c r="AX40" s="79"/>
-      <c r="AY40" s="79"/>
-      <c r="AZ40" s="79"/>
-      <c r="BA40" s="79"/>
-      <c r="BB40" s="79"/>
-      <c r="BC40" s="79"/>
-      <c r="BD40" s="79"/>
-      <c r="BE40" s="79"/>
-      <c r="BF40" s="79"/>
-      <c r="BG40" s="79"/>
-      <c r="BH40" s="79"/>
-      <c r="BI40" s="79"/>
-      <c r="BJ40" s="79"/>
-      <c r="BK40" s="79"/>
-      <c r="BL40" s="79"/>
-      <c r="BM40" s="79"/>
-      <c r="BN40" s="79"/>
-    </row>
-    <row r="41" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A40" s="49" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>3</v>
+      </c>
+      <c r="B40" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="D40" s="52"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G40" s="53"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="55" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J40" s="74"/>
+      <c r="K40" s="80"/>
+      <c r="L40" s="80"/>
+      <c r="M40" s="80"/>
+      <c r="N40" s="80"/>
+      <c r="O40" s="80"/>
+      <c r="P40" s="80"/>
+      <c r="Q40" s="80"/>
+      <c r="R40" s="80"/>
+      <c r="S40" s="80"/>
+      <c r="T40" s="80"/>
+      <c r="U40" s="80"/>
+      <c r="V40" s="80"/>
+      <c r="W40" s="80"/>
+      <c r="X40" s="80"/>
+      <c r="Y40" s="80"/>
+      <c r="Z40" s="80"/>
+      <c r="AA40" s="80"/>
+      <c r="AB40" s="80"/>
+      <c r="AC40" s="80"/>
+      <c r="AD40" s="80"/>
+      <c r="AE40" s="80"/>
+      <c r="AF40" s="80"/>
+      <c r="AG40" s="80"/>
+      <c r="AH40" s="80"/>
+      <c r="AI40" s="80"/>
+      <c r="AJ40" s="80"/>
+      <c r="AK40" s="80"/>
+      <c r="AL40" s="80"/>
+      <c r="AM40" s="80"/>
+      <c r="AN40" s="80"/>
+      <c r="AO40" s="80"/>
+      <c r="AP40" s="80"/>
+      <c r="AQ40" s="80"/>
+      <c r="AR40" s="80"/>
+      <c r="AS40" s="80"/>
+      <c r="AT40" s="80"/>
+      <c r="AU40" s="80"/>
+      <c r="AV40" s="80"/>
+      <c r="AW40" s="80"/>
+      <c r="AX40" s="80"/>
+      <c r="AY40" s="80"/>
+      <c r="AZ40" s="80"/>
+      <c r="BA40" s="80"/>
+      <c r="BB40" s="80"/>
+      <c r="BC40" s="80"/>
+      <c r="BD40" s="80"/>
+      <c r="BE40" s="80"/>
+      <c r="BF40" s="80"/>
+      <c r="BG40" s="80"/>
+      <c r="BH40" s="80"/>
+      <c r="BI40" s="80"/>
+      <c r="BJ40" s="80"/>
+      <c r="BK40" s="80"/>
+      <c r="BL40" s="80"/>
+      <c r="BM40" s="80"/>
+      <c r="BN40" s="80"/>
+    </row>
+    <row r="41" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A41" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="B41" s="97" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="D41" s="98"/>
       <c r="E41" s="75">
-        <v>44474</v>
+        <v>44470</v>
       </c>
       <c r="F41" s="76">
-        <f t="shared" si="7"/>
-        <v>44477</v>
+        <f>IF(ISBLANK(E41)," - ",IF(G41=0,E41,E41+G41-1))</f>
+        <v>44473</v>
       </c>
       <c r="G41" s="58">
         <v>4</v>
@@ -8432,19 +8571,19 @@
     </row>
     <row r="42" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="56" t="str">
-        <f t="shared" ref="A42:A58" si="25">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.2.1</v>
+        <f t="shared" ref="A42:A49" si="20">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.1.1</v>
       </c>
       <c r="B42" s="99" t="s">
         <v>135</v>
       </c>
       <c r="D42" s="98"/>
       <c r="E42" s="75">
-        <v>44474</v>
+        <v>44470</v>
       </c>
       <c r="F42" s="76">
-        <f t="shared" ref="F42:F49" si="26">IF(ISBLANK(E42)," - ",IF(G42=0,E42,E42+G42-1))</f>
-        <v>44474</v>
+        <f t="shared" si="7"/>
+        <v>44470</v>
       </c>
       <c r="G42" s="58">
         <v>1</v>
@@ -8515,19 +8654,19 @@
     </row>
     <row r="43" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="56" t="str">
-        <f t="shared" si="25"/>
-        <v>3.2.2</v>
+        <f t="shared" si="20"/>
+        <v>3.1.2</v>
       </c>
       <c r="B43" s="99" t="s">
         <v>136</v>
       </c>
       <c r="D43" s="98"/>
       <c r="E43" s="75">
-        <v>44474</v>
+        <v>44470</v>
       </c>
       <c r="F43" s="76">
-        <f t="shared" si="26"/>
-        <v>44474</v>
+        <f t="shared" ref="F43:F44" si="21">IF(ISBLANK(E43)," - ",IF(G43=0,E43,E43+G43-1))</f>
+        <v>44470</v>
       </c>
       <c r="G43" s="58">
         <v>1</v>
@@ -8598,19 +8737,19 @@
     </row>
     <row r="44" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="56" t="str">
-        <f t="shared" si="25"/>
-        <v>3.2.3</v>
+        <f t="shared" si="20"/>
+        <v>3.1.3</v>
       </c>
       <c r="B44" s="99" t="s">
         <v>137</v>
       </c>
       <c r="D44" s="98"/>
       <c r="E44" s="75">
-        <v>44475</v>
+        <v>44471</v>
       </c>
       <c r="F44" s="76">
-        <f t="shared" si="26"/>
-        <v>44475</v>
+        <f t="shared" si="21"/>
+        <v>44471</v>
       </c>
       <c r="G44" s="58">
         <v>1</v>
@@ -8681,19 +8820,19 @@
     </row>
     <row r="45" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="56" t="str">
-        <f t="shared" si="25"/>
-        <v>3.2.4</v>
+        <f t="shared" si="20"/>
+        <v>3.1.4</v>
       </c>
       <c r="B45" s="99" t="s">
         <v>138</v>
       </c>
       <c r="D45" s="98"/>
       <c r="E45" s="75">
-        <v>44475</v>
+        <v>44471</v>
       </c>
       <c r="F45" s="76">
-        <f t="shared" si="26"/>
-        <v>44475</v>
+        <f t="shared" ref="F45" si="22">IF(ISBLANK(E45)," - ",IF(G45=0,E45,E45+G45-1))</f>
+        <v>44471</v>
       </c>
       <c r="G45" s="58">
         <v>1</v>
@@ -8764,19 +8903,19 @@
     </row>
     <row r="46" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="56" t="str">
-        <f t="shared" si="25"/>
-        <v>3.2.5</v>
+        <f t="shared" si="20"/>
+        <v>3.1.5</v>
       </c>
       <c r="B46" s="99" t="s">
         <v>139</v>
       </c>
       <c r="D46" s="98"/>
       <c r="E46" s="75">
-        <v>44476</v>
+        <v>44472</v>
       </c>
       <c r="F46" s="76">
-        <f t="shared" si="26"/>
-        <v>44476</v>
+        <f t="shared" ref="F46" si="23">IF(ISBLANK(E46)," - ",IF(G46=0,E46,E46+G46-1))</f>
+        <v>44472</v>
       </c>
       <c r="G46" s="58">
         <v>1</v>
@@ -8847,19 +8986,19 @@
     </row>
     <row r="47" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="56" t="str">
-        <f t="shared" si="25"/>
-        <v>3.2.6</v>
+        <f t="shared" si="20"/>
+        <v>3.1.6</v>
       </c>
       <c r="B47" s="99" t="s">
         <v>140</v>
       </c>
       <c r="D47" s="98"/>
       <c r="E47" s="75">
-        <v>44476</v>
+        <v>44472</v>
       </c>
       <c r="F47" s="76">
-        <f t="shared" si="26"/>
-        <v>44476</v>
+        <f t="shared" ref="F47" si="24">IF(ISBLANK(E47)," - ",IF(G47=0,E47,E47+G47-1))</f>
+        <v>44472</v>
       </c>
       <c r="G47" s="58">
         <v>1</v>
@@ -8930,19 +9069,19 @@
     </row>
     <row r="48" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A48" s="56" t="str">
-        <f t="shared" si="25"/>
-        <v>3.2.7</v>
+        <f t="shared" si="20"/>
+        <v>3.1.7</v>
       </c>
       <c r="B48" s="99" t="s">
         <v>166</v>
       </c>
       <c r="D48" s="98"/>
       <c r="E48" s="75">
-        <v>44477</v>
+        <v>44473</v>
       </c>
       <c r="F48" s="76">
-        <f t="shared" si="26"/>
-        <v>44477</v>
+        <f t="shared" ref="F48" si="25">IF(ISBLANK(E48)," - ",IF(G48=0,E48,E48+G48-1))</f>
+        <v>44473</v>
       </c>
       <c r="G48" s="58">
         <v>1</v>
@@ -9013,19 +9152,19 @@
     </row>
     <row r="49" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A49" s="56" t="str">
-        <f t="shared" si="25"/>
-        <v>3.2.8</v>
+        <f t="shared" si="20"/>
+        <v>3.1.8</v>
       </c>
       <c r="B49" s="99" t="s">
         <v>167</v>
       </c>
       <c r="D49" s="98"/>
       <c r="E49" s="75">
-        <v>44477</v>
+        <v>44473</v>
       </c>
       <c r="F49" s="76">
-        <f t="shared" si="26"/>
-        <v>44477</v>
+        <f t="shared" ref="F49" si="26">IF(ISBLANK(E49)," - ",IF(G49=0,E49,E49+G49-1))</f>
+        <v>44473</v>
       </c>
       <c r="G49" s="58">
         <v>1</v>
@@ -9097,18 +9236,18 @@
     <row r="50" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="B50" s="97" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D50" s="98"/>
       <c r="E50" s="75">
-        <v>44478</v>
+        <v>44474</v>
       </c>
       <c r="F50" s="76">
         <f t="shared" si="7"/>
-        <v>44481</v>
+        <v>44477</v>
       </c>
       <c r="G50" s="58">
         <v>4</v>
@@ -9179,19 +9318,19 @@
     </row>
     <row r="51" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" s="56" t="str">
-        <f t="shared" si="25"/>
-        <v>3.3.1</v>
+        <f t="shared" ref="A51:A67" si="27">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.2.1</v>
       </c>
       <c r="B51" s="99" t="s">
         <v>135</v>
       </c>
       <c r="D51" s="98"/>
       <c r="E51" s="75">
-        <v>44478</v>
+        <v>44474</v>
       </c>
       <c r="F51" s="76">
-        <f t="shared" si="7"/>
-        <v>44478</v>
+        <f t="shared" ref="F51:F58" si="28">IF(ISBLANK(E51)," - ",IF(G51=0,E51,E51+G51-1))</f>
+        <v>44474</v>
       </c>
       <c r="G51" s="58">
         <v>1</v>
@@ -9262,19 +9401,19 @@
     </row>
     <row r="52" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="56" t="str">
-        <f t="shared" si="25"/>
-        <v>3.3.2</v>
+        <f t="shared" si="27"/>
+        <v>3.2.2</v>
       </c>
       <c r="B52" s="99" t="s">
         <v>136</v>
       </c>
       <c r="D52" s="98"/>
       <c r="E52" s="75">
-        <v>44478</v>
+        <v>44474</v>
       </c>
       <c r="F52" s="76">
-        <f t="shared" si="7"/>
-        <v>44478</v>
+        <f t="shared" si="28"/>
+        <v>44474</v>
       </c>
       <c r="G52" s="58">
         <v>1</v>
@@ -9345,19 +9484,19 @@
     </row>
     <row r="53" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" s="56" t="str">
-        <f t="shared" si="25"/>
-        <v>3.3.3</v>
+        <f t="shared" si="27"/>
+        <v>3.2.3</v>
       </c>
       <c r="B53" s="99" t="s">
         <v>137</v>
       </c>
       <c r="D53" s="98"/>
       <c r="E53" s="75">
-        <v>44479</v>
+        <v>44475</v>
       </c>
       <c r="F53" s="76">
-        <f t="shared" si="7"/>
-        <v>44479</v>
+        <f t="shared" si="28"/>
+        <v>44475</v>
       </c>
       <c r="G53" s="58">
         <v>1</v>
@@ -9428,19 +9567,19 @@
     </row>
     <row r="54" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A54" s="56" t="str">
-        <f t="shared" si="25"/>
-        <v>3.3.4</v>
+        <f t="shared" si="27"/>
+        <v>3.2.4</v>
       </c>
       <c r="B54" s="99" t="s">
         <v>138</v>
       </c>
       <c r="D54" s="98"/>
       <c r="E54" s="75">
-        <v>44479</v>
+        <v>44475</v>
       </c>
       <c r="F54" s="76">
-        <f t="shared" si="7"/>
-        <v>44479</v>
+        <f t="shared" si="28"/>
+        <v>44475</v>
       </c>
       <c r="G54" s="58">
         <v>1</v>
@@ -9511,19 +9650,19 @@
     </row>
     <row r="55" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A55" s="56" t="str">
-        <f t="shared" si="25"/>
-        <v>3.3.5</v>
+        <f t="shared" si="27"/>
+        <v>3.2.5</v>
       </c>
       <c r="B55" s="99" t="s">
         <v>139</v>
       </c>
       <c r="D55" s="98"/>
       <c r="E55" s="75">
-        <v>44480</v>
+        <v>44476</v>
       </c>
       <c r="F55" s="76">
-        <f t="shared" si="7"/>
-        <v>44480</v>
+        <f t="shared" si="28"/>
+        <v>44476</v>
       </c>
       <c r="G55" s="58">
         <v>1</v>
@@ -9594,19 +9733,19 @@
     </row>
     <row r="56" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" s="56" t="str">
-        <f t="shared" si="25"/>
-        <v>3.3.6</v>
+        <f t="shared" si="27"/>
+        <v>3.2.6</v>
       </c>
       <c r="B56" s="99" t="s">
         <v>140</v>
       </c>
       <c r="D56" s="98"/>
       <c r="E56" s="75">
-        <v>44480</v>
+        <v>44476</v>
       </c>
       <c r="F56" s="76">
-        <f t="shared" si="7"/>
-        <v>44480</v>
+        <f t="shared" si="28"/>
+        <v>44476</v>
       </c>
       <c r="G56" s="58">
         <v>1</v>
@@ -9677,19 +9816,19 @@
     </row>
     <row r="57" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A57" s="56" t="str">
-        <f t="shared" si="25"/>
-        <v>3.3.7</v>
+        <f t="shared" si="27"/>
+        <v>3.2.7</v>
       </c>
       <c r="B57" s="99" t="s">
         <v>166</v>
       </c>
       <c r="D57" s="98"/>
       <c r="E57" s="75">
-        <v>44481</v>
+        <v>44477</v>
       </c>
       <c r="F57" s="76">
-        <f t="shared" si="7"/>
-        <v>44481</v>
+        <f t="shared" si="28"/>
+        <v>44477</v>
       </c>
       <c r="G57" s="58">
         <v>1</v>
@@ -9760,19 +9899,19 @@
     </row>
     <row r="58" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A58" s="56" t="str">
-        <f t="shared" si="25"/>
-        <v>3.3.8</v>
+        <f t="shared" si="27"/>
+        <v>3.2.8</v>
       </c>
       <c r="B58" s="99" t="s">
         <v>167</v>
       </c>
       <c r="D58" s="98"/>
       <c r="E58" s="75">
-        <v>44481</v>
+        <v>44477</v>
       </c>
       <c r="F58" s="76">
-        <f t="shared" si="7"/>
-        <v>44481</v>
+        <f t="shared" si="28"/>
+        <v>44477</v>
       </c>
       <c r="G58" s="58">
         <v>1</v>
@@ -9844,18 +9983,18 @@
     <row r="59" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A59" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="B59" s="97" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D59" s="98"/>
       <c r="E59" s="75">
-        <v>43141</v>
+        <v>44478</v>
       </c>
       <c r="F59" s="76">
-        <f t="shared" ref="F59" si="27">IF(ISBLANK(E59)," - ",IF(G59=0,E59,E59+G59-1))</f>
-        <v>43144</v>
+        <f t="shared" si="7"/>
+        <v>44481</v>
       </c>
       <c r="G59" s="58">
         <v>4</v>
@@ -9926,22 +10065,22 @@
     </row>
     <row r="60" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A60" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.5</v>
-      </c>
-      <c r="B60" s="97" t="s">
-        <v>170</v>
+        <f t="shared" si="27"/>
+        <v>3.3.1</v>
+      </c>
+      <c r="B60" s="99" t="s">
+        <v>135</v>
       </c>
       <c r="D60" s="98"/>
       <c r="E60" s="75">
-        <v>44482</v>
+        <v>44478</v>
       </c>
       <c r="F60" s="76">
         <f t="shared" si="7"/>
-        <v>44483</v>
+        <v>44478</v>
       </c>
       <c r="G60" s="58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H60" s="59">
         <v>0</v>
@@ -10009,22 +10148,22 @@
     </row>
     <row r="61" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A61" s="56" t="str">
-        <f t="shared" ref="A61:A62" si="28">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.5.1</v>
+        <f t="shared" si="27"/>
+        <v>3.3.2</v>
       </c>
       <c r="B61" s="99" t="s">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="D61" s="98"/>
       <c r="E61" s="75">
-        <v>44482</v>
+        <v>44478</v>
       </c>
       <c r="F61" s="76">
-        <f t="shared" ref="F61" si="29">IF(ISBLANK(E61)," - ",IF(G61=0,E61,E61+G61-1))</f>
-        <v>44483</v>
+        <f t="shared" si="7"/>
+        <v>44478</v>
       </c>
       <c r="G61" s="58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H61" s="59">
         <v>0</v>
@@ -10092,22 +10231,22 @@
     </row>
     <row r="62" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A62" s="56" t="str">
-        <f t="shared" si="28"/>
-        <v>3.5.2</v>
+        <f t="shared" si="27"/>
+        <v>3.3.3</v>
       </c>
       <c r="B62" s="99" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="D62" s="98"/>
       <c r="E62" s="75">
-        <v>44482</v>
+        <v>44479</v>
       </c>
       <c r="F62" s="76">
-        <f t="shared" ref="F62" si="30">IF(ISBLANK(E62)," - ",IF(G62=0,E62,E62+G62-1))</f>
-        <v>44483</v>
+        <f t="shared" si="7"/>
+        <v>44479</v>
       </c>
       <c r="G62" s="58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H62" s="59">
         <v>0</v>
@@ -10175,22 +10314,22 @@
     </row>
     <row r="63" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A63" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.6</v>
-      </c>
-      <c r="B63" s="97" t="s">
-        <v>171</v>
+        <f t="shared" si="27"/>
+        <v>3.3.4</v>
+      </c>
+      <c r="B63" s="99" t="s">
+        <v>138</v>
       </c>
       <c r="D63" s="98"/>
       <c r="E63" s="75">
-        <v>44483</v>
+        <v>44479</v>
       </c>
       <c r="F63" s="76">
         <f t="shared" si="7"/>
-        <v>44484</v>
+        <v>44479</v>
       </c>
       <c r="G63" s="58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H63" s="59">
         <v>0</v>
@@ -10258,22 +10397,22 @@
     </row>
     <row r="64" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A64" s="56" t="str">
-        <f t="shared" ref="A64:A72" si="31">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.6.1</v>
+        <f t="shared" si="27"/>
+        <v>3.3.5</v>
       </c>
       <c r="B64" s="99" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="D64" s="98"/>
       <c r="E64" s="75">
-        <v>44483</v>
+        <v>44480</v>
       </c>
       <c r="F64" s="76">
         <f t="shared" si="7"/>
-        <v>44484</v>
+        <v>44480</v>
       </c>
       <c r="G64" s="58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H64" s="59">
         <v>0</v>
@@ -10341,22 +10480,22 @@
     </row>
     <row r="65" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A65" s="56" t="str">
-        <f t="shared" si="31"/>
-        <v>3.6.2</v>
+        <f t="shared" si="27"/>
+        <v>3.3.6</v>
       </c>
       <c r="B65" s="99" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D65" s="98"/>
       <c r="E65" s="75">
-        <v>44483</v>
+        <v>44480</v>
       </c>
       <c r="F65" s="76">
-        <f t="shared" ref="F65:F72" si="32">IF(ISBLANK(E65)," - ",IF(G65=0,E65,E65+G65-1))</f>
-        <v>44484</v>
+        <f t="shared" si="7"/>
+        <v>44480</v>
       </c>
       <c r="G65" s="58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H65" s="59">
         <v>0</v>
@@ -10422,24 +10561,24 @@
       <c r="BM65" s="79"/>
       <c r="BN65" s="79"/>
     </row>
-    <row r="66" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A66" s="56" t="str">
-        <f t="shared" si="31"/>
-        <v>3.6.3</v>
+        <f t="shared" si="27"/>
+        <v>3.3.7</v>
       </c>
       <c r="B66" s="99" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="D66" s="98"/>
       <c r="E66" s="75">
-        <v>44483</v>
+        <v>44481</v>
       </c>
       <c r="F66" s="76">
-        <f t="shared" si="32"/>
-        <v>44484</v>
+        <f t="shared" si="7"/>
+        <v>44481</v>
       </c>
       <c r="G66" s="58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H66" s="59">
         <v>0</v>
@@ -10505,24 +10644,24 @@
       <c r="BM66" s="79"/>
       <c r="BN66" s="79"/>
     </row>
-    <row r="67" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A67" s="56" t="str">
-        <f t="shared" si="31"/>
-        <v>3.6.4</v>
+        <f t="shared" si="27"/>
+        <v>3.3.8</v>
       </c>
       <c r="B67" s="99" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="D67" s="98"/>
       <c r="E67" s="75">
-        <v>44483</v>
+        <v>44481</v>
       </c>
       <c r="F67" s="76">
-        <f t="shared" si="32"/>
-        <v>44484</v>
+        <f t="shared" si="7"/>
+        <v>44481</v>
       </c>
       <c r="G67" s="58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H67" s="59">
         <v>0</v>
@@ -10590,22 +10729,22 @@
     </row>
     <row r="68" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A68" s="56" t="str">
-        <f t="shared" si="31"/>
-        <v>3.6.5</v>
-      </c>
-      <c r="B68" s="99" t="s">
-        <v>138</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.4</v>
+      </c>
+      <c r="B68" s="97" t="s">
+        <v>165</v>
       </c>
       <c r="D68" s="98"/>
       <c r="E68" s="75">
-        <v>44483</v>
+        <v>43141</v>
       </c>
       <c r="F68" s="76">
-        <f t="shared" si="32"/>
-        <v>44484</v>
+        <f t="shared" ref="F68" si="29">IF(ISBLANK(E68)," - ",IF(G68=0,E68,E68+G68-1))</f>
+        <v>43144</v>
       </c>
       <c r="G68" s="58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H68" s="59">
         <v>0</v>
@@ -10673,19 +10812,19 @@
     </row>
     <row r="69" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A69" s="56" t="str">
-        <f t="shared" si="31"/>
-        <v>3.6.6</v>
-      </c>
-      <c r="B69" s="99" t="s">
-        <v>139</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.5</v>
+      </c>
+      <c r="B69" s="97" t="s">
+        <v>170</v>
       </c>
       <c r="D69" s="98"/>
       <c r="E69" s="75">
+        <v>44482</v>
+      </c>
+      <c r="F69" s="76">
+        <f t="shared" si="7"/>
         <v>44483</v>
-      </c>
-      <c r="F69" s="76">
-        <f t="shared" si="32"/>
-        <v>44484</v>
       </c>
       <c r="G69" s="58">
         <v>2</v>
@@ -10756,19 +10895,19 @@
     </row>
     <row r="70" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A70" s="56" t="str">
-        <f t="shared" si="31"/>
-        <v>3.6.7</v>
+        <f t="shared" ref="A70:A71" si="30">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.5.1</v>
       </c>
       <c r="B70" s="99" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="D70" s="98"/>
       <c r="E70" s="75">
+        <v>44482</v>
+      </c>
+      <c r="F70" s="76">
+        <f t="shared" ref="F70" si="31">IF(ISBLANK(E70)," - ",IF(G70=0,E70,E70+G70-1))</f>
         <v>44483</v>
-      </c>
-      <c r="F70" s="76">
-        <f t="shared" si="32"/>
-        <v>44484</v>
       </c>
       <c r="G70" s="58">
         <v>2</v>
@@ -10837,21 +10976,21 @@
       <c r="BM70" s="79"/>
       <c r="BN70" s="79"/>
     </row>
-    <row r="71" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A71" s="56" t="str">
-        <f t="shared" si="31"/>
-        <v>3.6.8</v>
+        <f t="shared" si="30"/>
+        <v>3.5.2</v>
       </c>
       <c r="B71" s="99" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="D71" s="98"/>
       <c r="E71" s="75">
+        <v>44482</v>
+      </c>
+      <c r="F71" s="76">
+        <f t="shared" ref="F71" si="32">IF(ISBLANK(E71)," - ",IF(G71=0,E71,E71+G71-1))</f>
         <v>44483</v>
-      </c>
-      <c r="F71" s="76">
-        <f t="shared" si="32"/>
-        <v>44484</v>
       </c>
       <c r="G71" s="58">
         <v>2</v>
@@ -10920,20 +11059,20 @@
       <c r="BM71" s="79"/>
       <c r="BN71" s="79"/>
     </row>
-    <row r="72" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A72" s="56" t="str">
-        <f t="shared" si="31"/>
-        <v>3.6.9</v>
-      </c>
-      <c r="B72" s="99" t="s">
-        <v>167</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.6</v>
+      </c>
+      <c r="B72" s="97" t="s">
+        <v>171</v>
       </c>
       <c r="D72" s="98"/>
       <c r="E72" s="75">
         <v>44483</v>
       </c>
       <c r="F72" s="76">
-        <f t="shared" si="32"/>
+        <f t="shared" si="7"/>
         <v>44484</v>
       </c>
       <c r="G72" s="58">
@@ -11003,102 +11142,107 @@
       <c r="BM72" s="79"/>
       <c r="BN72" s="79"/>
     </row>
-    <row r="73" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A73" s="49" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>4</v>
-      </c>
-      <c r="B73" s="50" t="s">
-        <v>149</v>
-      </c>
-      <c r="D73" s="52"/>
-      <c r="E73" s="77"/>
-      <c r="F73" s="77" t="str">
+    <row r="73" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A73" s="56" t="str">
+        <f t="shared" ref="A73:A81" si="33">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.6.1</v>
+      </c>
+      <c r="B73" s="99" t="s">
+        <v>179</v>
+      </c>
+      <c r="D73" s="98"/>
+      <c r="E73" s="75">
+        <v>44483</v>
+      </c>
+      <c r="F73" s="76">
         <f t="shared" si="7"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G73" s="53"/>
-      <c r="H73" s="54"/>
-      <c r="I73" s="55" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J73" s="74"/>
-      <c r="K73" s="80"/>
-      <c r="L73" s="80"/>
-      <c r="M73" s="80"/>
-      <c r="N73" s="80"/>
-      <c r="O73" s="80"/>
-      <c r="P73" s="80"/>
-      <c r="Q73" s="80"/>
-      <c r="R73" s="80"/>
-      <c r="S73" s="80"/>
-      <c r="T73" s="80"/>
-      <c r="U73" s="80"/>
-      <c r="V73" s="80"/>
-      <c r="W73" s="80"/>
-      <c r="X73" s="80"/>
-      <c r="Y73" s="80"/>
-      <c r="Z73" s="80"/>
-      <c r="AA73" s="80"/>
-      <c r="AB73" s="80"/>
-      <c r="AC73" s="80"/>
-      <c r="AD73" s="80"/>
-      <c r="AE73" s="80"/>
-      <c r="AF73" s="80"/>
-      <c r="AG73" s="80"/>
-      <c r="AH73" s="80"/>
-      <c r="AI73" s="80"/>
-      <c r="AJ73" s="80"/>
-      <c r="AK73" s="80"/>
-      <c r="AL73" s="80"/>
-      <c r="AM73" s="80"/>
-      <c r="AN73" s="80"/>
-      <c r="AO73" s="80"/>
-      <c r="AP73" s="80"/>
-      <c r="AQ73" s="80"/>
-      <c r="AR73" s="80"/>
-      <c r="AS73" s="80"/>
-      <c r="AT73" s="80"/>
-      <c r="AU73" s="80"/>
-      <c r="AV73" s="80"/>
-      <c r="AW73" s="80"/>
-      <c r="AX73" s="80"/>
-      <c r="AY73" s="80"/>
-      <c r="AZ73" s="80"/>
-      <c r="BA73" s="80"/>
-      <c r="BB73" s="80"/>
-      <c r="BC73" s="80"/>
-      <c r="BD73" s="80"/>
-      <c r="BE73" s="80"/>
-      <c r="BF73" s="80"/>
-      <c r="BG73" s="80"/>
-      <c r="BH73" s="80"/>
-      <c r="BI73" s="80"/>
-      <c r="BJ73" s="80"/>
-      <c r="BK73" s="80"/>
-      <c r="BL73" s="80"/>
-      <c r="BM73" s="80"/>
-      <c r="BN73" s="80"/>
+        <v>44484</v>
+      </c>
+      <c r="G73" s="58">
+        <v>2</v>
+      </c>
+      <c r="H73" s="59">
+        <v>0</v>
+      </c>
+      <c r="I73" s="60">
+        <v>0</v>
+      </c>
+      <c r="J73" s="73"/>
+      <c r="K73" s="79"/>
+      <c r="L73" s="79"/>
+      <c r="M73" s="79"/>
+      <c r="N73" s="79"/>
+      <c r="O73" s="79"/>
+      <c r="P73" s="79"/>
+      <c r="Q73" s="79"/>
+      <c r="R73" s="79"/>
+      <c r="S73" s="79"/>
+      <c r="T73" s="79"/>
+      <c r="U73" s="79"/>
+      <c r="V73" s="79"/>
+      <c r="W73" s="79"/>
+      <c r="X73" s="79"/>
+      <c r="Y73" s="79"/>
+      <c r="Z73" s="79"/>
+      <c r="AA73" s="79"/>
+      <c r="AB73" s="79"/>
+      <c r="AC73" s="79"/>
+      <c r="AD73" s="79"/>
+      <c r="AE73" s="79"/>
+      <c r="AF73" s="79"/>
+      <c r="AG73" s="79"/>
+      <c r="AH73" s="79"/>
+      <c r="AI73" s="79"/>
+      <c r="AJ73" s="79"/>
+      <c r="AK73" s="79"/>
+      <c r="AL73" s="79"/>
+      <c r="AM73" s="79"/>
+      <c r="AN73" s="79"/>
+      <c r="AO73" s="79"/>
+      <c r="AP73" s="79"/>
+      <c r="AQ73" s="79"/>
+      <c r="AR73" s="79"/>
+      <c r="AS73" s="79"/>
+      <c r="AT73" s="79"/>
+      <c r="AU73" s="79"/>
+      <c r="AV73" s="79"/>
+      <c r="AW73" s="79"/>
+      <c r="AX73" s="79"/>
+      <c r="AY73" s="79"/>
+      <c r="AZ73" s="79"/>
+      <c r="BA73" s="79"/>
+      <c r="BB73" s="79"/>
+      <c r="BC73" s="79"/>
+      <c r="BD73" s="79"/>
+      <c r="BE73" s="79"/>
+      <c r="BF73" s="79"/>
+      <c r="BG73" s="79"/>
+      <c r="BH73" s="79"/>
+      <c r="BI73" s="79"/>
+      <c r="BJ73" s="79"/>
+      <c r="BK73" s="79"/>
+      <c r="BL73" s="79"/>
+      <c r="BM73" s="79"/>
+      <c r="BN73" s="79"/>
     </row>
     <row r="74" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A74" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.1</v>
-      </c>
-      <c r="B74" s="97" t="s">
-        <v>163</v>
+        <f t="shared" si="33"/>
+        <v>3.6.2</v>
+      </c>
+      <c r="B74" s="99" t="s">
+        <v>135</v>
       </c>
       <c r="D74" s="98"/>
       <c r="E74" s="75">
-        <v>44485</v>
+        <v>44483</v>
       </c>
       <c r="F74" s="76">
-        <f t="shared" si="7"/>
-        <v>44491</v>
+        <f t="shared" ref="F74:F81" si="34">IF(ISBLANK(E74)," - ",IF(G74=0,E74,E74+G74-1))</f>
+        <v>44484</v>
       </c>
       <c r="G74" s="58">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H74" s="59">
         <v>0</v>
@@ -11166,22 +11310,22 @@
     </row>
     <row r="75" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A75" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.2</v>
-      </c>
-      <c r="B75" s="97" t="s">
-        <v>172</v>
+        <f t="shared" si="33"/>
+        <v>3.6.3</v>
+      </c>
+      <c r="B75" s="99" t="s">
+        <v>136</v>
       </c>
       <c r="D75" s="98"/>
       <c r="E75" s="75">
-        <v>44492</v>
+        <v>44483</v>
       </c>
       <c r="F75" s="76">
-        <f t="shared" si="7"/>
-        <v>44501</v>
+        <f t="shared" si="34"/>
+        <v>44484</v>
       </c>
       <c r="G75" s="58">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H75" s="59">
         <v>0</v>
@@ -11249,22 +11393,22 @@
     </row>
     <row r="76" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A76" s="56" t="str">
-        <f t="shared" ref="A76:A90" si="33">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.2.1</v>
+        <f t="shared" si="33"/>
+        <v>3.6.4</v>
       </c>
       <c r="B76" s="99" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D76" s="98"/>
       <c r="E76" s="75">
-        <v>44492</v>
+        <v>44483</v>
       </c>
       <c r="F76" s="76">
-        <f t="shared" si="7"/>
-        <v>44492</v>
+        <f t="shared" si="34"/>
+        <v>44484</v>
       </c>
       <c r="G76" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H76" s="59">
         <v>0</v>
@@ -11332,22 +11476,22 @@
     </row>
     <row r="77" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A77" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.2.2</v>
-      </c>
-      <c r="B77" s="132" t="s">
-        <v>175</v>
+        <f t="shared" si="33"/>
+        <v>3.6.5</v>
+      </c>
+      <c r="B77" s="99" t="s">
+        <v>138</v>
       </c>
       <c r="D77" s="98"/>
       <c r="E77" s="75">
-        <v>44492</v>
+        <v>44483</v>
       </c>
       <c r="F77" s="76">
-        <f t="shared" ref="F77:F91" si="34">IF(ISBLANK(E77)," - ",IF(G77=0,E77,E77+G77-1))</f>
-        <v>44492</v>
+        <f t="shared" si="34"/>
+        <v>44484</v>
       </c>
       <c r="G77" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H77" s="59">
         <v>0</v>
@@ -11416,21 +11560,21 @@
     <row r="78" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A78" s="56" t="str">
         <f t="shared" si="33"/>
-        <v>4.2.3</v>
+        <v>3.6.6</v>
       </c>
       <c r="B78" s="99" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D78" s="98"/>
       <c r="E78" s="75">
-        <v>44493</v>
+        <v>44483</v>
       </c>
       <c r="F78" s="76">
         <f t="shared" si="34"/>
-        <v>44493</v>
+        <v>44484</v>
       </c>
       <c r="G78" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H78" s="59">
         <v>0</v>
@@ -11498,22 +11642,22 @@
     </row>
     <row r="79" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A79" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.2.4</v>
-      </c>
-      <c r="B79" s="132" t="s">
-        <v>175</v>
+        <f t="shared" si="33"/>
+        <v>3.6.7</v>
+      </c>
+      <c r="B79" s="99" t="s">
+        <v>140</v>
       </c>
       <c r="D79" s="98"/>
       <c r="E79" s="75">
-        <v>44493</v>
+        <v>44483</v>
       </c>
       <c r="F79" s="76">
-        <f t="shared" ref="F79" si="35">IF(ISBLANK(E79)," - ",IF(G79=0,E79,E79+G79-1))</f>
-        <v>44493</v>
+        <f t="shared" si="34"/>
+        <v>44484</v>
       </c>
       <c r="G79" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H79" s="59">
         <v>0</v>
@@ -11579,24 +11723,24 @@
       <c r="BM79" s="79"/>
       <c r="BN79" s="79"/>
     </row>
-    <row r="80" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A80" s="56" t="str">
         <f t="shared" si="33"/>
-        <v>4.2.5</v>
+        <v>3.6.8</v>
       </c>
       <c r="B80" s="99" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="D80" s="98"/>
       <c r="E80" s="75">
-        <v>44494</v>
+        <v>44483</v>
       </c>
       <c r="F80" s="76">
         <f t="shared" si="34"/>
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="G80" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H80" s="59">
         <v>0</v>
@@ -11662,24 +11806,24 @@
       <c r="BM80" s="79"/>
       <c r="BN80" s="79"/>
     </row>
-    <row r="81" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A81" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.2.6</v>
-      </c>
-      <c r="B81" s="132" t="s">
-        <v>175</v>
+        <f t="shared" si="33"/>
+        <v>3.6.9</v>
+      </c>
+      <c r="B81" s="99" t="s">
+        <v>167</v>
       </c>
       <c r="D81" s="98"/>
       <c r="E81" s="75">
-        <v>44494</v>
+        <v>44483</v>
       </c>
       <c r="F81" s="76">
         <f t="shared" si="34"/>
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="G81" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H81" s="59">
         <v>0</v>
@@ -11745,107 +11889,102 @@
       <c r="BM81" s="79"/>
       <c r="BN81" s="79"/>
     </row>
-    <row r="82" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A82" s="56" t="str">
-        <f t="shared" si="33"/>
-        <v>4.2.7</v>
-      </c>
-      <c r="B82" s="99" t="s">
-        <v>138</v>
-      </c>
-      <c r="D82" s="98"/>
-      <c r="E82" s="75">
-        <v>44495</v>
-      </c>
-      <c r="F82" s="76">
-        <f t="shared" si="34"/>
-        <v>44495</v>
-      </c>
-      <c r="G82" s="58">
-        <v>1</v>
-      </c>
-      <c r="H82" s="59">
-        <v>0</v>
-      </c>
-      <c r="I82" s="60">
-        <v>0</v>
-      </c>
-      <c r="J82" s="73"/>
-      <c r="K82" s="79"/>
-      <c r="L82" s="79"/>
-      <c r="M82" s="79"/>
-      <c r="N82" s="79"/>
-      <c r="O82" s="79"/>
-      <c r="P82" s="79"/>
-      <c r="Q82" s="79"/>
-      <c r="R82" s="79"/>
-      <c r="S82" s="79"/>
-      <c r="T82" s="79"/>
-      <c r="U82" s="79"/>
-      <c r="V82" s="79"/>
-      <c r="W82" s="79"/>
-      <c r="X82" s="79"/>
-      <c r="Y82" s="79"/>
-      <c r="Z82" s="79"/>
-      <c r="AA82" s="79"/>
-      <c r="AB82" s="79"/>
-      <c r="AC82" s="79"/>
-      <c r="AD82" s="79"/>
-      <c r="AE82" s="79"/>
-      <c r="AF82" s="79"/>
-      <c r="AG82" s="79"/>
-      <c r="AH82" s="79"/>
-      <c r="AI82" s="79"/>
-      <c r="AJ82" s="79"/>
-      <c r="AK82" s="79"/>
-      <c r="AL82" s="79"/>
-      <c r="AM82" s="79"/>
-      <c r="AN82" s="79"/>
-      <c r="AO82" s="79"/>
-      <c r="AP82" s="79"/>
-      <c r="AQ82" s="79"/>
-      <c r="AR82" s="79"/>
-      <c r="AS82" s="79"/>
-      <c r="AT82" s="79"/>
-      <c r="AU82" s="79"/>
-      <c r="AV82" s="79"/>
-      <c r="AW82" s="79"/>
-      <c r="AX82" s="79"/>
-      <c r="AY82" s="79"/>
-      <c r="AZ82" s="79"/>
-      <c r="BA82" s="79"/>
-      <c r="BB82" s="79"/>
-      <c r="BC82" s="79"/>
-      <c r="BD82" s="79"/>
-      <c r="BE82" s="79"/>
-      <c r="BF82" s="79"/>
-      <c r="BG82" s="79"/>
-      <c r="BH82" s="79"/>
-      <c r="BI82" s="79"/>
-      <c r="BJ82" s="79"/>
-      <c r="BK82" s="79"/>
-      <c r="BL82" s="79"/>
-      <c r="BM82" s="79"/>
-      <c r="BN82" s="79"/>
+    <row r="82" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A82" s="49" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>4</v>
+      </c>
+      <c r="B82" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="D82" s="52"/>
+      <c r="E82" s="77"/>
+      <c r="F82" s="77" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G82" s="53"/>
+      <c r="H82" s="54"/>
+      <c r="I82" s="55" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J82" s="74"/>
+      <c r="K82" s="80"/>
+      <c r="L82" s="80"/>
+      <c r="M82" s="80"/>
+      <c r="N82" s="80"/>
+      <c r="O82" s="80"/>
+      <c r="P82" s="80"/>
+      <c r="Q82" s="80"/>
+      <c r="R82" s="80"/>
+      <c r="S82" s="80"/>
+      <c r="T82" s="80"/>
+      <c r="U82" s="80"/>
+      <c r="V82" s="80"/>
+      <c r="W82" s="80"/>
+      <c r="X82" s="80"/>
+      <c r="Y82" s="80"/>
+      <c r="Z82" s="80"/>
+      <c r="AA82" s="80"/>
+      <c r="AB82" s="80"/>
+      <c r="AC82" s="80"/>
+      <c r="AD82" s="80"/>
+      <c r="AE82" s="80"/>
+      <c r="AF82" s="80"/>
+      <c r="AG82" s="80"/>
+      <c r="AH82" s="80"/>
+      <c r="AI82" s="80"/>
+      <c r="AJ82" s="80"/>
+      <c r="AK82" s="80"/>
+      <c r="AL82" s="80"/>
+      <c r="AM82" s="80"/>
+      <c r="AN82" s="80"/>
+      <c r="AO82" s="80"/>
+      <c r="AP82" s="80"/>
+      <c r="AQ82" s="80"/>
+      <c r="AR82" s="80"/>
+      <c r="AS82" s="80"/>
+      <c r="AT82" s="80"/>
+      <c r="AU82" s="80"/>
+      <c r="AV82" s="80"/>
+      <c r="AW82" s="80"/>
+      <c r="AX82" s="80"/>
+      <c r="AY82" s="80"/>
+      <c r="AZ82" s="80"/>
+      <c r="BA82" s="80"/>
+      <c r="BB82" s="80"/>
+      <c r="BC82" s="80"/>
+      <c r="BD82" s="80"/>
+      <c r="BE82" s="80"/>
+      <c r="BF82" s="80"/>
+      <c r="BG82" s="80"/>
+      <c r="BH82" s="80"/>
+      <c r="BI82" s="80"/>
+      <c r="BJ82" s="80"/>
+      <c r="BK82" s="80"/>
+      <c r="BL82" s="80"/>
+      <c r="BM82" s="80"/>
+      <c r="BN82" s="80"/>
     </row>
     <row r="83" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A83" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.2.8</v>
-      </c>
-      <c r="B83" s="132" t="s">
-        <v>175</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.1</v>
+      </c>
+      <c r="B83" s="97" t="s">
+        <v>163</v>
       </c>
       <c r="D83" s="98"/>
       <c r="E83" s="75">
-        <v>44495</v>
+        <v>44485</v>
       </c>
       <c r="F83" s="76">
-        <f t="shared" ref="F83" si="36">IF(ISBLANK(E83)," - ",IF(G83=0,E83,E83+G83-1))</f>
-        <v>44495</v>
+        <f t="shared" si="7"/>
+        <v>44491</v>
       </c>
       <c r="G83" s="58">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H83" s="59">
         <v>0</v>
@@ -11913,22 +12052,22 @@
     </row>
     <row r="84" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A84" s="56" t="str">
-        <f t="shared" si="33"/>
-        <v>4.2.9</v>
-      </c>
-      <c r="B84" s="99" t="s">
-        <v>139</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.2</v>
+      </c>
+      <c r="B84" s="97" t="s">
+        <v>172</v>
       </c>
       <c r="D84" s="98"/>
       <c r="E84" s="75">
-        <v>44496</v>
+        <v>44492</v>
       </c>
       <c r="F84" s="76">
-        <f t="shared" si="34"/>
-        <v>44496</v>
+        <f t="shared" si="7"/>
+        <v>44501</v>
       </c>
       <c r="G84" s="58">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H84" s="59">
         <v>0</v>
@@ -11996,19 +12135,19 @@
     </row>
     <row r="85" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A85" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.2.10</v>
-      </c>
-      <c r="B85" s="132" t="s">
-        <v>175</v>
+        <f t="shared" ref="A85:A99" si="35">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.2.1</v>
+      </c>
+      <c r="B85" s="99" t="s">
+        <v>135</v>
       </c>
       <c r="D85" s="98"/>
       <c r="E85" s="75">
-        <v>44496</v>
+        <v>44492</v>
       </c>
       <c r="F85" s="76">
-        <f t="shared" si="34"/>
-        <v>44496</v>
+        <f t="shared" si="7"/>
+        <v>44492</v>
       </c>
       <c r="G85" s="58">
         <v>1</v>
@@ -12079,19 +12218,19 @@
     </row>
     <row r="86" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A86" s="56" t="str">
-        <f t="shared" si="33"/>
-        <v>4.2.11</v>
-      </c>
-      <c r="B86" s="99" t="s">
-        <v>140</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.2.2</v>
+      </c>
+      <c r="B86" s="132" t="s">
+        <v>175</v>
       </c>
       <c r="D86" s="98"/>
       <c r="E86" s="75">
-        <v>44497</v>
+        <v>44492</v>
       </c>
       <c r="F86" s="76">
-        <f t="shared" si="34"/>
-        <v>44497</v>
+        <f t="shared" ref="F86:F100" si="36">IF(ISBLANK(E86)," - ",IF(G86=0,E86,E86+G86-1))</f>
+        <v>44492</v>
       </c>
       <c r="G86" s="58">
         <v>1</v>
@@ -12162,19 +12301,19 @@
     </row>
     <row r="87" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A87" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.2.12</v>
-      </c>
-      <c r="B87" s="132" t="s">
-        <v>175</v>
+        <f t="shared" si="35"/>
+        <v>4.2.3</v>
+      </c>
+      <c r="B87" s="99" t="s">
+        <v>136</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="75">
-        <v>44497</v>
+        <v>44493</v>
       </c>
       <c r="F87" s="76">
-        <f t="shared" ref="F87" si="37">IF(ISBLANK(E87)," - ",IF(G87=0,E87,E87+G87-1))</f>
-        <v>44497</v>
+        <f t="shared" si="36"/>
+        <v>44493</v>
       </c>
       <c r="G87" s="58">
         <v>1</v>
@@ -12243,21 +12382,21 @@
       <c r="BM87" s="79"/>
       <c r="BN87" s="79"/>
     </row>
-    <row r="88" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A88" s="56" t="str">
-        <f t="shared" si="33"/>
-        <v>4.2.13</v>
-      </c>
-      <c r="B88" s="99" t="s">
-        <v>166</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.2.4</v>
+      </c>
+      <c r="B88" s="132" t="s">
+        <v>175</v>
       </c>
       <c r="D88" s="98"/>
       <c r="E88" s="75">
-        <v>44498</v>
+        <v>44493</v>
       </c>
       <c r="F88" s="76">
-        <f t="shared" si="34"/>
-        <v>44498</v>
+        <f t="shared" ref="F88" si="37">IF(ISBLANK(E88)," - ",IF(G88=0,E88,E88+G88-1))</f>
+        <v>44493</v>
       </c>
       <c r="G88" s="58">
         <v>1</v>
@@ -12266,8 +12405,7 @@
         <v>0</v>
       </c>
       <c r="I88" s="60">
-        <f t="shared" ref="I88:I90" si="38">IF(OR(F88=0,E88=0)," - ",NETWORKDAYS(E88,F88))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" s="73"/>
       <c r="K88" s="79"/>
@@ -12329,19 +12467,19 @@
     </row>
     <row r="89" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A89" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.2.14</v>
-      </c>
-      <c r="B89" s="132" t="s">
-        <v>175</v>
+        <f t="shared" si="35"/>
+        <v>4.2.5</v>
+      </c>
+      <c r="B89" s="99" t="s">
+        <v>137</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="75">
-        <v>44498</v>
+        <v>44494</v>
       </c>
       <c r="F89" s="76">
-        <f t="shared" si="34"/>
-        <v>44498</v>
+        <f t="shared" si="36"/>
+        <v>44494</v>
       </c>
       <c r="G89" s="58">
         <v>1</v>
@@ -12410,21 +12548,21 @@
       <c r="BM89" s="79"/>
       <c r="BN89" s="79"/>
     </row>
-    <row r="90" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A90" s="56" t="str">
-        <f t="shared" si="33"/>
-        <v>4.2.15</v>
-      </c>
-      <c r="B90" s="99" t="s">
-        <v>167</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.2.6</v>
+      </c>
+      <c r="B90" s="132" t="s">
+        <v>175</v>
       </c>
       <c r="D90" s="98"/>
       <c r="E90" s="75">
-        <v>44499</v>
+        <v>44494</v>
       </c>
       <c r="F90" s="76">
-        <f t="shared" si="34"/>
-        <v>44499</v>
+        <f t="shared" si="36"/>
+        <v>44494</v>
       </c>
       <c r="G90" s="58">
         <v>1</v>
@@ -12433,7 +12571,6 @@
         <v>0</v>
       </c>
       <c r="I90" s="60">
-        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="J90" s="73"/>
@@ -12496,19 +12633,19 @@
     </row>
     <row r="91" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A91" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.2.16</v>
-      </c>
-      <c r="B91" s="132" t="s">
-        <v>175</v>
+        <f t="shared" si="35"/>
+        <v>4.2.7</v>
+      </c>
+      <c r="B91" s="99" t="s">
+        <v>138</v>
       </c>
       <c r="D91" s="98"/>
       <c r="E91" s="75">
-        <v>44499</v>
+        <v>44495</v>
       </c>
       <c r="F91" s="76">
-        <f t="shared" si="34"/>
-        <v>44499</v>
+        <f t="shared" si="36"/>
+        <v>44495</v>
       </c>
       <c r="G91" s="58">
         <v>1</v>
@@ -12577,109 +12714,113 @@
       <c r="BM91" s="79"/>
       <c r="BN91" s="79"/>
     </row>
-    <row r="92" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A92" s="49" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>5</v>
-      </c>
-      <c r="B92" s="50" t="s">
-        <v>158</v>
-      </c>
-      <c r="D92" s="52"/>
-      <c r="E92" s="77"/>
-      <c r="F92" s="77" t="str">
-        <f t="shared" ref="F92:F93" si="39">IF(ISBLANK(E92)," - ",IF(G92=0,E92,E92+G92-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G92" s="53"/>
-      <c r="H92" s="54"/>
-      <c r="I92" s="55" t="str">
-        <f t="shared" ref="I92:I93" si="40">IF(OR(F92=0,E92=0)," - ",NETWORKDAYS(E92,F92))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J92" s="74"/>
-      <c r="K92" s="80"/>
-      <c r="L92" s="80"/>
-      <c r="M92" s="80"/>
-      <c r="N92" s="80"/>
-      <c r="O92" s="80"/>
-      <c r="P92" s="80"/>
-      <c r="Q92" s="80"/>
-      <c r="R92" s="80"/>
-      <c r="S92" s="80"/>
-      <c r="T92" s="80"/>
-      <c r="U92" s="80"/>
-      <c r="V92" s="80"/>
-      <c r="W92" s="80"/>
-      <c r="X92" s="80"/>
-      <c r="Y92" s="80"/>
-      <c r="Z92" s="80"/>
-      <c r="AA92" s="80"/>
-      <c r="AB92" s="80"/>
-      <c r="AC92" s="80"/>
-      <c r="AD92" s="80"/>
-      <c r="AE92" s="80"/>
-      <c r="AF92" s="80"/>
-      <c r="AG92" s="80"/>
-      <c r="AH92" s="80"/>
-      <c r="AI92" s="80"/>
-      <c r="AJ92" s="80"/>
-      <c r="AK92" s="80"/>
-      <c r="AL92" s="80"/>
-      <c r="AM92" s="80"/>
-      <c r="AN92" s="80"/>
-      <c r="AO92" s="80"/>
-      <c r="AP92" s="80"/>
-      <c r="AQ92" s="80"/>
-      <c r="AR92" s="80"/>
-      <c r="AS92" s="80"/>
-      <c r="AT92" s="80"/>
-      <c r="AU92" s="80"/>
-      <c r="AV92" s="80"/>
-      <c r="AW92" s="80"/>
-      <c r="AX92" s="80"/>
-      <c r="AY92" s="80"/>
-      <c r="AZ92" s="80"/>
-      <c r="BA92" s="80"/>
-      <c r="BB92" s="80"/>
-      <c r="BC92" s="80"/>
-      <c r="BD92" s="80"/>
-      <c r="BE92" s="80"/>
-      <c r="BF92" s="80"/>
-      <c r="BG92" s="80"/>
-      <c r="BH92" s="80"/>
-      <c r="BI92" s="80"/>
-      <c r="BJ92" s="80"/>
-      <c r="BK92" s="80"/>
-      <c r="BL92" s="80"/>
-      <c r="BM92" s="80"/>
-      <c r="BN92" s="80"/>
-    </row>
-    <row r="93" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A92" s="56" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.2.8</v>
+      </c>
+      <c r="B92" s="132" t="s">
+        <v>175</v>
+      </c>
+      <c r="D92" s="98"/>
+      <c r="E92" s="75">
+        <v>44495</v>
+      </c>
+      <c r="F92" s="76">
+        <f t="shared" ref="F92" si="38">IF(ISBLANK(E92)," - ",IF(G92=0,E92,E92+G92-1))</f>
+        <v>44495</v>
+      </c>
+      <c r="G92" s="58">
+        <v>1</v>
+      </c>
+      <c r="H92" s="59">
+        <v>0</v>
+      </c>
+      <c r="I92" s="60">
+        <v>0</v>
+      </c>
+      <c r="J92" s="73"/>
+      <c r="K92" s="79"/>
+      <c r="L92" s="79"/>
+      <c r="M92" s="79"/>
+      <c r="N92" s="79"/>
+      <c r="O92" s="79"/>
+      <c r="P92" s="79"/>
+      <c r="Q92" s="79"/>
+      <c r="R92" s="79"/>
+      <c r="S92" s="79"/>
+      <c r="T92" s="79"/>
+      <c r="U92" s="79"/>
+      <c r="V92" s="79"/>
+      <c r="W92" s="79"/>
+      <c r="X92" s="79"/>
+      <c r="Y92" s="79"/>
+      <c r="Z92" s="79"/>
+      <c r="AA92" s="79"/>
+      <c r="AB92" s="79"/>
+      <c r="AC92" s="79"/>
+      <c r="AD92" s="79"/>
+      <c r="AE92" s="79"/>
+      <c r="AF92" s="79"/>
+      <c r="AG92" s="79"/>
+      <c r="AH92" s="79"/>
+      <c r="AI92" s="79"/>
+      <c r="AJ92" s="79"/>
+      <c r="AK92" s="79"/>
+      <c r="AL92" s="79"/>
+      <c r="AM92" s="79"/>
+      <c r="AN92" s="79"/>
+      <c r="AO92" s="79"/>
+      <c r="AP92" s="79"/>
+      <c r="AQ92" s="79"/>
+      <c r="AR92" s="79"/>
+      <c r="AS92" s="79"/>
+      <c r="AT92" s="79"/>
+      <c r="AU92" s="79"/>
+      <c r="AV92" s="79"/>
+      <c r="AW92" s="79"/>
+      <c r="AX92" s="79"/>
+      <c r="AY92" s="79"/>
+      <c r="AZ92" s="79"/>
+      <c r="BA92" s="79"/>
+      <c r="BB92" s="79"/>
+      <c r="BC92" s="79"/>
+      <c r="BD92" s="79"/>
+      <c r="BE92" s="79"/>
+      <c r="BF92" s="79"/>
+      <c r="BG92" s="79"/>
+      <c r="BH92" s="79"/>
+      <c r="BI92" s="79"/>
+      <c r="BJ92" s="79"/>
+      <c r="BK92" s="79"/>
+      <c r="BL92" s="79"/>
+      <c r="BM92" s="79"/>
+      <c r="BN92" s="79"/>
+    </row>
+    <row r="93" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A93" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.1</v>
-      </c>
-      <c r="B93" s="97" t="s">
-        <v>150</v>
+        <f t="shared" si="35"/>
+        <v>4.2.9</v>
+      </c>
+      <c r="B93" s="99" t="s">
+        <v>139</v>
       </c>
       <c r="D93" s="98"/>
       <c r="E93" s="75">
-        <v>44500</v>
+        <v>44496</v>
       </c>
       <c r="F93" s="76">
-        <f t="shared" si="39"/>
-        <v>44501</v>
+        <f t="shared" si="36"/>
+        <v>44496</v>
       </c>
       <c r="G93" s="58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H93" s="59">
         <v>0</v>
       </c>
       <c r="I93" s="60">
-        <f t="shared" si="40"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" s="73"/>
       <c r="K93" s="79"/>
@@ -12741,29 +12882,28 @@
     </row>
     <row r="94" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A94" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.2</v>
-      </c>
-      <c r="B94" s="97" t="s">
-        <v>151</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.2.10</v>
+      </c>
+      <c r="B94" s="132" t="s">
+        <v>175</v>
       </c>
       <c r="D94" s="98"/>
       <c r="E94" s="75">
-        <v>44501</v>
+        <v>44496</v>
       </c>
       <c r="F94" s="76">
-        <f t="shared" ref="F94" si="41">IF(ISBLANK(E94)," - ",IF(G94=0,E94,E94+G94-1))</f>
-        <v>44502</v>
+        <f t="shared" si="36"/>
+        <v>44496</v>
       </c>
       <c r="G94" s="58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H94" s="59">
         <v>0</v>
       </c>
       <c r="I94" s="60">
-        <f t="shared" ref="I94" si="42">IF(OR(F94=0,E94=0)," - ",NETWORKDAYS(E94,F94))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J94" s="73"/>
       <c r="K94" s="79"/>
@@ -12823,31 +12963,30 @@
       <c r="BM94" s="79"/>
       <c r="BN94" s="79"/>
     </row>
-    <row r="95" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A95" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.3</v>
-      </c>
-      <c r="B95" s="97" t="s">
-        <v>152</v>
+        <f t="shared" si="35"/>
+        <v>4.2.11</v>
+      </c>
+      <c r="B95" s="99" t="s">
+        <v>140</v>
       </c>
       <c r="D95" s="98"/>
       <c r="E95" s="75">
-        <v>44502</v>
+        <v>44497</v>
       </c>
       <c r="F95" s="76">
-        <f t="shared" ref="F95:F96" si="43">IF(ISBLANK(E95)," - ",IF(G95=0,E95,E95+G95-1))</f>
-        <v>44503</v>
+        <f t="shared" si="36"/>
+        <v>44497</v>
       </c>
       <c r="G95" s="58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H95" s="59">
         <v>0</v>
       </c>
       <c r="I95" s="60">
-        <f t="shared" ref="I95:I96" si="44">IF(OR(F95=0,E95=0)," - ",NETWORKDAYS(E95,F95))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J95" s="73"/>
       <c r="K95" s="79"/>
@@ -12907,109 +13046,114 @@
       <c r="BM95" s="79"/>
       <c r="BN95" s="79"/>
     </row>
-    <row r="96" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A96" s="49" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>6</v>
-      </c>
-      <c r="B96" s="50" t="s">
-        <v>173</v>
-      </c>
-      <c r="D96" s="52"/>
-      <c r="E96" s="77"/>
-      <c r="F96" s="77" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G96" s="53"/>
-      <c r="H96" s="54"/>
-      <c r="I96" s="55" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J96" s="74"/>
-      <c r="K96" s="80"/>
-      <c r="L96" s="80"/>
-      <c r="M96" s="80"/>
-      <c r="N96" s="80"/>
-      <c r="O96" s="80"/>
-      <c r="P96" s="80"/>
-      <c r="Q96" s="80"/>
-      <c r="R96" s="80"/>
-      <c r="S96" s="80"/>
-      <c r="T96" s="80"/>
-      <c r="U96" s="80"/>
-      <c r="V96" s="80"/>
-      <c r="W96" s="80"/>
-      <c r="X96" s="80"/>
-      <c r="Y96" s="80"/>
-      <c r="Z96" s="80"/>
-      <c r="AA96" s="80"/>
-      <c r="AB96" s="80"/>
-      <c r="AC96" s="80"/>
-      <c r="AD96" s="80"/>
-      <c r="AE96" s="80"/>
-      <c r="AF96" s="80"/>
-      <c r="AG96" s="80"/>
-      <c r="AH96" s="80"/>
-      <c r="AI96" s="80"/>
-      <c r="AJ96" s="80"/>
-      <c r="AK96" s="80"/>
-      <c r="AL96" s="80"/>
-      <c r="AM96" s="80"/>
-      <c r="AN96" s="80"/>
-      <c r="AO96" s="80"/>
-      <c r="AP96" s="80"/>
-      <c r="AQ96" s="80"/>
-      <c r="AR96" s="80"/>
-      <c r="AS96" s="80"/>
-      <c r="AT96" s="80"/>
-      <c r="AU96" s="80"/>
-      <c r="AV96" s="80"/>
-      <c r="AW96" s="80"/>
-      <c r="AX96" s="80"/>
-      <c r="AY96" s="80"/>
-      <c r="AZ96" s="80"/>
-      <c r="BA96" s="80"/>
-      <c r="BB96" s="80"/>
-      <c r="BC96" s="80"/>
-      <c r="BD96" s="80"/>
-      <c r="BE96" s="80"/>
-      <c r="BF96" s="80"/>
-      <c r="BG96" s="80"/>
-      <c r="BH96" s="80"/>
-      <c r="BI96" s="80"/>
-      <c r="BJ96" s="80"/>
-      <c r="BK96" s="80"/>
-      <c r="BL96" s="80"/>
-      <c r="BM96" s="80"/>
-      <c r="BN96" s="80"/>
-    </row>
-    <row r="97" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A96" s="56" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.2.12</v>
+      </c>
+      <c r="B96" s="132" t="s">
+        <v>175</v>
+      </c>
+      <c r="D96" s="98"/>
+      <c r="E96" s="75">
+        <v>44497</v>
+      </c>
+      <c r="F96" s="76">
+        <f t="shared" ref="F96" si="39">IF(ISBLANK(E96)," - ",IF(G96=0,E96,E96+G96-1))</f>
+        <v>44497</v>
+      </c>
+      <c r="G96" s="58">
+        <v>1</v>
+      </c>
+      <c r="H96" s="59">
+        <v>0</v>
+      </c>
+      <c r="I96" s="60">
+        <v>0</v>
+      </c>
+      <c r="J96" s="73"/>
+      <c r="K96" s="79"/>
+      <c r="L96" s="79"/>
+      <c r="M96" s="79"/>
+      <c r="N96" s="79"/>
+      <c r="O96" s="79"/>
+      <c r="P96" s="79"/>
+      <c r="Q96" s="79"/>
+      <c r="R96" s="79"/>
+      <c r="S96" s="79"/>
+      <c r="T96" s="79"/>
+      <c r="U96" s="79"/>
+      <c r="V96" s="79"/>
+      <c r="W96" s="79"/>
+      <c r="X96" s="79"/>
+      <c r="Y96" s="79"/>
+      <c r="Z96" s="79"/>
+      <c r="AA96" s="79"/>
+      <c r="AB96" s="79"/>
+      <c r="AC96" s="79"/>
+      <c r="AD96" s="79"/>
+      <c r="AE96" s="79"/>
+      <c r="AF96" s="79"/>
+      <c r="AG96" s="79"/>
+      <c r="AH96" s="79"/>
+      <c r="AI96" s="79"/>
+      <c r="AJ96" s="79"/>
+      <c r="AK96" s="79"/>
+      <c r="AL96" s="79"/>
+      <c r="AM96" s="79"/>
+      <c r="AN96" s="79"/>
+      <c r="AO96" s="79"/>
+      <c r="AP96" s="79"/>
+      <c r="AQ96" s="79"/>
+      <c r="AR96" s="79"/>
+      <c r="AS96" s="79"/>
+      <c r="AT96" s="79"/>
+      <c r="AU96" s="79"/>
+      <c r="AV96" s="79"/>
+      <c r="AW96" s="79"/>
+      <c r="AX96" s="79"/>
+      <c r="AY96" s="79"/>
+      <c r="AZ96" s="79"/>
+      <c r="BA96" s="79"/>
+      <c r="BB96" s="79"/>
+      <c r="BC96" s="79"/>
+      <c r="BD96" s="79"/>
+      <c r="BE96" s="79"/>
+      <c r="BF96" s="79"/>
+      <c r="BG96" s="79"/>
+      <c r="BH96" s="79"/>
+      <c r="BI96" s="79"/>
+      <c r="BJ96" s="79"/>
+      <c r="BK96" s="79"/>
+      <c r="BL96" s="79"/>
+      <c r="BM96" s="79"/>
+      <c r="BN96" s="79"/>
+    </row>
+    <row r="97" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A97" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>6.1</v>
-      </c>
-      <c r="B97" s="97" t="s">
-        <v>153</v>
+        <f t="shared" si="35"/>
+        <v>4.2.13</v>
+      </c>
+      <c r="B97" s="99" t="s">
+        <v>166</v>
       </c>
       <c r="D97" s="98"/>
       <c r="E97" s="75">
-        <v>44503</v>
+        <v>44498</v>
       </c>
       <c r="F97" s="76">
-        <f t="shared" ref="F97" si="45">IF(ISBLANK(E97)," - ",IF(G97=0,E97,E97+G97-1))</f>
-        <v>44505</v>
+        <f t="shared" si="36"/>
+        <v>44498</v>
       </c>
       <c r="G97" s="58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H97" s="59">
         <v>0</v>
       </c>
       <c r="I97" s="60">
-        <f t="shared" ref="I97" si="46">IF(OR(F97=0,E97=0)," - ",NETWORKDAYS(E97,F97))</f>
-        <v>3</v>
+        <f t="shared" ref="I97:I99" si="40">IF(OR(F97=0,E97=0)," - ",NETWORKDAYS(E97,F97))</f>
+        <v>1</v>
       </c>
       <c r="J97" s="73"/>
       <c r="K97" s="79"/>
@@ -13069,31 +13213,30 @@
       <c r="BM97" s="79"/>
       <c r="BN97" s="79"/>
     </row>
-    <row r="98" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A98" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>6.2</v>
-      </c>
-      <c r="B98" s="97" t="s">
-        <v>154</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.2.14</v>
+      </c>
+      <c r="B98" s="132" t="s">
+        <v>175</v>
       </c>
       <c r="D98" s="98"/>
       <c r="E98" s="75">
-        <v>44505</v>
+        <v>44498</v>
       </c>
       <c r="F98" s="76">
-        <f t="shared" ref="F98:F102" si="47">IF(ISBLANK(E98)," - ",IF(G98=0,E98,E98+G98-1))</f>
-        <v>44507</v>
+        <f t="shared" si="36"/>
+        <v>44498</v>
       </c>
       <c r="G98" s="58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H98" s="59">
         <v>0</v>
       </c>
       <c r="I98" s="60">
-        <f t="shared" ref="I98:I102" si="48">IF(OR(F98=0,E98=0)," - ",NETWORKDAYS(E98,F98))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" s="73"/>
       <c r="K98" s="79"/>
@@ -13153,99 +13296,105 @@
       <c r="BM98" s="79"/>
       <c r="BN98" s="79"/>
     </row>
-    <row r="99" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A99" s="49" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>7</v>
-      </c>
-      <c r="B99" s="50" t="s">
-        <v>174</v>
-      </c>
-      <c r="D99" s="52"/>
-      <c r="E99" s="77"/>
-      <c r="F99" s="77" t="str">
-        <f t="shared" si="47"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G99" s="53"/>
-      <c r="H99" s="54"/>
-      <c r="I99" s="55" t="str">
-        <f t="shared" si="48"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J99" s="74"/>
-      <c r="K99" s="80"/>
-      <c r="L99" s="80"/>
-      <c r="M99" s="80"/>
-      <c r="N99" s="80"/>
-      <c r="O99" s="80"/>
-      <c r="P99" s="80"/>
-      <c r="Q99" s="80"/>
-      <c r="R99" s="80"/>
-      <c r="S99" s="80"/>
-      <c r="T99" s="80"/>
-      <c r="U99" s="80"/>
-      <c r="V99" s="80"/>
-      <c r="W99" s="80"/>
-      <c r="X99" s="80"/>
-      <c r="Y99" s="80"/>
-      <c r="Z99" s="80"/>
-      <c r="AA99" s="80"/>
-      <c r="AB99" s="80"/>
-      <c r="AC99" s="80"/>
-      <c r="AD99" s="80"/>
-      <c r="AE99" s="80"/>
-      <c r="AF99" s="80"/>
-      <c r="AG99" s="80"/>
-      <c r="AH99" s="80"/>
-      <c r="AI99" s="80"/>
-      <c r="AJ99" s="80"/>
-      <c r="AK99" s="80"/>
-      <c r="AL99" s="80"/>
-      <c r="AM99" s="80"/>
-      <c r="AN99" s="80"/>
-      <c r="AO99" s="80"/>
-      <c r="AP99" s="80"/>
-      <c r="AQ99" s="80"/>
-      <c r="AR99" s="80"/>
-      <c r="AS99" s="80"/>
-      <c r="AT99" s="80"/>
-      <c r="AU99" s="80"/>
-      <c r="AV99" s="80"/>
-      <c r="AW99" s="80"/>
-      <c r="AX99" s="80"/>
-      <c r="AY99" s="80"/>
-      <c r="AZ99" s="80"/>
-      <c r="BA99" s="80"/>
-      <c r="BB99" s="80"/>
-      <c r="BC99" s="80"/>
-      <c r="BD99" s="80"/>
-      <c r="BE99" s="80"/>
-      <c r="BF99" s="80"/>
-      <c r="BG99" s="80"/>
-      <c r="BH99" s="80"/>
-      <c r="BI99" s="80"/>
-      <c r="BJ99" s="80"/>
-      <c r="BK99" s="80"/>
-      <c r="BL99" s="80"/>
-      <c r="BM99" s="80"/>
-      <c r="BN99" s="80"/>
+    <row r="99" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A99" s="56" t="str">
+        <f t="shared" si="35"/>
+        <v>4.2.15</v>
+      </c>
+      <c r="B99" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="D99" s="98"/>
+      <c r="E99" s="75">
+        <v>44499</v>
+      </c>
+      <c r="F99" s="76">
+        <f t="shared" si="36"/>
+        <v>44499</v>
+      </c>
+      <c r="G99" s="58">
+        <v>1</v>
+      </c>
+      <c r="H99" s="59">
+        <v>0</v>
+      </c>
+      <c r="I99" s="60">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="J99" s="73"/>
+      <c r="K99" s="79"/>
+      <c r="L99" s="79"/>
+      <c r="M99" s="79"/>
+      <c r="N99" s="79"/>
+      <c r="O99" s="79"/>
+      <c r="P99" s="79"/>
+      <c r="Q99" s="79"/>
+      <c r="R99" s="79"/>
+      <c r="S99" s="79"/>
+      <c r="T99" s="79"/>
+      <c r="U99" s="79"/>
+      <c r="V99" s="79"/>
+      <c r="W99" s="79"/>
+      <c r="X99" s="79"/>
+      <c r="Y99" s="79"/>
+      <c r="Z99" s="79"/>
+      <c r="AA99" s="79"/>
+      <c r="AB99" s="79"/>
+      <c r="AC99" s="79"/>
+      <c r="AD99" s="79"/>
+      <c r="AE99" s="79"/>
+      <c r="AF99" s="79"/>
+      <c r="AG99" s="79"/>
+      <c r="AH99" s="79"/>
+      <c r="AI99" s="79"/>
+      <c r="AJ99" s="79"/>
+      <c r="AK99" s="79"/>
+      <c r="AL99" s="79"/>
+      <c r="AM99" s="79"/>
+      <c r="AN99" s="79"/>
+      <c r="AO99" s="79"/>
+      <c r="AP99" s="79"/>
+      <c r="AQ99" s="79"/>
+      <c r="AR99" s="79"/>
+      <c r="AS99" s="79"/>
+      <c r="AT99" s="79"/>
+      <c r="AU99" s="79"/>
+      <c r="AV99" s="79"/>
+      <c r="AW99" s="79"/>
+      <c r="AX99" s="79"/>
+      <c r="AY99" s="79"/>
+      <c r="AZ99" s="79"/>
+      <c r="BA99" s="79"/>
+      <c r="BB99" s="79"/>
+      <c r="BC99" s="79"/>
+      <c r="BD99" s="79"/>
+      <c r="BE99" s="79"/>
+      <c r="BF99" s="79"/>
+      <c r="BG99" s="79"/>
+      <c r="BH99" s="79"/>
+      <c r="BI99" s="79"/>
+      <c r="BJ99" s="79"/>
+      <c r="BK99" s="79"/>
+      <c r="BL99" s="79"/>
+      <c r="BM99" s="79"/>
+      <c r="BN99" s="79"/>
     </row>
     <row r="100" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A100" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>7.1</v>
-      </c>
-      <c r="B100" s="97" t="s">
-        <v>7</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.2.16</v>
+      </c>
+      <c r="B100" s="132" t="s">
+        <v>175</v>
       </c>
       <c r="D100" s="98"/>
       <c r="E100" s="75">
-        <v>43131</v>
+        <v>44499</v>
       </c>
       <c r="F100" s="76">
-        <f t="shared" si="47"/>
-        <v>43131</v>
+        <f t="shared" si="36"/>
+        <v>44499</v>
       </c>
       <c r="G100" s="58">
         <v>1</v>
@@ -13254,8 +13403,7 @@
         <v>0</v>
       </c>
       <c r="I100" s="60">
-        <f t="shared" si="48"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" s="73"/>
       <c r="K100" s="79"/>
@@ -13315,114 +13463,108 @@
       <c r="BM100" s="79"/>
       <c r="BN100" s="79"/>
     </row>
-    <row r="101" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A101" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>7.2</v>
-      </c>
-      <c r="B101" s="97" t="s">
-        <v>7</v>
-      </c>
-      <c r="D101" s="98"/>
-      <c r="E101" s="75">
-        <v>43132</v>
-      </c>
-      <c r="F101" s="76">
-        <f t="shared" si="47"/>
-        <v>43132</v>
-      </c>
-      <c r="G101" s="58">
-        <v>1</v>
-      </c>
-      <c r="H101" s="59">
-        <v>0</v>
-      </c>
-      <c r="I101" s="60">
-        <f t="shared" si="48"/>
-        <v>1</v>
-      </c>
-      <c r="J101" s="73"/>
-      <c r="K101" s="79"/>
-      <c r="L101" s="79"/>
-      <c r="M101" s="79"/>
-      <c r="N101" s="79"/>
-      <c r="O101" s="79"/>
-      <c r="P101" s="79"/>
-      <c r="Q101" s="79"/>
-      <c r="R101" s="79"/>
-      <c r="S101" s="79"/>
-      <c r="T101" s="79"/>
-      <c r="U101" s="79"/>
-      <c r="V101" s="79"/>
-      <c r="W101" s="79"/>
-      <c r="X101" s="79"/>
-      <c r="Y101" s="79"/>
-      <c r="Z101" s="79"/>
-      <c r="AA101" s="79"/>
-      <c r="AB101" s="79"/>
-      <c r="AC101" s="79"/>
-      <c r="AD101" s="79"/>
-      <c r="AE101" s="79"/>
-      <c r="AF101" s="79"/>
-      <c r="AG101" s="79"/>
-      <c r="AH101" s="79"/>
-      <c r="AI101" s="79"/>
-      <c r="AJ101" s="79"/>
-      <c r="AK101" s="79"/>
-      <c r="AL101" s="79"/>
-      <c r="AM101" s="79"/>
-      <c r="AN101" s="79"/>
-      <c r="AO101" s="79"/>
-      <c r="AP101" s="79"/>
-      <c r="AQ101" s="79"/>
-      <c r="AR101" s="79"/>
-      <c r="AS101" s="79"/>
-      <c r="AT101" s="79"/>
-      <c r="AU101" s="79"/>
-      <c r="AV101" s="79"/>
-      <c r="AW101" s="79"/>
-      <c r="AX101" s="79"/>
-      <c r="AY101" s="79"/>
-      <c r="AZ101" s="79"/>
-      <c r="BA101" s="79"/>
-      <c r="BB101" s="79"/>
-      <c r="BC101" s="79"/>
-      <c r="BD101" s="79"/>
-      <c r="BE101" s="79"/>
-      <c r="BF101" s="79"/>
-      <c r="BG101" s="79"/>
-      <c r="BH101" s="79"/>
-      <c r="BI101" s="79"/>
-      <c r="BJ101" s="79"/>
-      <c r="BK101" s="79"/>
-      <c r="BL101" s="79"/>
-      <c r="BM101" s="79"/>
-      <c r="BN101" s="79"/>
-    </row>
-    <row r="102" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A101" s="49" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>5</v>
+      </c>
+      <c r="B101" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="D101" s="52"/>
+      <c r="E101" s="77"/>
+      <c r="F101" s="77" t="str">
+        <f t="shared" ref="F101:F102" si="41">IF(ISBLANK(E101)," - ",IF(G101=0,E101,E101+G101-1))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G101" s="53"/>
+      <c r="H101" s="54"/>
+      <c r="I101" s="55" t="str">
+        <f t="shared" ref="I101:I102" si="42">IF(OR(F101=0,E101=0)," - ",NETWORKDAYS(E101,F101))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J101" s="74"/>
+      <c r="K101" s="80"/>
+      <c r="L101" s="80"/>
+      <c r="M101" s="80"/>
+      <c r="N101" s="80"/>
+      <c r="O101" s="80"/>
+      <c r="P101" s="80"/>
+      <c r="Q101" s="80"/>
+      <c r="R101" s="80"/>
+      <c r="S101" s="80"/>
+      <c r="T101" s="80"/>
+      <c r="U101" s="80"/>
+      <c r="V101" s="80"/>
+      <c r="W101" s="80"/>
+      <c r="X101" s="80"/>
+      <c r="Y101" s="80"/>
+      <c r="Z101" s="80"/>
+      <c r="AA101" s="80"/>
+      <c r="AB101" s="80"/>
+      <c r="AC101" s="80"/>
+      <c r="AD101" s="80"/>
+      <c r="AE101" s="80"/>
+      <c r="AF101" s="80"/>
+      <c r="AG101" s="80"/>
+      <c r="AH101" s="80"/>
+      <c r="AI101" s="80"/>
+      <c r="AJ101" s="80"/>
+      <c r="AK101" s="80"/>
+      <c r="AL101" s="80"/>
+      <c r="AM101" s="80"/>
+      <c r="AN101" s="80"/>
+      <c r="AO101" s="80"/>
+      <c r="AP101" s="80"/>
+      <c r="AQ101" s="80"/>
+      <c r="AR101" s="80"/>
+      <c r="AS101" s="80"/>
+      <c r="AT101" s="80"/>
+      <c r="AU101" s="80"/>
+      <c r="AV101" s="80"/>
+      <c r="AW101" s="80"/>
+      <c r="AX101" s="80"/>
+      <c r="AY101" s="80"/>
+      <c r="AZ101" s="80"/>
+      <c r="BA101" s="80"/>
+      <c r="BB101" s="80"/>
+      <c r="BC101" s="80"/>
+      <c r="BD101" s="80"/>
+      <c r="BE101" s="80"/>
+      <c r="BF101" s="80"/>
+      <c r="BG101" s="80"/>
+      <c r="BH101" s="80"/>
+      <c r="BI101" s="80"/>
+      <c r="BJ101" s="80"/>
+      <c r="BK101" s="80"/>
+      <c r="BL101" s="80"/>
+      <c r="BM101" s="80"/>
+      <c r="BN101" s="80"/>
+    </row>
+    <row r="102" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A102" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>7.3</v>
+        <v>5.1</v>
       </c>
       <c r="B102" s="97" t="s">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="D102" s="98"/>
       <c r="E102" s="75">
-        <v>43133</v>
+        <v>44500</v>
       </c>
       <c r="F102" s="76">
-        <f t="shared" si="47"/>
-        <v>43133</v>
+        <f t="shared" si="41"/>
+        <v>44501</v>
       </c>
       <c r="G102" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H102" s="59">
         <v>0</v>
       </c>
       <c r="I102" s="60">
-        <f t="shared" si="48"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="J102" s="73"/>
@@ -13483,18 +13625,753 @@
       <c r="BM102" s="79"/>
       <c r="BN102" s="79"/>
     </row>
+    <row r="103" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A103" s="56" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>5.2</v>
+      </c>
+      <c r="B103" s="97" t="s">
+        <v>151</v>
+      </c>
+      <c r="D103" s="98"/>
+      <c r="E103" s="75">
+        <v>44501</v>
+      </c>
+      <c r="F103" s="76">
+        <f t="shared" ref="F103" si="43">IF(ISBLANK(E103)," - ",IF(G103=0,E103,E103+G103-1))</f>
+        <v>44502</v>
+      </c>
+      <c r="G103" s="58">
+        <v>2</v>
+      </c>
+      <c r="H103" s="59">
+        <v>0</v>
+      </c>
+      <c r="I103" s="60">
+        <f t="shared" ref="I103" si="44">IF(OR(F103=0,E103=0)," - ",NETWORKDAYS(E103,F103))</f>
+        <v>2</v>
+      </c>
+      <c r="J103" s="73"/>
+      <c r="K103" s="79"/>
+      <c r="L103" s="79"/>
+      <c r="M103" s="79"/>
+      <c r="N103" s="79"/>
+      <c r="O103" s="79"/>
+      <c r="P103" s="79"/>
+      <c r="Q103" s="79"/>
+      <c r="R103" s="79"/>
+      <c r="S103" s="79"/>
+      <c r="T103" s="79"/>
+      <c r="U103" s="79"/>
+      <c r="V103" s="79"/>
+      <c r="W103" s="79"/>
+      <c r="X103" s="79"/>
+      <c r="Y103" s="79"/>
+      <c r="Z103" s="79"/>
+      <c r="AA103" s="79"/>
+      <c r="AB103" s="79"/>
+      <c r="AC103" s="79"/>
+      <c r="AD103" s="79"/>
+      <c r="AE103" s="79"/>
+      <c r="AF103" s="79"/>
+      <c r="AG103" s="79"/>
+      <c r="AH103" s="79"/>
+      <c r="AI103" s="79"/>
+      <c r="AJ103" s="79"/>
+      <c r="AK103" s="79"/>
+      <c r="AL103" s="79"/>
+      <c r="AM103" s="79"/>
+      <c r="AN103" s="79"/>
+      <c r="AO103" s="79"/>
+      <c r="AP103" s="79"/>
+      <c r="AQ103" s="79"/>
+      <c r="AR103" s="79"/>
+      <c r="AS103" s="79"/>
+      <c r="AT103" s="79"/>
+      <c r="AU103" s="79"/>
+      <c r="AV103" s="79"/>
+      <c r="AW103" s="79"/>
+      <c r="AX103" s="79"/>
+      <c r="AY103" s="79"/>
+      <c r="AZ103" s="79"/>
+      <c r="BA103" s="79"/>
+      <c r="BB103" s="79"/>
+      <c r="BC103" s="79"/>
+      <c r="BD103" s="79"/>
+      <c r="BE103" s="79"/>
+      <c r="BF103" s="79"/>
+      <c r="BG103" s="79"/>
+      <c r="BH103" s="79"/>
+      <c r="BI103" s="79"/>
+      <c r="BJ103" s="79"/>
+      <c r="BK103" s="79"/>
+      <c r="BL103" s="79"/>
+      <c r="BM103" s="79"/>
+      <c r="BN103" s="79"/>
+    </row>
+    <row r="104" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A104" s="56" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>5.3</v>
+      </c>
+      <c r="B104" s="97" t="s">
+        <v>152</v>
+      </c>
+      <c r="D104" s="98"/>
+      <c r="E104" s="75">
+        <v>44502</v>
+      </c>
+      <c r="F104" s="76">
+        <f t="shared" ref="F104:F105" si="45">IF(ISBLANK(E104)," - ",IF(G104=0,E104,E104+G104-1))</f>
+        <v>44503</v>
+      </c>
+      <c r="G104" s="58">
+        <v>2</v>
+      </c>
+      <c r="H104" s="59">
+        <v>0</v>
+      </c>
+      <c r="I104" s="60">
+        <f t="shared" ref="I104:I105" si="46">IF(OR(F104=0,E104=0)," - ",NETWORKDAYS(E104,F104))</f>
+        <v>2</v>
+      </c>
+      <c r="J104" s="73"/>
+      <c r="K104" s="79"/>
+      <c r="L104" s="79"/>
+      <c r="M104" s="79"/>
+      <c r="N104" s="79"/>
+      <c r="O104" s="79"/>
+      <c r="P104" s="79"/>
+      <c r="Q104" s="79"/>
+      <c r="R104" s="79"/>
+      <c r="S104" s="79"/>
+      <c r="T104" s="79"/>
+      <c r="U104" s="79"/>
+      <c r="V104" s="79"/>
+      <c r="W104" s="79"/>
+      <c r="X104" s="79"/>
+      <c r="Y104" s="79"/>
+      <c r="Z104" s="79"/>
+      <c r="AA104" s="79"/>
+      <c r="AB104" s="79"/>
+      <c r="AC104" s="79"/>
+      <c r="AD104" s="79"/>
+      <c r="AE104" s="79"/>
+      <c r="AF104" s="79"/>
+      <c r="AG104" s="79"/>
+      <c r="AH104" s="79"/>
+      <c r="AI104" s="79"/>
+      <c r="AJ104" s="79"/>
+      <c r="AK104" s="79"/>
+      <c r="AL104" s="79"/>
+      <c r="AM104" s="79"/>
+      <c r="AN104" s="79"/>
+      <c r="AO104" s="79"/>
+      <c r="AP104" s="79"/>
+      <c r="AQ104" s="79"/>
+      <c r="AR104" s="79"/>
+      <c r="AS104" s="79"/>
+      <c r="AT104" s="79"/>
+      <c r="AU104" s="79"/>
+      <c r="AV104" s="79"/>
+      <c r="AW104" s="79"/>
+      <c r="AX104" s="79"/>
+      <c r="AY104" s="79"/>
+      <c r="AZ104" s="79"/>
+      <c r="BA104" s="79"/>
+      <c r="BB104" s="79"/>
+      <c r="BC104" s="79"/>
+      <c r="BD104" s="79"/>
+      <c r="BE104" s="79"/>
+      <c r="BF104" s="79"/>
+      <c r="BG104" s="79"/>
+      <c r="BH104" s="79"/>
+      <c r="BI104" s="79"/>
+      <c r="BJ104" s="79"/>
+      <c r="BK104" s="79"/>
+      <c r="BL104" s="79"/>
+      <c r="BM104" s="79"/>
+      <c r="BN104" s="79"/>
+    </row>
+    <row r="105" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A105" s="49" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>6</v>
+      </c>
+      <c r="B105" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="D105" s="52"/>
+      <c r="E105" s="77"/>
+      <c r="F105" s="77" t="str">
+        <f t="shared" si="45"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G105" s="53"/>
+      <c r="H105" s="54"/>
+      <c r="I105" s="55" t="str">
+        <f t="shared" si="46"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J105" s="74"/>
+      <c r="K105" s="80"/>
+      <c r="L105" s="80"/>
+      <c r="M105" s="80"/>
+      <c r="N105" s="80"/>
+      <c r="O105" s="80"/>
+      <c r="P105" s="80"/>
+      <c r="Q105" s="80"/>
+      <c r="R105" s="80"/>
+      <c r="S105" s="80"/>
+      <c r="T105" s="80"/>
+      <c r="U105" s="80"/>
+      <c r="V105" s="80"/>
+      <c r="W105" s="80"/>
+      <c r="X105" s="80"/>
+      <c r="Y105" s="80"/>
+      <c r="Z105" s="80"/>
+      <c r="AA105" s="80"/>
+      <c r="AB105" s="80"/>
+      <c r="AC105" s="80"/>
+      <c r="AD105" s="80"/>
+      <c r="AE105" s="80"/>
+      <c r="AF105" s="80"/>
+      <c r="AG105" s="80"/>
+      <c r="AH105" s="80"/>
+      <c r="AI105" s="80"/>
+      <c r="AJ105" s="80"/>
+      <c r="AK105" s="80"/>
+      <c r="AL105" s="80"/>
+      <c r="AM105" s="80"/>
+      <c r="AN105" s="80"/>
+      <c r="AO105" s="80"/>
+      <c r="AP105" s="80"/>
+      <c r="AQ105" s="80"/>
+      <c r="AR105" s="80"/>
+      <c r="AS105" s="80"/>
+      <c r="AT105" s="80"/>
+      <c r="AU105" s="80"/>
+      <c r="AV105" s="80"/>
+      <c r="AW105" s="80"/>
+      <c r="AX105" s="80"/>
+      <c r="AY105" s="80"/>
+      <c r="AZ105" s="80"/>
+      <c r="BA105" s="80"/>
+      <c r="BB105" s="80"/>
+      <c r="BC105" s="80"/>
+      <c r="BD105" s="80"/>
+      <c r="BE105" s="80"/>
+      <c r="BF105" s="80"/>
+      <c r="BG105" s="80"/>
+      <c r="BH105" s="80"/>
+      <c r="BI105" s="80"/>
+      <c r="BJ105" s="80"/>
+      <c r="BK105" s="80"/>
+      <c r="BL105" s="80"/>
+      <c r="BM105" s="80"/>
+      <c r="BN105" s="80"/>
+    </row>
+    <row r="106" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A106" s="56" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>6.1</v>
+      </c>
+      <c r="B106" s="97" t="s">
+        <v>153</v>
+      </c>
+      <c r="D106" s="98"/>
+      <c r="E106" s="75">
+        <v>44503</v>
+      </c>
+      <c r="F106" s="76">
+        <f t="shared" ref="F106" si="47">IF(ISBLANK(E106)," - ",IF(G106=0,E106,E106+G106-1))</f>
+        <v>44505</v>
+      </c>
+      <c r="G106" s="58">
+        <v>3</v>
+      </c>
+      <c r="H106" s="59">
+        <v>0</v>
+      </c>
+      <c r="I106" s="60">
+        <f t="shared" ref="I106" si="48">IF(OR(F106=0,E106=0)," - ",NETWORKDAYS(E106,F106))</f>
+        <v>3</v>
+      </c>
+      <c r="J106" s="73"/>
+      <c r="K106" s="79"/>
+      <c r="L106" s="79"/>
+      <c r="M106" s="79"/>
+      <c r="N106" s="79"/>
+      <c r="O106" s="79"/>
+      <c r="P106" s="79"/>
+      <c r="Q106" s="79"/>
+      <c r="R106" s="79"/>
+      <c r="S106" s="79"/>
+      <c r="T106" s="79"/>
+      <c r="U106" s="79"/>
+      <c r="V106" s="79"/>
+      <c r="W106" s="79"/>
+      <c r="X106" s="79"/>
+      <c r="Y106" s="79"/>
+      <c r="Z106" s="79"/>
+      <c r="AA106" s="79"/>
+      <c r="AB106" s="79"/>
+      <c r="AC106" s="79"/>
+      <c r="AD106" s="79"/>
+      <c r="AE106" s="79"/>
+      <c r="AF106" s="79"/>
+      <c r="AG106" s="79"/>
+      <c r="AH106" s="79"/>
+      <c r="AI106" s="79"/>
+      <c r="AJ106" s="79"/>
+      <c r="AK106" s="79"/>
+      <c r="AL106" s="79"/>
+      <c r="AM106" s="79"/>
+      <c r="AN106" s="79"/>
+      <c r="AO106" s="79"/>
+      <c r="AP106" s="79"/>
+      <c r="AQ106" s="79"/>
+      <c r="AR106" s="79"/>
+      <c r="AS106" s="79"/>
+      <c r="AT106" s="79"/>
+      <c r="AU106" s="79"/>
+      <c r="AV106" s="79"/>
+      <c r="AW106" s="79"/>
+      <c r="AX106" s="79"/>
+      <c r="AY106" s="79"/>
+      <c r="AZ106" s="79"/>
+      <c r="BA106" s="79"/>
+      <c r="BB106" s="79"/>
+      <c r="BC106" s="79"/>
+      <c r="BD106" s="79"/>
+      <c r="BE106" s="79"/>
+      <c r="BF106" s="79"/>
+      <c r="BG106" s="79"/>
+      <c r="BH106" s="79"/>
+      <c r="BI106" s="79"/>
+      <c r="BJ106" s="79"/>
+      <c r="BK106" s="79"/>
+      <c r="BL106" s="79"/>
+      <c r="BM106" s="79"/>
+      <c r="BN106" s="79"/>
+    </row>
+    <row r="107" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A107" s="56" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>6.2</v>
+      </c>
+      <c r="B107" s="97" t="s">
+        <v>154</v>
+      </c>
+      <c r="D107" s="98"/>
+      <c r="E107" s="75">
+        <v>44505</v>
+      </c>
+      <c r="F107" s="76">
+        <f t="shared" ref="F107:F111" si="49">IF(ISBLANK(E107)," - ",IF(G107=0,E107,E107+G107-1))</f>
+        <v>44507</v>
+      </c>
+      <c r="G107" s="58">
+        <v>3</v>
+      </c>
+      <c r="H107" s="59">
+        <v>0</v>
+      </c>
+      <c r="I107" s="60">
+        <f t="shared" ref="I107:I111" si="50">IF(OR(F107=0,E107=0)," - ",NETWORKDAYS(E107,F107))</f>
+        <v>1</v>
+      </c>
+      <c r="J107" s="73"/>
+      <c r="K107" s="79"/>
+      <c r="L107" s="79"/>
+      <c r="M107" s="79"/>
+      <c r="N107" s="79"/>
+      <c r="O107" s="79"/>
+      <c r="P107" s="79"/>
+      <c r="Q107" s="79"/>
+      <c r="R107" s="79"/>
+      <c r="S107" s="79"/>
+      <c r="T107" s="79"/>
+      <c r="U107" s="79"/>
+      <c r="V107" s="79"/>
+      <c r="W107" s="79"/>
+      <c r="X107" s="79"/>
+      <c r="Y107" s="79"/>
+      <c r="Z107" s="79"/>
+      <c r="AA107" s="79"/>
+      <c r="AB107" s="79"/>
+      <c r="AC107" s="79"/>
+      <c r="AD107" s="79"/>
+      <c r="AE107" s="79"/>
+      <c r="AF107" s="79"/>
+      <c r="AG107" s="79"/>
+      <c r="AH107" s="79"/>
+      <c r="AI107" s="79"/>
+      <c r="AJ107" s="79"/>
+      <c r="AK107" s="79"/>
+      <c r="AL107" s="79"/>
+      <c r="AM107" s="79"/>
+      <c r="AN107" s="79"/>
+      <c r="AO107" s="79"/>
+      <c r="AP107" s="79"/>
+      <c r="AQ107" s="79"/>
+      <c r="AR107" s="79"/>
+      <c r="AS107" s="79"/>
+      <c r="AT107" s="79"/>
+      <c r="AU107" s="79"/>
+      <c r="AV107" s="79"/>
+      <c r="AW107" s="79"/>
+      <c r="AX107" s="79"/>
+      <c r="AY107" s="79"/>
+      <c r="AZ107" s="79"/>
+      <c r="BA107" s="79"/>
+      <c r="BB107" s="79"/>
+      <c r="BC107" s="79"/>
+      <c r="BD107" s="79"/>
+      <c r="BE107" s="79"/>
+      <c r="BF107" s="79"/>
+      <c r="BG107" s="79"/>
+      <c r="BH107" s="79"/>
+      <c r="BI107" s="79"/>
+      <c r="BJ107" s="79"/>
+      <c r="BK107" s="79"/>
+      <c r="BL107" s="79"/>
+      <c r="BM107" s="79"/>
+      <c r="BN107" s="79"/>
+    </row>
+    <row r="108" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A108" s="49" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>7</v>
+      </c>
+      <c r="B108" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="D108" s="52"/>
+      <c r="E108" s="77"/>
+      <c r="F108" s="77" t="str">
+        <f t="shared" si="49"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G108" s="53"/>
+      <c r="H108" s="54"/>
+      <c r="I108" s="55" t="str">
+        <f t="shared" si="50"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J108" s="74"/>
+      <c r="K108" s="80"/>
+      <c r="L108" s="80"/>
+      <c r="M108" s="80"/>
+      <c r="N108" s="80"/>
+      <c r="O108" s="80"/>
+      <c r="P108" s="80"/>
+      <c r="Q108" s="80"/>
+      <c r="R108" s="80"/>
+      <c r="S108" s="80"/>
+      <c r="T108" s="80"/>
+      <c r="U108" s="80"/>
+      <c r="V108" s="80"/>
+      <c r="W108" s="80"/>
+      <c r="X108" s="80"/>
+      <c r="Y108" s="80"/>
+      <c r="Z108" s="80"/>
+      <c r="AA108" s="80"/>
+      <c r="AB108" s="80"/>
+      <c r="AC108" s="80"/>
+      <c r="AD108" s="80"/>
+      <c r="AE108" s="80"/>
+      <c r="AF108" s="80"/>
+      <c r="AG108" s="80"/>
+      <c r="AH108" s="80"/>
+      <c r="AI108" s="80"/>
+      <c r="AJ108" s="80"/>
+      <c r="AK108" s="80"/>
+      <c r="AL108" s="80"/>
+      <c r="AM108" s="80"/>
+      <c r="AN108" s="80"/>
+      <c r="AO108" s="80"/>
+      <c r="AP108" s="80"/>
+      <c r="AQ108" s="80"/>
+      <c r="AR108" s="80"/>
+      <c r="AS108" s="80"/>
+      <c r="AT108" s="80"/>
+      <c r="AU108" s="80"/>
+      <c r="AV108" s="80"/>
+      <c r="AW108" s="80"/>
+      <c r="AX108" s="80"/>
+      <c r="AY108" s="80"/>
+      <c r="AZ108" s="80"/>
+      <c r="BA108" s="80"/>
+      <c r="BB108" s="80"/>
+      <c r="BC108" s="80"/>
+      <c r="BD108" s="80"/>
+      <c r="BE108" s="80"/>
+      <c r="BF108" s="80"/>
+      <c r="BG108" s="80"/>
+      <c r="BH108" s="80"/>
+      <c r="BI108" s="80"/>
+      <c r="BJ108" s="80"/>
+      <c r="BK108" s="80"/>
+      <c r="BL108" s="80"/>
+      <c r="BM108" s="80"/>
+      <c r="BN108" s="80"/>
+    </row>
+    <row r="109" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A109" s="56" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>7.1</v>
+      </c>
+      <c r="B109" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109" s="98"/>
+      <c r="E109" s="75">
+        <v>43131</v>
+      </c>
+      <c r="F109" s="76">
+        <f t="shared" si="49"/>
+        <v>43131</v>
+      </c>
+      <c r="G109" s="58">
+        <v>1</v>
+      </c>
+      <c r="H109" s="59">
+        <v>0</v>
+      </c>
+      <c r="I109" s="60">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="J109" s="73"/>
+      <c r="K109" s="79"/>
+      <c r="L109" s="79"/>
+      <c r="M109" s="79"/>
+      <c r="N109" s="79"/>
+      <c r="O109" s="79"/>
+      <c r="P109" s="79"/>
+      <c r="Q109" s="79"/>
+      <c r="R109" s="79"/>
+      <c r="S109" s="79"/>
+      <c r="T109" s="79"/>
+      <c r="U109" s="79"/>
+      <c r="V109" s="79"/>
+      <c r="W109" s="79"/>
+      <c r="X109" s="79"/>
+      <c r="Y109" s="79"/>
+      <c r="Z109" s="79"/>
+      <c r="AA109" s="79"/>
+      <c r="AB109" s="79"/>
+      <c r="AC109" s="79"/>
+      <c r="AD109" s="79"/>
+      <c r="AE109" s="79"/>
+      <c r="AF109" s="79"/>
+      <c r="AG109" s="79"/>
+      <c r="AH109" s="79"/>
+      <c r="AI109" s="79"/>
+      <c r="AJ109" s="79"/>
+      <c r="AK109" s="79"/>
+      <c r="AL109" s="79"/>
+      <c r="AM109" s="79"/>
+      <c r="AN109" s="79"/>
+      <c r="AO109" s="79"/>
+      <c r="AP109" s="79"/>
+      <c r="AQ109" s="79"/>
+      <c r="AR109" s="79"/>
+      <c r="AS109" s="79"/>
+      <c r="AT109" s="79"/>
+      <c r="AU109" s="79"/>
+      <c r="AV109" s="79"/>
+      <c r="AW109" s="79"/>
+      <c r="AX109" s="79"/>
+      <c r="AY109" s="79"/>
+      <c r="AZ109" s="79"/>
+      <c r="BA109" s="79"/>
+      <c r="BB109" s="79"/>
+      <c r="BC109" s="79"/>
+      <c r="BD109" s="79"/>
+      <c r="BE109" s="79"/>
+      <c r="BF109" s="79"/>
+      <c r="BG109" s="79"/>
+      <c r="BH109" s="79"/>
+      <c r="BI109" s="79"/>
+      <c r="BJ109" s="79"/>
+      <c r="BK109" s="79"/>
+      <c r="BL109" s="79"/>
+      <c r="BM109" s="79"/>
+      <c r="BN109" s="79"/>
+    </row>
+    <row r="110" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A110" s="56" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>7.2</v>
+      </c>
+      <c r="B110" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" s="98"/>
+      <c r="E110" s="75">
+        <v>43132</v>
+      </c>
+      <c r="F110" s="76">
+        <f t="shared" si="49"/>
+        <v>43132</v>
+      </c>
+      <c r="G110" s="58">
+        <v>1</v>
+      </c>
+      <c r="H110" s="59">
+        <v>0</v>
+      </c>
+      <c r="I110" s="60">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="J110" s="73"/>
+      <c r="K110" s="79"/>
+      <c r="L110" s="79"/>
+      <c r="M110" s="79"/>
+      <c r="N110" s="79"/>
+      <c r="O110" s="79"/>
+      <c r="P110" s="79"/>
+      <c r="Q110" s="79"/>
+      <c r="R110" s="79"/>
+      <c r="S110" s="79"/>
+      <c r="T110" s="79"/>
+      <c r="U110" s="79"/>
+      <c r="V110" s="79"/>
+      <c r="W110" s="79"/>
+      <c r="X110" s="79"/>
+      <c r="Y110" s="79"/>
+      <c r="Z110" s="79"/>
+      <c r="AA110" s="79"/>
+      <c r="AB110" s="79"/>
+      <c r="AC110" s="79"/>
+      <c r="AD110" s="79"/>
+      <c r="AE110" s="79"/>
+      <c r="AF110" s="79"/>
+      <c r="AG110" s="79"/>
+      <c r="AH110" s="79"/>
+      <c r="AI110" s="79"/>
+      <c r="AJ110" s="79"/>
+      <c r="AK110" s="79"/>
+      <c r="AL110" s="79"/>
+      <c r="AM110" s="79"/>
+      <c r="AN110" s="79"/>
+      <c r="AO110" s="79"/>
+      <c r="AP110" s="79"/>
+      <c r="AQ110" s="79"/>
+      <c r="AR110" s="79"/>
+      <c r="AS110" s="79"/>
+      <c r="AT110" s="79"/>
+      <c r="AU110" s="79"/>
+      <c r="AV110" s="79"/>
+      <c r="AW110" s="79"/>
+      <c r="AX110" s="79"/>
+      <c r="AY110" s="79"/>
+      <c r="AZ110" s="79"/>
+      <c r="BA110" s="79"/>
+      <c r="BB110" s="79"/>
+      <c r="BC110" s="79"/>
+      <c r="BD110" s="79"/>
+      <c r="BE110" s="79"/>
+      <c r="BF110" s="79"/>
+      <c r="BG110" s="79"/>
+      <c r="BH110" s="79"/>
+      <c r="BI110" s="79"/>
+      <c r="BJ110" s="79"/>
+      <c r="BK110" s="79"/>
+      <c r="BL110" s="79"/>
+      <c r="BM110" s="79"/>
+      <c r="BN110" s="79"/>
+    </row>
+    <row r="111" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A111" s="56" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>7.3</v>
+      </c>
+      <c r="B111" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="D111" s="98"/>
+      <c r="E111" s="75">
+        <v>43133</v>
+      </c>
+      <c r="F111" s="76">
+        <f t="shared" si="49"/>
+        <v>43133</v>
+      </c>
+      <c r="G111" s="58">
+        <v>1</v>
+      </c>
+      <c r="H111" s="59">
+        <v>0</v>
+      </c>
+      <c r="I111" s="60">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="J111" s="73"/>
+      <c r="K111" s="79"/>
+      <c r="L111" s="79"/>
+      <c r="M111" s="79"/>
+      <c r="N111" s="79"/>
+      <c r="O111" s="79"/>
+      <c r="P111" s="79"/>
+      <c r="Q111" s="79"/>
+      <c r="R111" s="79"/>
+      <c r="S111" s="79"/>
+      <c r="T111" s="79"/>
+      <c r="U111" s="79"/>
+      <c r="V111" s="79"/>
+      <c r="W111" s="79"/>
+      <c r="X111" s="79"/>
+      <c r="Y111" s="79"/>
+      <c r="Z111" s="79"/>
+      <c r="AA111" s="79"/>
+      <c r="AB111" s="79"/>
+      <c r="AC111" s="79"/>
+      <c r="AD111" s="79"/>
+      <c r="AE111" s="79"/>
+      <c r="AF111" s="79"/>
+      <c r="AG111" s="79"/>
+      <c r="AH111" s="79"/>
+      <c r="AI111" s="79"/>
+      <c r="AJ111" s="79"/>
+      <c r="AK111" s="79"/>
+      <c r="AL111" s="79"/>
+      <c r="AM111" s="79"/>
+      <c r="AN111" s="79"/>
+      <c r="AO111" s="79"/>
+      <c r="AP111" s="79"/>
+      <c r="AQ111" s="79"/>
+      <c r="AR111" s="79"/>
+      <c r="AS111" s="79"/>
+      <c r="AT111" s="79"/>
+      <c r="AU111" s="79"/>
+      <c r="AV111" s="79"/>
+      <c r="AW111" s="79"/>
+      <c r="AX111" s="79"/>
+      <c r="AY111" s="79"/>
+      <c r="AZ111" s="79"/>
+      <c r="BA111" s="79"/>
+      <c r="BB111" s="79"/>
+      <c r="BC111" s="79"/>
+      <c r="BD111" s="79"/>
+      <c r="BE111" s="79"/>
+      <c r="BF111" s="79"/>
+      <c r="BG111" s="79"/>
+      <c r="BH111" s="79"/>
+      <c r="BI111" s="79"/>
+      <c r="BJ111" s="79"/>
+      <c r="BK111" s="79"/>
+      <c r="BL111" s="79"/>
+      <c r="BM111" s="79"/>
+      <c r="BN111" s="79"/>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -13505,10 +14382,19 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H8:H9 H15 H41 H50 H29:H32 H60 H63 H73:H75">
-    <cfRule type="dataBar" priority="326">
+  <conditionalFormatting sqref="H8:H9 H15 H50 H59 H29:H30 H69 H72 H82:H84 H40:H41">
+    <cfRule type="dataBar" priority="348">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13522,25 +14408,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:BN7">
-    <cfRule type="expression" dxfId="107" priority="369">
+    <cfRule type="expression" dxfId="120" priority="391">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN9 K15:BN15 K22:BN27 K29:BN60 K63:BN63 K73:BN102">
-    <cfRule type="expression" dxfId="106" priority="372">
+  <conditionalFormatting sqref="K8:BN9 K15:BN15 K22:BN27 K29:BN30 K72:BN72 K82:BN111 K40:BN69">
+    <cfRule type="expression" dxfId="119" priority="394">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="373">
+    <cfRule type="expression" dxfId="118" priority="395">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN9 K15:BN15 K41:BN41 K50:BN50 K29:BN32 K60:BN60 K63:BN63 K73:BN75">
-    <cfRule type="expression" dxfId="104" priority="332">
+  <conditionalFormatting sqref="K6:BN9 K15:BN15 K50:BN50 K59:BN59 K29:BN30 K69:BN69 K72:BN72 K82:BN84 K40:BN41">
+    <cfRule type="expression" dxfId="117" priority="354">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H92">
-    <cfRule type="dataBar" priority="321">
+  <conditionalFormatting sqref="H101">
+    <cfRule type="dataBar" priority="343">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13553,13 +14439,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K92:BN92">
-    <cfRule type="expression" dxfId="103" priority="322">
+  <conditionalFormatting sqref="K101:BN101">
+    <cfRule type="expression" dxfId="116" priority="344">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H93">
-    <cfRule type="dataBar" priority="317">
+  <conditionalFormatting sqref="H102">
+    <cfRule type="dataBar" priority="339">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13572,13 +14458,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K93:BN93">
-    <cfRule type="expression" dxfId="102" priority="318">
+  <conditionalFormatting sqref="K102:BN102">
+    <cfRule type="expression" dxfId="115" priority="340">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H94">
-    <cfRule type="dataBar" priority="313">
+  <conditionalFormatting sqref="H103">
+    <cfRule type="dataBar" priority="335">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13591,13 +14477,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K94:BN94">
-    <cfRule type="expression" dxfId="101" priority="314">
+  <conditionalFormatting sqref="K103:BN103">
+    <cfRule type="expression" dxfId="114" priority="336">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H95">
-    <cfRule type="dataBar" priority="309">
+  <conditionalFormatting sqref="H104">
+    <cfRule type="dataBar" priority="331">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13610,13 +14496,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K95:BN95">
-    <cfRule type="expression" dxfId="100" priority="310">
+  <conditionalFormatting sqref="K104:BN104">
+    <cfRule type="expression" dxfId="113" priority="332">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H96">
-    <cfRule type="dataBar" priority="305">
+  <conditionalFormatting sqref="H105">
+    <cfRule type="dataBar" priority="327">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13629,13 +14515,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K96:BN96">
-    <cfRule type="expression" dxfId="99" priority="306">
+  <conditionalFormatting sqref="K105:BN105">
+    <cfRule type="expression" dxfId="112" priority="328">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H97">
-    <cfRule type="dataBar" priority="301">
+  <conditionalFormatting sqref="H106">
+    <cfRule type="dataBar" priority="323">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13648,13 +14534,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K97:BN97">
-    <cfRule type="expression" dxfId="98" priority="302">
+  <conditionalFormatting sqref="K106:BN106">
+    <cfRule type="expression" dxfId="111" priority="324">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H98">
-    <cfRule type="dataBar" priority="297">
+  <conditionalFormatting sqref="H107">
+    <cfRule type="dataBar" priority="319">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13667,13 +14553,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K98:BN98">
-    <cfRule type="expression" dxfId="97" priority="298">
+  <conditionalFormatting sqref="K107:BN107">
+    <cfRule type="expression" dxfId="110" priority="320">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="dataBar" priority="289">
+    <cfRule type="dataBar" priority="311">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13687,20 +14573,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:BN16">
-    <cfRule type="expression" dxfId="96" priority="291">
+    <cfRule type="expression" dxfId="109" priority="313">
       <formula>AND($E16&lt;=K$6,ROUNDDOWN(($F16-$E16+1)*$H16,0)+$E16-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="292">
+    <cfRule type="expression" dxfId="108" priority="314">
       <formula>AND(NOT(ISBLANK($E16)),$E16&lt;=K$6,$F16&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:BN16">
-    <cfRule type="expression" dxfId="94" priority="290">
+    <cfRule type="expression" dxfId="107" priority="312">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="dataBar" priority="285">
+    <cfRule type="dataBar" priority="307">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13714,20 +14600,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:BN17">
-    <cfRule type="expression" dxfId="93" priority="287">
+    <cfRule type="expression" dxfId="106" priority="309">
       <formula>AND($E17&lt;=K$6,ROUNDDOWN(($F17-$E17+1)*$H17,0)+$E17-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="288">
+    <cfRule type="expression" dxfId="105" priority="310">
       <formula>AND(NOT(ISBLANK($E17)),$E17&lt;=K$6,$F17&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:BN17">
-    <cfRule type="expression" dxfId="91" priority="286">
+    <cfRule type="expression" dxfId="104" priority="308">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="dataBar" priority="281">
+    <cfRule type="dataBar" priority="303">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13741,20 +14627,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:BN18">
-    <cfRule type="expression" dxfId="90" priority="283">
+    <cfRule type="expression" dxfId="103" priority="305">
       <formula>AND($E18&lt;=K$6,ROUNDDOWN(($F18-$E18+1)*$H18,0)+$E18-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="284">
+    <cfRule type="expression" dxfId="102" priority="306">
       <formula>AND(NOT(ISBLANK($E18)),$E18&lt;=K$6,$F18&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:BN18">
-    <cfRule type="expression" dxfId="88" priority="282">
+    <cfRule type="expression" dxfId="101" priority="304">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="dataBar" priority="277">
+    <cfRule type="dataBar" priority="299">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13768,20 +14654,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:BN19">
-    <cfRule type="expression" dxfId="87" priority="279">
+    <cfRule type="expression" dxfId="100" priority="301">
       <formula>AND($E19&lt;=K$6,ROUNDDOWN(($F19-$E19+1)*$H19,0)+$E19-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="280">
+    <cfRule type="expression" dxfId="99" priority="302">
       <formula>AND(NOT(ISBLANK($E19)),$E19&lt;=K$6,$F19&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:BN19">
-    <cfRule type="expression" dxfId="85" priority="278">
+    <cfRule type="expression" dxfId="98" priority="300">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="dataBar" priority="273">
+    <cfRule type="dataBar" priority="295">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13795,20 +14681,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20:BN20">
-    <cfRule type="expression" dxfId="84" priority="275">
+    <cfRule type="expression" dxfId="97" priority="297">
       <formula>AND($E20&lt;=K$6,ROUNDDOWN(($F20-$E20+1)*$H20,0)+$E20-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="276">
+    <cfRule type="expression" dxfId="96" priority="298">
       <formula>AND(NOT(ISBLANK($E20)),$E20&lt;=K$6,$F20&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20:BN20">
-    <cfRule type="expression" dxfId="82" priority="274">
+    <cfRule type="expression" dxfId="95" priority="296">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="dataBar" priority="269">
+    <cfRule type="dataBar" priority="291">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13822,20 +14708,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21:BN21">
-    <cfRule type="expression" dxfId="81" priority="271">
+    <cfRule type="expression" dxfId="94" priority="293">
       <formula>AND($E21&lt;=K$6,ROUNDDOWN(($F21-$E21+1)*$H21,0)+$E21-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="272">
+    <cfRule type="expression" dxfId="93" priority="294">
       <formula>AND(NOT(ISBLANK($E21)),$E21&lt;=K$6,$F21&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21:BN21">
-    <cfRule type="expression" dxfId="79" priority="270">
+    <cfRule type="expression" dxfId="92" priority="292">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:H23">
-    <cfRule type="dataBar" priority="265">
+    <cfRule type="dataBar" priority="287">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13849,12 +14735,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22:BN23">
-    <cfRule type="expression" dxfId="78" priority="266">
+    <cfRule type="expression" dxfId="91" priority="288">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="dataBar" priority="261">
+    <cfRule type="dataBar" priority="283">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13868,12 +14754,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23:BN23">
-    <cfRule type="expression" dxfId="77" priority="262">
+    <cfRule type="expression" dxfId="90" priority="284">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H99">
-    <cfRule type="dataBar" priority="245">
+  <conditionalFormatting sqref="H108">
+    <cfRule type="dataBar" priority="267">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13886,13 +14772,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K99:BN99">
-    <cfRule type="expression" dxfId="76" priority="246">
+  <conditionalFormatting sqref="K108:BN108">
+    <cfRule type="expression" dxfId="89" priority="268">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="dataBar" priority="241">
+    <cfRule type="dataBar" priority="263">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13906,20 +14792,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:BN10">
-    <cfRule type="expression" dxfId="75" priority="243">
+    <cfRule type="expression" dxfId="88" priority="265">
       <formula>AND($E10&lt;=K$6,ROUNDDOWN(($F10-$E10+1)*$H10,0)+$E10-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="244">
+    <cfRule type="expression" dxfId="87" priority="266">
       <formula>AND(NOT(ISBLANK($E10)),$E10&lt;=K$6,$F10&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:BN10">
-    <cfRule type="expression" dxfId="73" priority="242">
+    <cfRule type="expression" dxfId="86" priority="264">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
-    <cfRule type="dataBar" priority="225">
+  <conditionalFormatting sqref="H68">
+    <cfRule type="dataBar" priority="247">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13932,13 +14818,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K59:BN59">
-    <cfRule type="expression" dxfId="72" priority="226">
+  <conditionalFormatting sqref="K68:BN68">
+    <cfRule type="expression" dxfId="85" priority="248">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
-    <cfRule type="dataBar" priority="221">
+  <conditionalFormatting sqref="H42">
+    <cfRule type="dataBar" priority="243">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13951,13 +14837,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K33:BN33">
-    <cfRule type="expression" dxfId="71" priority="222">
+  <conditionalFormatting sqref="K42:BN42">
+    <cfRule type="expression" dxfId="84" priority="244">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="dataBar" priority="217">
+  <conditionalFormatting sqref="H43">
+    <cfRule type="dataBar" priority="239">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13970,13 +14856,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K34:BN34">
-    <cfRule type="expression" dxfId="70" priority="218">
+  <conditionalFormatting sqref="K43:BN43">
+    <cfRule type="expression" dxfId="83" priority="240">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="dataBar" priority="213">
+  <conditionalFormatting sqref="H44">
+    <cfRule type="dataBar" priority="235">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13989,13 +14875,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K35:BN35">
-    <cfRule type="expression" dxfId="69" priority="214">
+  <conditionalFormatting sqref="K44:BN44">
+    <cfRule type="expression" dxfId="82" priority="236">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
-    <cfRule type="dataBar" priority="209">
+  <conditionalFormatting sqref="H45">
+    <cfRule type="dataBar" priority="231">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14008,13 +14894,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36:BN36">
-    <cfRule type="expression" dxfId="68" priority="210">
+  <conditionalFormatting sqref="K45:BN45">
+    <cfRule type="expression" dxfId="81" priority="232">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
-    <cfRule type="dataBar" priority="205">
+  <conditionalFormatting sqref="H46">
+    <cfRule type="dataBar" priority="227">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14027,13 +14913,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K37:BN37">
-    <cfRule type="expression" dxfId="67" priority="206">
+  <conditionalFormatting sqref="K46:BN46">
+    <cfRule type="expression" dxfId="80" priority="228">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
-    <cfRule type="dataBar" priority="201">
+  <conditionalFormatting sqref="H47">
+    <cfRule type="dataBar" priority="223">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14046,13 +14932,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38:BN38">
-    <cfRule type="expression" dxfId="66" priority="202">
+  <conditionalFormatting sqref="K47:BN47">
+    <cfRule type="expression" dxfId="79" priority="224">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
-    <cfRule type="dataBar" priority="197">
+  <conditionalFormatting sqref="H48">
+    <cfRule type="dataBar" priority="219">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14065,13 +14951,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:BN39">
-    <cfRule type="expression" dxfId="65" priority="198">
+  <conditionalFormatting sqref="K48:BN48">
+    <cfRule type="expression" dxfId="78" priority="220">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
-    <cfRule type="dataBar" priority="193">
+  <conditionalFormatting sqref="H49">
+    <cfRule type="dataBar" priority="215">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14084,13 +14970,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40:BN40">
-    <cfRule type="expression" dxfId="64" priority="194">
+  <conditionalFormatting sqref="K49:BN49">
+    <cfRule type="expression" dxfId="77" priority="216">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
-    <cfRule type="dataBar" priority="189">
+  <conditionalFormatting sqref="H51">
+    <cfRule type="dataBar" priority="211">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14103,13 +14989,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42:BN42">
-    <cfRule type="expression" dxfId="63" priority="190">
+  <conditionalFormatting sqref="K51:BN51">
+    <cfRule type="expression" dxfId="76" priority="212">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
-    <cfRule type="dataBar" priority="185">
+  <conditionalFormatting sqref="H52">
+    <cfRule type="dataBar" priority="207">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14122,13 +15008,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K43:BN43">
-    <cfRule type="expression" dxfId="62" priority="186">
+  <conditionalFormatting sqref="K52:BN52">
+    <cfRule type="expression" dxfId="75" priority="208">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="dataBar" priority="181">
+  <conditionalFormatting sqref="H53">
+    <cfRule type="dataBar" priority="203">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14141,13 +15027,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K44:BN44">
-    <cfRule type="expression" dxfId="61" priority="182">
+  <conditionalFormatting sqref="K53:BN53">
+    <cfRule type="expression" dxfId="74" priority="204">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="dataBar" priority="177">
+  <conditionalFormatting sqref="H54">
+    <cfRule type="dataBar" priority="199">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14160,13 +15046,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K45:BN45">
-    <cfRule type="expression" dxfId="60" priority="178">
+  <conditionalFormatting sqref="K54:BN54">
+    <cfRule type="expression" dxfId="73" priority="200">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
-    <cfRule type="dataBar" priority="173">
+  <conditionalFormatting sqref="H55">
+    <cfRule type="dataBar" priority="195">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14179,13 +15065,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K46:BN46">
-    <cfRule type="expression" dxfId="59" priority="174">
+  <conditionalFormatting sqref="K55:BN55">
+    <cfRule type="expression" dxfId="72" priority="196">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="dataBar" priority="169">
+  <conditionalFormatting sqref="H56">
+    <cfRule type="dataBar" priority="191">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14198,13 +15084,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K47:BN47">
-    <cfRule type="expression" dxfId="58" priority="170">
+  <conditionalFormatting sqref="K56:BN56">
+    <cfRule type="expression" dxfId="71" priority="192">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
-    <cfRule type="dataBar" priority="165">
+  <conditionalFormatting sqref="H57">
+    <cfRule type="dataBar" priority="187">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14217,13 +15103,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48:BN48">
-    <cfRule type="expression" dxfId="57" priority="166">
+  <conditionalFormatting sqref="K57:BN57">
+    <cfRule type="expression" dxfId="70" priority="188">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
-    <cfRule type="dataBar" priority="161">
+  <conditionalFormatting sqref="H58">
+    <cfRule type="dataBar" priority="183">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14236,13 +15122,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K49:BN49">
-    <cfRule type="expression" dxfId="56" priority="162">
+  <conditionalFormatting sqref="K58:BN58">
+    <cfRule type="expression" dxfId="69" priority="184">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="dataBar" priority="157">
+    <cfRule type="dataBar" priority="179">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14256,20 +15142,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:BN14">
-    <cfRule type="expression" dxfId="55" priority="159">
+    <cfRule type="expression" dxfId="68" priority="181">
       <formula>AND($E11&lt;=K$6,ROUNDDOWN(($F11-$E11+1)*$H11,0)+$E11-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="160">
+    <cfRule type="expression" dxfId="67" priority="182">
       <formula>AND(NOT(ISBLANK($E11)),$E11&lt;=K$6,$F11&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:BN11">
-    <cfRule type="expression" dxfId="53" priority="158">
+    <cfRule type="expression" dxfId="66" priority="180">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="dataBar" priority="155">
+    <cfRule type="dataBar" priority="177">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14283,12 +15169,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12:BN12">
-    <cfRule type="expression" dxfId="52" priority="156">
+    <cfRule type="expression" dxfId="65" priority="178">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="dataBar" priority="153">
+    <cfRule type="dataBar" priority="175">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14302,12 +15188,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:BN13">
-    <cfRule type="expression" dxfId="51" priority="154">
+    <cfRule type="expression" dxfId="64" priority="176">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="dataBar" priority="151">
+    <cfRule type="dataBar" priority="173">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14321,12 +15207,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14:BN14">
-    <cfRule type="expression" dxfId="50" priority="152">
+    <cfRule type="expression" dxfId="63" priority="174">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24 H27">
-    <cfRule type="dataBar" priority="147">
+    <cfRule type="dataBar" priority="169">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14340,12 +15226,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24:BN24 K27:BN27">
-    <cfRule type="expression" dxfId="49" priority="148">
+    <cfRule type="expression" dxfId="62" priority="170">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="dataBar" priority="145">
+    <cfRule type="dataBar" priority="167">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14359,12 +15245,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25:BN25">
-    <cfRule type="expression" dxfId="48" priority="146">
+    <cfRule type="expression" dxfId="61" priority="168">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="dataBar" priority="143">
+    <cfRule type="dataBar" priority="165">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14378,12 +15264,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26:BN26">
-    <cfRule type="expression" dxfId="47" priority="144">
+    <cfRule type="expression" dxfId="60" priority="166">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="dataBar" priority="139">
+  <conditionalFormatting sqref="H60">
+    <cfRule type="dataBar" priority="161">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14396,13 +15282,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K51:BN51">
-    <cfRule type="expression" dxfId="46" priority="140">
+  <conditionalFormatting sqref="K60:BN60">
+    <cfRule type="expression" dxfId="59" priority="162">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
-    <cfRule type="dataBar" priority="137">
+  <conditionalFormatting sqref="H61">
+    <cfRule type="dataBar" priority="159">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14415,13 +15301,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52:BN52">
-    <cfRule type="expression" dxfId="45" priority="138">
+  <conditionalFormatting sqref="K61:BN61">
+    <cfRule type="expression" dxfId="58" priority="160">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
-    <cfRule type="dataBar" priority="135">
+  <conditionalFormatting sqref="H62">
+    <cfRule type="dataBar" priority="157">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14434,13 +15320,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K53:BN53">
-    <cfRule type="expression" dxfId="44" priority="136">
+  <conditionalFormatting sqref="K62:BN62">
+    <cfRule type="expression" dxfId="57" priority="158">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
-    <cfRule type="dataBar" priority="133">
+  <conditionalFormatting sqref="H63">
+    <cfRule type="dataBar" priority="155">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14453,13 +15339,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K54:BN54">
-    <cfRule type="expression" dxfId="43" priority="134">
+  <conditionalFormatting sqref="K63:BN63">
+    <cfRule type="expression" dxfId="56" priority="156">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
-    <cfRule type="dataBar" priority="131">
+  <conditionalFormatting sqref="H64">
+    <cfRule type="dataBar" priority="153">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14472,13 +15358,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K55:BN55">
-    <cfRule type="expression" dxfId="42" priority="132">
+  <conditionalFormatting sqref="K64:BN64">
+    <cfRule type="expression" dxfId="55" priority="154">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H56">
-    <cfRule type="dataBar" priority="129">
+  <conditionalFormatting sqref="H65">
+    <cfRule type="dataBar" priority="151">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14491,13 +15377,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K56:BN56">
-    <cfRule type="expression" dxfId="41" priority="130">
+  <conditionalFormatting sqref="K65:BN65">
+    <cfRule type="expression" dxfId="54" priority="152">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
-    <cfRule type="dataBar" priority="127">
+  <conditionalFormatting sqref="H66">
+    <cfRule type="dataBar" priority="149">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14510,13 +15396,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K57:BN57">
-    <cfRule type="expression" dxfId="40" priority="128">
+  <conditionalFormatting sqref="K66:BN66">
+    <cfRule type="expression" dxfId="53" priority="150">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H58:H59">
-    <cfRule type="dataBar" priority="125">
+  <conditionalFormatting sqref="H67:H68">
+    <cfRule type="dataBar" priority="147">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14529,13 +15415,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K58:BN59">
-    <cfRule type="expression" dxfId="39" priority="126">
+  <conditionalFormatting sqref="K67:BN68">
+    <cfRule type="expression" dxfId="52" priority="148">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H77">
-    <cfRule type="dataBar" priority="121">
+  <conditionalFormatting sqref="H86">
+    <cfRule type="dataBar" priority="143">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14548,13 +15434,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K77:BN77">
-    <cfRule type="expression" dxfId="38" priority="122">
+  <conditionalFormatting sqref="K86:BN86">
+    <cfRule type="expression" dxfId="51" priority="144">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H78">
-    <cfRule type="dataBar" priority="119">
+  <conditionalFormatting sqref="H87">
+    <cfRule type="dataBar" priority="141">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14567,13 +15453,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K78:BN78">
-    <cfRule type="expression" dxfId="37" priority="120">
+  <conditionalFormatting sqref="K87:BN87">
+    <cfRule type="expression" dxfId="50" priority="142">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
-    <cfRule type="dataBar" priority="117">
+  <conditionalFormatting sqref="H89">
+    <cfRule type="dataBar" priority="139">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14586,13 +15472,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K80:BN80">
-    <cfRule type="expression" dxfId="36" priority="118">
+  <conditionalFormatting sqref="K89:BN89">
+    <cfRule type="expression" dxfId="49" priority="140">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H82">
-    <cfRule type="dataBar" priority="115">
+  <conditionalFormatting sqref="H91">
+    <cfRule type="dataBar" priority="137">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14605,13 +15491,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K82:BN82">
-    <cfRule type="expression" dxfId="35" priority="116">
+  <conditionalFormatting sqref="K91:BN91">
+    <cfRule type="expression" dxfId="48" priority="138">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H84">
-    <cfRule type="dataBar" priority="113">
+  <conditionalFormatting sqref="H93">
+    <cfRule type="dataBar" priority="135">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14624,13 +15510,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K84:BN84">
-    <cfRule type="expression" dxfId="34" priority="114">
+  <conditionalFormatting sqref="K93:BN93">
+    <cfRule type="expression" dxfId="47" priority="136">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H86">
-    <cfRule type="dataBar" priority="111">
+  <conditionalFormatting sqref="H95">
+    <cfRule type="dataBar" priority="133">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14643,13 +15529,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K86:BN86">
-    <cfRule type="expression" dxfId="33" priority="112">
+  <conditionalFormatting sqref="K95:BN95">
+    <cfRule type="expression" dxfId="46" priority="134">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H88">
-    <cfRule type="dataBar" priority="109">
+  <conditionalFormatting sqref="H97">
+    <cfRule type="dataBar" priority="131">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14662,13 +15548,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K88:BN88">
-    <cfRule type="expression" dxfId="32" priority="110">
+  <conditionalFormatting sqref="K97:BN97">
+    <cfRule type="expression" dxfId="45" priority="132">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H90">
-    <cfRule type="dataBar" priority="107">
+  <conditionalFormatting sqref="H99">
+    <cfRule type="dataBar" priority="129">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14681,13 +15567,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K90:BN90">
-    <cfRule type="expression" dxfId="31" priority="108">
+  <conditionalFormatting sqref="K99:BN99">
+    <cfRule type="expression" dxfId="44" priority="130">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H100:H102">
-    <cfRule type="dataBar" priority="103">
+  <conditionalFormatting sqref="H109:H111">
+    <cfRule type="dataBar" priority="125">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14700,13 +15586,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K100:BN102">
-    <cfRule type="expression" dxfId="30" priority="104">
+  <conditionalFormatting sqref="K109:BN111">
+    <cfRule type="expression" dxfId="43" priority="126">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
-    <cfRule type="dataBar" priority="67">
+  <conditionalFormatting sqref="H85">
+    <cfRule type="dataBar" priority="89">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14719,13 +15605,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K76:BN76">
-    <cfRule type="expression" dxfId="29" priority="68">
+  <conditionalFormatting sqref="K85:BN85">
+    <cfRule type="expression" dxfId="42" priority="90">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H79">
-    <cfRule type="dataBar" priority="63">
+  <conditionalFormatting sqref="H88">
+    <cfRule type="dataBar" priority="85">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14738,13 +15624,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K79:BN79">
-    <cfRule type="expression" dxfId="28" priority="64">
+  <conditionalFormatting sqref="K88:BN88">
+    <cfRule type="expression" dxfId="41" priority="86">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H81">
-    <cfRule type="dataBar" priority="59">
+  <conditionalFormatting sqref="H90">
+    <cfRule type="dataBar" priority="81">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14757,13 +15643,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K81:BN81">
-    <cfRule type="expression" dxfId="27" priority="60">
+  <conditionalFormatting sqref="K90:BN90">
+    <cfRule type="expression" dxfId="40" priority="82">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H83">
-    <cfRule type="dataBar" priority="55">
+  <conditionalFormatting sqref="H92">
+    <cfRule type="dataBar" priority="77">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14776,13 +15662,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K83:BN83">
-    <cfRule type="expression" dxfId="26" priority="56">
+  <conditionalFormatting sqref="K92:BN92">
+    <cfRule type="expression" dxfId="39" priority="78">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H85">
-    <cfRule type="dataBar" priority="51">
+  <conditionalFormatting sqref="H94">
+    <cfRule type="dataBar" priority="73">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14795,13 +15681,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K85:BN85">
-    <cfRule type="expression" dxfId="25" priority="52">
+  <conditionalFormatting sqref="K94:BN94">
+    <cfRule type="expression" dxfId="38" priority="74">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H87">
-    <cfRule type="dataBar" priority="47">
+  <conditionalFormatting sqref="H96">
+    <cfRule type="dataBar" priority="69">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14814,13 +15700,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K87:BN87">
-    <cfRule type="expression" dxfId="24" priority="48">
+  <conditionalFormatting sqref="K96:BN96">
+    <cfRule type="expression" dxfId="37" priority="70">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H89">
-    <cfRule type="dataBar" priority="43">
+  <conditionalFormatting sqref="H98">
+    <cfRule type="dataBar" priority="65">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14833,13 +15719,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K89:BN89">
-    <cfRule type="expression" dxfId="23" priority="44">
+  <conditionalFormatting sqref="K98:BN98">
+    <cfRule type="expression" dxfId="36" priority="66">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H91">
-    <cfRule type="dataBar" priority="39">
+  <conditionalFormatting sqref="H100">
+    <cfRule type="dataBar" priority="61">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14852,21 +15738,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K91:BN91">
-    <cfRule type="expression" dxfId="22" priority="40">
+  <conditionalFormatting sqref="K100:BN100">
+    <cfRule type="expression" dxfId="35" priority="62">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:BN28">
-    <cfRule type="expression" dxfId="21" priority="37">
+    <cfRule type="expression" dxfId="34" priority="59">
       <formula>AND($E28&lt;=K$6,ROUNDDOWN(($F28-$E28+1)*$H28,0)+$E28-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="38">
+    <cfRule type="expression" dxfId="33" priority="60">
       <formula>AND(NOT(ISBLANK($E28)),$E28&lt;=K$6,$F28&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="dataBar" priority="35">
+    <cfRule type="dataBar" priority="57">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14880,20 +15766,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:BN28">
-    <cfRule type="expression" dxfId="19" priority="36">
+    <cfRule type="expression" dxfId="32" priority="58">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K61:BN61">
-    <cfRule type="expression" dxfId="18" priority="29">
-      <formula>AND($E61&lt;=K$6,ROUNDDOWN(($F61-$E61+1)*$H61,0)+$E61-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="30">
-      <formula>AND(NOT(ISBLANK($E61)),$E61&lt;=K$6,$F61&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H61">
-    <cfRule type="dataBar" priority="27">
+  <conditionalFormatting sqref="K70:BN70">
+    <cfRule type="expression" dxfId="31" priority="51">
+      <formula>AND($E70&lt;=K$6,ROUNDDOWN(($F70-$E70+1)*$H70,0)+$E70-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="52">
+      <formula>AND(NOT(ISBLANK($E70)),$E70&lt;=K$6,$F70&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H70">
+    <cfRule type="dataBar" priority="49">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14906,21 +15792,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K61:BN61">
-    <cfRule type="expression" dxfId="16" priority="28">
+  <conditionalFormatting sqref="K70:BN70">
+    <cfRule type="expression" dxfId="29" priority="50">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K62:BN62">
-    <cfRule type="expression" dxfId="15" priority="25">
-      <formula>AND($E62&lt;=K$6,ROUNDDOWN(($F62-$E62+1)*$H62,0)+$E62-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="26">
-      <formula>AND(NOT(ISBLANK($E62)),$E62&lt;=K$6,$F62&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H62">
-    <cfRule type="dataBar" priority="23">
+  <conditionalFormatting sqref="K71:BN71">
+    <cfRule type="expression" dxfId="28" priority="47">
+      <formula>AND($E71&lt;=K$6,ROUNDDOWN(($F71-$E71+1)*$H71,0)+$E71-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="48">
+      <formula>AND(NOT(ISBLANK($E71)),$E71&lt;=K$6,$F71&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71">
+    <cfRule type="dataBar" priority="45">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14933,21 +15819,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K62:BN62">
-    <cfRule type="expression" dxfId="13" priority="24">
+  <conditionalFormatting sqref="K71:BN71">
+    <cfRule type="expression" dxfId="26" priority="46">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K65:BN72">
-    <cfRule type="expression" dxfId="12" priority="21">
-      <formula>AND($E65&lt;=K$6,ROUNDDOWN(($F65-$E65+1)*$H65,0)+$E65-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="22">
-      <formula>AND(NOT(ISBLANK($E65)),$E65&lt;=K$6,$F65&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H65">
-    <cfRule type="dataBar" priority="19">
+  <conditionalFormatting sqref="K74:BN81">
+    <cfRule type="expression" dxfId="25" priority="43">
+      <formula>AND($E74&lt;=K$6,ROUNDDOWN(($F74-$E74+1)*$H74,0)+$E74-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="44">
+      <formula>AND(NOT(ISBLANK($E74)),$E74&lt;=K$6,$F74&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H74">
+    <cfRule type="dataBar" priority="41">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14960,13 +15846,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K65:BN65">
-    <cfRule type="expression" dxfId="10" priority="20">
+  <conditionalFormatting sqref="K74:BN74">
+    <cfRule type="expression" dxfId="23" priority="42">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
-    <cfRule type="dataBar" priority="17">
+  <conditionalFormatting sqref="H75">
+    <cfRule type="dataBar" priority="39">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14979,13 +15865,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K66:BN66">
-    <cfRule type="expression" dxfId="9" priority="18">
+  <conditionalFormatting sqref="K75:BN75">
+    <cfRule type="expression" dxfId="22" priority="40">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
-    <cfRule type="dataBar" priority="15">
+  <conditionalFormatting sqref="H76">
+    <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14998,13 +15884,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K67:BN67">
-    <cfRule type="expression" dxfId="8" priority="16">
+  <conditionalFormatting sqref="K76:BN76">
+    <cfRule type="expression" dxfId="21" priority="38">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
-    <cfRule type="dataBar" priority="13">
+  <conditionalFormatting sqref="H77">
+    <cfRule type="dataBar" priority="35">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15017,13 +15903,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K68:BN68">
-    <cfRule type="expression" dxfId="7" priority="14">
+  <conditionalFormatting sqref="K77:BN77">
+    <cfRule type="expression" dxfId="20" priority="36">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H69">
-    <cfRule type="dataBar" priority="11">
+  <conditionalFormatting sqref="H78">
+    <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15036,13 +15922,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K69:BN69">
-    <cfRule type="expression" dxfId="6" priority="12">
+  <conditionalFormatting sqref="K78:BN78">
+    <cfRule type="expression" dxfId="19" priority="34">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H70">
-    <cfRule type="dataBar" priority="9">
+  <conditionalFormatting sqref="H79">
+    <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15055,13 +15941,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K70:BN70">
-    <cfRule type="expression" dxfId="5" priority="10">
+  <conditionalFormatting sqref="K79:BN79">
+    <cfRule type="expression" dxfId="18" priority="32">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
-    <cfRule type="dataBar" priority="7">
+  <conditionalFormatting sqref="H80">
+    <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15074,13 +15960,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K71:BN71">
-    <cfRule type="expression" dxfId="4" priority="8">
+  <conditionalFormatting sqref="K80:BN80">
+    <cfRule type="expression" dxfId="17" priority="30">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
-    <cfRule type="dataBar" priority="5">
+  <conditionalFormatting sqref="H81">
+    <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15093,21 +15979,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K72:BN72">
-    <cfRule type="expression" dxfId="3" priority="6">
+  <conditionalFormatting sqref="K81:BN81">
+    <cfRule type="expression" dxfId="16" priority="28">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K64:BN64">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>AND($E64&lt;=K$6,ROUNDDOWN(($F64-$E64+1)*$H64,0)+$E64-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
-      <formula>AND(NOT(ISBLANK($E64)),$E64&lt;=K$6,$F64&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="K73:BN73">
+    <cfRule type="expression" dxfId="15" priority="25">
+      <formula>AND($E73&lt;=K$6,ROUNDDOWN(($F73-$E73+1)*$H73,0)+$E73-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="26">
+      <formula>AND(NOT(ISBLANK($E73)),$E73&lt;=K$6,$F73&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73">
+    <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15120,7 +16006,194 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K64:BN64">
+  <conditionalFormatting sqref="K73:BN73">
+    <cfRule type="expression" dxfId="13" priority="24">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
+    <cfRule type="dataBar" priority="19">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2BA9A25E-B14D-45FA-96F0-3BA762CE9EA1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31:BN31">
+    <cfRule type="expression" dxfId="12" priority="21">
+      <formula>AND($E31&lt;=K$6,ROUNDDOWN(($F31-$E31+1)*$H31,0)+$E31-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="22">
+      <formula>AND(NOT(ISBLANK($E31)),$E31&lt;=K$6,$F31&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31:BN31">
+    <cfRule type="expression" dxfId="10" priority="20">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32:BN39">
+    <cfRule type="expression" dxfId="9" priority="17">
+      <formula>AND($E32&lt;=K$6,ROUNDDOWN(($F32-$E32+1)*$H32,0)+$E32-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="18">
+      <formula>AND(NOT(ISBLANK($E32)),$E32&lt;=K$6,$F32&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{79744B6C-DE0E-41B5-81A9-67F74C450A4F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32:BN32">
+    <cfRule type="expression" dxfId="7" priority="16">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E16932AC-40B8-42A7-8DB2-5D64D178103E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33:BN33">
+    <cfRule type="expression" dxfId="6" priority="14">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1CB50A01-7198-4D74-B3DA-71AD1D1427A9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34:BN34">
+    <cfRule type="expression" dxfId="5" priority="12">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A98C2083-118D-4695-B9AA-92701C045809}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K35:BN35">
+    <cfRule type="expression" dxfId="4" priority="10">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{90C77C70-2B56-473D-A9A4-B601B56B6CB5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K36:BN36">
+    <cfRule type="expression" dxfId="3" priority="8">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CF4D7B91-6F5D-4F51-9C2E-CC4DC5CD04FF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K37:BN37">
+    <cfRule type="expression" dxfId="2" priority="6">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{745F3C84-B632-4082-9890-703832AAF6FA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K38:BN38">
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8272F0CE-FA62-4BDB-A638-466C2D382EAA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K39:BN39">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>K$6=TODAY()</formula>
     </cfRule>
@@ -15135,8 +16208,8 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="E29 E31 E73 G29:H29 G31:H31 H60 H32 H41 H50 G73:H73 H75 H74" unlockedFormula="1"/>
-    <ignoredError sqref="A73 A31 A29" formula="1"/>
+    <ignoredError sqref="E29 E40 E82 G29:H29 G40:H40 H69 H41 H50 H59 G82:H82 H84 H83" unlockedFormula="1"/>
+    <ignoredError sqref="A82 A40 A29" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
@@ -15184,7 +16257,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H8:H9 H15 H41 H50 H29:H32 H60 H63 H73:H75</xm:sqref>
+          <xm:sqref>H8:H9 H15 H50 H59 H29:H30 H69 H72 H82:H84 H40:H41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AF6031B5-17E7-4FA3-BF80-238C9E6DF4B9}">
@@ -15199,7 +16272,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H92</xm:sqref>
+          <xm:sqref>H101</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E1E2B9CA-12BA-46AC-9B3F-D4F5D19AE487}">
@@ -15214,7 +16287,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H93</xm:sqref>
+          <xm:sqref>H102</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2EBBAE54-BE40-4F85-B2B8-BF88914C4132}">
@@ -15229,7 +16302,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H94</xm:sqref>
+          <xm:sqref>H103</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CD355D18-EAED-4E08-8A10-05C00E458525}">
@@ -15244,7 +16317,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H95</xm:sqref>
+          <xm:sqref>H104</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E9A71E10-0808-482F-99D1-D818BBF6C7BC}">
@@ -15259,7 +16332,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H96</xm:sqref>
+          <xm:sqref>H105</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3D07858F-3D2E-41B0-9241-346599BE8E0E}">
@@ -15274,7 +16347,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H97</xm:sqref>
+          <xm:sqref>H106</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{04A29D32-1B7A-44AE-874E-46664FE80C9C}">
@@ -15289,7 +16362,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H98</xm:sqref>
+          <xm:sqref>H107</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{604E8406-F439-4A1A-9882-866C6CA7C52C}">
@@ -15424,7 +16497,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H99</xm:sqref>
+          <xm:sqref>H108</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7441C645-CDD7-4332-B16A-D63E38A71E7F}">
@@ -15454,7 +16527,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H59</xm:sqref>
+          <xm:sqref>H68</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BC0CD262-D5C0-4114-862E-FD1D455DCCB6}">
@@ -15469,7 +16542,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H33</xm:sqref>
+          <xm:sqref>H42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4EEB3302-B300-4F37-8090-228654E26DB8}">
@@ -15484,7 +16557,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H34</xm:sqref>
+          <xm:sqref>H43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{82A7F4E5-E84F-4772-9D07-1C5BC9524837}">
@@ -15499,7 +16572,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H35</xm:sqref>
+          <xm:sqref>H44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1BEF6D62-C837-4434-9EAF-5CEE3C8BFF33}">
@@ -15514,7 +16587,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H36</xm:sqref>
+          <xm:sqref>H45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A63288A3-CF9F-40FD-99BB-9928CBA98227}">
@@ -15529,7 +16602,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H37</xm:sqref>
+          <xm:sqref>H46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{001A9256-16C1-4329-B9D8-D0541B1E65FE}">
@@ -15544,7 +16617,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H38</xm:sqref>
+          <xm:sqref>H47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9BF9CD71-41A1-4D96-A24D-2307B8C1511E}">
@@ -15559,7 +16632,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H39</xm:sqref>
+          <xm:sqref>H48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F04FD167-DBD0-4F87-9F1A-F9EC16361DBE}">
@@ -15574,7 +16647,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H40</xm:sqref>
+          <xm:sqref>H49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BCC1F1CC-31D1-477E-A4DF-CAC7DA44BAA5}">
@@ -15589,7 +16662,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H42</xm:sqref>
+          <xm:sqref>H51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BFF9E91C-99D4-46B3-B8DB-28B33B454734}">
@@ -15604,7 +16677,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H43</xm:sqref>
+          <xm:sqref>H52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{134FAAF5-A935-44B7-A1E0-ED4087E244C7}">
@@ -15619,7 +16692,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H44</xm:sqref>
+          <xm:sqref>H53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E53DA637-304C-4DF2-93F3-55233A2CF80B}">
@@ -15634,7 +16707,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H45</xm:sqref>
+          <xm:sqref>H54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DDE030CD-8623-4C19-BCA9-B79196E9F245}">
@@ -15649,7 +16722,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H46</xm:sqref>
+          <xm:sqref>H55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D2E10E7E-5267-490E-9C31-9980BB06958F}">
@@ -15664,7 +16737,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H47</xm:sqref>
+          <xm:sqref>H56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{856F528D-E171-4873-B535-7E4EFDAF2A92}">
@@ -15679,7 +16752,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H48</xm:sqref>
+          <xm:sqref>H57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{054FFF99-697A-41FB-988E-F4E370D52DC5}">
@@ -15694,7 +16767,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H49</xm:sqref>
+          <xm:sqref>H58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6D1712A1-D810-4333-A009-34292AA312C6}">
@@ -15814,7 +16887,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H51</xm:sqref>
+          <xm:sqref>H60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{34C3EF56-2C1C-4842-9F25-44EC607E9B6B}">
@@ -15829,7 +16902,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H52</xm:sqref>
+          <xm:sqref>H61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{99114578-ED29-4F6A-9A83-8028B4BE0913}">
@@ -15844,7 +16917,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H53</xm:sqref>
+          <xm:sqref>H62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9AF78625-F4C0-444A-8263-0BF299FFD8E3}">
@@ -15859,7 +16932,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H54</xm:sqref>
+          <xm:sqref>H63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6781039C-10B5-4E1B-BF0F-3D8F203F7830}">
@@ -15874,7 +16947,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H55</xm:sqref>
+          <xm:sqref>H64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{59B3CD0C-603A-462A-94F8-E59DB5DFE250}">
@@ -15889,7 +16962,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H56</xm:sqref>
+          <xm:sqref>H65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9E808395-D1A4-4074-B06E-14E3B6FB9F90}">
@@ -15904,7 +16977,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H57</xm:sqref>
+          <xm:sqref>H66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{010D370E-F0B3-451B-898C-0D514D737826}">
@@ -15919,7 +16992,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H58:H59</xm:sqref>
+          <xm:sqref>H67:H68</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BFBF3FB0-ABF5-423D-A466-57E1B07BB58A}">
@@ -15934,7 +17007,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H77</xm:sqref>
+          <xm:sqref>H86</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CCD1741C-8060-4486-8B25-8799416E3961}">
@@ -15949,7 +17022,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H78</xm:sqref>
+          <xm:sqref>H87</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{35D0009D-A5E8-42C1-A435-118ABFBE67CA}">
@@ -15964,7 +17037,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H80</xm:sqref>
+          <xm:sqref>H89</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{01090080-ACAE-458D-BCAF-583B0E2F21D0}">
@@ -15979,7 +17052,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H82</xm:sqref>
+          <xm:sqref>H91</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AC0766FE-60B3-4D9D-8E40-B0B8237058AC}">
@@ -15994,7 +17067,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H84</xm:sqref>
+          <xm:sqref>H93</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{371F4099-1CEF-4E8C-99BF-BD7AE6E4555F}">
@@ -16009,7 +17082,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H86</xm:sqref>
+          <xm:sqref>H95</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{360399A8-A0CA-48C5-86BE-B1FB7E86595E}">
@@ -16024,7 +17097,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H88</xm:sqref>
+          <xm:sqref>H97</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{06BE8193-5B42-4B68-A1C3-25E085A86732}">
@@ -16039,7 +17112,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H90</xm:sqref>
+          <xm:sqref>H99</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7A8F160C-8F50-47BC-8BA5-A9E03D9CD50A}">
@@ -16054,7 +17127,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H100:H102</xm:sqref>
+          <xm:sqref>H109:H111</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CC845533-256A-423B-BC42-5167F019D2DE}">
@@ -16069,7 +17142,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H76</xm:sqref>
+          <xm:sqref>H85</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CBF1D1D0-C535-4432-8A3B-A81039293FBC}">
@@ -16084,7 +17157,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H79</xm:sqref>
+          <xm:sqref>H88</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{70490C4A-9510-4A6A-A898-72CA1E9BCFF9}">
@@ -16099,7 +17172,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H81</xm:sqref>
+          <xm:sqref>H90</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BEFD1DAE-5083-448C-A6A9-3C250C1DCCFA}">
@@ -16114,7 +17187,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H83</xm:sqref>
+          <xm:sqref>H92</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5B84F429-9511-4389-9DDD-FF34549A84EF}">
@@ -16129,7 +17202,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H85</xm:sqref>
+          <xm:sqref>H94</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2BECA061-2D9A-41C8-8CD7-D8EDF4AD5A7E}">
@@ -16144,7 +17217,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H87</xm:sqref>
+          <xm:sqref>H96</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{74ADDA2C-FFFB-4DDA-90CD-FCE1BCBC6D15}">
@@ -16159,7 +17232,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H89</xm:sqref>
+          <xm:sqref>H98</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5924B1B0-F4CA-4715-97F8-03E86E907A8B}">
@@ -16174,7 +17247,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H91</xm:sqref>
+          <xm:sqref>H100</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{844642B6-6AED-4247-BBF2-141EB0E6D0D6}">
@@ -16204,7 +17277,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H61</xm:sqref>
+          <xm:sqref>H70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DB8B257C-27C0-4656-B2D6-A164D3DC8376}">
@@ -16219,7 +17292,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H62</xm:sqref>
+          <xm:sqref>H71</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9FC75FDB-8AED-439C-A6D3-1116ABFCD2AA}">
@@ -16234,7 +17307,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H65</xm:sqref>
+          <xm:sqref>H74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{525C6AC5-856A-4095-92C1-69ED8B837782}">
@@ -16249,7 +17322,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H66</xm:sqref>
+          <xm:sqref>H75</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9CB4E75F-FF45-4E6C-B371-7D2BCB064ECC}">
@@ -16264,7 +17337,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H67</xm:sqref>
+          <xm:sqref>H76</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7FBFA1E6-A604-4419-AC63-0237039442AE}">
@@ -16279,7 +17352,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H68</xm:sqref>
+          <xm:sqref>H77</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4D2BFFCF-D567-4CE6-8F2F-6998200C5C78}">
@@ -16294,7 +17367,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H69</xm:sqref>
+          <xm:sqref>H78</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{08B66296-CB9A-4F29-B91B-245DF691B10F}">
@@ -16309,7 +17382,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H70</xm:sqref>
+          <xm:sqref>H79</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6DED2669-501C-46DC-8864-D021B3A7F706}">
@@ -16324,7 +17397,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H71</xm:sqref>
+          <xm:sqref>H80</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BEB4BF35-E0F5-482E-8C08-600178C2FE8C}">
@@ -16339,7 +17412,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H72</xm:sqref>
+          <xm:sqref>H81</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D92DE5E4-33D4-4230-8AF6-3FC5B8535404}">
@@ -16354,7 +17427,142 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H64</xm:sqref>
+          <xm:sqref>H73</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2BA9A25E-B14D-45FA-96F0-3BA762CE9EA1}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{79744B6C-DE0E-41B5-81A9-67F74C450A4F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E16932AC-40B8-42A7-8DB2-5D64D178103E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H33</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1CB50A01-7198-4D74-B3DA-71AD1D1427A9}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A98C2083-118D-4695-B9AA-92701C045809}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{90C77C70-2B56-473D-A9A4-B601B56B6CB5}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CF4D7B91-6F5D-4F51-9C2E-CC4DC5CD04FF}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{745F3C84-B632-4082-9890-703832AAF6FA}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8272F0CE-FA62-4BDB-A638-466C2D382EAA}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H39</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BlackDragoon\Desktop\PROJECT\PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9130CA96-A26B-4DF0-B90D-7D19D898C77F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667EC107-BEA5-423A-A471-76F72D8BBB11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4875" yWindow="2280" windowWidth="21585" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -2867,13 +2867,6 @@
     <xf numFmtId="0" fontId="67" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2883,10 +2876,6 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="167" fontId="45" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2895,6 +2884,17 @@
     </xf>
     <xf numFmtId="167" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4984,8 +4984,8 @@
   <dimension ref="A1:BN111"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5013,29 +5013,29 @@
       <c r="E1" s="43"/>
       <c r="F1" s="43"/>
       <c r="I1" s="101"/>
-      <c r="K1" s="133" t="s">
+      <c r="K1" s="139" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="133"/>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="133"/>
-      <c r="S1" s="133"/>
-      <c r="T1" s="133"/>
-      <c r="U1" s="133"/>
-      <c r="V1" s="133"/>
-      <c r="W1" s="133"/>
-      <c r="X1" s="133"/>
-      <c r="Y1" s="133"/>
-      <c r="Z1" s="133"/>
-      <c r="AA1" s="133"/>
-      <c r="AB1" s="133"/>
-      <c r="AC1" s="133"/>
-      <c r="AD1" s="133"/>
-      <c r="AE1" s="133"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139"/>
+      <c r="S1" s="139"/>
+      <c r="T1" s="139"/>
+      <c r="U1" s="139"/>
+      <c r="V1" s="139"/>
+      <c r="W1" s="139"/>
+      <c r="X1" s="139"/>
+      <c r="Y1" s="139"/>
+      <c r="Z1" s="139"/>
+      <c r="AA1" s="139"/>
+      <c r="AB1" s="139"/>
+      <c r="AC1" s="139"/>
+      <c r="AD1" s="139"/>
+      <c r="AE1" s="139"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
@@ -5080,11 +5080,11 @@
       <c r="B4" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="138">
+      <c r="C4" s="141">
         <v>44460</v>
       </c>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
       <c r="F4" s="82"/>
       <c r="G4" s="85" t="s">
         <v>69</v>
@@ -5094,182 +5094,182 @@
       </c>
       <c r="I4" s="83"/>
       <c r="J4" s="46"/>
-      <c r="K4" s="135" t="str">
+      <c r="K4" s="133" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="136"/>
-      <c r="M4" s="136"/>
-      <c r="N4" s="136"/>
-      <c r="O4" s="136"/>
-      <c r="P4" s="136"/>
-      <c r="Q4" s="137"/>
-      <c r="R4" s="135" t="str">
+      <c r="L4" s="134"/>
+      <c r="M4" s="134"/>
+      <c r="N4" s="134"/>
+      <c r="O4" s="134"/>
+      <c r="P4" s="134"/>
+      <c r="Q4" s="135"/>
+      <c r="R4" s="133" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="136"/>
-      <c r="T4" s="136"/>
-      <c r="U4" s="136"/>
-      <c r="V4" s="136"/>
-      <c r="W4" s="136"/>
-      <c r="X4" s="137"/>
-      <c r="Y4" s="135" t="str">
+      <c r="S4" s="134"/>
+      <c r="T4" s="134"/>
+      <c r="U4" s="134"/>
+      <c r="V4" s="134"/>
+      <c r="W4" s="134"/>
+      <c r="X4" s="135"/>
+      <c r="Y4" s="133" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="136"/>
-      <c r="AA4" s="136"/>
-      <c r="AB4" s="136"/>
-      <c r="AC4" s="136"/>
-      <c r="AD4" s="136"/>
-      <c r="AE4" s="137"/>
-      <c r="AF4" s="135" t="str">
+      <c r="Z4" s="134"/>
+      <c r="AA4" s="134"/>
+      <c r="AB4" s="134"/>
+      <c r="AC4" s="134"/>
+      <c r="AD4" s="134"/>
+      <c r="AE4" s="135"/>
+      <c r="AF4" s="133" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="136"/>
-      <c r="AH4" s="136"/>
-      <c r="AI4" s="136"/>
-      <c r="AJ4" s="136"/>
-      <c r="AK4" s="136"/>
-      <c r="AL4" s="137"/>
-      <c r="AM4" s="135" t="str">
+      <c r="AG4" s="134"/>
+      <c r="AH4" s="134"/>
+      <c r="AI4" s="134"/>
+      <c r="AJ4" s="134"/>
+      <c r="AK4" s="134"/>
+      <c r="AL4" s="135"/>
+      <c r="AM4" s="133" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="136"/>
-      <c r="AO4" s="136"/>
-      <c r="AP4" s="136"/>
-      <c r="AQ4" s="136"/>
-      <c r="AR4" s="136"/>
-      <c r="AS4" s="137"/>
-      <c r="AT4" s="135" t="str">
+      <c r="AN4" s="134"/>
+      <c r="AO4" s="134"/>
+      <c r="AP4" s="134"/>
+      <c r="AQ4" s="134"/>
+      <c r="AR4" s="134"/>
+      <c r="AS4" s="135"/>
+      <c r="AT4" s="133" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="136"/>
-      <c r="AV4" s="136"/>
-      <c r="AW4" s="136"/>
-      <c r="AX4" s="136"/>
-      <c r="AY4" s="136"/>
-      <c r="AZ4" s="137"/>
-      <c r="BA4" s="135" t="str">
+      <c r="AU4" s="134"/>
+      <c r="AV4" s="134"/>
+      <c r="AW4" s="134"/>
+      <c r="AX4" s="134"/>
+      <c r="AY4" s="134"/>
+      <c r="AZ4" s="135"/>
+      <c r="BA4" s="133" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="136"/>
-      <c r="BC4" s="136"/>
-      <c r="BD4" s="136"/>
-      <c r="BE4" s="136"/>
-      <c r="BF4" s="136"/>
-      <c r="BG4" s="137"/>
-      <c r="BH4" s="135" t="str">
+      <c r="BB4" s="134"/>
+      <c r="BC4" s="134"/>
+      <c r="BD4" s="134"/>
+      <c r="BE4" s="134"/>
+      <c r="BF4" s="134"/>
+      <c r="BG4" s="135"/>
+      <c r="BH4" s="133" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="136"/>
-      <c r="BJ4" s="136"/>
-      <c r="BK4" s="136"/>
-      <c r="BL4" s="136"/>
-      <c r="BM4" s="136"/>
-      <c r="BN4" s="137"/>
+      <c r="BI4" s="134"/>
+      <c r="BJ4" s="134"/>
+      <c r="BK4" s="134"/>
+      <c r="BL4" s="134"/>
+      <c r="BM4" s="134"/>
+      <c r="BN4" s="135"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="81"/>
       <c r="B5" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="134" t="s">
+      <c r="C5" s="140" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
       <c r="F5" s="84"/>
       <c r="G5" s="84"/>
       <c r="H5" s="84"/>
       <c r="I5" s="84"/>
       <c r="J5" s="46"/>
-      <c r="K5" s="139">
+      <c r="K5" s="136">
         <f>K6</f>
         <v>44459</v>
       </c>
-      <c r="L5" s="140"/>
-      <c r="M5" s="140"/>
-      <c r="N5" s="140"/>
-      <c r="O5" s="140"/>
-      <c r="P5" s="140"/>
-      <c r="Q5" s="141"/>
-      <c r="R5" s="139">
+      <c r="L5" s="137"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="137"/>
+      <c r="O5" s="137"/>
+      <c r="P5" s="137"/>
+      <c r="Q5" s="138"/>
+      <c r="R5" s="136">
         <f>R6</f>
         <v>44466</v>
       </c>
-      <c r="S5" s="140"/>
-      <c r="T5" s="140"/>
-      <c r="U5" s="140"/>
-      <c r="V5" s="140"/>
-      <c r="W5" s="140"/>
-      <c r="X5" s="141"/>
-      <c r="Y5" s="139">
+      <c r="S5" s="137"/>
+      <c r="T5" s="137"/>
+      <c r="U5" s="137"/>
+      <c r="V5" s="137"/>
+      <c r="W5" s="137"/>
+      <c r="X5" s="138"/>
+      <c r="Y5" s="136">
         <f>Y6</f>
         <v>44473</v>
       </c>
-      <c r="Z5" s="140"/>
-      <c r="AA5" s="140"/>
-      <c r="AB5" s="140"/>
-      <c r="AC5" s="140"/>
-      <c r="AD5" s="140"/>
-      <c r="AE5" s="141"/>
-      <c r="AF5" s="139">
+      <c r="Z5" s="137"/>
+      <c r="AA5" s="137"/>
+      <c r="AB5" s="137"/>
+      <c r="AC5" s="137"/>
+      <c r="AD5" s="137"/>
+      <c r="AE5" s="138"/>
+      <c r="AF5" s="136">
         <f>AF6</f>
         <v>44480</v>
       </c>
-      <c r="AG5" s="140"/>
-      <c r="AH5" s="140"/>
-      <c r="AI5" s="140"/>
-      <c r="AJ5" s="140"/>
-      <c r="AK5" s="140"/>
-      <c r="AL5" s="141"/>
-      <c r="AM5" s="139">
+      <c r="AG5" s="137"/>
+      <c r="AH5" s="137"/>
+      <c r="AI5" s="137"/>
+      <c r="AJ5" s="137"/>
+      <c r="AK5" s="137"/>
+      <c r="AL5" s="138"/>
+      <c r="AM5" s="136">
         <f>AM6</f>
         <v>44487</v>
       </c>
-      <c r="AN5" s="140"/>
-      <c r="AO5" s="140"/>
-      <c r="AP5" s="140"/>
-      <c r="AQ5" s="140"/>
-      <c r="AR5" s="140"/>
-      <c r="AS5" s="141"/>
-      <c r="AT5" s="139">
+      <c r="AN5" s="137"/>
+      <c r="AO5" s="137"/>
+      <c r="AP5" s="137"/>
+      <c r="AQ5" s="137"/>
+      <c r="AR5" s="137"/>
+      <c r="AS5" s="138"/>
+      <c r="AT5" s="136">
         <f>AT6</f>
         <v>44494</v>
       </c>
-      <c r="AU5" s="140"/>
-      <c r="AV5" s="140"/>
-      <c r="AW5" s="140"/>
-      <c r="AX5" s="140"/>
-      <c r="AY5" s="140"/>
-      <c r="AZ5" s="141"/>
-      <c r="BA5" s="139">
+      <c r="AU5" s="137"/>
+      <c r="AV5" s="137"/>
+      <c r="AW5" s="137"/>
+      <c r="AX5" s="137"/>
+      <c r="AY5" s="137"/>
+      <c r="AZ5" s="138"/>
+      <c r="BA5" s="136">
         <f>BA6</f>
         <v>44501</v>
       </c>
-      <c r="BB5" s="140"/>
-      <c r="BC5" s="140"/>
-      <c r="BD5" s="140"/>
-      <c r="BE5" s="140"/>
-      <c r="BF5" s="140"/>
-      <c r="BG5" s="141"/>
-      <c r="BH5" s="139">
+      <c r="BB5" s="137"/>
+      <c r="BC5" s="137"/>
+      <c r="BD5" s="137"/>
+      <c r="BE5" s="137"/>
+      <c r="BF5" s="137"/>
+      <c r="BG5" s="138"/>
+      <c r="BH5" s="136">
         <f>BH6</f>
         <v>44508</v>
       </c>
-      <c r="BI5" s="140"/>
-      <c r="BJ5" s="140"/>
-      <c r="BK5" s="140"/>
-      <c r="BL5" s="140"/>
-      <c r="BM5" s="140"/>
-      <c r="BN5" s="141"/>
+      <c r="BI5" s="137"/>
+      <c r="BJ5" s="137"/>
+      <c r="BK5" s="137"/>
+      <c r="BL5" s="137"/>
+      <c r="BM5" s="137"/>
+      <c r="BN5" s="138"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6" s="45"/>
@@ -6358,7 +6358,7 @@
         <v>4</v>
       </c>
       <c r="H15" s="59">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I15" s="60">
         <v>0</v>
@@ -6441,7 +6441,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="60">
         <v>0</v>
@@ -6524,7 +6524,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="60">
         <v>0</v>
@@ -14372,6 +14372,15 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -14382,15 +14391,6 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H8:H9 H15 H50 H59 H29:H30 H69 H72 H82:H84 H40:H41">

--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BlackDragoon\Desktop\PROJECT\PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667EC107-BEA5-423A-A471-76F72D8BBB11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DA2827-5807-4897-AC03-85D7B38E9173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4875" yWindow="2280" windowWidth="21585" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4985,7 +4985,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W20" sqref="W20"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6358,7 +6358,7 @@
         <v>4</v>
       </c>
       <c r="H15" s="59">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="I15" s="60">
         <v>0</v>
@@ -6607,7 +6607,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="60">
         <v>0</v>
@@ -6690,7 +6690,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="60">
         <v>0</v>
@@ -6773,7 +6773,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="60">
         <v>0</v>
@@ -6856,7 +6856,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="60">
         <v>0</v>

--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BlackDragoon\Desktop\PROJECT\PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DA2827-5807-4897-AC03-85D7B38E9173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D80BD59-FBDD-4C04-A65D-FCEDC95011CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4875" yWindow="2280" windowWidth="21585" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$102</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$93</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">GanttChartPro!$A$1:$C$47</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
@@ -453,7 +453,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="178">
   <si>
     <t>WBS</t>
   </si>
@@ -1515,9 +1515,6 @@
     <t>NZ Horse Racing</t>
   </si>
   <si>
-    <t>Business Use Case Narratives</t>
-  </si>
-  <si>
     <t>Add Booking</t>
   </si>
   <si>
@@ -1536,12 +1533,6 @@
     <t>Delete Horse</t>
   </si>
   <si>
-    <t>Add Race Entry</t>
-  </si>
-  <si>
-    <t>Delete Race Entry</t>
-  </si>
-  <si>
     <t>Gantt Chart</t>
   </si>
   <si>
@@ -1587,9 +1578,6 @@
     <t>Design</t>
   </si>
   <si>
-    <t>Testing</t>
-  </si>
-  <si>
     <t>Technical Report</t>
   </si>
   <si>
@@ -1654,6 +1642,9 @@
   </si>
   <si>
     <t>Analysis Use Case Narratives</t>
+  </si>
+  <si>
+    <t>Deployment</t>
   </si>
 </sst>
 </file>
@@ -2946,7 +2937,7 @@
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="121">
+  <dxfs count="87">
     <dxf>
       <border>
         <left style="thin">
@@ -2958,156 +2949,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border>
@@ -3206,18 +3047,16 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -3232,18 +3071,16 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -3258,18 +3095,16 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -3284,18 +3119,76 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -3936,186 +3829,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border>
@@ -4981,11 +4694,11 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN111"/>
+  <dimension ref="A1:BN102"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5767,7 +5480,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C8" s="64"/>
       <c r="D8" s="65"/>
@@ -5779,7 +5492,7 @@
       <c r="G8" s="67"/>
       <c r="H8" s="68"/>
       <c r="I8" s="69" t="str">
-        <f t="shared" ref="I8:I82" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
+        <f t="shared" ref="I8:I73" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J8" s="72"/>
@@ -5842,11 +5555,11 @@
     </row>
     <row r="9" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="56" t="str">
-        <f t="shared" ref="A9:A15" si="5">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" ref="A9:A10" si="5">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
       </c>
       <c r="B9" s="97" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D9" s="98"/>
       <c r="E9" s="75">
@@ -5929,7 +5642,7 @@
         <v>1.2</v>
       </c>
       <c r="B10" s="97" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D10" s="98"/>
       <c r="E10" s="75">
@@ -6012,7 +5725,7 @@
         <v>1.3</v>
       </c>
       <c r="B11" s="97" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D11" s="98"/>
       <c r="E11" s="75">
@@ -6095,7 +5808,7 @@
         <v>1.3.1</v>
       </c>
       <c r="B12" s="99" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D12" s="98"/>
       <c r="E12" s="75">
@@ -6178,7 +5891,7 @@
         <v>1.3.2</v>
       </c>
       <c r="B13" s="99" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D13" s="98"/>
       <c r="E13" s="75">
@@ -6261,7 +5974,7 @@
         <v>1.3.3</v>
       </c>
       <c r="B14" s="99" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D14" s="98"/>
       <c r="E14" s="75">
@@ -6338,27 +6051,27 @@
       <c r="BM14" s="79"/>
       <c r="BN14" s="79"/>
     </row>
-    <row r="15" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="56" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.4</v>
       </c>
       <c r="B15" s="97" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="D15" s="98"/>
       <c r="E15" s="75">
-        <v>44466</v>
+        <v>43148</v>
       </c>
       <c r="F15" s="76">
-        <f t="shared" ref="F15:F85" si="7">IF(ISBLANK(E15)," - ",IF(G15=0,E15,E15+G15-1))</f>
-        <v>44469</v>
+        <f t="shared" ref="F15:F18" si="7">IF(ISBLANK(E15)," - ",IF(G15=0,E15,E15+G15-1))</f>
+        <v>43148</v>
       </c>
       <c r="G15" s="58">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H15" s="59">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I15" s="60">
         <v>0</v>
@@ -6423,19 +6136,19 @@
     </row>
     <row r="16" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="56" t="str">
-        <f t="shared" ref="A16:A23" si="8">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.4.1</v>
       </c>
       <c r="B16" s="99" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="D16" s="98"/>
       <c r="E16" s="75">
-        <v>44466</v>
+        <v>44469</v>
       </c>
       <c r="F16" s="76">
-        <f t="shared" ref="F16" si="9">IF(ISBLANK(E16)," - ",IF(G16=0,E16,E16+G16-1))</f>
-        <v>44466</v>
+        <f t="shared" si="7"/>
+        <v>44469</v>
       </c>
       <c r="G16" s="58">
         <v>1</v>
@@ -6506,19 +6219,19 @@
     </row>
     <row r="17" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="56" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.4.2</v>
       </c>
       <c r="B17" s="99" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="D17" s="98"/>
       <c r="E17" s="75">
-        <v>44466</v>
+        <v>44469</v>
       </c>
       <c r="F17" s="76">
-        <f t="shared" ref="F17" si="10">IF(ISBLANK(E17)," - ",IF(G17=0,E17,E17+G17-1))</f>
-        <v>44466</v>
+        <f t="shared" si="7"/>
+        <v>44469</v>
       </c>
       <c r="G17" s="58">
         <v>1</v>
@@ -6589,19 +6302,19 @@
     </row>
     <row r="18" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="56" t="str">
-        <f t="shared" si="8"/>
-        <v>1.4.3</v>
-      </c>
-      <c r="B18" s="99" t="s">
-        <v>137</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>1.5</v>
+      </c>
+      <c r="B18" s="97" t="s">
+        <v>144</v>
       </c>
       <c r="D18" s="98"/>
       <c r="E18" s="75">
-        <v>44467</v>
+        <v>44469</v>
       </c>
       <c r="F18" s="76">
-        <f t="shared" ref="F18" si="11">IF(ISBLANK(E18)," - ",IF(G18=0,E18,E18+G18-1))</f>
-        <v>44467</v>
+        <f t="shared" si="7"/>
+        <v>44469</v>
       </c>
       <c r="G18" s="58">
         <v>1</v>
@@ -6672,19 +6385,19 @@
     </row>
     <row r="19" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="56" t="str">
-        <f t="shared" si="8"/>
-        <v>1.4.4</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>1.5.1</v>
       </c>
       <c r="B19" s="99" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="D19" s="98"/>
       <c r="E19" s="75">
-        <v>44467</v>
+        <v>44469</v>
       </c>
       <c r="F19" s="76">
-        <f t="shared" ref="F19" si="12">IF(ISBLANK(E19)," - ",IF(G19=0,E19,E19+G19-1))</f>
-        <v>44467</v>
+        <f t="shared" ref="F19" si="8">IF(ISBLANK(E19)," - ",IF(G19=0,E19,E19+G19-1))</f>
+        <v>44469</v>
       </c>
       <c r="G19" s="58">
         <v>1</v>
@@ -6753,107 +6466,102 @@
       <c r="BM19" s="79"/>
       <c r="BN19" s="79"/>
     </row>
-    <row r="20" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="56" t="str">
-        <f t="shared" si="8"/>
-        <v>1.4.5</v>
-      </c>
-      <c r="B20" s="99" t="s">
-        <v>139</v>
-      </c>
-      <c r="D20" s="98"/>
-      <c r="E20" s="75">
-        <v>44468</v>
-      </c>
-      <c r="F20" s="76">
-        <f t="shared" ref="F20" si="13">IF(ISBLANK(E20)," - ",IF(G20=0,E20,E20+G20-1))</f>
-        <v>44468</v>
-      </c>
-      <c r="G20" s="58">
-        <v>1</v>
-      </c>
-      <c r="H20" s="59">
-        <v>1</v>
-      </c>
-      <c r="I20" s="60">
-        <v>0</v>
-      </c>
-      <c r="J20" s="73"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="79"/>
-      <c r="P20" s="79"/>
-      <c r="Q20" s="79"/>
-      <c r="R20" s="79"/>
-      <c r="S20" s="79"/>
-      <c r="T20" s="79"/>
-      <c r="U20" s="79"/>
-      <c r="V20" s="79"/>
-      <c r="W20" s="79"/>
-      <c r="X20" s="79"/>
-      <c r="Y20" s="79"/>
-      <c r="Z20" s="79"/>
-      <c r="AA20" s="79"/>
-      <c r="AB20" s="79"/>
-      <c r="AC20" s="79"/>
-      <c r="AD20" s="79"/>
-      <c r="AE20" s="79"/>
-      <c r="AF20" s="79"/>
-      <c r="AG20" s="79"/>
-      <c r="AH20" s="79"/>
-      <c r="AI20" s="79"/>
-      <c r="AJ20" s="79"/>
-      <c r="AK20" s="79"/>
-      <c r="AL20" s="79"/>
-      <c r="AM20" s="79"/>
-      <c r="AN20" s="79"/>
-      <c r="AO20" s="79"/>
-      <c r="AP20" s="79"/>
-      <c r="AQ20" s="79"/>
-      <c r="AR20" s="79"/>
-      <c r="AS20" s="79"/>
-      <c r="AT20" s="79"/>
-      <c r="AU20" s="79"/>
-      <c r="AV20" s="79"/>
-      <c r="AW20" s="79"/>
-      <c r="AX20" s="79"/>
-      <c r="AY20" s="79"/>
-      <c r="AZ20" s="79"/>
-      <c r="BA20" s="79"/>
-      <c r="BB20" s="79"/>
-      <c r="BC20" s="79"/>
-      <c r="BD20" s="79"/>
-      <c r="BE20" s="79"/>
-      <c r="BF20" s="79"/>
-      <c r="BG20" s="79"/>
-      <c r="BH20" s="79"/>
-      <c r="BI20" s="79"/>
-      <c r="BJ20" s="79"/>
-      <c r="BK20" s="79"/>
-      <c r="BL20" s="79"/>
-      <c r="BM20" s="79"/>
-      <c r="BN20" s="79"/>
+    <row r="20" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="49" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>2</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="52"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77" t="str">
+        <f t="shared" ref="F20:F76" si="9">IF(ISBLANK(E20)," - ",IF(G20=0,E20,E20+G20-1))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G20" s="53"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="55" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J20" s="74"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="80"/>
+      <c r="P20" s="80"/>
+      <c r="Q20" s="80"/>
+      <c r="R20" s="80"/>
+      <c r="S20" s="80"/>
+      <c r="T20" s="80"/>
+      <c r="U20" s="80"/>
+      <c r="V20" s="80"/>
+      <c r="W20" s="80"/>
+      <c r="X20" s="80"/>
+      <c r="Y20" s="80"/>
+      <c r="Z20" s="80"/>
+      <c r="AA20" s="80"/>
+      <c r="AB20" s="80"/>
+      <c r="AC20" s="80"/>
+      <c r="AD20" s="80"/>
+      <c r="AE20" s="80"/>
+      <c r="AF20" s="80"/>
+      <c r="AG20" s="80"/>
+      <c r="AH20" s="80"/>
+      <c r="AI20" s="80"/>
+      <c r="AJ20" s="80"/>
+      <c r="AK20" s="80"/>
+      <c r="AL20" s="80"/>
+      <c r="AM20" s="80"/>
+      <c r="AN20" s="80"/>
+      <c r="AO20" s="80"/>
+      <c r="AP20" s="80"/>
+      <c r="AQ20" s="80"/>
+      <c r="AR20" s="80"/>
+      <c r="AS20" s="80"/>
+      <c r="AT20" s="80"/>
+      <c r="AU20" s="80"/>
+      <c r="AV20" s="80"/>
+      <c r="AW20" s="80"/>
+      <c r="AX20" s="80"/>
+      <c r="AY20" s="80"/>
+      <c r="AZ20" s="80"/>
+      <c r="BA20" s="80"/>
+      <c r="BB20" s="80"/>
+      <c r="BC20" s="80"/>
+      <c r="BD20" s="80"/>
+      <c r="BE20" s="80"/>
+      <c r="BF20" s="80"/>
+      <c r="BG20" s="80"/>
+      <c r="BH20" s="80"/>
+      <c r="BI20" s="80"/>
+      <c r="BJ20" s="80"/>
+      <c r="BK20" s="80"/>
+      <c r="BL20" s="80"/>
+      <c r="BM20" s="80"/>
+      <c r="BN20" s="80"/>
     </row>
     <row r="21" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="56" t="str">
-        <f t="shared" si="8"/>
-        <v>1.4.6</v>
-      </c>
-      <c r="B21" s="99" t="s">
-        <v>140</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>2.1</v>
+      </c>
+      <c r="B21" s="97" t="s">
+        <v>157</v>
       </c>
       <c r="D21" s="98"/>
       <c r="E21" s="75">
-        <v>44468</v>
+        <v>44464</v>
       </c>
       <c r="F21" s="76">
-        <f t="shared" ref="F21" si="14">IF(ISBLANK(E21)," - ",IF(G21=0,E21,E21+G21-1))</f>
-        <v>44468</v>
+        <f t="shared" si="9"/>
+        <v>44465</v>
       </c>
       <c r="G21" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" s="59">
         <v>1</v>
@@ -6919,27 +6627,27 @@
       <c r="BM21" s="79"/>
       <c r="BN21" s="79"/>
     </row>
-    <row r="22" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A22" s="56" t="str">
-        <f t="shared" si="8"/>
-        <v>1.4.7</v>
-      </c>
-      <c r="B22" s="99" t="s">
-        <v>141</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>2.2</v>
+      </c>
+      <c r="B22" s="97" t="s">
+        <v>176</v>
       </c>
       <c r="D22" s="98"/>
       <c r="E22" s="75">
+        <v>44466</v>
+      </c>
+      <c r="F22" s="76">
+        <f t="shared" ref="F22:F30" si="10">IF(ISBLANK(E22)," - ",IF(G22=0,E22,E22+G22-1))</f>
         <v>44469</v>
       </c>
-      <c r="F22" s="76">
-        <f t="shared" ref="F22:F27" si="15">IF(ISBLANK(E22)," - ",IF(G22=0,E22,E22+G22-1))</f>
-        <v>44469</v>
-      </c>
       <c r="G22" s="58">
+        <v>4</v>
+      </c>
+      <c r="H22" s="59">
         <v>1</v>
-      </c>
-      <c r="H22" s="59">
-        <v>0</v>
       </c>
       <c r="I22" s="60">
         <v>0</v>
@@ -7004,25 +6712,25 @@
     </row>
     <row r="23" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="56" t="str">
-        <f t="shared" si="8"/>
-        <v>1.4.8</v>
+        <f t="shared" ref="A23:A30" si="11">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>2.2.1</v>
       </c>
       <c r="B23" s="99" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D23" s="98"/>
       <c r="E23" s="75">
-        <v>44469</v>
+        <v>44466</v>
       </c>
       <c r="F23" s="76">
-        <f t="shared" ref="F23" si="16">IF(ISBLANK(E23)," - ",IF(G23=0,E23,E23+G23-1))</f>
-        <v>44469</v>
+        <f t="shared" si="10"/>
+        <v>44466</v>
       </c>
       <c r="G23" s="58">
         <v>1</v>
       </c>
       <c r="H23" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="60">
         <v>0</v>
@@ -7087,25 +6795,25 @@
     </row>
     <row r="24" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>1.5</v>
-      </c>
-      <c r="B24" s="97" t="s">
-        <v>162</v>
+        <f t="shared" si="11"/>
+        <v>2.2.2</v>
+      </c>
+      <c r="B24" s="99" t="s">
+        <v>135</v>
       </c>
       <c r="D24" s="98"/>
       <c r="E24" s="75">
-        <v>43148</v>
+        <v>44466</v>
       </c>
       <c r="F24" s="76">
-        <f t="shared" si="15"/>
-        <v>43148</v>
+        <f t="shared" si="10"/>
+        <v>44466</v>
       </c>
       <c r="G24" s="58">
         <v>1</v>
       </c>
       <c r="H24" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="60">
         <v>0</v>
@@ -7170,19 +6878,19 @@
     </row>
     <row r="25" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.5.1</v>
+        <f t="shared" si="11"/>
+        <v>2.2.3</v>
       </c>
       <c r="B25" s="99" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="D25" s="98"/>
       <c r="E25" s="75">
-        <v>44469</v>
+        <v>44467</v>
       </c>
       <c r="F25" s="76">
-        <f t="shared" si="15"/>
-        <v>44469</v>
+        <f t="shared" si="10"/>
+        <v>44467</v>
       </c>
       <c r="G25" s="58">
         <v>1</v>
@@ -7253,19 +6961,19 @@
     </row>
     <row r="26" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.5.2</v>
+        <f t="shared" si="11"/>
+        <v>2.2.4</v>
       </c>
       <c r="B26" s="99" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="D26" s="98"/>
       <c r="E26" s="75">
-        <v>44469</v>
+        <v>44467</v>
       </c>
       <c r="F26" s="76">
-        <f t="shared" si="15"/>
-        <v>44469</v>
+        <f t="shared" si="10"/>
+        <v>44467</v>
       </c>
       <c r="G26" s="58">
         <v>1</v>
@@ -7336,19 +7044,19 @@
     </row>
     <row r="27" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>1.6</v>
-      </c>
-      <c r="B27" s="97" t="s">
-        <v>147</v>
+        <f t="shared" si="11"/>
+        <v>2.2.5</v>
+      </c>
+      <c r="B27" s="99" t="s">
+        <v>138</v>
       </c>
       <c r="D27" s="98"/>
       <c r="E27" s="75">
-        <v>44469</v>
+        <v>44468</v>
       </c>
       <c r="F27" s="76">
-        <f t="shared" si="15"/>
-        <v>44469</v>
+        <f t="shared" si="10"/>
+        <v>44468</v>
       </c>
       <c r="G27" s="58">
         <v>1</v>
@@ -7419,19 +7127,19 @@
     </row>
     <row r="28" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.6.1</v>
+        <f t="shared" si="11"/>
+        <v>2.2.6</v>
       </c>
       <c r="B28" s="99" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="D28" s="98"/>
       <c r="E28" s="75">
-        <v>44469</v>
+        <v>44468</v>
       </c>
       <c r="F28" s="76">
-        <f t="shared" ref="F28" si="17">IF(ISBLANK(E28)," - ",IF(G28=0,E28,E28+G28-1))</f>
-        <v>44469</v>
+        <f t="shared" si="10"/>
+        <v>44468</v>
       </c>
       <c r="G28" s="58">
         <v>1</v>
@@ -7500,102 +7208,107 @@
       <c r="BM28" s="79"/>
       <c r="BN28" s="79"/>
     </row>
-    <row r="29" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="49" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>2</v>
-      </c>
-      <c r="B29" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="D29" s="52"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G29" s="53"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="55" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J29" s="74"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="80"/>
-      <c r="M29" s="80"/>
-      <c r="N29" s="80"/>
-      <c r="O29" s="80"/>
-      <c r="P29" s="80"/>
-      <c r="Q29" s="80"/>
-      <c r="R29" s="80"/>
-      <c r="S29" s="80"/>
-      <c r="T29" s="80"/>
-      <c r="U29" s="80"/>
-      <c r="V29" s="80"/>
-      <c r="W29" s="80"/>
-      <c r="X29" s="80"/>
-      <c r="Y29" s="80"/>
-      <c r="Z29" s="80"/>
-      <c r="AA29" s="80"/>
-      <c r="AB29" s="80"/>
-      <c r="AC29" s="80"/>
-      <c r="AD29" s="80"/>
-      <c r="AE29" s="80"/>
-      <c r="AF29" s="80"/>
-      <c r="AG29" s="80"/>
-      <c r="AH29" s="80"/>
-      <c r="AI29" s="80"/>
-      <c r="AJ29" s="80"/>
-      <c r="AK29" s="80"/>
-      <c r="AL29" s="80"/>
-      <c r="AM29" s="80"/>
-      <c r="AN29" s="80"/>
-      <c r="AO29" s="80"/>
-      <c r="AP29" s="80"/>
-      <c r="AQ29" s="80"/>
-      <c r="AR29" s="80"/>
-      <c r="AS29" s="80"/>
-      <c r="AT29" s="80"/>
-      <c r="AU29" s="80"/>
-      <c r="AV29" s="80"/>
-      <c r="AW29" s="80"/>
-      <c r="AX29" s="80"/>
-      <c r="AY29" s="80"/>
-      <c r="AZ29" s="80"/>
-      <c r="BA29" s="80"/>
-      <c r="BB29" s="80"/>
-      <c r="BC29" s="80"/>
-      <c r="BD29" s="80"/>
-      <c r="BE29" s="80"/>
-      <c r="BF29" s="80"/>
-      <c r="BG29" s="80"/>
-      <c r="BH29" s="80"/>
-      <c r="BI29" s="80"/>
-      <c r="BJ29" s="80"/>
-      <c r="BK29" s="80"/>
-      <c r="BL29" s="80"/>
-      <c r="BM29" s="80"/>
-      <c r="BN29" s="80"/>
-    </row>
-    <row r="30" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A29" s="56" t="str">
+        <f t="shared" si="11"/>
+        <v>2.2.7</v>
+      </c>
+      <c r="B29" s="99" t="s">
+        <v>162</v>
+      </c>
+      <c r="D29" s="98"/>
+      <c r="E29" s="75">
+        <v>44469</v>
+      </c>
+      <c r="F29" s="76">
+        <f t="shared" si="10"/>
+        <v>44469</v>
+      </c>
+      <c r="G29" s="58">
+        <v>1</v>
+      </c>
+      <c r="H29" s="59">
+        <v>1</v>
+      </c>
+      <c r="I29" s="60">
+        <v>0</v>
+      </c>
+      <c r="J29" s="73"/>
+      <c r="K29" s="79"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="79"/>
+      <c r="O29" s="79"/>
+      <c r="P29" s="79"/>
+      <c r="Q29" s="79"/>
+      <c r="R29" s="79"/>
+      <c r="S29" s="79"/>
+      <c r="T29" s="79"/>
+      <c r="U29" s="79"/>
+      <c r="V29" s="79"/>
+      <c r="W29" s="79"/>
+      <c r="X29" s="79"/>
+      <c r="Y29" s="79"/>
+      <c r="Z29" s="79"/>
+      <c r="AA29" s="79"/>
+      <c r="AB29" s="79"/>
+      <c r="AC29" s="79"/>
+      <c r="AD29" s="79"/>
+      <c r="AE29" s="79"/>
+      <c r="AF29" s="79"/>
+      <c r="AG29" s="79"/>
+      <c r="AH29" s="79"/>
+      <c r="AI29" s="79"/>
+      <c r="AJ29" s="79"/>
+      <c r="AK29" s="79"/>
+      <c r="AL29" s="79"/>
+      <c r="AM29" s="79"/>
+      <c r="AN29" s="79"/>
+      <c r="AO29" s="79"/>
+      <c r="AP29" s="79"/>
+      <c r="AQ29" s="79"/>
+      <c r="AR29" s="79"/>
+      <c r="AS29" s="79"/>
+      <c r="AT29" s="79"/>
+      <c r="AU29" s="79"/>
+      <c r="AV29" s="79"/>
+      <c r="AW29" s="79"/>
+      <c r="AX29" s="79"/>
+      <c r="AY29" s="79"/>
+      <c r="AZ29" s="79"/>
+      <c r="BA29" s="79"/>
+      <c r="BB29" s="79"/>
+      <c r="BC29" s="79"/>
+      <c r="BD29" s="79"/>
+      <c r="BE29" s="79"/>
+      <c r="BF29" s="79"/>
+      <c r="BG29" s="79"/>
+      <c r="BH29" s="79"/>
+      <c r="BI29" s="79"/>
+      <c r="BJ29" s="79"/>
+      <c r="BK29" s="79"/>
+      <c r="BL29" s="79"/>
+      <c r="BM29" s="79"/>
+      <c r="BN29" s="79"/>
+    </row>
+    <row r="30" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A30" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.1</v>
-      </c>
-      <c r="B30" s="97" t="s">
-        <v>161</v>
+        <f t="shared" si="11"/>
+        <v>2.2.8</v>
+      </c>
+      <c r="B30" s="99" t="s">
+        <v>163</v>
       </c>
       <c r="D30" s="98"/>
       <c r="E30" s="75">
-        <v>44464</v>
+        <v>44469</v>
       </c>
       <c r="F30" s="76">
-        <f t="shared" si="7"/>
-        <v>44465</v>
+        <f t="shared" si="10"/>
+        <v>44469</v>
       </c>
       <c r="G30" s="58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" s="59">
         <v>1</v>
@@ -7661,107 +7374,102 @@
       <c r="BM30" s="79"/>
       <c r="BN30" s="79"/>
     </row>
-    <row r="31" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A31" s="56" t="str">
+    <row r="31" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" s="49" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>3</v>
+      </c>
+      <c r="B31" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31" s="52"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G31" s="53"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="55" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J31" s="74"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="80"/>
+      <c r="M31" s="80"/>
+      <c r="N31" s="80"/>
+      <c r="O31" s="80"/>
+      <c r="P31" s="80"/>
+      <c r="Q31" s="80"/>
+      <c r="R31" s="80"/>
+      <c r="S31" s="80"/>
+      <c r="T31" s="80"/>
+      <c r="U31" s="80"/>
+      <c r="V31" s="80"/>
+      <c r="W31" s="80"/>
+      <c r="X31" s="80"/>
+      <c r="Y31" s="80"/>
+      <c r="Z31" s="80"/>
+      <c r="AA31" s="80"/>
+      <c r="AB31" s="80"/>
+      <c r="AC31" s="80"/>
+      <c r="AD31" s="80"/>
+      <c r="AE31" s="80"/>
+      <c r="AF31" s="80"/>
+      <c r="AG31" s="80"/>
+      <c r="AH31" s="80"/>
+      <c r="AI31" s="80"/>
+      <c r="AJ31" s="80"/>
+      <c r="AK31" s="80"/>
+      <c r="AL31" s="80"/>
+      <c r="AM31" s="80"/>
+      <c r="AN31" s="80"/>
+      <c r="AO31" s="80"/>
+      <c r="AP31" s="80"/>
+      <c r="AQ31" s="80"/>
+      <c r="AR31" s="80"/>
+      <c r="AS31" s="80"/>
+      <c r="AT31" s="80"/>
+      <c r="AU31" s="80"/>
+      <c r="AV31" s="80"/>
+      <c r="AW31" s="80"/>
+      <c r="AX31" s="80"/>
+      <c r="AY31" s="80"/>
+      <c r="AZ31" s="80"/>
+      <c r="BA31" s="80"/>
+      <c r="BB31" s="80"/>
+      <c r="BC31" s="80"/>
+      <c r="BD31" s="80"/>
+      <c r="BE31" s="80"/>
+      <c r="BF31" s="80"/>
+      <c r="BG31" s="80"/>
+      <c r="BH31" s="80"/>
+      <c r="BI31" s="80"/>
+      <c r="BJ31" s="80"/>
+      <c r="BK31" s="80"/>
+      <c r="BL31" s="80"/>
+      <c r="BM31" s="80"/>
+      <c r="BN31" s="80"/>
+    </row>
+    <row r="32" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A32" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.2</v>
-      </c>
-      <c r="B31" s="97" t="s">
-        <v>180</v>
-      </c>
-      <c r="D31" s="98"/>
-      <c r="E31" s="75">
-        <v>44466</v>
-      </c>
-      <c r="F31" s="76">
-        <f t="shared" ref="F31:F39" si="18">IF(ISBLANK(E31)," - ",IF(G31=0,E31,E31+G31-1))</f>
-        <v>44469</v>
-      </c>
-      <c r="G31" s="58">
-        <v>4</v>
-      </c>
-      <c r="H31" s="59">
-        <v>0</v>
-      </c>
-      <c r="I31" s="60">
-        <v>0</v>
-      </c>
-      <c r="J31" s="73"/>
-      <c r="K31" s="79"/>
-      <c r="L31" s="79"/>
-      <c r="M31" s="79"/>
-      <c r="N31" s="79"/>
-      <c r="O31" s="79"/>
-      <c r="P31" s="79"/>
-      <c r="Q31" s="79"/>
-      <c r="R31" s="79"/>
-      <c r="S31" s="79"/>
-      <c r="T31" s="79"/>
-      <c r="U31" s="79"/>
-      <c r="V31" s="79"/>
-      <c r="W31" s="79"/>
-      <c r="X31" s="79"/>
-      <c r="Y31" s="79"/>
-      <c r="Z31" s="79"/>
-      <c r="AA31" s="79"/>
-      <c r="AB31" s="79"/>
-      <c r="AC31" s="79"/>
-      <c r="AD31" s="79"/>
-      <c r="AE31" s="79"/>
-      <c r="AF31" s="79"/>
-      <c r="AG31" s="79"/>
-      <c r="AH31" s="79"/>
-      <c r="AI31" s="79"/>
-      <c r="AJ31" s="79"/>
-      <c r="AK31" s="79"/>
-      <c r="AL31" s="79"/>
-      <c r="AM31" s="79"/>
-      <c r="AN31" s="79"/>
-      <c r="AO31" s="79"/>
-      <c r="AP31" s="79"/>
-      <c r="AQ31" s="79"/>
-      <c r="AR31" s="79"/>
-      <c r="AS31" s="79"/>
-      <c r="AT31" s="79"/>
-      <c r="AU31" s="79"/>
-      <c r="AV31" s="79"/>
-      <c r="AW31" s="79"/>
-      <c r="AX31" s="79"/>
-      <c r="AY31" s="79"/>
-      <c r="AZ31" s="79"/>
-      <c r="BA31" s="79"/>
-      <c r="BB31" s="79"/>
-      <c r="BC31" s="79"/>
-      <c r="BD31" s="79"/>
-      <c r="BE31" s="79"/>
-      <c r="BF31" s="79"/>
-      <c r="BG31" s="79"/>
-      <c r="BH31" s="79"/>
-      <c r="BI31" s="79"/>
-      <c r="BJ31" s="79"/>
-      <c r="BK31" s="79"/>
-      <c r="BL31" s="79"/>
-      <c r="BM31" s="79"/>
-      <c r="BN31" s="79"/>
-    </row>
-    <row r="32" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A32" s="56" t="str">
-        <f t="shared" ref="A32:A39" si="19">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>2.2.1</v>
-      </c>
-      <c r="B32" s="99" t="s">
-        <v>135</v>
+        <v>3.1</v>
+      </c>
+      <c r="B32" s="97" t="s">
+        <v>145</v>
       </c>
       <c r="D32" s="98"/>
       <c r="E32" s="75">
-        <v>44466</v>
+        <v>44470</v>
       </c>
       <c r="F32" s="76">
-        <f t="shared" si="18"/>
-        <v>44466</v>
+        <f>IF(ISBLANK(E32)," - ",IF(G32=0,E32,E32+G32-1))</f>
+        <v>44473</v>
       </c>
       <c r="G32" s="58">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H32" s="59">
         <v>0</v>
@@ -7829,19 +7537,19 @@
     </row>
     <row r="33" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="56" t="str">
-        <f t="shared" si="19"/>
-        <v>2.2.2</v>
+        <f t="shared" ref="A33:A40" si="12">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.1.1</v>
       </c>
       <c r="B33" s="99" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D33" s="98"/>
       <c r="E33" s="75">
-        <v>44466</v>
+        <v>44470</v>
       </c>
       <c r="F33" s="76">
-        <f t="shared" si="18"/>
-        <v>44466</v>
+        <f t="shared" si="9"/>
+        <v>44470</v>
       </c>
       <c r="G33" s="58">
         <v>1</v>
@@ -7912,19 +7620,19 @@
     </row>
     <row r="34" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="56" t="str">
-        <f t="shared" si="19"/>
-        <v>2.2.3</v>
+        <f t="shared" si="12"/>
+        <v>3.1.2</v>
       </c>
       <c r="B34" s="99" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D34" s="98"/>
       <c r="E34" s="75">
-        <v>44467</v>
+        <v>44470</v>
       </c>
       <c r="F34" s="76">
-        <f t="shared" si="18"/>
-        <v>44467</v>
+        <f t="shared" ref="F34:F35" si="13">IF(ISBLANK(E34)," - ",IF(G34=0,E34,E34+G34-1))</f>
+        <v>44470</v>
       </c>
       <c r="G34" s="58">
         <v>1</v>
@@ -7995,19 +7703,19 @@
     </row>
     <row r="35" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="56" t="str">
-        <f t="shared" si="19"/>
-        <v>2.2.4</v>
+        <f t="shared" si="12"/>
+        <v>3.1.3</v>
       </c>
       <c r="B35" s="99" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D35" s="98"/>
       <c r="E35" s="75">
-        <v>44467</v>
+        <v>44471</v>
       </c>
       <c r="F35" s="76">
-        <f t="shared" si="18"/>
-        <v>44467</v>
+        <f t="shared" si="13"/>
+        <v>44471</v>
       </c>
       <c r="G35" s="58">
         <v>1</v>
@@ -8078,19 +7786,19 @@
     </row>
     <row r="36" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="56" t="str">
-        <f t="shared" si="19"/>
-        <v>2.2.5</v>
+        <f t="shared" si="12"/>
+        <v>3.1.4</v>
       </c>
       <c r="B36" s="99" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D36" s="98"/>
       <c r="E36" s="75">
-        <v>44468</v>
+        <v>44471</v>
       </c>
       <c r="F36" s="76">
-        <f t="shared" si="18"/>
-        <v>44468</v>
+        <f t="shared" ref="F36" si="14">IF(ISBLANK(E36)," - ",IF(G36=0,E36,E36+G36-1))</f>
+        <v>44471</v>
       </c>
       <c r="G36" s="58">
         <v>1</v>
@@ -8161,19 +7869,19 @@
     </row>
     <row r="37" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="56" t="str">
-        <f t="shared" si="19"/>
-        <v>2.2.6</v>
+        <f t="shared" si="12"/>
+        <v>3.1.5</v>
       </c>
       <c r="B37" s="99" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D37" s="98"/>
       <c r="E37" s="75">
-        <v>44468</v>
+        <v>44472</v>
       </c>
       <c r="F37" s="76">
-        <f t="shared" si="18"/>
-        <v>44468</v>
+        <f t="shared" ref="F37" si="15">IF(ISBLANK(E37)," - ",IF(G37=0,E37,E37+G37-1))</f>
+        <v>44472</v>
       </c>
       <c r="G37" s="58">
         <v>1</v>
@@ -8242,21 +7950,21 @@
       <c r="BM37" s="79"/>
       <c r="BN37" s="79"/>
     </row>
-    <row r="38" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="56" t="str">
-        <f t="shared" si="19"/>
-        <v>2.2.7</v>
+        <f t="shared" si="12"/>
+        <v>3.1.6</v>
       </c>
       <c r="B38" s="99" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="D38" s="98"/>
       <c r="E38" s="75">
-        <v>44469</v>
+        <v>44472</v>
       </c>
       <c r="F38" s="76">
-        <f t="shared" si="18"/>
-        <v>44469</v>
+        <f t="shared" ref="F38" si="16">IF(ISBLANK(E38)," - ",IF(G38=0,E38,E38+G38-1))</f>
+        <v>44472</v>
       </c>
       <c r="G38" s="58">
         <v>1</v>
@@ -8327,19 +8035,19 @@
     </row>
     <row r="39" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A39" s="56" t="str">
-        <f t="shared" si="19"/>
-        <v>2.2.8</v>
+        <f t="shared" si="12"/>
+        <v>3.1.7</v>
       </c>
       <c r="B39" s="99" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D39" s="98"/>
       <c r="E39" s="75">
-        <v>44469</v>
+        <v>44473</v>
       </c>
       <c r="F39" s="76">
-        <f t="shared" si="18"/>
-        <v>44469</v>
+        <f t="shared" ref="F39" si="17">IF(ISBLANK(E39)," - ",IF(G39=0,E39,E39+G39-1))</f>
+        <v>44473</v>
       </c>
       <c r="G39" s="58">
         <v>1</v>
@@ -8408,99 +8116,104 @@
       <c r="BM39" s="79"/>
       <c r="BN39" s="79"/>
     </row>
-    <row r="40" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A40" s="49" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>3</v>
-      </c>
-      <c r="B40" s="50" t="s">
-        <v>157</v>
-      </c>
-      <c r="D40" s="52"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="77" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G40" s="53"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="55" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J40" s="74"/>
-      <c r="K40" s="80"/>
-      <c r="L40" s="80"/>
-      <c r="M40" s="80"/>
-      <c r="N40" s="80"/>
-      <c r="O40" s="80"/>
-      <c r="P40" s="80"/>
-      <c r="Q40" s="80"/>
-      <c r="R40" s="80"/>
-      <c r="S40" s="80"/>
-      <c r="T40" s="80"/>
-      <c r="U40" s="80"/>
-      <c r="V40" s="80"/>
-      <c r="W40" s="80"/>
-      <c r="X40" s="80"/>
-      <c r="Y40" s="80"/>
-      <c r="Z40" s="80"/>
-      <c r="AA40" s="80"/>
-      <c r="AB40" s="80"/>
-      <c r="AC40" s="80"/>
-      <c r="AD40" s="80"/>
-      <c r="AE40" s="80"/>
-      <c r="AF40" s="80"/>
-      <c r="AG40" s="80"/>
-      <c r="AH40" s="80"/>
-      <c r="AI40" s="80"/>
-      <c r="AJ40" s="80"/>
-      <c r="AK40" s="80"/>
-      <c r="AL40" s="80"/>
-      <c r="AM40" s="80"/>
-      <c r="AN40" s="80"/>
-      <c r="AO40" s="80"/>
-      <c r="AP40" s="80"/>
-      <c r="AQ40" s="80"/>
-      <c r="AR40" s="80"/>
-      <c r="AS40" s="80"/>
-      <c r="AT40" s="80"/>
-      <c r="AU40" s="80"/>
-      <c r="AV40" s="80"/>
-      <c r="AW40" s="80"/>
-      <c r="AX40" s="80"/>
-      <c r="AY40" s="80"/>
-      <c r="AZ40" s="80"/>
-      <c r="BA40" s="80"/>
-      <c r="BB40" s="80"/>
-      <c r="BC40" s="80"/>
-      <c r="BD40" s="80"/>
-      <c r="BE40" s="80"/>
-      <c r="BF40" s="80"/>
-      <c r="BG40" s="80"/>
-      <c r="BH40" s="80"/>
-      <c r="BI40" s="80"/>
-      <c r="BJ40" s="80"/>
-      <c r="BK40" s="80"/>
-      <c r="BL40" s="80"/>
-      <c r="BM40" s="80"/>
-      <c r="BN40" s="80"/>
-    </row>
-    <row r="41" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A40" s="56" t="str">
+        <f t="shared" si="12"/>
+        <v>3.1.8</v>
+      </c>
+      <c r="B40" s="99" t="s">
+        <v>163</v>
+      </c>
+      <c r="D40" s="98"/>
+      <c r="E40" s="75">
+        <v>44473</v>
+      </c>
+      <c r="F40" s="76">
+        <f t="shared" ref="F40" si="18">IF(ISBLANK(E40)," - ",IF(G40=0,E40,E40+G40-1))</f>
+        <v>44473</v>
+      </c>
+      <c r="G40" s="58">
+        <v>1</v>
+      </c>
+      <c r="H40" s="59">
+        <v>0</v>
+      </c>
+      <c r="I40" s="60">
+        <v>0</v>
+      </c>
+      <c r="J40" s="73"/>
+      <c r="K40" s="79"/>
+      <c r="L40" s="79"/>
+      <c r="M40" s="79"/>
+      <c r="N40" s="79"/>
+      <c r="O40" s="79"/>
+      <c r="P40" s="79"/>
+      <c r="Q40" s="79"/>
+      <c r="R40" s="79"/>
+      <c r="S40" s="79"/>
+      <c r="T40" s="79"/>
+      <c r="U40" s="79"/>
+      <c r="V40" s="79"/>
+      <c r="W40" s="79"/>
+      <c r="X40" s="79"/>
+      <c r="Y40" s="79"/>
+      <c r="Z40" s="79"/>
+      <c r="AA40" s="79"/>
+      <c r="AB40" s="79"/>
+      <c r="AC40" s="79"/>
+      <c r="AD40" s="79"/>
+      <c r="AE40" s="79"/>
+      <c r="AF40" s="79"/>
+      <c r="AG40" s="79"/>
+      <c r="AH40" s="79"/>
+      <c r="AI40" s="79"/>
+      <c r="AJ40" s="79"/>
+      <c r="AK40" s="79"/>
+      <c r="AL40" s="79"/>
+      <c r="AM40" s="79"/>
+      <c r="AN40" s="79"/>
+      <c r="AO40" s="79"/>
+      <c r="AP40" s="79"/>
+      <c r="AQ40" s="79"/>
+      <c r="AR40" s="79"/>
+      <c r="AS40" s="79"/>
+      <c r="AT40" s="79"/>
+      <c r="AU40" s="79"/>
+      <c r="AV40" s="79"/>
+      <c r="AW40" s="79"/>
+      <c r="AX40" s="79"/>
+      <c r="AY40" s="79"/>
+      <c r="AZ40" s="79"/>
+      <c r="BA40" s="79"/>
+      <c r="BB40" s="79"/>
+      <c r="BC40" s="79"/>
+      <c r="BD40" s="79"/>
+      <c r="BE40" s="79"/>
+      <c r="BF40" s="79"/>
+      <c r="BG40" s="79"/>
+      <c r="BH40" s="79"/>
+      <c r="BI40" s="79"/>
+      <c r="BJ40" s="79"/>
+      <c r="BK40" s="79"/>
+      <c r="BL40" s="79"/>
+      <c r="BM40" s="79"/>
+      <c r="BN40" s="79"/>
+    </row>
+    <row r="41" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="B41" s="97" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="D41" s="98"/>
       <c r="E41" s="75">
-        <v>44470</v>
+        <v>44474</v>
       </c>
       <c r="F41" s="76">
-        <f>IF(ISBLANK(E41)," - ",IF(G41=0,E41,E41+G41-1))</f>
-        <v>44473</v>
+        <f t="shared" si="9"/>
+        <v>44477</v>
       </c>
       <c r="G41" s="58">
         <v>4</v>
@@ -8571,19 +8284,19 @@
     </row>
     <row r="42" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="56" t="str">
-        <f t="shared" ref="A42:A49" si="20">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.1.1</v>
+        <f t="shared" ref="A42:A58" si="19">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.2.1</v>
       </c>
       <c r="B42" s="99" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D42" s="98"/>
       <c r="E42" s="75">
-        <v>44470</v>
+        <v>44474</v>
       </c>
       <c r="F42" s="76">
-        <f t="shared" si="7"/>
-        <v>44470</v>
+        <f t="shared" ref="F42:F49" si="20">IF(ISBLANK(E42)," - ",IF(G42=0,E42,E42+G42-1))</f>
+        <v>44474</v>
       </c>
       <c r="G42" s="58">
         <v>1</v>
@@ -8654,19 +8367,19 @@
     </row>
     <row r="43" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="56" t="str">
-        <f t="shared" si="20"/>
-        <v>3.1.2</v>
+        <f t="shared" si="19"/>
+        <v>3.2.2</v>
       </c>
       <c r="B43" s="99" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D43" s="98"/>
       <c r="E43" s="75">
-        <v>44470</v>
+        <v>44474</v>
       </c>
       <c r="F43" s="76">
-        <f t="shared" ref="F43:F44" si="21">IF(ISBLANK(E43)," - ",IF(G43=0,E43,E43+G43-1))</f>
-        <v>44470</v>
+        <f t="shared" si="20"/>
+        <v>44474</v>
       </c>
       <c r="G43" s="58">
         <v>1</v>
@@ -8737,19 +8450,19 @@
     </row>
     <row r="44" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="56" t="str">
-        <f t="shared" si="20"/>
-        <v>3.1.3</v>
+        <f t="shared" si="19"/>
+        <v>3.2.3</v>
       </c>
       <c r="B44" s="99" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="98"/>
       <c r="E44" s="75">
-        <v>44471</v>
+        <v>44475</v>
       </c>
       <c r="F44" s="76">
-        <f t="shared" si="21"/>
-        <v>44471</v>
+        <f t="shared" si="20"/>
+        <v>44475</v>
       </c>
       <c r="G44" s="58">
         <v>1</v>
@@ -8820,19 +8533,19 @@
     </row>
     <row r="45" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="56" t="str">
-        <f t="shared" si="20"/>
-        <v>3.1.4</v>
+        <f t="shared" si="19"/>
+        <v>3.2.4</v>
       </c>
       <c r="B45" s="99" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="98"/>
       <c r="E45" s="75">
-        <v>44471</v>
+        <v>44475</v>
       </c>
       <c r="F45" s="76">
-        <f t="shared" ref="F45" si="22">IF(ISBLANK(E45)," - ",IF(G45=0,E45,E45+G45-1))</f>
-        <v>44471</v>
+        <f t="shared" si="20"/>
+        <v>44475</v>
       </c>
       <c r="G45" s="58">
         <v>1</v>
@@ -8903,19 +8616,19 @@
     </row>
     <row r="46" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="56" t="str">
-        <f t="shared" si="20"/>
-        <v>3.1.5</v>
+        <f t="shared" si="19"/>
+        <v>3.2.5</v>
       </c>
       <c r="B46" s="99" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="98"/>
       <c r="E46" s="75">
-        <v>44472</v>
+        <v>44476</v>
       </c>
       <c r="F46" s="76">
-        <f t="shared" ref="F46" si="23">IF(ISBLANK(E46)," - ",IF(G46=0,E46,E46+G46-1))</f>
-        <v>44472</v>
+        <f t="shared" si="20"/>
+        <v>44476</v>
       </c>
       <c r="G46" s="58">
         <v>1</v>
@@ -8986,19 +8699,19 @@
     </row>
     <row r="47" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="56" t="str">
-        <f t="shared" si="20"/>
-        <v>3.1.6</v>
+        <f t="shared" si="19"/>
+        <v>3.2.6</v>
       </c>
       <c r="B47" s="99" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="98"/>
       <c r="E47" s="75">
-        <v>44472</v>
+        <v>44476</v>
       </c>
       <c r="F47" s="76">
-        <f t="shared" ref="F47" si="24">IF(ISBLANK(E47)," - ",IF(G47=0,E47,E47+G47-1))</f>
-        <v>44472</v>
+        <f t="shared" si="20"/>
+        <v>44476</v>
       </c>
       <c r="G47" s="58">
         <v>1</v>
@@ -9069,19 +8782,19 @@
     </row>
     <row r="48" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A48" s="56" t="str">
-        <f t="shared" si="20"/>
-        <v>3.1.7</v>
+        <f t="shared" si="19"/>
+        <v>3.2.7</v>
       </c>
       <c r="B48" s="99" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D48" s="98"/>
       <c r="E48" s="75">
-        <v>44473</v>
+        <v>44477</v>
       </c>
       <c r="F48" s="76">
-        <f t="shared" ref="F48" si="25">IF(ISBLANK(E48)," - ",IF(G48=0,E48,E48+G48-1))</f>
-        <v>44473</v>
+        <f t="shared" si="20"/>
+        <v>44477</v>
       </c>
       <c r="G48" s="58">
         <v>1</v>
@@ -9152,19 +8865,19 @@
     </row>
     <row r="49" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A49" s="56" t="str">
-        <f t="shared" si="20"/>
-        <v>3.1.8</v>
+        <f t="shared" si="19"/>
+        <v>3.2.8</v>
       </c>
       <c r="B49" s="99" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D49" s="98"/>
       <c r="E49" s="75">
-        <v>44473</v>
+        <v>44477</v>
       </c>
       <c r="F49" s="76">
-        <f t="shared" ref="F49" si="26">IF(ISBLANK(E49)," - ",IF(G49=0,E49,E49+G49-1))</f>
-        <v>44473</v>
+        <f t="shared" si="20"/>
+        <v>44477</v>
       </c>
       <c r="G49" s="58">
         <v>1</v>
@@ -9236,18 +8949,18 @@
     <row r="50" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="B50" s="97" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D50" s="98"/>
       <c r="E50" s="75">
-        <v>44474</v>
+        <v>44478</v>
       </c>
       <c r="F50" s="76">
-        <f t="shared" si="7"/>
-        <v>44477</v>
+        <f t="shared" si="9"/>
+        <v>44481</v>
       </c>
       <c r="G50" s="58">
         <v>4</v>
@@ -9318,19 +9031,19 @@
     </row>
     <row r="51" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" s="56" t="str">
-        <f t="shared" ref="A51:A67" si="27">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.2.1</v>
+        <f t="shared" si="19"/>
+        <v>3.3.1</v>
       </c>
       <c r="B51" s="99" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D51" s="98"/>
       <c r="E51" s="75">
-        <v>44474</v>
+        <v>44478</v>
       </c>
       <c r="F51" s="76">
-        <f t="shared" ref="F51:F58" si="28">IF(ISBLANK(E51)," - ",IF(G51=0,E51,E51+G51-1))</f>
-        <v>44474</v>
+        <f t="shared" si="9"/>
+        <v>44478</v>
       </c>
       <c r="G51" s="58">
         <v>1</v>
@@ -9401,19 +9114,19 @@
     </row>
     <row r="52" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="56" t="str">
-        <f t="shared" si="27"/>
-        <v>3.2.2</v>
+        <f t="shared" si="19"/>
+        <v>3.3.2</v>
       </c>
       <c r="B52" s="99" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D52" s="98"/>
       <c r="E52" s="75">
-        <v>44474</v>
+        <v>44478</v>
       </c>
       <c r="F52" s="76">
-        <f t="shared" si="28"/>
-        <v>44474</v>
+        <f t="shared" si="9"/>
+        <v>44478</v>
       </c>
       <c r="G52" s="58">
         <v>1</v>
@@ -9484,19 +9197,19 @@
     </row>
     <row r="53" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" s="56" t="str">
-        <f t="shared" si="27"/>
-        <v>3.2.3</v>
+        <f t="shared" si="19"/>
+        <v>3.3.3</v>
       </c>
       <c r="B53" s="99" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D53" s="98"/>
       <c r="E53" s="75">
-        <v>44475</v>
+        <v>44479</v>
       </c>
       <c r="F53" s="76">
-        <f t="shared" si="28"/>
-        <v>44475</v>
+        <f t="shared" si="9"/>
+        <v>44479</v>
       </c>
       <c r="G53" s="58">
         <v>1</v>
@@ -9567,19 +9280,19 @@
     </row>
     <row r="54" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A54" s="56" t="str">
-        <f t="shared" si="27"/>
-        <v>3.2.4</v>
+        <f t="shared" si="19"/>
+        <v>3.3.4</v>
       </c>
       <c r="B54" s="99" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D54" s="98"/>
       <c r="E54" s="75">
-        <v>44475</v>
+        <v>44479</v>
       </c>
       <c r="F54" s="76">
-        <f t="shared" si="28"/>
-        <v>44475</v>
+        <f t="shared" si="9"/>
+        <v>44479</v>
       </c>
       <c r="G54" s="58">
         <v>1</v>
@@ -9650,19 +9363,19 @@
     </row>
     <row r="55" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A55" s="56" t="str">
-        <f t="shared" si="27"/>
-        <v>3.2.5</v>
+        <f t="shared" si="19"/>
+        <v>3.3.5</v>
       </c>
       <c r="B55" s="99" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D55" s="98"/>
       <c r="E55" s="75">
-        <v>44476</v>
+        <v>44480</v>
       </c>
       <c r="F55" s="76">
-        <f t="shared" si="28"/>
-        <v>44476</v>
+        <f t="shared" si="9"/>
+        <v>44480</v>
       </c>
       <c r="G55" s="58">
         <v>1</v>
@@ -9733,19 +9446,19 @@
     </row>
     <row r="56" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" s="56" t="str">
-        <f t="shared" si="27"/>
-        <v>3.2.6</v>
+        <f t="shared" si="19"/>
+        <v>3.3.6</v>
       </c>
       <c r="B56" s="99" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D56" s="98"/>
       <c r="E56" s="75">
-        <v>44476</v>
+        <v>44480</v>
       </c>
       <c r="F56" s="76">
-        <f t="shared" si="28"/>
-        <v>44476</v>
+        <f t="shared" si="9"/>
+        <v>44480</v>
       </c>
       <c r="G56" s="58">
         <v>1</v>
@@ -9816,19 +9529,19 @@
     </row>
     <row r="57" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A57" s="56" t="str">
-        <f t="shared" si="27"/>
-        <v>3.2.7</v>
+        <f t="shared" si="19"/>
+        <v>3.3.7</v>
       </c>
       <c r="B57" s="99" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D57" s="98"/>
       <c r="E57" s="75">
-        <v>44477</v>
+        <v>44481</v>
       </c>
       <c r="F57" s="76">
-        <f t="shared" si="28"/>
-        <v>44477</v>
+        <f t="shared" si="9"/>
+        <v>44481</v>
       </c>
       <c r="G57" s="58">
         <v>1</v>
@@ -9899,19 +9612,19 @@
     </row>
     <row r="58" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A58" s="56" t="str">
-        <f t="shared" si="27"/>
-        <v>3.2.8</v>
+        <f t="shared" si="19"/>
+        <v>3.3.8</v>
       </c>
       <c r="B58" s="99" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D58" s="98"/>
       <c r="E58" s="75">
-        <v>44477</v>
+        <v>44481</v>
       </c>
       <c r="F58" s="76">
-        <f t="shared" si="28"/>
-        <v>44477</v>
+        <f t="shared" si="9"/>
+        <v>44481</v>
       </c>
       <c r="G58" s="58">
         <v>1</v>
@@ -9983,18 +9696,18 @@
     <row r="59" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A59" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="B59" s="97" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D59" s="98"/>
       <c r="E59" s="75">
-        <v>44478</v>
+        <v>43141</v>
       </c>
       <c r="F59" s="76">
-        <f t="shared" si="7"/>
-        <v>44481</v>
+        <f t="shared" ref="F59" si="21">IF(ISBLANK(E59)," - ",IF(G59=0,E59,E59+G59-1))</f>
+        <v>43144</v>
       </c>
       <c r="G59" s="58">
         <v>4</v>
@@ -10065,22 +9778,22 @@
     </row>
     <row r="60" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A60" s="56" t="str">
-        <f t="shared" si="27"/>
-        <v>3.3.1</v>
-      </c>
-      <c r="B60" s="99" t="s">
-        <v>135</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.5</v>
+      </c>
+      <c r="B60" s="97" t="s">
+        <v>166</v>
       </c>
       <c r="D60" s="98"/>
       <c r="E60" s="75">
-        <v>44478</v>
+        <v>44482</v>
       </c>
       <c r="F60" s="76">
-        <f t="shared" si="7"/>
-        <v>44478</v>
+        <f t="shared" si="9"/>
+        <v>44483</v>
       </c>
       <c r="G60" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H60" s="59">
         <v>0</v>
@@ -10148,22 +9861,22 @@
     </row>
     <row r="61" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A61" s="56" t="str">
-        <f t="shared" si="27"/>
-        <v>3.3.2</v>
+        <f t="shared" ref="A61:A62" si="22">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.5.1</v>
       </c>
       <c r="B61" s="99" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="D61" s="98"/>
       <c r="E61" s="75">
-        <v>44478</v>
+        <v>44482</v>
       </c>
       <c r="F61" s="76">
-        <f t="shared" si="7"/>
-        <v>44478</v>
+        <f t="shared" ref="F61" si="23">IF(ISBLANK(E61)," - ",IF(G61=0,E61,E61+G61-1))</f>
+        <v>44483</v>
       </c>
       <c r="G61" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H61" s="59">
         <v>0</v>
@@ -10231,22 +9944,22 @@
     </row>
     <row r="62" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A62" s="56" t="str">
-        <f t="shared" si="27"/>
-        <v>3.3.3</v>
+        <f t="shared" si="22"/>
+        <v>3.5.2</v>
       </c>
       <c r="B62" s="99" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="D62" s="98"/>
       <c r="E62" s="75">
-        <v>44479</v>
+        <v>44482</v>
       </c>
       <c r="F62" s="76">
-        <f t="shared" si="7"/>
-        <v>44479</v>
+        <f t="shared" ref="F62" si="24">IF(ISBLANK(E62)," - ",IF(G62=0,E62,E62+G62-1))</f>
+        <v>44483</v>
       </c>
       <c r="G62" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H62" s="59">
         <v>0</v>
@@ -10314,22 +10027,22 @@
     </row>
     <row r="63" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A63" s="56" t="str">
-        <f t="shared" si="27"/>
-        <v>3.3.4</v>
-      </c>
-      <c r="B63" s="99" t="s">
-        <v>138</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.6</v>
+      </c>
+      <c r="B63" s="97" t="s">
+        <v>167</v>
       </c>
       <c r="D63" s="98"/>
       <c r="E63" s="75">
-        <v>44479</v>
+        <v>44483</v>
       </c>
       <c r="F63" s="76">
-        <f t="shared" si="7"/>
-        <v>44479</v>
+        <f t="shared" si="9"/>
+        <v>44484</v>
       </c>
       <c r="G63" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H63" s="59">
         <v>0</v>
@@ -10397,22 +10110,22 @@
     </row>
     <row r="64" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A64" s="56" t="str">
-        <f t="shared" si="27"/>
-        <v>3.3.5</v>
+        <f t="shared" ref="A64:A72" si="25">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.6.1</v>
       </c>
       <c r="B64" s="99" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="D64" s="98"/>
       <c r="E64" s="75">
-        <v>44480</v>
+        <v>44483</v>
       </c>
       <c r="F64" s="76">
-        <f t="shared" si="7"/>
-        <v>44480</v>
+        <f t="shared" si="9"/>
+        <v>44484</v>
       </c>
       <c r="G64" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H64" s="59">
         <v>0</v>
@@ -10480,22 +10193,22 @@
     </row>
     <row r="65" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A65" s="56" t="str">
-        <f t="shared" si="27"/>
-        <v>3.3.6</v>
+        <f t="shared" si="25"/>
+        <v>3.6.2</v>
       </c>
       <c r="B65" s="99" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D65" s="98"/>
       <c r="E65" s="75">
-        <v>44480</v>
+        <v>44483</v>
       </c>
       <c r="F65" s="76">
-        <f t="shared" si="7"/>
-        <v>44480</v>
+        <f t="shared" ref="F65:F72" si="26">IF(ISBLANK(E65)," - ",IF(G65=0,E65,E65+G65-1))</f>
+        <v>44484</v>
       </c>
       <c r="G65" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H65" s="59">
         <v>0</v>
@@ -10561,24 +10274,24 @@
       <c r="BM65" s="79"/>
       <c r="BN65" s="79"/>
     </row>
-    <row r="66" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A66" s="56" t="str">
-        <f t="shared" si="27"/>
-        <v>3.3.7</v>
+        <f t="shared" si="25"/>
+        <v>3.6.3</v>
       </c>
       <c r="B66" s="99" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="D66" s="98"/>
       <c r="E66" s="75">
-        <v>44481</v>
+        <v>44483</v>
       </c>
       <c r="F66" s="76">
-        <f t="shared" si="7"/>
-        <v>44481</v>
+        <f t="shared" si="26"/>
+        <v>44484</v>
       </c>
       <c r="G66" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H66" s="59">
         <v>0</v>
@@ -10644,24 +10357,24 @@
       <c r="BM66" s="79"/>
       <c r="BN66" s="79"/>
     </row>
-    <row r="67" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A67" s="56" t="str">
-        <f t="shared" si="27"/>
-        <v>3.3.8</v>
+        <f t="shared" si="25"/>
+        <v>3.6.4</v>
       </c>
       <c r="B67" s="99" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="D67" s="98"/>
       <c r="E67" s="75">
-        <v>44481</v>
+        <v>44483</v>
       </c>
       <c r="F67" s="76">
-        <f t="shared" si="7"/>
-        <v>44481</v>
+        <f t="shared" si="26"/>
+        <v>44484</v>
       </c>
       <c r="G67" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H67" s="59">
         <v>0</v>
@@ -10729,22 +10442,22 @@
     </row>
     <row r="68" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A68" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.4</v>
-      </c>
-      <c r="B68" s="97" t="s">
-        <v>165</v>
+        <f t="shared" si="25"/>
+        <v>3.6.5</v>
+      </c>
+      <c r="B68" s="99" t="s">
+        <v>137</v>
       </c>
       <c r="D68" s="98"/>
       <c r="E68" s="75">
-        <v>43141</v>
+        <v>44483</v>
       </c>
       <c r="F68" s="76">
-        <f t="shared" ref="F68" si="29">IF(ISBLANK(E68)," - ",IF(G68=0,E68,E68+G68-1))</f>
-        <v>43144</v>
+        <f t="shared" si="26"/>
+        <v>44484</v>
       </c>
       <c r="G68" s="58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H68" s="59">
         <v>0</v>
@@ -10812,19 +10525,19 @@
     </row>
     <row r="69" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A69" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.5</v>
-      </c>
-      <c r="B69" s="97" t="s">
-        <v>170</v>
+        <f t="shared" si="25"/>
+        <v>3.6.6</v>
+      </c>
+      <c r="B69" s="99" t="s">
+        <v>138</v>
       </c>
       <c r="D69" s="98"/>
       <c r="E69" s="75">
-        <v>44482</v>
+        <v>44483</v>
       </c>
       <c r="F69" s="76">
-        <f t="shared" si="7"/>
-        <v>44483</v>
+        <f t="shared" si="26"/>
+        <v>44484</v>
       </c>
       <c r="G69" s="58">
         <v>2</v>
@@ -10895,19 +10608,19 @@
     </row>
     <row r="70" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A70" s="56" t="str">
-        <f t="shared" ref="A70:A71" si="30">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.5.1</v>
+        <f t="shared" si="25"/>
+        <v>3.6.7</v>
       </c>
       <c r="B70" s="99" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="D70" s="98"/>
       <c r="E70" s="75">
-        <v>44482</v>
+        <v>44483</v>
       </c>
       <c r="F70" s="76">
-        <f t="shared" ref="F70" si="31">IF(ISBLANK(E70)," - ",IF(G70=0,E70,E70+G70-1))</f>
-        <v>44483</v>
+        <f t="shared" si="26"/>
+        <v>44484</v>
       </c>
       <c r="G70" s="58">
         <v>2</v>
@@ -10976,21 +10689,21 @@
       <c r="BM70" s="79"/>
       <c r="BN70" s="79"/>
     </row>
-    <row r="71" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A71" s="56" t="str">
-        <f t="shared" si="30"/>
-        <v>3.5.2</v>
+        <f t="shared" si="25"/>
+        <v>3.6.8</v>
       </c>
       <c r="B71" s="99" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="D71" s="98"/>
       <c r="E71" s="75">
-        <v>44482</v>
+        <v>44483</v>
       </c>
       <c r="F71" s="76">
-        <f t="shared" ref="F71" si="32">IF(ISBLANK(E71)," - ",IF(G71=0,E71,E71+G71-1))</f>
-        <v>44483</v>
+        <f t="shared" si="26"/>
+        <v>44484</v>
       </c>
       <c r="G71" s="58">
         <v>2</v>
@@ -11059,20 +10772,20 @@
       <c r="BM71" s="79"/>
       <c r="BN71" s="79"/>
     </row>
-    <row r="72" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A72" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.6</v>
-      </c>
-      <c r="B72" s="97" t="s">
-        <v>171</v>
+        <f t="shared" si="25"/>
+        <v>3.6.9</v>
+      </c>
+      <c r="B72" s="99" t="s">
+        <v>163</v>
       </c>
       <c r="D72" s="98"/>
       <c r="E72" s="75">
         <v>44483</v>
       </c>
       <c r="F72" s="76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>44484</v>
       </c>
       <c r="G72" s="58">
@@ -11142,107 +10855,102 @@
       <c r="BM72" s="79"/>
       <c r="BN72" s="79"/>
     </row>
-    <row r="73" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A73" s="56" t="str">
-        <f t="shared" ref="A73:A81" si="33">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.6.1</v>
-      </c>
-      <c r="B73" s="99" t="s">
-        <v>179</v>
-      </c>
-      <c r="D73" s="98"/>
-      <c r="E73" s="75">
-        <v>44483</v>
-      </c>
-      <c r="F73" s="76">
-        <f t="shared" si="7"/>
-        <v>44484</v>
-      </c>
-      <c r="G73" s="58">
-        <v>2</v>
-      </c>
-      <c r="H73" s="59">
-        <v>0</v>
-      </c>
-      <c r="I73" s="60">
-        <v>0</v>
-      </c>
-      <c r="J73" s="73"/>
-      <c r="K73" s="79"/>
-      <c r="L73" s="79"/>
-      <c r="M73" s="79"/>
-      <c r="N73" s="79"/>
-      <c r="O73" s="79"/>
-      <c r="P73" s="79"/>
-      <c r="Q73" s="79"/>
-      <c r="R73" s="79"/>
-      <c r="S73" s="79"/>
-      <c r="T73" s="79"/>
-      <c r="U73" s="79"/>
-      <c r="V73" s="79"/>
-      <c r="W73" s="79"/>
-      <c r="X73" s="79"/>
-      <c r="Y73" s="79"/>
-      <c r="Z73" s="79"/>
-      <c r="AA73" s="79"/>
-      <c r="AB73" s="79"/>
-      <c r="AC73" s="79"/>
-      <c r="AD73" s="79"/>
-      <c r="AE73" s="79"/>
-      <c r="AF73" s="79"/>
-      <c r="AG73" s="79"/>
-      <c r="AH73" s="79"/>
-      <c r="AI73" s="79"/>
-      <c r="AJ73" s="79"/>
-      <c r="AK73" s="79"/>
-      <c r="AL73" s="79"/>
-      <c r="AM73" s="79"/>
-      <c r="AN73" s="79"/>
-      <c r="AO73" s="79"/>
-      <c r="AP73" s="79"/>
-      <c r="AQ73" s="79"/>
-      <c r="AR73" s="79"/>
-      <c r="AS73" s="79"/>
-      <c r="AT73" s="79"/>
-      <c r="AU73" s="79"/>
-      <c r="AV73" s="79"/>
-      <c r="AW73" s="79"/>
-      <c r="AX73" s="79"/>
-      <c r="AY73" s="79"/>
-      <c r="AZ73" s="79"/>
-      <c r="BA73" s="79"/>
-      <c r="BB73" s="79"/>
-      <c r="BC73" s="79"/>
-      <c r="BD73" s="79"/>
-      <c r="BE73" s="79"/>
-      <c r="BF73" s="79"/>
-      <c r="BG73" s="79"/>
-      <c r="BH73" s="79"/>
-      <c r="BI73" s="79"/>
-      <c r="BJ73" s="79"/>
-      <c r="BK73" s="79"/>
-      <c r="BL73" s="79"/>
-      <c r="BM73" s="79"/>
-      <c r="BN73" s="79"/>
+    <row r="73" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A73" s="49" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>4</v>
+      </c>
+      <c r="B73" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="D73" s="52"/>
+      <c r="E73" s="77"/>
+      <c r="F73" s="77" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G73" s="53"/>
+      <c r="H73" s="54"/>
+      <c r="I73" s="55" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J73" s="74"/>
+      <c r="K73" s="80"/>
+      <c r="L73" s="80"/>
+      <c r="M73" s="80"/>
+      <c r="N73" s="80"/>
+      <c r="O73" s="80"/>
+      <c r="P73" s="80"/>
+      <c r="Q73" s="80"/>
+      <c r="R73" s="80"/>
+      <c r="S73" s="80"/>
+      <c r="T73" s="80"/>
+      <c r="U73" s="80"/>
+      <c r="V73" s="80"/>
+      <c r="W73" s="80"/>
+      <c r="X73" s="80"/>
+      <c r="Y73" s="80"/>
+      <c r="Z73" s="80"/>
+      <c r="AA73" s="80"/>
+      <c r="AB73" s="80"/>
+      <c r="AC73" s="80"/>
+      <c r="AD73" s="80"/>
+      <c r="AE73" s="80"/>
+      <c r="AF73" s="80"/>
+      <c r="AG73" s="80"/>
+      <c r="AH73" s="80"/>
+      <c r="AI73" s="80"/>
+      <c r="AJ73" s="80"/>
+      <c r="AK73" s="80"/>
+      <c r="AL73" s="80"/>
+      <c r="AM73" s="80"/>
+      <c r="AN73" s="80"/>
+      <c r="AO73" s="80"/>
+      <c r="AP73" s="80"/>
+      <c r="AQ73" s="80"/>
+      <c r="AR73" s="80"/>
+      <c r="AS73" s="80"/>
+      <c r="AT73" s="80"/>
+      <c r="AU73" s="80"/>
+      <c r="AV73" s="80"/>
+      <c r="AW73" s="80"/>
+      <c r="AX73" s="80"/>
+      <c r="AY73" s="80"/>
+      <c r="AZ73" s="80"/>
+      <c r="BA73" s="80"/>
+      <c r="BB73" s="80"/>
+      <c r="BC73" s="80"/>
+      <c r="BD73" s="80"/>
+      <c r="BE73" s="80"/>
+      <c r="BF73" s="80"/>
+      <c r="BG73" s="80"/>
+      <c r="BH73" s="80"/>
+      <c r="BI73" s="80"/>
+      <c r="BJ73" s="80"/>
+      <c r="BK73" s="80"/>
+      <c r="BL73" s="80"/>
+      <c r="BM73" s="80"/>
+      <c r="BN73" s="80"/>
     </row>
     <row r="74" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A74" s="56" t="str">
-        <f t="shared" si="33"/>
-        <v>3.6.2</v>
-      </c>
-      <c r="B74" s="99" t="s">
-        <v>135</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.1</v>
+      </c>
+      <c r="B74" s="97" t="s">
+        <v>159</v>
       </c>
       <c r="D74" s="98"/>
       <c r="E74" s="75">
-        <v>44483</v>
+        <v>44485</v>
       </c>
       <c r="F74" s="76">
-        <f t="shared" ref="F74:F81" si="34">IF(ISBLANK(E74)," - ",IF(G74=0,E74,E74+G74-1))</f>
-        <v>44484</v>
+        <f t="shared" si="9"/>
+        <v>44491</v>
       </c>
       <c r="G74" s="58">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H74" s="59">
         <v>0</v>
@@ -11310,22 +11018,22 @@
     </row>
     <row r="75" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A75" s="56" t="str">
-        <f t="shared" si="33"/>
-        <v>3.6.3</v>
-      </c>
-      <c r="B75" s="99" t="s">
-        <v>136</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.2</v>
+      </c>
+      <c r="B75" s="97" t="s">
+        <v>168</v>
       </c>
       <c r="D75" s="98"/>
       <c r="E75" s="75">
-        <v>44483</v>
+        <v>44492</v>
       </c>
       <c r="F75" s="76">
-        <f t="shared" si="34"/>
-        <v>44484</v>
+        <f t="shared" si="9"/>
+        <v>44501</v>
       </c>
       <c r="G75" s="58">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H75" s="59">
         <v>0</v>
@@ -11393,22 +11101,22 @@
     </row>
     <row r="76" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A76" s="56" t="str">
-        <f t="shared" si="33"/>
-        <v>3.6.4</v>
+        <f t="shared" ref="A76:A90" si="27">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.2.1</v>
       </c>
       <c r="B76" s="99" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D76" s="98"/>
       <c r="E76" s="75">
-        <v>44483</v>
+        <v>44492</v>
       </c>
       <c r="F76" s="76">
-        <f t="shared" si="34"/>
-        <v>44484</v>
+        <f t="shared" si="9"/>
+        <v>44492</v>
       </c>
       <c r="G76" s="58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H76" s="59">
         <v>0</v>
@@ -11476,22 +11184,22 @@
     </row>
     <row r="77" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A77" s="56" t="str">
-        <f t="shared" si="33"/>
-        <v>3.6.5</v>
-      </c>
-      <c r="B77" s="99" t="s">
-        <v>138</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.2.2</v>
+      </c>
+      <c r="B77" s="132" t="s">
+        <v>171</v>
       </c>
       <c r="D77" s="98"/>
       <c r="E77" s="75">
-        <v>44483</v>
+        <v>44492</v>
       </c>
       <c r="F77" s="76">
-        <f t="shared" si="34"/>
-        <v>44484</v>
+        <f t="shared" ref="F77:F91" si="28">IF(ISBLANK(E77)," - ",IF(G77=0,E77,E77+G77-1))</f>
+        <v>44492</v>
       </c>
       <c r="G77" s="58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H77" s="59">
         <v>0</v>
@@ -11559,22 +11267,22 @@
     </row>
     <row r="78" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A78" s="56" t="str">
-        <f t="shared" si="33"/>
-        <v>3.6.6</v>
+        <f t="shared" si="27"/>
+        <v>4.2.3</v>
       </c>
       <c r="B78" s="99" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D78" s="98"/>
       <c r="E78" s="75">
-        <v>44483</v>
+        <v>44493</v>
       </c>
       <c r="F78" s="76">
-        <f t="shared" si="34"/>
-        <v>44484</v>
+        <f t="shared" si="28"/>
+        <v>44493</v>
       </c>
       <c r="G78" s="58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H78" s="59">
         <v>0</v>
@@ -11642,22 +11350,22 @@
     </row>
     <row r="79" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A79" s="56" t="str">
-        <f t="shared" si="33"/>
-        <v>3.6.7</v>
-      </c>
-      <c r="B79" s="99" t="s">
-        <v>140</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.2.4</v>
+      </c>
+      <c r="B79" s="132" t="s">
+        <v>171</v>
       </c>
       <c r="D79" s="98"/>
       <c r="E79" s="75">
-        <v>44483</v>
+        <v>44493</v>
       </c>
       <c r="F79" s="76">
-        <f t="shared" si="34"/>
-        <v>44484</v>
+        <f t="shared" ref="F79" si="29">IF(ISBLANK(E79)," - ",IF(G79=0,E79,E79+G79-1))</f>
+        <v>44493</v>
       </c>
       <c r="G79" s="58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H79" s="59">
         <v>0</v>
@@ -11723,24 +11431,24 @@
       <c r="BM79" s="79"/>
       <c r="BN79" s="79"/>
     </row>
-    <row r="80" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A80" s="56" t="str">
-        <f t="shared" si="33"/>
-        <v>3.6.8</v>
+        <f t="shared" si="27"/>
+        <v>4.2.5</v>
       </c>
       <c r="B80" s="99" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="D80" s="98"/>
       <c r="E80" s="75">
-        <v>44483</v>
+        <v>44494</v>
       </c>
       <c r="F80" s="76">
-        <f t="shared" si="34"/>
-        <v>44484</v>
+        <f t="shared" si="28"/>
+        <v>44494</v>
       </c>
       <c r="G80" s="58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H80" s="59">
         <v>0</v>
@@ -11806,24 +11514,24 @@
       <c r="BM80" s="79"/>
       <c r="BN80" s="79"/>
     </row>
-    <row r="81" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A81" s="56" t="str">
-        <f t="shared" si="33"/>
-        <v>3.6.9</v>
-      </c>
-      <c r="B81" s="99" t="s">
-        <v>167</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.2.6</v>
+      </c>
+      <c r="B81" s="132" t="s">
+        <v>171</v>
       </c>
       <c r="D81" s="98"/>
       <c r="E81" s="75">
-        <v>44483</v>
+        <v>44494</v>
       </c>
       <c r="F81" s="76">
-        <f t="shared" si="34"/>
-        <v>44484</v>
+        <f t="shared" si="28"/>
+        <v>44494</v>
       </c>
       <c r="G81" s="58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H81" s="59">
         <v>0</v>
@@ -11889,102 +11597,107 @@
       <c r="BM81" s="79"/>
       <c r="BN81" s="79"/>
     </row>
-    <row r="82" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A82" s="49" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>4</v>
-      </c>
-      <c r="B82" s="50" t="s">
-        <v>149</v>
-      </c>
-      <c r="D82" s="52"/>
-      <c r="E82" s="77"/>
-      <c r="F82" s="77" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G82" s="53"/>
-      <c r="H82" s="54"/>
-      <c r="I82" s="55" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J82" s="74"/>
-      <c r="K82" s="80"/>
-      <c r="L82" s="80"/>
-      <c r="M82" s="80"/>
-      <c r="N82" s="80"/>
-      <c r="O82" s="80"/>
-      <c r="P82" s="80"/>
-      <c r="Q82" s="80"/>
-      <c r="R82" s="80"/>
-      <c r="S82" s="80"/>
-      <c r="T82" s="80"/>
-      <c r="U82" s="80"/>
-      <c r="V82" s="80"/>
-      <c r="W82" s="80"/>
-      <c r="X82" s="80"/>
-      <c r="Y82" s="80"/>
-      <c r="Z82" s="80"/>
-      <c r="AA82" s="80"/>
-      <c r="AB82" s="80"/>
-      <c r="AC82" s="80"/>
-      <c r="AD82" s="80"/>
-      <c r="AE82" s="80"/>
-      <c r="AF82" s="80"/>
-      <c r="AG82" s="80"/>
-      <c r="AH82" s="80"/>
-      <c r="AI82" s="80"/>
-      <c r="AJ82" s="80"/>
-      <c r="AK82" s="80"/>
-      <c r="AL82" s="80"/>
-      <c r="AM82" s="80"/>
-      <c r="AN82" s="80"/>
-      <c r="AO82" s="80"/>
-      <c r="AP82" s="80"/>
-      <c r="AQ82" s="80"/>
-      <c r="AR82" s="80"/>
-      <c r="AS82" s="80"/>
-      <c r="AT82" s="80"/>
-      <c r="AU82" s="80"/>
-      <c r="AV82" s="80"/>
-      <c r="AW82" s="80"/>
-      <c r="AX82" s="80"/>
-      <c r="AY82" s="80"/>
-      <c r="AZ82" s="80"/>
-      <c r="BA82" s="80"/>
-      <c r="BB82" s="80"/>
-      <c r="BC82" s="80"/>
-      <c r="BD82" s="80"/>
-      <c r="BE82" s="80"/>
-      <c r="BF82" s="80"/>
-      <c r="BG82" s="80"/>
-      <c r="BH82" s="80"/>
-      <c r="BI82" s="80"/>
-      <c r="BJ82" s="80"/>
-      <c r="BK82" s="80"/>
-      <c r="BL82" s="80"/>
-      <c r="BM82" s="80"/>
-      <c r="BN82" s="80"/>
+    <row r="82" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A82" s="56" t="str">
+        <f t="shared" si="27"/>
+        <v>4.2.7</v>
+      </c>
+      <c r="B82" s="99" t="s">
+        <v>137</v>
+      </c>
+      <c r="D82" s="98"/>
+      <c r="E82" s="75">
+        <v>44495</v>
+      </c>
+      <c r="F82" s="76">
+        <f t="shared" si="28"/>
+        <v>44495</v>
+      </c>
+      <c r="G82" s="58">
+        <v>1</v>
+      </c>
+      <c r="H82" s="59">
+        <v>0</v>
+      </c>
+      <c r="I82" s="60">
+        <v>0</v>
+      </c>
+      <c r="J82" s="73"/>
+      <c r="K82" s="79"/>
+      <c r="L82" s="79"/>
+      <c r="M82" s="79"/>
+      <c r="N82" s="79"/>
+      <c r="O82" s="79"/>
+      <c r="P82" s="79"/>
+      <c r="Q82" s="79"/>
+      <c r="R82" s="79"/>
+      <c r="S82" s="79"/>
+      <c r="T82" s="79"/>
+      <c r="U82" s="79"/>
+      <c r="V82" s="79"/>
+      <c r="W82" s="79"/>
+      <c r="X82" s="79"/>
+      <c r="Y82" s="79"/>
+      <c r="Z82" s="79"/>
+      <c r="AA82" s="79"/>
+      <c r="AB82" s="79"/>
+      <c r="AC82" s="79"/>
+      <c r="AD82" s="79"/>
+      <c r="AE82" s="79"/>
+      <c r="AF82" s="79"/>
+      <c r="AG82" s="79"/>
+      <c r="AH82" s="79"/>
+      <c r="AI82" s="79"/>
+      <c r="AJ82" s="79"/>
+      <c r="AK82" s="79"/>
+      <c r="AL82" s="79"/>
+      <c r="AM82" s="79"/>
+      <c r="AN82" s="79"/>
+      <c r="AO82" s="79"/>
+      <c r="AP82" s="79"/>
+      <c r="AQ82" s="79"/>
+      <c r="AR82" s="79"/>
+      <c r="AS82" s="79"/>
+      <c r="AT82" s="79"/>
+      <c r="AU82" s="79"/>
+      <c r="AV82" s="79"/>
+      <c r="AW82" s="79"/>
+      <c r="AX82" s="79"/>
+      <c r="AY82" s="79"/>
+      <c r="AZ82" s="79"/>
+      <c r="BA82" s="79"/>
+      <c r="BB82" s="79"/>
+      <c r="BC82" s="79"/>
+      <c r="BD82" s="79"/>
+      <c r="BE82" s="79"/>
+      <c r="BF82" s="79"/>
+      <c r="BG82" s="79"/>
+      <c r="BH82" s="79"/>
+      <c r="BI82" s="79"/>
+      <c r="BJ82" s="79"/>
+      <c r="BK82" s="79"/>
+      <c r="BL82" s="79"/>
+      <c r="BM82" s="79"/>
+      <c r="BN82" s="79"/>
     </row>
     <row r="83" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A83" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.1</v>
-      </c>
-      <c r="B83" s="97" t="s">
-        <v>163</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.2.8</v>
+      </c>
+      <c r="B83" s="132" t="s">
+        <v>171</v>
       </c>
       <c r="D83" s="98"/>
       <c r="E83" s="75">
-        <v>44485</v>
+        <v>44495</v>
       </c>
       <c r="F83" s="76">
-        <f t="shared" si="7"/>
-        <v>44491</v>
+        <f t="shared" ref="F83" si="30">IF(ISBLANK(E83)," - ",IF(G83=0,E83,E83+G83-1))</f>
+        <v>44495</v>
       </c>
       <c r="G83" s="58">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H83" s="59">
         <v>0</v>
@@ -12052,22 +11765,22 @@
     </row>
     <row r="84" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A84" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.2</v>
-      </c>
-      <c r="B84" s="97" t="s">
-        <v>172</v>
+        <f t="shared" si="27"/>
+        <v>4.2.9</v>
+      </c>
+      <c r="B84" s="99" t="s">
+        <v>138</v>
       </c>
       <c r="D84" s="98"/>
       <c r="E84" s="75">
-        <v>44492</v>
+        <v>44496</v>
       </c>
       <c r="F84" s="76">
-        <f t="shared" si="7"/>
-        <v>44501</v>
+        <f t="shared" si="28"/>
+        <v>44496</v>
       </c>
       <c r="G84" s="58">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H84" s="59">
         <v>0</v>
@@ -12135,19 +11848,19 @@
     </row>
     <row r="85" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A85" s="56" t="str">
-        <f t="shared" ref="A85:A99" si="35">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.2.1</v>
-      </c>
-      <c r="B85" s="99" t="s">
-        <v>135</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.2.10</v>
+      </c>
+      <c r="B85" s="132" t="s">
+        <v>171</v>
       </c>
       <c r="D85" s="98"/>
       <c r="E85" s="75">
-        <v>44492</v>
+        <v>44496</v>
       </c>
       <c r="F85" s="76">
-        <f t="shared" si="7"/>
-        <v>44492</v>
+        <f t="shared" si="28"/>
+        <v>44496</v>
       </c>
       <c r="G85" s="58">
         <v>1</v>
@@ -12218,19 +11931,19 @@
     </row>
     <row r="86" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A86" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.2.2</v>
-      </c>
-      <c r="B86" s="132" t="s">
-        <v>175</v>
+        <f t="shared" si="27"/>
+        <v>4.2.11</v>
+      </c>
+      <c r="B86" s="99" t="s">
+        <v>139</v>
       </c>
       <c r="D86" s="98"/>
       <c r="E86" s="75">
-        <v>44492</v>
+        <v>44497</v>
       </c>
       <c r="F86" s="76">
-        <f t="shared" ref="F86:F100" si="36">IF(ISBLANK(E86)," - ",IF(G86=0,E86,E86+G86-1))</f>
-        <v>44492</v>
+        <f t="shared" si="28"/>
+        <v>44497</v>
       </c>
       <c r="G86" s="58">
         <v>1</v>
@@ -12301,19 +12014,19 @@
     </row>
     <row r="87" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A87" s="56" t="str">
-        <f t="shared" si="35"/>
-        <v>4.2.3</v>
-      </c>
-      <c r="B87" s="99" t="s">
-        <v>136</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.2.12</v>
+      </c>
+      <c r="B87" s="132" t="s">
+        <v>171</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="75">
-        <v>44493</v>
+        <v>44497</v>
       </c>
       <c r="F87" s="76">
-        <f t="shared" si="36"/>
-        <v>44493</v>
+        <f t="shared" ref="F87" si="31">IF(ISBLANK(E87)," - ",IF(G87=0,E87,E87+G87-1))</f>
+        <v>44497</v>
       </c>
       <c r="G87" s="58">
         <v>1</v>
@@ -12382,21 +12095,21 @@
       <c r="BM87" s="79"/>
       <c r="BN87" s="79"/>
     </row>
-    <row r="88" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A88" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.2.4</v>
-      </c>
-      <c r="B88" s="132" t="s">
-        <v>175</v>
+        <f t="shared" si="27"/>
+        <v>4.2.13</v>
+      </c>
+      <c r="B88" s="99" t="s">
+        <v>162</v>
       </c>
       <c r="D88" s="98"/>
       <c r="E88" s="75">
-        <v>44493</v>
+        <v>44498</v>
       </c>
       <c r="F88" s="76">
-        <f t="shared" ref="F88" si="37">IF(ISBLANK(E88)," - ",IF(G88=0,E88,E88+G88-1))</f>
-        <v>44493</v>
+        <f t="shared" si="28"/>
+        <v>44498</v>
       </c>
       <c r="G88" s="58">
         <v>1</v>
@@ -12405,7 +12118,8 @@
         <v>0</v>
       </c>
       <c r="I88" s="60">
-        <v>0</v>
+        <f t="shared" ref="I88:I90" si="32">IF(OR(F88=0,E88=0)," - ",NETWORKDAYS(E88,F88))</f>
+        <v>1</v>
       </c>
       <c r="J88" s="73"/>
       <c r="K88" s="79"/>
@@ -12467,19 +12181,19 @@
     </row>
     <row r="89" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A89" s="56" t="str">
-        <f t="shared" si="35"/>
-        <v>4.2.5</v>
-      </c>
-      <c r="B89" s="99" t="s">
-        <v>137</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.2.14</v>
+      </c>
+      <c r="B89" s="132" t="s">
+        <v>171</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="75">
-        <v>44494</v>
+        <v>44498</v>
       </c>
       <c r="F89" s="76">
-        <f t="shared" si="36"/>
-        <v>44494</v>
+        <f t="shared" si="28"/>
+        <v>44498</v>
       </c>
       <c r="G89" s="58">
         <v>1</v>
@@ -12548,21 +12262,21 @@
       <c r="BM89" s="79"/>
       <c r="BN89" s="79"/>
     </row>
-    <row r="90" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A90" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.2.6</v>
-      </c>
-      <c r="B90" s="132" t="s">
-        <v>175</v>
+        <f t="shared" si="27"/>
+        <v>4.2.15</v>
+      </c>
+      <c r="B90" s="99" t="s">
+        <v>163</v>
       </c>
       <c r="D90" s="98"/>
       <c r="E90" s="75">
-        <v>44494</v>
+        <v>44499</v>
       </c>
       <c r="F90" s="76">
-        <f t="shared" si="36"/>
-        <v>44494</v>
+        <f t="shared" si="28"/>
+        <v>44499</v>
       </c>
       <c r="G90" s="58">
         <v>1</v>
@@ -12571,6 +12285,7 @@
         <v>0</v>
       </c>
       <c r="I90" s="60">
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J90" s="73"/>
@@ -12633,19 +12348,19 @@
     </row>
     <row r="91" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A91" s="56" t="str">
-        <f t="shared" si="35"/>
-        <v>4.2.7</v>
-      </c>
-      <c r="B91" s="99" t="s">
-        <v>138</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.2.16</v>
+      </c>
+      <c r="B91" s="132" t="s">
+        <v>171</v>
       </c>
       <c r="D91" s="98"/>
       <c r="E91" s="75">
-        <v>44495</v>
+        <v>44499</v>
       </c>
       <c r="F91" s="76">
-        <f t="shared" si="36"/>
-        <v>44495</v>
+        <f t="shared" si="28"/>
+        <v>44499</v>
       </c>
       <c r="G91" s="58">
         <v>1</v>
@@ -12714,113 +12429,109 @@
       <c r="BM91" s="79"/>
       <c r="BN91" s="79"/>
     </row>
-    <row r="92" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A92" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.2.8</v>
-      </c>
-      <c r="B92" s="132" t="s">
-        <v>175</v>
-      </c>
-      <c r="D92" s="98"/>
-      <c r="E92" s="75">
-        <v>44495</v>
-      </c>
-      <c r="F92" s="76">
-        <f t="shared" ref="F92" si="38">IF(ISBLANK(E92)," - ",IF(G92=0,E92,E92+G92-1))</f>
-        <v>44495</v>
-      </c>
-      <c r="G92" s="58">
-        <v>1</v>
-      </c>
-      <c r="H92" s="59">
-        <v>0</v>
-      </c>
-      <c r="I92" s="60">
-        <v>0</v>
-      </c>
-      <c r="J92" s="73"/>
-      <c r="K92" s="79"/>
-      <c r="L92" s="79"/>
-      <c r="M92" s="79"/>
-      <c r="N92" s="79"/>
-      <c r="O92" s="79"/>
-      <c r="P92" s="79"/>
-      <c r="Q92" s="79"/>
-      <c r="R92" s="79"/>
-      <c r="S92" s="79"/>
-      <c r="T92" s="79"/>
-      <c r="U92" s="79"/>
-      <c r="V92" s="79"/>
-      <c r="W92" s="79"/>
-      <c r="X92" s="79"/>
-      <c r="Y92" s="79"/>
-      <c r="Z92" s="79"/>
-      <c r="AA92" s="79"/>
-      <c r="AB92" s="79"/>
-      <c r="AC92" s="79"/>
-      <c r="AD92" s="79"/>
-      <c r="AE92" s="79"/>
-      <c r="AF92" s="79"/>
-      <c r="AG92" s="79"/>
-      <c r="AH92" s="79"/>
-      <c r="AI92" s="79"/>
-      <c r="AJ92" s="79"/>
-      <c r="AK92" s="79"/>
-      <c r="AL92" s="79"/>
-      <c r="AM92" s="79"/>
-      <c r="AN92" s="79"/>
-      <c r="AO92" s="79"/>
-      <c r="AP92" s="79"/>
-      <c r="AQ92" s="79"/>
-      <c r="AR92" s="79"/>
-      <c r="AS92" s="79"/>
-      <c r="AT92" s="79"/>
-      <c r="AU92" s="79"/>
-      <c r="AV92" s="79"/>
-      <c r="AW92" s="79"/>
-      <c r="AX92" s="79"/>
-      <c r="AY92" s="79"/>
-      <c r="AZ92" s="79"/>
-      <c r="BA92" s="79"/>
-      <c r="BB92" s="79"/>
-      <c r="BC92" s="79"/>
-      <c r="BD92" s="79"/>
-      <c r="BE92" s="79"/>
-      <c r="BF92" s="79"/>
-      <c r="BG92" s="79"/>
-      <c r="BH92" s="79"/>
-      <c r="BI92" s="79"/>
-      <c r="BJ92" s="79"/>
-      <c r="BK92" s="79"/>
-      <c r="BL92" s="79"/>
-      <c r="BM92" s="79"/>
-      <c r="BN92" s="79"/>
-    </row>
-    <row r="93" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A92" s="49" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>5</v>
+      </c>
+      <c r="B92" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="D92" s="52"/>
+      <c r="E92" s="77"/>
+      <c r="F92" s="77" t="str">
+        <f t="shared" ref="F92:F93" si="33">IF(ISBLANK(E92)," - ",IF(G92=0,E92,E92+G92-1))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G92" s="53"/>
+      <c r="H92" s="54"/>
+      <c r="I92" s="55" t="str">
+        <f t="shared" ref="I92:I93" si="34">IF(OR(F92=0,E92=0)," - ",NETWORKDAYS(E92,F92))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J92" s="74"/>
+      <c r="K92" s="80"/>
+      <c r="L92" s="80"/>
+      <c r="M92" s="80"/>
+      <c r="N92" s="80"/>
+      <c r="O92" s="80"/>
+      <c r="P92" s="80"/>
+      <c r="Q92" s="80"/>
+      <c r="R92" s="80"/>
+      <c r="S92" s="80"/>
+      <c r="T92" s="80"/>
+      <c r="U92" s="80"/>
+      <c r="V92" s="80"/>
+      <c r="W92" s="80"/>
+      <c r="X92" s="80"/>
+      <c r="Y92" s="80"/>
+      <c r="Z92" s="80"/>
+      <c r="AA92" s="80"/>
+      <c r="AB92" s="80"/>
+      <c r="AC92" s="80"/>
+      <c r="AD92" s="80"/>
+      <c r="AE92" s="80"/>
+      <c r="AF92" s="80"/>
+      <c r="AG92" s="80"/>
+      <c r="AH92" s="80"/>
+      <c r="AI92" s="80"/>
+      <c r="AJ92" s="80"/>
+      <c r="AK92" s="80"/>
+      <c r="AL92" s="80"/>
+      <c r="AM92" s="80"/>
+      <c r="AN92" s="80"/>
+      <c r="AO92" s="80"/>
+      <c r="AP92" s="80"/>
+      <c r="AQ92" s="80"/>
+      <c r="AR92" s="80"/>
+      <c r="AS92" s="80"/>
+      <c r="AT92" s="80"/>
+      <c r="AU92" s="80"/>
+      <c r="AV92" s="80"/>
+      <c r="AW92" s="80"/>
+      <c r="AX92" s="80"/>
+      <c r="AY92" s="80"/>
+      <c r="AZ92" s="80"/>
+      <c r="BA92" s="80"/>
+      <c r="BB92" s="80"/>
+      <c r="BC92" s="80"/>
+      <c r="BD92" s="80"/>
+      <c r="BE92" s="80"/>
+      <c r="BF92" s="80"/>
+      <c r="BG92" s="80"/>
+      <c r="BH92" s="80"/>
+      <c r="BI92" s="80"/>
+      <c r="BJ92" s="80"/>
+      <c r="BK92" s="80"/>
+      <c r="BL92" s="80"/>
+      <c r="BM92" s="80"/>
+      <c r="BN92" s="80"/>
+    </row>
+    <row r="93" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A93" s="56" t="str">
-        <f t="shared" si="35"/>
-        <v>4.2.9</v>
-      </c>
-      <c r="B93" s="99" t="s">
-        <v>139</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>5.1</v>
+      </c>
+      <c r="B93" s="97" t="s">
+        <v>147</v>
       </c>
       <c r="D93" s="98"/>
       <c r="E93" s="75">
-        <v>44496</v>
+        <v>44500</v>
       </c>
       <c r="F93" s="76">
-        <f t="shared" si="36"/>
-        <v>44496</v>
+        <f t="shared" si="33"/>
+        <v>44501</v>
       </c>
       <c r="G93" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H93" s="59">
         <v>0</v>
       </c>
       <c r="I93" s="60">
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>1</v>
       </c>
       <c r="J93" s="73"/>
       <c r="K93" s="79"/>
@@ -12882,28 +12593,29 @@
     </row>
     <row r="94" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A94" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.2.10</v>
-      </c>
-      <c r="B94" s="132" t="s">
-        <v>175</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>5.2</v>
+      </c>
+      <c r="B94" s="97" t="s">
+        <v>148</v>
       </c>
       <c r="D94" s="98"/>
       <c r="E94" s="75">
-        <v>44496</v>
+        <v>44501</v>
       </c>
       <c r="F94" s="76">
-        <f t="shared" si="36"/>
-        <v>44496</v>
+        <f t="shared" ref="F94" si="35">IF(ISBLANK(E94)," - ",IF(G94=0,E94,E94+G94-1))</f>
+        <v>44502</v>
       </c>
       <c r="G94" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H94" s="59">
         <v>0</v>
       </c>
       <c r="I94" s="60">
-        <v>0</v>
+        <f t="shared" ref="I94" si="36">IF(OR(F94=0,E94=0)," - ",NETWORKDAYS(E94,F94))</f>
+        <v>2</v>
       </c>
       <c r="J94" s="73"/>
       <c r="K94" s="79"/>
@@ -12963,30 +12675,31 @@
       <c r="BM94" s="79"/>
       <c r="BN94" s="79"/>
     </row>
-    <row r="95" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A95" s="56" t="str">
-        <f t="shared" si="35"/>
-        <v>4.2.11</v>
-      </c>
-      <c r="B95" s="99" t="s">
-        <v>140</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>5.3</v>
+      </c>
+      <c r="B95" s="97" t="s">
+        <v>149</v>
       </c>
       <c r="D95" s="98"/>
       <c r="E95" s="75">
-        <v>44497</v>
+        <v>44502</v>
       </c>
       <c r="F95" s="76">
-        <f t="shared" si="36"/>
-        <v>44497</v>
+        <f t="shared" ref="F95:F96" si="37">IF(ISBLANK(E95)," - ",IF(G95=0,E95,E95+G95-1))</f>
+        <v>44503</v>
       </c>
       <c r="G95" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H95" s="59">
         <v>0</v>
       </c>
       <c r="I95" s="60">
-        <v>0</v>
+        <f t="shared" ref="I95:I96" si="38">IF(OR(F95=0,E95=0)," - ",NETWORKDAYS(E95,F95))</f>
+        <v>2</v>
       </c>
       <c r="J95" s="73"/>
       <c r="K95" s="79"/>
@@ -13046,114 +12759,109 @@
       <c r="BM95" s="79"/>
       <c r="BN95" s="79"/>
     </row>
-    <row r="96" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A96" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.2.12</v>
-      </c>
-      <c r="B96" s="132" t="s">
-        <v>175</v>
-      </c>
-      <c r="D96" s="98"/>
-      <c r="E96" s="75">
-        <v>44497</v>
-      </c>
-      <c r="F96" s="76">
-        <f t="shared" ref="F96" si="39">IF(ISBLANK(E96)," - ",IF(G96=0,E96,E96+G96-1))</f>
-        <v>44497</v>
-      </c>
-      <c r="G96" s="58">
-        <v>1</v>
-      </c>
-      <c r="H96" s="59">
-        <v>0</v>
-      </c>
-      <c r="I96" s="60">
-        <v>0</v>
-      </c>
-      <c r="J96" s="73"/>
-      <c r="K96" s="79"/>
-      <c r="L96" s="79"/>
-      <c r="M96" s="79"/>
-      <c r="N96" s="79"/>
-      <c r="O96" s="79"/>
-      <c r="P96" s="79"/>
-      <c r="Q96" s="79"/>
-      <c r="R96" s="79"/>
-      <c r="S96" s="79"/>
-      <c r="T96" s="79"/>
-      <c r="U96" s="79"/>
-      <c r="V96" s="79"/>
-      <c r="W96" s="79"/>
-      <c r="X96" s="79"/>
-      <c r="Y96" s="79"/>
-      <c r="Z96" s="79"/>
-      <c r="AA96" s="79"/>
-      <c r="AB96" s="79"/>
-      <c r="AC96" s="79"/>
-      <c r="AD96" s="79"/>
-      <c r="AE96" s="79"/>
-      <c r="AF96" s="79"/>
-      <c r="AG96" s="79"/>
-      <c r="AH96" s="79"/>
-      <c r="AI96" s="79"/>
-      <c r="AJ96" s="79"/>
-      <c r="AK96" s="79"/>
-      <c r="AL96" s="79"/>
-      <c r="AM96" s="79"/>
-      <c r="AN96" s="79"/>
-      <c r="AO96" s="79"/>
-      <c r="AP96" s="79"/>
-      <c r="AQ96" s="79"/>
-      <c r="AR96" s="79"/>
-      <c r="AS96" s="79"/>
-      <c r="AT96" s="79"/>
-      <c r="AU96" s="79"/>
-      <c r="AV96" s="79"/>
-      <c r="AW96" s="79"/>
-      <c r="AX96" s="79"/>
-      <c r="AY96" s="79"/>
-      <c r="AZ96" s="79"/>
-      <c r="BA96" s="79"/>
-      <c r="BB96" s="79"/>
-      <c r="BC96" s="79"/>
-      <c r="BD96" s="79"/>
-      <c r="BE96" s="79"/>
-      <c r="BF96" s="79"/>
-      <c r="BG96" s="79"/>
-      <c r="BH96" s="79"/>
-      <c r="BI96" s="79"/>
-      <c r="BJ96" s="79"/>
-      <c r="BK96" s="79"/>
-      <c r="BL96" s="79"/>
-      <c r="BM96" s="79"/>
-      <c r="BN96" s="79"/>
-    </row>
-    <row r="97" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A96" s="49" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>6</v>
+      </c>
+      <c r="B96" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="D96" s="52"/>
+      <c r="E96" s="77"/>
+      <c r="F96" s="77" t="str">
+        <f t="shared" si="37"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G96" s="53"/>
+      <c r="H96" s="54"/>
+      <c r="I96" s="55" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J96" s="74"/>
+      <c r="K96" s="80"/>
+      <c r="L96" s="80"/>
+      <c r="M96" s="80"/>
+      <c r="N96" s="80"/>
+      <c r="O96" s="80"/>
+      <c r="P96" s="80"/>
+      <c r="Q96" s="80"/>
+      <c r="R96" s="80"/>
+      <c r="S96" s="80"/>
+      <c r="T96" s="80"/>
+      <c r="U96" s="80"/>
+      <c r="V96" s="80"/>
+      <c r="W96" s="80"/>
+      <c r="X96" s="80"/>
+      <c r="Y96" s="80"/>
+      <c r="Z96" s="80"/>
+      <c r="AA96" s="80"/>
+      <c r="AB96" s="80"/>
+      <c r="AC96" s="80"/>
+      <c r="AD96" s="80"/>
+      <c r="AE96" s="80"/>
+      <c r="AF96" s="80"/>
+      <c r="AG96" s="80"/>
+      <c r="AH96" s="80"/>
+      <c r="AI96" s="80"/>
+      <c r="AJ96" s="80"/>
+      <c r="AK96" s="80"/>
+      <c r="AL96" s="80"/>
+      <c r="AM96" s="80"/>
+      <c r="AN96" s="80"/>
+      <c r="AO96" s="80"/>
+      <c r="AP96" s="80"/>
+      <c r="AQ96" s="80"/>
+      <c r="AR96" s="80"/>
+      <c r="AS96" s="80"/>
+      <c r="AT96" s="80"/>
+      <c r="AU96" s="80"/>
+      <c r="AV96" s="80"/>
+      <c r="AW96" s="80"/>
+      <c r="AX96" s="80"/>
+      <c r="AY96" s="80"/>
+      <c r="AZ96" s="80"/>
+      <c r="BA96" s="80"/>
+      <c r="BB96" s="80"/>
+      <c r="BC96" s="80"/>
+      <c r="BD96" s="80"/>
+      <c r="BE96" s="80"/>
+      <c r="BF96" s="80"/>
+      <c r="BG96" s="80"/>
+      <c r="BH96" s="80"/>
+      <c r="BI96" s="80"/>
+      <c r="BJ96" s="80"/>
+      <c r="BK96" s="80"/>
+      <c r="BL96" s="80"/>
+      <c r="BM96" s="80"/>
+      <c r="BN96" s="80"/>
+    </row>
+    <row r="97" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A97" s="56" t="str">
-        <f t="shared" si="35"/>
-        <v>4.2.13</v>
-      </c>
-      <c r="B97" s="99" t="s">
-        <v>166</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>6.1</v>
+      </c>
+      <c r="B97" s="97" t="s">
+        <v>150</v>
       </c>
       <c r="D97" s="98"/>
       <c r="E97" s="75">
-        <v>44498</v>
+        <v>44503</v>
       </c>
       <c r="F97" s="76">
-        <f t="shared" si="36"/>
-        <v>44498</v>
+        <f t="shared" ref="F97" si="39">IF(ISBLANK(E97)," - ",IF(G97=0,E97,E97+G97-1))</f>
+        <v>44505</v>
       </c>
       <c r="G97" s="58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H97" s="59">
         <v>0</v>
       </c>
       <c r="I97" s="60">
-        <f t="shared" ref="I97:I99" si="40">IF(OR(F97=0,E97=0)," - ",NETWORKDAYS(E97,F97))</f>
-        <v>1</v>
+        <f t="shared" ref="I97" si="40">IF(OR(F97=0,E97=0)," - ",NETWORKDAYS(E97,F97))</f>
+        <v>3</v>
       </c>
       <c r="J97" s="73"/>
       <c r="K97" s="79"/>
@@ -13213,30 +12921,31 @@
       <c r="BM97" s="79"/>
       <c r="BN97" s="79"/>
     </row>
-    <row r="98" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A98" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.2.14</v>
-      </c>
-      <c r="B98" s="132" t="s">
-        <v>175</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>6.2</v>
+      </c>
+      <c r="B98" s="97" t="s">
+        <v>151</v>
       </c>
       <c r="D98" s="98"/>
       <c r="E98" s="75">
-        <v>44498</v>
+        <v>44505</v>
       </c>
       <c r="F98" s="76">
-        <f t="shared" si="36"/>
-        <v>44498</v>
+        <f t="shared" ref="F98:F102" si="41">IF(ISBLANK(E98)," - ",IF(G98=0,E98,E98+G98-1))</f>
+        <v>44507</v>
       </c>
       <c r="G98" s="58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H98" s="59">
         <v>0</v>
       </c>
       <c r="I98" s="60">
-        <v>0</v>
+        <f t="shared" ref="I98:I102" si="42">IF(OR(F98=0,E98=0)," - ",NETWORKDAYS(E98,F98))</f>
+        <v>1</v>
       </c>
       <c r="J98" s="73"/>
       <c r="K98" s="79"/>
@@ -13296,105 +13005,99 @@
       <c r="BM98" s="79"/>
       <c r="BN98" s="79"/>
     </row>
-    <row r="99" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A99" s="56" t="str">
-        <f t="shared" si="35"/>
-        <v>4.2.15</v>
-      </c>
-      <c r="B99" s="99" t="s">
-        <v>167</v>
-      </c>
-      <c r="D99" s="98"/>
-      <c r="E99" s="75">
-        <v>44499</v>
-      </c>
-      <c r="F99" s="76">
-        <f t="shared" si="36"/>
-        <v>44499</v>
-      </c>
-      <c r="G99" s="58">
-        <v>1</v>
-      </c>
-      <c r="H99" s="59">
-        <v>0</v>
-      </c>
-      <c r="I99" s="60">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="J99" s="73"/>
-      <c r="K99" s="79"/>
-      <c r="L99" s="79"/>
-      <c r="M99" s="79"/>
-      <c r="N99" s="79"/>
-      <c r="O99" s="79"/>
-      <c r="P99" s="79"/>
-      <c r="Q99" s="79"/>
-      <c r="R99" s="79"/>
-      <c r="S99" s="79"/>
-      <c r="T99" s="79"/>
-      <c r="U99" s="79"/>
-      <c r="V99" s="79"/>
-      <c r="W99" s="79"/>
-      <c r="X99" s="79"/>
-      <c r="Y99" s="79"/>
-      <c r="Z99" s="79"/>
-      <c r="AA99" s="79"/>
-      <c r="AB99" s="79"/>
-      <c r="AC99" s="79"/>
-      <c r="AD99" s="79"/>
-      <c r="AE99" s="79"/>
-      <c r="AF99" s="79"/>
-      <c r="AG99" s="79"/>
-      <c r="AH99" s="79"/>
-      <c r="AI99" s="79"/>
-      <c r="AJ99" s="79"/>
-      <c r="AK99" s="79"/>
-      <c r="AL99" s="79"/>
-      <c r="AM99" s="79"/>
-      <c r="AN99" s="79"/>
-      <c r="AO99" s="79"/>
-      <c r="AP99" s="79"/>
-      <c r="AQ99" s="79"/>
-      <c r="AR99" s="79"/>
-      <c r="AS99" s="79"/>
-      <c r="AT99" s="79"/>
-      <c r="AU99" s="79"/>
-      <c r="AV99" s="79"/>
-      <c r="AW99" s="79"/>
-      <c r="AX99" s="79"/>
-      <c r="AY99" s="79"/>
-      <c r="AZ99" s="79"/>
-      <c r="BA99" s="79"/>
-      <c r="BB99" s="79"/>
-      <c r="BC99" s="79"/>
-      <c r="BD99" s="79"/>
-      <c r="BE99" s="79"/>
-      <c r="BF99" s="79"/>
-      <c r="BG99" s="79"/>
-      <c r="BH99" s="79"/>
-      <c r="BI99" s="79"/>
-      <c r="BJ99" s="79"/>
-      <c r="BK99" s="79"/>
-      <c r="BL99" s="79"/>
-      <c r="BM99" s="79"/>
-      <c r="BN99" s="79"/>
+    <row r="99" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A99" s="49" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>7</v>
+      </c>
+      <c r="B99" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="D99" s="52"/>
+      <c r="E99" s="77"/>
+      <c r="F99" s="77" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G99" s="53"/>
+      <c r="H99" s="54"/>
+      <c r="I99" s="55" t="str">
+        <f t="shared" si="42"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J99" s="74"/>
+      <c r="K99" s="80"/>
+      <c r="L99" s="80"/>
+      <c r="M99" s="80"/>
+      <c r="N99" s="80"/>
+      <c r="O99" s="80"/>
+      <c r="P99" s="80"/>
+      <c r="Q99" s="80"/>
+      <c r="R99" s="80"/>
+      <c r="S99" s="80"/>
+      <c r="T99" s="80"/>
+      <c r="U99" s="80"/>
+      <c r="V99" s="80"/>
+      <c r="W99" s="80"/>
+      <c r="X99" s="80"/>
+      <c r="Y99" s="80"/>
+      <c r="Z99" s="80"/>
+      <c r="AA99" s="80"/>
+      <c r="AB99" s="80"/>
+      <c r="AC99" s="80"/>
+      <c r="AD99" s="80"/>
+      <c r="AE99" s="80"/>
+      <c r="AF99" s="80"/>
+      <c r="AG99" s="80"/>
+      <c r="AH99" s="80"/>
+      <c r="AI99" s="80"/>
+      <c r="AJ99" s="80"/>
+      <c r="AK99" s="80"/>
+      <c r="AL99" s="80"/>
+      <c r="AM99" s="80"/>
+      <c r="AN99" s="80"/>
+      <c r="AO99" s="80"/>
+      <c r="AP99" s="80"/>
+      <c r="AQ99" s="80"/>
+      <c r="AR99" s="80"/>
+      <c r="AS99" s="80"/>
+      <c r="AT99" s="80"/>
+      <c r="AU99" s="80"/>
+      <c r="AV99" s="80"/>
+      <c r="AW99" s="80"/>
+      <c r="AX99" s="80"/>
+      <c r="AY99" s="80"/>
+      <c r="AZ99" s="80"/>
+      <c r="BA99" s="80"/>
+      <c r="BB99" s="80"/>
+      <c r="BC99" s="80"/>
+      <c r="BD99" s="80"/>
+      <c r="BE99" s="80"/>
+      <c r="BF99" s="80"/>
+      <c r="BG99" s="80"/>
+      <c r="BH99" s="80"/>
+      <c r="BI99" s="80"/>
+      <c r="BJ99" s="80"/>
+      <c r="BK99" s="80"/>
+      <c r="BL99" s="80"/>
+      <c r="BM99" s="80"/>
+      <c r="BN99" s="80"/>
     </row>
     <row r="100" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A100" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.2.16</v>
-      </c>
-      <c r="B100" s="132" t="s">
-        <v>175</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>7.1</v>
+      </c>
+      <c r="B100" s="97" t="s">
+        <v>7</v>
       </c>
       <c r="D100" s="98"/>
       <c r="E100" s="75">
-        <v>44499</v>
+        <v>43131</v>
       </c>
       <c r="F100" s="76">
-        <f t="shared" si="36"/>
-        <v>44499</v>
+        <f t="shared" si="41"/>
+        <v>43131</v>
       </c>
       <c r="G100" s="58">
         <v>1</v>
@@ -13403,7 +13106,8 @@
         <v>0</v>
       </c>
       <c r="I100" s="60">
-        <v>0</v>
+        <f t="shared" si="42"/>
+        <v>1</v>
       </c>
       <c r="J100" s="73"/>
       <c r="K100" s="79"/>
@@ -13463,102 +13167,108 @@
       <c r="BM100" s="79"/>
       <c r="BN100" s="79"/>
     </row>
-    <row r="101" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A101" s="49" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>5</v>
-      </c>
-      <c r="B101" s="50" t="s">
-        <v>158</v>
-      </c>
-      <c r="D101" s="52"/>
-      <c r="E101" s="77"/>
-      <c r="F101" s="77" t="str">
-        <f t="shared" ref="F101:F102" si="41">IF(ISBLANK(E101)," - ",IF(G101=0,E101,E101+G101-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G101" s="53"/>
-      <c r="H101" s="54"/>
-      <c r="I101" s="55" t="str">
-        <f t="shared" ref="I101:I102" si="42">IF(OR(F101=0,E101=0)," - ",NETWORKDAYS(E101,F101))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J101" s="74"/>
-      <c r="K101" s="80"/>
-      <c r="L101" s="80"/>
-      <c r="M101" s="80"/>
-      <c r="N101" s="80"/>
-      <c r="O101" s="80"/>
-      <c r="P101" s="80"/>
-      <c r="Q101" s="80"/>
-      <c r="R101" s="80"/>
-      <c r="S101" s="80"/>
-      <c r="T101" s="80"/>
-      <c r="U101" s="80"/>
-      <c r="V101" s="80"/>
-      <c r="W101" s="80"/>
-      <c r="X101" s="80"/>
-      <c r="Y101" s="80"/>
-      <c r="Z101" s="80"/>
-      <c r="AA101" s="80"/>
-      <c r="AB101" s="80"/>
-      <c r="AC101" s="80"/>
-      <c r="AD101" s="80"/>
-      <c r="AE101" s="80"/>
-      <c r="AF101" s="80"/>
-      <c r="AG101" s="80"/>
-      <c r="AH101" s="80"/>
-      <c r="AI101" s="80"/>
-      <c r="AJ101" s="80"/>
-      <c r="AK101" s="80"/>
-      <c r="AL101" s="80"/>
-      <c r="AM101" s="80"/>
-      <c r="AN101" s="80"/>
-      <c r="AO101" s="80"/>
-      <c r="AP101" s="80"/>
-      <c r="AQ101" s="80"/>
-      <c r="AR101" s="80"/>
-      <c r="AS101" s="80"/>
-      <c r="AT101" s="80"/>
-      <c r="AU101" s="80"/>
-      <c r="AV101" s="80"/>
-      <c r="AW101" s="80"/>
-      <c r="AX101" s="80"/>
-      <c r="AY101" s="80"/>
-      <c r="AZ101" s="80"/>
-      <c r="BA101" s="80"/>
-      <c r="BB101" s="80"/>
-      <c r="BC101" s="80"/>
-      <c r="BD101" s="80"/>
-      <c r="BE101" s="80"/>
-      <c r="BF101" s="80"/>
-      <c r="BG101" s="80"/>
-      <c r="BH101" s="80"/>
-      <c r="BI101" s="80"/>
-      <c r="BJ101" s="80"/>
-      <c r="BK101" s="80"/>
-      <c r="BL101" s="80"/>
-      <c r="BM101" s="80"/>
-      <c r="BN101" s="80"/>
-    </row>
-    <row r="102" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A101" s="56" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>7.2</v>
+      </c>
+      <c r="B101" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" s="98"/>
+      <c r="E101" s="75">
+        <v>43132</v>
+      </c>
+      <c r="F101" s="76">
+        <f t="shared" si="41"/>
+        <v>43132</v>
+      </c>
+      <c r="G101" s="58">
+        <v>1</v>
+      </c>
+      <c r="H101" s="59">
+        <v>0</v>
+      </c>
+      <c r="I101" s="60">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="J101" s="73"/>
+      <c r="K101" s="79"/>
+      <c r="L101" s="79"/>
+      <c r="M101" s="79"/>
+      <c r="N101" s="79"/>
+      <c r="O101" s="79"/>
+      <c r="P101" s="79"/>
+      <c r="Q101" s="79"/>
+      <c r="R101" s="79"/>
+      <c r="S101" s="79"/>
+      <c r="T101" s="79"/>
+      <c r="U101" s="79"/>
+      <c r="V101" s="79"/>
+      <c r="W101" s="79"/>
+      <c r="X101" s="79"/>
+      <c r="Y101" s="79"/>
+      <c r="Z101" s="79"/>
+      <c r="AA101" s="79"/>
+      <c r="AB101" s="79"/>
+      <c r="AC101" s="79"/>
+      <c r="AD101" s="79"/>
+      <c r="AE101" s="79"/>
+      <c r="AF101" s="79"/>
+      <c r="AG101" s="79"/>
+      <c r="AH101" s="79"/>
+      <c r="AI101" s="79"/>
+      <c r="AJ101" s="79"/>
+      <c r="AK101" s="79"/>
+      <c r="AL101" s="79"/>
+      <c r="AM101" s="79"/>
+      <c r="AN101" s="79"/>
+      <c r="AO101" s="79"/>
+      <c r="AP101" s="79"/>
+      <c r="AQ101" s="79"/>
+      <c r="AR101" s="79"/>
+      <c r="AS101" s="79"/>
+      <c r="AT101" s="79"/>
+      <c r="AU101" s="79"/>
+      <c r="AV101" s="79"/>
+      <c r="AW101" s="79"/>
+      <c r="AX101" s="79"/>
+      <c r="AY101" s="79"/>
+      <c r="AZ101" s="79"/>
+      <c r="BA101" s="79"/>
+      <c r="BB101" s="79"/>
+      <c r="BC101" s="79"/>
+      <c r="BD101" s="79"/>
+      <c r="BE101" s="79"/>
+      <c r="BF101" s="79"/>
+      <c r="BG101" s="79"/>
+      <c r="BH101" s="79"/>
+      <c r="BI101" s="79"/>
+      <c r="BJ101" s="79"/>
+      <c r="BK101" s="79"/>
+      <c r="BL101" s="79"/>
+      <c r="BM101" s="79"/>
+      <c r="BN101" s="79"/>
+    </row>
+    <row r="102" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A102" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.1</v>
+        <v>7.3</v>
       </c>
       <c r="B102" s="97" t="s">
-        <v>150</v>
+        <v>7</v>
       </c>
       <c r="D102" s="98"/>
       <c r="E102" s="75">
-        <v>44500</v>
+        <v>43133</v>
       </c>
       <c r="F102" s="76">
         <f t="shared" si="41"/>
-        <v>44501</v>
+        <v>43133</v>
       </c>
       <c r="G102" s="58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H102" s="59">
         <v>0</v>
@@ -13625,750 +13335,6 @@
       <c r="BM102" s="79"/>
       <c r="BN102" s="79"/>
     </row>
-    <row r="103" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A103" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.2</v>
-      </c>
-      <c r="B103" s="97" t="s">
-        <v>151</v>
-      </c>
-      <c r="D103" s="98"/>
-      <c r="E103" s="75">
-        <v>44501</v>
-      </c>
-      <c r="F103" s="76">
-        <f t="shared" ref="F103" si="43">IF(ISBLANK(E103)," - ",IF(G103=0,E103,E103+G103-1))</f>
-        <v>44502</v>
-      </c>
-      <c r="G103" s="58">
-        <v>2</v>
-      </c>
-      <c r="H103" s="59">
-        <v>0</v>
-      </c>
-      <c r="I103" s="60">
-        <f t="shared" ref="I103" si="44">IF(OR(F103=0,E103=0)," - ",NETWORKDAYS(E103,F103))</f>
-        <v>2</v>
-      </c>
-      <c r="J103" s="73"/>
-      <c r="K103" s="79"/>
-      <c r="L103" s="79"/>
-      <c r="M103" s="79"/>
-      <c r="N103" s="79"/>
-      <c r="O103" s="79"/>
-      <c r="P103" s="79"/>
-      <c r="Q103" s="79"/>
-      <c r="R103" s="79"/>
-      <c r="S103" s="79"/>
-      <c r="T103" s="79"/>
-      <c r="U103" s="79"/>
-      <c r="V103" s="79"/>
-      <c r="W103" s="79"/>
-      <c r="X103" s="79"/>
-      <c r="Y103" s="79"/>
-      <c r="Z103" s="79"/>
-      <c r="AA103" s="79"/>
-      <c r="AB103" s="79"/>
-      <c r="AC103" s="79"/>
-      <c r="AD103" s="79"/>
-      <c r="AE103" s="79"/>
-      <c r="AF103" s="79"/>
-      <c r="AG103" s="79"/>
-      <c r="AH103" s="79"/>
-      <c r="AI103" s="79"/>
-      <c r="AJ103" s="79"/>
-      <c r="AK103" s="79"/>
-      <c r="AL103" s="79"/>
-      <c r="AM103" s="79"/>
-      <c r="AN103" s="79"/>
-      <c r="AO103" s="79"/>
-      <c r="AP103" s="79"/>
-      <c r="AQ103" s="79"/>
-      <c r="AR103" s="79"/>
-      <c r="AS103" s="79"/>
-      <c r="AT103" s="79"/>
-      <c r="AU103" s="79"/>
-      <c r="AV103" s="79"/>
-      <c r="AW103" s="79"/>
-      <c r="AX103" s="79"/>
-      <c r="AY103" s="79"/>
-      <c r="AZ103" s="79"/>
-      <c r="BA103" s="79"/>
-      <c r="BB103" s="79"/>
-      <c r="BC103" s="79"/>
-      <c r="BD103" s="79"/>
-      <c r="BE103" s="79"/>
-      <c r="BF103" s="79"/>
-      <c r="BG103" s="79"/>
-      <c r="BH103" s="79"/>
-      <c r="BI103" s="79"/>
-      <c r="BJ103" s="79"/>
-      <c r="BK103" s="79"/>
-      <c r="BL103" s="79"/>
-      <c r="BM103" s="79"/>
-      <c r="BN103" s="79"/>
-    </row>
-    <row r="104" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A104" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.3</v>
-      </c>
-      <c r="B104" s="97" t="s">
-        <v>152</v>
-      </c>
-      <c r="D104" s="98"/>
-      <c r="E104" s="75">
-        <v>44502</v>
-      </c>
-      <c r="F104" s="76">
-        <f t="shared" ref="F104:F105" si="45">IF(ISBLANK(E104)," - ",IF(G104=0,E104,E104+G104-1))</f>
-        <v>44503</v>
-      </c>
-      <c r="G104" s="58">
-        <v>2</v>
-      </c>
-      <c r="H104" s="59">
-        <v>0</v>
-      </c>
-      <c r="I104" s="60">
-        <f t="shared" ref="I104:I105" si="46">IF(OR(F104=0,E104=0)," - ",NETWORKDAYS(E104,F104))</f>
-        <v>2</v>
-      </c>
-      <c r="J104" s="73"/>
-      <c r="K104" s="79"/>
-      <c r="L104" s="79"/>
-      <c r="M104" s="79"/>
-      <c r="N104" s="79"/>
-      <c r="O104" s="79"/>
-      <c r="P104" s="79"/>
-      <c r="Q104" s="79"/>
-      <c r="R104" s="79"/>
-      <c r="S104" s="79"/>
-      <c r="T104" s="79"/>
-      <c r="U104" s="79"/>
-      <c r="V104" s="79"/>
-      <c r="W104" s="79"/>
-      <c r="X104" s="79"/>
-      <c r="Y104" s="79"/>
-      <c r="Z104" s="79"/>
-      <c r="AA104" s="79"/>
-      <c r="AB104" s="79"/>
-      <c r="AC104" s="79"/>
-      <c r="AD104" s="79"/>
-      <c r="AE104" s="79"/>
-      <c r="AF104" s="79"/>
-      <c r="AG104" s="79"/>
-      <c r="AH104" s="79"/>
-      <c r="AI104" s="79"/>
-      <c r="AJ104" s="79"/>
-      <c r="AK104" s="79"/>
-      <c r="AL104" s="79"/>
-      <c r="AM104" s="79"/>
-      <c r="AN104" s="79"/>
-      <c r="AO104" s="79"/>
-      <c r="AP104" s="79"/>
-      <c r="AQ104" s="79"/>
-      <c r="AR104" s="79"/>
-      <c r="AS104" s="79"/>
-      <c r="AT104" s="79"/>
-      <c r="AU104" s="79"/>
-      <c r="AV104" s="79"/>
-      <c r="AW104" s="79"/>
-      <c r="AX104" s="79"/>
-      <c r="AY104" s="79"/>
-      <c r="AZ104" s="79"/>
-      <c r="BA104" s="79"/>
-      <c r="BB104" s="79"/>
-      <c r="BC104" s="79"/>
-      <c r="BD104" s="79"/>
-      <c r="BE104" s="79"/>
-      <c r="BF104" s="79"/>
-      <c r="BG104" s="79"/>
-      <c r="BH104" s="79"/>
-      <c r="BI104" s="79"/>
-      <c r="BJ104" s="79"/>
-      <c r="BK104" s="79"/>
-      <c r="BL104" s="79"/>
-      <c r="BM104" s="79"/>
-      <c r="BN104" s="79"/>
-    </row>
-    <row r="105" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A105" s="49" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>6</v>
-      </c>
-      <c r="B105" s="50" t="s">
-        <v>173</v>
-      </c>
-      <c r="D105" s="52"/>
-      <c r="E105" s="77"/>
-      <c r="F105" s="77" t="str">
-        <f t="shared" si="45"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G105" s="53"/>
-      <c r="H105" s="54"/>
-      <c r="I105" s="55" t="str">
-        <f t="shared" si="46"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J105" s="74"/>
-      <c r="K105" s="80"/>
-      <c r="L105" s="80"/>
-      <c r="M105" s="80"/>
-      <c r="N105" s="80"/>
-      <c r="O105" s="80"/>
-      <c r="P105" s="80"/>
-      <c r="Q105" s="80"/>
-      <c r="R105" s="80"/>
-      <c r="S105" s="80"/>
-      <c r="T105" s="80"/>
-      <c r="U105" s="80"/>
-      <c r="V105" s="80"/>
-      <c r="W105" s="80"/>
-      <c r="X105" s="80"/>
-      <c r="Y105" s="80"/>
-      <c r="Z105" s="80"/>
-      <c r="AA105" s="80"/>
-      <c r="AB105" s="80"/>
-      <c r="AC105" s="80"/>
-      <c r="AD105" s="80"/>
-      <c r="AE105" s="80"/>
-      <c r="AF105" s="80"/>
-      <c r="AG105" s="80"/>
-      <c r="AH105" s="80"/>
-      <c r="AI105" s="80"/>
-      <c r="AJ105" s="80"/>
-      <c r="AK105" s="80"/>
-      <c r="AL105" s="80"/>
-      <c r="AM105" s="80"/>
-      <c r="AN105" s="80"/>
-      <c r="AO105" s="80"/>
-      <c r="AP105" s="80"/>
-      <c r="AQ105" s="80"/>
-      <c r="AR105" s="80"/>
-      <c r="AS105" s="80"/>
-      <c r="AT105" s="80"/>
-      <c r="AU105" s="80"/>
-      <c r="AV105" s="80"/>
-      <c r="AW105" s="80"/>
-      <c r="AX105" s="80"/>
-      <c r="AY105" s="80"/>
-      <c r="AZ105" s="80"/>
-      <c r="BA105" s="80"/>
-      <c r="BB105" s="80"/>
-      <c r="BC105" s="80"/>
-      <c r="BD105" s="80"/>
-      <c r="BE105" s="80"/>
-      <c r="BF105" s="80"/>
-      <c r="BG105" s="80"/>
-      <c r="BH105" s="80"/>
-      <c r="BI105" s="80"/>
-      <c r="BJ105" s="80"/>
-      <c r="BK105" s="80"/>
-      <c r="BL105" s="80"/>
-      <c r="BM105" s="80"/>
-      <c r="BN105" s="80"/>
-    </row>
-    <row r="106" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A106" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>6.1</v>
-      </c>
-      <c r="B106" s="97" t="s">
-        <v>153</v>
-      </c>
-      <c r="D106" s="98"/>
-      <c r="E106" s="75">
-        <v>44503</v>
-      </c>
-      <c r="F106" s="76">
-        <f t="shared" ref="F106" si="47">IF(ISBLANK(E106)," - ",IF(G106=0,E106,E106+G106-1))</f>
-        <v>44505</v>
-      </c>
-      <c r="G106" s="58">
-        <v>3</v>
-      </c>
-      <c r="H106" s="59">
-        <v>0</v>
-      </c>
-      <c r="I106" s="60">
-        <f t="shared" ref="I106" si="48">IF(OR(F106=0,E106=0)," - ",NETWORKDAYS(E106,F106))</f>
-        <v>3</v>
-      </c>
-      <c r="J106" s="73"/>
-      <c r="K106" s="79"/>
-      <c r="L106" s="79"/>
-      <c r="M106" s="79"/>
-      <c r="N106" s="79"/>
-      <c r="O106" s="79"/>
-      <c r="P106" s="79"/>
-      <c r="Q106" s="79"/>
-      <c r="R106" s="79"/>
-      <c r="S106" s="79"/>
-      <c r="T106" s="79"/>
-      <c r="U106" s="79"/>
-      <c r="V106" s="79"/>
-      <c r="W106" s="79"/>
-      <c r="X106" s="79"/>
-      <c r="Y106" s="79"/>
-      <c r="Z106" s="79"/>
-      <c r="AA106" s="79"/>
-      <c r="AB106" s="79"/>
-      <c r="AC106" s="79"/>
-      <c r="AD106" s="79"/>
-      <c r="AE106" s="79"/>
-      <c r="AF106" s="79"/>
-      <c r="AG106" s="79"/>
-      <c r="AH106" s="79"/>
-      <c r="AI106" s="79"/>
-      <c r="AJ106" s="79"/>
-      <c r="AK106" s="79"/>
-      <c r="AL106" s="79"/>
-      <c r="AM106" s="79"/>
-      <c r="AN106" s="79"/>
-      <c r="AO106" s="79"/>
-      <c r="AP106" s="79"/>
-      <c r="AQ106" s="79"/>
-      <c r="AR106" s="79"/>
-      <c r="AS106" s="79"/>
-      <c r="AT106" s="79"/>
-      <c r="AU106" s="79"/>
-      <c r="AV106" s="79"/>
-      <c r="AW106" s="79"/>
-      <c r="AX106" s="79"/>
-      <c r="AY106" s="79"/>
-      <c r="AZ106" s="79"/>
-      <c r="BA106" s="79"/>
-      <c r="BB106" s="79"/>
-      <c r="BC106" s="79"/>
-      <c r="BD106" s="79"/>
-      <c r="BE106" s="79"/>
-      <c r="BF106" s="79"/>
-      <c r="BG106" s="79"/>
-      <c r="BH106" s="79"/>
-      <c r="BI106" s="79"/>
-      <c r="BJ106" s="79"/>
-      <c r="BK106" s="79"/>
-      <c r="BL106" s="79"/>
-      <c r="BM106" s="79"/>
-      <c r="BN106" s="79"/>
-    </row>
-    <row r="107" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A107" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>6.2</v>
-      </c>
-      <c r="B107" s="97" t="s">
-        <v>154</v>
-      </c>
-      <c r="D107" s="98"/>
-      <c r="E107" s="75">
-        <v>44505</v>
-      </c>
-      <c r="F107" s="76">
-        <f t="shared" ref="F107:F111" si="49">IF(ISBLANK(E107)," - ",IF(G107=0,E107,E107+G107-1))</f>
-        <v>44507</v>
-      </c>
-      <c r="G107" s="58">
-        <v>3</v>
-      </c>
-      <c r="H107" s="59">
-        <v>0</v>
-      </c>
-      <c r="I107" s="60">
-        <f t="shared" ref="I107:I111" si="50">IF(OR(F107=0,E107=0)," - ",NETWORKDAYS(E107,F107))</f>
-        <v>1</v>
-      </c>
-      <c r="J107" s="73"/>
-      <c r="K107" s="79"/>
-      <c r="L107" s="79"/>
-      <c r="M107" s="79"/>
-      <c r="N107" s="79"/>
-      <c r="O107" s="79"/>
-      <c r="P107" s="79"/>
-      <c r="Q107" s="79"/>
-      <c r="R107" s="79"/>
-      <c r="S107" s="79"/>
-      <c r="T107" s="79"/>
-      <c r="U107" s="79"/>
-      <c r="V107" s="79"/>
-      <c r="W107" s="79"/>
-      <c r="X107" s="79"/>
-      <c r="Y107" s="79"/>
-      <c r="Z107" s="79"/>
-      <c r="AA107" s="79"/>
-      <c r="AB107" s="79"/>
-      <c r="AC107" s="79"/>
-      <c r="AD107" s="79"/>
-      <c r="AE107" s="79"/>
-      <c r="AF107" s="79"/>
-      <c r="AG107" s="79"/>
-      <c r="AH107" s="79"/>
-      <c r="AI107" s="79"/>
-      <c r="AJ107" s="79"/>
-      <c r="AK107" s="79"/>
-      <c r="AL107" s="79"/>
-      <c r="AM107" s="79"/>
-      <c r="AN107" s="79"/>
-      <c r="AO107" s="79"/>
-      <c r="AP107" s="79"/>
-      <c r="AQ107" s="79"/>
-      <c r="AR107" s="79"/>
-      <c r="AS107" s="79"/>
-      <c r="AT107" s="79"/>
-      <c r="AU107" s="79"/>
-      <c r="AV107" s="79"/>
-      <c r="AW107" s="79"/>
-      <c r="AX107" s="79"/>
-      <c r="AY107" s="79"/>
-      <c r="AZ107" s="79"/>
-      <c r="BA107" s="79"/>
-      <c r="BB107" s="79"/>
-      <c r="BC107" s="79"/>
-      <c r="BD107" s="79"/>
-      <c r="BE107" s="79"/>
-      <c r="BF107" s="79"/>
-      <c r="BG107" s="79"/>
-      <c r="BH107" s="79"/>
-      <c r="BI107" s="79"/>
-      <c r="BJ107" s="79"/>
-      <c r="BK107" s="79"/>
-      <c r="BL107" s="79"/>
-      <c r="BM107" s="79"/>
-      <c r="BN107" s="79"/>
-    </row>
-    <row r="108" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A108" s="49" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>7</v>
-      </c>
-      <c r="B108" s="50" t="s">
-        <v>174</v>
-      </c>
-      <c r="D108" s="52"/>
-      <c r="E108" s="77"/>
-      <c r="F108" s="77" t="str">
-        <f t="shared" si="49"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G108" s="53"/>
-      <c r="H108" s="54"/>
-      <c r="I108" s="55" t="str">
-        <f t="shared" si="50"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J108" s="74"/>
-      <c r="K108" s="80"/>
-      <c r="L108" s="80"/>
-      <c r="M108" s="80"/>
-      <c r="N108" s="80"/>
-      <c r="O108" s="80"/>
-      <c r="P108" s="80"/>
-      <c r="Q108" s="80"/>
-      <c r="R108" s="80"/>
-      <c r="S108" s="80"/>
-      <c r="T108" s="80"/>
-      <c r="U108" s="80"/>
-      <c r="V108" s="80"/>
-      <c r="W108" s="80"/>
-      <c r="X108" s="80"/>
-      <c r="Y108" s="80"/>
-      <c r="Z108" s="80"/>
-      <c r="AA108" s="80"/>
-      <c r="AB108" s="80"/>
-      <c r="AC108" s="80"/>
-      <c r="AD108" s="80"/>
-      <c r="AE108" s="80"/>
-      <c r="AF108" s="80"/>
-      <c r="AG108" s="80"/>
-      <c r="AH108" s="80"/>
-      <c r="AI108" s="80"/>
-      <c r="AJ108" s="80"/>
-      <c r="AK108" s="80"/>
-      <c r="AL108" s="80"/>
-      <c r="AM108" s="80"/>
-      <c r="AN108" s="80"/>
-      <c r="AO108" s="80"/>
-      <c r="AP108" s="80"/>
-      <c r="AQ108" s="80"/>
-      <c r="AR108" s="80"/>
-      <c r="AS108" s="80"/>
-      <c r="AT108" s="80"/>
-      <c r="AU108" s="80"/>
-      <c r="AV108" s="80"/>
-      <c r="AW108" s="80"/>
-      <c r="AX108" s="80"/>
-      <c r="AY108" s="80"/>
-      <c r="AZ108" s="80"/>
-      <c r="BA108" s="80"/>
-      <c r="BB108" s="80"/>
-      <c r="BC108" s="80"/>
-      <c r="BD108" s="80"/>
-      <c r="BE108" s="80"/>
-      <c r="BF108" s="80"/>
-      <c r="BG108" s="80"/>
-      <c r="BH108" s="80"/>
-      <c r="BI108" s="80"/>
-      <c r="BJ108" s="80"/>
-      <c r="BK108" s="80"/>
-      <c r="BL108" s="80"/>
-      <c r="BM108" s="80"/>
-      <c r="BN108" s="80"/>
-    </row>
-    <row r="109" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A109" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>7.1</v>
-      </c>
-      <c r="B109" s="97" t="s">
-        <v>7</v>
-      </c>
-      <c r="D109" s="98"/>
-      <c r="E109" s="75">
-        <v>43131</v>
-      </c>
-      <c r="F109" s="76">
-        <f t="shared" si="49"/>
-        <v>43131</v>
-      </c>
-      <c r="G109" s="58">
-        <v>1</v>
-      </c>
-      <c r="H109" s="59">
-        <v>0</v>
-      </c>
-      <c r="I109" s="60">
-        <f t="shared" si="50"/>
-        <v>1</v>
-      </c>
-      <c r="J109" s="73"/>
-      <c r="K109" s="79"/>
-      <c r="L109" s="79"/>
-      <c r="M109" s="79"/>
-      <c r="N109" s="79"/>
-      <c r="O109" s="79"/>
-      <c r="P109" s="79"/>
-      <c r="Q109" s="79"/>
-      <c r="R109" s="79"/>
-      <c r="S109" s="79"/>
-      <c r="T109" s="79"/>
-      <c r="U109" s="79"/>
-      <c r="V109" s="79"/>
-      <c r="W109" s="79"/>
-      <c r="X109" s="79"/>
-      <c r="Y109" s="79"/>
-      <c r="Z109" s="79"/>
-      <c r="AA109" s="79"/>
-      <c r="AB109" s="79"/>
-      <c r="AC109" s="79"/>
-      <c r="AD109" s="79"/>
-      <c r="AE109" s="79"/>
-      <c r="AF109" s="79"/>
-      <c r="AG109" s="79"/>
-      <c r="AH109" s="79"/>
-      <c r="AI109" s="79"/>
-      <c r="AJ109" s="79"/>
-      <c r="AK109" s="79"/>
-      <c r="AL109" s="79"/>
-      <c r="AM109" s="79"/>
-      <c r="AN109" s="79"/>
-      <c r="AO109" s="79"/>
-      <c r="AP109" s="79"/>
-      <c r="AQ109" s="79"/>
-      <c r="AR109" s="79"/>
-      <c r="AS109" s="79"/>
-      <c r="AT109" s="79"/>
-      <c r="AU109" s="79"/>
-      <c r="AV109" s="79"/>
-      <c r="AW109" s="79"/>
-      <c r="AX109" s="79"/>
-      <c r="AY109" s="79"/>
-      <c r="AZ109" s="79"/>
-      <c r="BA109" s="79"/>
-      <c r="BB109" s="79"/>
-      <c r="BC109" s="79"/>
-      <c r="BD109" s="79"/>
-      <c r="BE109" s="79"/>
-      <c r="BF109" s="79"/>
-      <c r="BG109" s="79"/>
-      <c r="BH109" s="79"/>
-      <c r="BI109" s="79"/>
-      <c r="BJ109" s="79"/>
-      <c r="BK109" s="79"/>
-      <c r="BL109" s="79"/>
-      <c r="BM109" s="79"/>
-      <c r="BN109" s="79"/>
-    </row>
-    <row r="110" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A110" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>7.2</v>
-      </c>
-      <c r="B110" s="97" t="s">
-        <v>7</v>
-      </c>
-      <c r="D110" s="98"/>
-      <c r="E110" s="75">
-        <v>43132</v>
-      </c>
-      <c r="F110" s="76">
-        <f t="shared" si="49"/>
-        <v>43132</v>
-      </c>
-      <c r="G110" s="58">
-        <v>1</v>
-      </c>
-      <c r="H110" s="59">
-        <v>0</v>
-      </c>
-      <c r="I110" s="60">
-        <f t="shared" si="50"/>
-        <v>1</v>
-      </c>
-      <c r="J110" s="73"/>
-      <c r="K110" s="79"/>
-      <c r="L110" s="79"/>
-      <c r="M110" s="79"/>
-      <c r="N110" s="79"/>
-      <c r="O110" s="79"/>
-      <c r="P110" s="79"/>
-      <c r="Q110" s="79"/>
-      <c r="R110" s="79"/>
-      <c r="S110" s="79"/>
-      <c r="T110" s="79"/>
-      <c r="U110" s="79"/>
-      <c r="V110" s="79"/>
-      <c r="W110" s="79"/>
-      <c r="X110" s="79"/>
-      <c r="Y110" s="79"/>
-      <c r="Z110" s="79"/>
-      <c r="AA110" s="79"/>
-      <c r="AB110" s="79"/>
-      <c r="AC110" s="79"/>
-      <c r="AD110" s="79"/>
-      <c r="AE110" s="79"/>
-      <c r="AF110" s="79"/>
-      <c r="AG110" s="79"/>
-      <c r="AH110" s="79"/>
-      <c r="AI110" s="79"/>
-      <c r="AJ110" s="79"/>
-      <c r="AK110" s="79"/>
-      <c r="AL110" s="79"/>
-      <c r="AM110" s="79"/>
-      <c r="AN110" s="79"/>
-      <c r="AO110" s="79"/>
-      <c r="AP110" s="79"/>
-      <c r="AQ110" s="79"/>
-      <c r="AR110" s="79"/>
-      <c r="AS110" s="79"/>
-      <c r="AT110" s="79"/>
-      <c r="AU110" s="79"/>
-      <c r="AV110" s="79"/>
-      <c r="AW110" s="79"/>
-      <c r="AX110" s="79"/>
-      <c r="AY110" s="79"/>
-      <c r="AZ110" s="79"/>
-      <c r="BA110" s="79"/>
-      <c r="BB110" s="79"/>
-      <c r="BC110" s="79"/>
-      <c r="BD110" s="79"/>
-      <c r="BE110" s="79"/>
-      <c r="BF110" s="79"/>
-      <c r="BG110" s="79"/>
-      <c r="BH110" s="79"/>
-      <c r="BI110" s="79"/>
-      <c r="BJ110" s="79"/>
-      <c r="BK110" s="79"/>
-      <c r="BL110" s="79"/>
-      <c r="BM110" s="79"/>
-      <c r="BN110" s="79"/>
-    </row>
-    <row r="111" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A111" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>7.3</v>
-      </c>
-      <c r="B111" s="97" t="s">
-        <v>7</v>
-      </c>
-      <c r="D111" s="98"/>
-      <c r="E111" s="75">
-        <v>43133</v>
-      </c>
-      <c r="F111" s="76">
-        <f t="shared" si="49"/>
-        <v>43133</v>
-      </c>
-      <c r="G111" s="58">
-        <v>1</v>
-      </c>
-      <c r="H111" s="59">
-        <v>0</v>
-      </c>
-      <c r="I111" s="60">
-        <f t="shared" si="50"/>
-        <v>1</v>
-      </c>
-      <c r="J111" s="73"/>
-      <c r="K111" s="79"/>
-      <c r="L111" s="79"/>
-      <c r="M111" s="79"/>
-      <c r="N111" s="79"/>
-      <c r="O111" s="79"/>
-      <c r="P111" s="79"/>
-      <c r="Q111" s="79"/>
-      <c r="R111" s="79"/>
-      <c r="S111" s="79"/>
-      <c r="T111" s="79"/>
-      <c r="U111" s="79"/>
-      <c r="V111" s="79"/>
-      <c r="W111" s="79"/>
-      <c r="X111" s="79"/>
-      <c r="Y111" s="79"/>
-      <c r="Z111" s="79"/>
-      <c r="AA111" s="79"/>
-      <c r="AB111" s="79"/>
-      <c r="AC111" s="79"/>
-      <c r="AD111" s="79"/>
-      <c r="AE111" s="79"/>
-      <c r="AF111" s="79"/>
-      <c r="AG111" s="79"/>
-      <c r="AH111" s="79"/>
-      <c r="AI111" s="79"/>
-      <c r="AJ111" s="79"/>
-      <c r="AK111" s="79"/>
-      <c r="AL111" s="79"/>
-      <c r="AM111" s="79"/>
-      <c r="AN111" s="79"/>
-      <c r="AO111" s="79"/>
-      <c r="AP111" s="79"/>
-      <c r="AQ111" s="79"/>
-      <c r="AR111" s="79"/>
-      <c r="AS111" s="79"/>
-      <c r="AT111" s="79"/>
-      <c r="AU111" s="79"/>
-      <c r="AV111" s="79"/>
-      <c r="AW111" s="79"/>
-      <c r="AX111" s="79"/>
-      <c r="AY111" s="79"/>
-      <c r="AZ111" s="79"/>
-      <c r="BA111" s="79"/>
-      <c r="BB111" s="79"/>
-      <c r="BC111" s="79"/>
-      <c r="BD111" s="79"/>
-      <c r="BE111" s="79"/>
-      <c r="BF111" s="79"/>
-      <c r="BG111" s="79"/>
-      <c r="BH111" s="79"/>
-      <c r="BI111" s="79"/>
-      <c r="BJ111" s="79"/>
-      <c r="BK111" s="79"/>
-      <c r="BL111" s="79"/>
-      <c r="BM111" s="79"/>
-      <c r="BN111" s="79"/>
-    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
@@ -14393,7 +13359,7 @@
     <mergeCell ref="BA5:BG5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H8:H9 H15 H50 H59 H29:H30 H69 H72 H82:H84 H40:H41">
+  <conditionalFormatting sqref="H8:H9 H41 H50 H20:H21 H60 H63 H73:H75 H31:H32">
     <cfRule type="dataBar" priority="348">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14408,24 +13374,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:BN7">
-    <cfRule type="expression" dxfId="120" priority="391">
+    <cfRule type="expression" dxfId="86" priority="391">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN9 K15:BN15 K22:BN27 K29:BN30 K72:BN72 K82:BN111 K40:BN69">
-    <cfRule type="expression" dxfId="119" priority="394">
+  <conditionalFormatting sqref="K8:BN9 K15:BN102">
+    <cfRule type="expression" dxfId="85" priority="394">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="395">
+    <cfRule type="expression" dxfId="84" priority="395">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN9 K15:BN15 K50:BN50 K59:BN59 K29:BN30 K69:BN69 K72:BN72 K82:BN84 K40:BN41">
-    <cfRule type="expression" dxfId="117" priority="354">
+  <conditionalFormatting sqref="K6:BN9 K41:BN41 K50:BN50 K20:BN21 K60:BN60 K63:BN63 K73:BN75 K31:BN32">
+    <cfRule type="expression" dxfId="83" priority="354">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H101">
+  <conditionalFormatting sqref="H92">
     <cfRule type="dataBar" priority="343">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14439,12 +13405,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K101:BN101">
-    <cfRule type="expression" dxfId="116" priority="344">
+  <conditionalFormatting sqref="K92:BN92">
+    <cfRule type="expression" dxfId="82" priority="344">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H102">
+  <conditionalFormatting sqref="H93">
     <cfRule type="dataBar" priority="339">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14458,12 +13424,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K102:BN102">
-    <cfRule type="expression" dxfId="115" priority="340">
+  <conditionalFormatting sqref="K93:BN93">
+    <cfRule type="expression" dxfId="81" priority="340">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H103">
+  <conditionalFormatting sqref="H94">
     <cfRule type="dataBar" priority="335">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14477,12 +13443,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K103:BN103">
-    <cfRule type="expression" dxfId="114" priority="336">
+  <conditionalFormatting sqref="K94:BN94">
+    <cfRule type="expression" dxfId="80" priority="336">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H104">
+  <conditionalFormatting sqref="H95">
     <cfRule type="dataBar" priority="331">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14496,12 +13462,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K104:BN104">
-    <cfRule type="expression" dxfId="113" priority="332">
+  <conditionalFormatting sqref="K95:BN95">
+    <cfRule type="expression" dxfId="79" priority="332">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H105">
+  <conditionalFormatting sqref="H96">
     <cfRule type="dataBar" priority="327">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14515,12 +13481,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K105:BN105">
-    <cfRule type="expression" dxfId="112" priority="328">
+  <conditionalFormatting sqref="K96:BN96">
+    <cfRule type="expression" dxfId="78" priority="328">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H106">
+  <conditionalFormatting sqref="H97">
     <cfRule type="dataBar" priority="323">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14534,12 +13500,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K106:BN106">
-    <cfRule type="expression" dxfId="111" priority="324">
+  <conditionalFormatting sqref="K97:BN97">
+    <cfRule type="expression" dxfId="77" priority="324">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H107">
+  <conditionalFormatting sqref="H98">
     <cfRule type="dataBar" priority="319">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14553,212 +13519,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K107:BN107">
-    <cfRule type="expression" dxfId="110" priority="320">
+  <conditionalFormatting sqref="K98:BN98">
+    <cfRule type="expression" dxfId="76" priority="320">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="dataBar" priority="311">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{604E8406-F439-4A1A-9882-866C6CA7C52C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K16:BN16">
-    <cfRule type="expression" dxfId="109" priority="313">
-      <formula>AND($E16&lt;=K$6,ROUNDDOWN(($F16-$E16+1)*$H16,0)+$E16-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="108" priority="314">
-      <formula>AND(NOT(ISBLANK($E16)),$E16&lt;=K$6,$F16&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K16:BN16">
-    <cfRule type="expression" dxfId="107" priority="312">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
-    <cfRule type="dataBar" priority="307">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5DE0BC55-F6B0-4203-B87B-6826E87122C2}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K17:BN17">
-    <cfRule type="expression" dxfId="106" priority="309">
-      <formula>AND($E17&lt;=K$6,ROUNDDOWN(($F17-$E17+1)*$H17,0)+$E17-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="105" priority="310">
-      <formula>AND(NOT(ISBLANK($E17)),$E17&lt;=K$6,$F17&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K17:BN17">
-    <cfRule type="expression" dxfId="104" priority="308">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="dataBar" priority="303">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{98F79111-AEF0-427F-B1FC-CC643D40592E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18:BN18">
-    <cfRule type="expression" dxfId="103" priority="305">
-      <formula>AND($E18&lt;=K$6,ROUNDDOWN(($F18-$E18+1)*$H18,0)+$E18-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="306">
-      <formula>AND(NOT(ISBLANK($E18)),$E18&lt;=K$6,$F18&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18:BN18">
-    <cfRule type="expression" dxfId="101" priority="304">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="dataBar" priority="299">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{755BBD32-D183-4327-A191-CCF8F5658D62}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K19:BN19">
-    <cfRule type="expression" dxfId="100" priority="301">
-      <formula>AND($E19&lt;=K$6,ROUNDDOWN(($F19-$E19+1)*$H19,0)+$E19-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="99" priority="302">
-      <formula>AND(NOT(ISBLANK($E19)),$E19&lt;=K$6,$F19&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K19:BN19">
-    <cfRule type="expression" dxfId="98" priority="300">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="dataBar" priority="295">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{94A0F54B-1D05-41D2-8A46-B28A09AD59EB}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K20:BN20">
-    <cfRule type="expression" dxfId="97" priority="297">
-      <formula>AND($E20&lt;=K$6,ROUNDDOWN(($F20-$E20+1)*$H20,0)+$E20-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="96" priority="298">
-      <formula>AND(NOT(ISBLANK($E20)),$E20&lt;=K$6,$F20&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K20:BN20">
-    <cfRule type="expression" dxfId="95" priority="296">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="dataBar" priority="291">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5257A0E3-7B2E-49FA-81B5-C8716E790453}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K21:BN21">
-    <cfRule type="expression" dxfId="94" priority="293">
-      <formula>AND($E21&lt;=K$6,ROUNDDOWN(($F21-$E21+1)*$H21,0)+$E21-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="93" priority="294">
-      <formula>AND(NOT(ISBLANK($E21)),$E21&lt;=K$6,$F21&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K21:BN21">
-    <cfRule type="expression" dxfId="92" priority="292">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22:H23">
-    <cfRule type="dataBar" priority="287">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D3325BDD-3AB7-48B1-BA3E-48D42DB94B28}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K22:BN23">
-    <cfRule type="expression" dxfId="91" priority="288">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="dataBar" priority="283">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{059F66FA-E2F5-429B-93A2-E48796DB2FDF}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23:BN23">
-    <cfRule type="expression" dxfId="90" priority="284">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H108">
+  <conditionalFormatting sqref="H99">
     <cfRule type="dataBar" priority="267">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14772,8 +13538,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K108:BN108">
-    <cfRule type="expression" dxfId="89" priority="268">
+  <conditionalFormatting sqref="K99:BN99">
+    <cfRule type="expression" dxfId="75" priority="268">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14792,19 +13558,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:BN10">
-    <cfRule type="expression" dxfId="88" priority="265">
+    <cfRule type="expression" dxfId="74" priority="265">
       <formula>AND($E10&lt;=K$6,ROUNDDOWN(($F10-$E10+1)*$H10,0)+$E10-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="266">
+    <cfRule type="expression" dxfId="73" priority="266">
       <formula>AND(NOT(ISBLANK($E10)),$E10&lt;=K$6,$F10&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:BN10">
-    <cfRule type="expression" dxfId="86" priority="264">
+    <cfRule type="expression" dxfId="72" priority="264">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
+  <conditionalFormatting sqref="H59">
     <cfRule type="dataBar" priority="247">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14818,12 +13584,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K68:BN68">
-    <cfRule type="expression" dxfId="85" priority="248">
+  <conditionalFormatting sqref="K59:BN59">
+    <cfRule type="expression" dxfId="71" priority="248">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
+  <conditionalFormatting sqref="H33">
     <cfRule type="dataBar" priority="243">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14837,12 +13603,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42:BN42">
-    <cfRule type="expression" dxfId="84" priority="244">
+  <conditionalFormatting sqref="K33:BN33">
+    <cfRule type="expression" dxfId="70" priority="244">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
+  <conditionalFormatting sqref="H34">
     <cfRule type="dataBar" priority="239">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14856,12 +13622,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K43:BN43">
-    <cfRule type="expression" dxfId="83" priority="240">
+  <conditionalFormatting sqref="K34:BN34">
+    <cfRule type="expression" dxfId="69" priority="240">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
+  <conditionalFormatting sqref="H35">
     <cfRule type="dataBar" priority="235">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14875,12 +13641,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K44:BN44">
-    <cfRule type="expression" dxfId="82" priority="236">
+  <conditionalFormatting sqref="K35:BN35">
+    <cfRule type="expression" dxfId="68" priority="236">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
+  <conditionalFormatting sqref="H36">
     <cfRule type="dataBar" priority="231">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14894,12 +13660,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K45:BN45">
-    <cfRule type="expression" dxfId="81" priority="232">
+  <conditionalFormatting sqref="K36:BN36">
+    <cfRule type="expression" dxfId="67" priority="232">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
+  <conditionalFormatting sqref="H37">
     <cfRule type="dataBar" priority="227">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14913,12 +13679,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K46:BN46">
-    <cfRule type="expression" dxfId="80" priority="228">
+  <conditionalFormatting sqref="K37:BN37">
+    <cfRule type="expression" dxfId="66" priority="228">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
+  <conditionalFormatting sqref="H38">
     <cfRule type="dataBar" priority="223">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14932,12 +13698,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K47:BN47">
-    <cfRule type="expression" dxfId="79" priority="224">
+  <conditionalFormatting sqref="K38:BN38">
+    <cfRule type="expression" dxfId="65" priority="224">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
+  <conditionalFormatting sqref="H39">
     <cfRule type="dataBar" priority="219">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14951,12 +13717,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48:BN48">
-    <cfRule type="expression" dxfId="78" priority="220">
+  <conditionalFormatting sqref="K39:BN39">
+    <cfRule type="expression" dxfId="64" priority="220">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
+  <conditionalFormatting sqref="H40">
     <cfRule type="dataBar" priority="215">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14970,12 +13736,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K49:BN49">
-    <cfRule type="expression" dxfId="77" priority="216">
+  <conditionalFormatting sqref="K40:BN40">
+    <cfRule type="expression" dxfId="63" priority="216">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
+  <conditionalFormatting sqref="H42">
     <cfRule type="dataBar" priority="211">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14989,12 +13755,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K51:BN51">
-    <cfRule type="expression" dxfId="76" priority="212">
+  <conditionalFormatting sqref="K42:BN42">
+    <cfRule type="expression" dxfId="62" priority="212">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
+  <conditionalFormatting sqref="H43">
     <cfRule type="dataBar" priority="207">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15008,12 +13774,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52:BN52">
-    <cfRule type="expression" dxfId="75" priority="208">
+  <conditionalFormatting sqref="K43:BN43">
+    <cfRule type="expression" dxfId="61" priority="208">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
+  <conditionalFormatting sqref="H44">
     <cfRule type="dataBar" priority="203">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15027,12 +13793,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K53:BN53">
-    <cfRule type="expression" dxfId="74" priority="204">
+  <conditionalFormatting sqref="K44:BN44">
+    <cfRule type="expression" dxfId="60" priority="204">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
+  <conditionalFormatting sqref="H45">
     <cfRule type="dataBar" priority="199">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15046,12 +13812,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K54:BN54">
-    <cfRule type="expression" dxfId="73" priority="200">
+  <conditionalFormatting sqref="K45:BN45">
+    <cfRule type="expression" dxfId="59" priority="200">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
+  <conditionalFormatting sqref="H46">
     <cfRule type="dataBar" priority="195">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15065,12 +13831,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K55:BN55">
-    <cfRule type="expression" dxfId="72" priority="196">
+  <conditionalFormatting sqref="K46:BN46">
+    <cfRule type="expression" dxfId="58" priority="196">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H56">
+  <conditionalFormatting sqref="H47">
     <cfRule type="dataBar" priority="191">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15084,12 +13850,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K56:BN56">
-    <cfRule type="expression" dxfId="71" priority="192">
+  <conditionalFormatting sqref="K47:BN47">
+    <cfRule type="expression" dxfId="57" priority="192">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
+  <conditionalFormatting sqref="H48">
     <cfRule type="dataBar" priority="187">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15103,12 +13869,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K57:BN57">
-    <cfRule type="expression" dxfId="70" priority="188">
+  <conditionalFormatting sqref="K48:BN48">
+    <cfRule type="expression" dxfId="56" priority="188">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H58">
+  <conditionalFormatting sqref="H49">
     <cfRule type="dataBar" priority="183">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15122,8 +13888,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K58:BN58">
-    <cfRule type="expression" dxfId="69" priority="184">
+  <conditionalFormatting sqref="K49:BN49">
+    <cfRule type="expression" dxfId="55" priority="184">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15142,15 +13908,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:BN14">
-    <cfRule type="expression" dxfId="68" priority="181">
+    <cfRule type="expression" dxfId="54" priority="181">
       <formula>AND($E11&lt;=K$6,ROUNDDOWN(($F11-$E11+1)*$H11,0)+$E11-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="182">
+    <cfRule type="expression" dxfId="53" priority="182">
       <formula>AND(NOT(ISBLANK($E11)),$E11&lt;=K$6,$F11&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:BN11">
-    <cfRule type="expression" dxfId="66" priority="180">
+    <cfRule type="expression" dxfId="52" priority="180">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15169,7 +13935,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12:BN12">
-    <cfRule type="expression" dxfId="65" priority="178">
+    <cfRule type="expression" dxfId="51" priority="178">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15188,7 +13954,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:BN13">
-    <cfRule type="expression" dxfId="64" priority="176">
+    <cfRule type="expression" dxfId="50" priority="176">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15207,11 +13973,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14:BN14">
-    <cfRule type="expression" dxfId="63" priority="174">
+    <cfRule type="expression" dxfId="49" priority="174">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24 H27">
+  <conditionalFormatting sqref="H15 H18">
     <cfRule type="dataBar" priority="169">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15225,12 +13991,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K24:BN24 K27:BN27">
-    <cfRule type="expression" dxfId="62" priority="170">
+  <conditionalFormatting sqref="K15:BN15 K18:BN18">
+    <cfRule type="expression" dxfId="48" priority="170">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
+  <conditionalFormatting sqref="H16">
     <cfRule type="dataBar" priority="167">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15244,12 +14010,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25:BN25">
-    <cfRule type="expression" dxfId="61" priority="168">
+  <conditionalFormatting sqref="K16:BN16">
+    <cfRule type="expression" dxfId="47" priority="168">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
+  <conditionalFormatting sqref="H17">
     <cfRule type="dataBar" priority="165">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15263,12 +14029,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:BN26">
-    <cfRule type="expression" dxfId="60" priority="166">
+  <conditionalFormatting sqref="K17:BN17">
+    <cfRule type="expression" dxfId="46" priority="166">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
+  <conditionalFormatting sqref="H51">
     <cfRule type="dataBar" priority="161">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15282,12 +14048,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K60:BN60">
-    <cfRule type="expression" dxfId="59" priority="162">
+  <conditionalFormatting sqref="K51:BN51">
+    <cfRule type="expression" dxfId="45" priority="162">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H61">
+  <conditionalFormatting sqref="H52">
     <cfRule type="dataBar" priority="159">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15301,12 +14067,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K61:BN61">
-    <cfRule type="expression" dxfId="58" priority="160">
+  <conditionalFormatting sqref="K52:BN52">
+    <cfRule type="expression" dxfId="44" priority="160">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H62">
+  <conditionalFormatting sqref="H53">
     <cfRule type="dataBar" priority="157">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15320,12 +14086,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K62:BN62">
-    <cfRule type="expression" dxfId="57" priority="158">
+  <conditionalFormatting sqref="K53:BN53">
+    <cfRule type="expression" dxfId="43" priority="158">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
+  <conditionalFormatting sqref="H54">
     <cfRule type="dataBar" priority="155">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15339,12 +14105,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K63:BN63">
-    <cfRule type="expression" dxfId="56" priority="156">
+  <conditionalFormatting sqref="K54:BN54">
+    <cfRule type="expression" dxfId="42" priority="156">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
+  <conditionalFormatting sqref="H55">
     <cfRule type="dataBar" priority="153">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15358,12 +14124,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K64:BN64">
-    <cfRule type="expression" dxfId="55" priority="154">
+  <conditionalFormatting sqref="K55:BN55">
+    <cfRule type="expression" dxfId="41" priority="154">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H65">
+  <conditionalFormatting sqref="H56">
     <cfRule type="dataBar" priority="151">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15377,12 +14143,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K65:BN65">
-    <cfRule type="expression" dxfId="54" priority="152">
+  <conditionalFormatting sqref="K56:BN56">
+    <cfRule type="expression" dxfId="40" priority="152">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
+  <conditionalFormatting sqref="H57">
     <cfRule type="dataBar" priority="149">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15396,12 +14162,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K66:BN66">
-    <cfRule type="expression" dxfId="53" priority="150">
+  <conditionalFormatting sqref="K57:BN57">
+    <cfRule type="expression" dxfId="39" priority="150">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H67:H68">
+  <conditionalFormatting sqref="H58:H59">
     <cfRule type="dataBar" priority="147">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15415,12 +14181,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K67:BN68">
-    <cfRule type="expression" dxfId="52" priority="148">
+  <conditionalFormatting sqref="K58:BN59">
+    <cfRule type="expression" dxfId="38" priority="148">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H86">
+  <conditionalFormatting sqref="H77">
     <cfRule type="dataBar" priority="143">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15434,12 +14200,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K86:BN86">
-    <cfRule type="expression" dxfId="51" priority="144">
+  <conditionalFormatting sqref="K77:BN77">
+    <cfRule type="expression" dxfId="37" priority="144">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H87">
+  <conditionalFormatting sqref="H78">
     <cfRule type="dataBar" priority="141">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15453,12 +14219,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K87:BN87">
-    <cfRule type="expression" dxfId="50" priority="142">
+  <conditionalFormatting sqref="K78:BN78">
+    <cfRule type="expression" dxfId="36" priority="142">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H89">
+  <conditionalFormatting sqref="H80">
     <cfRule type="dataBar" priority="139">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15472,12 +14238,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K89:BN89">
-    <cfRule type="expression" dxfId="49" priority="140">
+  <conditionalFormatting sqref="K80:BN80">
+    <cfRule type="expression" dxfId="35" priority="140">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H91">
+  <conditionalFormatting sqref="H82">
     <cfRule type="dataBar" priority="137">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15491,12 +14257,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K91:BN91">
-    <cfRule type="expression" dxfId="48" priority="138">
+  <conditionalFormatting sqref="K82:BN82">
+    <cfRule type="expression" dxfId="34" priority="138">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H93">
+  <conditionalFormatting sqref="H84">
     <cfRule type="dataBar" priority="135">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15510,12 +14276,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K93:BN93">
-    <cfRule type="expression" dxfId="47" priority="136">
+  <conditionalFormatting sqref="K84:BN84">
+    <cfRule type="expression" dxfId="33" priority="136">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H95">
+  <conditionalFormatting sqref="H86">
     <cfRule type="dataBar" priority="133">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15529,12 +14295,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K95:BN95">
-    <cfRule type="expression" dxfId="46" priority="134">
+  <conditionalFormatting sqref="K86:BN86">
+    <cfRule type="expression" dxfId="32" priority="134">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H97">
+  <conditionalFormatting sqref="H88">
     <cfRule type="dataBar" priority="131">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15548,12 +14314,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K97:BN97">
-    <cfRule type="expression" dxfId="45" priority="132">
+  <conditionalFormatting sqref="K88:BN88">
+    <cfRule type="expression" dxfId="31" priority="132">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H99">
+  <conditionalFormatting sqref="H90">
     <cfRule type="dataBar" priority="129">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15567,12 +14333,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K99:BN99">
-    <cfRule type="expression" dxfId="44" priority="130">
+  <conditionalFormatting sqref="K90:BN90">
+    <cfRule type="expression" dxfId="30" priority="130">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H109:H111">
+  <conditionalFormatting sqref="H100:H102">
     <cfRule type="dataBar" priority="125">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15586,12 +14352,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K109:BN111">
-    <cfRule type="expression" dxfId="43" priority="126">
+  <conditionalFormatting sqref="K100:BN102">
+    <cfRule type="expression" dxfId="29" priority="126">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H85">
+  <conditionalFormatting sqref="H76">
     <cfRule type="dataBar" priority="89">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15605,12 +14371,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K85:BN85">
-    <cfRule type="expression" dxfId="42" priority="90">
+  <conditionalFormatting sqref="K76:BN76">
+    <cfRule type="expression" dxfId="28" priority="90">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H88">
+  <conditionalFormatting sqref="H79">
     <cfRule type="dataBar" priority="85">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15624,12 +14390,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K88:BN88">
-    <cfRule type="expression" dxfId="41" priority="86">
+  <conditionalFormatting sqref="K79:BN79">
+    <cfRule type="expression" dxfId="27" priority="86">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H90">
+  <conditionalFormatting sqref="H81">
     <cfRule type="dataBar" priority="81">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15643,12 +14409,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K90:BN90">
-    <cfRule type="expression" dxfId="40" priority="82">
+  <conditionalFormatting sqref="K81:BN81">
+    <cfRule type="expression" dxfId="26" priority="82">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H92">
+  <conditionalFormatting sqref="H83">
     <cfRule type="dataBar" priority="77">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15662,12 +14428,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K92:BN92">
-    <cfRule type="expression" dxfId="39" priority="78">
+  <conditionalFormatting sqref="K83:BN83">
+    <cfRule type="expression" dxfId="25" priority="78">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H94">
+  <conditionalFormatting sqref="H85">
     <cfRule type="dataBar" priority="73">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15681,12 +14447,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K94:BN94">
-    <cfRule type="expression" dxfId="38" priority="74">
+  <conditionalFormatting sqref="K85:BN85">
+    <cfRule type="expression" dxfId="24" priority="74">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H96">
+  <conditionalFormatting sqref="H87">
     <cfRule type="dataBar" priority="69">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15700,12 +14466,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K96:BN96">
-    <cfRule type="expression" dxfId="37" priority="70">
+  <conditionalFormatting sqref="K87:BN87">
+    <cfRule type="expression" dxfId="23" priority="70">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H98">
+  <conditionalFormatting sqref="H89">
     <cfRule type="dataBar" priority="65">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15719,12 +14485,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K98:BN98">
-    <cfRule type="expression" dxfId="36" priority="66">
+  <conditionalFormatting sqref="K89:BN89">
+    <cfRule type="expression" dxfId="22" priority="66">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H100">
+  <conditionalFormatting sqref="H91">
     <cfRule type="dataBar" priority="61">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15738,20 +14504,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K100:BN100">
-    <cfRule type="expression" dxfId="35" priority="62">
+  <conditionalFormatting sqref="K91:BN91">
+    <cfRule type="expression" dxfId="21" priority="62">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28:BN28">
-    <cfRule type="expression" dxfId="34" priority="59">
-      <formula>AND($E28&lt;=K$6,ROUNDDOWN(($F28-$E28+1)*$H28,0)+$E28-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="60">
-      <formula>AND(NOT(ISBLANK($E28)),$E28&lt;=K$6,$F28&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
+  <conditionalFormatting sqref="H19">
     <cfRule type="dataBar" priority="57">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15765,20 +14523,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28:BN28">
-    <cfRule type="expression" dxfId="32" priority="58">
+  <conditionalFormatting sqref="K19:BN19">
+    <cfRule type="expression" dxfId="20" priority="58">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K70:BN70">
-    <cfRule type="expression" dxfId="31" priority="51">
-      <formula>AND($E70&lt;=K$6,ROUNDDOWN(($F70-$E70+1)*$H70,0)+$E70-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="52">
-      <formula>AND(NOT(ISBLANK($E70)),$E70&lt;=K$6,$F70&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H70">
+  <conditionalFormatting sqref="H61">
     <cfRule type="dataBar" priority="49">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15792,20 +14542,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K70:BN70">
-    <cfRule type="expression" dxfId="29" priority="50">
+  <conditionalFormatting sqref="K61:BN61">
+    <cfRule type="expression" dxfId="19" priority="50">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K71:BN71">
-    <cfRule type="expression" dxfId="28" priority="47">
-      <formula>AND($E71&lt;=K$6,ROUNDDOWN(($F71-$E71+1)*$H71,0)+$E71-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="48">
-      <formula>AND(NOT(ISBLANK($E71)),$E71&lt;=K$6,$F71&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
+  <conditionalFormatting sqref="H62">
     <cfRule type="dataBar" priority="45">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15819,20 +14561,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K71:BN71">
-    <cfRule type="expression" dxfId="26" priority="46">
+  <conditionalFormatting sqref="K62:BN62">
+    <cfRule type="expression" dxfId="18" priority="46">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K74:BN81">
-    <cfRule type="expression" dxfId="25" priority="43">
-      <formula>AND($E74&lt;=K$6,ROUNDDOWN(($F74-$E74+1)*$H74,0)+$E74-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="44">
-      <formula>AND(NOT(ISBLANK($E74)),$E74&lt;=K$6,$F74&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H74">
+  <conditionalFormatting sqref="H65">
     <cfRule type="dataBar" priority="41">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15846,12 +14580,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K74:BN74">
-    <cfRule type="expression" dxfId="23" priority="42">
+  <conditionalFormatting sqref="K65:BN65">
+    <cfRule type="expression" dxfId="17" priority="42">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
+  <conditionalFormatting sqref="H66">
     <cfRule type="dataBar" priority="39">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15865,12 +14599,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K75:BN75">
-    <cfRule type="expression" dxfId="22" priority="40">
+  <conditionalFormatting sqref="K66:BN66">
+    <cfRule type="expression" dxfId="16" priority="40">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
+  <conditionalFormatting sqref="H67">
     <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15884,12 +14618,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K76:BN76">
-    <cfRule type="expression" dxfId="21" priority="38">
+  <conditionalFormatting sqref="K67:BN67">
+    <cfRule type="expression" dxfId="15" priority="38">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H77">
+  <conditionalFormatting sqref="H68">
     <cfRule type="dataBar" priority="35">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15903,12 +14637,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K77:BN77">
-    <cfRule type="expression" dxfId="20" priority="36">
+  <conditionalFormatting sqref="K68:BN68">
+    <cfRule type="expression" dxfId="14" priority="36">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H78">
+  <conditionalFormatting sqref="H69">
     <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15922,12 +14656,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K78:BN78">
-    <cfRule type="expression" dxfId="19" priority="34">
+  <conditionalFormatting sqref="K69:BN69">
+    <cfRule type="expression" dxfId="13" priority="34">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H79">
+  <conditionalFormatting sqref="H70">
     <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15941,12 +14675,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K79:BN79">
-    <cfRule type="expression" dxfId="18" priority="32">
+  <conditionalFormatting sqref="K70:BN70">
+    <cfRule type="expression" dxfId="12" priority="32">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
+  <conditionalFormatting sqref="H71">
     <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15960,12 +14694,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K80:BN80">
-    <cfRule type="expression" dxfId="17" priority="30">
+  <conditionalFormatting sqref="K71:BN71">
+    <cfRule type="expression" dxfId="11" priority="30">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H81">
+  <conditionalFormatting sqref="H72">
     <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15979,20 +14713,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K81:BN81">
-    <cfRule type="expression" dxfId="16" priority="28">
+  <conditionalFormatting sqref="K72:BN72">
+    <cfRule type="expression" dxfId="10" priority="28">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K73:BN73">
-    <cfRule type="expression" dxfId="15" priority="25">
-      <formula>AND($E73&lt;=K$6,ROUNDDOWN(($F73-$E73+1)*$H73,0)+$E73-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="26">
-      <formula>AND(NOT(ISBLANK($E73)),$E73&lt;=K$6,$F73&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H73">
+  <conditionalFormatting sqref="H64">
     <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16006,12 +14732,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K73:BN73">
-    <cfRule type="expression" dxfId="13" priority="24">
+  <conditionalFormatting sqref="K64:BN64">
+    <cfRule type="expression" dxfId="9" priority="24">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
+  <conditionalFormatting sqref="H22">
     <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16025,28 +14751,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K31:BN31">
-    <cfRule type="expression" dxfId="12" priority="21">
-      <formula>AND($E31&lt;=K$6,ROUNDDOWN(($F31-$E31+1)*$H31,0)+$E31-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="22">
-      <formula>AND(NOT(ISBLANK($E31)),$E31&lt;=K$6,$F31&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K31:BN31">
-    <cfRule type="expression" dxfId="10" priority="20">
+  <conditionalFormatting sqref="K22:BN22">
+    <cfRule type="expression" dxfId="8" priority="20">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K32:BN39">
-    <cfRule type="expression" dxfId="9" priority="17">
-      <formula>AND($E32&lt;=K$6,ROUNDDOWN(($F32-$E32+1)*$H32,0)+$E32-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="18">
-      <formula>AND(NOT(ISBLANK($E32)),$E32&lt;=K$6,$F32&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
+  <conditionalFormatting sqref="H23">
     <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16060,12 +14770,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K32:BN32">
+  <conditionalFormatting sqref="K23:BN23">
     <cfRule type="expression" dxfId="7" priority="16">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
+  <conditionalFormatting sqref="H24">
     <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16079,12 +14789,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K33:BN33">
+  <conditionalFormatting sqref="K24:BN24">
     <cfRule type="expression" dxfId="6" priority="14">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
+  <conditionalFormatting sqref="H25">
     <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16098,12 +14808,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K34:BN34">
+  <conditionalFormatting sqref="K25:BN25">
     <cfRule type="expression" dxfId="5" priority="12">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
+  <conditionalFormatting sqref="H26">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16117,12 +14827,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K35:BN35">
+  <conditionalFormatting sqref="K26:BN26">
     <cfRule type="expression" dxfId="4" priority="10">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
+  <conditionalFormatting sqref="H27">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16136,12 +14846,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36:BN36">
+  <conditionalFormatting sqref="K27:BN27">
     <cfRule type="expression" dxfId="3" priority="8">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
+  <conditionalFormatting sqref="H28">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16155,12 +14865,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K37:BN37">
+  <conditionalFormatting sqref="K28:BN28">
     <cfRule type="expression" dxfId="2" priority="6">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
+  <conditionalFormatting sqref="H29">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16174,12 +14884,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38:BN38">
+  <conditionalFormatting sqref="K29:BN29">
     <cfRule type="expression" dxfId="1" priority="4">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
+  <conditionalFormatting sqref="H30">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16193,7 +14903,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:BN39">
+  <conditionalFormatting sqref="K30:BN30">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>K$6=TODAY()</formula>
     </cfRule>
@@ -16208,8 +14918,8 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="E29 E40 E82 G29:H29 G40:H40 H69 H41 H50 H59 G82:H82 H84 H83" unlockedFormula="1"/>
-    <ignoredError sqref="A82 A40 A29" formula="1"/>
+    <ignoredError sqref="E20 E31 E73 G20:H20 G31:H31 H60 H32 H41 H50 G73:H73 H75 H74" unlockedFormula="1"/>
+    <ignoredError sqref="A73 A31 A20" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
@@ -16257,7 +14967,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H8:H9 H15 H50 H59 H29:H30 H69 H72 H82:H84 H40:H41</xm:sqref>
+          <xm:sqref>H8:H9 H41 H50 H20:H21 H60 H63 H73:H75 H31:H32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AF6031B5-17E7-4FA3-BF80-238C9E6DF4B9}">
@@ -16272,7 +14982,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H101</xm:sqref>
+          <xm:sqref>H92</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E1E2B9CA-12BA-46AC-9B3F-D4F5D19AE487}">
@@ -16287,7 +14997,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H102</xm:sqref>
+          <xm:sqref>H93</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2EBBAE54-BE40-4F85-B2B8-BF88914C4132}">
@@ -16302,7 +15012,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H103</xm:sqref>
+          <xm:sqref>H94</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CD355D18-EAED-4E08-8A10-05C00E458525}">
@@ -16317,7 +15027,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H104</xm:sqref>
+          <xm:sqref>H95</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E9A71E10-0808-482F-99D1-D818BBF6C7BC}">
@@ -16332,7 +15042,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H105</xm:sqref>
+          <xm:sqref>H96</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3D07858F-3D2E-41B0-9241-346599BE8E0E}">
@@ -16347,7 +15057,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H106</xm:sqref>
+          <xm:sqref>H97</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{04A29D32-1B7A-44AE-874E-46664FE80C9C}">
@@ -16362,127 +15072,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H107</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{604E8406-F439-4A1A-9882-866C6CA7C52C}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5DE0BC55-F6B0-4203-B87B-6826E87122C2}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H17</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{98F79111-AEF0-427F-B1FC-CC643D40592E}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H18</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{755BBD32-D183-4327-A191-CCF8F5658D62}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H19</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{94A0F54B-1D05-41D2-8A46-B28A09AD59EB}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H20</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5257A0E3-7B2E-49FA-81B5-C8716E790453}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H21</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D3325BDD-3AB7-48B1-BA3E-48D42DB94B28}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H22:H23</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{059F66FA-E2F5-429B-93A2-E48796DB2FDF}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H23</xm:sqref>
+          <xm:sqref>H98</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{063A9F82-2F86-4B32-A209-F5B4C7385609}">
@@ -16497,7 +15087,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H108</xm:sqref>
+          <xm:sqref>H99</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7441C645-CDD7-4332-B16A-D63E38A71E7F}">
@@ -16527,7 +15117,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H68</xm:sqref>
+          <xm:sqref>H59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BC0CD262-D5C0-4114-862E-FD1D455DCCB6}">
@@ -16542,7 +15132,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H42</xm:sqref>
+          <xm:sqref>H33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4EEB3302-B300-4F37-8090-228654E26DB8}">
@@ -16557,7 +15147,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H43</xm:sqref>
+          <xm:sqref>H34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{82A7F4E5-E84F-4772-9D07-1C5BC9524837}">
@@ -16572,7 +15162,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H44</xm:sqref>
+          <xm:sqref>H35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1BEF6D62-C837-4434-9EAF-5CEE3C8BFF33}">
@@ -16587,7 +15177,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H45</xm:sqref>
+          <xm:sqref>H36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A63288A3-CF9F-40FD-99BB-9928CBA98227}">
@@ -16602,7 +15192,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H46</xm:sqref>
+          <xm:sqref>H37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{001A9256-16C1-4329-B9D8-D0541B1E65FE}">
@@ -16617,7 +15207,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H47</xm:sqref>
+          <xm:sqref>H38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9BF9CD71-41A1-4D96-A24D-2307B8C1511E}">
@@ -16632,7 +15222,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H48</xm:sqref>
+          <xm:sqref>H39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F04FD167-DBD0-4F87-9F1A-F9EC16361DBE}">
@@ -16647,7 +15237,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H49</xm:sqref>
+          <xm:sqref>H40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BCC1F1CC-31D1-477E-A4DF-CAC7DA44BAA5}">
@@ -16662,7 +15252,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H51</xm:sqref>
+          <xm:sqref>H42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BFF9E91C-99D4-46B3-B8DB-28B33B454734}">
@@ -16677,7 +15267,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H52</xm:sqref>
+          <xm:sqref>H43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{134FAAF5-A935-44B7-A1E0-ED4087E244C7}">
@@ -16692,7 +15282,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H53</xm:sqref>
+          <xm:sqref>H44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E53DA637-304C-4DF2-93F3-55233A2CF80B}">
@@ -16707,7 +15297,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H54</xm:sqref>
+          <xm:sqref>H45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DDE030CD-8623-4C19-BCA9-B79196E9F245}">
@@ -16722,7 +15312,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H55</xm:sqref>
+          <xm:sqref>H46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D2E10E7E-5267-490E-9C31-9980BB06958F}">
@@ -16737,7 +15327,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H56</xm:sqref>
+          <xm:sqref>H47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{856F528D-E171-4873-B535-7E4EFDAF2A92}">
@@ -16752,7 +15342,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H57</xm:sqref>
+          <xm:sqref>H48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{054FFF99-697A-41FB-988E-F4E370D52DC5}">
@@ -16767,7 +15357,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H58</xm:sqref>
+          <xm:sqref>H49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6D1712A1-D810-4333-A009-34292AA312C6}">
@@ -16842,7 +15432,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H24 H27</xm:sqref>
+          <xm:sqref>H15 H18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A92CD629-5291-49F4-8BC1-C45EC9CA2F76}">
@@ -16857,7 +15447,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H25</xm:sqref>
+          <xm:sqref>H16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{770F8493-0B10-4716-863C-4CC716BADDD3}">
@@ -16872,7 +15462,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H26</xm:sqref>
+          <xm:sqref>H17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{15B9EB1E-E920-4E98-A28D-06BE577FD36A}">
@@ -16887,7 +15477,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H60</xm:sqref>
+          <xm:sqref>H51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{34C3EF56-2C1C-4842-9F25-44EC607E9B6B}">
@@ -16902,7 +15492,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H61</xm:sqref>
+          <xm:sqref>H52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{99114578-ED29-4F6A-9A83-8028B4BE0913}">
@@ -16917,7 +15507,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H62</xm:sqref>
+          <xm:sqref>H53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9AF78625-F4C0-444A-8263-0BF299FFD8E3}">
@@ -16932,7 +15522,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H63</xm:sqref>
+          <xm:sqref>H54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6781039C-10B5-4E1B-BF0F-3D8F203F7830}">
@@ -16947,7 +15537,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H64</xm:sqref>
+          <xm:sqref>H55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{59B3CD0C-603A-462A-94F8-E59DB5DFE250}">
@@ -16962,7 +15552,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H65</xm:sqref>
+          <xm:sqref>H56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9E808395-D1A4-4074-B06E-14E3B6FB9F90}">
@@ -16977,7 +15567,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H66</xm:sqref>
+          <xm:sqref>H57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{010D370E-F0B3-451B-898C-0D514D737826}">
@@ -16992,7 +15582,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H67:H68</xm:sqref>
+          <xm:sqref>H58:H59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BFBF3FB0-ABF5-423D-A466-57E1B07BB58A}">
@@ -17007,7 +15597,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H86</xm:sqref>
+          <xm:sqref>H77</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CCD1741C-8060-4486-8B25-8799416E3961}">
@@ -17022,7 +15612,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H87</xm:sqref>
+          <xm:sqref>H78</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{35D0009D-A5E8-42C1-A435-118ABFBE67CA}">
@@ -17037,7 +15627,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H89</xm:sqref>
+          <xm:sqref>H80</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{01090080-ACAE-458D-BCAF-583B0E2F21D0}">
@@ -17052,7 +15642,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H91</xm:sqref>
+          <xm:sqref>H82</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AC0766FE-60B3-4D9D-8E40-B0B8237058AC}">
@@ -17067,7 +15657,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H93</xm:sqref>
+          <xm:sqref>H84</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{371F4099-1CEF-4E8C-99BF-BD7AE6E4555F}">
@@ -17082,7 +15672,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H95</xm:sqref>
+          <xm:sqref>H86</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{360399A8-A0CA-48C5-86BE-B1FB7E86595E}">
@@ -17097,7 +15687,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H97</xm:sqref>
+          <xm:sqref>H88</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{06BE8193-5B42-4B68-A1C3-25E085A86732}">
@@ -17112,7 +15702,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H99</xm:sqref>
+          <xm:sqref>H90</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7A8F160C-8F50-47BC-8BA5-A9E03D9CD50A}">
@@ -17127,7 +15717,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H109:H111</xm:sqref>
+          <xm:sqref>H100:H102</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CC845533-256A-423B-BC42-5167F019D2DE}">
@@ -17142,7 +15732,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H85</xm:sqref>
+          <xm:sqref>H76</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CBF1D1D0-C535-4432-8A3B-A81039293FBC}">
@@ -17157,7 +15747,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H88</xm:sqref>
+          <xm:sqref>H79</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{70490C4A-9510-4A6A-A898-72CA1E9BCFF9}">
@@ -17172,7 +15762,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H90</xm:sqref>
+          <xm:sqref>H81</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BEFD1DAE-5083-448C-A6A9-3C250C1DCCFA}">
@@ -17187,7 +15777,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H92</xm:sqref>
+          <xm:sqref>H83</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5B84F429-9511-4389-9DDD-FF34549A84EF}">
@@ -17202,7 +15792,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H94</xm:sqref>
+          <xm:sqref>H85</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2BECA061-2D9A-41C8-8CD7-D8EDF4AD5A7E}">
@@ -17217,7 +15807,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H96</xm:sqref>
+          <xm:sqref>H87</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{74ADDA2C-FFFB-4DDA-90CD-FCE1BCBC6D15}">
@@ -17232,7 +15822,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H98</xm:sqref>
+          <xm:sqref>H89</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5924B1B0-F4CA-4715-97F8-03E86E907A8B}">
@@ -17247,7 +15837,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H100</xm:sqref>
+          <xm:sqref>H91</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{844642B6-6AED-4247-BBF2-141EB0E6D0D6}">
@@ -17262,7 +15852,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H28</xm:sqref>
+          <xm:sqref>H19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{174A3615-F23C-4E15-875E-B324E869D0D5}">
@@ -17277,7 +15867,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H70</xm:sqref>
+          <xm:sqref>H61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DB8B257C-27C0-4656-B2D6-A164D3DC8376}">
@@ -17292,7 +15882,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H71</xm:sqref>
+          <xm:sqref>H62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9FC75FDB-8AED-439C-A6D3-1116ABFCD2AA}">
@@ -17307,7 +15897,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H74</xm:sqref>
+          <xm:sqref>H65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{525C6AC5-856A-4095-92C1-69ED8B837782}">
@@ -17322,7 +15912,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H75</xm:sqref>
+          <xm:sqref>H66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9CB4E75F-FF45-4E6C-B371-7D2BCB064ECC}">
@@ -17337,7 +15927,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H76</xm:sqref>
+          <xm:sqref>H67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7FBFA1E6-A604-4419-AC63-0237039442AE}">
@@ -17352,7 +15942,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H77</xm:sqref>
+          <xm:sqref>H68</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4D2BFFCF-D567-4CE6-8F2F-6998200C5C78}">
@@ -17367,7 +15957,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H78</xm:sqref>
+          <xm:sqref>H69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{08B66296-CB9A-4F29-B91B-245DF691B10F}">
@@ -17382,7 +15972,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H79</xm:sqref>
+          <xm:sqref>H70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6DED2669-501C-46DC-8864-D021B3A7F706}">
@@ -17397,7 +15987,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H80</xm:sqref>
+          <xm:sqref>H71</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BEB4BF35-E0F5-482E-8C08-600178C2FE8C}">
@@ -17412,7 +16002,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H81</xm:sqref>
+          <xm:sqref>H72</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D92DE5E4-33D4-4230-8AF6-3FC5B8535404}">
@@ -17427,7 +16017,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H73</xm:sqref>
+          <xm:sqref>H64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2BA9A25E-B14D-45FA-96F0-3BA762CE9EA1}">
@@ -17442,7 +16032,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H31</xm:sqref>
+          <xm:sqref>H22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{79744B6C-DE0E-41B5-81A9-67F74C450A4F}">
@@ -17457,7 +16047,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H32</xm:sqref>
+          <xm:sqref>H23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E16932AC-40B8-42A7-8DB2-5D64D178103E}">
@@ -17472,7 +16062,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H33</xm:sqref>
+          <xm:sqref>H24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1CB50A01-7198-4D74-B3DA-71AD1D1427A9}">
@@ -17487,7 +16077,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H34</xm:sqref>
+          <xm:sqref>H25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A98C2083-118D-4695-B9AA-92701C045809}">
@@ -17502,7 +16092,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H35</xm:sqref>
+          <xm:sqref>H26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{90C77C70-2B56-473D-A9A4-B601B56B6CB5}">
@@ -17517,7 +16107,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H36</xm:sqref>
+          <xm:sqref>H27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CF4D7B91-6F5D-4F51-9C2E-CC4DC5CD04FF}">
@@ -17532,7 +16122,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H37</xm:sqref>
+          <xm:sqref>H28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{745F3C84-B632-4082-9890-703832AAF6FA}">
@@ -17547,7 +16137,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H38</xm:sqref>
+          <xm:sqref>H29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8272F0CE-FA62-4BDB-A638-466C2D382EAA}">
@@ -17562,7 +16152,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H39</xm:sqref>
+          <xm:sqref>H30</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BlackDragoon\Desktop\PROJECT\PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D80BD59-FBDD-4C04-A65D-FCEDC95011CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE1DB67-F089-4455-A021-F8ECD5E146D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4875" yWindow="2280" windowWidth="21585" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="2280" windowWidth="21585" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -4697,8 +4697,8 @@
   <dimension ref="A1:BN102"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
+      <pane ySplit="7" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7472,7 +7472,7 @@
         <v>4</v>
       </c>
       <c r="H32" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="60">
         <v>0</v>
@@ -7555,7 +7555,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="60">
         <v>0</v>
@@ -7638,7 +7638,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="60">
         <v>0</v>
@@ -7721,7 +7721,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="60">
         <v>0</v>
@@ -7804,7 +7804,7 @@
         <v>1</v>
       </c>
       <c r="H36" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="60">
         <v>0</v>
@@ -7887,7 +7887,7 @@
         <v>1</v>
       </c>
       <c r="H37" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="60">
         <v>0</v>
@@ -7970,7 +7970,7 @@
         <v>1</v>
       </c>
       <c r="H38" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" s="60">
         <v>0</v>
@@ -8053,7 +8053,7 @@
         <v>1</v>
       </c>
       <c r="H39" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="60">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>1</v>
       </c>
       <c r="H40" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" s="60">
         <v>0</v>
@@ -8219,7 +8219,7 @@
         <v>4</v>
       </c>
       <c r="H41" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" s="60">
         <v>0</v>
@@ -8302,7 +8302,7 @@
         <v>1</v>
       </c>
       <c r="H42" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" s="60">
         <v>0</v>
@@ -8385,7 +8385,7 @@
         <v>1</v>
       </c>
       <c r="H43" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" s="60">
         <v>0</v>
@@ -8468,7 +8468,7 @@
         <v>1</v>
       </c>
       <c r="H44" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" s="60">
         <v>0</v>
@@ -8551,7 +8551,7 @@
         <v>1</v>
       </c>
       <c r="H45" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" s="60">
         <v>0</v>
@@ -8634,7 +8634,7 @@
         <v>1</v>
       </c>
       <c r="H46" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" s="60">
         <v>0</v>
@@ -8717,7 +8717,7 @@
         <v>1</v>
       </c>
       <c r="H47" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" s="60">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" s="60">
         <v>0</v>
@@ -8883,7 +8883,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" s="60">
         <v>0</v>
@@ -14918,7 +14918,7 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="E20 E31 E73 G20:H20 G31:H31 H60 H32 H41 H50 G73:H73 H75 H74" unlockedFormula="1"/>
+    <ignoredError sqref="E20 E31 E73 G20:H20 G31:H31 H60 H50 G73:H73 H75 H74" unlockedFormula="1"/>
     <ignoredError sqref="A73 A31 A20" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>

--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BlackDragoon\Desktop\PROJECT\PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE1DB67-F089-4455-A021-F8ECD5E146D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5E49EB-126E-41AC-BED6-4FE7705E1ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2700" yWindow="2280" windowWidth="21585" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$93</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$92</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">GanttChartPro!$A$1:$C$47</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
@@ -453,7 +453,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="177">
   <si>
     <t>WBS</t>
   </si>
@@ -1594,9 +1594,6 @@
   </si>
   <si>
     <t>Interface</t>
-  </si>
-  <si>
-    <t>Use Case Diagram</t>
   </si>
   <si>
     <t>Add Race Entry Horse</t>
@@ -2858,6 +2855,13 @@
     <xf numFmtId="0" fontId="67" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2867,6 +2871,10 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="167" fontId="45" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2875,17 +2883,6 @@
     </xf>
     <xf numFmtId="167" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2937,7 +2934,7 @@
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="87">
+  <dxfs count="86">
     <dxf>
       <border>
         <left style="thin">
@@ -3587,18 +3584,6 @@
           <bgColor theme="0" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <border>
@@ -4694,11 +4679,11 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN102"/>
+  <dimension ref="A1:BN101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H51" sqref="H51"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4726,29 +4711,29 @@
       <c r="E1" s="43"/>
       <c r="F1" s="43"/>
       <c r="I1" s="101"/>
-      <c r="K1" s="139" t="s">
+      <c r="K1" s="133" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="139"/>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="139"/>
-      <c r="S1" s="139"/>
-      <c r="T1" s="139"/>
-      <c r="U1" s="139"/>
-      <c r="V1" s="139"/>
-      <c r="W1" s="139"/>
-      <c r="X1" s="139"/>
-      <c r="Y1" s="139"/>
-      <c r="Z1" s="139"/>
-      <c r="AA1" s="139"/>
-      <c r="AB1" s="139"/>
-      <c r="AC1" s="139"/>
-      <c r="AD1" s="139"/>
-      <c r="AE1" s="139"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="133"/>
+      <c r="S1" s="133"/>
+      <c r="T1" s="133"/>
+      <c r="U1" s="133"/>
+      <c r="V1" s="133"/>
+      <c r="W1" s="133"/>
+      <c r="X1" s="133"/>
+      <c r="Y1" s="133"/>
+      <c r="Z1" s="133"/>
+      <c r="AA1" s="133"/>
+      <c r="AB1" s="133"/>
+      <c r="AC1" s="133"/>
+      <c r="AD1" s="133"/>
+      <c r="AE1" s="133"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
@@ -4793,11 +4778,11 @@
       <c r="B4" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="141">
+      <c r="C4" s="138">
         <v>44460</v>
       </c>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
       <c r="F4" s="82"/>
       <c r="G4" s="85" t="s">
         <v>69</v>
@@ -4807,182 +4792,182 @@
       </c>
       <c r="I4" s="83"/>
       <c r="J4" s="46"/>
-      <c r="K4" s="133" t="str">
+      <c r="K4" s="135" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="134"/>
-      <c r="M4" s="134"/>
-      <c r="N4" s="134"/>
-      <c r="O4" s="134"/>
-      <c r="P4" s="134"/>
-      <c r="Q4" s="135"/>
-      <c r="R4" s="133" t="str">
+      <c r="L4" s="136"/>
+      <c r="M4" s="136"/>
+      <c r="N4" s="136"/>
+      <c r="O4" s="136"/>
+      <c r="P4" s="136"/>
+      <c r="Q4" s="137"/>
+      <c r="R4" s="135" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="134"/>
-      <c r="T4" s="134"/>
-      <c r="U4" s="134"/>
-      <c r="V4" s="134"/>
-      <c r="W4" s="134"/>
-      <c r="X4" s="135"/>
-      <c r="Y4" s="133" t="str">
+      <c r="S4" s="136"/>
+      <c r="T4" s="136"/>
+      <c r="U4" s="136"/>
+      <c r="V4" s="136"/>
+      <c r="W4" s="136"/>
+      <c r="X4" s="137"/>
+      <c r="Y4" s="135" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="134"/>
-      <c r="AA4" s="134"/>
-      <c r="AB4" s="134"/>
-      <c r="AC4" s="134"/>
-      <c r="AD4" s="134"/>
-      <c r="AE4" s="135"/>
-      <c r="AF4" s="133" t="str">
+      <c r="Z4" s="136"/>
+      <c r="AA4" s="136"/>
+      <c r="AB4" s="136"/>
+      <c r="AC4" s="136"/>
+      <c r="AD4" s="136"/>
+      <c r="AE4" s="137"/>
+      <c r="AF4" s="135" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="134"/>
-      <c r="AH4" s="134"/>
-      <c r="AI4" s="134"/>
-      <c r="AJ4" s="134"/>
-      <c r="AK4" s="134"/>
-      <c r="AL4" s="135"/>
-      <c r="AM4" s="133" t="str">
+      <c r="AG4" s="136"/>
+      <c r="AH4" s="136"/>
+      <c r="AI4" s="136"/>
+      <c r="AJ4" s="136"/>
+      <c r="AK4" s="136"/>
+      <c r="AL4" s="137"/>
+      <c r="AM4" s="135" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="134"/>
-      <c r="AO4" s="134"/>
-      <c r="AP4" s="134"/>
-      <c r="AQ4" s="134"/>
-      <c r="AR4" s="134"/>
-      <c r="AS4" s="135"/>
-      <c r="AT4" s="133" t="str">
+      <c r="AN4" s="136"/>
+      <c r="AO4" s="136"/>
+      <c r="AP4" s="136"/>
+      <c r="AQ4" s="136"/>
+      <c r="AR4" s="136"/>
+      <c r="AS4" s="137"/>
+      <c r="AT4" s="135" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="134"/>
-      <c r="AV4" s="134"/>
-      <c r="AW4" s="134"/>
-      <c r="AX4" s="134"/>
-      <c r="AY4" s="134"/>
-      <c r="AZ4" s="135"/>
-      <c r="BA4" s="133" t="str">
+      <c r="AU4" s="136"/>
+      <c r="AV4" s="136"/>
+      <c r="AW4" s="136"/>
+      <c r="AX4" s="136"/>
+      <c r="AY4" s="136"/>
+      <c r="AZ4" s="137"/>
+      <c r="BA4" s="135" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="134"/>
-      <c r="BC4" s="134"/>
-      <c r="BD4" s="134"/>
-      <c r="BE4" s="134"/>
-      <c r="BF4" s="134"/>
-      <c r="BG4" s="135"/>
-      <c r="BH4" s="133" t="str">
+      <c r="BB4" s="136"/>
+      <c r="BC4" s="136"/>
+      <c r="BD4" s="136"/>
+      <c r="BE4" s="136"/>
+      <c r="BF4" s="136"/>
+      <c r="BG4" s="137"/>
+      <c r="BH4" s="135" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="134"/>
-      <c r="BJ4" s="134"/>
-      <c r="BK4" s="134"/>
-      <c r="BL4" s="134"/>
-      <c r="BM4" s="134"/>
-      <c r="BN4" s="135"/>
+      <c r="BI4" s="136"/>
+      <c r="BJ4" s="136"/>
+      <c r="BK4" s="136"/>
+      <c r="BL4" s="136"/>
+      <c r="BM4" s="136"/>
+      <c r="BN4" s="137"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="81"/>
       <c r="B5" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="140" t="s">
+      <c r="C5" s="134" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
       <c r="F5" s="84"/>
       <c r="G5" s="84"/>
       <c r="H5" s="84"/>
       <c r="I5" s="84"/>
       <c r="J5" s="46"/>
-      <c r="K5" s="136">
+      <c r="K5" s="139">
         <f>K6</f>
         <v>44459</v>
       </c>
-      <c r="L5" s="137"/>
-      <c r="M5" s="137"/>
-      <c r="N5" s="137"/>
-      <c r="O5" s="137"/>
-      <c r="P5" s="137"/>
-      <c r="Q5" s="138"/>
-      <c r="R5" s="136">
+      <c r="L5" s="140"/>
+      <c r="M5" s="140"/>
+      <c r="N5" s="140"/>
+      <c r="O5" s="140"/>
+      <c r="P5" s="140"/>
+      <c r="Q5" s="141"/>
+      <c r="R5" s="139">
         <f>R6</f>
         <v>44466</v>
       </c>
-      <c r="S5" s="137"/>
-      <c r="T5" s="137"/>
-      <c r="U5" s="137"/>
-      <c r="V5" s="137"/>
-      <c r="W5" s="137"/>
-      <c r="X5" s="138"/>
-      <c r="Y5" s="136">
+      <c r="S5" s="140"/>
+      <c r="T5" s="140"/>
+      <c r="U5" s="140"/>
+      <c r="V5" s="140"/>
+      <c r="W5" s="140"/>
+      <c r="X5" s="141"/>
+      <c r="Y5" s="139">
         <f>Y6</f>
         <v>44473</v>
       </c>
-      <c r="Z5" s="137"/>
-      <c r="AA5" s="137"/>
-      <c r="AB5" s="137"/>
-      <c r="AC5" s="137"/>
-      <c r="AD5" s="137"/>
-      <c r="AE5" s="138"/>
-      <c r="AF5" s="136">
+      <c r="Z5" s="140"/>
+      <c r="AA5" s="140"/>
+      <c r="AB5" s="140"/>
+      <c r="AC5" s="140"/>
+      <c r="AD5" s="140"/>
+      <c r="AE5" s="141"/>
+      <c r="AF5" s="139">
         <f>AF6</f>
         <v>44480</v>
       </c>
-      <c r="AG5" s="137"/>
-      <c r="AH5" s="137"/>
-      <c r="AI5" s="137"/>
-      <c r="AJ5" s="137"/>
-      <c r="AK5" s="137"/>
-      <c r="AL5" s="138"/>
-      <c r="AM5" s="136">
+      <c r="AG5" s="140"/>
+      <c r="AH5" s="140"/>
+      <c r="AI5" s="140"/>
+      <c r="AJ5" s="140"/>
+      <c r="AK5" s="140"/>
+      <c r="AL5" s="141"/>
+      <c r="AM5" s="139">
         <f>AM6</f>
         <v>44487</v>
       </c>
-      <c r="AN5" s="137"/>
-      <c r="AO5" s="137"/>
-      <c r="AP5" s="137"/>
-      <c r="AQ5" s="137"/>
-      <c r="AR5" s="137"/>
-      <c r="AS5" s="138"/>
-      <c r="AT5" s="136">
+      <c r="AN5" s="140"/>
+      <c r="AO5" s="140"/>
+      <c r="AP5" s="140"/>
+      <c r="AQ5" s="140"/>
+      <c r="AR5" s="140"/>
+      <c r="AS5" s="141"/>
+      <c r="AT5" s="139">
         <f>AT6</f>
         <v>44494</v>
       </c>
-      <c r="AU5" s="137"/>
-      <c r="AV5" s="137"/>
-      <c r="AW5" s="137"/>
-      <c r="AX5" s="137"/>
-      <c r="AY5" s="137"/>
-      <c r="AZ5" s="138"/>
-      <c r="BA5" s="136">
+      <c r="AU5" s="140"/>
+      <c r="AV5" s="140"/>
+      <c r="AW5" s="140"/>
+      <c r="AX5" s="140"/>
+      <c r="AY5" s="140"/>
+      <c r="AZ5" s="141"/>
+      <c r="BA5" s="139">
         <f>BA6</f>
         <v>44501</v>
       </c>
-      <c r="BB5" s="137"/>
-      <c r="BC5" s="137"/>
-      <c r="BD5" s="137"/>
-      <c r="BE5" s="137"/>
-      <c r="BF5" s="137"/>
-      <c r="BG5" s="138"/>
-      <c r="BH5" s="136">
+      <c r="BB5" s="140"/>
+      <c r="BC5" s="140"/>
+      <c r="BD5" s="140"/>
+      <c r="BE5" s="140"/>
+      <c r="BF5" s="140"/>
+      <c r="BG5" s="141"/>
+      <c r="BH5" s="139">
         <f>BH6</f>
         <v>44508</v>
       </c>
-      <c r="BI5" s="137"/>
-      <c r="BJ5" s="137"/>
-      <c r="BK5" s="137"/>
-      <c r="BL5" s="137"/>
-      <c r="BM5" s="137"/>
-      <c r="BN5" s="138"/>
+      <c r="BI5" s="140"/>
+      <c r="BJ5" s="140"/>
+      <c r="BK5" s="140"/>
+      <c r="BL5" s="140"/>
+      <c r="BM5" s="140"/>
+      <c r="BN5" s="141"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6" s="45"/>
@@ -5492,7 +5477,7 @@
       <c r="G8" s="67"/>
       <c r="H8" s="68"/>
       <c r="I8" s="69" t="str">
-        <f t="shared" ref="I8:I73" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
+        <f t="shared" ref="I8:I72" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J8" s="72"/>
@@ -5739,7 +5724,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="59">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I11" s="60">
         <v>0</v>
@@ -6389,7 +6374,7 @@
         <v>1.5.1</v>
       </c>
       <c r="B19" s="99" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D19" s="98"/>
       <c r="E19" s="75">
@@ -6477,7 +6462,7 @@
       <c r="D20" s="52"/>
       <c r="E20" s="77"/>
       <c r="F20" s="77" t="str">
-        <f t="shared" ref="F20:F76" si="9">IF(ISBLANK(E20)," - ",IF(G20=0,E20,E20+G20-1))</f>
+        <f t="shared" ref="F20:F75" si="9">IF(ISBLANK(E20)," - ",IF(G20=0,E20,E20+G20-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G20" s="53"/>
@@ -6633,7 +6618,7 @@
         <v>2.2</v>
       </c>
       <c r="B22" s="97" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D22" s="98"/>
       <c r="E22" s="75">
@@ -7214,7 +7199,7 @@
         <v>2.2.7</v>
       </c>
       <c r="B29" s="99" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D29" s="98"/>
       <c r="E29" s="75">
@@ -7297,7 +7282,7 @@
         <v>2.2.8</v>
       </c>
       <c r="B30" s="99" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D30" s="98"/>
       <c r="E30" s="75">
@@ -8039,7 +8024,7 @@
         <v>3.1.7</v>
       </c>
       <c r="B39" s="99" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D39" s="98"/>
       <c r="E39" s="75">
@@ -8122,7 +8107,7 @@
         <v>3.1.8</v>
       </c>
       <c r="B40" s="99" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D40" s="98"/>
       <c r="E40" s="75">
@@ -8205,7 +8190,7 @@
         <v>3.2</v>
       </c>
       <c r="B41" s="97" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D41" s="98"/>
       <c r="E41" s="75">
@@ -8786,7 +8771,7 @@
         <v>3.2.7</v>
       </c>
       <c r="B48" s="99" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D48" s="98"/>
       <c r="E48" s="75">
@@ -8869,7 +8854,7 @@
         <v>3.2.8</v>
       </c>
       <c r="B49" s="99" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D49" s="98"/>
       <c r="E49" s="75">
@@ -8952,7 +8937,7 @@
         <v>3.3</v>
       </c>
       <c r="B50" s="97" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D50" s="98"/>
       <c r="E50" s="75">
@@ -8966,7 +8951,7 @@
         <v>4</v>
       </c>
       <c r="H50" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" s="60">
         <v>0</v>
@@ -9049,7 +9034,7 @@
         <v>1</v>
       </c>
       <c r="H51" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" s="60">
         <v>0</v>
@@ -9132,7 +9117,7 @@
         <v>1</v>
       </c>
       <c r="H52" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" s="60">
         <v>0</v>
@@ -9215,7 +9200,7 @@
         <v>1</v>
       </c>
       <c r="H53" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" s="60">
         <v>0</v>
@@ -9298,7 +9283,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" s="60">
         <v>0</v>
@@ -9381,7 +9366,7 @@
         <v>1</v>
       </c>
       <c r="H55" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" s="60">
         <v>0</v>
@@ -9464,7 +9449,7 @@
         <v>1</v>
       </c>
       <c r="H56" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" s="60">
         <v>0</v>
@@ -9533,7 +9518,7 @@
         <v>3.3.7</v>
       </c>
       <c r="B57" s="99" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D57" s="98"/>
       <c r="E57" s="75">
@@ -9547,7 +9532,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" s="60">
         <v>0</v>
@@ -9616,7 +9601,7 @@
         <v>3.3.8</v>
       </c>
       <c r="B58" s="99" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D58" s="98"/>
       <c r="E58" s="75">
@@ -9630,7 +9615,7 @@
         <v>1</v>
       </c>
       <c r="H58" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" s="60">
         <v>0</v>
@@ -9699,18 +9684,18 @@
         <v>3.4</v>
       </c>
       <c r="B59" s="97" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D59" s="98"/>
       <c r="E59" s="75">
-        <v>43141</v>
+        <v>44482</v>
       </c>
       <c r="F59" s="76">
-        <f t="shared" ref="F59" si="21">IF(ISBLANK(E59)," - ",IF(G59=0,E59,E59+G59-1))</f>
-        <v>43144</v>
+        <f t="shared" si="9"/>
+        <v>44483</v>
       </c>
       <c r="G59" s="58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H59" s="59">
         <v>0</v>
@@ -9778,18 +9763,18 @@
     </row>
     <row r="60" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A60" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.5</v>
-      </c>
-      <c r="B60" s="97" t="s">
-        <v>166</v>
+        <f t="shared" ref="A60:A61" si="21">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.4.1</v>
+      </c>
+      <c r="B60" s="99" t="s">
+        <v>172</v>
       </c>
       <c r="D60" s="98"/>
       <c r="E60" s="75">
         <v>44482</v>
       </c>
       <c r="F60" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="F60" si="22">IF(ISBLANK(E60)," - ",IF(G60=0,E60,E60+G60-1))</f>
         <v>44483</v>
       </c>
       <c r="G60" s="58">
@@ -9861,8 +9846,8 @@
     </row>
     <row r="61" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A61" s="56" t="str">
-        <f t="shared" ref="A61:A62" si="22">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.5.1</v>
+        <f t="shared" si="21"/>
+        <v>3.4.2</v>
       </c>
       <c r="B61" s="99" t="s">
         <v>173</v>
@@ -9944,19 +9929,19 @@
     </row>
     <row r="62" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A62" s="56" t="str">
-        <f t="shared" si="22"/>
-        <v>3.5.2</v>
-      </c>
-      <c r="B62" s="99" t="s">
-        <v>174</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.5</v>
+      </c>
+      <c r="B62" s="97" t="s">
+        <v>166</v>
       </c>
       <c r="D62" s="98"/>
       <c r="E62" s="75">
-        <v>44482</v>
+        <v>44483</v>
       </c>
       <c r="F62" s="76">
-        <f t="shared" ref="F62" si="24">IF(ISBLANK(E62)," - ",IF(G62=0,E62,E62+G62-1))</f>
-        <v>44483</v>
+        <f t="shared" si="9"/>
+        <v>44484</v>
       </c>
       <c r="G62" s="58">
         <v>2</v>
@@ -10027,11 +10012,11 @@
     </row>
     <row r="63" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A63" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.6</v>
-      </c>
-      <c r="B63" s="97" t="s">
-        <v>167</v>
+        <f t="shared" ref="A63:A71" si="24">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.5.1</v>
+      </c>
+      <c r="B63" s="99" t="s">
+        <v>174</v>
       </c>
       <c r="D63" s="98"/>
       <c r="E63" s="75">
@@ -10110,18 +10095,18 @@
     </row>
     <row r="64" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A64" s="56" t="str">
-        <f t="shared" ref="A64:A72" si="25">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.6.1</v>
+        <f t="shared" si="24"/>
+        <v>3.5.2</v>
       </c>
       <c r="B64" s="99" t="s">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="D64" s="98"/>
       <c r="E64" s="75">
         <v>44483</v>
       </c>
       <c r="F64" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="F64:F71" si="25">IF(ISBLANK(E64)," - ",IF(G64=0,E64,E64+G64-1))</f>
         <v>44484</v>
       </c>
       <c r="G64" s="58">
@@ -10193,18 +10178,18 @@
     </row>
     <row r="65" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A65" s="56" t="str">
-        <f t="shared" si="25"/>
-        <v>3.6.2</v>
+        <f t="shared" si="24"/>
+        <v>3.5.3</v>
       </c>
       <c r="B65" s="99" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D65" s="98"/>
       <c r="E65" s="75">
         <v>44483</v>
       </c>
       <c r="F65" s="76">
-        <f t="shared" ref="F65:F72" si="26">IF(ISBLANK(E65)," - ",IF(G65=0,E65,E65+G65-1))</f>
+        <f t="shared" si="25"/>
         <v>44484</v>
       </c>
       <c r="G65" s="58">
@@ -10276,18 +10261,18 @@
     </row>
     <row r="66" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A66" s="56" t="str">
-        <f t="shared" si="25"/>
-        <v>3.6.3</v>
+        <f t="shared" si="24"/>
+        <v>3.5.4</v>
       </c>
       <c r="B66" s="99" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D66" s="98"/>
       <c r="E66" s="75">
         <v>44483</v>
       </c>
       <c r="F66" s="76">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>44484</v>
       </c>
       <c r="G66" s="58">
@@ -10359,18 +10344,18 @@
     </row>
     <row r="67" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A67" s="56" t="str">
-        <f t="shared" si="25"/>
-        <v>3.6.4</v>
+        <f t="shared" si="24"/>
+        <v>3.5.5</v>
       </c>
       <c r="B67" s="99" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D67" s="98"/>
       <c r="E67" s="75">
         <v>44483</v>
       </c>
       <c r="F67" s="76">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>44484</v>
       </c>
       <c r="G67" s="58">
@@ -10442,18 +10427,18 @@
     </row>
     <row r="68" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A68" s="56" t="str">
-        <f t="shared" si="25"/>
-        <v>3.6.5</v>
+        <f t="shared" si="24"/>
+        <v>3.5.6</v>
       </c>
       <c r="B68" s="99" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D68" s="98"/>
       <c r="E68" s="75">
         <v>44483</v>
       </c>
       <c r="F68" s="76">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>44484</v>
       </c>
       <c r="G68" s="58">
@@ -10525,18 +10510,18 @@
     </row>
     <row r="69" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A69" s="56" t="str">
-        <f t="shared" si="25"/>
-        <v>3.6.6</v>
+        <f t="shared" si="24"/>
+        <v>3.5.7</v>
       </c>
       <c r="B69" s="99" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D69" s="98"/>
       <c r="E69" s="75">
         <v>44483</v>
       </c>
       <c r="F69" s="76">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>44484</v>
       </c>
       <c r="G69" s="58">
@@ -10606,20 +10591,20 @@
       <c r="BM69" s="79"/>
       <c r="BN69" s="79"/>
     </row>
-    <row r="70" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A70" s="56" t="str">
-        <f t="shared" si="25"/>
-        <v>3.6.7</v>
+        <f t="shared" si="24"/>
+        <v>3.5.8</v>
       </c>
       <c r="B70" s="99" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="D70" s="98"/>
       <c r="E70" s="75">
         <v>44483</v>
       </c>
       <c r="F70" s="76">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>44484</v>
       </c>
       <c r="G70" s="58">
@@ -10691,8 +10676,8 @@
     </row>
     <row r="71" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A71" s="56" t="str">
-        <f t="shared" si="25"/>
-        <v>3.6.8</v>
+        <f t="shared" si="24"/>
+        <v>3.5.9</v>
       </c>
       <c r="B71" s="99" t="s">
         <v>162</v>
@@ -10702,7 +10687,7 @@
         <v>44483</v>
       </c>
       <c r="F71" s="76">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>44484</v>
       </c>
       <c r="G71" s="58">
@@ -10772,185 +10757,185 @@
       <c r="BM71" s="79"/>
       <c r="BN71" s="79"/>
     </row>
-    <row r="72" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A72" s="56" t="str">
-        <f t="shared" si="25"/>
-        <v>3.6.9</v>
-      </c>
-      <c r="B72" s="99" t="s">
-        <v>163</v>
-      </c>
-      <c r="D72" s="98"/>
-      <c r="E72" s="75">
-        <v>44483</v>
-      </c>
-      <c r="F72" s="76">
-        <f t="shared" si="26"/>
-        <v>44484</v>
-      </c>
-      <c r="G72" s="58">
-        <v>2</v>
-      </c>
-      <c r="H72" s="59">
-        <v>0</v>
-      </c>
-      <c r="I72" s="60">
-        <v>0</v>
-      </c>
-      <c r="J72" s="73"/>
-      <c r="K72" s="79"/>
-      <c r="L72" s="79"/>
-      <c r="M72" s="79"/>
-      <c r="N72" s="79"/>
-      <c r="O72" s="79"/>
-      <c r="P72" s="79"/>
-      <c r="Q72" s="79"/>
-      <c r="R72" s="79"/>
-      <c r="S72" s="79"/>
-      <c r="T72" s="79"/>
-      <c r="U72" s="79"/>
-      <c r="V72" s="79"/>
-      <c r="W72" s="79"/>
-      <c r="X72" s="79"/>
-      <c r="Y72" s="79"/>
-      <c r="Z72" s="79"/>
-      <c r="AA72" s="79"/>
-      <c r="AB72" s="79"/>
-      <c r="AC72" s="79"/>
-      <c r="AD72" s="79"/>
-      <c r="AE72" s="79"/>
-      <c r="AF72" s="79"/>
-      <c r="AG72" s="79"/>
-      <c r="AH72" s="79"/>
-      <c r="AI72" s="79"/>
-      <c r="AJ72" s="79"/>
-      <c r="AK72" s="79"/>
-      <c r="AL72" s="79"/>
-      <c r="AM72" s="79"/>
-      <c r="AN72" s="79"/>
-      <c r="AO72" s="79"/>
-      <c r="AP72" s="79"/>
-      <c r="AQ72" s="79"/>
-      <c r="AR72" s="79"/>
-      <c r="AS72" s="79"/>
-      <c r="AT72" s="79"/>
-      <c r="AU72" s="79"/>
-      <c r="AV72" s="79"/>
-      <c r="AW72" s="79"/>
-      <c r="AX72" s="79"/>
-      <c r="AY72" s="79"/>
-      <c r="AZ72" s="79"/>
-      <c r="BA72" s="79"/>
-      <c r="BB72" s="79"/>
-      <c r="BC72" s="79"/>
-      <c r="BD72" s="79"/>
-      <c r="BE72" s="79"/>
-      <c r="BF72" s="79"/>
-      <c r="BG72" s="79"/>
-      <c r="BH72" s="79"/>
-      <c r="BI72" s="79"/>
-      <c r="BJ72" s="79"/>
-      <c r="BK72" s="79"/>
-      <c r="BL72" s="79"/>
-      <c r="BM72" s="79"/>
-      <c r="BN72" s="79"/>
-    </row>
-    <row r="73" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A73" s="49" t="str">
+    <row r="72" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A72" s="49" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>4</v>
       </c>
-      <c r="B73" s="50" t="s">
+      <c r="B72" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="D73" s="52"/>
-      <c r="E73" s="77"/>
-      <c r="F73" s="77" t="str">
+      <c r="D72" s="52"/>
+      <c r="E72" s="77"/>
+      <c r="F72" s="77" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G73" s="53"/>
-      <c r="H73" s="54"/>
-      <c r="I73" s="55" t="str">
+      <c r="G72" s="53"/>
+      <c r="H72" s="54"/>
+      <c r="I72" s="55" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J73" s="74"/>
-      <c r="K73" s="80"/>
-      <c r="L73" s="80"/>
-      <c r="M73" s="80"/>
-      <c r="N73" s="80"/>
-      <c r="O73" s="80"/>
-      <c r="P73" s="80"/>
-      <c r="Q73" s="80"/>
-      <c r="R73" s="80"/>
-      <c r="S73" s="80"/>
-      <c r="T73" s="80"/>
-      <c r="U73" s="80"/>
-      <c r="V73" s="80"/>
-      <c r="W73" s="80"/>
-      <c r="X73" s="80"/>
-      <c r="Y73" s="80"/>
-      <c r="Z73" s="80"/>
-      <c r="AA73" s="80"/>
-      <c r="AB73" s="80"/>
-      <c r="AC73" s="80"/>
-      <c r="AD73" s="80"/>
-      <c r="AE73" s="80"/>
-      <c r="AF73" s="80"/>
-      <c r="AG73" s="80"/>
-      <c r="AH73" s="80"/>
-      <c r="AI73" s="80"/>
-      <c r="AJ73" s="80"/>
-      <c r="AK73" s="80"/>
-      <c r="AL73" s="80"/>
-      <c r="AM73" s="80"/>
-      <c r="AN73" s="80"/>
-      <c r="AO73" s="80"/>
-      <c r="AP73" s="80"/>
-      <c r="AQ73" s="80"/>
-      <c r="AR73" s="80"/>
-      <c r="AS73" s="80"/>
-      <c r="AT73" s="80"/>
-      <c r="AU73" s="80"/>
-      <c r="AV73" s="80"/>
-      <c r="AW73" s="80"/>
-      <c r="AX73" s="80"/>
-      <c r="AY73" s="80"/>
-      <c r="AZ73" s="80"/>
-      <c r="BA73" s="80"/>
-      <c r="BB73" s="80"/>
-      <c r="BC73" s="80"/>
-      <c r="BD73" s="80"/>
-      <c r="BE73" s="80"/>
-      <c r="BF73" s="80"/>
-      <c r="BG73" s="80"/>
-      <c r="BH73" s="80"/>
-      <c r="BI73" s="80"/>
-      <c r="BJ73" s="80"/>
-      <c r="BK73" s="80"/>
-      <c r="BL73" s="80"/>
-      <c r="BM73" s="80"/>
-      <c r="BN73" s="80"/>
+      <c r="J72" s="74"/>
+      <c r="K72" s="80"/>
+      <c r="L72" s="80"/>
+      <c r="M72" s="80"/>
+      <c r="N72" s="80"/>
+      <c r="O72" s="80"/>
+      <c r="P72" s="80"/>
+      <c r="Q72" s="80"/>
+      <c r="R72" s="80"/>
+      <c r="S72" s="80"/>
+      <c r="T72" s="80"/>
+      <c r="U72" s="80"/>
+      <c r="V72" s="80"/>
+      <c r="W72" s="80"/>
+      <c r="X72" s="80"/>
+      <c r="Y72" s="80"/>
+      <c r="Z72" s="80"/>
+      <c r="AA72" s="80"/>
+      <c r="AB72" s="80"/>
+      <c r="AC72" s="80"/>
+      <c r="AD72" s="80"/>
+      <c r="AE72" s="80"/>
+      <c r="AF72" s="80"/>
+      <c r="AG72" s="80"/>
+      <c r="AH72" s="80"/>
+      <c r="AI72" s="80"/>
+      <c r="AJ72" s="80"/>
+      <c r="AK72" s="80"/>
+      <c r="AL72" s="80"/>
+      <c r="AM72" s="80"/>
+      <c r="AN72" s="80"/>
+      <c r="AO72" s="80"/>
+      <c r="AP72" s="80"/>
+      <c r="AQ72" s="80"/>
+      <c r="AR72" s="80"/>
+      <c r="AS72" s="80"/>
+      <c r="AT72" s="80"/>
+      <c r="AU72" s="80"/>
+      <c r="AV72" s="80"/>
+      <c r="AW72" s="80"/>
+      <c r="AX72" s="80"/>
+      <c r="AY72" s="80"/>
+      <c r="AZ72" s="80"/>
+      <c r="BA72" s="80"/>
+      <c r="BB72" s="80"/>
+      <c r="BC72" s="80"/>
+      <c r="BD72" s="80"/>
+      <c r="BE72" s="80"/>
+      <c r="BF72" s="80"/>
+      <c r="BG72" s="80"/>
+      <c r="BH72" s="80"/>
+      <c r="BI72" s="80"/>
+      <c r="BJ72" s="80"/>
+      <c r="BK72" s="80"/>
+      <c r="BL72" s="80"/>
+      <c r="BM72" s="80"/>
+      <c r="BN72" s="80"/>
+    </row>
+    <row r="73" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A73" s="56" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.1</v>
+      </c>
+      <c r="B73" s="97" t="s">
+        <v>159</v>
+      </c>
+      <c r="D73" s="98"/>
+      <c r="E73" s="75">
+        <v>44485</v>
+      </c>
+      <c r="F73" s="76">
+        <f t="shared" si="9"/>
+        <v>44491</v>
+      </c>
+      <c r="G73" s="58">
+        <v>7</v>
+      </c>
+      <c r="H73" s="59">
+        <v>0</v>
+      </c>
+      <c r="I73" s="60">
+        <v>0</v>
+      </c>
+      <c r="J73" s="73"/>
+      <c r="K73" s="79"/>
+      <c r="L73" s="79"/>
+      <c r="M73" s="79"/>
+      <c r="N73" s="79"/>
+      <c r="O73" s="79"/>
+      <c r="P73" s="79"/>
+      <c r="Q73" s="79"/>
+      <c r="R73" s="79"/>
+      <c r="S73" s="79"/>
+      <c r="T73" s="79"/>
+      <c r="U73" s="79"/>
+      <c r="V73" s="79"/>
+      <c r="W73" s="79"/>
+      <c r="X73" s="79"/>
+      <c r="Y73" s="79"/>
+      <c r="Z73" s="79"/>
+      <c r="AA73" s="79"/>
+      <c r="AB73" s="79"/>
+      <c r="AC73" s="79"/>
+      <c r="AD73" s="79"/>
+      <c r="AE73" s="79"/>
+      <c r="AF73" s="79"/>
+      <c r="AG73" s="79"/>
+      <c r="AH73" s="79"/>
+      <c r="AI73" s="79"/>
+      <c r="AJ73" s="79"/>
+      <c r="AK73" s="79"/>
+      <c r="AL73" s="79"/>
+      <c r="AM73" s="79"/>
+      <c r="AN73" s="79"/>
+      <c r="AO73" s="79"/>
+      <c r="AP73" s="79"/>
+      <c r="AQ73" s="79"/>
+      <c r="AR73" s="79"/>
+      <c r="AS73" s="79"/>
+      <c r="AT73" s="79"/>
+      <c r="AU73" s="79"/>
+      <c r="AV73" s="79"/>
+      <c r="AW73" s="79"/>
+      <c r="AX73" s="79"/>
+      <c r="AY73" s="79"/>
+      <c r="AZ73" s="79"/>
+      <c r="BA73" s="79"/>
+      <c r="BB73" s="79"/>
+      <c r="BC73" s="79"/>
+      <c r="BD73" s="79"/>
+      <c r="BE73" s="79"/>
+      <c r="BF73" s="79"/>
+      <c r="BG73" s="79"/>
+      <c r="BH73" s="79"/>
+      <c r="BI73" s="79"/>
+      <c r="BJ73" s="79"/>
+      <c r="BK73" s="79"/>
+      <c r="BL73" s="79"/>
+      <c r="BM73" s="79"/>
+      <c r="BN73" s="79"/>
     </row>
     <row r="74" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A74" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="B74" s="97" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="D74" s="98"/>
       <c r="E74" s="75">
-        <v>44485</v>
+        <v>44492</v>
       </c>
       <c r="F74" s="76">
         <f t="shared" si="9"/>
-        <v>44491</v>
+        <v>44501</v>
       </c>
       <c r="G74" s="58">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H74" s="59">
         <v>0</v>
@@ -11018,11 +11003,11 @@
     </row>
     <row r="75" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A75" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.2</v>
-      </c>
-      <c r="B75" s="97" t="s">
-        <v>168</v>
+        <f t="shared" ref="A75:A89" si="26">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.2.1</v>
+      </c>
+      <c r="B75" s="99" t="s">
+        <v>134</v>
       </c>
       <c r="D75" s="98"/>
       <c r="E75" s="75">
@@ -11030,10 +11015,10 @@
       </c>
       <c r="F75" s="76">
         <f t="shared" si="9"/>
-        <v>44501</v>
+        <v>44492</v>
       </c>
       <c r="G75" s="58">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H75" s="59">
         <v>0</v>
@@ -11101,18 +11086,18 @@
     </row>
     <row r="76" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A76" s="56" t="str">
-        <f t="shared" ref="A76:A90" si="27">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.2.1</v>
-      </c>
-      <c r="B76" s="99" t="s">
-        <v>134</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.2.2</v>
+      </c>
+      <c r="B76" s="132" t="s">
+        <v>170</v>
       </c>
       <c r="D76" s="98"/>
       <c r="E76" s="75">
         <v>44492</v>
       </c>
       <c r="F76" s="76">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="F76:F90" si="27">IF(ISBLANK(E76)," - ",IF(G76=0,E76,E76+G76-1))</f>
         <v>44492</v>
       </c>
       <c r="G76" s="58">
@@ -11184,19 +11169,19 @@
     </row>
     <row r="77" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A77" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.2.2</v>
-      </c>
-      <c r="B77" s="132" t="s">
-        <v>171</v>
+        <f t="shared" si="26"/>
+        <v>4.2.3</v>
+      </c>
+      <c r="B77" s="99" t="s">
+        <v>135</v>
       </c>
       <c r="D77" s="98"/>
       <c r="E77" s="75">
-        <v>44492</v>
+        <v>44493</v>
       </c>
       <c r="F77" s="76">
-        <f t="shared" ref="F77:F91" si="28">IF(ISBLANK(E77)," - ",IF(G77=0,E77,E77+G77-1))</f>
-        <v>44492</v>
+        <f t="shared" si="27"/>
+        <v>44493</v>
       </c>
       <c r="G77" s="58">
         <v>1</v>
@@ -11267,18 +11252,18 @@
     </row>
     <row r="78" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A78" s="56" t="str">
-        <f t="shared" si="27"/>
-        <v>4.2.3</v>
-      </c>
-      <c r="B78" s="99" t="s">
-        <v>135</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.2.4</v>
+      </c>
+      <c r="B78" s="132" t="s">
+        <v>170</v>
       </c>
       <c r="D78" s="98"/>
       <c r="E78" s="75">
         <v>44493</v>
       </c>
       <c r="F78" s="76">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="F78" si="28">IF(ISBLANK(E78)," - ",IF(G78=0,E78,E78+G78-1))</f>
         <v>44493</v>
       </c>
       <c r="G78" s="58">
@@ -11350,19 +11335,19 @@
     </row>
     <row r="79" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A79" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.2.4</v>
-      </c>
-      <c r="B79" s="132" t="s">
-        <v>171</v>
+        <f t="shared" si="26"/>
+        <v>4.2.5</v>
+      </c>
+      <c r="B79" s="99" t="s">
+        <v>136</v>
       </c>
       <c r="D79" s="98"/>
       <c r="E79" s="75">
-        <v>44493</v>
+        <v>44494</v>
       </c>
       <c r="F79" s="76">
-        <f t="shared" ref="F79" si="29">IF(ISBLANK(E79)," - ",IF(G79=0,E79,E79+G79-1))</f>
-        <v>44493</v>
+        <f t="shared" si="27"/>
+        <v>44494</v>
       </c>
       <c r="G79" s="58">
         <v>1</v>
@@ -11433,18 +11418,18 @@
     </row>
     <row r="80" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A80" s="56" t="str">
-        <f t="shared" si="27"/>
-        <v>4.2.5</v>
-      </c>
-      <c r="B80" s="99" t="s">
-        <v>136</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.2.6</v>
+      </c>
+      <c r="B80" s="132" t="s">
+        <v>170</v>
       </c>
       <c r="D80" s="98"/>
       <c r="E80" s="75">
         <v>44494</v>
       </c>
       <c r="F80" s="76">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>44494</v>
       </c>
       <c r="G80" s="58">
@@ -11516,19 +11501,19 @@
     </row>
     <row r="81" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A81" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.2.6</v>
-      </c>
-      <c r="B81" s="132" t="s">
-        <v>171</v>
+        <f t="shared" si="26"/>
+        <v>4.2.7</v>
+      </c>
+      <c r="B81" s="99" t="s">
+        <v>137</v>
       </c>
       <c r="D81" s="98"/>
       <c r="E81" s="75">
-        <v>44494</v>
+        <v>44495</v>
       </c>
       <c r="F81" s="76">
-        <f t="shared" si="28"/>
-        <v>44494</v>
+        <f t="shared" si="27"/>
+        <v>44495</v>
       </c>
       <c r="G81" s="58">
         <v>1</v>
@@ -11599,18 +11584,18 @@
     </row>
     <row r="82" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A82" s="56" t="str">
-        <f t="shared" si="27"/>
-        <v>4.2.7</v>
-      </c>
-      <c r="B82" s="99" t="s">
-        <v>137</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.2.8</v>
+      </c>
+      <c r="B82" s="132" t="s">
+        <v>170</v>
       </c>
       <c r="D82" s="98"/>
       <c r="E82" s="75">
         <v>44495</v>
       </c>
       <c r="F82" s="76">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="F82" si="29">IF(ISBLANK(E82)," - ",IF(G82=0,E82,E82+G82-1))</f>
         <v>44495</v>
       </c>
       <c r="G82" s="58">
@@ -11682,19 +11667,19 @@
     </row>
     <row r="83" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A83" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.2.8</v>
-      </c>
-      <c r="B83" s="132" t="s">
-        <v>171</v>
+        <f t="shared" si="26"/>
+        <v>4.2.9</v>
+      </c>
+      <c r="B83" s="99" t="s">
+        <v>138</v>
       </c>
       <c r="D83" s="98"/>
       <c r="E83" s="75">
-        <v>44495</v>
+        <v>44496</v>
       </c>
       <c r="F83" s="76">
-        <f t="shared" ref="F83" si="30">IF(ISBLANK(E83)," - ",IF(G83=0,E83,E83+G83-1))</f>
-        <v>44495</v>
+        <f t="shared" si="27"/>
+        <v>44496</v>
       </c>
       <c r="G83" s="58">
         <v>1</v>
@@ -11765,18 +11750,18 @@
     </row>
     <row r="84" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A84" s="56" t="str">
-        <f t="shared" si="27"/>
-        <v>4.2.9</v>
-      </c>
-      <c r="B84" s="99" t="s">
-        <v>138</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.2.10</v>
+      </c>
+      <c r="B84" s="132" t="s">
+        <v>170</v>
       </c>
       <c r="D84" s="98"/>
       <c r="E84" s="75">
         <v>44496</v>
       </c>
       <c r="F84" s="76">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>44496</v>
       </c>
       <c r="G84" s="58">
@@ -11848,19 +11833,19 @@
     </row>
     <row r="85" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A85" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.2.10</v>
-      </c>
-      <c r="B85" s="132" t="s">
-        <v>171</v>
+        <f t="shared" si="26"/>
+        <v>4.2.11</v>
+      </c>
+      <c r="B85" s="99" t="s">
+        <v>139</v>
       </c>
       <c r="D85" s="98"/>
       <c r="E85" s="75">
-        <v>44496</v>
+        <v>44497</v>
       </c>
       <c r="F85" s="76">
-        <f t="shared" si="28"/>
-        <v>44496</v>
+        <f t="shared" si="27"/>
+        <v>44497</v>
       </c>
       <c r="G85" s="58">
         <v>1</v>
@@ -11931,18 +11916,18 @@
     </row>
     <row r="86" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A86" s="56" t="str">
-        <f t="shared" si="27"/>
-        <v>4.2.11</v>
-      </c>
-      <c r="B86" s="99" t="s">
-        <v>139</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.2.12</v>
+      </c>
+      <c r="B86" s="132" t="s">
+        <v>170</v>
       </c>
       <c r="D86" s="98"/>
       <c r="E86" s="75">
         <v>44497</v>
       </c>
       <c r="F86" s="76">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="F86" si="30">IF(ISBLANK(E86)," - ",IF(G86=0,E86,E86+G86-1))</f>
         <v>44497</v>
       </c>
       <c r="G86" s="58">
@@ -12012,21 +11997,21 @@
       <c r="BM86" s="79"/>
       <c r="BN86" s="79"/>
     </row>
-    <row r="87" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A87" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.2.12</v>
-      </c>
-      <c r="B87" s="132" t="s">
-        <v>171</v>
+        <f t="shared" si="26"/>
+        <v>4.2.13</v>
+      </c>
+      <c r="B87" s="99" t="s">
+        <v>161</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="75">
-        <v>44497</v>
+        <v>44498</v>
       </c>
       <c r="F87" s="76">
-        <f t="shared" ref="F87" si="31">IF(ISBLANK(E87)," - ",IF(G87=0,E87,E87+G87-1))</f>
-        <v>44497</v>
+        <f t="shared" si="27"/>
+        <v>44498</v>
       </c>
       <c r="G87" s="58">
         <v>1</v>
@@ -12035,7 +12020,8 @@
         <v>0</v>
       </c>
       <c r="I87" s="60">
-        <v>0</v>
+        <f t="shared" ref="I87:I89" si="31">IF(OR(F87=0,E87=0)," - ",NETWORKDAYS(E87,F87))</f>
+        <v>1</v>
       </c>
       <c r="J87" s="73"/>
       <c r="K87" s="79"/>
@@ -12095,20 +12081,20 @@
       <c r="BM87" s="79"/>
       <c r="BN87" s="79"/>
     </row>
-    <row r="88" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A88" s="56" t="str">
-        <f t="shared" si="27"/>
-        <v>4.2.13</v>
-      </c>
-      <c r="B88" s="99" t="s">
-        <v>162</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.2.14</v>
+      </c>
+      <c r="B88" s="132" t="s">
+        <v>170</v>
       </c>
       <c r="D88" s="98"/>
       <c r="E88" s="75">
         <v>44498</v>
       </c>
       <c r="F88" s="76">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>44498</v>
       </c>
       <c r="G88" s="58">
@@ -12118,8 +12104,7 @@
         <v>0</v>
       </c>
       <c r="I88" s="60">
-        <f t="shared" ref="I88:I90" si="32">IF(OR(F88=0,E88=0)," - ",NETWORKDAYS(E88,F88))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" s="73"/>
       <c r="K88" s="79"/>
@@ -12179,21 +12164,21 @@
       <c r="BM88" s="79"/>
       <c r="BN88" s="79"/>
     </row>
-    <row r="89" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A89" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.2.14</v>
-      </c>
-      <c r="B89" s="132" t="s">
-        <v>171</v>
+        <f t="shared" si="26"/>
+        <v>4.2.15</v>
+      </c>
+      <c r="B89" s="99" t="s">
+        <v>162</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="75">
-        <v>44498</v>
+        <v>44499</v>
       </c>
       <c r="F89" s="76">
-        <f t="shared" si="28"/>
-        <v>44498</v>
+        <f t="shared" si="27"/>
+        <v>44499</v>
       </c>
       <c r="G89" s="58">
         <v>1</v>
@@ -12202,6 +12187,7 @@
         <v>0</v>
       </c>
       <c r="I89" s="60">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J89" s="73"/>
@@ -12262,20 +12248,20 @@
       <c r="BM89" s="79"/>
       <c r="BN89" s="79"/>
     </row>
-    <row r="90" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A90" s="56" t="str">
-        <f t="shared" si="27"/>
-        <v>4.2.15</v>
-      </c>
-      <c r="B90" s="99" t="s">
-        <v>163</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.2.16</v>
+      </c>
+      <c r="B90" s="132" t="s">
+        <v>170</v>
       </c>
       <c r="D90" s="98"/>
       <c r="E90" s="75">
         <v>44499</v>
       </c>
       <c r="F90" s="76">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>44499</v>
       </c>
       <c r="G90" s="58">
@@ -12285,7 +12271,6 @@
         <v>0</v>
       </c>
       <c r="I90" s="60">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J90" s="73"/>
@@ -12346,182 +12331,183 @@
       <c r="BM90" s="79"/>
       <c r="BN90" s="79"/>
     </row>
-    <row r="91" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A91" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.2.16</v>
-      </c>
-      <c r="B91" s="132" t="s">
-        <v>171</v>
-      </c>
-      <c r="D91" s="98"/>
-      <c r="E91" s="75">
-        <v>44499</v>
-      </c>
-      <c r="F91" s="76">
-        <f t="shared" si="28"/>
-        <v>44499</v>
-      </c>
-      <c r="G91" s="58">
-        <v>1</v>
-      </c>
-      <c r="H91" s="59">
-        <v>0</v>
-      </c>
-      <c r="I91" s="60">
-        <v>0</v>
-      </c>
-      <c r="J91" s="73"/>
-      <c r="K91" s="79"/>
-      <c r="L91" s="79"/>
-      <c r="M91" s="79"/>
-      <c r="N91" s="79"/>
-      <c r="O91" s="79"/>
-      <c r="P91" s="79"/>
-      <c r="Q91" s="79"/>
-      <c r="R91" s="79"/>
-      <c r="S91" s="79"/>
-      <c r="T91" s="79"/>
-      <c r="U91" s="79"/>
-      <c r="V91" s="79"/>
-      <c r="W91" s="79"/>
-      <c r="X91" s="79"/>
-      <c r="Y91" s="79"/>
-      <c r="Z91" s="79"/>
-      <c r="AA91" s="79"/>
-      <c r="AB91" s="79"/>
-      <c r="AC91" s="79"/>
-      <c r="AD91" s="79"/>
-      <c r="AE91" s="79"/>
-      <c r="AF91" s="79"/>
-      <c r="AG91" s="79"/>
-      <c r="AH91" s="79"/>
-      <c r="AI91" s="79"/>
-      <c r="AJ91" s="79"/>
-      <c r="AK91" s="79"/>
-      <c r="AL91" s="79"/>
-      <c r="AM91" s="79"/>
-      <c r="AN91" s="79"/>
-      <c r="AO91" s="79"/>
-      <c r="AP91" s="79"/>
-      <c r="AQ91" s="79"/>
-      <c r="AR91" s="79"/>
-      <c r="AS91" s="79"/>
-      <c r="AT91" s="79"/>
-      <c r="AU91" s="79"/>
-      <c r="AV91" s="79"/>
-      <c r="AW91" s="79"/>
-      <c r="AX91" s="79"/>
-      <c r="AY91" s="79"/>
-      <c r="AZ91" s="79"/>
-      <c r="BA91" s="79"/>
-      <c r="BB91" s="79"/>
-      <c r="BC91" s="79"/>
-      <c r="BD91" s="79"/>
-      <c r="BE91" s="79"/>
-      <c r="BF91" s="79"/>
-      <c r="BG91" s="79"/>
-      <c r="BH91" s="79"/>
-      <c r="BI91" s="79"/>
-      <c r="BJ91" s="79"/>
-      <c r="BK91" s="79"/>
-      <c r="BL91" s="79"/>
-      <c r="BM91" s="79"/>
-      <c r="BN91" s="79"/>
-    </row>
-    <row r="92" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A92" s="49" t="str">
+    <row r="91" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A91" s="49" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>5</v>
       </c>
-      <c r="B92" s="50" t="s">
-        <v>177</v>
-      </c>
-      <c r="D92" s="52"/>
-      <c r="E92" s="77"/>
-      <c r="F92" s="77" t="str">
-        <f t="shared" ref="F92:F93" si="33">IF(ISBLANK(E92)," - ",IF(G92=0,E92,E92+G92-1))</f>
+      <c r="B91" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="D91" s="52"/>
+      <c r="E91" s="77"/>
+      <c r="F91" s="77" t="str">
+        <f t="shared" ref="F91:F92" si="32">IF(ISBLANK(E91)," - ",IF(G91=0,E91,E91+G91-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G92" s="53"/>
-      <c r="H92" s="54"/>
-      <c r="I92" s="55" t="str">
-        <f t="shared" ref="I92:I93" si="34">IF(OR(F92=0,E92=0)," - ",NETWORKDAYS(E92,F92))</f>
+      <c r="G91" s="53"/>
+      <c r="H91" s="54"/>
+      <c r="I91" s="55" t="str">
+        <f t="shared" ref="I91:I92" si="33">IF(OR(F91=0,E91=0)," - ",NETWORKDAYS(E91,F91))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J92" s="74"/>
-      <c r="K92" s="80"/>
-      <c r="L92" s="80"/>
-      <c r="M92" s="80"/>
-      <c r="N92" s="80"/>
-      <c r="O92" s="80"/>
-      <c r="P92" s="80"/>
-      <c r="Q92" s="80"/>
-      <c r="R92" s="80"/>
-      <c r="S92" s="80"/>
-      <c r="T92" s="80"/>
-      <c r="U92" s="80"/>
-      <c r="V92" s="80"/>
-      <c r="W92" s="80"/>
-      <c r="X92" s="80"/>
-      <c r="Y92" s="80"/>
-      <c r="Z92" s="80"/>
-      <c r="AA92" s="80"/>
-      <c r="AB92" s="80"/>
-      <c r="AC92" s="80"/>
-      <c r="AD92" s="80"/>
-      <c r="AE92" s="80"/>
-      <c r="AF92" s="80"/>
-      <c r="AG92" s="80"/>
-      <c r="AH92" s="80"/>
-      <c r="AI92" s="80"/>
-      <c r="AJ92" s="80"/>
-      <c r="AK92" s="80"/>
-      <c r="AL92" s="80"/>
-      <c r="AM92" s="80"/>
-      <c r="AN92" s="80"/>
-      <c r="AO92" s="80"/>
-      <c r="AP92" s="80"/>
-      <c r="AQ92" s="80"/>
-      <c r="AR92" s="80"/>
-      <c r="AS92" s="80"/>
-      <c r="AT92" s="80"/>
-      <c r="AU92" s="80"/>
-      <c r="AV92" s="80"/>
-      <c r="AW92" s="80"/>
-      <c r="AX92" s="80"/>
-      <c r="AY92" s="80"/>
-      <c r="AZ92" s="80"/>
-      <c r="BA92" s="80"/>
-      <c r="BB92" s="80"/>
-      <c r="BC92" s="80"/>
-      <c r="BD92" s="80"/>
-      <c r="BE92" s="80"/>
-      <c r="BF92" s="80"/>
-      <c r="BG92" s="80"/>
-      <c r="BH92" s="80"/>
-      <c r="BI92" s="80"/>
-      <c r="BJ92" s="80"/>
-      <c r="BK92" s="80"/>
-      <c r="BL92" s="80"/>
-      <c r="BM92" s="80"/>
-      <c r="BN92" s="80"/>
-    </row>
-    <row r="93" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="J91" s="74"/>
+      <c r="K91" s="80"/>
+      <c r="L91" s="80"/>
+      <c r="M91" s="80"/>
+      <c r="N91" s="80"/>
+      <c r="O91" s="80"/>
+      <c r="P91" s="80"/>
+      <c r="Q91" s="80"/>
+      <c r="R91" s="80"/>
+      <c r="S91" s="80"/>
+      <c r="T91" s="80"/>
+      <c r="U91" s="80"/>
+      <c r="V91" s="80"/>
+      <c r="W91" s="80"/>
+      <c r="X91" s="80"/>
+      <c r="Y91" s="80"/>
+      <c r="Z91" s="80"/>
+      <c r="AA91" s="80"/>
+      <c r="AB91" s="80"/>
+      <c r="AC91" s="80"/>
+      <c r="AD91" s="80"/>
+      <c r="AE91" s="80"/>
+      <c r="AF91" s="80"/>
+      <c r="AG91" s="80"/>
+      <c r="AH91" s="80"/>
+      <c r="AI91" s="80"/>
+      <c r="AJ91" s="80"/>
+      <c r="AK91" s="80"/>
+      <c r="AL91" s="80"/>
+      <c r="AM91" s="80"/>
+      <c r="AN91" s="80"/>
+      <c r="AO91" s="80"/>
+      <c r="AP91" s="80"/>
+      <c r="AQ91" s="80"/>
+      <c r="AR91" s="80"/>
+      <c r="AS91" s="80"/>
+      <c r="AT91" s="80"/>
+      <c r="AU91" s="80"/>
+      <c r="AV91" s="80"/>
+      <c r="AW91" s="80"/>
+      <c r="AX91" s="80"/>
+      <c r="AY91" s="80"/>
+      <c r="AZ91" s="80"/>
+      <c r="BA91" s="80"/>
+      <c r="BB91" s="80"/>
+      <c r="BC91" s="80"/>
+      <c r="BD91" s="80"/>
+      <c r="BE91" s="80"/>
+      <c r="BF91" s="80"/>
+      <c r="BG91" s="80"/>
+      <c r="BH91" s="80"/>
+      <c r="BI91" s="80"/>
+      <c r="BJ91" s="80"/>
+      <c r="BK91" s="80"/>
+      <c r="BL91" s="80"/>
+      <c r="BM91" s="80"/>
+      <c r="BN91" s="80"/>
+    </row>
+    <row r="92" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A92" s="56" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>5.1</v>
+      </c>
+      <c r="B92" s="97" t="s">
+        <v>147</v>
+      </c>
+      <c r="D92" s="98"/>
+      <c r="E92" s="75">
+        <v>44500</v>
+      </c>
+      <c r="F92" s="76">
+        <f t="shared" si="32"/>
+        <v>44501</v>
+      </c>
+      <c r="G92" s="58">
+        <v>2</v>
+      </c>
+      <c r="H92" s="59">
+        <v>0</v>
+      </c>
+      <c r="I92" s="60">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="J92" s="73"/>
+      <c r="K92" s="79"/>
+      <c r="L92" s="79"/>
+      <c r="M92" s="79"/>
+      <c r="N92" s="79"/>
+      <c r="O92" s="79"/>
+      <c r="P92" s="79"/>
+      <c r="Q92" s="79"/>
+      <c r="R92" s="79"/>
+      <c r="S92" s="79"/>
+      <c r="T92" s="79"/>
+      <c r="U92" s="79"/>
+      <c r="V92" s="79"/>
+      <c r="W92" s="79"/>
+      <c r="X92" s="79"/>
+      <c r="Y92" s="79"/>
+      <c r="Z92" s="79"/>
+      <c r="AA92" s="79"/>
+      <c r="AB92" s="79"/>
+      <c r="AC92" s="79"/>
+      <c r="AD92" s="79"/>
+      <c r="AE92" s="79"/>
+      <c r="AF92" s="79"/>
+      <c r="AG92" s="79"/>
+      <c r="AH92" s="79"/>
+      <c r="AI92" s="79"/>
+      <c r="AJ92" s="79"/>
+      <c r="AK92" s="79"/>
+      <c r="AL92" s="79"/>
+      <c r="AM92" s="79"/>
+      <c r="AN92" s="79"/>
+      <c r="AO92" s="79"/>
+      <c r="AP92" s="79"/>
+      <c r="AQ92" s="79"/>
+      <c r="AR92" s="79"/>
+      <c r="AS92" s="79"/>
+      <c r="AT92" s="79"/>
+      <c r="AU92" s="79"/>
+      <c r="AV92" s="79"/>
+      <c r="AW92" s="79"/>
+      <c r="AX92" s="79"/>
+      <c r="AY92" s="79"/>
+      <c r="AZ92" s="79"/>
+      <c r="BA92" s="79"/>
+      <c r="BB92" s="79"/>
+      <c r="BC92" s="79"/>
+      <c r="BD92" s="79"/>
+      <c r="BE92" s="79"/>
+      <c r="BF92" s="79"/>
+      <c r="BG92" s="79"/>
+      <c r="BH92" s="79"/>
+      <c r="BI92" s="79"/>
+      <c r="BJ92" s="79"/>
+      <c r="BK92" s="79"/>
+      <c r="BL92" s="79"/>
+      <c r="BM92" s="79"/>
+      <c r="BN92" s="79"/>
+    </row>
+    <row r="93" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A93" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="B93" s="97" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D93" s="98"/>
       <c r="E93" s="75">
-        <v>44500</v>
+        <v>44501</v>
       </c>
       <c r="F93" s="76">
-        <f t="shared" si="33"/>
-        <v>44501</v>
+        <f t="shared" ref="F93" si="34">IF(ISBLANK(E93)," - ",IF(G93=0,E93,E93+G93-1))</f>
+        <v>44502</v>
       </c>
       <c r="G93" s="58">
         <v>2</v>
@@ -12530,8 +12516,8 @@
         <v>0</v>
       </c>
       <c r="I93" s="60">
-        <f t="shared" si="34"/>
-        <v>1</v>
+        <f t="shared" ref="I93" si="35">IF(OR(F93=0,E93=0)," - ",NETWORKDAYS(E93,F93))</f>
+        <v>2</v>
       </c>
       <c r="J93" s="73"/>
       <c r="K93" s="79"/>
@@ -12591,21 +12577,21 @@
       <c r="BM93" s="79"/>
       <c r="BN93" s="79"/>
     </row>
-    <row r="94" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A94" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="B94" s="97" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D94" s="98"/>
       <c r="E94" s="75">
-        <v>44501</v>
+        <v>44502</v>
       </c>
       <c r="F94" s="76">
-        <f t="shared" ref="F94" si="35">IF(ISBLANK(E94)," - ",IF(G94=0,E94,E94+G94-1))</f>
-        <v>44502</v>
+        <f t="shared" ref="F94:F95" si="36">IF(ISBLANK(E94)," - ",IF(G94=0,E94,E94+G94-1))</f>
+        <v>44503</v>
       </c>
       <c r="G94" s="58">
         <v>2</v>
@@ -12614,7 +12600,7 @@
         <v>0</v>
       </c>
       <c r="I94" s="60">
-        <f t="shared" ref="I94" si="36">IF(OR(F94=0,E94=0)," - ",NETWORKDAYS(E94,F94))</f>
+        <f t="shared" ref="I94:I95" si="37">IF(OR(F94=0,E94=0)," - ",NETWORKDAYS(E94,F94))</f>
         <v>2</v>
       </c>
       <c r="J94" s="73"/>
@@ -12675,183 +12661,183 @@
       <c r="BM94" s="79"/>
       <c r="BN94" s="79"/>
     </row>
-    <row r="95" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A95" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.3</v>
-      </c>
-      <c r="B95" s="97" t="s">
-        <v>149</v>
-      </c>
-      <c r="D95" s="98"/>
-      <c r="E95" s="75">
-        <v>44502</v>
-      </c>
-      <c r="F95" s="76">
-        <f t="shared" ref="F95:F96" si="37">IF(ISBLANK(E95)," - ",IF(G95=0,E95,E95+G95-1))</f>
-        <v>44503</v>
-      </c>
-      <c r="G95" s="58">
-        <v>2</v>
-      </c>
-      <c r="H95" s="59">
-        <v>0</v>
-      </c>
-      <c r="I95" s="60">
-        <f t="shared" ref="I95:I96" si="38">IF(OR(F95=0,E95=0)," - ",NETWORKDAYS(E95,F95))</f>
-        <v>2</v>
-      </c>
-      <c r="J95" s="73"/>
-      <c r="K95" s="79"/>
-      <c r="L95" s="79"/>
-      <c r="M95" s="79"/>
-      <c r="N95" s="79"/>
-      <c r="O95" s="79"/>
-      <c r="P95" s="79"/>
-      <c r="Q95" s="79"/>
-      <c r="R95" s="79"/>
-      <c r="S95" s="79"/>
-      <c r="T95" s="79"/>
-      <c r="U95" s="79"/>
-      <c r="V95" s="79"/>
-      <c r="W95" s="79"/>
-      <c r="X95" s="79"/>
-      <c r="Y95" s="79"/>
-      <c r="Z95" s="79"/>
-      <c r="AA95" s="79"/>
-      <c r="AB95" s="79"/>
-      <c r="AC95" s="79"/>
-      <c r="AD95" s="79"/>
-      <c r="AE95" s="79"/>
-      <c r="AF95" s="79"/>
-      <c r="AG95" s="79"/>
-      <c r="AH95" s="79"/>
-      <c r="AI95" s="79"/>
-      <c r="AJ95" s="79"/>
-      <c r="AK95" s="79"/>
-      <c r="AL95" s="79"/>
-      <c r="AM95" s="79"/>
-      <c r="AN95" s="79"/>
-      <c r="AO95" s="79"/>
-      <c r="AP95" s="79"/>
-      <c r="AQ95" s="79"/>
-      <c r="AR95" s="79"/>
-      <c r="AS95" s="79"/>
-      <c r="AT95" s="79"/>
-      <c r="AU95" s="79"/>
-      <c r="AV95" s="79"/>
-      <c r="AW95" s="79"/>
-      <c r="AX95" s="79"/>
-      <c r="AY95" s="79"/>
-      <c r="AZ95" s="79"/>
-      <c r="BA95" s="79"/>
-      <c r="BB95" s="79"/>
-      <c r="BC95" s="79"/>
-      <c r="BD95" s="79"/>
-      <c r="BE95" s="79"/>
-      <c r="BF95" s="79"/>
-      <c r="BG95" s="79"/>
-      <c r="BH95" s="79"/>
-      <c r="BI95" s="79"/>
-      <c r="BJ95" s="79"/>
-      <c r="BK95" s="79"/>
-      <c r="BL95" s="79"/>
-      <c r="BM95" s="79"/>
-      <c r="BN95" s="79"/>
-    </row>
-    <row r="96" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A96" s="49" t="str">
+    <row r="95" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A95" s="49" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>6</v>
       </c>
-      <c r="B96" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="D96" s="52"/>
-      <c r="E96" s="77"/>
-      <c r="F96" s="77" t="str">
+      <c r="B95" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="D95" s="52"/>
+      <c r="E95" s="77"/>
+      <c r="F95" s="77" t="str">
+        <f t="shared" si="36"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G95" s="53"/>
+      <c r="H95" s="54"/>
+      <c r="I95" s="55" t="str">
         <f t="shared" si="37"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G96" s="53"/>
-      <c r="H96" s="54"/>
-      <c r="I96" s="55" t="str">
-        <f t="shared" si="38"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J96" s="74"/>
-      <c r="K96" s="80"/>
-      <c r="L96" s="80"/>
-      <c r="M96" s="80"/>
-      <c r="N96" s="80"/>
-      <c r="O96" s="80"/>
-      <c r="P96" s="80"/>
-      <c r="Q96" s="80"/>
-      <c r="R96" s="80"/>
-      <c r="S96" s="80"/>
-      <c r="T96" s="80"/>
-      <c r="U96" s="80"/>
-      <c r="V96" s="80"/>
-      <c r="W96" s="80"/>
-      <c r="X96" s="80"/>
-      <c r="Y96" s="80"/>
-      <c r="Z96" s="80"/>
-      <c r="AA96" s="80"/>
-      <c r="AB96" s="80"/>
-      <c r="AC96" s="80"/>
-      <c r="AD96" s="80"/>
-      <c r="AE96" s="80"/>
-      <c r="AF96" s="80"/>
-      <c r="AG96" s="80"/>
-      <c r="AH96" s="80"/>
-      <c r="AI96" s="80"/>
-      <c r="AJ96" s="80"/>
-      <c r="AK96" s="80"/>
-      <c r="AL96" s="80"/>
-      <c r="AM96" s="80"/>
-      <c r="AN96" s="80"/>
-      <c r="AO96" s="80"/>
-      <c r="AP96" s="80"/>
-      <c r="AQ96" s="80"/>
-      <c r="AR96" s="80"/>
-      <c r="AS96" s="80"/>
-      <c r="AT96" s="80"/>
-      <c r="AU96" s="80"/>
-      <c r="AV96" s="80"/>
-      <c r="AW96" s="80"/>
-      <c r="AX96" s="80"/>
-      <c r="AY96" s="80"/>
-      <c r="AZ96" s="80"/>
-      <c r="BA96" s="80"/>
-      <c r="BB96" s="80"/>
-      <c r="BC96" s="80"/>
-      <c r="BD96" s="80"/>
-      <c r="BE96" s="80"/>
-      <c r="BF96" s="80"/>
-      <c r="BG96" s="80"/>
-      <c r="BH96" s="80"/>
-      <c r="BI96" s="80"/>
-      <c r="BJ96" s="80"/>
-      <c r="BK96" s="80"/>
-      <c r="BL96" s="80"/>
-      <c r="BM96" s="80"/>
-      <c r="BN96" s="80"/>
-    </row>
-    <row r="97" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="J95" s="74"/>
+      <c r="K95" s="80"/>
+      <c r="L95" s="80"/>
+      <c r="M95" s="80"/>
+      <c r="N95" s="80"/>
+      <c r="O95" s="80"/>
+      <c r="P95" s="80"/>
+      <c r="Q95" s="80"/>
+      <c r="R95" s="80"/>
+      <c r="S95" s="80"/>
+      <c r="T95" s="80"/>
+      <c r="U95" s="80"/>
+      <c r="V95" s="80"/>
+      <c r="W95" s="80"/>
+      <c r="X95" s="80"/>
+      <c r="Y95" s="80"/>
+      <c r="Z95" s="80"/>
+      <c r="AA95" s="80"/>
+      <c r="AB95" s="80"/>
+      <c r="AC95" s="80"/>
+      <c r="AD95" s="80"/>
+      <c r="AE95" s="80"/>
+      <c r="AF95" s="80"/>
+      <c r="AG95" s="80"/>
+      <c r="AH95" s="80"/>
+      <c r="AI95" s="80"/>
+      <c r="AJ95" s="80"/>
+      <c r="AK95" s="80"/>
+      <c r="AL95" s="80"/>
+      <c r="AM95" s="80"/>
+      <c r="AN95" s="80"/>
+      <c r="AO95" s="80"/>
+      <c r="AP95" s="80"/>
+      <c r="AQ95" s="80"/>
+      <c r="AR95" s="80"/>
+      <c r="AS95" s="80"/>
+      <c r="AT95" s="80"/>
+      <c r="AU95" s="80"/>
+      <c r="AV95" s="80"/>
+      <c r="AW95" s="80"/>
+      <c r="AX95" s="80"/>
+      <c r="AY95" s="80"/>
+      <c r="AZ95" s="80"/>
+      <c r="BA95" s="80"/>
+      <c r="BB95" s="80"/>
+      <c r="BC95" s="80"/>
+      <c r="BD95" s="80"/>
+      <c r="BE95" s="80"/>
+      <c r="BF95" s="80"/>
+      <c r="BG95" s="80"/>
+      <c r="BH95" s="80"/>
+      <c r="BI95" s="80"/>
+      <c r="BJ95" s="80"/>
+      <c r="BK95" s="80"/>
+      <c r="BL95" s="80"/>
+      <c r="BM95" s="80"/>
+      <c r="BN95" s="80"/>
+    </row>
+    <row r="96" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A96" s="56" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>6.1</v>
+      </c>
+      <c r="B96" s="97" t="s">
+        <v>150</v>
+      </c>
+      <c r="D96" s="98"/>
+      <c r="E96" s="75">
+        <v>44503</v>
+      </c>
+      <c r="F96" s="76">
+        <f t="shared" ref="F96" si="38">IF(ISBLANK(E96)," - ",IF(G96=0,E96,E96+G96-1))</f>
+        <v>44505</v>
+      </c>
+      <c r="G96" s="58">
+        <v>3</v>
+      </c>
+      <c r="H96" s="59">
+        <v>0</v>
+      </c>
+      <c r="I96" s="60">
+        <f t="shared" ref="I96" si="39">IF(OR(F96=0,E96=0)," - ",NETWORKDAYS(E96,F96))</f>
+        <v>3</v>
+      </c>
+      <c r="J96" s="73"/>
+      <c r="K96" s="79"/>
+      <c r="L96" s="79"/>
+      <c r="M96" s="79"/>
+      <c r="N96" s="79"/>
+      <c r="O96" s="79"/>
+      <c r="P96" s="79"/>
+      <c r="Q96" s="79"/>
+      <c r="R96" s="79"/>
+      <c r="S96" s="79"/>
+      <c r="T96" s="79"/>
+      <c r="U96" s="79"/>
+      <c r="V96" s="79"/>
+      <c r="W96" s="79"/>
+      <c r="X96" s="79"/>
+      <c r="Y96" s="79"/>
+      <c r="Z96" s="79"/>
+      <c r="AA96" s="79"/>
+      <c r="AB96" s="79"/>
+      <c r="AC96" s="79"/>
+      <c r="AD96" s="79"/>
+      <c r="AE96" s="79"/>
+      <c r="AF96" s="79"/>
+      <c r="AG96" s="79"/>
+      <c r="AH96" s="79"/>
+      <c r="AI96" s="79"/>
+      <c r="AJ96" s="79"/>
+      <c r="AK96" s="79"/>
+      <c r="AL96" s="79"/>
+      <c r="AM96" s="79"/>
+      <c r="AN96" s="79"/>
+      <c r="AO96" s="79"/>
+      <c r="AP96" s="79"/>
+      <c r="AQ96" s="79"/>
+      <c r="AR96" s="79"/>
+      <c r="AS96" s="79"/>
+      <c r="AT96" s="79"/>
+      <c r="AU96" s="79"/>
+      <c r="AV96" s="79"/>
+      <c r="AW96" s="79"/>
+      <c r="AX96" s="79"/>
+      <c r="AY96" s="79"/>
+      <c r="AZ96" s="79"/>
+      <c r="BA96" s="79"/>
+      <c r="BB96" s="79"/>
+      <c r="BC96" s="79"/>
+      <c r="BD96" s="79"/>
+      <c r="BE96" s="79"/>
+      <c r="BF96" s="79"/>
+      <c r="BG96" s="79"/>
+      <c r="BH96" s="79"/>
+      <c r="BI96" s="79"/>
+      <c r="BJ96" s="79"/>
+      <c r="BK96" s="79"/>
+      <c r="BL96" s="79"/>
+      <c r="BM96" s="79"/>
+      <c r="BN96" s="79"/>
+    </row>
+    <row r="97" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A97" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="B97" s="97" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D97" s="98"/>
       <c r="E97" s="75">
-        <v>44503</v>
+        <v>44505</v>
       </c>
       <c r="F97" s="76">
-        <f t="shared" ref="F97" si="39">IF(ISBLANK(E97)," - ",IF(G97=0,E97,E97+G97-1))</f>
-        <v>44505</v>
+        <f t="shared" ref="F97:F101" si="40">IF(ISBLANK(E97)," - ",IF(G97=0,E97,E97+G97-1))</f>
+        <v>44507</v>
       </c>
       <c r="G97" s="58">
         <v>3</v>
@@ -12860,8 +12846,8 @@
         <v>0</v>
       </c>
       <c r="I97" s="60">
-        <f t="shared" ref="I97" si="40">IF(OR(F97=0,E97=0)," - ",NETWORKDAYS(E97,F97))</f>
-        <v>3</v>
+        <f t="shared" ref="I97:I101" si="41">IF(OR(F97=0,E97=0)," - ",NETWORKDAYS(E97,F97))</f>
+        <v>1</v>
       </c>
       <c r="J97" s="73"/>
       <c r="K97" s="79"/>
@@ -12921,183 +12907,183 @@
       <c r="BM97" s="79"/>
       <c r="BN97" s="79"/>
     </row>
-    <row r="98" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A98" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>6.2</v>
-      </c>
-      <c r="B98" s="97" t="s">
-        <v>151</v>
-      </c>
-      <c r="D98" s="98"/>
-      <c r="E98" s="75">
-        <v>44505</v>
-      </c>
-      <c r="F98" s="76">
-        <f t="shared" ref="F98:F102" si="41">IF(ISBLANK(E98)," - ",IF(G98=0,E98,E98+G98-1))</f>
-        <v>44507</v>
-      </c>
-      <c r="G98" s="58">
-        <v>3</v>
-      </c>
-      <c r="H98" s="59">
-        <v>0</v>
-      </c>
-      <c r="I98" s="60">
-        <f t="shared" ref="I98:I102" si="42">IF(OR(F98=0,E98=0)," - ",NETWORKDAYS(E98,F98))</f>
-        <v>1</v>
-      </c>
-      <c r="J98" s="73"/>
-      <c r="K98" s="79"/>
-      <c r="L98" s="79"/>
-      <c r="M98" s="79"/>
-      <c r="N98" s="79"/>
-      <c r="O98" s="79"/>
-      <c r="P98" s="79"/>
-      <c r="Q98" s="79"/>
-      <c r="R98" s="79"/>
-      <c r="S98" s="79"/>
-      <c r="T98" s="79"/>
-      <c r="U98" s="79"/>
-      <c r="V98" s="79"/>
-      <c r="W98" s="79"/>
-      <c r="X98" s="79"/>
-      <c r="Y98" s="79"/>
-      <c r="Z98" s="79"/>
-      <c r="AA98" s="79"/>
-      <c r="AB98" s="79"/>
-      <c r="AC98" s="79"/>
-      <c r="AD98" s="79"/>
-      <c r="AE98" s="79"/>
-      <c r="AF98" s="79"/>
-      <c r="AG98" s="79"/>
-      <c r="AH98" s="79"/>
-      <c r="AI98" s="79"/>
-      <c r="AJ98" s="79"/>
-      <c r="AK98" s="79"/>
-      <c r="AL98" s="79"/>
-      <c r="AM98" s="79"/>
-      <c r="AN98" s="79"/>
-      <c r="AO98" s="79"/>
-      <c r="AP98" s="79"/>
-      <c r="AQ98" s="79"/>
-      <c r="AR98" s="79"/>
-      <c r="AS98" s="79"/>
-      <c r="AT98" s="79"/>
-      <c r="AU98" s="79"/>
-      <c r="AV98" s="79"/>
-      <c r="AW98" s="79"/>
-      <c r="AX98" s="79"/>
-      <c r="AY98" s="79"/>
-      <c r="AZ98" s="79"/>
-      <c r="BA98" s="79"/>
-      <c r="BB98" s="79"/>
-      <c r="BC98" s="79"/>
-      <c r="BD98" s="79"/>
-      <c r="BE98" s="79"/>
-      <c r="BF98" s="79"/>
-      <c r="BG98" s="79"/>
-      <c r="BH98" s="79"/>
-      <c r="BI98" s="79"/>
-      <c r="BJ98" s="79"/>
-      <c r="BK98" s="79"/>
-      <c r="BL98" s="79"/>
-      <c r="BM98" s="79"/>
-      <c r="BN98" s="79"/>
-    </row>
-    <row r="99" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A99" s="49" t="str">
+    <row r="98" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A98" s="49" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>7</v>
       </c>
-      <c r="B99" s="50" t="s">
-        <v>170</v>
-      </c>
-      <c r="D99" s="52"/>
-      <c r="E99" s="77"/>
-      <c r="F99" s="77" t="str">
+      <c r="B98" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="D98" s="52"/>
+      <c r="E98" s="77"/>
+      <c r="F98" s="77" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G98" s="53"/>
+      <c r="H98" s="54"/>
+      <c r="I98" s="55" t="str">
         <f t="shared" si="41"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G99" s="53"/>
-      <c r="H99" s="54"/>
-      <c r="I99" s="55" t="str">
-        <f t="shared" si="42"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J99" s="74"/>
-      <c r="K99" s="80"/>
-      <c r="L99" s="80"/>
-      <c r="M99" s="80"/>
-      <c r="N99" s="80"/>
-      <c r="O99" s="80"/>
-      <c r="P99" s="80"/>
-      <c r="Q99" s="80"/>
-      <c r="R99" s="80"/>
-      <c r="S99" s="80"/>
-      <c r="T99" s="80"/>
-      <c r="U99" s="80"/>
-      <c r="V99" s="80"/>
-      <c r="W99" s="80"/>
-      <c r="X99" s="80"/>
-      <c r="Y99" s="80"/>
-      <c r="Z99" s="80"/>
-      <c r="AA99" s="80"/>
-      <c r="AB99" s="80"/>
-      <c r="AC99" s="80"/>
-      <c r="AD99" s="80"/>
-      <c r="AE99" s="80"/>
-      <c r="AF99" s="80"/>
-      <c r="AG99" s="80"/>
-      <c r="AH99" s="80"/>
-      <c r="AI99" s="80"/>
-      <c r="AJ99" s="80"/>
-      <c r="AK99" s="80"/>
-      <c r="AL99" s="80"/>
-      <c r="AM99" s="80"/>
-      <c r="AN99" s="80"/>
-      <c r="AO99" s="80"/>
-      <c r="AP99" s="80"/>
-      <c r="AQ99" s="80"/>
-      <c r="AR99" s="80"/>
-      <c r="AS99" s="80"/>
-      <c r="AT99" s="80"/>
-      <c r="AU99" s="80"/>
-      <c r="AV99" s="80"/>
-      <c r="AW99" s="80"/>
-      <c r="AX99" s="80"/>
-      <c r="AY99" s="80"/>
-      <c r="AZ99" s="80"/>
-      <c r="BA99" s="80"/>
-      <c r="BB99" s="80"/>
-      <c r="BC99" s="80"/>
-      <c r="BD99" s="80"/>
-      <c r="BE99" s="80"/>
-      <c r="BF99" s="80"/>
-      <c r="BG99" s="80"/>
-      <c r="BH99" s="80"/>
-      <c r="BI99" s="80"/>
-      <c r="BJ99" s="80"/>
-      <c r="BK99" s="80"/>
-      <c r="BL99" s="80"/>
-      <c r="BM99" s="80"/>
-      <c r="BN99" s="80"/>
+      <c r="J98" s="74"/>
+      <c r="K98" s="80"/>
+      <c r="L98" s="80"/>
+      <c r="M98" s="80"/>
+      <c r="N98" s="80"/>
+      <c r="O98" s="80"/>
+      <c r="P98" s="80"/>
+      <c r="Q98" s="80"/>
+      <c r="R98" s="80"/>
+      <c r="S98" s="80"/>
+      <c r="T98" s="80"/>
+      <c r="U98" s="80"/>
+      <c r="V98" s="80"/>
+      <c r="W98" s="80"/>
+      <c r="X98" s="80"/>
+      <c r="Y98" s="80"/>
+      <c r="Z98" s="80"/>
+      <c r="AA98" s="80"/>
+      <c r="AB98" s="80"/>
+      <c r="AC98" s="80"/>
+      <c r="AD98" s="80"/>
+      <c r="AE98" s="80"/>
+      <c r="AF98" s="80"/>
+      <c r="AG98" s="80"/>
+      <c r="AH98" s="80"/>
+      <c r="AI98" s="80"/>
+      <c r="AJ98" s="80"/>
+      <c r="AK98" s="80"/>
+      <c r="AL98" s="80"/>
+      <c r="AM98" s="80"/>
+      <c r="AN98" s="80"/>
+      <c r="AO98" s="80"/>
+      <c r="AP98" s="80"/>
+      <c r="AQ98" s="80"/>
+      <c r="AR98" s="80"/>
+      <c r="AS98" s="80"/>
+      <c r="AT98" s="80"/>
+      <c r="AU98" s="80"/>
+      <c r="AV98" s="80"/>
+      <c r="AW98" s="80"/>
+      <c r="AX98" s="80"/>
+      <c r="AY98" s="80"/>
+      <c r="AZ98" s="80"/>
+      <c r="BA98" s="80"/>
+      <c r="BB98" s="80"/>
+      <c r="BC98" s="80"/>
+      <c r="BD98" s="80"/>
+      <c r="BE98" s="80"/>
+      <c r="BF98" s="80"/>
+      <c r="BG98" s="80"/>
+      <c r="BH98" s="80"/>
+      <c r="BI98" s="80"/>
+      <c r="BJ98" s="80"/>
+      <c r="BK98" s="80"/>
+      <c r="BL98" s="80"/>
+      <c r="BM98" s="80"/>
+      <c r="BN98" s="80"/>
+    </row>
+    <row r="99" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A99" s="56" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>7.1</v>
+      </c>
+      <c r="B99" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" s="98"/>
+      <c r="E99" s="75">
+        <v>43131</v>
+      </c>
+      <c r="F99" s="76">
+        <f t="shared" si="40"/>
+        <v>43131</v>
+      </c>
+      <c r="G99" s="58">
+        <v>1</v>
+      </c>
+      <c r="H99" s="59">
+        <v>0</v>
+      </c>
+      <c r="I99" s="60">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+      <c r="J99" s="73"/>
+      <c r="K99" s="79"/>
+      <c r="L99" s="79"/>
+      <c r="M99" s="79"/>
+      <c r="N99" s="79"/>
+      <c r="O99" s="79"/>
+      <c r="P99" s="79"/>
+      <c r="Q99" s="79"/>
+      <c r="R99" s="79"/>
+      <c r="S99" s="79"/>
+      <c r="T99" s="79"/>
+      <c r="U99" s="79"/>
+      <c r="V99" s="79"/>
+      <c r="W99" s="79"/>
+      <c r="X99" s="79"/>
+      <c r="Y99" s="79"/>
+      <c r="Z99" s="79"/>
+      <c r="AA99" s="79"/>
+      <c r="AB99" s="79"/>
+      <c r="AC99" s="79"/>
+      <c r="AD99" s="79"/>
+      <c r="AE99" s="79"/>
+      <c r="AF99" s="79"/>
+      <c r="AG99" s="79"/>
+      <c r="AH99" s="79"/>
+      <c r="AI99" s="79"/>
+      <c r="AJ99" s="79"/>
+      <c r="AK99" s="79"/>
+      <c r="AL99" s="79"/>
+      <c r="AM99" s="79"/>
+      <c r="AN99" s="79"/>
+      <c r="AO99" s="79"/>
+      <c r="AP99" s="79"/>
+      <c r="AQ99" s="79"/>
+      <c r="AR99" s="79"/>
+      <c r="AS99" s="79"/>
+      <c r="AT99" s="79"/>
+      <c r="AU99" s="79"/>
+      <c r="AV99" s="79"/>
+      <c r="AW99" s="79"/>
+      <c r="AX99" s="79"/>
+      <c r="AY99" s="79"/>
+      <c r="AZ99" s="79"/>
+      <c r="BA99" s="79"/>
+      <c r="BB99" s="79"/>
+      <c r="BC99" s="79"/>
+      <c r="BD99" s="79"/>
+      <c r="BE99" s="79"/>
+      <c r="BF99" s="79"/>
+      <c r="BG99" s="79"/>
+      <c r="BH99" s="79"/>
+      <c r="BI99" s="79"/>
+      <c r="BJ99" s="79"/>
+      <c r="BK99" s="79"/>
+      <c r="BL99" s="79"/>
+      <c r="BM99" s="79"/>
+      <c r="BN99" s="79"/>
     </row>
     <row r="100" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A100" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="B100" s="97" t="s">
         <v>7</v>
       </c>
       <c r="D100" s="98"/>
       <c r="E100" s="75">
-        <v>43131</v>
+        <v>43132</v>
       </c>
       <c r="F100" s="76">
-        <f t="shared" si="41"/>
-        <v>43131</v>
+        <f t="shared" si="40"/>
+        <v>43132</v>
       </c>
       <c r="G100" s="58">
         <v>1</v>
@@ -13106,7 +13092,7 @@
         <v>0</v>
       </c>
       <c r="I100" s="60">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="J100" s="73"/>
@@ -13170,18 +13156,18 @@
     <row r="101" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A101" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="B101" s="97" t="s">
         <v>7</v>
       </c>
       <c r="D101" s="98"/>
       <c r="E101" s="75">
-        <v>43132</v>
+        <v>43133</v>
       </c>
       <c r="F101" s="76">
-        <f t="shared" si="41"/>
-        <v>43132</v>
+        <f t="shared" si="40"/>
+        <v>43133</v>
       </c>
       <c r="G101" s="58">
         <v>1</v>
@@ -13190,7 +13176,7 @@
         <v>0</v>
       </c>
       <c r="I101" s="60">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="J101" s="73"/>
@@ -13251,102 +13237,9 @@
       <c r="BM101" s="79"/>
       <c r="BN101" s="79"/>
     </row>
-    <row r="102" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A102" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>7.3</v>
-      </c>
-      <c r="B102" s="97" t="s">
-        <v>7</v>
-      </c>
-      <c r="D102" s="98"/>
-      <c r="E102" s="75">
-        <v>43133</v>
-      </c>
-      <c r="F102" s="76">
-        <f t="shared" si="41"/>
-        <v>43133</v>
-      </c>
-      <c r="G102" s="58">
-        <v>1</v>
-      </c>
-      <c r="H102" s="59">
-        <v>0</v>
-      </c>
-      <c r="I102" s="60">
-        <f t="shared" si="42"/>
-        <v>1</v>
-      </c>
-      <c r="J102" s="73"/>
-      <c r="K102" s="79"/>
-      <c r="L102" s="79"/>
-      <c r="M102" s="79"/>
-      <c r="N102" s="79"/>
-      <c r="O102" s="79"/>
-      <c r="P102" s="79"/>
-      <c r="Q102" s="79"/>
-      <c r="R102" s="79"/>
-      <c r="S102" s="79"/>
-      <c r="T102" s="79"/>
-      <c r="U102" s="79"/>
-      <c r="V102" s="79"/>
-      <c r="W102" s="79"/>
-      <c r="X102" s="79"/>
-      <c r="Y102" s="79"/>
-      <c r="Z102" s="79"/>
-      <c r="AA102" s="79"/>
-      <c r="AB102" s="79"/>
-      <c r="AC102" s="79"/>
-      <c r="AD102" s="79"/>
-      <c r="AE102" s="79"/>
-      <c r="AF102" s="79"/>
-      <c r="AG102" s="79"/>
-      <c r="AH102" s="79"/>
-      <c r="AI102" s="79"/>
-      <c r="AJ102" s="79"/>
-      <c r="AK102" s="79"/>
-      <c r="AL102" s="79"/>
-      <c r="AM102" s="79"/>
-      <c r="AN102" s="79"/>
-      <c r="AO102" s="79"/>
-      <c r="AP102" s="79"/>
-      <c r="AQ102" s="79"/>
-      <c r="AR102" s="79"/>
-      <c r="AS102" s="79"/>
-      <c r="AT102" s="79"/>
-      <c r="AU102" s="79"/>
-      <c r="AV102" s="79"/>
-      <c r="AW102" s="79"/>
-      <c r="AX102" s="79"/>
-      <c r="AY102" s="79"/>
-      <c r="AZ102" s="79"/>
-      <c r="BA102" s="79"/>
-      <c r="BB102" s="79"/>
-      <c r="BC102" s="79"/>
-      <c r="BD102" s="79"/>
-      <c r="BE102" s="79"/>
-      <c r="BF102" s="79"/>
-      <c r="BG102" s="79"/>
-      <c r="BH102" s="79"/>
-      <c r="BI102" s="79"/>
-      <c r="BJ102" s="79"/>
-      <c r="BK102" s="79"/>
-      <c r="BL102" s="79"/>
-      <c r="BM102" s="79"/>
-      <c r="BN102" s="79"/>
-    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -13357,9 +13250,18 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H8:H9 H41 H50 H20:H21 H60 H63 H73:H75 H31:H32">
+  <conditionalFormatting sqref="H8:H9 H41 H50 H20:H21 H59 H62 H72:H74 H31:H32">
     <cfRule type="dataBar" priority="348">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13374,24 +13276,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:BN7">
-    <cfRule type="expression" dxfId="86" priority="391">
+    <cfRule type="expression" dxfId="85" priority="391">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN9 K15:BN102">
-    <cfRule type="expression" dxfId="85" priority="394">
+  <conditionalFormatting sqref="K8:BN9 K15:BN101">
+    <cfRule type="expression" dxfId="84" priority="394">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="395">
+    <cfRule type="expression" dxfId="83" priority="395">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN9 K41:BN41 K50:BN50 K20:BN21 K60:BN60 K63:BN63 K73:BN75 K31:BN32">
-    <cfRule type="expression" dxfId="83" priority="354">
+  <conditionalFormatting sqref="K6:BN9 K41:BN41 K50:BN50 K20:BN21 K59:BN59 K62:BN62 K72:BN74 K31:BN32">
+    <cfRule type="expression" dxfId="82" priority="354">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H92">
+  <conditionalFormatting sqref="H91">
     <cfRule type="dataBar" priority="343">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13405,12 +13307,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K92:BN92">
-    <cfRule type="expression" dxfId="82" priority="344">
+  <conditionalFormatting sqref="K91:BN91">
+    <cfRule type="expression" dxfId="81" priority="344">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H93">
+  <conditionalFormatting sqref="H92">
     <cfRule type="dataBar" priority="339">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13424,12 +13326,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K93:BN93">
-    <cfRule type="expression" dxfId="81" priority="340">
+  <conditionalFormatting sqref="K92:BN92">
+    <cfRule type="expression" dxfId="80" priority="340">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H94">
+  <conditionalFormatting sqref="H93">
     <cfRule type="dataBar" priority="335">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13443,12 +13345,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K94:BN94">
-    <cfRule type="expression" dxfId="80" priority="336">
+  <conditionalFormatting sqref="K93:BN93">
+    <cfRule type="expression" dxfId="79" priority="336">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H95">
+  <conditionalFormatting sqref="H94">
     <cfRule type="dataBar" priority="331">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13462,12 +13364,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K95:BN95">
-    <cfRule type="expression" dxfId="79" priority="332">
+  <conditionalFormatting sqref="K94:BN94">
+    <cfRule type="expression" dxfId="78" priority="332">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H96">
+  <conditionalFormatting sqref="H95">
     <cfRule type="dataBar" priority="327">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13481,12 +13383,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K96:BN96">
-    <cfRule type="expression" dxfId="78" priority="328">
+  <conditionalFormatting sqref="K95:BN95">
+    <cfRule type="expression" dxfId="77" priority="328">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H97">
+  <conditionalFormatting sqref="H96">
     <cfRule type="dataBar" priority="323">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13500,12 +13402,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K97:BN97">
-    <cfRule type="expression" dxfId="77" priority="324">
+  <conditionalFormatting sqref="K96:BN96">
+    <cfRule type="expression" dxfId="76" priority="324">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H98">
+  <conditionalFormatting sqref="H97">
     <cfRule type="dataBar" priority="319">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13519,12 +13421,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K98:BN98">
-    <cfRule type="expression" dxfId="76" priority="320">
+  <conditionalFormatting sqref="K97:BN97">
+    <cfRule type="expression" dxfId="75" priority="320">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H99">
+  <conditionalFormatting sqref="H98">
     <cfRule type="dataBar" priority="267">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -13538,8 +13440,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K99:BN99">
-    <cfRule type="expression" dxfId="75" priority="268">
+  <conditionalFormatting sqref="K98:BN98">
+    <cfRule type="expression" dxfId="74" priority="268">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13558,34 +13460,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:BN10">
-    <cfRule type="expression" dxfId="74" priority="265">
+    <cfRule type="expression" dxfId="73" priority="265">
       <formula>AND($E10&lt;=K$6,ROUNDDOWN(($F10-$E10+1)*$H10,0)+$E10-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="266">
+    <cfRule type="expression" dxfId="72" priority="266">
       <formula>AND(NOT(ISBLANK($E10)),$E10&lt;=K$6,$F10&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:BN10">
-    <cfRule type="expression" dxfId="72" priority="264">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
-    <cfRule type="dataBar" priority="247">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{91E39612-F833-4191-B6AA-6AF3D151E65F}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K59:BN59">
-    <cfRule type="expression" dxfId="71" priority="248">
+    <cfRule type="expression" dxfId="71" priority="264">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14167,7 +14050,7 @@
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H58:H59">
+  <conditionalFormatting sqref="H58">
     <cfRule type="dataBar" priority="147">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14181,12 +14064,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K58:BN59">
+  <conditionalFormatting sqref="K58:BN58">
     <cfRule type="expression" dxfId="38" priority="148">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H77">
+  <conditionalFormatting sqref="H76">
     <cfRule type="dataBar" priority="143">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14200,12 +14083,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K77:BN77">
+  <conditionalFormatting sqref="K76:BN76">
     <cfRule type="expression" dxfId="37" priority="144">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H78">
+  <conditionalFormatting sqref="H77">
     <cfRule type="dataBar" priority="141">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14219,12 +14102,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K78:BN78">
+  <conditionalFormatting sqref="K77:BN77">
     <cfRule type="expression" dxfId="36" priority="142">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
+  <conditionalFormatting sqref="H79">
     <cfRule type="dataBar" priority="139">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14238,12 +14121,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K80:BN80">
+  <conditionalFormatting sqref="K79:BN79">
     <cfRule type="expression" dxfId="35" priority="140">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H82">
+  <conditionalFormatting sqref="H81">
     <cfRule type="dataBar" priority="137">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14257,12 +14140,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K82:BN82">
+  <conditionalFormatting sqref="K81:BN81">
     <cfRule type="expression" dxfId="34" priority="138">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H84">
+  <conditionalFormatting sqref="H83">
     <cfRule type="dataBar" priority="135">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14276,12 +14159,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K84:BN84">
+  <conditionalFormatting sqref="K83:BN83">
     <cfRule type="expression" dxfId="33" priority="136">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H86">
+  <conditionalFormatting sqref="H85">
     <cfRule type="dataBar" priority="133">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14295,12 +14178,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K86:BN86">
+  <conditionalFormatting sqref="K85:BN85">
     <cfRule type="expression" dxfId="32" priority="134">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H88">
+  <conditionalFormatting sqref="H87">
     <cfRule type="dataBar" priority="131">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14314,12 +14197,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K88:BN88">
+  <conditionalFormatting sqref="K87:BN87">
     <cfRule type="expression" dxfId="31" priority="132">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H90">
+  <conditionalFormatting sqref="H89">
     <cfRule type="dataBar" priority="129">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14333,12 +14216,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K90:BN90">
+  <conditionalFormatting sqref="K89:BN89">
     <cfRule type="expression" dxfId="30" priority="130">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H100:H102">
+  <conditionalFormatting sqref="H99:H101">
     <cfRule type="dataBar" priority="125">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14352,12 +14235,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K100:BN102">
+  <conditionalFormatting sqref="K99:BN101">
     <cfRule type="expression" dxfId="29" priority="126">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
+  <conditionalFormatting sqref="H75">
     <cfRule type="dataBar" priority="89">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14371,12 +14254,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K76:BN76">
+  <conditionalFormatting sqref="K75:BN75">
     <cfRule type="expression" dxfId="28" priority="90">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H79">
+  <conditionalFormatting sqref="H78">
     <cfRule type="dataBar" priority="85">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14390,12 +14273,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K79:BN79">
+  <conditionalFormatting sqref="K78:BN78">
     <cfRule type="expression" dxfId="27" priority="86">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H81">
+  <conditionalFormatting sqref="H80">
     <cfRule type="dataBar" priority="81">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14409,12 +14292,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K81:BN81">
+  <conditionalFormatting sqref="K80:BN80">
     <cfRule type="expression" dxfId="26" priority="82">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H83">
+  <conditionalFormatting sqref="H82">
     <cfRule type="dataBar" priority="77">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14428,12 +14311,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K83:BN83">
+  <conditionalFormatting sqref="K82:BN82">
     <cfRule type="expression" dxfId="25" priority="78">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H85">
+  <conditionalFormatting sqref="H84">
     <cfRule type="dataBar" priority="73">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14447,12 +14330,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K85:BN85">
+  <conditionalFormatting sqref="K84:BN84">
     <cfRule type="expression" dxfId="24" priority="74">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H87">
+  <conditionalFormatting sqref="H86">
     <cfRule type="dataBar" priority="69">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14466,12 +14349,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K87:BN87">
+  <conditionalFormatting sqref="K86:BN86">
     <cfRule type="expression" dxfId="23" priority="70">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H89">
+  <conditionalFormatting sqref="H88">
     <cfRule type="dataBar" priority="65">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14485,12 +14368,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K89:BN89">
+  <conditionalFormatting sqref="K88:BN88">
     <cfRule type="expression" dxfId="22" priority="66">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H91">
+  <conditionalFormatting sqref="H90">
     <cfRule type="dataBar" priority="61">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14504,7 +14387,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K91:BN91">
+  <conditionalFormatting sqref="K90:BN90">
     <cfRule type="expression" dxfId="21" priority="62">
       <formula>K$6=TODAY()</formula>
     </cfRule>
@@ -14528,7 +14411,7 @@
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H61">
+  <conditionalFormatting sqref="H60">
     <cfRule type="dataBar" priority="49">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14542,12 +14425,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K61:BN61">
+  <conditionalFormatting sqref="K60:BN60">
     <cfRule type="expression" dxfId="19" priority="50">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H62">
+  <conditionalFormatting sqref="H61">
     <cfRule type="dataBar" priority="45">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14561,12 +14444,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K62:BN62">
+  <conditionalFormatting sqref="K61:BN61">
     <cfRule type="expression" dxfId="18" priority="46">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H65">
+  <conditionalFormatting sqref="H64">
     <cfRule type="dataBar" priority="41">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14580,12 +14463,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K65:BN65">
+  <conditionalFormatting sqref="K64:BN64">
     <cfRule type="expression" dxfId="17" priority="42">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
+  <conditionalFormatting sqref="H65">
     <cfRule type="dataBar" priority="39">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14599,12 +14482,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K66:BN66">
+  <conditionalFormatting sqref="K65:BN65">
     <cfRule type="expression" dxfId="16" priority="40">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
+  <conditionalFormatting sqref="H66">
     <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14618,12 +14501,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K67:BN67">
+  <conditionalFormatting sqref="K66:BN66">
     <cfRule type="expression" dxfId="15" priority="38">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
+  <conditionalFormatting sqref="H67">
     <cfRule type="dataBar" priority="35">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14637,12 +14520,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K68:BN68">
+  <conditionalFormatting sqref="K67:BN67">
     <cfRule type="expression" dxfId="14" priority="36">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H69">
+  <conditionalFormatting sqref="H68">
     <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14656,12 +14539,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K69:BN69">
+  <conditionalFormatting sqref="K68:BN68">
     <cfRule type="expression" dxfId="13" priority="34">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H70">
+  <conditionalFormatting sqref="H69">
     <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14675,12 +14558,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K70:BN70">
+  <conditionalFormatting sqref="K69:BN69">
     <cfRule type="expression" dxfId="12" priority="32">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
+  <conditionalFormatting sqref="H70">
     <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14694,12 +14577,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K71:BN71">
+  <conditionalFormatting sqref="K70:BN70">
     <cfRule type="expression" dxfId="11" priority="30">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
+  <conditionalFormatting sqref="H71">
     <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14713,12 +14596,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K72:BN72">
+  <conditionalFormatting sqref="K71:BN71">
     <cfRule type="expression" dxfId="10" priority="28">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
+  <conditionalFormatting sqref="H63">
     <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -14732,7 +14615,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K64:BN64">
+  <conditionalFormatting sqref="K63:BN63">
     <cfRule type="expression" dxfId="9" priority="24">
       <formula>K$6=TODAY()</formula>
     </cfRule>
@@ -14918,8 +14801,8 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="E20 E31 E73 G20:H20 G31:H31 H60 H50 G73:H73 H75 H74" unlockedFormula="1"/>
-    <ignoredError sqref="A73 A31 A20" formula="1"/>
+    <ignoredError sqref="E20 E31 E72 G20:H20 G31:H31 H59 G72:H72 H74 H73" unlockedFormula="1"/>
+    <ignoredError sqref="A72 A31 A20" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
@@ -14967,7 +14850,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H8:H9 H41 H50 H20:H21 H60 H63 H73:H75 H31:H32</xm:sqref>
+          <xm:sqref>H8:H9 H41 H50 H20:H21 H59 H62 H72:H74 H31:H32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AF6031B5-17E7-4FA3-BF80-238C9E6DF4B9}">
@@ -14982,7 +14865,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H92</xm:sqref>
+          <xm:sqref>H91</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E1E2B9CA-12BA-46AC-9B3F-D4F5D19AE487}">
@@ -14997,7 +14880,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H93</xm:sqref>
+          <xm:sqref>H92</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2EBBAE54-BE40-4F85-B2B8-BF88914C4132}">
@@ -15012,7 +14895,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H94</xm:sqref>
+          <xm:sqref>H93</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CD355D18-EAED-4E08-8A10-05C00E458525}">
@@ -15027,7 +14910,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H95</xm:sqref>
+          <xm:sqref>H94</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E9A71E10-0808-482F-99D1-D818BBF6C7BC}">
@@ -15042,7 +14925,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H96</xm:sqref>
+          <xm:sqref>H95</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3D07858F-3D2E-41B0-9241-346599BE8E0E}">
@@ -15057,7 +14940,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H97</xm:sqref>
+          <xm:sqref>H96</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{04A29D32-1B7A-44AE-874E-46664FE80C9C}">
@@ -15072,7 +14955,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H98</xm:sqref>
+          <xm:sqref>H97</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{063A9F82-2F86-4B32-A209-F5B4C7385609}">
@@ -15087,7 +14970,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H99</xm:sqref>
+          <xm:sqref>H98</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7441C645-CDD7-4332-B16A-D63E38A71E7F}">
@@ -15103,21 +14986,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>H10</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{91E39612-F833-4191-B6AA-6AF3D151E65F}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BC0CD262-D5C0-4114-862E-FD1D455DCCB6}">
@@ -15582,7 +15450,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H58:H59</xm:sqref>
+          <xm:sqref>H58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BFBF3FB0-ABF5-423D-A466-57E1B07BB58A}">
@@ -15597,7 +15465,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H77</xm:sqref>
+          <xm:sqref>H76</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CCD1741C-8060-4486-8B25-8799416E3961}">
@@ -15612,7 +15480,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H78</xm:sqref>
+          <xm:sqref>H77</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{35D0009D-A5E8-42C1-A435-118ABFBE67CA}">
@@ -15627,7 +15495,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H80</xm:sqref>
+          <xm:sqref>H79</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{01090080-ACAE-458D-BCAF-583B0E2F21D0}">
@@ -15642,7 +15510,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H82</xm:sqref>
+          <xm:sqref>H81</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AC0766FE-60B3-4D9D-8E40-B0B8237058AC}">
@@ -15657,7 +15525,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H84</xm:sqref>
+          <xm:sqref>H83</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{371F4099-1CEF-4E8C-99BF-BD7AE6E4555F}">
@@ -15672,7 +15540,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H86</xm:sqref>
+          <xm:sqref>H85</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{360399A8-A0CA-48C5-86BE-B1FB7E86595E}">
@@ -15687,7 +15555,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H88</xm:sqref>
+          <xm:sqref>H87</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{06BE8193-5B42-4B68-A1C3-25E085A86732}">
@@ -15702,7 +15570,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H90</xm:sqref>
+          <xm:sqref>H89</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7A8F160C-8F50-47BC-8BA5-A9E03D9CD50A}">
@@ -15717,7 +15585,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H100:H102</xm:sqref>
+          <xm:sqref>H99:H101</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CC845533-256A-423B-BC42-5167F019D2DE}">
@@ -15732,7 +15600,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H76</xm:sqref>
+          <xm:sqref>H75</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CBF1D1D0-C535-4432-8A3B-A81039293FBC}">
@@ -15747,7 +15615,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H79</xm:sqref>
+          <xm:sqref>H78</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{70490C4A-9510-4A6A-A898-72CA1E9BCFF9}">
@@ -15762,7 +15630,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H81</xm:sqref>
+          <xm:sqref>H80</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BEFD1DAE-5083-448C-A6A9-3C250C1DCCFA}">
@@ -15777,7 +15645,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H83</xm:sqref>
+          <xm:sqref>H82</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5B84F429-9511-4389-9DDD-FF34549A84EF}">
@@ -15792,7 +15660,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H85</xm:sqref>
+          <xm:sqref>H84</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2BECA061-2D9A-41C8-8CD7-D8EDF4AD5A7E}">
@@ -15807,7 +15675,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H87</xm:sqref>
+          <xm:sqref>H86</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{74ADDA2C-FFFB-4DDA-90CD-FCE1BCBC6D15}">
@@ -15822,7 +15690,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H89</xm:sqref>
+          <xm:sqref>H88</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5924B1B0-F4CA-4715-97F8-03E86E907A8B}">
@@ -15837,7 +15705,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H91</xm:sqref>
+          <xm:sqref>H90</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{844642B6-6AED-4247-BBF2-141EB0E6D0D6}">
@@ -15867,7 +15735,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H61</xm:sqref>
+          <xm:sqref>H60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DB8B257C-27C0-4656-B2D6-A164D3DC8376}">
@@ -15882,7 +15750,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H62</xm:sqref>
+          <xm:sqref>H61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9FC75FDB-8AED-439C-A6D3-1116ABFCD2AA}">
@@ -15897,7 +15765,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H65</xm:sqref>
+          <xm:sqref>H64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{525C6AC5-856A-4095-92C1-69ED8B837782}">
@@ -15912,7 +15780,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H66</xm:sqref>
+          <xm:sqref>H65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9CB4E75F-FF45-4E6C-B371-7D2BCB064ECC}">
@@ -15927,7 +15795,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H67</xm:sqref>
+          <xm:sqref>H66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7FBFA1E6-A604-4419-AC63-0237039442AE}">
@@ -15942,7 +15810,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H68</xm:sqref>
+          <xm:sqref>H67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4D2BFFCF-D567-4CE6-8F2F-6998200C5C78}">
@@ -15957,7 +15825,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H69</xm:sqref>
+          <xm:sqref>H68</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{08B66296-CB9A-4F29-B91B-245DF691B10F}">
@@ -15972,7 +15840,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H70</xm:sqref>
+          <xm:sqref>H69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6DED2669-501C-46DC-8864-D021B3A7F706}">
@@ -15987,7 +15855,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H71</xm:sqref>
+          <xm:sqref>H70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BEB4BF35-E0F5-482E-8C08-600178C2FE8C}">
@@ -16002,7 +15870,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H72</xm:sqref>
+          <xm:sqref>H71</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D92DE5E4-33D4-4230-8AF6-3FC5B8535404}">
@@ -16017,7 +15885,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H64</xm:sqref>
+          <xm:sqref>H63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2BA9A25E-B14D-45FA-96F0-3BA762CE9EA1}">

--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BlackDragoon\Desktop\PROJECT\PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5E49EB-126E-41AC-BED6-4FE7705E1ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B7CA88-435D-4086-B2E7-488C9223B44E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="2280" windowWidth="21585" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$92</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$103</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">GanttChartPro!$A$1:$C$47</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
@@ -453,7 +453,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="180">
   <si>
     <t>WBS</t>
   </si>
@@ -1642,6 +1642,15 @@
   </si>
   <si>
     <t>Deployment</t>
+  </si>
+  <si>
+    <t>Design Use Case Narratives</t>
+  </si>
+  <si>
+    <t>Deployment Diagram</t>
+  </si>
+  <si>
+    <t>Test Plan</t>
   </si>
 </sst>
 </file>
@@ -2934,7 +2943,195 @@
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="86">
+  <dxfs count="105">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -4679,11 +4876,11 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN101"/>
+  <dimension ref="A1:BN112"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U11" sqref="U11"/>
+      <selection pane="bottomLeft" activeCell="T75" sqref="T75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5477,7 +5674,7 @@
       <c r="G8" s="67"/>
       <c r="H8" s="68"/>
       <c r="I8" s="69" t="str">
-        <f t="shared" ref="I8:I72" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
+        <f t="shared" ref="I8:I83" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J8" s="72"/>
@@ -6462,7 +6659,7 @@
       <c r="D20" s="52"/>
       <c r="E20" s="77"/>
       <c r="F20" s="77" t="str">
-        <f t="shared" ref="F20:F75" si="9">IF(ISBLANK(E20)," - ",IF(G20=0,E20,E20+G20-1))</f>
+        <f t="shared" ref="F20:F86" si="9">IF(ISBLANK(E20)," - ",IF(G20=0,E20,E20+G20-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G20" s="53"/>
@@ -8269,7 +8466,7 @@
     </row>
     <row r="42" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="56" t="str">
-        <f t="shared" ref="A42:A58" si="19">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" ref="A42:A67" si="19">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.2.1</v>
       </c>
       <c r="B42" s="99" t="s">
@@ -9678,27 +9875,27 @@
       <c r="BM58" s="79"/>
       <c r="BN58" s="79"/>
     </row>
-    <row r="59" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A59" s="56" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.4</v>
       </c>
       <c r="B59" s="97" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="D59" s="98"/>
       <c r="E59" s="75">
         <v>44482</v>
       </c>
       <c r="F59" s="76">
-        <f t="shared" si="9"/>
-        <v>44483</v>
+        <f t="shared" ref="F59:F68" si="21">IF(ISBLANK(E59)," - ",IF(G59=0,E59,E59+G59-1))</f>
+        <v>44485</v>
       </c>
       <c r="G59" s="58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H59" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" s="60">
         <v>0</v>
@@ -9763,25 +9960,25 @@
     </row>
     <row r="60" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A60" s="56" t="str">
-        <f t="shared" ref="A60:A61" si="21">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" si="19"/>
         <v>3.4.1</v>
       </c>
       <c r="B60" s="99" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="D60" s="98"/>
       <c r="E60" s="75">
         <v>44482</v>
       </c>
       <c r="F60" s="76">
-        <f t="shared" ref="F60" si="22">IF(ISBLANK(E60)," - ",IF(G60=0,E60,E60+G60-1))</f>
-        <v>44483</v>
+        <f t="shared" si="21"/>
+        <v>44482</v>
       </c>
       <c r="G60" s="58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H60" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" s="60">
         <v>0</v>
@@ -9846,25 +10043,25 @@
     </row>
     <row r="61" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A61" s="56" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>3.4.2</v>
       </c>
       <c r="B61" s="99" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="D61" s="98"/>
       <c r="E61" s="75">
         <v>44482</v>
       </c>
       <c r="F61" s="76">
-        <f t="shared" ref="F61" si="23">IF(ISBLANK(E61)," - ",IF(G61=0,E61,E61+G61-1))</f>
-        <v>44483</v>
+        <f t="shared" si="21"/>
+        <v>44482</v>
       </c>
       <c r="G61" s="58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H61" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" s="60">
         <v>0</v>
@@ -9929,25 +10126,25 @@
     </row>
     <row r="62" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A62" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.5</v>
-      </c>
-      <c r="B62" s="97" t="s">
-        <v>166</v>
+        <f t="shared" si="19"/>
+        <v>3.4.3</v>
+      </c>
+      <c r="B62" s="99" t="s">
+        <v>136</v>
       </c>
       <c r="D62" s="98"/>
       <c r="E62" s="75">
         <v>44483</v>
       </c>
       <c r="F62" s="76">
-        <f t="shared" si="9"/>
-        <v>44484</v>
+        <f>IF(ISBLANK(E62)," - ",IF(G62=0,E62,E62+G62-1))</f>
+        <v>44483</v>
       </c>
       <c r="G62" s="58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H62" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" s="60">
         <v>0</v>
@@ -10012,25 +10209,25 @@
     </row>
     <row r="63" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A63" s="56" t="str">
-        <f t="shared" ref="A63:A71" si="24">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.5.1</v>
+        <f t="shared" si="19"/>
+        <v>3.4.4</v>
       </c>
       <c r="B63" s="99" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="D63" s="98"/>
       <c r="E63" s="75">
         <v>44483</v>
       </c>
       <c r="F63" s="76">
-        <f t="shared" si="9"/>
-        <v>44484</v>
+        <f t="shared" si="21"/>
+        <v>44483</v>
       </c>
       <c r="G63" s="58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H63" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" s="60">
         <v>0</v>
@@ -10095,25 +10292,25 @@
     </row>
     <row r="64" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A64" s="56" t="str">
-        <f t="shared" si="24"/>
-        <v>3.5.2</v>
+        <f t="shared" si="19"/>
+        <v>3.4.5</v>
       </c>
       <c r="B64" s="99" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D64" s="98"/>
       <c r="E64" s="75">
-        <v>44483</v>
+        <v>44484</v>
       </c>
       <c r="F64" s="76">
-        <f t="shared" ref="F64:F71" si="25">IF(ISBLANK(E64)," - ",IF(G64=0,E64,E64+G64-1))</f>
+        <f t="shared" si="21"/>
         <v>44484</v>
       </c>
       <c r="G64" s="58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H64" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" s="60">
         <v>0</v>
@@ -10178,25 +10375,25 @@
     </row>
     <row r="65" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A65" s="56" t="str">
-        <f t="shared" si="24"/>
-        <v>3.5.3</v>
+        <f t="shared" si="19"/>
+        <v>3.4.6</v>
       </c>
       <c r="B65" s="99" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D65" s="98"/>
       <c r="E65" s="75">
-        <v>44483</v>
+        <v>44484</v>
       </c>
       <c r="F65" s="76">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>44484</v>
       </c>
       <c r="G65" s="58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H65" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" s="60">
         <v>0</v>
@@ -10259,27 +10456,27 @@
       <c r="BM65" s="79"/>
       <c r="BN65" s="79"/>
     </row>
-    <row r="66" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A66" s="56" t="str">
-        <f t="shared" si="24"/>
-        <v>3.5.4</v>
+        <f t="shared" si="19"/>
+        <v>3.4.7</v>
       </c>
       <c r="B66" s="99" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="D66" s="98"/>
       <c r="E66" s="75">
-        <v>44483</v>
+        <v>44485</v>
       </c>
       <c r="F66" s="76">
-        <f t="shared" si="25"/>
-        <v>44484</v>
+        <f t="shared" si="21"/>
+        <v>44485</v>
       </c>
       <c r="G66" s="58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H66" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" s="60">
         <v>0</v>
@@ -10342,27 +10539,27 @@
       <c r="BM66" s="79"/>
       <c r="BN66" s="79"/>
     </row>
-    <row r="67" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A67" s="56" t="str">
-        <f t="shared" si="24"/>
-        <v>3.5.5</v>
+        <f t="shared" si="19"/>
+        <v>3.4.8</v>
       </c>
       <c r="B67" s="99" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="D67" s="98"/>
       <c r="E67" s="75">
-        <v>44483</v>
+        <v>44485</v>
       </c>
       <c r="F67" s="76">
-        <f t="shared" si="25"/>
-        <v>44484</v>
+        <f t="shared" si="21"/>
+        <v>44485</v>
       </c>
       <c r="G67" s="58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H67" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" s="60">
         <v>0</v>
@@ -10427,19 +10624,19 @@
     </row>
     <row r="68" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A68" s="56" t="str">
-        <f t="shared" si="24"/>
-        <v>3.5.6</v>
-      </c>
-      <c r="B68" s="99" t="s">
-        <v>138</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.5</v>
+      </c>
+      <c r="B68" s="97" t="s">
+        <v>178</v>
       </c>
       <c r="D68" s="98"/>
       <c r="E68" s="75">
+        <v>44482</v>
+      </c>
+      <c r="F68" s="76">
+        <f t="shared" si="21"/>
         <v>44483</v>
-      </c>
-      <c r="F68" s="76">
-        <f t="shared" si="25"/>
-        <v>44484</v>
       </c>
       <c r="G68" s="58">
         <v>2</v>
@@ -10510,25 +10707,25 @@
     </row>
     <row r="69" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A69" s="56" t="str">
-        <f t="shared" si="24"/>
-        <v>3.5.7</v>
-      </c>
-      <c r="B69" s="99" t="s">
-        <v>139</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.6</v>
+      </c>
+      <c r="B69" s="97" t="s">
+        <v>165</v>
       </c>
       <c r="D69" s="98"/>
       <c r="E69" s="75">
+        <v>44482</v>
+      </c>
+      <c r="F69" s="76">
+        <f t="shared" si="9"/>
         <v>44483</v>
-      </c>
-      <c r="F69" s="76">
-        <f t="shared" si="25"/>
-        <v>44484</v>
       </c>
       <c r="G69" s="58">
         <v>2</v>
       </c>
       <c r="H69" s="59">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I69" s="60">
         <v>0</v>
@@ -10591,27 +10788,27 @@
       <c r="BM69" s="79"/>
       <c r="BN69" s="79"/>
     </row>
-    <row r="70" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A70" s="56" t="str">
-        <f t="shared" si="24"/>
-        <v>3.5.8</v>
+        <f t="shared" ref="A70:A71" si="22">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.6.1</v>
       </c>
       <c r="B70" s="99" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="D70" s="98"/>
       <c r="E70" s="75">
+        <v>44482</v>
+      </c>
+      <c r="F70" s="76">
+        <f t="shared" ref="F70" si="23">IF(ISBLANK(E70)," - ",IF(G70=0,E70,E70+G70-1))</f>
         <v>44483</v>
-      </c>
-      <c r="F70" s="76">
-        <f t="shared" si="25"/>
-        <v>44484</v>
       </c>
       <c r="G70" s="58">
         <v>2</v>
       </c>
       <c r="H70" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" s="60">
         <v>0</v>
@@ -10674,27 +10871,27 @@
       <c r="BM70" s="79"/>
       <c r="BN70" s="79"/>
     </row>
-    <row r="71" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A71" s="56" t="str">
-        <f t="shared" si="24"/>
-        <v>3.5.9</v>
+        <f t="shared" si="22"/>
+        <v>3.6.2</v>
       </c>
       <c r="B71" s="99" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="D71" s="98"/>
       <c r="E71" s="75">
+        <v>44482</v>
+      </c>
+      <c r="F71" s="76">
+        <f t="shared" ref="F71" si="24">IF(ISBLANK(E71)," - ",IF(G71=0,E71,E71+G71-1))</f>
         <v>44483</v>
-      </c>
-      <c r="F71" s="76">
-        <f t="shared" si="25"/>
-        <v>44484</v>
       </c>
       <c r="G71" s="58">
         <v>2</v>
       </c>
       <c r="H71" s="59">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I71" s="60">
         <v>0</v>
@@ -10757,102 +10954,107 @@
       <c r="BM71" s="79"/>
       <c r="BN71" s="79"/>
     </row>
-    <row r="72" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A72" s="49" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>4</v>
-      </c>
-      <c r="B72" s="50" t="s">
-        <v>146</v>
-      </c>
-      <c r="D72" s="52"/>
-      <c r="E72" s="77"/>
-      <c r="F72" s="77" t="str">
+    <row r="72" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A72" s="56" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.7</v>
+      </c>
+      <c r="B72" s="97" t="s">
+        <v>166</v>
+      </c>
+      <c r="D72" s="98"/>
+      <c r="E72" s="75">
+        <v>44483</v>
+      </c>
+      <c r="F72" s="76">
         <f t="shared" si="9"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G72" s="53"/>
-      <c r="H72" s="54"/>
-      <c r="I72" s="55" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J72" s="74"/>
-      <c r="K72" s="80"/>
-      <c r="L72" s="80"/>
-      <c r="M72" s="80"/>
-      <c r="N72" s="80"/>
-      <c r="O72" s="80"/>
-      <c r="P72" s="80"/>
-      <c r="Q72" s="80"/>
-      <c r="R72" s="80"/>
-      <c r="S72" s="80"/>
-      <c r="T72" s="80"/>
-      <c r="U72" s="80"/>
-      <c r="V72" s="80"/>
-      <c r="W72" s="80"/>
-      <c r="X72" s="80"/>
-      <c r="Y72" s="80"/>
-      <c r="Z72" s="80"/>
-      <c r="AA72" s="80"/>
-      <c r="AB72" s="80"/>
-      <c r="AC72" s="80"/>
-      <c r="AD72" s="80"/>
-      <c r="AE72" s="80"/>
-      <c r="AF72" s="80"/>
-      <c r="AG72" s="80"/>
-      <c r="AH72" s="80"/>
-      <c r="AI72" s="80"/>
-      <c r="AJ72" s="80"/>
-      <c r="AK72" s="80"/>
-      <c r="AL72" s="80"/>
-      <c r="AM72" s="80"/>
-      <c r="AN72" s="80"/>
-      <c r="AO72" s="80"/>
-      <c r="AP72" s="80"/>
-      <c r="AQ72" s="80"/>
-      <c r="AR72" s="80"/>
-      <c r="AS72" s="80"/>
-      <c r="AT72" s="80"/>
-      <c r="AU72" s="80"/>
-      <c r="AV72" s="80"/>
-      <c r="AW72" s="80"/>
-      <c r="AX72" s="80"/>
-      <c r="AY72" s="80"/>
-      <c r="AZ72" s="80"/>
-      <c r="BA72" s="80"/>
-      <c r="BB72" s="80"/>
-      <c r="BC72" s="80"/>
-      <c r="BD72" s="80"/>
-      <c r="BE72" s="80"/>
-      <c r="BF72" s="80"/>
-      <c r="BG72" s="80"/>
-      <c r="BH72" s="80"/>
-      <c r="BI72" s="80"/>
-      <c r="BJ72" s="80"/>
-      <c r="BK72" s="80"/>
-      <c r="BL72" s="80"/>
-      <c r="BM72" s="80"/>
-      <c r="BN72" s="80"/>
+        <v>44484</v>
+      </c>
+      <c r="G72" s="58">
+        <v>2</v>
+      </c>
+      <c r="H72" s="59">
+        <v>0</v>
+      </c>
+      <c r="I72" s="60">
+        <v>0</v>
+      </c>
+      <c r="J72" s="73"/>
+      <c r="K72" s="79"/>
+      <c r="L72" s="79"/>
+      <c r="M72" s="79"/>
+      <c r="N72" s="79"/>
+      <c r="O72" s="79"/>
+      <c r="P72" s="79"/>
+      <c r="Q72" s="79"/>
+      <c r="R72" s="79"/>
+      <c r="S72" s="79"/>
+      <c r="T72" s="79"/>
+      <c r="U72" s="79"/>
+      <c r="V72" s="79"/>
+      <c r="W72" s="79"/>
+      <c r="X72" s="79"/>
+      <c r="Y72" s="79"/>
+      <c r="Z72" s="79"/>
+      <c r="AA72" s="79"/>
+      <c r="AB72" s="79"/>
+      <c r="AC72" s="79"/>
+      <c r="AD72" s="79"/>
+      <c r="AE72" s="79"/>
+      <c r="AF72" s="79"/>
+      <c r="AG72" s="79"/>
+      <c r="AH72" s="79"/>
+      <c r="AI72" s="79"/>
+      <c r="AJ72" s="79"/>
+      <c r="AK72" s="79"/>
+      <c r="AL72" s="79"/>
+      <c r="AM72" s="79"/>
+      <c r="AN72" s="79"/>
+      <c r="AO72" s="79"/>
+      <c r="AP72" s="79"/>
+      <c r="AQ72" s="79"/>
+      <c r="AR72" s="79"/>
+      <c r="AS72" s="79"/>
+      <c r="AT72" s="79"/>
+      <c r="AU72" s="79"/>
+      <c r="AV72" s="79"/>
+      <c r="AW72" s="79"/>
+      <c r="AX72" s="79"/>
+      <c r="AY72" s="79"/>
+      <c r="AZ72" s="79"/>
+      <c r="BA72" s="79"/>
+      <c r="BB72" s="79"/>
+      <c r="BC72" s="79"/>
+      <c r="BD72" s="79"/>
+      <c r="BE72" s="79"/>
+      <c r="BF72" s="79"/>
+      <c r="BG72" s="79"/>
+      <c r="BH72" s="79"/>
+      <c r="BI72" s="79"/>
+      <c r="BJ72" s="79"/>
+      <c r="BK72" s="79"/>
+      <c r="BL72" s="79"/>
+      <c r="BM72" s="79"/>
+      <c r="BN72" s="79"/>
     </row>
     <row r="73" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A73" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.1</v>
-      </c>
-      <c r="B73" s="97" t="s">
-        <v>159</v>
+        <f t="shared" ref="A73:A81" si="25">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.7.1</v>
+      </c>
+      <c r="B73" s="99" t="s">
+        <v>174</v>
       </c>
       <c r="D73" s="98"/>
       <c r="E73" s="75">
-        <v>44485</v>
+        <v>44483</v>
       </c>
       <c r="F73" s="76">
         <f t="shared" si="9"/>
-        <v>44491</v>
+        <v>44484</v>
       </c>
       <c r="G73" s="58">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H73" s="59">
         <v>0</v>
@@ -10920,22 +11122,22 @@
     </row>
     <row r="74" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A74" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.2</v>
-      </c>
-      <c r="B74" s="97" t="s">
-        <v>167</v>
+        <f t="shared" si="25"/>
+        <v>3.7.2</v>
+      </c>
+      <c r="B74" s="99" t="s">
+        <v>134</v>
       </c>
       <c r="D74" s="98"/>
       <c r="E74" s="75">
-        <v>44492</v>
+        <v>44483</v>
       </c>
       <c r="F74" s="76">
-        <f t="shared" si="9"/>
-        <v>44501</v>
+        <f t="shared" ref="F74:F82" si="26">IF(ISBLANK(E74)," - ",IF(G74=0,E74,E74+G74-1))</f>
+        <v>44484</v>
       </c>
       <c r="G74" s="58">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H74" s="59">
         <v>0</v>
@@ -11003,22 +11205,22 @@
     </row>
     <row r="75" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A75" s="56" t="str">
-        <f t="shared" ref="A75:A89" si="26">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.2.1</v>
+        <f t="shared" si="25"/>
+        <v>3.7.3</v>
       </c>
       <c r="B75" s="99" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D75" s="98"/>
       <c r="E75" s="75">
-        <v>44492</v>
+        <v>44483</v>
       </c>
       <c r="F75" s="76">
-        <f t="shared" si="9"/>
-        <v>44492</v>
+        <f t="shared" si="26"/>
+        <v>44484</v>
       </c>
       <c r="G75" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H75" s="59">
         <v>0</v>
@@ -11086,22 +11288,22 @@
     </row>
     <row r="76" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A76" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.2.2</v>
-      </c>
-      <c r="B76" s="132" t="s">
-        <v>170</v>
+        <f t="shared" si="25"/>
+        <v>3.7.4</v>
+      </c>
+      <c r="B76" s="99" t="s">
+        <v>136</v>
       </c>
       <c r="D76" s="98"/>
       <c r="E76" s="75">
-        <v>44492</v>
+        <v>44483</v>
       </c>
       <c r="F76" s="76">
-        <f t="shared" ref="F76:F90" si="27">IF(ISBLANK(E76)," - ",IF(G76=0,E76,E76+G76-1))</f>
-        <v>44492</v>
+        <f t="shared" si="26"/>
+        <v>44484</v>
       </c>
       <c r="G76" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H76" s="59">
         <v>0</v>
@@ -11169,22 +11371,22 @@
     </row>
     <row r="77" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A77" s="56" t="str">
-        <f t="shared" si="26"/>
-        <v>4.2.3</v>
+        <f t="shared" si="25"/>
+        <v>3.7.5</v>
       </c>
       <c r="B77" s="99" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D77" s="98"/>
       <c r="E77" s="75">
-        <v>44493</v>
+        <v>44483</v>
       </c>
       <c r="F77" s="76">
-        <f t="shared" si="27"/>
-        <v>44493</v>
+        <f t="shared" si="26"/>
+        <v>44484</v>
       </c>
       <c r="G77" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H77" s="59">
         <v>0</v>
@@ -11252,22 +11454,22 @@
     </row>
     <row r="78" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A78" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.2.4</v>
-      </c>
-      <c r="B78" s="132" t="s">
-        <v>170</v>
+        <f t="shared" si="25"/>
+        <v>3.7.6</v>
+      </c>
+      <c r="B78" s="99" t="s">
+        <v>138</v>
       </c>
       <c r="D78" s="98"/>
       <c r="E78" s="75">
-        <v>44493</v>
+        <v>44483</v>
       </c>
       <c r="F78" s="76">
-        <f t="shared" ref="F78" si="28">IF(ISBLANK(E78)," - ",IF(G78=0,E78,E78+G78-1))</f>
-        <v>44493</v>
+        <f t="shared" si="26"/>
+        <v>44484</v>
       </c>
       <c r="G78" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H78" s="59">
         <v>0</v>
@@ -11335,22 +11537,22 @@
     </row>
     <row r="79" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A79" s="56" t="str">
-        <f t="shared" si="26"/>
-        <v>4.2.5</v>
+        <f t="shared" si="25"/>
+        <v>3.7.7</v>
       </c>
       <c r="B79" s="99" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D79" s="98"/>
       <c r="E79" s="75">
-        <v>44494</v>
+        <v>44483</v>
       </c>
       <c r="F79" s="76">
-        <f t="shared" si="27"/>
-        <v>44494</v>
+        <f t="shared" si="26"/>
+        <v>44484</v>
       </c>
       <c r="G79" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H79" s="59">
         <v>0</v>
@@ -11416,24 +11618,24 @@
       <c r="BM79" s="79"/>
       <c r="BN79" s="79"/>
     </row>
-    <row r="80" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A80" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.2.6</v>
-      </c>
-      <c r="B80" s="132" t="s">
-        <v>170</v>
+        <f t="shared" si="25"/>
+        <v>3.7.8</v>
+      </c>
+      <c r="B80" s="99" t="s">
+        <v>161</v>
       </c>
       <c r="D80" s="98"/>
       <c r="E80" s="75">
-        <v>44494</v>
+        <v>44483</v>
       </c>
       <c r="F80" s="76">
-        <f t="shared" si="27"/>
-        <v>44494</v>
+        <f t="shared" si="26"/>
+        <v>44484</v>
       </c>
       <c r="G80" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H80" s="59">
         <v>0</v>
@@ -11499,24 +11701,24 @@
       <c r="BM80" s="79"/>
       <c r="BN80" s="79"/>
     </row>
-    <row r="81" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A81" s="56" t="str">
-        <f t="shared" si="26"/>
-        <v>4.2.7</v>
+        <f t="shared" si="25"/>
+        <v>3.7.9</v>
       </c>
       <c r="B81" s="99" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="D81" s="98"/>
       <c r="E81" s="75">
-        <v>44495</v>
+        <v>44483</v>
       </c>
       <c r="F81" s="76">
-        <f t="shared" si="27"/>
-        <v>44495</v>
+        <f t="shared" si="26"/>
+        <v>44484</v>
       </c>
       <c r="G81" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H81" s="59">
         <v>0</v>
@@ -11584,22 +11786,22 @@
     </row>
     <row r="82" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A82" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.2.8</v>
-      </c>
-      <c r="B82" s="132" t="s">
-        <v>170</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.8</v>
+      </c>
+      <c r="B82" s="97" t="s">
+        <v>179</v>
       </c>
       <c r="D82" s="98"/>
       <c r="E82" s="75">
-        <v>44495</v>
+        <v>44483</v>
       </c>
       <c r="F82" s="76">
-        <f t="shared" ref="F82" si="29">IF(ISBLANK(E82)," - ",IF(G82=0,E82,E82+G82-1))</f>
-        <v>44495</v>
+        <f t="shared" si="26"/>
+        <v>44484</v>
       </c>
       <c r="G82" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H82" s="59">
         <v>0</v>
@@ -11665,107 +11867,102 @@
       <c r="BM82" s="79"/>
       <c r="BN82" s="79"/>
     </row>
-    <row r="83" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A83" s="56" t="str">
-        <f t="shared" si="26"/>
-        <v>4.2.9</v>
-      </c>
-      <c r="B83" s="99" t="s">
-        <v>138</v>
-      </c>
-      <c r="D83" s="98"/>
-      <c r="E83" s="75">
-        <v>44496</v>
-      </c>
-      <c r="F83" s="76">
-        <f t="shared" si="27"/>
-        <v>44496</v>
-      </c>
-      <c r="G83" s="58">
-        <v>1</v>
-      </c>
-      <c r="H83" s="59">
-        <v>0</v>
-      </c>
-      <c r="I83" s="60">
-        <v>0</v>
-      </c>
-      <c r="J83" s="73"/>
-      <c r="K83" s="79"/>
-      <c r="L83" s="79"/>
-      <c r="M83" s="79"/>
-      <c r="N83" s="79"/>
-      <c r="O83" s="79"/>
-      <c r="P83" s="79"/>
-      <c r="Q83" s="79"/>
-      <c r="R83" s="79"/>
-      <c r="S83" s="79"/>
-      <c r="T83" s="79"/>
-      <c r="U83" s="79"/>
-      <c r="V83" s="79"/>
-      <c r="W83" s="79"/>
-      <c r="X83" s="79"/>
-      <c r="Y83" s="79"/>
-      <c r="Z83" s="79"/>
-      <c r="AA83" s="79"/>
-      <c r="AB83" s="79"/>
-      <c r="AC83" s="79"/>
-      <c r="AD83" s="79"/>
-      <c r="AE83" s="79"/>
-      <c r="AF83" s="79"/>
-      <c r="AG83" s="79"/>
-      <c r="AH83" s="79"/>
-      <c r="AI83" s="79"/>
-      <c r="AJ83" s="79"/>
-      <c r="AK83" s="79"/>
-      <c r="AL83" s="79"/>
-      <c r="AM83" s="79"/>
-      <c r="AN83" s="79"/>
-      <c r="AO83" s="79"/>
-      <c r="AP83" s="79"/>
-      <c r="AQ83" s="79"/>
-      <c r="AR83" s="79"/>
-      <c r="AS83" s="79"/>
-      <c r="AT83" s="79"/>
-      <c r="AU83" s="79"/>
-      <c r="AV83" s="79"/>
-      <c r="AW83" s="79"/>
-      <c r="AX83" s="79"/>
-      <c r="AY83" s="79"/>
-      <c r="AZ83" s="79"/>
-      <c r="BA83" s="79"/>
-      <c r="BB83" s="79"/>
-      <c r="BC83" s="79"/>
-      <c r="BD83" s="79"/>
-      <c r="BE83" s="79"/>
-      <c r="BF83" s="79"/>
-      <c r="BG83" s="79"/>
-      <c r="BH83" s="79"/>
-      <c r="BI83" s="79"/>
-      <c r="BJ83" s="79"/>
-      <c r="BK83" s="79"/>
-      <c r="BL83" s="79"/>
-      <c r="BM83" s="79"/>
-      <c r="BN83" s="79"/>
+    <row r="83" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A83" s="49" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>4</v>
+      </c>
+      <c r="B83" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="D83" s="52"/>
+      <c r="E83" s="77"/>
+      <c r="F83" s="77" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G83" s="53"/>
+      <c r="H83" s="54"/>
+      <c r="I83" s="55" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J83" s="74"/>
+      <c r="K83" s="80"/>
+      <c r="L83" s="80"/>
+      <c r="M83" s="80"/>
+      <c r="N83" s="80"/>
+      <c r="O83" s="80"/>
+      <c r="P83" s="80"/>
+      <c r="Q83" s="80"/>
+      <c r="R83" s="80"/>
+      <c r="S83" s="80"/>
+      <c r="T83" s="80"/>
+      <c r="U83" s="80"/>
+      <c r="V83" s="80"/>
+      <c r="W83" s="80"/>
+      <c r="X83" s="80"/>
+      <c r="Y83" s="80"/>
+      <c r="Z83" s="80"/>
+      <c r="AA83" s="80"/>
+      <c r="AB83" s="80"/>
+      <c r="AC83" s="80"/>
+      <c r="AD83" s="80"/>
+      <c r="AE83" s="80"/>
+      <c r="AF83" s="80"/>
+      <c r="AG83" s="80"/>
+      <c r="AH83" s="80"/>
+      <c r="AI83" s="80"/>
+      <c r="AJ83" s="80"/>
+      <c r="AK83" s="80"/>
+      <c r="AL83" s="80"/>
+      <c r="AM83" s="80"/>
+      <c r="AN83" s="80"/>
+      <c r="AO83" s="80"/>
+      <c r="AP83" s="80"/>
+      <c r="AQ83" s="80"/>
+      <c r="AR83" s="80"/>
+      <c r="AS83" s="80"/>
+      <c r="AT83" s="80"/>
+      <c r="AU83" s="80"/>
+      <c r="AV83" s="80"/>
+      <c r="AW83" s="80"/>
+      <c r="AX83" s="80"/>
+      <c r="AY83" s="80"/>
+      <c r="AZ83" s="80"/>
+      <c r="BA83" s="80"/>
+      <c r="BB83" s="80"/>
+      <c r="BC83" s="80"/>
+      <c r="BD83" s="80"/>
+      <c r="BE83" s="80"/>
+      <c r="BF83" s="80"/>
+      <c r="BG83" s="80"/>
+      <c r="BH83" s="80"/>
+      <c r="BI83" s="80"/>
+      <c r="BJ83" s="80"/>
+      <c r="BK83" s="80"/>
+      <c r="BL83" s="80"/>
+      <c r="BM83" s="80"/>
+      <c r="BN83" s="80"/>
     </row>
     <row r="84" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A84" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.2.10</v>
-      </c>
-      <c r="B84" s="132" t="s">
-        <v>170</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.1</v>
+      </c>
+      <c r="B84" s="97" t="s">
+        <v>159</v>
       </c>
       <c r="D84" s="98"/>
       <c r="E84" s="75">
-        <v>44496</v>
+        <v>44485</v>
       </c>
       <c r="F84" s="76">
-        <f t="shared" si="27"/>
-        <v>44496</v>
+        <f t="shared" si="9"/>
+        <v>44491</v>
       </c>
       <c r="G84" s="58">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H84" s="59">
         <v>0</v>
@@ -11833,22 +12030,22 @@
     </row>
     <row r="85" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A85" s="56" t="str">
-        <f t="shared" si="26"/>
-        <v>4.2.11</v>
-      </c>
-      <c r="B85" s="99" t="s">
-        <v>139</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.2</v>
+      </c>
+      <c r="B85" s="97" t="s">
+        <v>167</v>
       </c>
       <c r="D85" s="98"/>
       <c r="E85" s="75">
-        <v>44497</v>
+        <v>44492</v>
       </c>
       <c r="F85" s="76">
-        <f t="shared" si="27"/>
-        <v>44497</v>
+        <f t="shared" si="9"/>
+        <v>44501</v>
       </c>
       <c r="G85" s="58">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H85" s="59">
         <v>0</v>
@@ -11916,19 +12113,19 @@
     </row>
     <row r="86" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A86" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.2.12</v>
-      </c>
-      <c r="B86" s="132" t="s">
-        <v>170</v>
+        <f t="shared" ref="A86:A100" si="27">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.2.1</v>
+      </c>
+      <c r="B86" s="99" t="s">
+        <v>134</v>
       </c>
       <c r="D86" s="98"/>
       <c r="E86" s="75">
-        <v>44497</v>
+        <v>44492</v>
       </c>
       <c r="F86" s="76">
-        <f t="shared" ref="F86" si="30">IF(ISBLANK(E86)," - ",IF(G86=0,E86,E86+G86-1))</f>
-        <v>44497</v>
+        <f t="shared" si="9"/>
+        <v>44492</v>
       </c>
       <c r="G86" s="58">
         <v>1</v>
@@ -11997,21 +12194,21 @@
       <c r="BM86" s="79"/>
       <c r="BN86" s="79"/>
     </row>
-    <row r="87" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A87" s="56" t="str">
-        <f t="shared" si="26"/>
-        <v>4.2.13</v>
-      </c>
-      <c r="B87" s="99" t="s">
-        <v>161</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.2.2</v>
+      </c>
+      <c r="B87" s="132" t="s">
+        <v>170</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="75">
-        <v>44498</v>
+        <v>44492</v>
       </c>
       <c r="F87" s="76">
-        <f t="shared" si="27"/>
-        <v>44498</v>
+        <f t="shared" ref="F87:F101" si="28">IF(ISBLANK(E87)," - ",IF(G87=0,E87,E87+G87-1))</f>
+        <v>44492</v>
       </c>
       <c r="G87" s="58">
         <v>1</v>
@@ -12020,8 +12217,7 @@
         <v>0</v>
       </c>
       <c r="I87" s="60">
-        <f t="shared" ref="I87:I89" si="31">IF(OR(F87=0,E87=0)," - ",NETWORKDAYS(E87,F87))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" s="73"/>
       <c r="K87" s="79"/>
@@ -12083,19 +12279,19 @@
     </row>
     <row r="88" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A88" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.2.14</v>
-      </c>
-      <c r="B88" s="132" t="s">
-        <v>170</v>
+        <f t="shared" si="27"/>
+        <v>4.2.3</v>
+      </c>
+      <c r="B88" s="99" t="s">
+        <v>135</v>
       </c>
       <c r="D88" s="98"/>
       <c r="E88" s="75">
-        <v>44498</v>
+        <v>44493</v>
       </c>
       <c r="F88" s="76">
-        <f t="shared" si="27"/>
-        <v>44498</v>
+        <f t="shared" si="28"/>
+        <v>44493</v>
       </c>
       <c r="G88" s="58">
         <v>1</v>
@@ -12164,21 +12360,21 @@
       <c r="BM88" s="79"/>
       <c r="BN88" s="79"/>
     </row>
-    <row r="89" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A89" s="56" t="str">
-        <f t="shared" si="26"/>
-        <v>4.2.15</v>
-      </c>
-      <c r="B89" s="99" t="s">
-        <v>162</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.2.4</v>
+      </c>
+      <c r="B89" s="132" t="s">
+        <v>170</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="75">
-        <v>44499</v>
+        <v>44493</v>
       </c>
       <c r="F89" s="76">
-        <f t="shared" si="27"/>
-        <v>44499</v>
+        <f t="shared" ref="F89" si="29">IF(ISBLANK(E89)," - ",IF(G89=0,E89,E89+G89-1))</f>
+        <v>44493</v>
       </c>
       <c r="G89" s="58">
         <v>1</v>
@@ -12187,7 +12383,6 @@
         <v>0</v>
       </c>
       <c r="I89" s="60">
-        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J89" s="73"/>
@@ -12250,19 +12445,19 @@
     </row>
     <row r="90" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A90" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.2.16</v>
-      </c>
-      <c r="B90" s="132" t="s">
-        <v>170</v>
+        <f t="shared" si="27"/>
+        <v>4.2.5</v>
+      </c>
+      <c r="B90" s="99" t="s">
+        <v>136</v>
       </c>
       <c r="D90" s="98"/>
       <c r="E90" s="75">
-        <v>44499</v>
+        <v>44494</v>
       </c>
       <c r="F90" s="76">
-        <f t="shared" si="27"/>
-        <v>44499</v>
+        <f t="shared" si="28"/>
+        <v>44494</v>
       </c>
       <c r="G90" s="58">
         <v>1</v>
@@ -12331,109 +12526,113 @@
       <c r="BM90" s="79"/>
       <c r="BN90" s="79"/>
     </row>
-    <row r="91" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A91" s="49" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>5</v>
-      </c>
-      <c r="B91" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="D91" s="52"/>
-      <c r="E91" s="77"/>
-      <c r="F91" s="77" t="str">
-        <f t="shared" ref="F91:F92" si="32">IF(ISBLANK(E91)," - ",IF(G91=0,E91,E91+G91-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G91" s="53"/>
-      <c r="H91" s="54"/>
-      <c r="I91" s="55" t="str">
-        <f t="shared" ref="I91:I92" si="33">IF(OR(F91=0,E91=0)," - ",NETWORKDAYS(E91,F91))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J91" s="74"/>
-      <c r="K91" s="80"/>
-      <c r="L91" s="80"/>
-      <c r="M91" s="80"/>
-      <c r="N91" s="80"/>
-      <c r="O91" s="80"/>
-      <c r="P91" s="80"/>
-      <c r="Q91" s="80"/>
-      <c r="R91" s="80"/>
-      <c r="S91" s="80"/>
-      <c r="T91" s="80"/>
-      <c r="U91" s="80"/>
-      <c r="V91" s="80"/>
-      <c r="W91" s="80"/>
-      <c r="X91" s="80"/>
-      <c r="Y91" s="80"/>
-      <c r="Z91" s="80"/>
-      <c r="AA91" s="80"/>
-      <c r="AB91" s="80"/>
-      <c r="AC91" s="80"/>
-      <c r="AD91" s="80"/>
-      <c r="AE91" s="80"/>
-      <c r="AF91" s="80"/>
-      <c r="AG91" s="80"/>
-      <c r="AH91" s="80"/>
-      <c r="AI91" s="80"/>
-      <c r="AJ91" s="80"/>
-      <c r="AK91" s="80"/>
-      <c r="AL91" s="80"/>
-      <c r="AM91" s="80"/>
-      <c r="AN91" s="80"/>
-      <c r="AO91" s="80"/>
-      <c r="AP91" s="80"/>
-      <c r="AQ91" s="80"/>
-      <c r="AR91" s="80"/>
-      <c r="AS91" s="80"/>
-      <c r="AT91" s="80"/>
-      <c r="AU91" s="80"/>
-      <c r="AV91" s="80"/>
-      <c r="AW91" s="80"/>
-      <c r="AX91" s="80"/>
-      <c r="AY91" s="80"/>
-      <c r="AZ91" s="80"/>
-      <c r="BA91" s="80"/>
-      <c r="BB91" s="80"/>
-      <c r="BC91" s="80"/>
-      <c r="BD91" s="80"/>
-      <c r="BE91" s="80"/>
-      <c r="BF91" s="80"/>
-      <c r="BG91" s="80"/>
-      <c r="BH91" s="80"/>
-      <c r="BI91" s="80"/>
-      <c r="BJ91" s="80"/>
-      <c r="BK91" s="80"/>
-      <c r="BL91" s="80"/>
-      <c r="BM91" s="80"/>
-      <c r="BN91" s="80"/>
-    </row>
-    <row r="92" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A91" s="56" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.2.6</v>
+      </c>
+      <c r="B91" s="132" t="s">
+        <v>170</v>
+      </c>
+      <c r="D91" s="98"/>
+      <c r="E91" s="75">
+        <v>44494</v>
+      </c>
+      <c r="F91" s="76">
+        <f t="shared" si="28"/>
+        <v>44494</v>
+      </c>
+      <c r="G91" s="58">
+        <v>1</v>
+      </c>
+      <c r="H91" s="59">
+        <v>0</v>
+      </c>
+      <c r="I91" s="60">
+        <v>0</v>
+      </c>
+      <c r="J91" s="73"/>
+      <c r="K91" s="79"/>
+      <c r="L91" s="79"/>
+      <c r="M91" s="79"/>
+      <c r="N91" s="79"/>
+      <c r="O91" s="79"/>
+      <c r="P91" s="79"/>
+      <c r="Q91" s="79"/>
+      <c r="R91" s="79"/>
+      <c r="S91" s="79"/>
+      <c r="T91" s="79"/>
+      <c r="U91" s="79"/>
+      <c r="V91" s="79"/>
+      <c r="W91" s="79"/>
+      <c r="X91" s="79"/>
+      <c r="Y91" s="79"/>
+      <c r="Z91" s="79"/>
+      <c r="AA91" s="79"/>
+      <c r="AB91" s="79"/>
+      <c r="AC91" s="79"/>
+      <c r="AD91" s="79"/>
+      <c r="AE91" s="79"/>
+      <c r="AF91" s="79"/>
+      <c r="AG91" s="79"/>
+      <c r="AH91" s="79"/>
+      <c r="AI91" s="79"/>
+      <c r="AJ91" s="79"/>
+      <c r="AK91" s="79"/>
+      <c r="AL91" s="79"/>
+      <c r="AM91" s="79"/>
+      <c r="AN91" s="79"/>
+      <c r="AO91" s="79"/>
+      <c r="AP91" s="79"/>
+      <c r="AQ91" s="79"/>
+      <c r="AR91" s="79"/>
+      <c r="AS91" s="79"/>
+      <c r="AT91" s="79"/>
+      <c r="AU91" s="79"/>
+      <c r="AV91" s="79"/>
+      <c r="AW91" s="79"/>
+      <c r="AX91" s="79"/>
+      <c r="AY91" s="79"/>
+      <c r="AZ91" s="79"/>
+      <c r="BA91" s="79"/>
+      <c r="BB91" s="79"/>
+      <c r="BC91" s="79"/>
+      <c r="BD91" s="79"/>
+      <c r="BE91" s="79"/>
+      <c r="BF91" s="79"/>
+      <c r="BG91" s="79"/>
+      <c r="BH91" s="79"/>
+      <c r="BI91" s="79"/>
+      <c r="BJ91" s="79"/>
+      <c r="BK91" s="79"/>
+      <c r="BL91" s="79"/>
+      <c r="BM91" s="79"/>
+      <c r="BN91" s="79"/>
+    </row>
+    <row r="92" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A92" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.1</v>
-      </c>
-      <c r="B92" s="97" t="s">
-        <v>147</v>
+        <f t="shared" si="27"/>
+        <v>4.2.7</v>
+      </c>
+      <c r="B92" s="99" t="s">
+        <v>137</v>
       </c>
       <c r="D92" s="98"/>
       <c r="E92" s="75">
-        <v>44500</v>
+        <v>44495</v>
       </c>
       <c r="F92" s="76">
-        <f t="shared" si="32"/>
-        <v>44501</v>
+        <f t="shared" si="28"/>
+        <v>44495</v>
       </c>
       <c r="G92" s="58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H92" s="59">
         <v>0</v>
       </c>
       <c r="I92" s="60">
-        <f t="shared" si="33"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" s="73"/>
       <c r="K92" s="79"/>
@@ -12495,29 +12694,28 @@
     </row>
     <row r="93" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A93" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.2</v>
-      </c>
-      <c r="B93" s="97" t="s">
-        <v>148</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.2.8</v>
+      </c>
+      <c r="B93" s="132" t="s">
+        <v>170</v>
       </c>
       <c r="D93" s="98"/>
       <c r="E93" s="75">
-        <v>44501</v>
+        <v>44495</v>
       </c>
       <c r="F93" s="76">
-        <f t="shared" ref="F93" si="34">IF(ISBLANK(E93)," - ",IF(G93=0,E93,E93+G93-1))</f>
-        <v>44502</v>
+        <f t="shared" ref="F93" si="30">IF(ISBLANK(E93)," - ",IF(G93=0,E93,E93+G93-1))</f>
+        <v>44495</v>
       </c>
       <c r="G93" s="58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H93" s="59">
         <v>0</v>
       </c>
       <c r="I93" s="60">
-        <f t="shared" ref="I93" si="35">IF(OR(F93=0,E93=0)," - ",NETWORKDAYS(E93,F93))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J93" s="73"/>
       <c r="K93" s="79"/>
@@ -12577,31 +12775,30 @@
       <c r="BM93" s="79"/>
       <c r="BN93" s="79"/>
     </row>
-    <row r="94" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A94" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.3</v>
-      </c>
-      <c r="B94" s="97" t="s">
-        <v>149</v>
+        <f t="shared" si="27"/>
+        <v>4.2.9</v>
+      </c>
+      <c r="B94" s="99" t="s">
+        <v>138</v>
       </c>
       <c r="D94" s="98"/>
       <c r="E94" s="75">
-        <v>44502</v>
+        <v>44496</v>
       </c>
       <c r="F94" s="76">
-        <f t="shared" ref="F94:F95" si="36">IF(ISBLANK(E94)," - ",IF(G94=0,E94,E94+G94-1))</f>
-        <v>44503</v>
+        <f t="shared" si="28"/>
+        <v>44496</v>
       </c>
       <c r="G94" s="58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H94" s="59">
         <v>0</v>
       </c>
       <c r="I94" s="60">
-        <f t="shared" ref="I94:I95" si="37">IF(OR(F94=0,E94=0)," - ",NETWORKDAYS(E94,F94))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J94" s="73"/>
       <c r="K94" s="79"/>
@@ -12661,109 +12858,113 @@
       <c r="BM94" s="79"/>
       <c r="BN94" s="79"/>
     </row>
-    <row r="95" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A95" s="49" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>6</v>
-      </c>
-      <c r="B95" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="D95" s="52"/>
-      <c r="E95" s="77"/>
-      <c r="F95" s="77" t="str">
-        <f t="shared" si="36"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G95" s="53"/>
-      <c r="H95" s="54"/>
-      <c r="I95" s="55" t="str">
-        <f t="shared" si="37"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J95" s="74"/>
-      <c r="K95" s="80"/>
-      <c r="L95" s="80"/>
-      <c r="M95" s="80"/>
-      <c r="N95" s="80"/>
-      <c r="O95" s="80"/>
-      <c r="P95" s="80"/>
-      <c r="Q95" s="80"/>
-      <c r="R95" s="80"/>
-      <c r="S95" s="80"/>
-      <c r="T95" s="80"/>
-      <c r="U95" s="80"/>
-      <c r="V95" s="80"/>
-      <c r="W95" s="80"/>
-      <c r="X95" s="80"/>
-      <c r="Y95" s="80"/>
-      <c r="Z95" s="80"/>
-      <c r="AA95" s="80"/>
-      <c r="AB95" s="80"/>
-      <c r="AC95" s="80"/>
-      <c r="AD95" s="80"/>
-      <c r="AE95" s="80"/>
-      <c r="AF95" s="80"/>
-      <c r="AG95" s="80"/>
-      <c r="AH95" s="80"/>
-      <c r="AI95" s="80"/>
-      <c r="AJ95" s="80"/>
-      <c r="AK95" s="80"/>
-      <c r="AL95" s="80"/>
-      <c r="AM95" s="80"/>
-      <c r="AN95" s="80"/>
-      <c r="AO95" s="80"/>
-      <c r="AP95" s="80"/>
-      <c r="AQ95" s="80"/>
-      <c r="AR95" s="80"/>
-      <c r="AS95" s="80"/>
-      <c r="AT95" s="80"/>
-      <c r="AU95" s="80"/>
-      <c r="AV95" s="80"/>
-      <c r="AW95" s="80"/>
-      <c r="AX95" s="80"/>
-      <c r="AY95" s="80"/>
-      <c r="AZ95" s="80"/>
-      <c r="BA95" s="80"/>
-      <c r="BB95" s="80"/>
-      <c r="BC95" s="80"/>
-      <c r="BD95" s="80"/>
-      <c r="BE95" s="80"/>
-      <c r="BF95" s="80"/>
-      <c r="BG95" s="80"/>
-      <c r="BH95" s="80"/>
-      <c r="BI95" s="80"/>
-      <c r="BJ95" s="80"/>
-      <c r="BK95" s="80"/>
-      <c r="BL95" s="80"/>
-      <c r="BM95" s="80"/>
-      <c r="BN95" s="80"/>
+    <row r="95" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A95" s="56" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.2.10</v>
+      </c>
+      <c r="B95" s="132" t="s">
+        <v>170</v>
+      </c>
+      <c r="D95" s="98"/>
+      <c r="E95" s="75">
+        <v>44496</v>
+      </c>
+      <c r="F95" s="76">
+        <f t="shared" si="28"/>
+        <v>44496</v>
+      </c>
+      <c r="G95" s="58">
+        <v>1</v>
+      </c>
+      <c r="H95" s="59">
+        <v>0</v>
+      </c>
+      <c r="I95" s="60">
+        <v>0</v>
+      </c>
+      <c r="J95" s="73"/>
+      <c r="K95" s="79"/>
+      <c r="L95" s="79"/>
+      <c r="M95" s="79"/>
+      <c r="N95" s="79"/>
+      <c r="O95" s="79"/>
+      <c r="P95" s="79"/>
+      <c r="Q95" s="79"/>
+      <c r="R95" s="79"/>
+      <c r="S95" s="79"/>
+      <c r="T95" s="79"/>
+      <c r="U95" s="79"/>
+      <c r="V95" s="79"/>
+      <c r="W95" s="79"/>
+      <c r="X95" s="79"/>
+      <c r="Y95" s="79"/>
+      <c r="Z95" s="79"/>
+      <c r="AA95" s="79"/>
+      <c r="AB95" s="79"/>
+      <c r="AC95" s="79"/>
+      <c r="AD95" s="79"/>
+      <c r="AE95" s="79"/>
+      <c r="AF95" s="79"/>
+      <c r="AG95" s="79"/>
+      <c r="AH95" s="79"/>
+      <c r="AI95" s="79"/>
+      <c r="AJ95" s="79"/>
+      <c r="AK95" s="79"/>
+      <c r="AL95" s="79"/>
+      <c r="AM95" s="79"/>
+      <c r="AN95" s="79"/>
+      <c r="AO95" s="79"/>
+      <c r="AP95" s="79"/>
+      <c r="AQ95" s="79"/>
+      <c r="AR95" s="79"/>
+      <c r="AS95" s="79"/>
+      <c r="AT95" s="79"/>
+      <c r="AU95" s="79"/>
+      <c r="AV95" s="79"/>
+      <c r="AW95" s="79"/>
+      <c r="AX95" s="79"/>
+      <c r="AY95" s="79"/>
+      <c r="AZ95" s="79"/>
+      <c r="BA95" s="79"/>
+      <c r="BB95" s="79"/>
+      <c r="BC95" s="79"/>
+      <c r="BD95" s="79"/>
+      <c r="BE95" s="79"/>
+      <c r="BF95" s="79"/>
+      <c r="BG95" s="79"/>
+      <c r="BH95" s="79"/>
+      <c r="BI95" s="79"/>
+      <c r="BJ95" s="79"/>
+      <c r="BK95" s="79"/>
+      <c r="BL95" s="79"/>
+      <c r="BM95" s="79"/>
+      <c r="BN95" s="79"/>
     </row>
     <row r="96" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A96" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>6.1</v>
-      </c>
-      <c r="B96" s="97" t="s">
-        <v>150</v>
+        <f t="shared" si="27"/>
+        <v>4.2.11</v>
+      </c>
+      <c r="B96" s="99" t="s">
+        <v>139</v>
       </c>
       <c r="D96" s="98"/>
       <c r="E96" s="75">
-        <v>44503</v>
+        <v>44497</v>
       </c>
       <c r="F96" s="76">
-        <f t="shared" ref="F96" si="38">IF(ISBLANK(E96)," - ",IF(G96=0,E96,E96+G96-1))</f>
-        <v>44505</v>
+        <f t="shared" si="28"/>
+        <v>44497</v>
       </c>
       <c r="G96" s="58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H96" s="59">
         <v>0</v>
       </c>
       <c r="I96" s="60">
-        <f t="shared" ref="I96" si="39">IF(OR(F96=0,E96=0)," - ",NETWORKDAYS(E96,F96))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J96" s="73"/>
       <c r="K96" s="79"/>
@@ -12823,31 +13024,30 @@
       <c r="BM96" s="79"/>
       <c r="BN96" s="79"/>
     </row>
-    <row r="97" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A97" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>6.2</v>
-      </c>
-      <c r="B97" s="97" t="s">
-        <v>151</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.2.12</v>
+      </c>
+      <c r="B97" s="132" t="s">
+        <v>170</v>
       </c>
       <c r="D97" s="98"/>
       <c r="E97" s="75">
-        <v>44505</v>
+        <v>44497</v>
       </c>
       <c r="F97" s="76">
-        <f t="shared" ref="F97:F101" si="40">IF(ISBLANK(E97)," - ",IF(G97=0,E97,E97+G97-1))</f>
-        <v>44507</v>
+        <f t="shared" ref="F97" si="31">IF(ISBLANK(E97)," - ",IF(G97=0,E97,E97+G97-1))</f>
+        <v>44497</v>
       </c>
       <c r="G97" s="58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H97" s="59">
         <v>0</v>
       </c>
       <c r="I97" s="60">
-        <f t="shared" ref="I97:I101" si="41">IF(OR(F97=0,E97=0)," - ",NETWORKDAYS(E97,F97))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" s="73"/>
       <c r="K97" s="79"/>
@@ -12907,99 +13107,105 @@
       <c r="BM97" s="79"/>
       <c r="BN97" s="79"/>
     </row>
-    <row r="98" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A98" s="49" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>7</v>
-      </c>
-      <c r="B98" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="D98" s="52"/>
-      <c r="E98" s="77"/>
-      <c r="F98" s="77" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G98" s="53"/>
-      <c r="H98" s="54"/>
-      <c r="I98" s="55" t="str">
-        <f t="shared" si="41"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J98" s="74"/>
-      <c r="K98" s="80"/>
-      <c r="L98" s="80"/>
-      <c r="M98" s="80"/>
-      <c r="N98" s="80"/>
-      <c r="O98" s="80"/>
-      <c r="P98" s="80"/>
-      <c r="Q98" s="80"/>
-      <c r="R98" s="80"/>
-      <c r="S98" s="80"/>
-      <c r="T98" s="80"/>
-      <c r="U98" s="80"/>
-      <c r="V98" s="80"/>
-      <c r="W98" s="80"/>
-      <c r="X98" s="80"/>
-      <c r="Y98" s="80"/>
-      <c r="Z98" s="80"/>
-      <c r="AA98" s="80"/>
-      <c r="AB98" s="80"/>
-      <c r="AC98" s="80"/>
-      <c r="AD98" s="80"/>
-      <c r="AE98" s="80"/>
-      <c r="AF98" s="80"/>
-      <c r="AG98" s="80"/>
-      <c r="AH98" s="80"/>
-      <c r="AI98" s="80"/>
-      <c r="AJ98" s="80"/>
-      <c r="AK98" s="80"/>
-      <c r="AL98" s="80"/>
-      <c r="AM98" s="80"/>
-      <c r="AN98" s="80"/>
-      <c r="AO98" s="80"/>
-      <c r="AP98" s="80"/>
-      <c r="AQ98" s="80"/>
-      <c r="AR98" s="80"/>
-      <c r="AS98" s="80"/>
-      <c r="AT98" s="80"/>
-      <c r="AU98" s="80"/>
-      <c r="AV98" s="80"/>
-      <c r="AW98" s="80"/>
-      <c r="AX98" s="80"/>
-      <c r="AY98" s="80"/>
-      <c r="AZ98" s="80"/>
-      <c r="BA98" s="80"/>
-      <c r="BB98" s="80"/>
-      <c r="BC98" s="80"/>
-      <c r="BD98" s="80"/>
-      <c r="BE98" s="80"/>
-      <c r="BF98" s="80"/>
-      <c r="BG98" s="80"/>
-      <c r="BH98" s="80"/>
-      <c r="BI98" s="80"/>
-      <c r="BJ98" s="80"/>
-      <c r="BK98" s="80"/>
-      <c r="BL98" s="80"/>
-      <c r="BM98" s="80"/>
-      <c r="BN98" s="80"/>
+    <row r="98" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A98" s="56" t="str">
+        <f t="shared" si="27"/>
+        <v>4.2.13</v>
+      </c>
+      <c r="B98" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="D98" s="98"/>
+      <c r="E98" s="75">
+        <v>44498</v>
+      </c>
+      <c r="F98" s="76">
+        <f t="shared" si="28"/>
+        <v>44498</v>
+      </c>
+      <c r="G98" s="58">
+        <v>1</v>
+      </c>
+      <c r="H98" s="59">
+        <v>0</v>
+      </c>
+      <c r="I98" s="60">
+        <f t="shared" ref="I98:I100" si="32">IF(OR(F98=0,E98=0)," - ",NETWORKDAYS(E98,F98))</f>
+        <v>1</v>
+      </c>
+      <c r="J98" s="73"/>
+      <c r="K98" s="79"/>
+      <c r="L98" s="79"/>
+      <c r="M98" s="79"/>
+      <c r="N98" s="79"/>
+      <c r="O98" s="79"/>
+      <c r="P98" s="79"/>
+      <c r="Q98" s="79"/>
+      <c r="R98" s="79"/>
+      <c r="S98" s="79"/>
+      <c r="T98" s="79"/>
+      <c r="U98" s="79"/>
+      <c r="V98" s="79"/>
+      <c r="W98" s="79"/>
+      <c r="X98" s="79"/>
+      <c r="Y98" s="79"/>
+      <c r="Z98" s="79"/>
+      <c r="AA98" s="79"/>
+      <c r="AB98" s="79"/>
+      <c r="AC98" s="79"/>
+      <c r="AD98" s="79"/>
+      <c r="AE98" s="79"/>
+      <c r="AF98" s="79"/>
+      <c r="AG98" s="79"/>
+      <c r="AH98" s="79"/>
+      <c r="AI98" s="79"/>
+      <c r="AJ98" s="79"/>
+      <c r="AK98" s="79"/>
+      <c r="AL98" s="79"/>
+      <c r="AM98" s="79"/>
+      <c r="AN98" s="79"/>
+      <c r="AO98" s="79"/>
+      <c r="AP98" s="79"/>
+      <c r="AQ98" s="79"/>
+      <c r="AR98" s="79"/>
+      <c r="AS98" s="79"/>
+      <c r="AT98" s="79"/>
+      <c r="AU98" s="79"/>
+      <c r="AV98" s="79"/>
+      <c r="AW98" s="79"/>
+      <c r="AX98" s="79"/>
+      <c r="AY98" s="79"/>
+      <c r="AZ98" s="79"/>
+      <c r="BA98" s="79"/>
+      <c r="BB98" s="79"/>
+      <c r="BC98" s="79"/>
+      <c r="BD98" s="79"/>
+      <c r="BE98" s="79"/>
+      <c r="BF98" s="79"/>
+      <c r="BG98" s="79"/>
+      <c r="BH98" s="79"/>
+      <c r="BI98" s="79"/>
+      <c r="BJ98" s="79"/>
+      <c r="BK98" s="79"/>
+      <c r="BL98" s="79"/>
+      <c r="BM98" s="79"/>
+      <c r="BN98" s="79"/>
     </row>
     <row r="99" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A99" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>7.1</v>
-      </c>
-      <c r="B99" s="97" t="s">
-        <v>7</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.2.14</v>
+      </c>
+      <c r="B99" s="132" t="s">
+        <v>170</v>
       </c>
       <c r="D99" s="98"/>
       <c r="E99" s="75">
-        <v>43131</v>
+        <v>44498</v>
       </c>
       <c r="F99" s="76">
-        <f t="shared" si="40"/>
-        <v>43131</v>
+        <f t="shared" si="28"/>
+        <v>44498</v>
       </c>
       <c r="G99" s="58">
         <v>1</v>
@@ -13008,8 +13214,7 @@
         <v>0</v>
       </c>
       <c r="I99" s="60">
-        <f t="shared" si="41"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" s="73"/>
       <c r="K99" s="79"/>
@@ -13069,21 +13274,21 @@
       <c r="BM99" s="79"/>
       <c r="BN99" s="79"/>
     </row>
-    <row r="100" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A100" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>7.2</v>
-      </c>
-      <c r="B100" s="97" t="s">
-        <v>7</v>
+        <f t="shared" si="27"/>
+        <v>4.2.15</v>
+      </c>
+      <c r="B100" s="99" t="s">
+        <v>162</v>
       </c>
       <c r="D100" s="98"/>
       <c r="E100" s="75">
-        <v>43132</v>
+        <v>44499</v>
       </c>
       <c r="F100" s="76">
-        <f t="shared" si="40"/>
-        <v>43132</v>
+        <f t="shared" si="28"/>
+        <v>44499</v>
       </c>
       <c r="G100" s="58">
         <v>1</v>
@@ -13092,8 +13297,8 @@
         <v>0</v>
       </c>
       <c r="I100" s="60">
-        <f t="shared" si="41"/>
-        <v>1</v>
+        <f t="shared" si="32"/>
+        <v>0</v>
       </c>
       <c r="J100" s="73"/>
       <c r="K100" s="79"/>
@@ -13155,19 +13360,19 @@
     </row>
     <row r="101" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A101" s="56" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>7.3</v>
-      </c>
-      <c r="B101" s="97" t="s">
-        <v>7</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.2.16</v>
+      </c>
+      <c r="B101" s="132" t="s">
+        <v>170</v>
       </c>
       <c r="D101" s="98"/>
       <c r="E101" s="75">
-        <v>43133</v>
+        <v>44499</v>
       </c>
       <c r="F101" s="76">
-        <f t="shared" si="40"/>
-        <v>43133</v>
+        <f t="shared" si="28"/>
+        <v>44499</v>
       </c>
       <c r="G101" s="58">
         <v>1</v>
@@ -13176,8 +13381,7 @@
         <v>0</v>
       </c>
       <c r="I101" s="60">
-        <f t="shared" si="41"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" s="73"/>
       <c r="K101" s="79"/>
@@ -13237,6 +13441,912 @@
       <c r="BM101" s="79"/>
       <c r="BN101" s="79"/>
     </row>
+    <row r="102" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A102" s="49" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>5</v>
+      </c>
+      <c r="B102" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="D102" s="52"/>
+      <c r="E102" s="77"/>
+      <c r="F102" s="77" t="str">
+        <f t="shared" ref="F102:F103" si="33">IF(ISBLANK(E102)," - ",IF(G102=0,E102,E102+G102-1))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G102" s="53"/>
+      <c r="H102" s="54"/>
+      <c r="I102" s="55" t="str">
+        <f t="shared" ref="I102:I103" si="34">IF(OR(F102=0,E102=0)," - ",NETWORKDAYS(E102,F102))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J102" s="74"/>
+      <c r="K102" s="80"/>
+      <c r="L102" s="80"/>
+      <c r="M102" s="80"/>
+      <c r="N102" s="80"/>
+      <c r="O102" s="80"/>
+      <c r="P102" s="80"/>
+      <c r="Q102" s="80"/>
+      <c r="R102" s="80"/>
+      <c r="S102" s="80"/>
+      <c r="T102" s="80"/>
+      <c r="U102" s="80"/>
+      <c r="V102" s="80"/>
+      <c r="W102" s="80"/>
+      <c r="X102" s="80"/>
+      <c r="Y102" s="80"/>
+      <c r="Z102" s="80"/>
+      <c r="AA102" s="80"/>
+      <c r="AB102" s="80"/>
+      <c r="AC102" s="80"/>
+      <c r="AD102" s="80"/>
+      <c r="AE102" s="80"/>
+      <c r="AF102" s="80"/>
+      <c r="AG102" s="80"/>
+      <c r="AH102" s="80"/>
+      <c r="AI102" s="80"/>
+      <c r="AJ102" s="80"/>
+      <c r="AK102" s="80"/>
+      <c r="AL102" s="80"/>
+      <c r="AM102" s="80"/>
+      <c r="AN102" s="80"/>
+      <c r="AO102" s="80"/>
+      <c r="AP102" s="80"/>
+      <c r="AQ102" s="80"/>
+      <c r="AR102" s="80"/>
+      <c r="AS102" s="80"/>
+      <c r="AT102" s="80"/>
+      <c r="AU102" s="80"/>
+      <c r="AV102" s="80"/>
+      <c r="AW102" s="80"/>
+      <c r="AX102" s="80"/>
+      <c r="AY102" s="80"/>
+      <c r="AZ102" s="80"/>
+      <c r="BA102" s="80"/>
+      <c r="BB102" s="80"/>
+      <c r="BC102" s="80"/>
+      <c r="BD102" s="80"/>
+      <c r="BE102" s="80"/>
+      <c r="BF102" s="80"/>
+      <c r="BG102" s="80"/>
+      <c r="BH102" s="80"/>
+      <c r="BI102" s="80"/>
+      <c r="BJ102" s="80"/>
+      <c r="BK102" s="80"/>
+      <c r="BL102" s="80"/>
+      <c r="BM102" s="80"/>
+      <c r="BN102" s="80"/>
+    </row>
+    <row r="103" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A103" s="56" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>5.1</v>
+      </c>
+      <c r="B103" s="97" t="s">
+        <v>147</v>
+      </c>
+      <c r="D103" s="98"/>
+      <c r="E103" s="75">
+        <v>44500</v>
+      </c>
+      <c r="F103" s="76">
+        <f t="shared" si="33"/>
+        <v>44501</v>
+      </c>
+      <c r="G103" s="58">
+        <v>2</v>
+      </c>
+      <c r="H103" s="59">
+        <v>0</v>
+      </c>
+      <c r="I103" s="60">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="J103" s="73"/>
+      <c r="K103" s="79"/>
+      <c r="L103" s="79"/>
+      <c r="M103" s="79"/>
+      <c r="N103" s="79"/>
+      <c r="O103" s="79"/>
+      <c r="P103" s="79"/>
+      <c r="Q103" s="79"/>
+      <c r="R103" s="79"/>
+      <c r="S103" s="79"/>
+      <c r="T103" s="79"/>
+      <c r="U103" s="79"/>
+      <c r="V103" s="79"/>
+      <c r="W103" s="79"/>
+      <c r="X103" s="79"/>
+      <c r="Y103" s="79"/>
+      <c r="Z103" s="79"/>
+      <c r="AA103" s="79"/>
+      <c r="AB103" s="79"/>
+      <c r="AC103" s="79"/>
+      <c r="AD103" s="79"/>
+      <c r="AE103" s="79"/>
+      <c r="AF103" s="79"/>
+      <c r="AG103" s="79"/>
+      <c r="AH103" s="79"/>
+      <c r="AI103" s="79"/>
+      <c r="AJ103" s="79"/>
+      <c r="AK103" s="79"/>
+      <c r="AL103" s="79"/>
+      <c r="AM103" s="79"/>
+      <c r="AN103" s="79"/>
+      <c r="AO103" s="79"/>
+      <c r="AP103" s="79"/>
+      <c r="AQ103" s="79"/>
+      <c r="AR103" s="79"/>
+      <c r="AS103" s="79"/>
+      <c r="AT103" s="79"/>
+      <c r="AU103" s="79"/>
+      <c r="AV103" s="79"/>
+      <c r="AW103" s="79"/>
+      <c r="AX103" s="79"/>
+      <c r="AY103" s="79"/>
+      <c r="AZ103" s="79"/>
+      <c r="BA103" s="79"/>
+      <c r="BB103" s="79"/>
+      <c r="BC103" s="79"/>
+      <c r="BD103" s="79"/>
+      <c r="BE103" s="79"/>
+      <c r="BF103" s="79"/>
+      <c r="BG103" s="79"/>
+      <c r="BH103" s="79"/>
+      <c r="BI103" s="79"/>
+      <c r="BJ103" s="79"/>
+      <c r="BK103" s="79"/>
+      <c r="BL103" s="79"/>
+      <c r="BM103" s="79"/>
+      <c r="BN103" s="79"/>
+    </row>
+    <row r="104" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A104" s="56" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>5.2</v>
+      </c>
+      <c r="B104" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="D104" s="98"/>
+      <c r="E104" s="75">
+        <v>44501</v>
+      </c>
+      <c r="F104" s="76">
+        <f t="shared" ref="F104" si="35">IF(ISBLANK(E104)," - ",IF(G104=0,E104,E104+G104-1))</f>
+        <v>44502</v>
+      </c>
+      <c r="G104" s="58">
+        <v>2</v>
+      </c>
+      <c r="H104" s="59">
+        <v>0</v>
+      </c>
+      <c r="I104" s="60">
+        <f t="shared" ref="I104" si="36">IF(OR(F104=0,E104=0)," - ",NETWORKDAYS(E104,F104))</f>
+        <v>2</v>
+      </c>
+      <c r="J104" s="73"/>
+      <c r="K104" s="79"/>
+      <c r="L104" s="79"/>
+      <c r="M104" s="79"/>
+      <c r="N104" s="79"/>
+      <c r="O104" s="79"/>
+      <c r="P104" s="79"/>
+      <c r="Q104" s="79"/>
+      <c r="R104" s="79"/>
+      <c r="S104" s="79"/>
+      <c r="T104" s="79"/>
+      <c r="U104" s="79"/>
+      <c r="V104" s="79"/>
+      <c r="W104" s="79"/>
+      <c r="X104" s="79"/>
+      <c r="Y104" s="79"/>
+      <c r="Z104" s="79"/>
+      <c r="AA104" s="79"/>
+      <c r="AB104" s="79"/>
+      <c r="AC104" s="79"/>
+      <c r="AD104" s="79"/>
+      <c r="AE104" s="79"/>
+      <c r="AF104" s="79"/>
+      <c r="AG104" s="79"/>
+      <c r="AH104" s="79"/>
+      <c r="AI104" s="79"/>
+      <c r="AJ104" s="79"/>
+      <c r="AK104" s="79"/>
+      <c r="AL104" s="79"/>
+      <c r="AM104" s="79"/>
+      <c r="AN104" s="79"/>
+      <c r="AO104" s="79"/>
+      <c r="AP104" s="79"/>
+      <c r="AQ104" s="79"/>
+      <c r="AR104" s="79"/>
+      <c r="AS104" s="79"/>
+      <c r="AT104" s="79"/>
+      <c r="AU104" s="79"/>
+      <c r="AV104" s="79"/>
+      <c r="AW104" s="79"/>
+      <c r="AX104" s="79"/>
+      <c r="AY104" s="79"/>
+      <c r="AZ104" s="79"/>
+      <c r="BA104" s="79"/>
+      <c r="BB104" s="79"/>
+      <c r="BC104" s="79"/>
+      <c r="BD104" s="79"/>
+      <c r="BE104" s="79"/>
+      <c r="BF104" s="79"/>
+      <c r="BG104" s="79"/>
+      <c r="BH104" s="79"/>
+      <c r="BI104" s="79"/>
+      <c r="BJ104" s="79"/>
+      <c r="BK104" s="79"/>
+      <c r="BL104" s="79"/>
+      <c r="BM104" s="79"/>
+      <c r="BN104" s="79"/>
+    </row>
+    <row r="105" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A105" s="56" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>5.3</v>
+      </c>
+      <c r="B105" s="97" t="s">
+        <v>149</v>
+      </c>
+      <c r="D105" s="98"/>
+      <c r="E105" s="75">
+        <v>44502</v>
+      </c>
+      <c r="F105" s="76">
+        <f t="shared" ref="F105:F106" si="37">IF(ISBLANK(E105)," - ",IF(G105=0,E105,E105+G105-1))</f>
+        <v>44503</v>
+      </c>
+      <c r="G105" s="58">
+        <v>2</v>
+      </c>
+      <c r="H105" s="59">
+        <v>0</v>
+      </c>
+      <c r="I105" s="60">
+        <f t="shared" ref="I105:I106" si="38">IF(OR(F105=0,E105=0)," - ",NETWORKDAYS(E105,F105))</f>
+        <v>2</v>
+      </c>
+      <c r="J105" s="73"/>
+      <c r="K105" s="79"/>
+      <c r="L105" s="79"/>
+      <c r="M105" s="79"/>
+      <c r="N105" s="79"/>
+      <c r="O105" s="79"/>
+      <c r="P105" s="79"/>
+      <c r="Q105" s="79"/>
+      <c r="R105" s="79"/>
+      <c r="S105" s="79"/>
+      <c r="T105" s="79"/>
+      <c r="U105" s="79"/>
+      <c r="V105" s="79"/>
+      <c r="W105" s="79"/>
+      <c r="X105" s="79"/>
+      <c r="Y105" s="79"/>
+      <c r="Z105" s="79"/>
+      <c r="AA105" s="79"/>
+      <c r="AB105" s="79"/>
+      <c r="AC105" s="79"/>
+      <c r="AD105" s="79"/>
+      <c r="AE105" s="79"/>
+      <c r="AF105" s="79"/>
+      <c r="AG105" s="79"/>
+      <c r="AH105" s="79"/>
+      <c r="AI105" s="79"/>
+      <c r="AJ105" s="79"/>
+      <c r="AK105" s="79"/>
+      <c r="AL105" s="79"/>
+      <c r="AM105" s="79"/>
+      <c r="AN105" s="79"/>
+      <c r="AO105" s="79"/>
+      <c r="AP105" s="79"/>
+      <c r="AQ105" s="79"/>
+      <c r="AR105" s="79"/>
+      <c r="AS105" s="79"/>
+      <c r="AT105" s="79"/>
+      <c r="AU105" s="79"/>
+      <c r="AV105" s="79"/>
+      <c r="AW105" s="79"/>
+      <c r="AX105" s="79"/>
+      <c r="AY105" s="79"/>
+      <c r="AZ105" s="79"/>
+      <c r="BA105" s="79"/>
+      <c r="BB105" s="79"/>
+      <c r="BC105" s="79"/>
+      <c r="BD105" s="79"/>
+      <c r="BE105" s="79"/>
+      <c r="BF105" s="79"/>
+      <c r="BG105" s="79"/>
+      <c r="BH105" s="79"/>
+      <c r="BI105" s="79"/>
+      <c r="BJ105" s="79"/>
+      <c r="BK105" s="79"/>
+      <c r="BL105" s="79"/>
+      <c r="BM105" s="79"/>
+      <c r="BN105" s="79"/>
+    </row>
+    <row r="106" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A106" s="49" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>6</v>
+      </c>
+      <c r="B106" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="D106" s="52"/>
+      <c r="E106" s="77"/>
+      <c r="F106" s="77" t="str">
+        <f t="shared" si="37"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G106" s="53"/>
+      <c r="H106" s="54"/>
+      <c r="I106" s="55" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J106" s="74"/>
+      <c r="K106" s="80"/>
+      <c r="L106" s="80"/>
+      <c r="M106" s="80"/>
+      <c r="N106" s="80"/>
+      <c r="O106" s="80"/>
+      <c r="P106" s="80"/>
+      <c r="Q106" s="80"/>
+      <c r="R106" s="80"/>
+      <c r="S106" s="80"/>
+      <c r="T106" s="80"/>
+      <c r="U106" s="80"/>
+      <c r="V106" s="80"/>
+      <c r="W106" s="80"/>
+      <c r="X106" s="80"/>
+      <c r="Y106" s="80"/>
+      <c r="Z106" s="80"/>
+      <c r="AA106" s="80"/>
+      <c r="AB106" s="80"/>
+      <c r="AC106" s="80"/>
+      <c r="AD106" s="80"/>
+      <c r="AE106" s="80"/>
+      <c r="AF106" s="80"/>
+      <c r="AG106" s="80"/>
+      <c r="AH106" s="80"/>
+      <c r="AI106" s="80"/>
+      <c r="AJ106" s="80"/>
+      <c r="AK106" s="80"/>
+      <c r="AL106" s="80"/>
+      <c r="AM106" s="80"/>
+      <c r="AN106" s="80"/>
+      <c r="AO106" s="80"/>
+      <c r="AP106" s="80"/>
+      <c r="AQ106" s="80"/>
+      <c r="AR106" s="80"/>
+      <c r="AS106" s="80"/>
+      <c r="AT106" s="80"/>
+      <c r="AU106" s="80"/>
+      <c r="AV106" s="80"/>
+      <c r="AW106" s="80"/>
+      <c r="AX106" s="80"/>
+      <c r="AY106" s="80"/>
+      <c r="AZ106" s="80"/>
+      <c r="BA106" s="80"/>
+      <c r="BB106" s="80"/>
+      <c r="BC106" s="80"/>
+      <c r="BD106" s="80"/>
+      <c r="BE106" s="80"/>
+      <c r="BF106" s="80"/>
+      <c r="BG106" s="80"/>
+      <c r="BH106" s="80"/>
+      <c r="BI106" s="80"/>
+      <c r="BJ106" s="80"/>
+      <c r="BK106" s="80"/>
+      <c r="BL106" s="80"/>
+      <c r="BM106" s="80"/>
+      <c r="BN106" s="80"/>
+    </row>
+    <row r="107" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A107" s="56" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>6.1</v>
+      </c>
+      <c r="B107" s="97" t="s">
+        <v>150</v>
+      </c>
+      <c r="D107" s="98"/>
+      <c r="E107" s="75">
+        <v>44503</v>
+      </c>
+      <c r="F107" s="76">
+        <f t="shared" ref="F107" si="39">IF(ISBLANK(E107)," - ",IF(G107=0,E107,E107+G107-1))</f>
+        <v>44505</v>
+      </c>
+      <c r="G107" s="58">
+        <v>3</v>
+      </c>
+      <c r="H107" s="59">
+        <v>0</v>
+      </c>
+      <c r="I107" s="60">
+        <f t="shared" ref="I107" si="40">IF(OR(F107=0,E107=0)," - ",NETWORKDAYS(E107,F107))</f>
+        <v>3</v>
+      </c>
+      <c r="J107" s="73"/>
+      <c r="K107" s="79"/>
+      <c r="L107" s="79"/>
+      <c r="M107" s="79"/>
+      <c r="N107" s="79"/>
+      <c r="O107" s="79"/>
+      <c r="P107" s="79"/>
+      <c r="Q107" s="79"/>
+      <c r="R107" s="79"/>
+      <c r="S107" s="79"/>
+      <c r="T107" s="79"/>
+      <c r="U107" s="79"/>
+      <c r="V107" s="79"/>
+      <c r="W107" s="79"/>
+      <c r="X107" s="79"/>
+      <c r="Y107" s="79"/>
+      <c r="Z107" s="79"/>
+      <c r="AA107" s="79"/>
+      <c r="AB107" s="79"/>
+      <c r="AC107" s="79"/>
+      <c r="AD107" s="79"/>
+      <c r="AE107" s="79"/>
+      <c r="AF107" s="79"/>
+      <c r="AG107" s="79"/>
+      <c r="AH107" s="79"/>
+      <c r="AI107" s="79"/>
+      <c r="AJ107" s="79"/>
+      <c r="AK107" s="79"/>
+      <c r="AL107" s="79"/>
+      <c r="AM107" s="79"/>
+      <c r="AN107" s="79"/>
+      <c r="AO107" s="79"/>
+      <c r="AP107" s="79"/>
+      <c r="AQ107" s="79"/>
+      <c r="AR107" s="79"/>
+      <c r="AS107" s="79"/>
+      <c r="AT107" s="79"/>
+      <c r="AU107" s="79"/>
+      <c r="AV107" s="79"/>
+      <c r="AW107" s="79"/>
+      <c r="AX107" s="79"/>
+      <c r="AY107" s="79"/>
+      <c r="AZ107" s="79"/>
+      <c r="BA107" s="79"/>
+      <c r="BB107" s="79"/>
+      <c r="BC107" s="79"/>
+      <c r="BD107" s="79"/>
+      <c r="BE107" s="79"/>
+      <c r="BF107" s="79"/>
+      <c r="BG107" s="79"/>
+      <c r="BH107" s="79"/>
+      <c r="BI107" s="79"/>
+      <c r="BJ107" s="79"/>
+      <c r="BK107" s="79"/>
+      <c r="BL107" s="79"/>
+      <c r="BM107" s="79"/>
+      <c r="BN107" s="79"/>
+    </row>
+    <row r="108" spans="1:66" s="57" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A108" s="56" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>6.2</v>
+      </c>
+      <c r="B108" s="97" t="s">
+        <v>151</v>
+      </c>
+      <c r="D108" s="98"/>
+      <c r="E108" s="75">
+        <v>44505</v>
+      </c>
+      <c r="F108" s="76">
+        <f t="shared" ref="F108:F112" si="41">IF(ISBLANK(E108)," - ",IF(G108=0,E108,E108+G108-1))</f>
+        <v>44507</v>
+      </c>
+      <c r="G108" s="58">
+        <v>3</v>
+      </c>
+      <c r="H108" s="59">
+        <v>0</v>
+      </c>
+      <c r="I108" s="60">
+        <f t="shared" ref="I108:I112" si="42">IF(OR(F108=0,E108=0)," - ",NETWORKDAYS(E108,F108))</f>
+        <v>1</v>
+      </c>
+      <c r="J108" s="73"/>
+      <c r="K108" s="79"/>
+      <c r="L108" s="79"/>
+      <c r="M108" s="79"/>
+      <c r="N108" s="79"/>
+      <c r="O108" s="79"/>
+      <c r="P108" s="79"/>
+      <c r="Q108" s="79"/>
+      <c r="R108" s="79"/>
+      <c r="S108" s="79"/>
+      <c r="T108" s="79"/>
+      <c r="U108" s="79"/>
+      <c r="V108" s="79"/>
+      <c r="W108" s="79"/>
+      <c r="X108" s="79"/>
+      <c r="Y108" s="79"/>
+      <c r="Z108" s="79"/>
+      <c r="AA108" s="79"/>
+      <c r="AB108" s="79"/>
+      <c r="AC108" s="79"/>
+      <c r="AD108" s="79"/>
+      <c r="AE108" s="79"/>
+      <c r="AF108" s="79"/>
+      <c r="AG108" s="79"/>
+      <c r="AH108" s="79"/>
+      <c r="AI108" s="79"/>
+      <c r="AJ108" s="79"/>
+      <c r="AK108" s="79"/>
+      <c r="AL108" s="79"/>
+      <c r="AM108" s="79"/>
+      <c r="AN108" s="79"/>
+      <c r="AO108" s="79"/>
+      <c r="AP108" s="79"/>
+      <c r="AQ108" s="79"/>
+      <c r="AR108" s="79"/>
+      <c r="AS108" s="79"/>
+      <c r="AT108" s="79"/>
+      <c r="AU108" s="79"/>
+      <c r="AV108" s="79"/>
+      <c r="AW108" s="79"/>
+      <c r="AX108" s="79"/>
+      <c r="AY108" s="79"/>
+      <c r="AZ108" s="79"/>
+      <c r="BA108" s="79"/>
+      <c r="BB108" s="79"/>
+      <c r="BC108" s="79"/>
+      <c r="BD108" s="79"/>
+      <c r="BE108" s="79"/>
+      <c r="BF108" s="79"/>
+      <c r="BG108" s="79"/>
+      <c r="BH108" s="79"/>
+      <c r="BI108" s="79"/>
+      <c r="BJ108" s="79"/>
+      <c r="BK108" s="79"/>
+      <c r="BL108" s="79"/>
+      <c r="BM108" s="79"/>
+      <c r="BN108" s="79"/>
+    </row>
+    <row r="109" spans="1:66" s="51" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A109" s="49" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>7</v>
+      </c>
+      <c r="B109" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="D109" s="52"/>
+      <c r="E109" s="77"/>
+      <c r="F109" s="77" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G109" s="53"/>
+      <c r="H109" s="54"/>
+      <c r="I109" s="55" t="str">
+        <f t="shared" si="42"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J109" s="74"/>
+      <c r="K109" s="80"/>
+      <c r="L109" s="80"/>
+      <c r="M109" s="80"/>
+      <c r="N109" s="80"/>
+      <c r="O109" s="80"/>
+      <c r="P109" s="80"/>
+      <c r="Q109" s="80"/>
+      <c r="R109" s="80"/>
+      <c r="S109" s="80"/>
+      <c r="T109" s="80"/>
+      <c r="U109" s="80"/>
+      <c r="V109" s="80"/>
+      <c r="W109" s="80"/>
+      <c r="X109" s="80"/>
+      <c r="Y109" s="80"/>
+      <c r="Z109" s="80"/>
+      <c r="AA109" s="80"/>
+      <c r="AB109" s="80"/>
+      <c r="AC109" s="80"/>
+      <c r="AD109" s="80"/>
+      <c r="AE109" s="80"/>
+      <c r="AF109" s="80"/>
+      <c r="AG109" s="80"/>
+      <c r="AH109" s="80"/>
+      <c r="AI109" s="80"/>
+      <c r="AJ109" s="80"/>
+      <c r="AK109" s="80"/>
+      <c r="AL109" s="80"/>
+      <c r="AM109" s="80"/>
+      <c r="AN109" s="80"/>
+      <c r="AO109" s="80"/>
+      <c r="AP109" s="80"/>
+      <c r="AQ109" s="80"/>
+      <c r="AR109" s="80"/>
+      <c r="AS109" s="80"/>
+      <c r="AT109" s="80"/>
+      <c r="AU109" s="80"/>
+      <c r="AV109" s="80"/>
+      <c r="AW109" s="80"/>
+      <c r="AX109" s="80"/>
+      <c r="AY109" s="80"/>
+      <c r="AZ109" s="80"/>
+      <c r="BA109" s="80"/>
+      <c r="BB109" s="80"/>
+      <c r="BC109" s="80"/>
+      <c r="BD109" s="80"/>
+      <c r="BE109" s="80"/>
+      <c r="BF109" s="80"/>
+      <c r="BG109" s="80"/>
+      <c r="BH109" s="80"/>
+      <c r="BI109" s="80"/>
+      <c r="BJ109" s="80"/>
+      <c r="BK109" s="80"/>
+      <c r="BL109" s="80"/>
+      <c r="BM109" s="80"/>
+      <c r="BN109" s="80"/>
+    </row>
+    <row r="110" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A110" s="56" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>7.1</v>
+      </c>
+      <c r="B110" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" s="98"/>
+      <c r="E110" s="75">
+        <v>43131</v>
+      </c>
+      <c r="F110" s="76">
+        <f t="shared" si="41"/>
+        <v>43131</v>
+      </c>
+      <c r="G110" s="58">
+        <v>1</v>
+      </c>
+      <c r="H110" s="59">
+        <v>0</v>
+      </c>
+      <c r="I110" s="60">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="J110" s="73"/>
+      <c r="K110" s="79"/>
+      <c r="L110" s="79"/>
+      <c r="M110" s="79"/>
+      <c r="N110" s="79"/>
+      <c r="O110" s="79"/>
+      <c r="P110" s="79"/>
+      <c r="Q110" s="79"/>
+      <c r="R110" s="79"/>
+      <c r="S110" s="79"/>
+      <c r="T110" s="79"/>
+      <c r="U110" s="79"/>
+      <c r="V110" s="79"/>
+      <c r="W110" s="79"/>
+      <c r="X110" s="79"/>
+      <c r="Y110" s="79"/>
+      <c r="Z110" s="79"/>
+      <c r="AA110" s="79"/>
+      <c r="AB110" s="79"/>
+      <c r="AC110" s="79"/>
+      <c r="AD110" s="79"/>
+      <c r="AE110" s="79"/>
+      <c r="AF110" s="79"/>
+      <c r="AG110" s="79"/>
+      <c r="AH110" s="79"/>
+      <c r="AI110" s="79"/>
+      <c r="AJ110" s="79"/>
+      <c r="AK110" s="79"/>
+      <c r="AL110" s="79"/>
+      <c r="AM110" s="79"/>
+      <c r="AN110" s="79"/>
+      <c r="AO110" s="79"/>
+      <c r="AP110" s="79"/>
+      <c r="AQ110" s="79"/>
+      <c r="AR110" s="79"/>
+      <c r="AS110" s="79"/>
+      <c r="AT110" s="79"/>
+      <c r="AU110" s="79"/>
+      <c r="AV110" s="79"/>
+      <c r="AW110" s="79"/>
+      <c r="AX110" s="79"/>
+      <c r="AY110" s="79"/>
+      <c r="AZ110" s="79"/>
+      <c r="BA110" s="79"/>
+      <c r="BB110" s="79"/>
+      <c r="BC110" s="79"/>
+      <c r="BD110" s="79"/>
+      <c r="BE110" s="79"/>
+      <c r="BF110" s="79"/>
+      <c r="BG110" s="79"/>
+      <c r="BH110" s="79"/>
+      <c r="BI110" s="79"/>
+      <c r="BJ110" s="79"/>
+      <c r="BK110" s="79"/>
+      <c r="BL110" s="79"/>
+      <c r="BM110" s="79"/>
+      <c r="BN110" s="79"/>
+    </row>
+    <row r="111" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A111" s="56" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>7.2</v>
+      </c>
+      <c r="B111" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="D111" s="98"/>
+      <c r="E111" s="75">
+        <v>43132</v>
+      </c>
+      <c r="F111" s="76">
+        <f t="shared" si="41"/>
+        <v>43132</v>
+      </c>
+      <c r="G111" s="58">
+        <v>1</v>
+      </c>
+      <c r="H111" s="59">
+        <v>0</v>
+      </c>
+      <c r="I111" s="60">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="J111" s="73"/>
+      <c r="K111" s="79"/>
+      <c r="L111" s="79"/>
+      <c r="M111" s="79"/>
+      <c r="N111" s="79"/>
+      <c r="O111" s="79"/>
+      <c r="P111" s="79"/>
+      <c r="Q111" s="79"/>
+      <c r="R111" s="79"/>
+      <c r="S111" s="79"/>
+      <c r="T111" s="79"/>
+      <c r="U111" s="79"/>
+      <c r="V111" s="79"/>
+      <c r="W111" s="79"/>
+      <c r="X111" s="79"/>
+      <c r="Y111" s="79"/>
+      <c r="Z111" s="79"/>
+      <c r="AA111" s="79"/>
+      <c r="AB111" s="79"/>
+      <c r="AC111" s="79"/>
+      <c r="AD111" s="79"/>
+      <c r="AE111" s="79"/>
+      <c r="AF111" s="79"/>
+      <c r="AG111" s="79"/>
+      <c r="AH111" s="79"/>
+      <c r="AI111" s="79"/>
+      <c r="AJ111" s="79"/>
+      <c r="AK111" s="79"/>
+      <c r="AL111" s="79"/>
+      <c r="AM111" s="79"/>
+      <c r="AN111" s="79"/>
+      <c r="AO111" s="79"/>
+      <c r="AP111" s="79"/>
+      <c r="AQ111" s="79"/>
+      <c r="AR111" s="79"/>
+      <c r="AS111" s="79"/>
+      <c r="AT111" s="79"/>
+      <c r="AU111" s="79"/>
+      <c r="AV111" s="79"/>
+      <c r="AW111" s="79"/>
+      <c r="AX111" s="79"/>
+      <c r="AY111" s="79"/>
+      <c r="AZ111" s="79"/>
+      <c r="BA111" s="79"/>
+      <c r="BB111" s="79"/>
+      <c r="BC111" s="79"/>
+      <c r="BD111" s="79"/>
+      <c r="BE111" s="79"/>
+      <c r="BF111" s="79"/>
+      <c r="BG111" s="79"/>
+      <c r="BH111" s="79"/>
+      <c r="BI111" s="79"/>
+      <c r="BJ111" s="79"/>
+      <c r="BK111" s="79"/>
+      <c r="BL111" s="79"/>
+      <c r="BM111" s="79"/>
+      <c r="BN111" s="79"/>
+    </row>
+    <row r="112" spans="1:66" s="57" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A112" s="56" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>7.3</v>
+      </c>
+      <c r="B112" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="D112" s="98"/>
+      <c r="E112" s="75">
+        <v>43133</v>
+      </c>
+      <c r="F112" s="76">
+        <f t="shared" si="41"/>
+        <v>43133</v>
+      </c>
+      <c r="G112" s="58">
+        <v>1</v>
+      </c>
+      <c r="H112" s="59">
+        <v>0</v>
+      </c>
+      <c r="I112" s="60">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="J112" s="73"/>
+      <c r="K112" s="79"/>
+      <c r="L112" s="79"/>
+      <c r="M112" s="79"/>
+      <c r="N112" s="79"/>
+      <c r="O112" s="79"/>
+      <c r="P112" s="79"/>
+      <c r="Q112" s="79"/>
+      <c r="R112" s="79"/>
+      <c r="S112" s="79"/>
+      <c r="T112" s="79"/>
+      <c r="U112" s="79"/>
+      <c r="V112" s="79"/>
+      <c r="W112" s="79"/>
+      <c r="X112" s="79"/>
+      <c r="Y112" s="79"/>
+      <c r="Z112" s="79"/>
+      <c r="AA112" s="79"/>
+      <c r="AB112" s="79"/>
+      <c r="AC112" s="79"/>
+      <c r="AD112" s="79"/>
+      <c r="AE112" s="79"/>
+      <c r="AF112" s="79"/>
+      <c r="AG112" s="79"/>
+      <c r="AH112" s="79"/>
+      <c r="AI112" s="79"/>
+      <c r="AJ112" s="79"/>
+      <c r="AK112" s="79"/>
+      <c r="AL112" s="79"/>
+      <c r="AM112" s="79"/>
+      <c r="AN112" s="79"/>
+      <c r="AO112" s="79"/>
+      <c r="AP112" s="79"/>
+      <c r="AQ112" s="79"/>
+      <c r="AR112" s="79"/>
+      <c r="AS112" s="79"/>
+      <c r="AT112" s="79"/>
+      <c r="AU112" s="79"/>
+      <c r="AV112" s="79"/>
+      <c r="AW112" s="79"/>
+      <c r="AX112" s="79"/>
+      <c r="AY112" s="79"/>
+      <c r="AZ112" s="79"/>
+      <c r="BA112" s="79"/>
+      <c r="BB112" s="79"/>
+      <c r="BC112" s="79"/>
+      <c r="BD112" s="79"/>
+      <c r="BE112" s="79"/>
+      <c r="BF112" s="79"/>
+      <c r="BG112" s="79"/>
+      <c r="BH112" s="79"/>
+      <c r="BI112" s="79"/>
+      <c r="BJ112" s="79"/>
+      <c r="BK112" s="79"/>
+      <c r="BL112" s="79"/>
+      <c r="BM112" s="79"/>
+      <c r="BN112" s="79"/>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
@@ -13261,8 +14371,8 @@
     <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H8:H9 H41 H50 H20:H21 H59 H62 H72:H74 H31:H32">
-    <cfRule type="dataBar" priority="348">
+  <conditionalFormatting sqref="H8:H9 H41 H50 H20:H21 H69 H72 H83:H85 H31:H32">
+    <cfRule type="dataBar" priority="378">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13276,25 +14386,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:BN7">
-    <cfRule type="expression" dxfId="85" priority="391">
+    <cfRule type="expression" dxfId="104" priority="421">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN9 K15:BN101">
-    <cfRule type="expression" dxfId="84" priority="394">
+  <conditionalFormatting sqref="K8:BN9 K15:BN58 K69:BN81 K83:BN112">
+    <cfRule type="expression" dxfId="103" priority="424">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="395">
+    <cfRule type="expression" dxfId="102" priority="425">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN9 K41:BN41 K50:BN50 K20:BN21 K59:BN59 K62:BN62 K72:BN74 K31:BN32">
-    <cfRule type="expression" dxfId="82" priority="354">
+  <conditionalFormatting sqref="K6:BN9 K41:BN41 K50:BN50 K20:BN21 K69:BN69 K72:BN72 K83:BN85 K31:BN32">
+    <cfRule type="expression" dxfId="101" priority="384">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H91">
-    <cfRule type="dataBar" priority="343">
+  <conditionalFormatting sqref="H102">
+    <cfRule type="dataBar" priority="373">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13307,13 +14417,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K91:BN91">
-    <cfRule type="expression" dxfId="81" priority="344">
+  <conditionalFormatting sqref="K102:BN102">
+    <cfRule type="expression" dxfId="100" priority="374">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H92">
-    <cfRule type="dataBar" priority="339">
+  <conditionalFormatting sqref="H103">
+    <cfRule type="dataBar" priority="369">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13326,13 +14436,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K92:BN92">
-    <cfRule type="expression" dxfId="80" priority="340">
+  <conditionalFormatting sqref="K103:BN103">
+    <cfRule type="expression" dxfId="99" priority="370">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H93">
-    <cfRule type="dataBar" priority="335">
+  <conditionalFormatting sqref="H104">
+    <cfRule type="dataBar" priority="365">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13345,13 +14455,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K93:BN93">
-    <cfRule type="expression" dxfId="79" priority="336">
+  <conditionalFormatting sqref="K104:BN104">
+    <cfRule type="expression" dxfId="98" priority="366">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H94">
-    <cfRule type="dataBar" priority="331">
+  <conditionalFormatting sqref="H105">
+    <cfRule type="dataBar" priority="361">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13364,13 +14474,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K94:BN94">
-    <cfRule type="expression" dxfId="78" priority="332">
+  <conditionalFormatting sqref="K105:BN105">
+    <cfRule type="expression" dxfId="97" priority="362">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H95">
-    <cfRule type="dataBar" priority="327">
+  <conditionalFormatting sqref="H106">
+    <cfRule type="dataBar" priority="357">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13383,13 +14493,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K95:BN95">
-    <cfRule type="expression" dxfId="77" priority="328">
+  <conditionalFormatting sqref="K106:BN106">
+    <cfRule type="expression" dxfId="96" priority="358">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H96">
-    <cfRule type="dataBar" priority="323">
+  <conditionalFormatting sqref="H107">
+    <cfRule type="dataBar" priority="353">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13402,13 +14512,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K96:BN96">
-    <cfRule type="expression" dxfId="76" priority="324">
+  <conditionalFormatting sqref="K107:BN107">
+    <cfRule type="expression" dxfId="95" priority="354">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H97">
-    <cfRule type="dataBar" priority="319">
+  <conditionalFormatting sqref="H108">
+    <cfRule type="dataBar" priority="349">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13421,13 +14531,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K97:BN97">
-    <cfRule type="expression" dxfId="75" priority="320">
+  <conditionalFormatting sqref="K108:BN108">
+    <cfRule type="expression" dxfId="94" priority="350">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H98">
-    <cfRule type="dataBar" priority="267">
+  <conditionalFormatting sqref="H109">
+    <cfRule type="dataBar" priority="297">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13440,13 +14550,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K98:BN98">
-    <cfRule type="expression" dxfId="74" priority="268">
+  <conditionalFormatting sqref="K109:BN109">
+    <cfRule type="expression" dxfId="93" priority="298">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="dataBar" priority="263">
+    <cfRule type="dataBar" priority="293">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13460,20 +14570,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:BN10">
-    <cfRule type="expression" dxfId="73" priority="265">
+    <cfRule type="expression" dxfId="92" priority="295">
       <formula>AND($E10&lt;=K$6,ROUNDDOWN(($F10-$E10+1)*$H10,0)+$E10-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="266">
+    <cfRule type="expression" dxfId="91" priority="296">
       <formula>AND(NOT(ISBLANK($E10)),$E10&lt;=K$6,$F10&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:BN10">
-    <cfRule type="expression" dxfId="71" priority="264">
+    <cfRule type="expression" dxfId="90" priority="294">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="dataBar" priority="243">
+    <cfRule type="dataBar" priority="273">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13487,12 +14597,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:BN33">
-    <cfRule type="expression" dxfId="70" priority="244">
+    <cfRule type="expression" dxfId="89" priority="274">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="dataBar" priority="239">
+    <cfRule type="dataBar" priority="269">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13506,12 +14616,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34:BN34">
-    <cfRule type="expression" dxfId="69" priority="240">
+    <cfRule type="expression" dxfId="88" priority="270">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="dataBar" priority="235">
+    <cfRule type="dataBar" priority="265">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13525,12 +14635,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35:BN35">
-    <cfRule type="expression" dxfId="68" priority="236">
+    <cfRule type="expression" dxfId="87" priority="266">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="dataBar" priority="231">
+    <cfRule type="dataBar" priority="261">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13544,12 +14654,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36:BN36">
-    <cfRule type="expression" dxfId="67" priority="232">
+    <cfRule type="expression" dxfId="86" priority="262">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="dataBar" priority="227">
+    <cfRule type="dataBar" priority="257">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13563,12 +14673,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K37:BN37">
-    <cfRule type="expression" dxfId="66" priority="228">
+    <cfRule type="expression" dxfId="85" priority="258">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="dataBar" priority="223">
+    <cfRule type="dataBar" priority="253">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13582,12 +14692,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38:BN38">
-    <cfRule type="expression" dxfId="65" priority="224">
+    <cfRule type="expression" dxfId="84" priority="254">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="dataBar" priority="219">
+    <cfRule type="dataBar" priority="249">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13601,12 +14711,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K39:BN39">
-    <cfRule type="expression" dxfId="64" priority="220">
+    <cfRule type="expression" dxfId="83" priority="250">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="dataBar" priority="215">
+    <cfRule type="dataBar" priority="245">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13620,12 +14730,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40:BN40">
-    <cfRule type="expression" dxfId="63" priority="216">
+    <cfRule type="expression" dxfId="82" priority="246">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="dataBar" priority="211">
+    <cfRule type="dataBar" priority="241">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13639,12 +14749,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42:BN42">
-    <cfRule type="expression" dxfId="62" priority="212">
+    <cfRule type="expression" dxfId="81" priority="242">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="dataBar" priority="207">
+    <cfRule type="dataBar" priority="237">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13658,12 +14768,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K43:BN43">
-    <cfRule type="expression" dxfId="61" priority="208">
+    <cfRule type="expression" dxfId="80" priority="238">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="dataBar" priority="203">
+    <cfRule type="dataBar" priority="233">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13677,12 +14787,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K44:BN44">
-    <cfRule type="expression" dxfId="60" priority="204">
+    <cfRule type="expression" dxfId="79" priority="234">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="dataBar" priority="199">
+    <cfRule type="dataBar" priority="229">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13696,12 +14806,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K45:BN45">
-    <cfRule type="expression" dxfId="59" priority="200">
+    <cfRule type="expression" dxfId="78" priority="230">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="dataBar" priority="195">
+    <cfRule type="dataBar" priority="225">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13715,12 +14825,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K46:BN46">
-    <cfRule type="expression" dxfId="58" priority="196">
+    <cfRule type="expression" dxfId="77" priority="226">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="dataBar" priority="191">
+    <cfRule type="dataBar" priority="221">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13734,12 +14844,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K47:BN47">
-    <cfRule type="expression" dxfId="57" priority="192">
+    <cfRule type="expression" dxfId="76" priority="222">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="dataBar" priority="187">
+    <cfRule type="dataBar" priority="217">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13753,12 +14863,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K48:BN48">
-    <cfRule type="expression" dxfId="56" priority="188">
+    <cfRule type="expression" dxfId="75" priority="218">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="dataBar" priority="183">
+    <cfRule type="dataBar" priority="213">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13772,12 +14882,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K49:BN49">
-    <cfRule type="expression" dxfId="55" priority="184">
+    <cfRule type="expression" dxfId="74" priority="214">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="dataBar" priority="179">
+    <cfRule type="dataBar" priority="209">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13791,20 +14901,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:BN14">
-    <cfRule type="expression" dxfId="54" priority="181">
+    <cfRule type="expression" dxfId="73" priority="211">
       <formula>AND($E11&lt;=K$6,ROUNDDOWN(($F11-$E11+1)*$H11,0)+$E11-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="182">
+    <cfRule type="expression" dxfId="72" priority="212">
       <formula>AND(NOT(ISBLANK($E11)),$E11&lt;=K$6,$F11&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:BN11">
-    <cfRule type="expression" dxfId="52" priority="180">
+    <cfRule type="expression" dxfId="71" priority="210">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="dataBar" priority="177">
+    <cfRule type="dataBar" priority="207">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13818,12 +14928,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12:BN12">
-    <cfRule type="expression" dxfId="51" priority="178">
+    <cfRule type="expression" dxfId="70" priority="208">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="dataBar" priority="175">
+    <cfRule type="dataBar" priority="205">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13837,12 +14947,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:BN13">
-    <cfRule type="expression" dxfId="50" priority="176">
+    <cfRule type="expression" dxfId="69" priority="206">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="dataBar" priority="173">
+    <cfRule type="dataBar" priority="203">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13856,12 +14966,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14:BN14">
-    <cfRule type="expression" dxfId="49" priority="174">
+    <cfRule type="expression" dxfId="68" priority="204">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15 H18">
-    <cfRule type="dataBar" priority="169">
+    <cfRule type="dataBar" priority="199">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13875,12 +14985,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15:BN15 K18:BN18">
-    <cfRule type="expression" dxfId="48" priority="170">
+    <cfRule type="expression" dxfId="67" priority="200">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="dataBar" priority="167">
+    <cfRule type="dataBar" priority="197">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13894,12 +15004,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:BN16">
-    <cfRule type="expression" dxfId="47" priority="168">
+    <cfRule type="expression" dxfId="66" priority="198">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="dataBar" priority="165">
+    <cfRule type="dataBar" priority="195">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13913,12 +15023,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:BN17">
-    <cfRule type="expression" dxfId="46" priority="166">
+    <cfRule type="expression" dxfId="65" priority="196">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="dataBar" priority="161">
+    <cfRule type="dataBar" priority="191">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13932,12 +15042,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K51:BN51">
-    <cfRule type="expression" dxfId="45" priority="162">
+    <cfRule type="expression" dxfId="64" priority="192">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="dataBar" priority="159">
+    <cfRule type="dataBar" priority="189">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13951,12 +15061,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K52:BN52">
-    <cfRule type="expression" dxfId="44" priority="160">
+    <cfRule type="expression" dxfId="63" priority="190">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="dataBar" priority="157">
+    <cfRule type="dataBar" priority="187">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13970,12 +15080,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K53:BN53">
-    <cfRule type="expression" dxfId="43" priority="158">
+    <cfRule type="expression" dxfId="62" priority="188">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="dataBar" priority="155">
+    <cfRule type="dataBar" priority="185">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -13989,12 +15099,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K54:BN54">
-    <cfRule type="expression" dxfId="42" priority="156">
+    <cfRule type="expression" dxfId="61" priority="186">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="dataBar" priority="153">
+    <cfRule type="dataBar" priority="183">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14008,12 +15118,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K55:BN55">
-    <cfRule type="expression" dxfId="41" priority="154">
+    <cfRule type="expression" dxfId="60" priority="184">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="dataBar" priority="151">
+    <cfRule type="dataBar" priority="181">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14027,12 +15137,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K56:BN56">
-    <cfRule type="expression" dxfId="40" priority="152">
+    <cfRule type="expression" dxfId="59" priority="182">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="dataBar" priority="149">
+    <cfRule type="dataBar" priority="179">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14046,12 +15156,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K57:BN57">
-    <cfRule type="expression" dxfId="39" priority="150">
+    <cfRule type="expression" dxfId="58" priority="180">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="dataBar" priority="147">
+    <cfRule type="dataBar" priority="177">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14065,12 +15175,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K58:BN58">
-    <cfRule type="expression" dxfId="38" priority="148">
+    <cfRule type="expression" dxfId="57" priority="178">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
-    <cfRule type="dataBar" priority="143">
+  <conditionalFormatting sqref="H87">
+    <cfRule type="dataBar" priority="173">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14083,13 +15193,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K76:BN76">
-    <cfRule type="expression" dxfId="37" priority="144">
+  <conditionalFormatting sqref="K87:BN87">
+    <cfRule type="expression" dxfId="56" priority="174">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H77">
-    <cfRule type="dataBar" priority="141">
+  <conditionalFormatting sqref="H88">
+    <cfRule type="dataBar" priority="171">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14102,13 +15212,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K77:BN77">
-    <cfRule type="expression" dxfId="36" priority="142">
+  <conditionalFormatting sqref="K88:BN88">
+    <cfRule type="expression" dxfId="55" priority="172">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H79">
-    <cfRule type="dataBar" priority="139">
+  <conditionalFormatting sqref="H90">
+    <cfRule type="dataBar" priority="169">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14121,13 +15231,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K79:BN79">
-    <cfRule type="expression" dxfId="35" priority="140">
+  <conditionalFormatting sqref="K90:BN90">
+    <cfRule type="expression" dxfId="54" priority="170">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H81">
-    <cfRule type="dataBar" priority="137">
+  <conditionalFormatting sqref="H92">
+    <cfRule type="dataBar" priority="167">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14140,13 +15250,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K81:BN81">
-    <cfRule type="expression" dxfId="34" priority="138">
+  <conditionalFormatting sqref="K92:BN92">
+    <cfRule type="expression" dxfId="53" priority="168">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H83">
-    <cfRule type="dataBar" priority="135">
+  <conditionalFormatting sqref="H94">
+    <cfRule type="dataBar" priority="165">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14159,13 +15269,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K83:BN83">
-    <cfRule type="expression" dxfId="33" priority="136">
+  <conditionalFormatting sqref="K94:BN94">
+    <cfRule type="expression" dxfId="52" priority="166">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H85">
-    <cfRule type="dataBar" priority="133">
+  <conditionalFormatting sqref="H96">
+    <cfRule type="dataBar" priority="163">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14178,13 +15288,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K85:BN85">
-    <cfRule type="expression" dxfId="32" priority="134">
+  <conditionalFormatting sqref="K96:BN96">
+    <cfRule type="expression" dxfId="51" priority="164">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H87">
-    <cfRule type="dataBar" priority="131">
+  <conditionalFormatting sqref="H98">
+    <cfRule type="dataBar" priority="161">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14197,13 +15307,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K87:BN87">
-    <cfRule type="expression" dxfId="31" priority="132">
+  <conditionalFormatting sqref="K98:BN98">
+    <cfRule type="expression" dxfId="50" priority="162">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H89">
-    <cfRule type="dataBar" priority="129">
+  <conditionalFormatting sqref="H100">
+    <cfRule type="dataBar" priority="159">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14216,13 +15326,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K89:BN89">
-    <cfRule type="expression" dxfId="30" priority="130">
+  <conditionalFormatting sqref="K100:BN100">
+    <cfRule type="expression" dxfId="49" priority="160">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H99:H101">
-    <cfRule type="dataBar" priority="125">
+  <conditionalFormatting sqref="H110:H112">
+    <cfRule type="dataBar" priority="155">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14235,13 +15345,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K99:BN101">
-    <cfRule type="expression" dxfId="29" priority="126">
+  <conditionalFormatting sqref="K110:BN112">
+    <cfRule type="expression" dxfId="48" priority="156">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
-    <cfRule type="dataBar" priority="89">
+  <conditionalFormatting sqref="H86">
+    <cfRule type="dataBar" priority="119">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14254,13 +15364,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K75:BN75">
-    <cfRule type="expression" dxfId="28" priority="90">
+  <conditionalFormatting sqref="K86:BN86">
+    <cfRule type="expression" dxfId="47" priority="120">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H78">
-    <cfRule type="dataBar" priority="85">
+  <conditionalFormatting sqref="H89">
+    <cfRule type="dataBar" priority="115">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14273,13 +15383,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K78:BN78">
-    <cfRule type="expression" dxfId="27" priority="86">
+  <conditionalFormatting sqref="K89:BN89">
+    <cfRule type="expression" dxfId="46" priority="116">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
-    <cfRule type="dataBar" priority="81">
+  <conditionalFormatting sqref="H91">
+    <cfRule type="dataBar" priority="111">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14292,13 +15402,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K80:BN80">
-    <cfRule type="expression" dxfId="26" priority="82">
+  <conditionalFormatting sqref="K91:BN91">
+    <cfRule type="expression" dxfId="45" priority="112">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H82">
-    <cfRule type="dataBar" priority="77">
+  <conditionalFormatting sqref="H93">
+    <cfRule type="dataBar" priority="107">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14311,13 +15421,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K82:BN82">
-    <cfRule type="expression" dxfId="25" priority="78">
+  <conditionalFormatting sqref="K93:BN93">
+    <cfRule type="expression" dxfId="44" priority="108">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H84">
-    <cfRule type="dataBar" priority="73">
+  <conditionalFormatting sqref="H95">
+    <cfRule type="dataBar" priority="103">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14330,13 +15440,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K84:BN84">
-    <cfRule type="expression" dxfId="24" priority="74">
+  <conditionalFormatting sqref="K95:BN95">
+    <cfRule type="expression" dxfId="43" priority="104">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H86">
-    <cfRule type="dataBar" priority="69">
+  <conditionalFormatting sqref="H97">
+    <cfRule type="dataBar" priority="99">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14349,13 +15459,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K86:BN86">
-    <cfRule type="expression" dxfId="23" priority="70">
+  <conditionalFormatting sqref="K97:BN97">
+    <cfRule type="expression" dxfId="42" priority="100">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H88">
-    <cfRule type="dataBar" priority="65">
+  <conditionalFormatting sqref="H99">
+    <cfRule type="dataBar" priority="95">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14368,13 +15478,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K88:BN88">
-    <cfRule type="expression" dxfId="22" priority="66">
+  <conditionalFormatting sqref="K99:BN99">
+    <cfRule type="expression" dxfId="41" priority="96">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H90">
-    <cfRule type="dataBar" priority="61">
+  <conditionalFormatting sqref="H101">
+    <cfRule type="dataBar" priority="91">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14387,13 +15497,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K90:BN90">
-    <cfRule type="expression" dxfId="21" priority="62">
+  <conditionalFormatting sqref="K101:BN101">
+    <cfRule type="expression" dxfId="40" priority="92">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="dataBar" priority="57">
+    <cfRule type="dataBar" priority="87">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14407,12 +15517,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:BN19">
-    <cfRule type="expression" dxfId="20" priority="58">
+    <cfRule type="expression" dxfId="39" priority="88">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
-    <cfRule type="dataBar" priority="49">
+  <conditionalFormatting sqref="H70">
+    <cfRule type="dataBar" priority="79">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14425,13 +15535,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K60:BN60">
-    <cfRule type="expression" dxfId="19" priority="50">
+  <conditionalFormatting sqref="K70:BN70">
+    <cfRule type="expression" dxfId="38" priority="80">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H61">
-    <cfRule type="dataBar" priority="45">
+  <conditionalFormatting sqref="H71">
+    <cfRule type="dataBar" priority="75">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14444,13 +15554,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K61:BN61">
-    <cfRule type="expression" dxfId="18" priority="46">
+  <conditionalFormatting sqref="K71:BN71">
+    <cfRule type="expression" dxfId="37" priority="76">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
-    <cfRule type="dataBar" priority="41">
+  <conditionalFormatting sqref="H74">
+    <cfRule type="dataBar" priority="71">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14463,13 +15573,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K64:BN64">
-    <cfRule type="expression" dxfId="17" priority="42">
+  <conditionalFormatting sqref="K74:BN74">
+    <cfRule type="expression" dxfId="36" priority="72">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H65">
-    <cfRule type="dataBar" priority="39">
+  <conditionalFormatting sqref="H75">
+    <cfRule type="dataBar" priority="69">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14482,13 +15592,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K65:BN65">
-    <cfRule type="expression" dxfId="16" priority="40">
+  <conditionalFormatting sqref="K75:BN75">
+    <cfRule type="expression" dxfId="35" priority="70">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
-    <cfRule type="dataBar" priority="37">
+  <conditionalFormatting sqref="H76">
+    <cfRule type="dataBar" priority="67">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14501,13 +15611,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K66:BN66">
-    <cfRule type="expression" dxfId="15" priority="38">
+  <conditionalFormatting sqref="K76:BN76">
+    <cfRule type="expression" dxfId="34" priority="68">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
-    <cfRule type="dataBar" priority="35">
+  <conditionalFormatting sqref="H77">
+    <cfRule type="dataBar" priority="65">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14520,13 +15630,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K67:BN67">
-    <cfRule type="expression" dxfId="14" priority="36">
+  <conditionalFormatting sqref="K77:BN77">
+    <cfRule type="expression" dxfId="33" priority="66">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
-    <cfRule type="dataBar" priority="33">
+  <conditionalFormatting sqref="H78">
+    <cfRule type="dataBar" priority="63">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14539,13 +15649,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K68:BN68">
-    <cfRule type="expression" dxfId="13" priority="34">
+  <conditionalFormatting sqref="K78:BN78">
+    <cfRule type="expression" dxfId="32" priority="64">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H69">
-    <cfRule type="dataBar" priority="31">
+  <conditionalFormatting sqref="H79">
+    <cfRule type="dataBar" priority="61">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14558,13 +15668,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K69:BN69">
-    <cfRule type="expression" dxfId="12" priority="32">
+  <conditionalFormatting sqref="K79:BN79">
+    <cfRule type="expression" dxfId="31" priority="62">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H70">
-    <cfRule type="dataBar" priority="29">
+  <conditionalFormatting sqref="H80">
+    <cfRule type="dataBar" priority="59">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14577,13 +15687,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K70:BN70">
-    <cfRule type="expression" dxfId="11" priority="30">
+  <conditionalFormatting sqref="K80:BN80">
+    <cfRule type="expression" dxfId="30" priority="60">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
-    <cfRule type="dataBar" priority="27">
+  <conditionalFormatting sqref="H81">
+    <cfRule type="dataBar" priority="57">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14596,13 +15706,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K71:BN71">
-    <cfRule type="expression" dxfId="10" priority="28">
+  <conditionalFormatting sqref="K81:BN81">
+    <cfRule type="expression" dxfId="29" priority="58">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
-    <cfRule type="dataBar" priority="23">
+  <conditionalFormatting sqref="H73">
+    <cfRule type="dataBar" priority="53">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14615,13 +15725,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K63:BN63">
-    <cfRule type="expression" dxfId="9" priority="24">
+  <conditionalFormatting sqref="K73:BN73">
+    <cfRule type="expression" dxfId="28" priority="54">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="dataBar" priority="19">
+    <cfRule type="dataBar" priority="49">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14635,12 +15745,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22:BN22">
-    <cfRule type="expression" dxfId="8" priority="20">
+    <cfRule type="expression" dxfId="27" priority="50">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="dataBar" priority="15">
+    <cfRule type="dataBar" priority="45">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14654,12 +15764,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23:BN23">
-    <cfRule type="expression" dxfId="7" priority="16">
+    <cfRule type="expression" dxfId="26" priority="46">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="43">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14673,12 +15783,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24:BN24">
-    <cfRule type="expression" dxfId="6" priority="14">
+    <cfRule type="expression" dxfId="25" priority="44">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="dataBar" priority="11">
+    <cfRule type="dataBar" priority="41">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14692,12 +15802,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25:BN25">
-    <cfRule type="expression" dxfId="5" priority="12">
+    <cfRule type="expression" dxfId="24" priority="42">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="39">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14711,12 +15821,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26:BN26">
-    <cfRule type="expression" dxfId="4" priority="10">
+    <cfRule type="expression" dxfId="23" priority="40">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14730,12 +15840,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27:BN27">
-    <cfRule type="expression" dxfId="3" priority="8">
+    <cfRule type="expression" dxfId="22" priority="38">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="35">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14749,12 +15859,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:BN28">
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="21" priority="36">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14768,12 +15878,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:BN29">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="20" priority="34">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14787,6 +15897,247 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30:BN30">
+    <cfRule type="expression" dxfId="19" priority="32">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59">
+    <cfRule type="dataBar" priority="27">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3BEC0821-7270-46F6-9B6F-347E66D63352}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K59:BN59">
+    <cfRule type="expression" dxfId="18" priority="29">
+      <formula>AND($E59&lt;=K$6,ROUNDDOWN(($F59-$E59+1)*$H59,0)+$E59-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="30">
+      <formula>AND(NOT(ISBLANK($E59)),$E59&lt;=K$6,$F59&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K59:BN59">
+    <cfRule type="expression" dxfId="16" priority="28">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K60:BN67">
+    <cfRule type="expression" dxfId="15" priority="25">
+      <formula>AND($E60&lt;=K$6,ROUNDDOWN(($F60-$E60+1)*$H60,0)+$E60-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="26">
+      <formula>AND(NOT(ISBLANK($E60)),$E60&lt;=K$6,$F60&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H60">
+    <cfRule type="dataBar" priority="23">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A5E3A54A-6104-4B3C-B910-35DE0C10C763}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K60:BN60">
+    <cfRule type="expression" dxfId="13" priority="24">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H61">
+    <cfRule type="dataBar" priority="21">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2B6DA131-F5E7-4855-A8AC-C25A6C96C3D6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K61:BN61">
+    <cfRule type="expression" dxfId="12" priority="22">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62">
+    <cfRule type="dataBar" priority="19">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{26DBC791-9BE5-4FFE-9952-82F7E2DAE226}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K62:BN62">
+    <cfRule type="expression" dxfId="11" priority="20">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H63">
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{13D4708A-849B-4DC4-8084-27DCA9520F30}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K63:BN63">
+    <cfRule type="expression" dxfId="10" priority="18">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H64">
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8C2FC294-272A-4837-B6AB-7B8D70E4C63B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K64:BN64">
+    <cfRule type="expression" dxfId="9" priority="16">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{553BC4C7-EAFB-4C08-A00C-E587B60B225F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K65:BN65">
+    <cfRule type="expression" dxfId="8" priority="14">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BCC35FD3-ABE2-445B-8A98-DC34DC3B370A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K66:BN66">
+    <cfRule type="expression" dxfId="7" priority="12">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{45B5897F-60EE-4098-AAE5-7D3489DB154E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K67:BN67">
+    <cfRule type="expression" dxfId="6" priority="10">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H68">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4A8A640F-2051-40C1-976E-5720BE8C95F6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K68:BN68">
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>AND($E68&lt;=K$6,ROUNDDOWN(($F68-$E68+1)*$H68,0)+$E68-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="8">
+      <formula>AND(NOT(ISBLANK($E68)),$E68&lt;=K$6,$F68&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K68:BN68">
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H82">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1FFA2B86-8A5C-45E1-8D92-0EA2E34C9FD0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K82:BN82">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>AND($E82&lt;=K$6,ROUNDDOWN(($F82-$E82+1)*$H82,0)+$E82-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>AND(NOT(ISBLANK($E82)),$E82&lt;=K$6,$F82&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K82:BN82">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>K$6=TODAY()</formula>
     </cfRule>
@@ -14801,8 +16152,8 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="E20 E31 E72 G20:H20 G31:H31 H59 G72:H72 H74 H73" unlockedFormula="1"/>
-    <ignoredError sqref="A72 A31 A20" formula="1"/>
+    <ignoredError sqref="E20 E31 E83 G20:H20 G31:H31 G83:H83 H85 H84" unlockedFormula="1"/>
+    <ignoredError sqref="A83 A31 A20" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
@@ -14850,7 +16201,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H8:H9 H41 H50 H20:H21 H59 H62 H72:H74 H31:H32</xm:sqref>
+          <xm:sqref>H8:H9 H41 H50 H20:H21 H69 H72 H83:H85 H31:H32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AF6031B5-17E7-4FA3-BF80-238C9E6DF4B9}">
@@ -14865,7 +16216,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H91</xm:sqref>
+          <xm:sqref>H102</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E1E2B9CA-12BA-46AC-9B3F-D4F5D19AE487}">
@@ -14880,7 +16231,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H92</xm:sqref>
+          <xm:sqref>H103</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2EBBAE54-BE40-4F85-B2B8-BF88914C4132}">
@@ -14895,7 +16246,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H93</xm:sqref>
+          <xm:sqref>H104</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CD355D18-EAED-4E08-8A10-05C00E458525}">
@@ -14910,7 +16261,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H94</xm:sqref>
+          <xm:sqref>H105</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E9A71E10-0808-482F-99D1-D818BBF6C7BC}">
@@ -14925,7 +16276,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H95</xm:sqref>
+          <xm:sqref>H106</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3D07858F-3D2E-41B0-9241-346599BE8E0E}">
@@ -14940,7 +16291,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H96</xm:sqref>
+          <xm:sqref>H107</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{04A29D32-1B7A-44AE-874E-46664FE80C9C}">
@@ -14955,7 +16306,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H97</xm:sqref>
+          <xm:sqref>H108</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{063A9F82-2F86-4B32-A209-F5B4C7385609}">
@@ -14970,7 +16321,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H98</xm:sqref>
+          <xm:sqref>H109</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7441C645-CDD7-4332-B16A-D63E38A71E7F}">
@@ -15465,7 +16816,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H76</xm:sqref>
+          <xm:sqref>H87</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CCD1741C-8060-4486-8B25-8799416E3961}">
@@ -15480,7 +16831,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H77</xm:sqref>
+          <xm:sqref>H88</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{35D0009D-A5E8-42C1-A435-118ABFBE67CA}">
@@ -15495,7 +16846,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H79</xm:sqref>
+          <xm:sqref>H90</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{01090080-ACAE-458D-BCAF-583B0E2F21D0}">
@@ -15510,7 +16861,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H81</xm:sqref>
+          <xm:sqref>H92</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AC0766FE-60B3-4D9D-8E40-B0B8237058AC}">
@@ -15525,7 +16876,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H83</xm:sqref>
+          <xm:sqref>H94</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{371F4099-1CEF-4E8C-99BF-BD7AE6E4555F}">
@@ -15540,7 +16891,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H85</xm:sqref>
+          <xm:sqref>H96</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{360399A8-A0CA-48C5-86BE-B1FB7E86595E}">
@@ -15555,7 +16906,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H87</xm:sqref>
+          <xm:sqref>H98</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{06BE8193-5B42-4B68-A1C3-25E085A86732}">
@@ -15570,7 +16921,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H89</xm:sqref>
+          <xm:sqref>H100</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7A8F160C-8F50-47BC-8BA5-A9E03D9CD50A}">
@@ -15585,7 +16936,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H99:H101</xm:sqref>
+          <xm:sqref>H110:H112</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CC845533-256A-423B-BC42-5167F019D2DE}">
@@ -15600,7 +16951,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H75</xm:sqref>
+          <xm:sqref>H86</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CBF1D1D0-C535-4432-8A3B-A81039293FBC}">
@@ -15615,7 +16966,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H78</xm:sqref>
+          <xm:sqref>H89</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{70490C4A-9510-4A6A-A898-72CA1E9BCFF9}">
@@ -15630,7 +16981,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H80</xm:sqref>
+          <xm:sqref>H91</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BEFD1DAE-5083-448C-A6A9-3C250C1DCCFA}">
@@ -15645,7 +16996,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H82</xm:sqref>
+          <xm:sqref>H93</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5B84F429-9511-4389-9DDD-FF34549A84EF}">
@@ -15660,7 +17011,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H84</xm:sqref>
+          <xm:sqref>H95</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2BECA061-2D9A-41C8-8CD7-D8EDF4AD5A7E}">
@@ -15675,7 +17026,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H86</xm:sqref>
+          <xm:sqref>H97</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{74ADDA2C-FFFB-4DDA-90CD-FCE1BCBC6D15}">
@@ -15690,7 +17041,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H88</xm:sqref>
+          <xm:sqref>H99</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5924B1B0-F4CA-4715-97F8-03E86E907A8B}">
@@ -15705,7 +17056,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H90</xm:sqref>
+          <xm:sqref>H101</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{844642B6-6AED-4247-BBF2-141EB0E6D0D6}">
@@ -15735,7 +17086,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H60</xm:sqref>
+          <xm:sqref>H70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DB8B257C-27C0-4656-B2D6-A164D3DC8376}">
@@ -15750,7 +17101,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H61</xm:sqref>
+          <xm:sqref>H71</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9FC75FDB-8AED-439C-A6D3-1116ABFCD2AA}">
@@ -15765,7 +17116,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H64</xm:sqref>
+          <xm:sqref>H74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{525C6AC5-856A-4095-92C1-69ED8B837782}">
@@ -15780,7 +17131,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H65</xm:sqref>
+          <xm:sqref>H75</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9CB4E75F-FF45-4E6C-B371-7D2BCB064ECC}">
@@ -15795,7 +17146,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H66</xm:sqref>
+          <xm:sqref>H76</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7FBFA1E6-A604-4419-AC63-0237039442AE}">
@@ -15810,7 +17161,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H67</xm:sqref>
+          <xm:sqref>H77</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4D2BFFCF-D567-4CE6-8F2F-6998200C5C78}">
@@ -15825,7 +17176,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H68</xm:sqref>
+          <xm:sqref>H78</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{08B66296-CB9A-4F29-B91B-245DF691B10F}">
@@ -15840,7 +17191,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H69</xm:sqref>
+          <xm:sqref>H79</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6DED2669-501C-46DC-8864-D021B3A7F706}">
@@ -15855,7 +17206,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H70</xm:sqref>
+          <xm:sqref>H80</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BEB4BF35-E0F5-482E-8C08-600178C2FE8C}">
@@ -15870,7 +17221,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H71</xm:sqref>
+          <xm:sqref>H81</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D92DE5E4-33D4-4230-8AF6-3FC5B8535404}">
@@ -15885,7 +17236,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H63</xm:sqref>
+          <xm:sqref>H73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2BA9A25E-B14D-45FA-96F0-3BA762CE9EA1}">
@@ -16022,6 +17373,171 @@
           </x14:cfRule>
           <xm:sqref>H30</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3BEC0821-7270-46F6-9B6F-347E66D63352}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H59</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A5E3A54A-6104-4B3C-B910-35DE0C10C763}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H60</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2B6DA131-F5E7-4855-A8AC-C25A6C96C3D6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H61</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{26DBC791-9BE5-4FFE-9952-82F7E2DAE226}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H62</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{13D4708A-849B-4DC4-8084-27DCA9520F30}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H63</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8C2FC294-272A-4837-B6AB-7B8D70E4C63B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H64</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{553BC4C7-EAFB-4C08-A00C-E587B60B225F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H65</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BCC35FD3-ABE2-445B-8A98-DC34DC3B370A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H66</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{45B5897F-60EE-4098-AAE5-7D3489DB154E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H67</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4A8A640F-2051-40C1-976E-5720BE8C95F6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H68</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1FFA2B86-8A5C-45E1-8D92-0EA2E34C9FD0}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H82</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BlackDragoon\Desktop\PROJECT\PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B7CA88-435D-4086-B2E7-488C9223B44E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F369E720-4641-4FC4-89F1-36397BED46A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2864,13 +2864,6 @@
     <xf numFmtId="0" fontId="67" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2880,10 +2873,6 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="167" fontId="45" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2892,6 +2881,17 @@
     </xf>
     <xf numFmtId="167" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4879,8 +4879,8 @@
   <dimension ref="A1:BN112"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T75" sqref="T75"/>
+      <pane ySplit="7" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4908,29 +4908,29 @@
       <c r="E1" s="43"/>
       <c r="F1" s="43"/>
       <c r="I1" s="101"/>
-      <c r="K1" s="133" t="s">
+      <c r="K1" s="139" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="133"/>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="133"/>
-      <c r="S1" s="133"/>
-      <c r="T1" s="133"/>
-      <c r="U1" s="133"/>
-      <c r="V1" s="133"/>
-      <c r="W1" s="133"/>
-      <c r="X1" s="133"/>
-      <c r="Y1" s="133"/>
-      <c r="Z1" s="133"/>
-      <c r="AA1" s="133"/>
-      <c r="AB1" s="133"/>
-      <c r="AC1" s="133"/>
-      <c r="AD1" s="133"/>
-      <c r="AE1" s="133"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139"/>
+      <c r="S1" s="139"/>
+      <c r="T1" s="139"/>
+      <c r="U1" s="139"/>
+      <c r="V1" s="139"/>
+      <c r="W1" s="139"/>
+      <c r="X1" s="139"/>
+      <c r="Y1" s="139"/>
+      <c r="Z1" s="139"/>
+      <c r="AA1" s="139"/>
+      <c r="AB1" s="139"/>
+      <c r="AC1" s="139"/>
+      <c r="AD1" s="139"/>
+      <c r="AE1" s="139"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
@@ -4975,11 +4975,11 @@
       <c r="B4" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="138">
+      <c r="C4" s="141">
         <v>44460</v>
       </c>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
       <c r="F4" s="82"/>
       <c r="G4" s="85" t="s">
         <v>69</v>
@@ -4989,182 +4989,182 @@
       </c>
       <c r="I4" s="83"/>
       <c r="J4" s="46"/>
-      <c r="K4" s="135" t="str">
+      <c r="K4" s="133" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="136"/>
-      <c r="M4" s="136"/>
-      <c r="N4" s="136"/>
-      <c r="O4" s="136"/>
-      <c r="P4" s="136"/>
-      <c r="Q4" s="137"/>
-      <c r="R4" s="135" t="str">
+      <c r="L4" s="134"/>
+      <c r="M4" s="134"/>
+      <c r="N4" s="134"/>
+      <c r="O4" s="134"/>
+      <c r="P4" s="134"/>
+      <c r="Q4" s="135"/>
+      <c r="R4" s="133" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="136"/>
-      <c r="T4" s="136"/>
-      <c r="U4" s="136"/>
-      <c r="V4" s="136"/>
-      <c r="W4" s="136"/>
-      <c r="X4" s="137"/>
-      <c r="Y4" s="135" t="str">
+      <c r="S4" s="134"/>
+      <c r="T4" s="134"/>
+      <c r="U4" s="134"/>
+      <c r="V4" s="134"/>
+      <c r="W4" s="134"/>
+      <c r="X4" s="135"/>
+      <c r="Y4" s="133" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="136"/>
-      <c r="AA4" s="136"/>
-      <c r="AB4" s="136"/>
-      <c r="AC4" s="136"/>
-      <c r="AD4" s="136"/>
-      <c r="AE4" s="137"/>
-      <c r="AF4" s="135" t="str">
+      <c r="Z4" s="134"/>
+      <c r="AA4" s="134"/>
+      <c r="AB4" s="134"/>
+      <c r="AC4" s="134"/>
+      <c r="AD4" s="134"/>
+      <c r="AE4" s="135"/>
+      <c r="AF4" s="133" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="136"/>
-      <c r="AH4" s="136"/>
-      <c r="AI4" s="136"/>
-      <c r="AJ4" s="136"/>
-      <c r="AK4" s="136"/>
-      <c r="AL4" s="137"/>
-      <c r="AM4" s="135" t="str">
+      <c r="AG4" s="134"/>
+      <c r="AH4" s="134"/>
+      <c r="AI4" s="134"/>
+      <c r="AJ4" s="134"/>
+      <c r="AK4" s="134"/>
+      <c r="AL4" s="135"/>
+      <c r="AM4" s="133" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="136"/>
-      <c r="AO4" s="136"/>
-      <c r="AP4" s="136"/>
-      <c r="AQ4" s="136"/>
-      <c r="AR4" s="136"/>
-      <c r="AS4" s="137"/>
-      <c r="AT4" s="135" t="str">
+      <c r="AN4" s="134"/>
+      <c r="AO4" s="134"/>
+      <c r="AP4" s="134"/>
+      <c r="AQ4" s="134"/>
+      <c r="AR4" s="134"/>
+      <c r="AS4" s="135"/>
+      <c r="AT4" s="133" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="136"/>
-      <c r="AV4" s="136"/>
-      <c r="AW4" s="136"/>
-      <c r="AX4" s="136"/>
-      <c r="AY4" s="136"/>
-      <c r="AZ4" s="137"/>
-      <c r="BA4" s="135" t="str">
+      <c r="AU4" s="134"/>
+      <c r="AV4" s="134"/>
+      <c r="AW4" s="134"/>
+      <c r="AX4" s="134"/>
+      <c r="AY4" s="134"/>
+      <c r="AZ4" s="135"/>
+      <c r="BA4" s="133" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="136"/>
-      <c r="BC4" s="136"/>
-      <c r="BD4" s="136"/>
-      <c r="BE4" s="136"/>
-      <c r="BF4" s="136"/>
-      <c r="BG4" s="137"/>
-      <c r="BH4" s="135" t="str">
+      <c r="BB4" s="134"/>
+      <c r="BC4" s="134"/>
+      <c r="BD4" s="134"/>
+      <c r="BE4" s="134"/>
+      <c r="BF4" s="134"/>
+      <c r="BG4" s="135"/>
+      <c r="BH4" s="133" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="136"/>
-      <c r="BJ4" s="136"/>
-      <c r="BK4" s="136"/>
-      <c r="BL4" s="136"/>
-      <c r="BM4" s="136"/>
-      <c r="BN4" s="137"/>
+      <c r="BI4" s="134"/>
+      <c r="BJ4" s="134"/>
+      <c r="BK4" s="134"/>
+      <c r="BL4" s="134"/>
+      <c r="BM4" s="134"/>
+      <c r="BN4" s="135"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="81"/>
       <c r="B5" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="134" t="s">
+      <c r="C5" s="140" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
       <c r="F5" s="84"/>
       <c r="G5" s="84"/>
       <c r="H5" s="84"/>
       <c r="I5" s="84"/>
       <c r="J5" s="46"/>
-      <c r="K5" s="139">
+      <c r="K5" s="136">
         <f>K6</f>
         <v>44459</v>
       </c>
-      <c r="L5" s="140"/>
-      <c r="M5" s="140"/>
-      <c r="N5" s="140"/>
-      <c r="O5" s="140"/>
-      <c r="P5" s="140"/>
-      <c r="Q5" s="141"/>
-      <c r="R5" s="139">
+      <c r="L5" s="137"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="137"/>
+      <c r="O5" s="137"/>
+      <c r="P5" s="137"/>
+      <c r="Q5" s="138"/>
+      <c r="R5" s="136">
         <f>R6</f>
         <v>44466</v>
       </c>
-      <c r="S5" s="140"/>
-      <c r="T5" s="140"/>
-      <c r="U5" s="140"/>
-      <c r="V5" s="140"/>
-      <c r="W5" s="140"/>
-      <c r="X5" s="141"/>
-      <c r="Y5" s="139">
+      <c r="S5" s="137"/>
+      <c r="T5" s="137"/>
+      <c r="U5" s="137"/>
+      <c r="V5" s="137"/>
+      <c r="W5" s="137"/>
+      <c r="X5" s="138"/>
+      <c r="Y5" s="136">
         <f>Y6</f>
         <v>44473</v>
       </c>
-      <c r="Z5" s="140"/>
-      <c r="AA5" s="140"/>
-      <c r="AB5" s="140"/>
-      <c r="AC5" s="140"/>
-      <c r="AD5" s="140"/>
-      <c r="AE5" s="141"/>
-      <c r="AF5" s="139">
+      <c r="Z5" s="137"/>
+      <c r="AA5" s="137"/>
+      <c r="AB5" s="137"/>
+      <c r="AC5" s="137"/>
+      <c r="AD5" s="137"/>
+      <c r="AE5" s="138"/>
+      <c r="AF5" s="136">
         <f>AF6</f>
         <v>44480</v>
       </c>
-      <c r="AG5" s="140"/>
-      <c r="AH5" s="140"/>
-      <c r="AI5" s="140"/>
-      <c r="AJ5" s="140"/>
-      <c r="AK5" s="140"/>
-      <c r="AL5" s="141"/>
-      <c r="AM5" s="139">
+      <c r="AG5" s="137"/>
+      <c r="AH5" s="137"/>
+      <c r="AI5" s="137"/>
+      <c r="AJ5" s="137"/>
+      <c r="AK5" s="137"/>
+      <c r="AL5" s="138"/>
+      <c r="AM5" s="136">
         <f>AM6</f>
         <v>44487</v>
       </c>
-      <c r="AN5" s="140"/>
-      <c r="AO5" s="140"/>
-      <c r="AP5" s="140"/>
-      <c r="AQ5" s="140"/>
-      <c r="AR5" s="140"/>
-      <c r="AS5" s="141"/>
-      <c r="AT5" s="139">
+      <c r="AN5" s="137"/>
+      <c r="AO5" s="137"/>
+      <c r="AP5" s="137"/>
+      <c r="AQ5" s="137"/>
+      <c r="AR5" s="137"/>
+      <c r="AS5" s="138"/>
+      <c r="AT5" s="136">
         <f>AT6</f>
         <v>44494</v>
       </c>
-      <c r="AU5" s="140"/>
-      <c r="AV5" s="140"/>
-      <c r="AW5" s="140"/>
-      <c r="AX5" s="140"/>
-      <c r="AY5" s="140"/>
-      <c r="AZ5" s="141"/>
-      <c r="BA5" s="139">
+      <c r="AU5" s="137"/>
+      <c r="AV5" s="137"/>
+      <c r="AW5" s="137"/>
+      <c r="AX5" s="137"/>
+      <c r="AY5" s="137"/>
+      <c r="AZ5" s="138"/>
+      <c r="BA5" s="136">
         <f>BA6</f>
         <v>44501</v>
       </c>
-      <c r="BB5" s="140"/>
-      <c r="BC5" s="140"/>
-      <c r="BD5" s="140"/>
-      <c r="BE5" s="140"/>
-      <c r="BF5" s="140"/>
-      <c r="BG5" s="141"/>
-      <c r="BH5" s="139">
+      <c r="BB5" s="137"/>
+      <c r="BC5" s="137"/>
+      <c r="BD5" s="137"/>
+      <c r="BE5" s="137"/>
+      <c r="BF5" s="137"/>
+      <c r="BG5" s="138"/>
+      <c r="BH5" s="136">
         <f>BH6</f>
         <v>44508</v>
       </c>
-      <c r="BI5" s="140"/>
-      <c r="BJ5" s="140"/>
-      <c r="BK5" s="140"/>
-      <c r="BL5" s="140"/>
-      <c r="BM5" s="140"/>
-      <c r="BN5" s="141"/>
+      <c r="BI5" s="137"/>
+      <c r="BJ5" s="137"/>
+      <c r="BK5" s="137"/>
+      <c r="BL5" s="137"/>
+      <c r="BM5" s="137"/>
+      <c r="BN5" s="138"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6" s="45"/>
@@ -11130,11 +11130,11 @@
       </c>
       <c r="D74" s="98"/>
       <c r="E74" s="75">
-        <v>44483</v>
+        <v>44484</v>
       </c>
       <c r="F74" s="76">
         <f t="shared" ref="F74:F82" si="26">IF(ISBLANK(E74)," - ",IF(G74=0,E74,E74+G74-1))</f>
-        <v>44484</v>
+        <v>44485</v>
       </c>
       <c r="G74" s="58">
         <v>2</v>
@@ -11213,11 +11213,11 @@
       </c>
       <c r="D75" s="98"/>
       <c r="E75" s="75">
-        <v>44483</v>
+        <v>44484</v>
       </c>
       <c r="F75" s="76">
         <f t="shared" si="26"/>
-        <v>44484</v>
+        <v>44485</v>
       </c>
       <c r="G75" s="58">
         <v>2</v>
@@ -11296,11 +11296,11 @@
       </c>
       <c r="D76" s="98"/>
       <c r="E76" s="75">
-        <v>44483</v>
+        <v>44485</v>
       </c>
       <c r="F76" s="76">
         <f t="shared" si="26"/>
-        <v>44484</v>
+        <v>44486</v>
       </c>
       <c r="G76" s="58">
         <v>2</v>
@@ -11379,11 +11379,11 @@
       </c>
       <c r="D77" s="98"/>
       <c r="E77" s="75">
-        <v>44483</v>
+        <v>44485</v>
       </c>
       <c r="F77" s="76">
         <f t="shared" si="26"/>
-        <v>44484</v>
+        <v>44486</v>
       </c>
       <c r="G77" s="58">
         <v>2</v>
@@ -11462,11 +11462,11 @@
       </c>
       <c r="D78" s="98"/>
       <c r="E78" s="75">
-        <v>44483</v>
+        <v>44486</v>
       </c>
       <c r="F78" s="76">
         <f t="shared" si="26"/>
-        <v>44484</v>
+        <v>44487</v>
       </c>
       <c r="G78" s="58">
         <v>2</v>
@@ -11545,11 +11545,11 @@
       </c>
       <c r="D79" s="98"/>
       <c r="E79" s="75">
-        <v>44483</v>
+        <v>44486</v>
       </c>
       <c r="F79" s="76">
         <f t="shared" si="26"/>
-        <v>44484</v>
+        <v>44487</v>
       </c>
       <c r="G79" s="58">
         <v>2</v>
@@ -11628,11 +11628,11 @@
       </c>
       <c r="D80" s="98"/>
       <c r="E80" s="75">
-        <v>44483</v>
+        <v>44487</v>
       </c>
       <c r="F80" s="76">
         <f t="shared" si="26"/>
-        <v>44484</v>
+        <v>44488</v>
       </c>
       <c r="G80" s="58">
         <v>2</v>
@@ -11711,11 +11711,11 @@
       </c>
       <c r="D81" s="98"/>
       <c r="E81" s="75">
-        <v>44483</v>
+        <v>44487</v>
       </c>
       <c r="F81" s="76">
         <f t="shared" si="26"/>
-        <v>44484</v>
+        <v>44488</v>
       </c>
       <c r="G81" s="58">
         <v>2</v>
@@ -11794,14 +11794,14 @@
       </c>
       <c r="D82" s="98"/>
       <c r="E82" s="75">
-        <v>44483</v>
+        <v>44489</v>
       </c>
       <c r="F82" s="76">
         <f t="shared" si="26"/>
-        <v>44484</v>
+        <v>44494</v>
       </c>
       <c r="G82" s="58">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H82" s="59">
         <v>0</v>
@@ -11955,14 +11955,14 @@
       </c>
       <c r="D84" s="98"/>
       <c r="E84" s="75">
-        <v>44485</v>
+        <v>44495</v>
       </c>
       <c r="F84" s="76">
         <f t="shared" si="9"/>
-        <v>44491</v>
+        <v>44502</v>
       </c>
       <c r="G84" s="58">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H84" s="59">
         <v>0</v>
@@ -12038,11 +12038,11 @@
       </c>
       <c r="D85" s="98"/>
       <c r="E85" s="75">
-        <v>44492</v>
+        <v>44503</v>
       </c>
       <c r="F85" s="76">
         <f t="shared" si="9"/>
-        <v>44501</v>
+        <v>44512</v>
       </c>
       <c r="G85" s="58">
         <v>10</v>
@@ -12121,11 +12121,11 @@
       </c>
       <c r="D86" s="98"/>
       <c r="E86" s="75">
-        <v>44492</v>
+        <v>44503</v>
       </c>
       <c r="F86" s="76">
         <f t="shared" si="9"/>
-        <v>44492</v>
+        <v>44503</v>
       </c>
       <c r="G86" s="58">
         <v>1</v>
@@ -12204,11 +12204,11 @@
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="75">
-        <v>44492</v>
+        <v>44503</v>
       </c>
       <c r="F87" s="76">
         <f t="shared" ref="F87:F101" si="28">IF(ISBLANK(E87)," - ",IF(G87=0,E87,E87+G87-1))</f>
-        <v>44492</v>
+        <v>44503</v>
       </c>
       <c r="G87" s="58">
         <v>1</v>
@@ -12287,11 +12287,11 @@
       </c>
       <c r="D88" s="98"/>
       <c r="E88" s="75">
-        <v>44493</v>
+        <v>44504</v>
       </c>
       <c r="F88" s="76">
         <f t="shared" si="28"/>
-        <v>44493</v>
+        <v>44504</v>
       </c>
       <c r="G88" s="58">
         <v>1</v>
@@ -12370,11 +12370,11 @@
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="75">
-        <v>44493</v>
+        <v>44504</v>
       </c>
       <c r="F89" s="76">
         <f t="shared" ref="F89" si="29">IF(ISBLANK(E89)," - ",IF(G89=0,E89,E89+G89-1))</f>
-        <v>44493</v>
+        <v>44504</v>
       </c>
       <c r="G89" s="58">
         <v>1</v>
@@ -12453,11 +12453,11 @@
       </c>
       <c r="D90" s="98"/>
       <c r="E90" s="75">
-        <v>44494</v>
+        <v>44505</v>
       </c>
       <c r="F90" s="76">
         <f t="shared" si="28"/>
-        <v>44494</v>
+        <v>44505</v>
       </c>
       <c r="G90" s="58">
         <v>1</v>
@@ -12536,11 +12536,11 @@
       </c>
       <c r="D91" s="98"/>
       <c r="E91" s="75">
-        <v>44494</v>
+        <v>44505</v>
       </c>
       <c r="F91" s="76">
         <f t="shared" si="28"/>
-        <v>44494</v>
+        <v>44505</v>
       </c>
       <c r="G91" s="58">
         <v>1</v>
@@ -12619,11 +12619,11 @@
       </c>
       <c r="D92" s="98"/>
       <c r="E92" s="75">
-        <v>44495</v>
+        <v>44506</v>
       </c>
       <c r="F92" s="76">
         <f t="shared" si="28"/>
-        <v>44495</v>
+        <v>44506</v>
       </c>
       <c r="G92" s="58">
         <v>1</v>
@@ -12702,11 +12702,11 @@
       </c>
       <c r="D93" s="98"/>
       <c r="E93" s="75">
-        <v>44495</v>
+        <v>44506</v>
       </c>
       <c r="F93" s="76">
         <f t="shared" ref="F93" si="30">IF(ISBLANK(E93)," - ",IF(G93=0,E93,E93+G93-1))</f>
-        <v>44495</v>
+        <v>44506</v>
       </c>
       <c r="G93" s="58">
         <v>1</v>
@@ -12785,11 +12785,11 @@
       </c>
       <c r="D94" s="98"/>
       <c r="E94" s="75">
-        <v>44496</v>
+        <v>44507</v>
       </c>
       <c r="F94" s="76">
         <f t="shared" si="28"/>
-        <v>44496</v>
+        <v>44507</v>
       </c>
       <c r="G94" s="58">
         <v>1</v>
@@ -12868,11 +12868,11 @@
       </c>
       <c r="D95" s="98"/>
       <c r="E95" s="75">
-        <v>44496</v>
+        <v>44507</v>
       </c>
       <c r="F95" s="76">
         <f t="shared" si="28"/>
-        <v>44496</v>
+        <v>44507</v>
       </c>
       <c r="G95" s="58">
         <v>1</v>
@@ -12951,11 +12951,11 @@
       </c>
       <c r="D96" s="98"/>
       <c r="E96" s="75">
-        <v>44497</v>
+        <v>44508</v>
       </c>
       <c r="F96" s="76">
         <f t="shared" si="28"/>
-        <v>44497</v>
+        <v>44508</v>
       </c>
       <c r="G96" s="58">
         <v>1</v>
@@ -13034,11 +13034,11 @@
       </c>
       <c r="D97" s="98"/>
       <c r="E97" s="75">
-        <v>44497</v>
+        <v>44508</v>
       </c>
       <c r="F97" s="76">
         <f t="shared" ref="F97" si="31">IF(ISBLANK(E97)," - ",IF(G97=0,E97,E97+G97-1))</f>
-        <v>44497</v>
+        <v>44508</v>
       </c>
       <c r="G97" s="58">
         <v>1</v>
@@ -13117,11 +13117,11 @@
       </c>
       <c r="D98" s="98"/>
       <c r="E98" s="75">
-        <v>44498</v>
+        <v>44509</v>
       </c>
       <c r="F98" s="76">
         <f t="shared" si="28"/>
-        <v>44498</v>
+        <v>44509</v>
       </c>
       <c r="G98" s="58">
         <v>1</v>
@@ -13201,11 +13201,11 @@
       </c>
       <c r="D99" s="98"/>
       <c r="E99" s="75">
-        <v>44498</v>
+        <v>44509</v>
       </c>
       <c r="F99" s="76">
         <f t="shared" si="28"/>
-        <v>44498</v>
+        <v>44509</v>
       </c>
       <c r="G99" s="58">
         <v>1</v>
@@ -13284,11 +13284,11 @@
       </c>
       <c r="D100" s="98"/>
       <c r="E100" s="75">
-        <v>44499</v>
+        <v>44510</v>
       </c>
       <c r="F100" s="76">
         <f t="shared" si="28"/>
-        <v>44499</v>
+        <v>44510</v>
       </c>
       <c r="G100" s="58">
         <v>1</v>
@@ -13298,7 +13298,7 @@
       </c>
       <c r="I100" s="60">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" s="73"/>
       <c r="K100" s="79"/>
@@ -13368,11 +13368,11 @@
       </c>
       <c r="D101" s="98"/>
       <c r="E101" s="75">
-        <v>44499</v>
+        <v>44510</v>
       </c>
       <c r="F101" s="76">
         <f t="shared" si="28"/>
-        <v>44499</v>
+        <v>44510</v>
       </c>
       <c r="G101" s="58">
         <v>1</v>
@@ -13529,11 +13529,11 @@
       </c>
       <c r="D103" s="98"/>
       <c r="E103" s="75">
-        <v>44500</v>
+        <v>44511</v>
       </c>
       <c r="F103" s="76">
         <f t="shared" si="33"/>
-        <v>44501</v>
+        <v>44512</v>
       </c>
       <c r="G103" s="58">
         <v>2</v>
@@ -13543,7 +13543,7 @@
       </c>
       <c r="I103" s="60">
         <f t="shared" si="34"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J103" s="73"/>
       <c r="K103" s="79"/>
@@ -13613,11 +13613,11 @@
       </c>
       <c r="D104" s="98"/>
       <c r="E104" s="75">
-        <v>44501</v>
+        <v>44512</v>
       </c>
       <c r="F104" s="76">
         <f t="shared" ref="F104" si="35">IF(ISBLANK(E104)," - ",IF(G104=0,E104,E104+G104-1))</f>
-        <v>44502</v>
+        <v>44513</v>
       </c>
       <c r="G104" s="58">
         <v>2</v>
@@ -13627,7 +13627,7 @@
       </c>
       <c r="I104" s="60">
         <f t="shared" ref="I104" si="36">IF(OR(F104=0,E104=0)," - ",NETWORKDAYS(E104,F104))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J104" s="73"/>
       <c r="K104" s="79"/>
@@ -13697,11 +13697,11 @@
       </c>
       <c r="D105" s="98"/>
       <c r="E105" s="75">
-        <v>44502</v>
+        <v>44513</v>
       </c>
       <c r="F105" s="76">
         <f t="shared" ref="F105:F106" si="37">IF(ISBLANK(E105)," - ",IF(G105=0,E105,E105+G105-1))</f>
-        <v>44503</v>
+        <v>44514</v>
       </c>
       <c r="G105" s="58">
         <v>2</v>
@@ -13711,7 +13711,7 @@
       </c>
       <c r="I105" s="60">
         <f t="shared" ref="I105:I106" si="38">IF(OR(F105=0,E105=0)," - ",NETWORKDAYS(E105,F105))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" s="73"/>
       <c r="K105" s="79"/>
@@ -13859,11 +13859,11 @@
       </c>
       <c r="D107" s="98"/>
       <c r="E107" s="75">
-        <v>44503</v>
+        <v>44514</v>
       </c>
       <c r="F107" s="76">
         <f t="shared" ref="F107" si="39">IF(ISBLANK(E107)," - ",IF(G107=0,E107,E107+G107-1))</f>
-        <v>44505</v>
+        <v>44516</v>
       </c>
       <c r="G107" s="58">
         <v>3</v>
@@ -13873,7 +13873,7 @@
       </c>
       <c r="I107" s="60">
         <f t="shared" ref="I107" si="40">IF(OR(F107=0,E107=0)," - ",NETWORKDAYS(E107,F107))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J107" s="73"/>
       <c r="K107" s="79"/>
@@ -13943,11 +13943,11 @@
       </c>
       <c r="D108" s="98"/>
       <c r="E108" s="75">
-        <v>44505</v>
+        <v>44515</v>
       </c>
       <c r="F108" s="76">
         <f t="shared" ref="F108:F112" si="41">IF(ISBLANK(E108)," - ",IF(G108=0,E108,E108+G108-1))</f>
-        <v>44507</v>
+        <v>44517</v>
       </c>
       <c r="G108" s="58">
         <v>3</v>
@@ -13957,7 +13957,7 @@
       </c>
       <c r="I108" s="60">
         <f t="shared" ref="I108:I112" si="42">IF(OR(F108=0,E108=0)," - ",NETWORKDAYS(E108,F108))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J108" s="73"/>
       <c r="K108" s="79"/>
@@ -14350,6 +14350,15 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -14360,15 +14369,6 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H8:H9 H41 H50 H20:H21 H69 H72 H83:H85 H31:H32">

--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BlackDragoon\Desktop\PROJECT\PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F369E720-4641-4FC4-89F1-36397BED46A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23818483-0252-49FA-99B5-BEB6BE63584D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="4215" windowWidth="21585" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -2864,6 +2864,13 @@
     <xf numFmtId="0" fontId="67" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2873,6 +2880,10 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="167" fontId="45" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2881,17 +2892,6 @@
     </xf>
     <xf numFmtId="167" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4879,8 +4879,8 @@
   <dimension ref="A1:BN112"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G80" sqref="G80"/>
+      <pane ySplit="7" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H104" sqref="H104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4908,29 +4908,29 @@
       <c r="E1" s="43"/>
       <c r="F1" s="43"/>
       <c r="I1" s="101"/>
-      <c r="K1" s="139" t="s">
+      <c r="K1" s="133" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="139"/>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="139"/>
-      <c r="S1" s="139"/>
-      <c r="T1" s="139"/>
-      <c r="U1" s="139"/>
-      <c r="V1" s="139"/>
-      <c r="W1" s="139"/>
-      <c r="X1" s="139"/>
-      <c r="Y1" s="139"/>
-      <c r="Z1" s="139"/>
-      <c r="AA1" s="139"/>
-      <c r="AB1" s="139"/>
-      <c r="AC1" s="139"/>
-      <c r="AD1" s="139"/>
-      <c r="AE1" s="139"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="133"/>
+      <c r="S1" s="133"/>
+      <c r="T1" s="133"/>
+      <c r="U1" s="133"/>
+      <c r="V1" s="133"/>
+      <c r="W1" s="133"/>
+      <c r="X1" s="133"/>
+      <c r="Y1" s="133"/>
+      <c r="Z1" s="133"/>
+      <c r="AA1" s="133"/>
+      <c r="AB1" s="133"/>
+      <c r="AC1" s="133"/>
+      <c r="AD1" s="133"/>
+      <c r="AE1" s="133"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
@@ -4975,11 +4975,11 @@
       <c r="B4" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="141">
+      <c r="C4" s="138">
         <v>44460</v>
       </c>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
       <c r="F4" s="82"/>
       <c r="G4" s="85" t="s">
         <v>69</v>
@@ -4989,182 +4989,182 @@
       </c>
       <c r="I4" s="83"/>
       <c r="J4" s="46"/>
-      <c r="K4" s="133" t="str">
+      <c r="K4" s="135" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="134"/>
-      <c r="M4" s="134"/>
-      <c r="N4" s="134"/>
-      <c r="O4" s="134"/>
-      <c r="P4" s="134"/>
-      <c r="Q4" s="135"/>
-      <c r="R4" s="133" t="str">
+      <c r="L4" s="136"/>
+      <c r="M4" s="136"/>
+      <c r="N4" s="136"/>
+      <c r="O4" s="136"/>
+      <c r="P4" s="136"/>
+      <c r="Q4" s="137"/>
+      <c r="R4" s="135" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="134"/>
-      <c r="T4" s="134"/>
-      <c r="U4" s="134"/>
-      <c r="V4" s="134"/>
-      <c r="W4" s="134"/>
-      <c r="X4" s="135"/>
-      <c r="Y4" s="133" t="str">
+      <c r="S4" s="136"/>
+      <c r="T4" s="136"/>
+      <c r="U4" s="136"/>
+      <c r="V4" s="136"/>
+      <c r="W4" s="136"/>
+      <c r="X4" s="137"/>
+      <c r="Y4" s="135" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="134"/>
-      <c r="AA4" s="134"/>
-      <c r="AB4" s="134"/>
-      <c r="AC4" s="134"/>
-      <c r="AD4" s="134"/>
-      <c r="AE4" s="135"/>
-      <c r="AF4" s="133" t="str">
+      <c r="Z4" s="136"/>
+      <c r="AA4" s="136"/>
+      <c r="AB4" s="136"/>
+      <c r="AC4" s="136"/>
+      <c r="AD4" s="136"/>
+      <c r="AE4" s="137"/>
+      <c r="AF4" s="135" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="134"/>
-      <c r="AH4" s="134"/>
-      <c r="AI4" s="134"/>
-      <c r="AJ4" s="134"/>
-      <c r="AK4" s="134"/>
-      <c r="AL4" s="135"/>
-      <c r="AM4" s="133" t="str">
+      <c r="AG4" s="136"/>
+      <c r="AH4" s="136"/>
+      <c r="AI4" s="136"/>
+      <c r="AJ4" s="136"/>
+      <c r="AK4" s="136"/>
+      <c r="AL4" s="137"/>
+      <c r="AM4" s="135" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="134"/>
-      <c r="AO4" s="134"/>
-      <c r="AP4" s="134"/>
-      <c r="AQ4" s="134"/>
-      <c r="AR4" s="134"/>
-      <c r="AS4" s="135"/>
-      <c r="AT4" s="133" t="str">
+      <c r="AN4" s="136"/>
+      <c r="AO4" s="136"/>
+      <c r="AP4" s="136"/>
+      <c r="AQ4" s="136"/>
+      <c r="AR4" s="136"/>
+      <c r="AS4" s="137"/>
+      <c r="AT4" s="135" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="134"/>
-      <c r="AV4" s="134"/>
-      <c r="AW4" s="134"/>
-      <c r="AX4" s="134"/>
-      <c r="AY4" s="134"/>
-      <c r="AZ4" s="135"/>
-      <c r="BA4" s="133" t="str">
+      <c r="AU4" s="136"/>
+      <c r="AV4" s="136"/>
+      <c r="AW4" s="136"/>
+      <c r="AX4" s="136"/>
+      <c r="AY4" s="136"/>
+      <c r="AZ4" s="137"/>
+      <c r="BA4" s="135" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="134"/>
-      <c r="BC4" s="134"/>
-      <c r="BD4" s="134"/>
-      <c r="BE4" s="134"/>
-      <c r="BF4" s="134"/>
-      <c r="BG4" s="135"/>
-      <c r="BH4" s="133" t="str">
+      <c r="BB4" s="136"/>
+      <c r="BC4" s="136"/>
+      <c r="BD4" s="136"/>
+      <c r="BE4" s="136"/>
+      <c r="BF4" s="136"/>
+      <c r="BG4" s="137"/>
+      <c r="BH4" s="135" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="134"/>
-      <c r="BJ4" s="134"/>
-      <c r="BK4" s="134"/>
-      <c r="BL4" s="134"/>
-      <c r="BM4" s="134"/>
-      <c r="BN4" s="135"/>
+      <c r="BI4" s="136"/>
+      <c r="BJ4" s="136"/>
+      <c r="BK4" s="136"/>
+      <c r="BL4" s="136"/>
+      <c r="BM4" s="136"/>
+      <c r="BN4" s="137"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="81"/>
       <c r="B5" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="140" t="s">
+      <c r="C5" s="134" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
       <c r="F5" s="84"/>
       <c r="G5" s="84"/>
       <c r="H5" s="84"/>
       <c r="I5" s="84"/>
       <c r="J5" s="46"/>
-      <c r="K5" s="136">
+      <c r="K5" s="139">
         <f>K6</f>
         <v>44459</v>
       </c>
-      <c r="L5" s="137"/>
-      <c r="M5" s="137"/>
-      <c r="N5" s="137"/>
-      <c r="O5" s="137"/>
-      <c r="P5" s="137"/>
-      <c r="Q5" s="138"/>
-      <c r="R5" s="136">
+      <c r="L5" s="140"/>
+      <c r="M5" s="140"/>
+      <c r="N5" s="140"/>
+      <c r="O5" s="140"/>
+      <c r="P5" s="140"/>
+      <c r="Q5" s="141"/>
+      <c r="R5" s="139">
         <f>R6</f>
         <v>44466</v>
       </c>
-      <c r="S5" s="137"/>
-      <c r="T5" s="137"/>
-      <c r="U5" s="137"/>
-      <c r="V5" s="137"/>
-      <c r="W5" s="137"/>
-      <c r="X5" s="138"/>
-      <c r="Y5" s="136">
+      <c r="S5" s="140"/>
+      <c r="T5" s="140"/>
+      <c r="U5" s="140"/>
+      <c r="V5" s="140"/>
+      <c r="W5" s="140"/>
+      <c r="X5" s="141"/>
+      <c r="Y5" s="139">
         <f>Y6</f>
         <v>44473</v>
       </c>
-      <c r="Z5" s="137"/>
-      <c r="AA5" s="137"/>
-      <c r="AB5" s="137"/>
-      <c r="AC5" s="137"/>
-      <c r="AD5" s="137"/>
-      <c r="AE5" s="138"/>
-      <c r="AF5" s="136">
+      <c r="Z5" s="140"/>
+      <c r="AA5" s="140"/>
+      <c r="AB5" s="140"/>
+      <c r="AC5" s="140"/>
+      <c r="AD5" s="140"/>
+      <c r="AE5" s="141"/>
+      <c r="AF5" s="139">
         <f>AF6</f>
         <v>44480</v>
       </c>
-      <c r="AG5" s="137"/>
-      <c r="AH5" s="137"/>
-      <c r="AI5" s="137"/>
-      <c r="AJ5" s="137"/>
-      <c r="AK5" s="137"/>
-      <c r="AL5" s="138"/>
-      <c r="AM5" s="136">
+      <c r="AG5" s="140"/>
+      <c r="AH5" s="140"/>
+      <c r="AI5" s="140"/>
+      <c r="AJ5" s="140"/>
+      <c r="AK5" s="140"/>
+      <c r="AL5" s="141"/>
+      <c r="AM5" s="139">
         <f>AM6</f>
         <v>44487</v>
       </c>
-      <c r="AN5" s="137"/>
-      <c r="AO5" s="137"/>
-      <c r="AP5" s="137"/>
-      <c r="AQ5" s="137"/>
-      <c r="AR5" s="137"/>
-      <c r="AS5" s="138"/>
-      <c r="AT5" s="136">
+      <c r="AN5" s="140"/>
+      <c r="AO5" s="140"/>
+      <c r="AP5" s="140"/>
+      <c r="AQ5" s="140"/>
+      <c r="AR5" s="140"/>
+      <c r="AS5" s="141"/>
+      <c r="AT5" s="139">
         <f>AT6</f>
         <v>44494</v>
       </c>
-      <c r="AU5" s="137"/>
-      <c r="AV5" s="137"/>
-      <c r="AW5" s="137"/>
-      <c r="AX5" s="137"/>
-      <c r="AY5" s="137"/>
-      <c r="AZ5" s="138"/>
-      <c r="BA5" s="136">
+      <c r="AU5" s="140"/>
+      <c r="AV5" s="140"/>
+      <c r="AW5" s="140"/>
+      <c r="AX5" s="140"/>
+      <c r="AY5" s="140"/>
+      <c r="AZ5" s="141"/>
+      <c r="BA5" s="139">
         <f>BA6</f>
         <v>44501</v>
       </c>
-      <c r="BB5" s="137"/>
-      <c r="BC5" s="137"/>
-      <c r="BD5" s="137"/>
-      <c r="BE5" s="137"/>
-      <c r="BF5" s="137"/>
-      <c r="BG5" s="138"/>
-      <c r="BH5" s="136">
+      <c r="BB5" s="140"/>
+      <c r="BC5" s="140"/>
+      <c r="BD5" s="140"/>
+      <c r="BE5" s="140"/>
+      <c r="BF5" s="140"/>
+      <c r="BG5" s="141"/>
+      <c r="BH5" s="139">
         <f>BH6</f>
         <v>44508</v>
       </c>
-      <c r="BI5" s="137"/>
-      <c r="BJ5" s="137"/>
-      <c r="BK5" s="137"/>
-      <c r="BL5" s="137"/>
-      <c r="BM5" s="137"/>
-      <c r="BN5" s="138"/>
+      <c r="BI5" s="140"/>
+      <c r="BJ5" s="140"/>
+      <c r="BK5" s="140"/>
+      <c r="BL5" s="140"/>
+      <c r="BM5" s="140"/>
+      <c r="BN5" s="141"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6" s="45"/>
@@ -10642,7 +10642,7 @@
         <v>2</v>
       </c>
       <c r="H68" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" s="60">
         <v>0</v>
@@ -10725,7 +10725,7 @@
         <v>2</v>
       </c>
       <c r="H69" s="59">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I69" s="60">
         <v>0</v>
@@ -10891,7 +10891,7 @@
         <v>2</v>
       </c>
       <c r="H71" s="59">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I71" s="60">
         <v>0</v>
@@ -10974,7 +10974,7 @@
         <v>2</v>
       </c>
       <c r="H72" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" s="60">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>2</v>
       </c>
       <c r="H73" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" s="60">
         <v>0</v>
@@ -11140,7 +11140,7 @@
         <v>2</v>
       </c>
       <c r="H74" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" s="60">
         <v>0</v>
@@ -11223,7 +11223,7 @@
         <v>2</v>
       </c>
       <c r="H75" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" s="60">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>2</v>
       </c>
       <c r="H76" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" s="60">
         <v>0</v>
@@ -11389,7 +11389,7 @@
         <v>2</v>
       </c>
       <c r="H77" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" s="60">
         <v>0</v>
@@ -11472,7 +11472,7 @@
         <v>2</v>
       </c>
       <c r="H78" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" s="60">
         <v>0</v>
@@ -11555,7 +11555,7 @@
         <v>2</v>
       </c>
       <c r="H79" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" s="60">
         <v>0</v>
@@ -11638,7 +11638,7 @@
         <v>2</v>
       </c>
       <c r="H80" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" s="60">
         <v>0</v>
@@ -11721,7 +11721,7 @@
         <v>2</v>
       </c>
       <c r="H81" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" s="60">
         <v>0</v>
@@ -11804,7 +11804,7 @@
         <v>6</v>
       </c>
       <c r="H82" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" s="60">
         <v>0</v>
@@ -11965,7 +11965,7 @@
         <v>8</v>
       </c>
       <c r="H84" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" s="60">
         <v>0</v>
@@ -12048,7 +12048,7 @@
         <v>10</v>
       </c>
       <c r="H85" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" s="60">
         <v>0</v>
@@ -12131,7 +12131,7 @@
         <v>1</v>
       </c>
       <c r="H86" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" s="60">
         <v>0</v>
@@ -12214,7 +12214,7 @@
         <v>1</v>
       </c>
       <c r="H87" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" s="60">
         <v>0</v>
@@ -12297,7 +12297,7 @@
         <v>1</v>
       </c>
       <c r="H88" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" s="60">
         <v>0</v>
@@ -12380,7 +12380,7 @@
         <v>1</v>
       </c>
       <c r="H89" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" s="60">
         <v>0</v>
@@ -12463,7 +12463,7 @@
         <v>1</v>
       </c>
       <c r="H90" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" s="60">
         <v>0</v>
@@ -12546,7 +12546,7 @@
         <v>1</v>
       </c>
       <c r="H91" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" s="60">
         <v>0</v>
@@ -12629,7 +12629,7 @@
         <v>1</v>
       </c>
       <c r="H92" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" s="60">
         <v>0</v>
@@ -12712,7 +12712,7 @@
         <v>1</v>
       </c>
       <c r="H93" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" s="60">
         <v>0</v>
@@ -12795,7 +12795,7 @@
         <v>1</v>
       </c>
       <c r="H94" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" s="60">
         <v>0</v>
@@ -12878,7 +12878,7 @@
         <v>1</v>
       </c>
       <c r="H95" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" s="60">
         <v>0</v>
@@ -12961,7 +12961,7 @@
         <v>1</v>
       </c>
       <c r="H96" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" s="60">
         <v>0</v>
@@ -13044,7 +13044,7 @@
         <v>1</v>
       </c>
       <c r="H97" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" s="60">
         <v>0</v>
@@ -13127,7 +13127,7 @@
         <v>1</v>
       </c>
       <c r="H98" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" s="60">
         <f t="shared" ref="I98:I100" si="32">IF(OR(F98=0,E98=0)," - ",NETWORKDAYS(E98,F98))</f>
@@ -13211,7 +13211,7 @@
         <v>1</v>
       </c>
       <c r="H99" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" s="60">
         <v>0</v>
@@ -13294,7 +13294,7 @@
         <v>1</v>
       </c>
       <c r="H100" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" s="60">
         <f t="shared" si="32"/>
@@ -13378,7 +13378,7 @@
         <v>1</v>
       </c>
       <c r="H101" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" s="60">
         <v>0</v>
@@ -14350,15 +14350,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -14369,6 +14360,15 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H8:H9 H41 H50 H20:H21 H69 H72 H83:H85 H31:H32">
@@ -16152,7 +16152,7 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="E20 E31 E83 G20:H20 G31:H31 G83:H83 H85 H84" unlockedFormula="1"/>
+    <ignoredError sqref="E20 E31 E83 G20:H20 G31:H31 G83:H83" unlockedFormula="1"/>
     <ignoredError sqref="A83 A31 A20" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
